--- a/物料索引.xlsx
+++ b/物料索引.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Cadence LIB\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{2970512B-55D2-4093-BAE0-CEEB6D0539F5}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5604" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="28695" windowHeight="14070"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,19 +16,18 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>zxiat</author>
   </authors>
   <commentList>
-    <comment ref="A2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="A2" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>zxiat:</t>
@@ -43,7 +36,6 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -59,14 +51,13 @@
         </r>
       </text>
     </comment>
-    <comment ref="A3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
+    <comment ref="A3" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>zxiat:</t>
@@ -75,7 +66,6 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -98,7 +88,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="457" uniqueCount="293">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296">
   <si>
     <t>物料编码</t>
   </si>
@@ -346,6 +336,9 @@
     <t>贴片钽电容，47uF，10%，35V耐压，7343</t>
   </si>
   <si>
+    <t>C7343</t>
+  </si>
+  <si>
     <t>C2107K28010A</t>
   </si>
   <si>
@@ -448,6 +441,12 @@
     <t>300V</t>
   </si>
   <si>
+    <t>F881_AO</t>
+  </si>
+  <si>
+    <t>TC33X-2-103E</t>
+  </si>
+  <si>
     <t>TC33系列，3mm，3端可调电阻，10K，250ppm/℃</t>
   </si>
   <si>
@@ -490,6 +489,9 @@
     <t>MOVs_14MM</t>
   </si>
   <si>
+    <t>SDR0604-330KL</t>
+  </si>
+  <si>
     <t>33uH，0.88A，250m欧</t>
   </si>
   <si>
@@ -523,12 +525,21 @@
     <t>Taiyo Yuden</t>
   </si>
   <si>
+    <t>NRS6045T330MMGKV</t>
+  </si>
+  <si>
     <t>电感，33uH，1.4A，141m欧姆，6x6</t>
   </si>
   <si>
     <t>1.4A</t>
   </si>
   <si>
+    <t xml:space="preserve">SRR1208-220ML </t>
+  </si>
+  <si>
+    <t>电感，22uH，3.5A，43m欧姆，12.5x12.5</t>
+  </si>
+  <si>
     <t>22uH</t>
   </si>
   <si>
@@ -559,13 +570,22 @@
     <t>SS11H-CH</t>
   </si>
   <si>
+    <t>B340A_13_F</t>
+  </si>
+  <si>
+    <t>肖特基二极管</t>
+  </si>
+  <si>
+    <t>二极管</t>
+  </si>
+  <si>
+    <t>DIODES</t>
+  </si>
+  <si>
     <t>PDS760-13</t>
   </si>
   <si>
-    <t>二极管</t>
-  </si>
-  <si>
-    <t>DIODES</t>
+    <t>肖特基二极管，Vr=60V，Vrrms=42V，Ir=6uA, Io=7A，Vf=0.5V</t>
   </si>
   <si>
     <t>D_7x1</t>
@@ -589,18 +609,145 @@
     <t>PNP三级管</t>
   </si>
   <si>
+    <t>SC62</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>R</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>OHM</t>
+    </r>
+  </si>
+  <si>
+    <t>BSS138</t>
+  </si>
+  <si>
     <t>NMOS管</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>M</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>OS管</t>
+    </r>
+  </si>
+  <si>
+    <t>sot-23</t>
+  </si>
+  <si>
+    <t>sot_23_m</t>
+  </si>
+  <si>
     <t>MIC94052</t>
   </si>
   <si>
     <t>PMOS管</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>s</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>c70</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>M</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ICREL</t>
+    </r>
+  </si>
+  <si>
+    <t>SC88_SC70-6_SOT-363</t>
+  </si>
+  <si>
+    <t>NUP4202W1</t>
+  </si>
+  <si>
     <t>TVS保护芯片，通用</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>O</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>N</t>
+    </r>
+  </si>
+  <si>
+    <t>ESD5384</t>
+  </si>
+  <si>
+    <t>TVS保护芯片，HDMI用，0.4mmBGA</t>
+  </si>
+  <si>
+    <t>esd5384</t>
+  </si>
+  <si>
     <t>0208.500MXP</t>
   </si>
   <si>
@@ -646,6 +793,39 @@
     <t>RAC60-SB</t>
   </si>
   <si>
+    <t xml:space="preserve">TXC 7A晶体 </t>
+  </si>
+  <si>
+    <t>8-54MHz</t>
+  </si>
+  <si>
+    <t>石英晶体</t>
+  </si>
+  <si>
+    <t>5032</t>
+  </si>
+  <si>
+    <t>TXC</t>
+  </si>
+  <si>
+    <t>XTAL_2P_5032</t>
+  </si>
+  <si>
+    <t>TXC 9HT10 晶体</t>
+  </si>
+  <si>
+    <t>32.768Khz</t>
+  </si>
+  <si>
+    <t>晶体</t>
+  </si>
+  <si>
+    <t>3215</t>
+  </si>
+  <si>
+    <t>XTAL_2P_3215</t>
+  </si>
+  <si>
     <t>LM340S-5.0/NOPB</t>
   </si>
   <si>
@@ -700,15 +880,30 @@
     <t>TSSOP-16_FEBB</t>
   </si>
   <si>
+    <t>MIC39102BM</t>
+  </si>
+  <si>
     <t>R_8</t>
   </si>
   <si>
+    <t>MIC5309-1.2YD6</t>
+  </si>
+  <si>
+    <t>sot23_6</t>
+  </si>
+  <si>
     <t>MAX13487EE</t>
   </si>
   <si>
     <t>自动换向 TTL转RS485,5V VCC</t>
   </si>
   <si>
+    <t>SOIC_8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AP2331W-7 </t>
+  </si>
+  <si>
     <t>电源开关</t>
   </si>
   <si>
@@ -724,24 +919,48 @@
     <t>RTC时钟芯片</t>
   </si>
   <si>
+    <t>usop_8</t>
+  </si>
+  <si>
     <t>IP1001</t>
   </si>
   <si>
     <t>千兆PHY芯片</t>
   </si>
   <si>
+    <t>QFN64p_0</t>
+  </si>
+  <si>
+    <t>KSZ8895MLX</t>
+  </si>
+  <si>
     <t>百兆交换芯片</t>
   </si>
   <si>
+    <t>lqfp_14x14_128ld</t>
+  </si>
+  <si>
     <t>LAN9512</t>
   </si>
   <si>
+    <t>USB HUB+USB2ETH</t>
+  </si>
+  <si>
+    <t>IC</t>
+  </si>
+  <si>
+    <t>MICROCHIP</t>
+  </si>
+  <si>
     <t>H5004</t>
   </si>
   <si>
     <t>网络变压器，4通道</t>
   </si>
   <si>
+    <t>h5004_7</t>
+  </si>
+  <si>
     <t>MT7620_MODULE_SOCKET</t>
   </si>
   <si>
@@ -751,15 +970,39 @@
     <t>mt7620a_core</t>
   </si>
   <si>
+    <t>RJ45网口变压器</t>
+  </si>
+  <si>
+    <t>RJ45,8P8C,百兆口，无变压器，180度</t>
+  </si>
+  <si>
+    <t>RJ45</t>
+  </si>
+  <si>
+    <t>CONNFLY</t>
+  </si>
+  <si>
+    <t>RJ45_3_05_CONNFLY</t>
+  </si>
+  <si>
+    <t>https://item.szlcsc.com/87756.html</t>
+  </si>
+  <si>
+    <t>RJ45,8P8C,5x百兆口，无变压器，90度</t>
+  </si>
+  <si>
+    <t>RJ45_5XHP</t>
+  </si>
+  <si>
+    <t>https://item.szlcsc.com/87760.html</t>
+  </si>
+  <si>
     <t>13F-60FGYDPNW2</t>
   </si>
   <si>
     <t>RJ45，百兆接口，内置变压器，LED 2个</t>
   </si>
   <si>
-    <t>RJ45</t>
-  </si>
-  <si>
     <t>RJ45_13F_60FGYx</t>
   </si>
   <si>
@@ -769,12 +1012,27 @@
     <t>RJ45，千兆接口，内置变压器，LED 2个</t>
   </si>
   <si>
+    <t>hr911130c</t>
+  </si>
+  <si>
+    <t>USB_A-F</t>
+  </si>
+  <si>
+    <t>USB A型母座 单个，侧插；http://item.szlcsc.com/26978.html</t>
+  </si>
+  <si>
+    <t>USB-AF</t>
+  </si>
+  <si>
     <t>DDR2 SODIMM</t>
   </si>
   <si>
     <t xml:space="preserve">DDR2 SODIMM 200PIN </t>
   </si>
   <si>
+    <t>fci_10033853_cm</t>
+  </si>
+  <si>
     <t>VBAT_20MM</t>
   </si>
   <si>
@@ -784,175 +1042,45 @@
     <t>HDMI_A_19p</t>
   </si>
   <si>
+    <t>HDMI A型 座, 贴片；http://item.szlcsc.com/180097.html</t>
+  </si>
+  <si>
     <t>DIN41612_96P</t>
   </si>
   <si>
     <t>396 96pin欧式连接器弯针母座</t>
   </si>
   <si>
-    <t>F881_AO</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>C7343</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>NRS6045T330MMGKV</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>电感，22uH，3.5A，43m欧姆，12.5x12.5</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">SRR1208-220ML </t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>SDR0604-330KL</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>肖特基二极管，Vr=60V，Vrrms=42V，Ir=6uA, Io=7A，Vf=0.5V</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>B340A_13_F</t>
-  </si>
-  <si>
-    <t>肖特基二极管</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>IC</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>MICROCHIP</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>QFN64p_0</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>USB HUB+USB2ETH</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>TC33X-2-103E</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>TXC</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>XTAL_2P_5032</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">TXC 7A晶体 </t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>8-54MHz</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>石英晶体</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>5032</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>TXC 9HT10 晶体</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>32.768Khz</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>晶体</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>3215</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>XTAL_2P_3215</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>MIC39102BM</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>MIC5309-1.2YD6</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>sot23_6</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>SOIC_8</t>
-  </si>
-  <si>
-    <t>esd5384</t>
-  </si>
-  <si>
-    <t>TVS保护芯片，HDMI用，0.4mmBGA</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">AP2331W-7 </t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>sot_23_m</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>usop_8</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>KSZ8895MLX</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>lqfp_14x14_128ld</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>h5004_7</t>
-  </si>
-  <si>
-    <t>QFN64p_0</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>SOIC_8</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>SC88_SC70-6_SOT-363</t>
-  </si>
-  <si>
-    <t>NUP4202W1</t>
-  </si>
-  <si>
-    <t>SC88_SC70-6_SOT-363</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>DIN41612_96P_MALE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> / DIN41612_96P_FEMALE</t>
+    </r>
+  </si>
+  <si>
+    <t>TFCard</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>TF卡座，</t>
     </r>
     <r>
@@ -960,177 +1088,26 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> http://item.szlcsc.com/114441.html</t>
     </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>TFCard</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>tf-015</t>
-  </si>
-  <si>
-    <r>
-      <t>M</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>OS管</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>DIODES</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>sot-23</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>BSS138</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>sot_23_m</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>s</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>c70</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>M</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ICREL</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>O</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>N</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>ESD5384</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>SC62</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>R</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>OHM</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>HDMI A型 座, 贴片；http://item.szlcsc.com/180097.html</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>USB A型母座 单个，侧插；http://item.szlcsc.com/26978.html</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>USB-AF</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>USB_A-F</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>DIN41612_96P_MALE</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> / DIN41612_96P_FEMALE</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>fci_10033853_cm</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>hr911130c</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1139,35 +1116,158 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="9"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1176,12 +1276,198 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999389629810485"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -1204,20 +1490,259 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="31" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1">
@@ -1226,6 +1751,9 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -1241,24 +1769,71 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="10" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1545,33 +2120,34 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L152"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:L156"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A31" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I35" sqref="I35"/>
+      <pane ySplit="3" topLeftCell="A58" activePane="bottomLeft" state="frozen"/>
+      <selection/>
+      <selection pane="bottomLeft" activeCell="E80" sqref="E80"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="18" style="3" customWidth="1"/>
-    <col min="2" max="2" width="18.21875" style="3" customWidth="1"/>
-    <col min="3" max="3" width="27" style="4" customWidth="1"/>
-    <col min="4" max="4" width="9" style="3"/>
-    <col min="5" max="5" width="10.88671875" style="3" customWidth="1"/>
-    <col min="6" max="9" width="9" style="3"/>
-    <col min="10" max="11" width="11.88671875" style="3" customWidth="1"/>
-    <col min="12" max="12" width="9" style="3"/>
-    <col min="13" max="16384" width="9" style="2"/>
+    <col min="1" max="1" width="18" style="2" customWidth="1"/>
+    <col min="2" max="2" width="18.2166666666667" style="2" customWidth="1"/>
+    <col min="3" max="3" width="27" style="3" customWidth="1"/>
+    <col min="4" max="4" width="9" style="2"/>
+    <col min="5" max="5" width="10.8833333333333" style="2" customWidth="1"/>
+    <col min="6" max="9" width="9" style="2"/>
+    <col min="10" max="11" width="11.8833333333333" style="2" customWidth="1"/>
+    <col min="12" max="12" width="9" style="2"/>
+    <col min="13" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" s="1" customFormat="1" ht="18" customHeight="1" spans="1:12">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -1609,7 +2185,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" ht="18" customHeight="1" spans="1:12">
       <c r="A2" s="7" t="s">
         <v>12</v>
       </c>
@@ -1643,7 +2219,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" ht="18" customHeight="1" spans="1:12">
       <c r="A3" s="7" t="s">
         <v>21</v>
       </c>
@@ -1677,7 +2253,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" customFormat="1" ht="18" customHeight="1" spans="1:12">
       <c r="A4" s="7"/>
       <c r="B4" s="7"/>
       <c r="C4" s="8"/>
@@ -1691,7 +2267,7 @@
       <c r="K4" s="7"/>
       <c r="L4" s="7"/>
     </row>
-    <row r="5" spans="1:12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" customFormat="1" ht="18" customHeight="1" spans="1:12">
       <c r="A5" s="7"/>
       <c r="B5" s="7"/>
       <c r="C5" s="8"/>
@@ -1705,7 +2281,7 @@
       <c r="K5" s="7"/>
       <c r="L5" s="7"/>
     </row>
-    <row r="6" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" ht="18" customHeight="1" spans="1:12">
       <c r="A6" s="7" t="s">
         <v>30</v>
       </c>
@@ -1739,7 +2315,7 @@
       <c r="K6" s="7"/>
       <c r="L6" s="7"/>
     </row>
-    <row r="7" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" ht="18" customHeight="1" spans="1:12">
       <c r="A7" s="7" t="s">
         <v>38</v>
       </c>
@@ -1773,7 +2349,7 @@
       <c r="K7" s="7"/>
       <c r="L7" s="7"/>
     </row>
-    <row r="8" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" ht="18" customHeight="1" spans="1:12">
       <c r="A8" s="7" t="s">
         <v>42</v>
       </c>
@@ -1807,7 +2383,7 @@
       <c r="K8" s="7"/>
       <c r="L8" s="7"/>
     </row>
-    <row r="9" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" ht="18" customHeight="1" spans="1:12">
       <c r="A9" s="7" t="s">
         <v>45</v>
       </c>
@@ -1841,7 +2417,7 @@
       <c r="K9" s="7"/>
       <c r="L9" s="7"/>
     </row>
-    <row r="10" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" ht="18" customHeight="1" spans="1:12">
       <c r="A10" s="7" t="s">
         <v>50</v>
       </c>
@@ -1875,7 +2451,7 @@
       <c r="K10" s="7"/>
       <c r="L10" s="7"/>
     </row>
-    <row r="11" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" ht="18" customHeight="1" spans="1:12">
       <c r="A11" s="7" t="s">
         <v>53</v>
       </c>
@@ -1909,7 +2485,7 @@
       <c r="K11" s="7"/>
       <c r="L11" s="7"/>
     </row>
-    <row r="12" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" ht="18" customHeight="1" spans="1:12">
       <c r="A12" s="7" t="s">
         <v>57</v>
       </c>
@@ -1943,7 +2519,7 @@
       <c r="K12" s="7"/>
       <c r="L12" s="7"/>
     </row>
-    <row r="13" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" ht="18" customHeight="1" spans="1:12">
       <c r="A13" s="7" t="s">
         <v>62</v>
       </c>
@@ -1977,7 +2553,7 @@
       <c r="K13" s="7"/>
       <c r="L13" s="7"/>
     </row>
-    <row r="14" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" ht="18" customHeight="1" spans="1:12">
       <c r="A14" s="7" t="s">
         <v>66</v>
       </c>
@@ -2011,7 +2587,7 @@
       <c r="K14" s="7"/>
       <c r="L14" s="7"/>
     </row>
-    <row r="15" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" ht="18" customHeight="1" spans="1:12">
       <c r="A15" s="7" t="s">
         <v>69</v>
       </c>
@@ -2045,7 +2621,7 @@
       <c r="K15" s="7"/>
       <c r="L15" s="7"/>
     </row>
-    <row r="16" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" ht="18" customHeight="1" spans="1:12">
       <c r="A16" s="7" t="s">
         <v>72</v>
       </c>
@@ -2079,7 +2655,7 @@
       <c r="K16" s="7"/>
       <c r="L16" s="7"/>
     </row>
-    <row r="17" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" ht="18" customHeight="1" spans="1:12">
       <c r="A17" s="7" t="s">
         <v>76</v>
       </c>
@@ -2113,7 +2689,7 @@
       <c r="K17" s="7"/>
       <c r="L17" s="7"/>
     </row>
-    <row r="18" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" ht="18" customHeight="1" spans="1:12">
       <c r="A18" s="7" t="s">
         <v>79</v>
       </c>
@@ -2145,19 +2721,19 @@
         <v>37</v>
       </c>
       <c r="K18" s="9" t="s">
-        <v>231</v>
+        <v>82</v>
       </c>
       <c r="L18" s="7"/>
     </row>
-    <row r="19" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" ht="18" customHeight="1" spans="1:12">
       <c r="A19" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B19" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D19" s="7" t="s">
         <v>24</v>
@@ -2166,7 +2742,7 @@
         <v>33</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G19" s="7" t="s">
         <v>49</v>
@@ -2183,15 +2759,15 @@
       <c r="K19" s="9"/>
       <c r="L19" s="7"/>
     </row>
-    <row r="20" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" ht="18" customHeight="1" spans="1:12">
       <c r="A20" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D20" s="7" t="s">
         <v>24</v>
@@ -2200,13 +2776,13 @@
         <v>33</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H20" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="I20" s="7" t="s">
         <v>36</v>
@@ -2217,107 +2793,107 @@
       <c r="K20" s="9"/>
       <c r="L20" s="7"/>
     </row>
-    <row r="21" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" ht="18" customHeight="1" spans="1:12">
       <c r="A21" s="7"/>
       <c r="B21" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D21" s="7"/>
       <c r="E21" s="9" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G21" s="7" t="s">
         <v>60</v>
       </c>
       <c r="H21" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="I21" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="J21" s="9" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="K21" s="9" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="L21" s="7"/>
     </row>
-    <row r="22" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" ht="18" customHeight="1" spans="1:12">
       <c r="A22" s="7"/>
       <c r="B22" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D22" s="7" t="s">
         <v>24</v>
       </c>
       <c r="E22" s="9" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G22" s="7" t="s">
         <v>60</v>
       </c>
       <c r="H22" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="I22" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="J22" s="9" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="K22" s="9" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="L22" s="7"/>
     </row>
-    <row r="23" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" ht="18" customHeight="1" spans="1:12">
       <c r="A23" s="7"/>
       <c r="B23" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D23" s="7" t="s">
         <v>24</v>
       </c>
       <c r="E23" s="9" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="G23" s="7" t="s">
         <v>60</v>
       </c>
       <c r="H23" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="I23" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="J23" s="9" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="K23" s="9" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="L23" s="7"/>
     </row>
-    <row r="24" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" ht="18" customHeight="1" spans="1:12">
       <c r="A24" s="7"/>
       <c r="B24" s="7"/>
       <c r="C24" s="8"/>
@@ -2331,75 +2907,75 @@
       <c r="K24" s="9"/>
       <c r="L24" s="7"/>
     </row>
-    <row r="25" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" ht="18" customHeight="1" spans="1:12">
       <c r="A25" s="7"/>
       <c r="B25" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D25" s="7" t="s">
         <v>24</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="H25" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="I25" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="J25" s="9" t="s">
         <v>37</v>
       </c>
       <c r="K25" s="9" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="L25" s="7"/>
     </row>
-    <row r="26" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" ht="18" customHeight="1" spans="1:12">
       <c r="A26" s="7"/>
       <c r="B26" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D26" s="7" t="s">
         <v>24</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="H26" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="I26" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="J26" s="9" t="s">
         <v>37</v>
       </c>
       <c r="K26" s="9" t="s">
-        <v>230</v>
+        <v>117</v>
       </c>
       <c r="L26" s="7"/>
     </row>
-    <row r="27" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" ht="18" customHeight="1" spans="1:12">
       <c r="A27" s="7"/>
       <c r="B27" s="7"/>
       <c r="C27" s="8"/>
@@ -2413,35 +2989,35 @@
       <c r="K27" s="7"/>
       <c r="L27" s="7"/>
     </row>
-    <row r="28" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" ht="18" customHeight="1" spans="1:12">
       <c r="A28" s="7"/>
       <c r="B28" s="7" t="s">
-        <v>243</v>
+        <v>118</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="D28" s="7"/>
       <c r="E28" s="7" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="G28" s="7"/>
       <c r="H28" s="7"/>
       <c r="I28" s="7" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="L28" s="7"/>
     </row>
-    <row r="29" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" ht="18" customHeight="1" spans="1:12">
       <c r="A29" s="7"/>
       <c r="B29" s="7"/>
       <c r="C29" s="8"/>
@@ -2455,39 +3031,39 @@
       <c r="K29" s="7"/>
       <c r="L29" s="7"/>
     </row>
-    <row r="30" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" ht="18" customHeight="1" spans="1:12">
       <c r="A30" s="7"/>
       <c r="B30" s="7" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="D30" s="7" t="s">
         <v>24</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="H30" s="7"/>
       <c r="I30" s="7" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="J30" s="9" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="K30" s="9" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="L30" s="7"/>
     </row>
-    <row r="31" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" ht="18" customHeight="1" spans="1:12">
       <c r="A31" s="7"/>
       <c r="B31" s="7"/>
       <c r="C31" s="8"/>
@@ -2501,165 +3077,165 @@
       <c r="K31" s="7"/>
       <c r="L31" s="7"/>
     </row>
-    <row r="32" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" ht="18" customHeight="1" spans="1:12">
       <c r="A32" s="7"/>
       <c r="B32" s="10" t="s">
-        <v>235</v>
+        <v>133</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="D32" s="7" t="s">
         <v>24</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="H32" s="7"/>
       <c r="I32" s="7" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="J32" s="8" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="K32" s="8" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="L32" s="7"/>
     </row>
-    <row r="33" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" ht="18" customHeight="1" spans="1:12">
       <c r="A33" s="7"/>
       <c r="B33" s="7" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="C33" s="8" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="D33" s="7" t="s">
         <v>24</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="H33" s="7"/>
       <c r="I33" s="7" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="J33" s="8" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="K33" s="8" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="L33" s="7"/>
     </row>
-    <row r="34" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" ht="18" customHeight="1" spans="1:12">
       <c r="A34" s="7"/>
       <c r="B34" s="7" t="s">
-        <v>232</v>
+        <v>145</v>
       </c>
       <c r="C34" s="8" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="D34" s="7" t="s">
         <v>24</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="H34" s="7"/>
       <c r="I34" s="7" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="J34" s="8" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="K34" s="8" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="L34" s="7"/>
     </row>
-    <row r="35" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" ht="18" customHeight="1" spans="1:12">
       <c r="A35" s="7"/>
       <c r="B35" s="7" t="s">
-        <v>234</v>
+        <v>148</v>
       </c>
       <c r="C35" s="8" t="s">
-        <v>233</v>
+        <v>149</v>
       </c>
       <c r="D35" s="7" t="s">
         <v>24</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="H35" s="7"/>
       <c r="I35" s="7" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="J35" s="8" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="K35" s="8" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="L35" s="7"/>
     </row>
-    <row r="36" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" ht="18" customHeight="1" spans="1:12">
       <c r="A36" s="7"/>
       <c r="B36" s="7" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="C36" s="8" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="D36" s="7" t="s">
         <v>24</v>
       </c>
       <c r="E36" s="8" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="G36" s="7"/>
       <c r="H36" s="7"/>
       <c r="I36" s="7" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
       <c r="J36" s="9" t="s">
         <v>37</v>
       </c>
       <c r="K36" s="9" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
       <c r="L36" s="7"/>
     </row>
-    <row r="37" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" ht="18" customHeight="1" spans="1:12">
       <c r="A37" s="7"/>
       <c r="B37" s="7"/>
       <c r="C37" s="8"/>
@@ -2673,79 +3249,79 @@
       <c r="K37" s="7"/>
       <c r="L37" s="7"/>
     </row>
-    <row r="38" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" ht="18" customHeight="1" spans="1:12">
       <c r="A38" s="7"/>
       <c r="B38" s="7" t="s">
-        <v>237</v>
+        <v>160</v>
       </c>
       <c r="C38" s="11" t="s">
-        <v>238</v>
+        <v>161</v>
       </c>
       <c r="D38" s="7"/>
       <c r="E38" s="7" t="s">
-        <v>154</v>
+        <v>162</v>
       </c>
       <c r="F38" s="7"/>
       <c r="G38" s="7"/>
       <c r="H38" s="7"/>
       <c r="I38" s="7"/>
       <c r="J38" s="7" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
       <c r="K38" s="7"/>
       <c r="L38" s="7"/>
     </row>
-    <row r="39" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" ht="18" customHeight="1" spans="1:12">
       <c r="A39" s="7"/>
       <c r="B39" s="7" t="s">
-        <v>153</v>
+        <v>164</v>
       </c>
       <c r="C39" s="11" t="s">
-        <v>236</v>
+        <v>165</v>
       </c>
       <c r="D39" s="7" t="s">
         <v>24</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>154</v>
+        <v>162</v>
       </c>
       <c r="F39" s="7"/>
       <c r="G39" s="7"/>
       <c r="H39" s="7"/>
       <c r="I39" s="7"/>
       <c r="J39" s="7" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>156</v>
+        <v>166</v>
       </c>
       <c r="L39" s="7"/>
     </row>
-    <row r="40" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" ht="18" customHeight="1" spans="1:12">
       <c r="A40" s="7"/>
       <c r="B40" s="7" t="s">
-        <v>157</v>
+        <v>167</v>
       </c>
       <c r="C40" s="8" t="s">
-        <v>158</v>
+        <v>168</v>
       </c>
       <c r="D40" s="7"/>
       <c r="E40" s="7" t="s">
-        <v>154</v>
+        <v>162</v>
       </c>
       <c r="F40" s="7"/>
       <c r="G40" s="7"/>
       <c r="H40" s="7"/>
       <c r="I40" s="7" t="s">
-        <v>159</v>
+        <v>169</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="K40" s="7"/>
       <c r="L40" s="7"/>
     </row>
-    <row r="41" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" ht="18" customHeight="1" spans="1:12">
       <c r="A41" s="7"/>
       <c r="B41" s="7"/>
       <c r="C41" s="8"/>
@@ -2759,13 +3335,13 @@
       <c r="K41" s="7"/>
       <c r="L41" s="7"/>
     </row>
-    <row r="42" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" ht="18" customHeight="1" spans="1:12">
       <c r="A42" s="7"/>
       <c r="B42" s="7" t="s">
-        <v>161</v>
+        <v>171</v>
       </c>
       <c r="C42" s="8" t="s">
-        <v>162</v>
+        <v>172</v>
       </c>
       <c r="D42" s="7"/>
       <c r="E42" s="7"/>
@@ -2773,49 +3349,49 @@
       <c r="G42" s="7"/>
       <c r="H42" s="7"/>
       <c r="I42" s="10" t="s">
-        <v>284</v>
+        <v>173</v>
       </c>
       <c r="J42" s="10" t="s">
-        <v>285</v>
+        <v>174</v>
       </c>
       <c r="K42" s="10" t="s">
-        <v>284</v>
+        <v>173</v>
       </c>
       <c r="L42" s="7"/>
     </row>
-    <row r="43" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" ht="18" customHeight="1" spans="1:12">
       <c r="A43" s="7"/>
       <c r="B43" s="10" t="s">
-        <v>278</v>
+        <v>175</v>
       </c>
       <c r="C43" s="8" t="s">
-        <v>163</v>
+        <v>176</v>
       </c>
       <c r="D43" s="7"/>
       <c r="E43" s="10" t="s">
-        <v>275</v>
+        <v>177</v>
       </c>
       <c r="F43" s="7"/>
       <c r="G43" s="7"/>
       <c r="H43" s="7"/>
       <c r="I43" s="10" t="s">
-        <v>277</v>
+        <v>178</v>
       </c>
       <c r="J43" s="10" t="s">
-        <v>276</v>
+        <v>163</v>
       </c>
       <c r="K43" s="10" t="s">
-        <v>279</v>
+        <v>179</v>
       </c>
       <c r="L43" s="7"/>
     </row>
-    <row r="44" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" ht="18" customHeight="1" spans="1:12">
       <c r="A44" s="7"/>
       <c r="B44" s="7" t="s">
-        <v>164</v>
+        <v>180</v>
       </c>
       <c r="C44" s="8" t="s">
-        <v>165</v>
+        <v>181</v>
       </c>
       <c r="D44" s="7"/>
       <c r="E44" s="7"/>
@@ -2823,17 +3399,17 @@
       <c r="G44" s="7"/>
       <c r="H44" s="7"/>
       <c r="I44" s="10" t="s">
-        <v>280</v>
+        <v>182</v>
       </c>
       <c r="J44" s="10" t="s">
-        <v>281</v>
+        <v>183</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>269</v>
+        <v>184</v>
       </c>
       <c r="L44" s="7"/>
     </row>
-    <row r="45" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" ht="18" customHeight="1" spans="1:12">
       <c r="A45" s="7"/>
       <c r="B45" s="7"/>
       <c r="C45" s="8"/>
@@ -2847,13 +3423,13 @@
       <c r="K45" s="7"/>
       <c r="L45" s="7"/>
     </row>
-    <row r="46" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" ht="18" customHeight="1" spans="1:12">
       <c r="A46" s="7"/>
       <c r="B46" s="7" t="s">
-        <v>270</v>
+        <v>185</v>
       </c>
       <c r="C46" s="8" t="s">
-        <v>166</v>
+        <v>186</v>
       </c>
       <c r="D46" s="7"/>
       <c r="E46" s="7"/>
@@ -2862,20 +3438,20 @@
       <c r="H46" s="7"/>
       <c r="I46" s="7"/>
       <c r="J46" s="10" t="s">
-        <v>282</v>
+        <v>187</v>
       </c>
       <c r="K46" s="10" t="s">
-        <v>271</v>
+        <v>184</v>
       </c>
       <c r="L46" s="7"/>
     </row>
-    <row r="47" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" ht="18" customHeight="1" spans="1:12">
       <c r="A47" s="7"/>
       <c r="B47" s="10" t="s">
-        <v>283</v>
+        <v>188</v>
       </c>
       <c r="C47" s="8" t="s">
-        <v>260</v>
+        <v>189</v>
       </c>
       <c r="D47" s="7"/>
       <c r="E47" s="7"/>
@@ -2884,14 +3460,14 @@
       <c r="H47" s="7"/>
       <c r="I47" s="7"/>
       <c r="J47" s="10" t="s">
-        <v>282</v>
+        <v>187</v>
       </c>
       <c r="K47" s="7" t="s">
-        <v>259</v>
+        <v>190</v>
       </c>
       <c r="L47" s="7"/>
     </row>
-    <row r="48" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" ht="18" customHeight="1" spans="1:12">
       <c r="A48" s="7"/>
       <c r="B48" s="7"/>
       <c r="C48" s="8"/>
@@ -2905,67 +3481,67 @@
       <c r="K48" s="7"/>
       <c r="L48" s="7"/>
     </row>
-    <row r="49" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" ht="18" customHeight="1" spans="1:12">
       <c r="A49" s="7"/>
       <c r="B49" s="7" t="s">
-        <v>167</v>
+        <v>191</v>
       </c>
       <c r="C49" s="8" t="s">
-        <v>168</v>
+        <v>192</v>
       </c>
       <c r="D49" s="7" t="s">
         <v>24</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>169</v>
+        <v>193</v>
       </c>
       <c r="F49" s="7" t="s">
-        <v>170</v>
+        <v>194</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>171</v>
+        <v>195</v>
       </c>
       <c r="H49" s="7"/>
       <c r="I49" s="7" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="J49" s="9" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="K49" s="9" t="s">
-        <v>172</v>
+        <v>196</v>
       </c>
       <c r="L49" s="7"/>
     </row>
-    <row r="50" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" ht="18" customHeight="1" spans="1:12">
       <c r="A50" s="7"/>
       <c r="B50" s="7" t="s">
-        <v>173</v>
+        <v>197</v>
       </c>
       <c r="C50" s="8" t="s">
-        <v>174</v>
+        <v>198</v>
       </c>
       <c r="D50" s="7" t="s">
         <v>24</v>
       </c>
       <c r="E50" s="8" t="s">
-        <v>174</v>
+        <v>198</v>
       </c>
       <c r="F50" s="7"/>
       <c r="G50" s="7"/>
       <c r="H50" s="7"/>
       <c r="I50" s="7" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="J50" s="9" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="K50" s="9" t="s">
-        <v>172</v>
+        <v>196</v>
       </c>
       <c r="L50" s="7"/>
     </row>
-    <row r="51" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" ht="18" customHeight="1" spans="1:12">
       <c r="A51" s="7"/>
       <c r="B51" s="7"/>
       <c r="C51" s="8"/>
@@ -2979,37 +3555,37 @@
       <c r="K51" s="7"/>
       <c r="L51" s="7"/>
     </row>
-    <row r="52" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" ht="18" customHeight="1" spans="1:12">
       <c r="A52" s="7"/>
       <c r="B52" s="7" t="s">
-        <v>175</v>
+        <v>199</v>
       </c>
       <c r="C52" s="8" t="s">
-        <v>176</v>
+        <v>200</v>
       </c>
       <c r="D52" s="7" t="s">
         <v>24</v>
       </c>
       <c r="E52" s="7" t="s">
-        <v>177</v>
+        <v>201</v>
       </c>
       <c r="F52" s="7" t="s">
-        <v>178</v>
+        <v>202</v>
       </c>
       <c r="G52" s="7"/>
       <c r="H52" s="7"/>
       <c r="I52" s="7" t="s">
-        <v>179</v>
+        <v>203</v>
       </c>
       <c r="J52" s="7" t="s">
-        <v>180</v>
+        <v>204</v>
       </c>
       <c r="K52" s="7" t="s">
-        <v>181</v>
+        <v>205</v>
       </c>
       <c r="L52" s="7"/>
     </row>
-    <row r="53" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" ht="18" customHeight="1" spans="1:12">
       <c r="A53" s="7"/>
       <c r="B53" s="7"/>
       <c r="C53" s="8"/>
@@ -3023,57 +3599,57 @@
       <c r="K53" s="7"/>
       <c r="L53" s="7"/>
     </row>
-    <row r="54" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" ht="18" customHeight="1" spans="1:12">
       <c r="A54" s="7"/>
       <c r="B54" s="7" t="s">
-        <v>246</v>
+        <v>206</v>
       </c>
       <c r="C54" s="8" t="s">
-        <v>247</v>
+        <v>207</v>
       </c>
       <c r="D54" s="7"/>
       <c r="E54" s="7" t="s">
-        <v>248</v>
+        <v>208</v>
       </c>
       <c r="F54" s="7"/>
       <c r="G54" s="7"/>
       <c r="H54" s="7"/>
       <c r="I54" s="7" t="s">
-        <v>249</v>
+        <v>209</v>
       </c>
       <c r="J54" s="7" t="s">
-        <v>244</v>
+        <v>210</v>
       </c>
       <c r="K54" s="7" t="s">
-        <v>245</v>
+        <v>211</v>
       </c>
       <c r="L54" s="7"/>
     </row>
-    <row r="55" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" ht="18" customHeight="1" spans="1:12">
       <c r="A55" s="7"/>
       <c r="B55" s="7" t="s">
-        <v>250</v>
+        <v>212</v>
       </c>
       <c r="C55" s="8" t="s">
-        <v>251</v>
+        <v>213</v>
       </c>
       <c r="D55" s="7"/>
       <c r="E55" s="7" t="s">
-        <v>252</v>
+        <v>214</v>
       </c>
       <c r="F55" s="7"/>
       <c r="G55" s="7"/>
       <c r="H55" s="7"/>
       <c r="I55" s="7" t="s">
-        <v>253</v>
+        <v>215</v>
       </c>
       <c r="J55" s="7"/>
       <c r="K55" s="7" t="s">
-        <v>254</v>
+        <v>216</v>
       </c>
       <c r="L55" s="7"/>
     </row>
-    <row r="56" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" ht="18" customHeight="1" spans="1:12">
       <c r="A56" s="7"/>
       <c r="B56" s="7"/>
       <c r="C56" s="8"/>
@@ -3087,13 +3663,13 @@
       <c r="K56" s="7"/>
       <c r="L56" s="7"/>
     </row>
-    <row r="57" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" ht="18" customHeight="1" spans="1:12">
       <c r="A57" s="7"/>
       <c r="B57" s="7" t="s">
-        <v>182</v>
+        <v>217</v>
       </c>
       <c r="C57" s="8" t="s">
-        <v>183</v>
+        <v>218</v>
       </c>
       <c r="D57" s="7"/>
       <c r="E57" s="7"/>
@@ -3101,21 +3677,21 @@
       <c r="G57" s="7"/>
       <c r="H57" s="7"/>
       <c r="I57" s="7" t="s">
-        <v>184</v>
+        <v>219</v>
       </c>
       <c r="J57" s="7"/>
       <c r="K57" s="7" t="s">
-        <v>185</v>
+        <v>220</v>
       </c>
       <c r="L57" s="7"/>
     </row>
-    <row r="58" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" ht="18" customHeight="1" spans="1:12">
       <c r="A58" s="7"/>
       <c r="B58" s="7" t="s">
-        <v>186</v>
+        <v>221</v>
       </c>
       <c r="C58" s="8" t="s">
-        <v>187</v>
+        <v>222</v>
       </c>
       <c r="D58" s="7"/>
       <c r="E58" s="7"/>
@@ -3123,15 +3699,15 @@
       <c r="G58" s="7"/>
       <c r="H58" s="7"/>
       <c r="I58" s="7" t="s">
-        <v>188</v>
+        <v>223</v>
       </c>
       <c r="J58" s="7"/>
       <c r="K58" s="10" t="s">
-        <v>262</v>
+        <v>179</v>
       </c>
       <c r="L58" s="7"/>
     </row>
-    <row r="59" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" ht="18" customHeight="1" spans="1:12">
       <c r="A59" s="7"/>
       <c r="B59" s="7"/>
       <c r="C59" s="8"/>
@@ -3145,45 +3721,45 @@
       <c r="K59" s="7"/>
       <c r="L59" s="7"/>
     </row>
-    <row r="60" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" ht="18" customHeight="1" spans="1:12">
       <c r="A60" s="7"/>
       <c r="B60" s="7" t="s">
-        <v>189</v>
+        <v>224</v>
       </c>
       <c r="C60" s="8" t="s">
-        <v>190</v>
+        <v>225</v>
       </c>
       <c r="D60" s="7" t="s">
         <v>24</v>
       </c>
       <c r="E60" s="7" t="s">
-        <v>190</v>
+        <v>225</v>
       </c>
       <c r="F60" s="7"/>
       <c r="G60" s="7"/>
       <c r="H60" s="7"/>
       <c r="I60" s="7" t="s">
-        <v>191</v>
+        <v>226</v>
       </c>
       <c r="J60" s="7" t="s">
-        <v>192</v>
+        <v>227</v>
       </c>
       <c r="K60" s="7" t="s">
-        <v>193</v>
+        <v>228</v>
       </c>
       <c r="L60" s="7"/>
     </row>
-    <row r="61" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" ht="18" customHeight="1" spans="1:12">
       <c r="A61" s="7"/>
       <c r="B61" s="7" t="s">
-        <v>194</v>
+        <v>229</v>
       </c>
       <c r="C61" s="8" t="s">
-        <v>190</v>
+        <v>225</v>
       </c>
       <c r="D61" s="7"/>
       <c r="E61" s="7" t="s">
-        <v>190</v>
+        <v>225</v>
       </c>
       <c r="F61" s="7"/>
       <c r="G61" s="7"/>
@@ -3191,49 +3767,49 @@
       <c r="I61" s="7"/>
       <c r="J61" s="7"/>
       <c r="K61" s="7" t="s">
-        <v>195</v>
+        <v>230</v>
       </c>
       <c r="L61" s="7"/>
     </row>
-    <row r="62" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" ht="18" customHeight="1" spans="1:12">
       <c r="A62" s="7"/>
       <c r="B62" s="7" t="s">
-        <v>196</v>
+        <v>231</v>
       </c>
       <c r="C62" s="8" t="s">
-        <v>197</v>
+        <v>232</v>
       </c>
       <c r="D62" s="7" t="s">
         <v>24</v>
       </c>
       <c r="E62" s="7" t="s">
-        <v>197</v>
+        <v>232</v>
       </c>
       <c r="F62" s="7"/>
       <c r="G62" s="7"/>
       <c r="H62" s="7"/>
       <c r="I62" s="7" t="s">
-        <v>198</v>
+        <v>233</v>
       </c>
       <c r="J62" s="7" t="s">
-        <v>192</v>
+        <v>227</v>
       </c>
       <c r="K62" s="7" t="s">
-        <v>199</v>
+        <v>234</v>
       </c>
       <c r="L62" s="7"/>
     </row>
-    <row r="63" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" ht="18" customHeight="1" spans="1:12">
       <c r="A63" s="7"/>
       <c r="B63" s="7" t="s">
-        <v>255</v>
+        <v>235</v>
       </c>
       <c r="C63" s="8" t="s">
-        <v>197</v>
+        <v>232</v>
       </c>
       <c r="D63" s="7"/>
       <c r="E63" s="8" t="s">
-        <v>197</v>
+        <v>232</v>
       </c>
       <c r="F63" s="7"/>
       <c r="G63" s="7"/>
@@ -3241,21 +3817,21 @@
       <c r="I63" s="7"/>
       <c r="J63" s="7"/>
       <c r="K63" s="7" t="s">
-        <v>200</v>
+        <v>236</v>
       </c>
       <c r="L63" s="7"/>
     </row>
-    <row r="64" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" ht="18" customHeight="1" spans="1:12">
       <c r="A64" s="7"/>
       <c r="B64" s="7" t="s">
-        <v>256</v>
+        <v>237</v>
       </c>
       <c r="C64" s="8" t="s">
-        <v>197</v>
+        <v>232</v>
       </c>
       <c r="D64" s="7"/>
       <c r="E64" s="8" t="s">
-        <v>197</v>
+        <v>232</v>
       </c>
       <c r="F64" s="7"/>
       <c r="G64" s="7"/>
@@ -3263,11 +3839,11 @@
       <c r="I64" s="7"/>
       <c r="J64" s="7"/>
       <c r="K64" s="7" t="s">
-        <v>257</v>
+        <v>238</v>
       </c>
       <c r="L64" s="7"/>
     </row>
-    <row r="65" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" ht="18" customHeight="1" spans="1:12">
       <c r="A65" s="7"/>
       <c r="B65" s="7"/>
       <c r="C65" s="8"/>
@@ -3281,13 +3857,13 @@
       <c r="K65" s="7"/>
       <c r="L65" s="7"/>
     </row>
-    <row r="66" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" ht="18" customHeight="1" spans="1:12">
       <c r="A66" s="7"/>
       <c r="B66" s="7" t="s">
-        <v>201</v>
+        <v>239</v>
       </c>
       <c r="C66" s="8" t="s">
-        <v>202</v>
+        <v>240</v>
       </c>
       <c r="D66" s="7"/>
       <c r="E66" s="7"/>
@@ -3297,17 +3873,17 @@
       <c r="I66" s="7"/>
       <c r="J66" s="7"/>
       <c r="K66" s="7" t="s">
-        <v>258</v>
+        <v>241</v>
       </c>
       <c r="L66" s="7"/>
     </row>
-    <row r="67" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" ht="18" customHeight="1" spans="1:12">
       <c r="A67" s="7"/>
       <c r="B67" s="7" t="s">
-        <v>261</v>
+        <v>242</v>
       </c>
       <c r="C67" s="8" t="s">
-        <v>203</v>
+        <v>243</v>
       </c>
       <c r="D67" s="7"/>
       <c r="E67" s="7"/>
@@ -3317,17 +3893,17 @@
       <c r="I67" s="7"/>
       <c r="J67" s="7"/>
       <c r="K67" s="10" t="s">
-        <v>262</v>
+        <v>179</v>
       </c>
       <c r="L67" s="7"/>
     </row>
-    <row r="68" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" ht="18" customHeight="1" spans="1:12">
       <c r="A68" s="7"/>
       <c r="B68" s="7" t="s">
-        <v>204</v>
+        <v>244</v>
       </c>
       <c r="C68" s="8" t="s">
-        <v>205</v>
+        <v>245</v>
       </c>
       <c r="D68" s="7"/>
       <c r="E68" s="7"/>
@@ -3336,17 +3912,17 @@
       <c r="H68" s="7"/>
       <c r="I68" s="7"/>
       <c r="K68" s="10" t="s">
-        <v>268</v>
+        <v>241</v>
       </c>
       <c r="L68" s="7"/>
     </row>
-    <row r="69" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" ht="18" customHeight="1" spans="1:12">
       <c r="A69" s="7"/>
       <c r="B69" s="7" t="s">
-        <v>206</v>
+        <v>246</v>
       </c>
       <c r="C69" s="8" t="s">
-        <v>207</v>
+        <v>247</v>
       </c>
       <c r="D69" s="7"/>
       <c r="E69" s="7"/>
@@ -3356,17 +3932,17 @@
       <c r="I69" s="7"/>
       <c r="J69" s="7"/>
       <c r="K69" s="10" t="s">
-        <v>263</v>
+        <v>248</v>
       </c>
       <c r="L69" s="7"/>
     </row>
-    <row r="70" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" ht="18" customHeight="1" spans="1:12">
       <c r="A70" s="7"/>
       <c r="B70" s="7" t="s">
-        <v>208</v>
+        <v>249</v>
       </c>
       <c r="C70" s="8" t="s">
-        <v>209</v>
+        <v>250</v>
       </c>
       <c r="D70" s="7"/>
       <c r="E70" s="7"/>
@@ -3376,17 +3952,17 @@
       <c r="I70" s="7"/>
       <c r="J70" s="7"/>
       <c r="K70" s="10" t="s">
-        <v>267</v>
+        <v>251</v>
       </c>
       <c r="L70" s="7"/>
     </row>
-    <row r="71" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" ht="18" customHeight="1" spans="1:12">
       <c r="A71" s="7"/>
       <c r="B71" s="10" t="s">
-        <v>264</v>
+        <v>252</v>
       </c>
       <c r="C71" s="8" t="s">
-        <v>210</v>
+        <v>253</v>
       </c>
       <c r="D71" s="7"/>
       <c r="E71" s="7"/>
@@ -3396,41 +3972,41 @@
       <c r="I71" s="7"/>
       <c r="J71" s="7"/>
       <c r="K71" s="10" t="s">
-        <v>265</v>
+        <v>254</v>
       </c>
       <c r="L71" s="7"/>
     </row>
-    <row r="72" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" ht="18" customHeight="1" spans="1:12">
       <c r="A72" s="7"/>
       <c r="B72" s="7" t="s">
-        <v>211</v>
+        <v>255</v>
       </c>
       <c r="C72" s="8" t="s">
-        <v>242</v>
+        <v>256</v>
       </c>
       <c r="D72" s="7"/>
       <c r="E72" s="7" t="s">
-        <v>239</v>
+        <v>257</v>
       </c>
       <c r="F72" s="7"/>
       <c r="G72" s="7"/>
       <c r="H72" s="7"/>
       <c r="I72" s="7"/>
       <c r="J72" s="7" t="s">
-        <v>240</v>
+        <v>258</v>
       </c>
       <c r="K72" s="7" t="s">
-        <v>241</v>
+        <v>251</v>
       </c>
       <c r="L72" s="7"/>
     </row>
-    <row r="73" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" ht="18" customHeight="1" spans="1:12">
       <c r="A73" s="7"/>
       <c r="B73" s="7" t="s">
-        <v>212</v>
+        <v>259</v>
       </c>
       <c r="C73" s="8" t="s">
-        <v>213</v>
+        <v>260</v>
       </c>
       <c r="D73" s="7"/>
       <c r="E73" s="7"/>
@@ -3440,11 +4016,11 @@
       <c r="I73" s="7"/>
       <c r="J73" s="7"/>
       <c r="K73" s="7" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="L73" s="7"/>
     </row>
-    <row r="74" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" ht="18" customHeight="1" spans="1:12">
       <c r="A74" s="7"/>
       <c r="B74" s="7"/>
       <c r="C74" s="8"/>
@@ -3458,13 +4034,13 @@
       <c r="K74" s="7"/>
       <c r="L74" s="7"/>
     </row>
-    <row r="75" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" ht="18" customHeight="1" spans="1:12">
       <c r="A75" s="7"/>
       <c r="B75" s="7" t="s">
-        <v>214</v>
+        <v>262</v>
       </c>
       <c r="C75" s="8" t="s">
-        <v>215</v>
+        <v>263</v>
       </c>
       <c r="D75" s="7"/>
       <c r="E75" s="7"/>
@@ -3474,11 +4050,11 @@
       <c r="I75" s="7"/>
       <c r="J75" s="7"/>
       <c r="K75" s="7" t="s">
-        <v>216</v>
+        <v>264</v>
       </c>
       <c r="L75" s="7"/>
     </row>
-    <row r="76" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" ht="18" customHeight="1" spans="1:12">
       <c r="A76" s="7"/>
       <c r="B76" s="7"/>
       <c r="C76" s="8"/>
@@ -3492,104 +4068,112 @@
       <c r="K76" s="7"/>
       <c r="L76" s="7"/>
     </row>
-    <row r="77" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" ht="18" customHeight="1" spans="1:12">
       <c r="A77" s="7"/>
       <c r="B77" s="7" t="s">
-        <v>217</v>
+        <v>265</v>
       </c>
       <c r="C77" s="8" t="s">
-        <v>218</v>
+        <v>266</v>
       </c>
       <c r="D77" s="7"/>
       <c r="E77" s="7" t="s">
-        <v>219</v>
+        <v>267</v>
       </c>
       <c r="F77" s="7"/>
       <c r="G77" s="7"/>
       <c r="H77" s="7"/>
       <c r="I77" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="J77" s="7"/>
+        <v>267</v>
+      </c>
+      <c r="J77" s="7" t="s">
+        <v>268</v>
+      </c>
       <c r="K77" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="L77" s="7"/>
-    </row>
-    <row r="78" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+        <v>269</v>
+      </c>
+      <c r="L77" s="12" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="78" ht="18" customHeight="1" spans="1:12">
       <c r="A78" s="7"/>
       <c r="B78" s="7" t="s">
-        <v>221</v>
+        <v>265</v>
       </c>
       <c r="C78" s="8" t="s">
-        <v>222</v>
+        <v>271</v>
       </c>
       <c r="D78" s="7"/>
-      <c r="E78" s="7" t="s">
-        <v>219</v>
-      </c>
+      <c r="E78" s="7"/>
       <c r="F78" s="7"/>
       <c r="G78" s="7"/>
       <c r="H78" s="7"/>
       <c r="I78" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="J78" s="7"/>
+        <v>267</v>
+      </c>
+      <c r="J78" s="7" t="s">
+        <v>268</v>
+      </c>
       <c r="K78" s="7" t="s">
-        <v>292</v>
-      </c>
-      <c r="L78" s="7"/>
-    </row>
-    <row r="79" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+        <v>272</v>
+      </c>
+      <c r="L78" s="12" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="79" ht="18" customHeight="1" spans="1:12">
       <c r="A79" s="7"/>
-      <c r="B79" s="10" t="s">
-        <v>289</v>
-      </c>
-      <c r="C79" s="11" t="s">
-        <v>287</v>
+      <c r="B79" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="C79" s="8" t="s">
+        <v>275</v>
       </c>
       <c r="D79" s="7"/>
-      <c r="E79" s="7"/>
+      <c r="E79" s="7" t="s">
+        <v>267</v>
+      </c>
       <c r="F79" s="7"/>
       <c r="G79" s="7"/>
       <c r="H79" s="7"/>
-      <c r="I79" s="10" t="s">
-        <v>288</v>
+      <c r="I79" s="7" t="s">
+        <v>267</v>
       </c>
       <c r="J79" s="7"/>
-      <c r="K79" s="10" t="s">
-        <v>288</v>
+      <c r="K79" s="7" t="s">
+        <v>276</v>
       </c>
       <c r="L79" s="7"/>
     </row>
-    <row r="80" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" ht="18" customHeight="1" spans="1:12">
       <c r="A80" s="7"/>
       <c r="B80" s="7" t="s">
-        <v>223</v>
+        <v>277</v>
       </c>
       <c r="C80" s="8" t="s">
-        <v>224</v>
+        <v>278</v>
       </c>
       <c r="D80" s="7"/>
-      <c r="E80" s="7"/>
+      <c r="E80" s="7" t="s">
+        <v>267</v>
+      </c>
       <c r="F80" s="7"/>
       <c r="G80" s="7"/>
       <c r="H80" s="7"/>
-      <c r="I80" s="7"/>
+      <c r="I80" s="7" t="s">
+        <v>267</v>
+      </c>
       <c r="J80" s="7"/>
-      <c r="K80" s="10" t="s">
-        <v>291</v>
+      <c r="K80" s="7" t="s">
+        <v>279</v>
       </c>
       <c r="L80" s="7"/>
     </row>
-    <row r="81" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" ht="18" customHeight="1" spans="1:12">
       <c r="A81" s="7"/>
-      <c r="B81" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="C81" s="8" t="s">
-        <v>226</v>
-      </c>
+      <c r="B81" s="7"/>
+      <c r="C81" s="8"/>
       <c r="D81" s="7"/>
       <c r="E81" s="7"/>
       <c r="F81" s="7"/>
@@ -3600,14 +4184,10 @@
       <c r="K81" s="7"/>
       <c r="L81" s="7"/>
     </row>
-    <row r="82" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" ht="18" customHeight="1" spans="1:12">
       <c r="A82" s="7"/>
-      <c r="B82" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="C82" s="11" t="s">
-        <v>286</v>
-      </c>
+      <c r="B82" s="7"/>
+      <c r="C82" s="8"/>
       <c r="D82" s="7"/>
       <c r="E82" s="7"/>
       <c r="F82" s="7"/>
@@ -3615,57 +4195,59 @@
       <c r="H82" s="7"/>
       <c r="I82" s="7"/>
       <c r="J82" s="7"/>
-      <c r="K82" s="7" t="s">
-        <v>227</v>
-      </c>
+      <c r="K82" s="7"/>
       <c r="L82" s="7"/>
     </row>
-    <row r="83" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" ht="18" customHeight="1" spans="1:12">
       <c r="A83" s="7"/>
-      <c r="B83" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="C83" s="8" t="s">
-        <v>229</v>
+      <c r="B83" s="10" t="s">
+        <v>280</v>
+      </c>
+      <c r="C83" s="11" t="s">
+        <v>281</v>
       </c>
       <c r="D83" s="7"/>
       <c r="E83" s="7"/>
       <c r="F83" s="7"/>
       <c r="G83" s="7"/>
       <c r="H83" s="7"/>
-      <c r="I83" s="7"/>
+      <c r="I83" s="10" t="s">
+        <v>282</v>
+      </c>
       <c r="J83" s="7"/>
       <c r="K83" s="10" t="s">
-        <v>290</v>
+        <v>282</v>
       </c>
       <c r="L83" s="7"/>
     </row>
-    <row r="84" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" ht="18" customHeight="1" spans="1:12">
       <c r="A84" s="7"/>
-      <c r="B84" s="10" t="s">
-        <v>273</v>
-      </c>
-      <c r="C84" s="11" t="s">
-        <v>272</v>
+      <c r="B84" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="C84" s="8" t="s">
+        <v>284</v>
       </c>
       <c r="D84" s="7"/>
       <c r="E84" s="7"/>
       <c r="F84" s="7"/>
       <c r="G84" s="7"/>
       <c r="H84" s="7"/>
-      <c r="I84" s="7" t="s">
-        <v>274</v>
-      </c>
+      <c r="I84" s="7"/>
       <c r="J84" s="7"/>
-      <c r="K84" s="7" t="s">
-        <v>274</v>
+      <c r="K84" s="10" t="s">
+        <v>285</v>
       </c>
       <c r="L84" s="7"/>
     </row>
-    <row r="85" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" ht="18" customHeight="1" spans="1:12">
       <c r="A85" s="7"/>
-      <c r="B85" s="7"/>
-      <c r="C85" s="8"/>
+      <c r="B85" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="C85" s="8" t="s">
+        <v>287</v>
+      </c>
       <c r="D85" s="7"/>
       <c r="E85" s="7"/>
       <c r="F85" s="7"/>
@@ -3676,10 +4258,14 @@
       <c r="K85" s="7"/>
       <c r="L85" s="7"/>
     </row>
-    <row r="86" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" ht="18" customHeight="1" spans="1:12">
       <c r="A86" s="7"/>
-      <c r="B86" s="7"/>
-      <c r="C86" s="8"/>
+      <c r="B86" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="C86" s="11" t="s">
+        <v>289</v>
+      </c>
       <c r="D86" s="7"/>
       <c r="E86" s="7"/>
       <c r="F86" s="7"/>
@@ -3687,13 +4273,19 @@
       <c r="H86" s="7"/>
       <c r="I86" s="7"/>
       <c r="J86" s="7"/>
-      <c r="K86" s="7"/>
+      <c r="K86" s="7" t="s">
+        <v>288</v>
+      </c>
       <c r="L86" s="7"/>
     </row>
-    <row r="87" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" ht="18" customHeight="1" spans="1:12">
       <c r="A87" s="7"/>
-      <c r="B87" s="7"/>
-      <c r="C87" s="8"/>
+      <c r="B87" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="C87" s="8" t="s">
+        <v>291</v>
+      </c>
       <c r="D87" s="7"/>
       <c r="E87" s="7"/>
       <c r="F87" s="7"/>
@@ -3701,24 +4293,34 @@
       <c r="H87" s="7"/>
       <c r="I87" s="7"/>
       <c r="J87" s="7"/>
-      <c r="K87" s="7"/>
+      <c r="K87" s="10" t="s">
+        <v>292</v>
+      </c>
       <c r="L87" s="7"/>
     </row>
-    <row r="88" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" ht="18" customHeight="1" spans="1:12">
       <c r="A88" s="7"/>
-      <c r="B88" s="7"/>
-      <c r="C88" s="8"/>
+      <c r="B88" s="10" t="s">
+        <v>293</v>
+      </c>
+      <c r="C88" s="11" t="s">
+        <v>294</v>
+      </c>
       <c r="D88" s="7"/>
       <c r="E88" s="7"/>
       <c r="F88" s="7"/>
       <c r="G88" s="7"/>
       <c r="H88" s="7"/>
-      <c r="I88" s="7"/>
+      <c r="I88" s="7" t="s">
+        <v>295</v>
+      </c>
       <c r="J88" s="7"/>
-      <c r="K88" s="7"/>
+      <c r="K88" s="7" t="s">
+        <v>295</v>
+      </c>
       <c r="L88" s="7"/>
     </row>
-    <row r="89" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" ht="18" customHeight="1" spans="1:12">
       <c r="A89" s="7"/>
       <c r="B89" s="7"/>
       <c r="C89" s="8"/>
@@ -3732,7 +4334,7 @@
       <c r="K89" s="7"/>
       <c r="L89" s="7"/>
     </row>
-    <row r="90" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" ht="18" customHeight="1" spans="1:12">
       <c r="A90" s="7"/>
       <c r="B90" s="7"/>
       <c r="C90" s="8"/>
@@ -3746,7 +4348,7 @@
       <c r="K90" s="7"/>
       <c r="L90" s="7"/>
     </row>
-    <row r="91" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" ht="18" customHeight="1" spans="1:12">
       <c r="A91" s="7"/>
       <c r="B91" s="7"/>
       <c r="C91" s="8"/>
@@ -3760,7 +4362,7 @@
       <c r="K91" s="7"/>
       <c r="L91" s="7"/>
     </row>
-    <row r="92" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" ht="18" customHeight="1" spans="1:12">
       <c r="A92" s="7"/>
       <c r="B92" s="7"/>
       <c r="C92" s="8"/>
@@ -3774,7 +4376,7 @@
       <c r="K92" s="7"/>
       <c r="L92" s="7"/>
     </row>
-    <row r="93" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" ht="18" customHeight="1" spans="1:12">
       <c r="A93" s="7"/>
       <c r="B93" s="7"/>
       <c r="C93" s="8"/>
@@ -3788,7 +4390,7 @@
       <c r="K93" s="7"/>
       <c r="L93" s="7"/>
     </row>
-    <row r="94" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" ht="18" customHeight="1" spans="1:12">
       <c r="A94" s="7"/>
       <c r="B94" s="7"/>
       <c r="C94" s="8"/>
@@ -3802,7 +4404,7 @@
       <c r="K94" s="7"/>
       <c r="L94" s="7"/>
     </row>
-    <row r="95" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" ht="18" customHeight="1" spans="1:12">
       <c r="A95" s="7"/>
       <c r="B95" s="7"/>
       <c r="C95" s="8"/>
@@ -3816,7 +4418,7 @@
       <c r="K95" s="7"/>
       <c r="L95" s="7"/>
     </row>
-    <row r="96" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" ht="18" customHeight="1" spans="1:12">
       <c r="A96" s="7"/>
       <c r="B96" s="7"/>
       <c r="C96" s="8"/>
@@ -3830,7 +4432,7 @@
       <c r="K96" s="7"/>
       <c r="L96" s="7"/>
     </row>
-    <row r="97" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" ht="18" customHeight="1" spans="1:12">
       <c r="A97" s="7"/>
       <c r="B97" s="7"/>
       <c r="C97" s="8"/>
@@ -3844,7 +4446,7 @@
       <c r="K97" s="7"/>
       <c r="L97" s="7"/>
     </row>
-    <row r="98" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" ht="18" customHeight="1" spans="1:12">
       <c r="A98" s="7"/>
       <c r="B98" s="7"/>
       <c r="C98" s="8"/>
@@ -3858,7 +4460,7 @@
       <c r="K98" s="7"/>
       <c r="L98" s="7"/>
     </row>
-    <row r="99" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" ht="18" customHeight="1" spans="1:12">
       <c r="A99" s="7"/>
       <c r="B99" s="7"/>
       <c r="C99" s="8"/>
@@ -3872,7 +4474,7 @@
       <c r="K99" s="7"/>
       <c r="L99" s="7"/>
     </row>
-    <row r="100" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" ht="18" customHeight="1" spans="1:12">
       <c r="A100" s="7"/>
       <c r="B100" s="7"/>
       <c r="C100" s="8"/>
@@ -3886,7 +4488,7 @@
       <c r="K100" s="7"/>
       <c r="L100" s="7"/>
     </row>
-    <row r="101" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="101" ht="18" customHeight="1" spans="1:12">
       <c r="A101" s="7"/>
       <c r="B101" s="7"/>
       <c r="C101" s="8"/>
@@ -3900,7 +4502,7 @@
       <c r="K101" s="7"/>
       <c r="L101" s="7"/>
     </row>
-    <row r="102" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="102" ht="18" customHeight="1" spans="1:12">
       <c r="A102" s="7"/>
       <c r="B102" s="7"/>
       <c r="C102" s="8"/>
@@ -3914,7 +4516,7 @@
       <c r="K102" s="7"/>
       <c r="L102" s="7"/>
     </row>
-    <row r="103" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="103" ht="18" customHeight="1" spans="1:12">
       <c r="A103" s="7"/>
       <c r="B103" s="7"/>
       <c r="C103" s="8"/>
@@ -3928,7 +4530,7 @@
       <c r="K103" s="7"/>
       <c r="L103" s="7"/>
     </row>
-    <row r="104" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="104" ht="18" customHeight="1" spans="1:12">
       <c r="A104" s="7"/>
       <c r="B104" s="7"/>
       <c r="C104" s="8"/>
@@ -3942,7 +4544,7 @@
       <c r="K104" s="7"/>
       <c r="L104" s="7"/>
     </row>
-    <row r="105" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="105" ht="18" customHeight="1" spans="1:12">
       <c r="A105" s="7"/>
       <c r="B105" s="7"/>
       <c r="C105" s="8"/>
@@ -3956,7 +4558,7 @@
       <c r="K105" s="7"/>
       <c r="L105" s="7"/>
     </row>
-    <row r="106" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="106" ht="18" customHeight="1" spans="1:12">
       <c r="A106" s="7"/>
       <c r="B106" s="7"/>
       <c r="C106" s="8"/>
@@ -3970,7 +4572,7 @@
       <c r="K106" s="7"/>
       <c r="L106" s="7"/>
     </row>
-    <row r="107" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="107" ht="18" customHeight="1" spans="1:12">
       <c r="A107" s="7"/>
       <c r="B107" s="7"/>
       <c r="C107" s="8"/>
@@ -3984,7 +4586,7 @@
       <c r="K107" s="7"/>
       <c r="L107" s="7"/>
     </row>
-    <row r="108" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="108" ht="18" customHeight="1" spans="1:12">
       <c r="A108" s="7"/>
       <c r="B108" s="7"/>
       <c r="C108" s="8"/>
@@ -3998,7 +4600,7 @@
       <c r="K108" s="7"/>
       <c r="L108" s="7"/>
     </row>
-    <row r="109" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="109" ht="18" customHeight="1" spans="1:12">
       <c r="A109" s="7"/>
       <c r="B109" s="7"/>
       <c r="C109" s="8"/>
@@ -4012,7 +4614,7 @@
       <c r="K109" s="7"/>
       <c r="L109" s="7"/>
     </row>
-    <row r="110" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" ht="18" customHeight="1" spans="1:12">
       <c r="A110" s="7"/>
       <c r="B110" s="7"/>
       <c r="C110" s="8"/>
@@ -4026,7 +4628,7 @@
       <c r="K110" s="7"/>
       <c r="L110" s="7"/>
     </row>
-    <row r="111" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="111" ht="18" customHeight="1" spans="1:12">
       <c r="A111" s="7"/>
       <c r="B111" s="7"/>
       <c r="C111" s="8"/>
@@ -4040,7 +4642,7 @@
       <c r="K111" s="7"/>
       <c r="L111" s="7"/>
     </row>
-    <row r="112" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="112" ht="18" customHeight="1" spans="1:12">
       <c r="A112" s="7"/>
       <c r="B112" s="7"/>
       <c r="C112" s="8"/>
@@ -4054,7 +4656,7 @@
       <c r="K112" s="7"/>
       <c r="L112" s="7"/>
     </row>
-    <row r="113" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="113" ht="18" customHeight="1" spans="1:12">
       <c r="A113" s="7"/>
       <c r="B113" s="7"/>
       <c r="C113" s="8"/>
@@ -4068,7 +4670,7 @@
       <c r="K113" s="7"/>
       <c r="L113" s="7"/>
     </row>
-    <row r="114" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="114" ht="18" customHeight="1" spans="1:12">
       <c r="A114" s="7"/>
       <c r="B114" s="7"/>
       <c r="C114" s="8"/>
@@ -4082,7 +4684,7 @@
       <c r="K114" s="7"/>
       <c r="L114" s="7"/>
     </row>
-    <row r="115" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="115" ht="18" customHeight="1" spans="1:12">
       <c r="A115" s="7"/>
       <c r="B115" s="7"/>
       <c r="C115" s="8"/>
@@ -4096,7 +4698,7 @@
       <c r="K115" s="7"/>
       <c r="L115" s="7"/>
     </row>
-    <row r="116" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="116" ht="18" customHeight="1" spans="1:12">
       <c r="A116" s="7"/>
       <c r="B116" s="7"/>
       <c r="C116" s="8"/>
@@ -4110,7 +4712,7 @@
       <c r="K116" s="7"/>
       <c r="L116" s="7"/>
     </row>
-    <row r="117" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="117" ht="18" customHeight="1" spans="1:12">
       <c r="A117" s="7"/>
       <c r="B117" s="7"/>
       <c r="C117" s="8"/>
@@ -4124,7 +4726,7 @@
       <c r="K117" s="7"/>
       <c r="L117" s="7"/>
     </row>
-    <row r="118" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="118" ht="18" customHeight="1" spans="1:12">
       <c r="A118" s="7"/>
       <c r="B118" s="7"/>
       <c r="C118" s="8"/>
@@ -4138,7 +4740,7 @@
       <c r="K118" s="7"/>
       <c r="L118" s="7"/>
     </row>
-    <row r="119" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="119" ht="18" customHeight="1" spans="1:12">
       <c r="A119" s="7"/>
       <c r="B119" s="7"/>
       <c r="C119" s="8"/>
@@ -4152,7 +4754,7 @@
       <c r="K119" s="7"/>
       <c r="L119" s="7"/>
     </row>
-    <row r="120" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="120" ht="18" customHeight="1" spans="1:12">
       <c r="A120" s="7"/>
       <c r="B120" s="7"/>
       <c r="C120" s="8"/>
@@ -4166,7 +4768,7 @@
       <c r="K120" s="7"/>
       <c r="L120" s="7"/>
     </row>
-    <row r="121" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="121" ht="18" customHeight="1" spans="1:12">
       <c r="A121" s="7"/>
       <c r="B121" s="7"/>
       <c r="C121" s="8"/>
@@ -4180,7 +4782,7 @@
       <c r="K121" s="7"/>
       <c r="L121" s="7"/>
     </row>
-    <row r="122" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="122" ht="18" customHeight="1" spans="1:12">
       <c r="A122" s="7"/>
       <c r="B122" s="7"/>
       <c r="C122" s="8"/>
@@ -4194,7 +4796,7 @@
       <c r="K122" s="7"/>
       <c r="L122" s="7"/>
     </row>
-    <row r="123" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="123" ht="18" customHeight="1" spans="1:12">
       <c r="A123" s="7"/>
       <c r="B123" s="7"/>
       <c r="C123" s="8"/>
@@ -4208,7 +4810,7 @@
       <c r="K123" s="7"/>
       <c r="L123" s="7"/>
     </row>
-    <row r="124" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="124" ht="18" customHeight="1" spans="1:12">
       <c r="A124" s="7"/>
       <c r="B124" s="7"/>
       <c r="C124" s="8"/>
@@ -4222,7 +4824,7 @@
       <c r="K124" s="7"/>
       <c r="L124" s="7"/>
     </row>
-    <row r="125" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="125" ht="18" customHeight="1" spans="1:12">
       <c r="A125" s="7"/>
       <c r="B125" s="7"/>
       <c r="C125" s="8"/>
@@ -4236,7 +4838,7 @@
       <c r="K125" s="7"/>
       <c r="L125" s="7"/>
     </row>
-    <row r="126" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="126" ht="18" customHeight="1" spans="1:12">
       <c r="A126" s="7"/>
       <c r="B126" s="7"/>
       <c r="C126" s="8"/>
@@ -4250,7 +4852,7 @@
       <c r="K126" s="7"/>
       <c r="L126" s="7"/>
     </row>
-    <row r="127" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="127" ht="18" customHeight="1" spans="1:12">
       <c r="A127" s="7"/>
       <c r="B127" s="7"/>
       <c r="C127" s="8"/>
@@ -4264,7 +4866,7 @@
       <c r="K127" s="7"/>
       <c r="L127" s="7"/>
     </row>
-    <row r="128" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="128" ht="18" customHeight="1" spans="1:12">
       <c r="A128" s="7"/>
       <c r="B128" s="7"/>
       <c r="C128" s="8"/>
@@ -4278,7 +4880,7 @@
       <c r="K128" s="7"/>
       <c r="L128" s="7"/>
     </row>
-    <row r="129" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="129" ht="18" customHeight="1" spans="1:12">
       <c r="A129" s="7"/>
       <c r="B129" s="7"/>
       <c r="C129" s="8"/>
@@ -4292,7 +4894,7 @@
       <c r="K129" s="7"/>
       <c r="L129" s="7"/>
     </row>
-    <row r="130" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="130" ht="18" customHeight="1" spans="1:12">
       <c r="A130" s="7"/>
       <c r="B130" s="7"/>
       <c r="C130" s="8"/>
@@ -4306,7 +4908,7 @@
       <c r="K130" s="7"/>
       <c r="L130" s="7"/>
     </row>
-    <row r="131" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="131" ht="18" customHeight="1" spans="1:12">
       <c r="A131" s="7"/>
       <c r="B131" s="7"/>
       <c r="C131" s="8"/>
@@ -4320,7 +4922,7 @@
       <c r="K131" s="7"/>
       <c r="L131" s="7"/>
     </row>
-    <row r="132" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="132" ht="18" customHeight="1" spans="1:12">
       <c r="A132" s="7"/>
       <c r="B132" s="7"/>
       <c r="C132" s="8"/>
@@ -4334,7 +4936,7 @@
       <c r="K132" s="7"/>
       <c r="L132" s="7"/>
     </row>
-    <row r="133" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="133" ht="18" customHeight="1" spans="1:12">
       <c r="A133" s="7"/>
       <c r="B133" s="7"/>
       <c r="C133" s="8"/>
@@ -4348,7 +4950,7 @@
       <c r="K133" s="7"/>
       <c r="L133" s="7"/>
     </row>
-    <row r="134" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="134" ht="18" customHeight="1" spans="1:12">
       <c r="A134" s="7"/>
       <c r="B134" s="7"/>
       <c r="C134" s="8"/>
@@ -4362,7 +4964,7 @@
       <c r="K134" s="7"/>
       <c r="L134" s="7"/>
     </row>
-    <row r="135" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="135" ht="18" customHeight="1" spans="1:12">
       <c r="A135" s="7"/>
       <c r="B135" s="7"/>
       <c r="C135" s="8"/>
@@ -4376,7 +4978,7 @@
       <c r="K135" s="7"/>
       <c r="L135" s="7"/>
     </row>
-    <row r="136" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="136" ht="18" customHeight="1" spans="1:12">
       <c r="A136" s="7"/>
       <c r="B136" s="7"/>
       <c r="C136" s="8"/>
@@ -4390,7 +4992,7 @@
       <c r="K136" s="7"/>
       <c r="L136" s="7"/>
     </row>
-    <row r="137" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="137" ht="18" customHeight="1" spans="1:12">
       <c r="A137" s="7"/>
       <c r="B137" s="7"/>
       <c r="C137" s="8"/>
@@ -4404,7 +5006,7 @@
       <c r="K137" s="7"/>
       <c r="L137" s="7"/>
     </row>
-    <row r="138" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="138" ht="18" customHeight="1" spans="1:12">
       <c r="A138" s="7"/>
       <c r="B138" s="7"/>
       <c r="C138" s="8"/>
@@ -4418,7 +5020,7 @@
       <c r="K138" s="7"/>
       <c r="L138" s="7"/>
     </row>
-    <row r="139" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="139" ht="18" customHeight="1" spans="1:12">
       <c r="A139" s="7"/>
       <c r="B139" s="7"/>
       <c r="C139" s="8"/>
@@ -4432,7 +5034,7 @@
       <c r="K139" s="7"/>
       <c r="L139" s="7"/>
     </row>
-    <row r="140" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="140" ht="18" customHeight="1" spans="1:12">
       <c r="A140" s="7"/>
       <c r="B140" s="7"/>
       <c r="C140" s="8"/>
@@ -4446,7 +5048,7 @@
       <c r="K140" s="7"/>
       <c r="L140" s="7"/>
     </row>
-    <row r="141" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="141" ht="18" customHeight="1" spans="1:12">
       <c r="A141" s="7"/>
       <c r="B141" s="7"/>
       <c r="C141" s="8"/>
@@ -4460,7 +5062,7 @@
       <c r="K141" s="7"/>
       <c r="L141" s="7"/>
     </row>
-    <row r="142" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="142" ht="18" customHeight="1" spans="1:12">
       <c r="A142" s="7"/>
       <c r="B142" s="7"/>
       <c r="C142" s="8"/>
@@ -4474,7 +5076,7 @@
       <c r="K142" s="7"/>
       <c r="L142" s="7"/>
     </row>
-    <row r="143" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="143" ht="18" customHeight="1" spans="1:12">
       <c r="A143" s="7"/>
       <c r="B143" s="7"/>
       <c r="C143" s="8"/>
@@ -4488,7 +5090,7 @@
       <c r="K143" s="7"/>
       <c r="L143" s="7"/>
     </row>
-    <row r="144" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="144" ht="18" customHeight="1" spans="1:12">
       <c r="A144" s="7"/>
       <c r="B144" s="7"/>
       <c r="C144" s="8"/>
@@ -4502,7 +5104,7 @@
       <c r="K144" s="7"/>
       <c r="L144" s="7"/>
     </row>
-    <row r="145" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="145" ht="18" customHeight="1" spans="1:12">
       <c r="A145" s="7"/>
       <c r="B145" s="7"/>
       <c r="C145" s="8"/>
@@ -4516,7 +5118,7 @@
       <c r="K145" s="7"/>
       <c r="L145" s="7"/>
     </row>
-    <row r="146" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="146" ht="18" customHeight="1" spans="1:12">
       <c r="A146" s="7"/>
       <c r="B146" s="7"/>
       <c r="C146" s="8"/>
@@ -4530,7 +5132,7 @@
       <c r="K146" s="7"/>
       <c r="L146" s="7"/>
     </row>
-    <row r="147" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="147" ht="18" customHeight="1" spans="1:12">
       <c r="A147" s="7"/>
       <c r="B147" s="7"/>
       <c r="C147" s="8"/>
@@ -4544,7 +5146,7 @@
       <c r="K147" s="7"/>
       <c r="L147" s="7"/>
     </row>
-    <row r="148" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="148" ht="18" customHeight="1" spans="1:12">
       <c r="A148" s="7"/>
       <c r="B148" s="7"/>
       <c r="C148" s="8"/>
@@ -4558,7 +5160,7 @@
       <c r="K148" s="7"/>
       <c r="L148" s="7"/>
     </row>
-    <row r="149" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="149" ht="18" customHeight="1" spans="1:12">
       <c r="A149" s="7"/>
       <c r="B149" s="7"/>
       <c r="C149" s="8"/>
@@ -4572,7 +5174,7 @@
       <c r="K149" s="7"/>
       <c r="L149" s="7"/>
     </row>
-    <row r="150" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="150" ht="18" customHeight="1" spans="1:12">
       <c r="A150" s="7"/>
       <c r="B150" s="7"/>
       <c r="C150" s="8"/>
@@ -4586,7 +5188,7 @@
       <c r="K150" s="7"/>
       <c r="L150" s="7"/>
     </row>
-    <row r="151" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="151" ht="18" customHeight="1" spans="1:12">
       <c r="A151" s="7"/>
       <c r="B151" s="7"/>
       <c r="C151" s="8"/>
@@ -4600,7 +5202,7 @@
       <c r="K151" s="7"/>
       <c r="L151" s="7"/>
     </row>
-    <row r="152" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="152" ht="18" customHeight="1" spans="1:12">
       <c r="A152" s="7"/>
       <c r="B152" s="7"/>
       <c r="C152" s="8"/>
@@ -4614,38 +5216,103 @@
       <c r="K152" s="7"/>
       <c r="L152" s="7"/>
     </row>
+    <row r="153" ht="18" customHeight="1" spans="1:12">
+      <c r="A153" s="7"/>
+      <c r="B153" s="7"/>
+      <c r="C153" s="8"/>
+      <c r="D153" s="7"/>
+      <c r="E153" s="7"/>
+      <c r="F153" s="7"/>
+      <c r="G153" s="7"/>
+      <c r="H153" s="7"/>
+      <c r="I153" s="7"/>
+      <c r="J153" s="7"/>
+      <c r="K153" s="7"/>
+      <c r="L153" s="7"/>
+    </row>
+    <row r="154" ht="18" customHeight="1" spans="1:12">
+      <c r="A154" s="7"/>
+      <c r="B154" s="7"/>
+      <c r="C154" s="8"/>
+      <c r="D154" s="7"/>
+      <c r="E154" s="7"/>
+      <c r="F154" s="7"/>
+      <c r="G154" s="7"/>
+      <c r="H154" s="7"/>
+      <c r="I154" s="7"/>
+      <c r="J154" s="7"/>
+      <c r="K154" s="7"/>
+      <c r="L154" s="7"/>
+    </row>
+    <row r="155" ht="18" customHeight="1" spans="1:12">
+      <c r="A155" s="7"/>
+      <c r="B155" s="7"/>
+      <c r="C155" s="8"/>
+      <c r="D155" s="7"/>
+      <c r="E155" s="7"/>
+      <c r="F155" s="7"/>
+      <c r="G155" s="7"/>
+      <c r="H155" s="7"/>
+      <c r="I155" s="7"/>
+      <c r="J155" s="7"/>
+      <c r="K155" s="7"/>
+      <c r="L155" s="7"/>
+    </row>
+    <row r="156" ht="18" customHeight="1" spans="1:12">
+      <c r="A156" s="7"/>
+      <c r="B156" s="7"/>
+      <c r="C156" s="8"/>
+      <c r="D156" s="7"/>
+      <c r="E156" s="7"/>
+      <c r="F156" s="7"/>
+      <c r="G156" s="7"/>
+      <c r="H156" s="7"/>
+      <c r="I156" s="7"/>
+      <c r="J156" s="7"/>
+      <c r="K156" s="7"/>
+      <c r="L156" s="7"/>
+    </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <hyperlinks>
+    <hyperlink ref="L77" r:id="rId3" display="https://item.szlcsc.com/87756.html" tooltip="https://item.szlcsc.com/87756.html"/>
+  </hyperlinks>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/物料索引.xlsx
+++ b/物料索引.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="14070"/>
+    <workbookView windowWidth="28800" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -88,7 +88,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299">
   <si>
     <t>物料编码</t>
   </si>
@@ -961,6 +961,15 @@
     <t>h5004_7</t>
   </si>
   <si>
+    <t>AD9653BCPZ-125</t>
+  </si>
+  <si>
+    <t>ADC</t>
+  </si>
+  <si>
+    <t>CP_48_13</t>
+  </si>
+  <si>
     <t>MT7620_MODULE_SOCKET</t>
   </si>
   <si>
@@ -1102,19 +1111,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1131,37 +1133,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1179,6 +1153,35 @@
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1205,14 +1208,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1220,8 +1215,15 @@
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1235,17 +1237,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1260,14 +1254,28 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1282,7 +1290,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1294,19 +1380,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1318,43 +1398,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1366,91 +1446,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1491,15 +1493,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1518,23 +1511,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1556,11 +1534,18 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1582,9 +1567,26 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1596,10 +1598,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1608,133 +1610,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="31" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1769,13 +1771,13 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="10" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="10" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2126,12 +2128,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L156"/>
+  <dimension ref="A1:L158"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A58" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="3" topLeftCell="A55" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="E80" sqref="E80"/>
+      <selection pane="bottomLeft" activeCell="J75" sqref="J75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -4077,157 +4079,151 @@
         <v>266</v>
       </c>
       <c r="D77" s="7"/>
-      <c r="E77" s="7" t="s">
-        <v>267</v>
-      </c>
+      <c r="E77" s="7"/>
       <c r="F77" s="7"/>
       <c r="G77" s="7"/>
       <c r="H77" s="7"/>
-      <c r="I77" s="7" t="s">
+      <c r="I77" s="7"/>
+      <c r="J77" s="7"/>
+      <c r="K77" s="7" t="s">
         <v>267</v>
       </c>
-      <c r="J77" s="7" t="s">
-        <v>268</v>
-      </c>
-      <c r="K77" s="7" t="s">
-        <v>269</v>
-      </c>
-      <c r="L77" s="12" t="s">
-        <v>270</v>
-      </c>
+      <c r="L77" s="7"/>
     </row>
     <row r="78" ht="18" customHeight="1" spans="1:12">
       <c r="A78" s="7"/>
-      <c r="B78" s="7" t="s">
-        <v>265</v>
-      </c>
-      <c r="C78" s="8" t="s">
-        <v>271</v>
-      </c>
+      <c r="B78" s="7"/>
+      <c r="C78" s="8"/>
       <c r="D78" s="7"/>
       <c r="E78" s="7"/>
       <c r="F78" s="7"/>
       <c r="G78" s="7"/>
       <c r="H78" s="7"/>
-      <c r="I78" s="7" t="s">
-        <v>267</v>
-      </c>
-      <c r="J78" s="7" t="s">
-        <v>268</v>
-      </c>
-      <c r="K78" s="7" t="s">
-        <v>272</v>
-      </c>
-      <c r="L78" s="12" t="s">
-        <v>273</v>
-      </c>
+      <c r="I78" s="7"/>
+      <c r="J78" s="7"/>
+      <c r="K78" s="7"/>
+      <c r="L78" s="7"/>
     </row>
     <row r="79" ht="18" customHeight="1" spans="1:12">
       <c r="A79" s="7"/>
       <c r="B79" s="7" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="C79" s="8" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="D79" s="7"/>
       <c r="E79" s="7" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="F79" s="7"/>
       <c r="G79" s="7"/>
       <c r="H79" s="7"/>
       <c r="I79" s="7" t="s">
-        <v>267</v>
-      </c>
-      <c r="J79" s="7"/>
+        <v>270</v>
+      </c>
+      <c r="J79" s="7" t="s">
+        <v>271</v>
+      </c>
       <c r="K79" s="7" t="s">
-        <v>276</v>
-      </c>
-      <c r="L79" s="7"/>
+        <v>272</v>
+      </c>
+      <c r="L79" s="12" t="s">
+        <v>273</v>
+      </c>
     </row>
     <row r="80" ht="18" customHeight="1" spans="1:12">
       <c r="A80" s="7"/>
       <c r="B80" s="7" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
       <c r="C80" s="8" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="D80" s="7"/>
-      <c r="E80" s="7" t="s">
-        <v>267</v>
-      </c>
+      <c r="E80" s="7"/>
       <c r="F80" s="7"/>
       <c r="G80" s="7"/>
       <c r="H80" s="7"/>
       <c r="I80" s="7" t="s">
-        <v>267</v>
-      </c>
-      <c r="J80" s="7"/>
+        <v>270</v>
+      </c>
+      <c r="J80" s="7" t="s">
+        <v>271</v>
+      </c>
       <c r="K80" s="7" t="s">
-        <v>279</v>
-      </c>
-      <c r="L80" s="7"/>
+        <v>275</v>
+      </c>
+      <c r="L80" s="12" t="s">
+        <v>276</v>
+      </c>
     </row>
     <row r="81" ht="18" customHeight="1" spans="1:12">
       <c r="A81" s="7"/>
-      <c r="B81" s="7"/>
-      <c r="C81" s="8"/>
+      <c r="B81" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="C81" s="8" t="s">
+        <v>278</v>
+      </c>
       <c r="D81" s="7"/>
-      <c r="E81" s="7"/>
+      <c r="E81" s="7" t="s">
+        <v>270</v>
+      </c>
       <c r="F81" s="7"/>
       <c r="G81" s="7"/>
       <c r="H81" s="7"/>
-      <c r="I81" s="7"/>
+      <c r="I81" s="7" t="s">
+        <v>270</v>
+      </c>
       <c r="J81" s="7"/>
-      <c r="K81" s="7"/>
+      <c r="K81" s="7" t="s">
+        <v>279</v>
+      </c>
       <c r="L81" s="7"/>
     </row>
     <row r="82" ht="18" customHeight="1" spans="1:12">
       <c r="A82" s="7"/>
-      <c r="B82" s="7"/>
-      <c r="C82" s="8"/>
+      <c r="B82" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="C82" s="8" t="s">
+        <v>281</v>
+      </c>
       <c r="D82" s="7"/>
-      <c r="E82" s="7"/>
+      <c r="E82" s="7" t="s">
+        <v>270</v>
+      </c>
       <c r="F82" s="7"/>
       <c r="G82" s="7"/>
       <c r="H82" s="7"/>
-      <c r="I82" s="7"/>
+      <c r="I82" s="7" t="s">
+        <v>270</v>
+      </c>
       <c r="J82" s="7"/>
-      <c r="K82" s="7"/>
+      <c r="K82" s="7" t="s">
+        <v>282</v>
+      </c>
       <c r="L82" s="7"/>
     </row>
     <row r="83" ht="18" customHeight="1" spans="1:12">
       <c r="A83" s="7"/>
-      <c r="B83" s="10" t="s">
-        <v>280</v>
-      </c>
-      <c r="C83" s="11" t="s">
-        <v>281</v>
-      </c>
+      <c r="B83" s="7"/>
+      <c r="C83" s="8"/>
       <c r="D83" s="7"/>
       <c r="E83" s="7"/>
       <c r="F83" s="7"/>
       <c r="G83" s="7"/>
       <c r="H83" s="7"/>
-      <c r="I83" s="10" t="s">
-        <v>282</v>
-      </c>
+      <c r="I83" s="7"/>
       <c r="J83" s="7"/>
-      <c r="K83" s="10" t="s">
-        <v>282</v>
-      </c>
+      <c r="K83" s="7"/>
       <c r="L83" s="7"/>
     </row>
     <row r="84" ht="18" customHeight="1" spans="1:12">
       <c r="A84" s="7"/>
-      <c r="B84" s="7" t="s">
-        <v>283</v>
-      </c>
-      <c r="C84" s="8" t="s">
-        <v>284</v>
-      </c>
+      <c r="B84" s="7"/>
+      <c r="C84" s="8"/>
       <c r="D84" s="7"/>
       <c r="E84" s="7"/>
       <c r="F84" s="7"/>
@@ -4235,36 +4231,38 @@
       <c r="H84" s="7"/>
       <c r="I84" s="7"/>
       <c r="J84" s="7"/>
-      <c r="K84" s="10" t="s">
-        <v>285</v>
-      </c>
+      <c r="K84" s="7"/>
       <c r="L84" s="7"/>
     </row>
     <row r="85" ht="18" customHeight="1" spans="1:12">
       <c r="A85" s="7"/>
-      <c r="B85" s="7" t="s">
-        <v>286</v>
-      </c>
-      <c r="C85" s="8" t="s">
-        <v>287</v>
+      <c r="B85" s="10" t="s">
+        <v>283</v>
+      </c>
+      <c r="C85" s="11" t="s">
+        <v>284</v>
       </c>
       <c r="D85" s="7"/>
       <c r="E85" s="7"/>
       <c r="F85" s="7"/>
       <c r="G85" s="7"/>
       <c r="H85" s="7"/>
-      <c r="I85" s="7"/>
+      <c r="I85" s="10" t="s">
+        <v>285</v>
+      </c>
       <c r="J85" s="7"/>
-      <c r="K85" s="7"/>
+      <c r="K85" s="10" t="s">
+        <v>285</v>
+      </c>
       <c r="L85" s="7"/>
     </row>
     <row r="86" ht="18" customHeight="1" spans="1:12">
       <c r="A86" s="7"/>
       <c r="B86" s="7" t="s">
-        <v>288</v>
-      </c>
-      <c r="C86" s="11" t="s">
-        <v>289</v>
+        <v>286</v>
+      </c>
+      <c r="C86" s="8" t="s">
+        <v>287</v>
       </c>
       <c r="D86" s="7"/>
       <c r="E86" s="7"/>
@@ -4273,7 +4271,7 @@
       <c r="H86" s="7"/>
       <c r="I86" s="7"/>
       <c r="J86" s="7"/>
-      <c r="K86" s="7" t="s">
+      <c r="K86" s="10" t="s">
         <v>288</v>
       </c>
       <c r="L86" s="7"/>
@@ -4281,10 +4279,10 @@
     <row r="87" ht="18" customHeight="1" spans="1:12">
       <c r="A87" s="7"/>
       <c r="B87" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="C87" s="8" t="s">
         <v>290</v>
-      </c>
-      <c r="C87" s="8" t="s">
-        <v>291</v>
       </c>
       <c r="D87" s="7"/>
       <c r="E87" s="7"/>
@@ -4293,37 +4291,37 @@
       <c r="H87" s="7"/>
       <c r="I87" s="7"/>
       <c r="J87" s="7"/>
-      <c r="K87" s="10" t="s">
-        <v>292</v>
-      </c>
+      <c r="K87" s="7"/>
       <c r="L87" s="7"/>
     </row>
     <row r="88" ht="18" customHeight="1" spans="1:12">
       <c r="A88" s="7"/>
-      <c r="B88" s="10" t="s">
-        <v>293</v>
+      <c r="B88" s="7" t="s">
+        <v>291</v>
       </c>
       <c r="C88" s="11" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="D88" s="7"/>
       <c r="E88" s="7"/>
       <c r="F88" s="7"/>
       <c r="G88" s="7"/>
       <c r="H88" s="7"/>
-      <c r="I88" s="7" t="s">
-        <v>295</v>
-      </c>
+      <c r="I88" s="7"/>
       <c r="J88" s="7"/>
       <c r="K88" s="7" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="L88" s="7"/>
     </row>
     <row r="89" ht="18" customHeight="1" spans="1:12">
       <c r="A89" s="7"/>
-      <c r="B89" s="7"/>
-      <c r="C89" s="8"/>
+      <c r="B89" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="C89" s="8" t="s">
+        <v>294</v>
+      </c>
       <c r="D89" s="7"/>
       <c r="E89" s="7"/>
       <c r="F89" s="7"/>
@@ -4331,21 +4329,31 @@
       <c r="H89" s="7"/>
       <c r="I89" s="7"/>
       <c r="J89" s="7"/>
-      <c r="K89" s="7"/>
+      <c r="K89" s="10" t="s">
+        <v>295</v>
+      </c>
       <c r="L89" s="7"/>
     </row>
     <row r="90" ht="18" customHeight="1" spans="1:12">
       <c r="A90" s="7"/>
-      <c r="B90" s="7"/>
-      <c r="C90" s="8"/>
+      <c r="B90" s="10" t="s">
+        <v>296</v>
+      </c>
+      <c r="C90" s="11" t="s">
+        <v>297</v>
+      </c>
       <c r="D90" s="7"/>
       <c r="E90" s="7"/>
       <c r="F90" s="7"/>
       <c r="G90" s="7"/>
       <c r="H90" s="7"/>
-      <c r="I90" s="7"/>
+      <c r="I90" s="7" t="s">
+        <v>298</v>
+      </c>
       <c r="J90" s="7"/>
-      <c r="K90" s="7"/>
+      <c r="K90" s="7" t="s">
+        <v>298</v>
+      </c>
       <c r="L90" s="7"/>
     </row>
     <row r="91" ht="18" customHeight="1" spans="1:12">
@@ -5272,9 +5280,37 @@
       <c r="K156" s="7"/>
       <c r="L156" s="7"/>
     </row>
+    <row r="157" ht="18" customHeight="1" spans="1:12">
+      <c r="A157" s="7"/>
+      <c r="B157" s="7"/>
+      <c r="C157" s="8"/>
+      <c r="D157" s="7"/>
+      <c r="E157" s="7"/>
+      <c r="F157" s="7"/>
+      <c r="G157" s="7"/>
+      <c r="H157" s="7"/>
+      <c r="I157" s="7"/>
+      <c r="J157" s="7"/>
+      <c r="K157" s="7"/>
+      <c r="L157" s="7"/>
+    </row>
+    <row r="158" ht="18" customHeight="1" spans="1:12">
+      <c r="A158" s="7"/>
+      <c r="B158" s="7"/>
+      <c r="C158" s="8"/>
+      <c r="D158" s="7"/>
+      <c r="E158" s="7"/>
+      <c r="F158" s="7"/>
+      <c r="G158" s="7"/>
+      <c r="H158" s="7"/>
+      <c r="I158" s="7"/>
+      <c r="J158" s="7"/>
+      <c r="K158" s="7"/>
+      <c r="L158" s="7"/>
+    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="L77" r:id="rId3" display="https://item.szlcsc.com/87756.html" tooltip="https://item.szlcsc.com/87756.html"/>
+    <hyperlink ref="L79" r:id="rId3" display="https://item.szlcsc.com/87756.html" tooltip="https://item.szlcsc.com/87756.html"/>
   </hyperlinks>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/物料索引.xlsx
+++ b/物料索引.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20228"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Cadence-LIB\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{F7D69DA7-B29B-45B4-9737-8A1633FC07B6}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,12 +22,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>zxiat</author>
   </authors>
   <commentList>
-    <comment ref="A2" authorId="0">
+    <comment ref="A2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -51,7 +57,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A3" authorId="0">
+    <comment ref="A3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -88,7 +94,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="482" uniqueCount="307">
   <si>
     <t>物料编码</t>
   </si>
@@ -916,9 +922,6 @@
     <t>DS1308</t>
   </si>
   <si>
-    <t>RTC时钟芯片</t>
-  </si>
-  <si>
     <t>usop_8</t>
   </si>
   <si>
@@ -1105,18 +1108,40 @@
   <si>
     <t>tf-015</t>
   </si>
+  <si>
+    <t>DS3231</t>
+  </si>
+  <si>
+    <t>RTC时钟芯片,内置晶振</t>
+  </si>
+  <si>
+    <t>so16</t>
+  </si>
+  <si>
+    <t>SOIC16_300mil</t>
+  </si>
+  <si>
+    <t>tps22971</t>
+  </si>
+  <si>
+    <t>电源开关，3A 6.7m欧</t>
+  </si>
+  <si>
+    <t>bga</t>
+  </si>
+  <si>
+    <t>ti</t>
+  </si>
+  <si>
+    <t>RTC时钟芯片，需6pf电容，慎用</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="21">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1129,143 +1154,7 @@
       <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1274,8 +1163,33 @@
       <name val="宋体"/>
       <charset val="134"/>
     </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="33">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1284,192 +1198,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -1492,255 +1226,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1777,65 +1272,25 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="10" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -2122,34 +1577,33 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:L158"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:L160"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A55" activePane="bottomLeft" state="frozen"/>
-      <selection/>
-      <selection pane="bottomLeft" activeCell="J75" sqref="J75"/>
+      <pane ySplit="3" topLeftCell="A64" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C71" sqref="C71"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18" style="2" customWidth="1"/>
-    <col min="2" max="2" width="18.2166666666667" style="2" customWidth="1"/>
+    <col min="2" max="2" width="18.21875" style="2" customWidth="1"/>
     <col min="3" max="3" width="27" style="3" customWidth="1"/>
     <col min="4" max="4" width="9" style="2"/>
-    <col min="5" max="5" width="10.8833333333333" style="2" customWidth="1"/>
+    <col min="5" max="5" width="10.88671875" style="2" customWidth="1"/>
     <col min="6" max="9" width="9" style="2"/>
-    <col min="10" max="11" width="11.8833333333333" style="2" customWidth="1"/>
+    <col min="10" max="11" width="11.88671875" style="2" customWidth="1"/>
     <col min="12" max="12" width="9" style="2"/>
     <col min="13" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="18" customHeight="1" spans="1:12">
+    <row r="1" spans="1:12" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -2187,7 +1641,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" ht="18" customHeight="1" spans="1:12">
+    <row r="2" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>12</v>
       </c>
@@ -2221,7 +1675,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" ht="18" customHeight="1" spans="1:12">
+    <row r="3" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>21</v>
       </c>
@@ -2255,7 +1709,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="4" customFormat="1" ht="18" customHeight="1" spans="1:12">
+    <row r="4" spans="1:12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="7"/>
       <c r="B4" s="7"/>
       <c r="C4" s="8"/>
@@ -2269,7 +1723,7 @@
       <c r="K4" s="7"/>
       <c r="L4" s="7"/>
     </row>
-    <row r="5" customFormat="1" ht="18" customHeight="1" spans="1:12">
+    <row r="5" spans="1:12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7"/>
       <c r="B5" s="7"/>
       <c r="C5" s="8"/>
@@ -2283,7 +1737,7 @@
       <c r="K5" s="7"/>
       <c r="L5" s="7"/>
     </row>
-    <row r="6" ht="18" customHeight="1" spans="1:12">
+    <row r="6" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>30</v>
       </c>
@@ -2317,7 +1771,7 @@
       <c r="K6" s="7"/>
       <c r="L6" s="7"/>
     </row>
-    <row r="7" ht="18" customHeight="1" spans="1:12">
+    <row r="7" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
         <v>38</v>
       </c>
@@ -2351,7 +1805,7 @@
       <c r="K7" s="7"/>
       <c r="L7" s="7"/>
     </row>
-    <row r="8" ht="18" customHeight="1" spans="1:12">
+    <row r="8" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>42</v>
       </c>
@@ -2385,7 +1839,7 @@
       <c r="K8" s="7"/>
       <c r="L8" s="7"/>
     </row>
-    <row r="9" ht="18" customHeight="1" spans="1:12">
+    <row r="9" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>45</v>
       </c>
@@ -2419,7 +1873,7 @@
       <c r="K9" s="7"/>
       <c r="L9" s="7"/>
     </row>
-    <row r="10" ht="18" customHeight="1" spans="1:12">
+    <row r="10" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>50</v>
       </c>
@@ -2453,7 +1907,7 @@
       <c r="K10" s="7"/>
       <c r="L10" s="7"/>
     </row>
-    <row r="11" ht="18" customHeight="1" spans="1:12">
+    <row r="11" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
         <v>53</v>
       </c>
@@ -2487,7 +1941,7 @@
       <c r="K11" s="7"/>
       <c r="L11" s="7"/>
     </row>
-    <row r="12" ht="18" customHeight="1" spans="1:12">
+    <row r="12" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
         <v>57</v>
       </c>
@@ -2521,7 +1975,7 @@
       <c r="K12" s="7"/>
       <c r="L12" s="7"/>
     </row>
-    <row r="13" ht="18" customHeight="1" spans="1:12">
+    <row r="13" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
         <v>62</v>
       </c>
@@ -2555,7 +2009,7 @@
       <c r="K13" s="7"/>
       <c r="L13" s="7"/>
     </row>
-    <row r="14" ht="18" customHeight="1" spans="1:12">
+    <row r="14" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
         <v>66</v>
       </c>
@@ -2589,7 +2043,7 @@
       <c r="K14" s="7"/>
       <c r="L14" s="7"/>
     </row>
-    <row r="15" ht="18" customHeight="1" spans="1:12">
+    <row r="15" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
         <v>69</v>
       </c>
@@ -2623,7 +2077,7 @@
       <c r="K15" s="7"/>
       <c r="L15" s="7"/>
     </row>
-    <row r="16" ht="18" customHeight="1" spans="1:12">
+    <row r="16" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
         <v>72</v>
       </c>
@@ -2657,7 +2111,7 @@
       <c r="K16" s="7"/>
       <c r="L16" s="7"/>
     </row>
-    <row r="17" ht="18" customHeight="1" spans="1:12">
+    <row r="17" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
         <v>76</v>
       </c>
@@ -2691,7 +2145,7 @@
       <c r="K17" s="7"/>
       <c r="L17" s="7"/>
     </row>
-    <row r="18" ht="18" customHeight="1" spans="1:12">
+    <row r="18" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
         <v>79</v>
       </c>
@@ -2727,7 +2181,7 @@
       </c>
       <c r="L18" s="7"/>
     </row>
-    <row r="19" ht="18" customHeight="1" spans="1:12">
+    <row r="19" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
         <v>83</v>
       </c>
@@ -2761,7 +2215,7 @@
       <c r="K19" s="9"/>
       <c r="L19" s="7"/>
     </row>
-    <row r="20" ht="18" customHeight="1" spans="1:12">
+    <row r="20" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
         <v>87</v>
       </c>
@@ -2795,7 +2249,7 @@
       <c r="K20" s="9"/>
       <c r="L20" s="7"/>
     </row>
-    <row r="21" ht="18" customHeight="1" spans="1:12">
+    <row r="21" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="7"/>
       <c r="B21" s="7" t="s">
         <v>93</v>
@@ -2827,7 +2281,7 @@
       </c>
       <c r="L21" s="7"/>
     </row>
-    <row r="22" ht="18" customHeight="1" spans="1:12">
+    <row r="22" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="7"/>
       <c r="B22" s="7" t="s">
         <v>99</v>
@@ -2861,7 +2315,7 @@
       </c>
       <c r="L22" s="7"/>
     </row>
-    <row r="23" ht="18" customHeight="1" spans="1:12">
+    <row r="23" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="7"/>
       <c r="B23" s="7" t="s">
         <v>101</v>
@@ -2895,7 +2349,7 @@
       </c>
       <c r="L23" s="7"/>
     </row>
-    <row r="24" ht="18" customHeight="1" spans="1:12">
+    <row r="24" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="7"/>
       <c r="B24" s="7"/>
       <c r="C24" s="8"/>
@@ -2909,7 +2363,7 @@
       <c r="K24" s="9"/>
       <c r="L24" s="7"/>
     </row>
-    <row r="25" ht="18" customHeight="1" spans="1:12">
+    <row r="25" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="7"/>
       <c r="B25" s="7" t="s">
         <v>105</v>
@@ -2943,7 +2397,7 @@
       </c>
       <c r="L25" s="7"/>
     </row>
-    <row r="26" ht="18" customHeight="1" spans="1:12">
+    <row r="26" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="7"/>
       <c r="B26" s="7" t="s">
         <v>112</v>
@@ -2977,7 +2431,7 @@
       </c>
       <c r="L26" s="7"/>
     </row>
-    <row r="27" ht="18" customHeight="1" spans="1:12">
+    <row r="27" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="7"/>
       <c r="B27" s="7"/>
       <c r="C27" s="8"/>
@@ -2991,7 +2445,7 @@
       <c r="K27" s="7"/>
       <c r="L27" s="7"/>
     </row>
-    <row r="28" ht="18" customHeight="1" spans="1:12">
+    <row r="28" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="7"/>
       <c r="B28" s="7" t="s">
         <v>118</v>
@@ -3019,7 +2473,7 @@
       </c>
       <c r="L28" s="7"/>
     </row>
-    <row r="29" ht="18" customHeight="1" spans="1:12">
+    <row r="29" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="7"/>
       <c r="B29" s="7"/>
       <c r="C29" s="8"/>
@@ -3033,7 +2487,7 @@
       <c r="K29" s="7"/>
       <c r="L29" s="7"/>
     </row>
-    <row r="30" ht="18" customHeight="1" spans="1:12">
+    <row r="30" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="7"/>
       <c r="B30" s="7" t="s">
         <v>125</v>
@@ -3065,7 +2519,7 @@
       </c>
       <c r="L30" s="7"/>
     </row>
-    <row r="31" ht="18" customHeight="1" spans="1:12">
+    <row r="31" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="7"/>
       <c r="B31" s="7"/>
       <c r="C31" s="8"/>
@@ -3079,7 +2533,7 @@
       <c r="K31" s="7"/>
       <c r="L31" s="7"/>
     </row>
-    <row r="32" ht="18" customHeight="1" spans="1:12">
+    <row r="32" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="7"/>
       <c r="B32" s="10" t="s">
         <v>133</v>
@@ -3111,7 +2565,7 @@
       </c>
       <c r="L32" s="7"/>
     </row>
-    <row r="33" ht="18" customHeight="1" spans="1:12">
+    <row r="33" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="7"/>
       <c r="B33" s="7" t="s">
         <v>140</v>
@@ -3143,7 +2597,7 @@
       </c>
       <c r="L33" s="7"/>
     </row>
-    <row r="34" ht="18" customHeight="1" spans="1:12">
+    <row r="34" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="7"/>
       <c r="B34" s="7" t="s">
         <v>145</v>
@@ -3175,7 +2629,7 @@
       </c>
       <c r="L34" s="7"/>
     </row>
-    <row r="35" ht="18" customHeight="1" spans="1:12">
+    <row r="35" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="7"/>
       <c r="B35" s="7" t="s">
         <v>148</v>
@@ -3207,7 +2661,7 @@
       </c>
       <c r="L35" s="7"/>
     </row>
-    <row r="36" ht="18" customHeight="1" spans="1:12">
+    <row r="36" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="7"/>
       <c r="B36" s="7" t="s">
         <v>154</v>
@@ -3237,7 +2691,7 @@
       </c>
       <c r="L36" s="7"/>
     </row>
-    <row r="37" ht="18" customHeight="1" spans="1:12">
+    <row r="37" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="7"/>
       <c r="B37" s="7"/>
       <c r="C37" s="8"/>
@@ -3251,7 +2705,7 @@
       <c r="K37" s="7"/>
       <c r="L37" s="7"/>
     </row>
-    <row r="38" ht="18" customHeight="1" spans="1:12">
+    <row r="38" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="7"/>
       <c r="B38" s="7" t="s">
         <v>160</v>
@@ -3273,7 +2727,7 @@
       <c r="K38" s="7"/>
       <c r="L38" s="7"/>
     </row>
-    <row r="39" ht="18" customHeight="1" spans="1:12">
+    <row r="39" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="7"/>
       <c r="B39" s="7" t="s">
         <v>164</v>
@@ -3299,7 +2753,7 @@
       </c>
       <c r="L39" s="7"/>
     </row>
-    <row r="40" ht="18" customHeight="1" spans="1:12">
+    <row r="40" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="7"/>
       <c r="B40" s="7" t="s">
         <v>167</v>
@@ -3323,7 +2777,7 @@
       <c r="K40" s="7"/>
       <c r="L40" s="7"/>
     </row>
-    <row r="41" ht="18" customHeight="1" spans="1:12">
+    <row r="41" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="7"/>
       <c r="B41" s="7"/>
       <c r="C41" s="8"/>
@@ -3337,7 +2791,7 @@
       <c r="K41" s="7"/>
       <c r="L41" s="7"/>
     </row>
-    <row r="42" ht="18" customHeight="1" spans="1:12">
+    <row r="42" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="7"/>
       <c r="B42" s="7" t="s">
         <v>171</v>
@@ -3361,7 +2815,7 @@
       </c>
       <c r="L42" s="7"/>
     </row>
-    <row r="43" ht="18" customHeight="1" spans="1:12">
+    <row r="43" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="7"/>
       <c r="B43" s="10" t="s">
         <v>175</v>
@@ -3387,7 +2841,7 @@
       </c>
       <c r="L43" s="7"/>
     </row>
-    <row r="44" ht="18" customHeight="1" spans="1:12">
+    <row r="44" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="7"/>
       <c r="B44" s="7" t="s">
         <v>180</v>
@@ -3411,7 +2865,7 @@
       </c>
       <c r="L44" s="7"/>
     </row>
-    <row r="45" ht="18" customHeight="1" spans="1:12">
+    <row r="45" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="7"/>
       <c r="B45" s="7"/>
       <c r="C45" s="8"/>
@@ -3425,7 +2879,7 @@
       <c r="K45" s="7"/>
       <c r="L45" s="7"/>
     </row>
-    <row r="46" ht="18" customHeight="1" spans="1:12">
+    <row r="46" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="7"/>
       <c r="B46" s="7" t="s">
         <v>185</v>
@@ -3447,7 +2901,7 @@
       </c>
       <c r="L46" s="7"/>
     </row>
-    <row r="47" ht="18" customHeight="1" spans="1:12">
+    <row r="47" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="7"/>
       <c r="B47" s="10" t="s">
         <v>188</v>
@@ -3469,7 +2923,7 @@
       </c>
       <c r="L47" s="7"/>
     </row>
-    <row r="48" ht="18" customHeight="1" spans="1:12">
+    <row r="48" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="7"/>
       <c r="B48" s="7"/>
       <c r="C48" s="8"/>
@@ -3483,7 +2937,7 @@
       <c r="K48" s="7"/>
       <c r="L48" s="7"/>
     </row>
-    <row r="49" ht="18" customHeight="1" spans="1:12">
+    <row r="49" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="7"/>
       <c r="B49" s="7" t="s">
         <v>191</v>
@@ -3515,7 +2969,7 @@
       </c>
       <c r="L49" s="7"/>
     </row>
-    <row r="50" ht="18" customHeight="1" spans="1:12">
+    <row r="50" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="7"/>
       <c r="B50" s="7" t="s">
         <v>197</v>
@@ -3543,7 +2997,7 @@
       </c>
       <c r="L50" s="7"/>
     </row>
-    <row r="51" ht="18" customHeight="1" spans="1:12">
+    <row r="51" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="7"/>
       <c r="B51" s="7"/>
       <c r="C51" s="8"/>
@@ -3557,7 +3011,7 @@
       <c r="K51" s="7"/>
       <c r="L51" s="7"/>
     </row>
-    <row r="52" ht="18" customHeight="1" spans="1:12">
+    <row r="52" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="7"/>
       <c r="B52" s="7" t="s">
         <v>199</v>
@@ -3587,7 +3041,7 @@
       </c>
       <c r="L52" s="7"/>
     </row>
-    <row r="53" ht="18" customHeight="1" spans="1:12">
+    <row r="53" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="7"/>
       <c r="B53" s="7"/>
       <c r="C53" s="8"/>
@@ -3601,7 +3055,7 @@
       <c r="K53" s="7"/>
       <c r="L53" s="7"/>
     </row>
-    <row r="54" ht="18" customHeight="1" spans="1:12">
+    <row r="54" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="7"/>
       <c r="B54" s="7" t="s">
         <v>206</v>
@@ -3627,7 +3081,7 @@
       </c>
       <c r="L54" s="7"/>
     </row>
-    <row r="55" ht="18" customHeight="1" spans="1:12">
+    <row r="55" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="7"/>
       <c r="B55" s="7" t="s">
         <v>212</v>
@@ -3651,7 +3105,7 @@
       </c>
       <c r="L55" s="7"/>
     </row>
-    <row r="56" ht="18" customHeight="1" spans="1:12">
+    <row r="56" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="7"/>
       <c r="B56" s="7"/>
       <c r="C56" s="8"/>
@@ -3665,7 +3119,7 @@
       <c r="K56" s="7"/>
       <c r="L56" s="7"/>
     </row>
-    <row r="57" ht="18" customHeight="1" spans="1:12">
+    <row r="57" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="7"/>
       <c r="B57" s="7" t="s">
         <v>217</v>
@@ -3687,7 +3141,7 @@
       </c>
       <c r="L57" s="7"/>
     </row>
-    <row r="58" ht="18" customHeight="1" spans="1:12">
+    <row r="58" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="7"/>
       <c r="B58" s="7" t="s">
         <v>221</v>
@@ -3709,7 +3163,7 @@
       </c>
       <c r="L58" s="7"/>
     </row>
-    <row r="59" ht="18" customHeight="1" spans="1:12">
+    <row r="59" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="7"/>
       <c r="B59" s="7"/>
       <c r="C59" s="8"/>
@@ -3723,7 +3177,7 @@
       <c r="K59" s="7"/>
       <c r="L59" s="7"/>
     </row>
-    <row r="60" ht="18" customHeight="1" spans="1:12">
+    <row r="60" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="7"/>
       <c r="B60" s="7" t="s">
         <v>224</v>
@@ -3751,7 +3205,7 @@
       </c>
       <c r="L60" s="7"/>
     </row>
-    <row r="61" ht="18" customHeight="1" spans="1:12">
+    <row r="61" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="7"/>
       <c r="B61" s="7" t="s">
         <v>229</v>
@@ -3773,7 +3227,7 @@
       </c>
       <c r="L61" s="7"/>
     </row>
-    <row r="62" ht="18" customHeight="1" spans="1:12">
+    <row r="62" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="7"/>
       <c r="B62" s="7" t="s">
         <v>231</v>
@@ -3801,7 +3255,7 @@
       </c>
       <c r="L62" s="7"/>
     </row>
-    <row r="63" ht="18" customHeight="1" spans="1:12">
+    <row r="63" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="7"/>
       <c r="B63" s="7" t="s">
         <v>235</v>
@@ -3823,7 +3277,7 @@
       </c>
       <c r="L63" s="7"/>
     </row>
-    <row r="64" ht="18" customHeight="1" spans="1:12">
+    <row r="64" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="7"/>
       <c r="B64" s="7" t="s">
         <v>237</v>
@@ -3845,7 +3299,7 @@
       </c>
       <c r="L64" s="7"/>
     </row>
-    <row r="65" ht="18" customHeight="1" spans="1:12">
+    <row r="65" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="7"/>
       <c r="B65" s="7"/>
       <c r="C65" s="8"/>
@@ -3859,7 +3313,7 @@
       <c r="K65" s="7"/>
       <c r="L65" s="7"/>
     </row>
-    <row r="66" ht="18" customHeight="1" spans="1:12">
+    <row r="66" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="7"/>
       <c r="B66" s="7" t="s">
         <v>239</v>
@@ -3879,7 +3333,7 @@
       </c>
       <c r="L66" s="7"/>
     </row>
-    <row r="67" ht="18" customHeight="1" spans="1:12">
+    <row r="67" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="7"/>
       <c r="B67" s="7" t="s">
         <v>242</v>
@@ -3899,7 +3353,7 @@
       </c>
       <c r="L67" s="7"/>
     </row>
-    <row r="68" ht="18" customHeight="1" spans="1:12">
+    <row r="68" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="7"/>
       <c r="B68" s="7" t="s">
         <v>244</v>
@@ -3918,33 +3372,37 @@
       </c>
       <c r="L68" s="7"/>
     </row>
-    <row r="69" ht="18" customHeight="1" spans="1:12">
+    <row r="69" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="7"/>
-      <c r="B69" s="7" t="s">
-        <v>246</v>
+      <c r="B69" s="8" t="s">
+        <v>302</v>
       </c>
       <c r="C69" s="8" t="s">
-        <v>247</v>
+        <v>303</v>
       </c>
       <c r="D69" s="7"/>
       <c r="E69" s="7"/>
       <c r="F69" s="7"/>
       <c r="G69" s="7"/>
       <c r="H69" s="7"/>
-      <c r="I69" s="7"/>
-      <c r="J69" s="7"/>
+      <c r="I69" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="J69" s="2" t="s">
+        <v>305</v>
+      </c>
       <c r="K69" s="10" t="s">
-        <v>248</v>
+        <v>302</v>
       </c>
       <c r="L69" s="7"/>
     </row>
-    <row r="70" ht="18" customHeight="1" spans="1:12">
+    <row r="70" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="7"/>
       <c r="B70" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="C70" s="8" t="s">
-        <v>250</v>
+        <v>246</v>
+      </c>
+      <c r="C70" s="13" t="s">
+        <v>306</v>
       </c>
       <c r="D70" s="7"/>
       <c r="E70" s="7"/>
@@ -3954,61 +3412,59 @@
       <c r="I70" s="7"/>
       <c r="J70" s="7"/>
       <c r="K70" s="10" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="L70" s="7"/>
     </row>
-    <row r="71" ht="18" customHeight="1" spans="1:12">
+    <row r="71" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="7"/>
-      <c r="B71" s="10" t="s">
-        <v>252</v>
+      <c r="B71" s="7" t="s">
+        <v>298</v>
       </c>
       <c r="C71" s="8" t="s">
-        <v>253</v>
+        <v>299</v>
       </c>
       <c r="D71" s="7"/>
       <c r="E71" s="7"/>
       <c r="F71" s="7"/>
       <c r="G71" s="7"/>
       <c r="H71" s="7"/>
-      <c r="I71" s="7"/>
+      <c r="I71" s="7" t="s">
+        <v>300</v>
+      </c>
       <c r="J71" s="7"/>
       <c r="K71" s="10" t="s">
-        <v>254</v>
+        <v>301</v>
       </c>
       <c r="L71" s="7"/>
     </row>
-    <row r="72" ht="18" customHeight="1" spans="1:12">
+    <row r="72" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="7"/>
       <c r="B72" s="7" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="C72" s="8" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="D72" s="7"/>
-      <c r="E72" s="7" t="s">
-        <v>257</v>
-      </c>
+      <c r="E72" s="7"/>
       <c r="F72" s="7"/>
       <c r="G72" s="7"/>
       <c r="H72" s="7"/>
       <c r="I72" s="7"/>
-      <c r="J72" s="7" t="s">
-        <v>258</v>
-      </c>
-      <c r="K72" s="7" t="s">
+      <c r="J72" s="7"/>
+      <c r="K72" s="10" t="s">
+        <v>250</v>
+      </c>
+      <c r="L72" s="7"/>
+    </row>
+    <row r="73" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="7"/>
+      <c r="B73" s="10" t="s">
         <v>251</v>
       </c>
-      <c r="L72" s="7"/>
-    </row>
-    <row r="73" ht="18" customHeight="1" spans="1:12">
-      <c r="A73" s="7"/>
-      <c r="B73" s="7" t="s">
-        <v>259</v>
-      </c>
       <c r="C73" s="8" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="D73" s="7"/>
       <c r="E73" s="7"/>
@@ -4017,32 +3473,42 @@
       <c r="H73" s="7"/>
       <c r="I73" s="7"/>
       <c r="J73" s="7"/>
-      <c r="K73" s="7" t="s">
-        <v>261</v>
+      <c r="K73" s="10" t="s">
+        <v>253</v>
       </c>
       <c r="L73" s="7"/>
     </row>
-    <row r="74" ht="18" customHeight="1" spans="1:12">
+    <row r="74" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="7"/>
-      <c r="B74" s="7"/>
-      <c r="C74" s="8"/>
+      <c r="B74" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="C74" s="8" t="s">
+        <v>255</v>
+      </c>
       <c r="D74" s="7"/>
-      <c r="E74" s="7"/>
+      <c r="E74" s="7" t="s">
+        <v>256</v>
+      </c>
       <c r="F74" s="7"/>
       <c r="G74" s="7"/>
       <c r="H74" s="7"/>
       <c r="I74" s="7"/>
-      <c r="J74" s="7"/>
-      <c r="K74" s="7"/>
+      <c r="J74" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="K74" s="7" t="s">
+        <v>250</v>
+      </c>
       <c r="L74" s="7"/>
     </row>
-    <row r="75" ht="18" customHeight="1" spans="1:12">
+    <row r="75" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="7"/>
       <c r="B75" s="7" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="C75" s="8" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="D75" s="7"/>
       <c r="E75" s="7"/>
@@ -4052,11 +3518,11 @@
       <c r="I75" s="7"/>
       <c r="J75" s="7"/>
       <c r="K75" s="7" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="L75" s="7"/>
     </row>
-    <row r="76" ht="18" customHeight="1" spans="1:12">
+    <row r="76" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="7"/>
       <c r="B76" s="7"/>
       <c r="C76" s="8"/>
@@ -4070,13 +3536,13 @@
       <c r="K76" s="7"/>
       <c r="L76" s="7"/>
     </row>
-    <row r="77" ht="18" customHeight="1" spans="1:12">
+    <row r="77" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="7"/>
       <c r="B77" s="7" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="C77" s="8" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="D77" s="7"/>
       <c r="E77" s="7"/>
@@ -4086,11 +3552,11 @@
       <c r="I77" s="7"/>
       <c r="J77" s="7"/>
       <c r="K77" s="7" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="L77" s="7"/>
     </row>
-    <row r="78" ht="18" customHeight="1" spans="1:12">
+    <row r="78" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="7"/>
       <c r="B78" s="7"/>
       <c r="C78" s="8"/>
@@ -4104,166 +3570,160 @@
       <c r="K78" s="7"/>
       <c r="L78" s="7"/>
     </row>
-    <row r="79" ht="18" customHeight="1" spans="1:12">
+    <row r="79" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="7"/>
       <c r="B79" s="7" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="C79" s="8" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="D79" s="7"/>
-      <c r="E79" s="7" t="s">
-        <v>270</v>
-      </c>
+      <c r="E79" s="7"/>
       <c r="F79" s="7"/>
       <c r="G79" s="7"/>
       <c r="H79" s="7"/>
-      <c r="I79" s="7" t="s">
-        <v>270</v>
-      </c>
-      <c r="J79" s="7" t="s">
-        <v>271</v>
-      </c>
+      <c r="I79" s="7"/>
+      <c r="J79" s="7"/>
       <c r="K79" s="7" t="s">
-        <v>272</v>
-      </c>
-      <c r="L79" s="12" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="80" ht="18" customHeight="1" spans="1:12">
+        <v>266</v>
+      </c>
+      <c r="L79" s="7"/>
+    </row>
+    <row r="80" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="7"/>
-      <c r="B80" s="7" t="s">
-        <v>268</v>
-      </c>
-      <c r="C80" s="8" t="s">
-        <v>274</v>
-      </c>
+      <c r="B80" s="7"/>
+      <c r="C80" s="8"/>
       <c r="D80" s="7"/>
       <c r="E80" s="7"/>
       <c r="F80" s="7"/>
       <c r="G80" s="7"/>
       <c r="H80" s="7"/>
-      <c r="I80" s="7" t="s">
-        <v>270</v>
-      </c>
-      <c r="J80" s="7" t="s">
-        <v>271</v>
-      </c>
-      <c r="K80" s="7" t="s">
-        <v>275</v>
-      </c>
-      <c r="L80" s="12" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="81" ht="18" customHeight="1" spans="1:12">
+      <c r="I80" s="7"/>
+      <c r="J80" s="7"/>
+      <c r="K80" s="7"/>
+      <c r="L80" s="7"/>
+    </row>
+    <row r="81" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="7"/>
       <c r="B81" s="7" t="s">
-        <v>277</v>
+        <v>267</v>
       </c>
       <c r="C81" s="8" t="s">
-        <v>278</v>
+        <v>268</v>
       </c>
       <c r="D81" s="7"/>
       <c r="E81" s="7" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="F81" s="7"/>
       <c r="G81" s="7"/>
       <c r="H81" s="7"/>
       <c r="I81" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="J81" s="7" t="s">
         <v>270</v>
       </c>
-      <c r="J81" s="7"/>
       <c r="K81" s="7" t="s">
-        <v>279</v>
-      </c>
-      <c r="L81" s="7"/>
-    </row>
-    <row r="82" ht="18" customHeight="1" spans="1:12">
+        <v>271</v>
+      </c>
+      <c r="L81" s="12" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="7"/>
       <c r="B82" s="7" t="s">
-        <v>280</v>
+        <v>267</v>
       </c>
       <c r="C82" s="8" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="D82" s="7"/>
-      <c r="E82" s="7" t="s">
-        <v>270</v>
-      </c>
+      <c r="E82" s="7"/>
       <c r="F82" s="7"/>
       <c r="G82" s="7"/>
       <c r="H82" s="7"/>
       <c r="I82" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="J82" s="7" t="s">
         <v>270</v>
       </c>
-      <c r="J82" s="7"/>
       <c r="K82" s="7" t="s">
-        <v>282</v>
-      </c>
-      <c r="L82" s="7"/>
-    </row>
-    <row r="83" ht="18" customHeight="1" spans="1:12">
+        <v>274</v>
+      </c>
+      <c r="L82" s="12" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="7"/>
-      <c r="B83" s="7"/>
-      <c r="C83" s="8"/>
+      <c r="B83" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="C83" s="8" t="s">
+        <v>277</v>
+      </c>
       <c r="D83" s="7"/>
-      <c r="E83" s="7"/>
+      <c r="E83" s="7" t="s">
+        <v>269</v>
+      </c>
       <c r="F83" s="7"/>
       <c r="G83" s="7"/>
       <c r="H83" s="7"/>
-      <c r="I83" s="7"/>
+      <c r="I83" s="7" t="s">
+        <v>269</v>
+      </c>
       <c r="J83" s="7"/>
-      <c r="K83" s="7"/>
+      <c r="K83" s="7" t="s">
+        <v>278</v>
+      </c>
       <c r="L83" s="7"/>
     </row>
-    <row r="84" ht="18" customHeight="1" spans="1:12">
+    <row r="84" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="7"/>
-      <c r="B84" s="7"/>
-      <c r="C84" s="8"/>
+      <c r="B84" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="C84" s="8" t="s">
+        <v>280</v>
+      </c>
       <c r="D84" s="7"/>
-      <c r="E84" s="7"/>
+      <c r="E84" s="7" t="s">
+        <v>269</v>
+      </c>
       <c r="F84" s="7"/>
       <c r="G84" s="7"/>
       <c r="H84" s="7"/>
-      <c r="I84" s="7"/>
+      <c r="I84" s="7" t="s">
+        <v>269</v>
+      </c>
       <c r="J84" s="7"/>
-      <c r="K84" s="7"/>
+      <c r="K84" s="7" t="s">
+        <v>281</v>
+      </c>
       <c r="L84" s="7"/>
     </row>
-    <row r="85" ht="18" customHeight="1" spans="1:12">
+    <row r="85" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="7"/>
-      <c r="B85" s="10" t="s">
-        <v>283</v>
-      </c>
-      <c r="C85" s="11" t="s">
-        <v>284</v>
-      </c>
+      <c r="B85" s="7"/>
+      <c r="C85" s="8"/>
       <c r="D85" s="7"/>
       <c r="E85" s="7"/>
       <c r="F85" s="7"/>
       <c r="G85" s="7"/>
       <c r="H85" s="7"/>
-      <c r="I85" s="10" t="s">
-        <v>285</v>
-      </c>
+      <c r="I85" s="7"/>
       <c r="J85" s="7"/>
-      <c r="K85" s="10" t="s">
-        <v>285</v>
-      </c>
+      <c r="K85" s="7"/>
       <c r="L85" s="7"/>
     </row>
-    <row r="86" ht="18" customHeight="1" spans="1:12">
+    <row r="86" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="7"/>
-      <c r="B86" s="7" t="s">
-        <v>286</v>
-      </c>
-      <c r="C86" s="8" t="s">
-        <v>287</v>
-      </c>
+      <c r="B86" s="7"/>
+      <c r="C86" s="8"/>
       <c r="D86" s="7"/>
       <c r="E86" s="7"/>
       <c r="F86" s="7"/>
@@ -4271,36 +3731,38 @@
       <c r="H86" s="7"/>
       <c r="I86" s="7"/>
       <c r="J86" s="7"/>
-      <c r="K86" s="10" t="s">
-        <v>288</v>
-      </c>
+      <c r="K86" s="7"/>
       <c r="L86" s="7"/>
     </row>
-    <row r="87" ht="18" customHeight="1" spans="1:12">
+    <row r="87" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="7"/>
-      <c r="B87" s="7" t="s">
-        <v>289</v>
-      </c>
-      <c r="C87" s="8" t="s">
-        <v>290</v>
+      <c r="B87" s="10" t="s">
+        <v>282</v>
+      </c>
+      <c r="C87" s="11" t="s">
+        <v>283</v>
       </c>
       <c r="D87" s="7"/>
       <c r="E87" s="7"/>
       <c r="F87" s="7"/>
       <c r="G87" s="7"/>
       <c r="H87" s="7"/>
-      <c r="I87" s="7"/>
+      <c r="I87" s="10" t="s">
+        <v>284</v>
+      </c>
       <c r="J87" s="7"/>
-      <c r="K87" s="7"/>
+      <c r="K87" s="10" t="s">
+        <v>284</v>
+      </c>
       <c r="L87" s="7"/>
     </row>
-    <row r="88" ht="18" customHeight="1" spans="1:12">
+    <row r="88" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="7"/>
       <c r="B88" s="7" t="s">
-        <v>291</v>
-      </c>
-      <c r="C88" s="11" t="s">
-        <v>292</v>
+        <v>285</v>
+      </c>
+      <c r="C88" s="8" t="s">
+        <v>286</v>
       </c>
       <c r="D88" s="7"/>
       <c r="E88" s="7"/>
@@ -4309,18 +3771,18 @@
       <c r="H88" s="7"/>
       <c r="I88" s="7"/>
       <c r="J88" s="7"/>
-      <c r="K88" s="7" t="s">
-        <v>291</v>
+      <c r="K88" s="10" t="s">
+        <v>287</v>
       </c>
       <c r="L88" s="7"/>
     </row>
-    <row r="89" ht="18" customHeight="1" spans="1:12">
+    <row r="89" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="7"/>
       <c r="B89" s="7" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="C89" s="8" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="D89" s="7"/>
       <c r="E89" s="7"/>
@@ -4329,37 +3791,37 @@
       <c r="H89" s="7"/>
       <c r="I89" s="7"/>
       <c r="J89" s="7"/>
-      <c r="K89" s="10" t="s">
-        <v>295</v>
-      </c>
+      <c r="K89" s="7"/>
       <c r="L89" s="7"/>
     </row>
-    <row r="90" ht="18" customHeight="1" spans="1:12">
+    <row r="90" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="7"/>
-      <c r="B90" s="10" t="s">
-        <v>296</v>
+      <c r="B90" s="7" t="s">
+        <v>290</v>
       </c>
       <c r="C90" s="11" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="D90" s="7"/>
       <c r="E90" s="7"/>
       <c r="F90" s="7"/>
       <c r="G90" s="7"/>
       <c r="H90" s="7"/>
-      <c r="I90" s="7" t="s">
-        <v>298</v>
-      </c>
+      <c r="I90" s="7"/>
       <c r="J90" s="7"/>
       <c r="K90" s="7" t="s">
-        <v>298</v>
+        <v>290</v>
       </c>
       <c r="L90" s="7"/>
     </row>
-    <row r="91" ht="18" customHeight="1" spans="1:12">
+    <row r="91" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="7"/>
-      <c r="B91" s="7"/>
-      <c r="C91" s="8"/>
+      <c r="B91" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="C91" s="8" t="s">
+        <v>293</v>
+      </c>
       <c r="D91" s="7"/>
       <c r="E91" s="7"/>
       <c r="F91" s="7"/>
@@ -4367,24 +3829,34 @@
       <c r="H91" s="7"/>
       <c r="I91" s="7"/>
       <c r="J91" s="7"/>
-      <c r="K91" s="7"/>
+      <c r="K91" s="10" t="s">
+        <v>294</v>
+      </c>
       <c r="L91" s="7"/>
     </row>
-    <row r="92" ht="18" customHeight="1" spans="1:12">
+    <row r="92" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="7"/>
-      <c r="B92" s="7"/>
-      <c r="C92" s="8"/>
+      <c r="B92" s="10" t="s">
+        <v>295</v>
+      </c>
+      <c r="C92" s="11" t="s">
+        <v>296</v>
+      </c>
       <c r="D92" s="7"/>
       <c r="E92" s="7"/>
       <c r="F92" s="7"/>
       <c r="G92" s="7"/>
       <c r="H92" s="7"/>
-      <c r="I92" s="7"/>
+      <c r="I92" s="7" t="s">
+        <v>297</v>
+      </c>
       <c r="J92" s="7"/>
-      <c r="K92" s="7"/>
+      <c r="K92" s="7" t="s">
+        <v>297</v>
+      </c>
       <c r="L92" s="7"/>
     </row>
-    <row r="93" ht="18" customHeight="1" spans="1:12">
+    <row r="93" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="7"/>
       <c r="B93" s="7"/>
       <c r="C93" s="8"/>
@@ -4398,7 +3870,7 @@
       <c r="K93" s="7"/>
       <c r="L93" s="7"/>
     </row>
-    <row r="94" ht="18" customHeight="1" spans="1:12">
+    <row r="94" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="7"/>
       <c r="B94" s="7"/>
       <c r="C94" s="8"/>
@@ -4412,7 +3884,7 @@
       <c r="K94" s="7"/>
       <c r="L94" s="7"/>
     </row>
-    <row r="95" ht="18" customHeight="1" spans="1:12">
+    <row r="95" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="7"/>
       <c r="B95" s="7"/>
       <c r="C95" s="8"/>
@@ -4426,7 +3898,7 @@
       <c r="K95" s="7"/>
       <c r="L95" s="7"/>
     </row>
-    <row r="96" ht="18" customHeight="1" spans="1:12">
+    <row r="96" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="7"/>
       <c r="B96" s="7"/>
       <c r="C96" s="8"/>
@@ -4440,7 +3912,7 @@
       <c r="K96" s="7"/>
       <c r="L96" s="7"/>
     </row>
-    <row r="97" ht="18" customHeight="1" spans="1:12">
+    <row r="97" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="7"/>
       <c r="B97" s="7"/>
       <c r="C97" s="8"/>
@@ -4454,7 +3926,7 @@
       <c r="K97" s="7"/>
       <c r="L97" s="7"/>
     </row>
-    <row r="98" ht="18" customHeight="1" spans="1:12">
+    <row r="98" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="7"/>
       <c r="B98" s="7"/>
       <c r="C98" s="8"/>
@@ -4468,7 +3940,7 @@
       <c r="K98" s="7"/>
       <c r="L98" s="7"/>
     </row>
-    <row r="99" ht="18" customHeight="1" spans="1:12">
+    <row r="99" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="7"/>
       <c r="B99" s="7"/>
       <c r="C99" s="8"/>
@@ -4482,7 +3954,7 @@
       <c r="K99" s="7"/>
       <c r="L99" s="7"/>
     </row>
-    <row r="100" ht="18" customHeight="1" spans="1:12">
+    <row r="100" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="7"/>
       <c r="B100" s="7"/>
       <c r="C100" s="8"/>
@@ -4496,7 +3968,7 @@
       <c r="K100" s="7"/>
       <c r="L100" s="7"/>
     </row>
-    <row r="101" ht="18" customHeight="1" spans="1:12">
+    <row r="101" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="7"/>
       <c r="B101" s="7"/>
       <c r="C101" s="8"/>
@@ -4510,7 +3982,7 @@
       <c r="K101" s="7"/>
       <c r="L101" s="7"/>
     </row>
-    <row r="102" ht="18" customHeight="1" spans="1:12">
+    <row r="102" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="7"/>
       <c r="B102" s="7"/>
       <c r="C102" s="8"/>
@@ -4524,7 +3996,7 @@
       <c r="K102" s="7"/>
       <c r="L102" s="7"/>
     </row>
-    <row r="103" ht="18" customHeight="1" spans="1:12">
+    <row r="103" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="7"/>
       <c r="B103" s="7"/>
       <c r="C103" s="8"/>
@@ -4538,7 +4010,7 @@
       <c r="K103" s="7"/>
       <c r="L103" s="7"/>
     </row>
-    <row r="104" ht="18" customHeight="1" spans="1:12">
+    <row r="104" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="7"/>
       <c r="B104" s="7"/>
       <c r="C104" s="8"/>
@@ -4552,7 +4024,7 @@
       <c r="K104" s="7"/>
       <c r="L104" s="7"/>
     </row>
-    <row r="105" ht="18" customHeight="1" spans="1:12">
+    <row r="105" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="7"/>
       <c r="B105" s="7"/>
       <c r="C105" s="8"/>
@@ -4566,7 +4038,7 @@
       <c r="K105" s="7"/>
       <c r="L105" s="7"/>
     </row>
-    <row r="106" ht="18" customHeight="1" spans="1:12">
+    <row r="106" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="7"/>
       <c r="B106" s="7"/>
       <c r="C106" s="8"/>
@@ -4580,7 +4052,7 @@
       <c r="K106" s="7"/>
       <c r="L106" s="7"/>
     </row>
-    <row r="107" ht="18" customHeight="1" spans="1:12">
+    <row r="107" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="7"/>
       <c r="B107" s="7"/>
       <c r="C107" s="8"/>
@@ -4594,7 +4066,7 @@
       <c r="K107" s="7"/>
       <c r="L107" s="7"/>
     </row>
-    <row r="108" ht="18" customHeight="1" spans="1:12">
+    <row r="108" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="7"/>
       <c r="B108" s="7"/>
       <c r="C108" s="8"/>
@@ -4608,7 +4080,7 @@
       <c r="K108" s="7"/>
       <c r="L108" s="7"/>
     </row>
-    <row r="109" ht="18" customHeight="1" spans="1:12">
+    <row r="109" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="7"/>
       <c r="B109" s="7"/>
       <c r="C109" s="8"/>
@@ -4622,7 +4094,7 @@
       <c r="K109" s="7"/>
       <c r="L109" s="7"/>
     </row>
-    <row r="110" ht="18" customHeight="1" spans="1:12">
+    <row r="110" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="7"/>
       <c r="B110" s="7"/>
       <c r="C110" s="8"/>
@@ -4636,7 +4108,7 @@
       <c r="K110" s="7"/>
       <c r="L110" s="7"/>
     </row>
-    <row r="111" ht="18" customHeight="1" spans="1:12">
+    <row r="111" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="7"/>
       <c r="B111" s="7"/>
       <c r="C111" s="8"/>
@@ -4650,7 +4122,7 @@
       <c r="K111" s="7"/>
       <c r="L111" s="7"/>
     </row>
-    <row r="112" ht="18" customHeight="1" spans="1:12">
+    <row r="112" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="7"/>
       <c r="B112" s="7"/>
       <c r="C112" s="8"/>
@@ -4664,7 +4136,7 @@
       <c r="K112" s="7"/>
       <c r="L112" s="7"/>
     </row>
-    <row r="113" ht="18" customHeight="1" spans="1:12">
+    <row r="113" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="7"/>
       <c r="B113" s="7"/>
       <c r="C113" s="8"/>
@@ -4678,7 +4150,7 @@
       <c r="K113" s="7"/>
       <c r="L113" s="7"/>
     </row>
-    <row r="114" ht="18" customHeight="1" spans="1:12">
+    <row r="114" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="7"/>
       <c r="B114" s="7"/>
       <c r="C114" s="8"/>
@@ -4692,7 +4164,7 @@
       <c r="K114" s="7"/>
       <c r="L114" s="7"/>
     </row>
-    <row r="115" ht="18" customHeight="1" spans="1:12">
+    <row r="115" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="7"/>
       <c r="B115" s="7"/>
       <c r="C115" s="8"/>
@@ -4706,7 +4178,7 @@
       <c r="K115" s="7"/>
       <c r="L115" s="7"/>
     </row>
-    <row r="116" ht="18" customHeight="1" spans="1:12">
+    <row r="116" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="7"/>
       <c r="B116" s="7"/>
       <c r="C116" s="8"/>
@@ -4720,7 +4192,7 @@
       <c r="K116" s="7"/>
       <c r="L116" s="7"/>
     </row>
-    <row r="117" ht="18" customHeight="1" spans="1:12">
+    <row r="117" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="7"/>
       <c r="B117" s="7"/>
       <c r="C117" s="8"/>
@@ -4734,7 +4206,7 @@
       <c r="K117" s="7"/>
       <c r="L117" s="7"/>
     </row>
-    <row r="118" ht="18" customHeight="1" spans="1:12">
+    <row r="118" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="7"/>
       <c r="B118" s="7"/>
       <c r="C118" s="8"/>
@@ -4748,7 +4220,7 @@
       <c r="K118" s="7"/>
       <c r="L118" s="7"/>
     </row>
-    <row r="119" ht="18" customHeight="1" spans="1:12">
+    <row r="119" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="7"/>
       <c r="B119" s="7"/>
       <c r="C119" s="8"/>
@@ -4762,7 +4234,7 @@
       <c r="K119" s="7"/>
       <c r="L119" s="7"/>
     </row>
-    <row r="120" ht="18" customHeight="1" spans="1:12">
+    <row r="120" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="7"/>
       <c r="B120" s="7"/>
       <c r="C120" s="8"/>
@@ -4776,7 +4248,7 @@
       <c r="K120" s="7"/>
       <c r="L120" s="7"/>
     </row>
-    <row r="121" ht="18" customHeight="1" spans="1:12">
+    <row r="121" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="7"/>
       <c r="B121" s="7"/>
       <c r="C121" s="8"/>
@@ -4790,7 +4262,7 @@
       <c r="K121" s="7"/>
       <c r="L121" s="7"/>
     </row>
-    <row r="122" ht="18" customHeight="1" spans="1:12">
+    <row r="122" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="7"/>
       <c r="B122" s="7"/>
       <c r="C122" s="8"/>
@@ -4804,7 +4276,7 @@
       <c r="K122" s="7"/>
       <c r="L122" s="7"/>
     </row>
-    <row r="123" ht="18" customHeight="1" spans="1:12">
+    <row r="123" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="7"/>
       <c r="B123" s="7"/>
       <c r="C123" s="8"/>
@@ -4818,7 +4290,7 @@
       <c r="K123" s="7"/>
       <c r="L123" s="7"/>
     </row>
-    <row r="124" ht="18" customHeight="1" spans="1:12">
+    <row r="124" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="7"/>
       <c r="B124" s="7"/>
       <c r="C124" s="8"/>
@@ -4832,7 +4304,7 @@
       <c r="K124" s="7"/>
       <c r="L124" s="7"/>
     </row>
-    <row r="125" ht="18" customHeight="1" spans="1:12">
+    <row r="125" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="7"/>
       <c r="B125" s="7"/>
       <c r="C125" s="8"/>
@@ -4846,7 +4318,7 @@
       <c r="K125" s="7"/>
       <c r="L125" s="7"/>
     </row>
-    <row r="126" ht="18" customHeight="1" spans="1:12">
+    <row r="126" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="7"/>
       <c r="B126" s="7"/>
       <c r="C126" s="8"/>
@@ -4860,7 +4332,7 @@
       <c r="K126" s="7"/>
       <c r="L126" s="7"/>
     </row>
-    <row r="127" ht="18" customHeight="1" spans="1:12">
+    <row r="127" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="7"/>
       <c r="B127" s="7"/>
       <c r="C127" s="8"/>
@@ -4874,7 +4346,7 @@
       <c r="K127" s="7"/>
       <c r="L127" s="7"/>
     </row>
-    <row r="128" ht="18" customHeight="1" spans="1:12">
+    <row r="128" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="7"/>
       <c r="B128" s="7"/>
       <c r="C128" s="8"/>
@@ -4888,7 +4360,7 @@
       <c r="K128" s="7"/>
       <c r="L128" s="7"/>
     </row>
-    <row r="129" ht="18" customHeight="1" spans="1:12">
+    <row r="129" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="7"/>
       <c r="B129" s="7"/>
       <c r="C129" s="8"/>
@@ -4902,7 +4374,7 @@
       <c r="K129" s="7"/>
       <c r="L129" s="7"/>
     </row>
-    <row r="130" ht="18" customHeight="1" spans="1:12">
+    <row r="130" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="7"/>
       <c r="B130" s="7"/>
       <c r="C130" s="8"/>
@@ -4916,7 +4388,7 @@
       <c r="K130" s="7"/>
       <c r="L130" s="7"/>
     </row>
-    <row r="131" ht="18" customHeight="1" spans="1:12">
+    <row r="131" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="7"/>
       <c r="B131" s="7"/>
       <c r="C131" s="8"/>
@@ -4930,7 +4402,7 @@
       <c r="K131" s="7"/>
       <c r="L131" s="7"/>
     </row>
-    <row r="132" ht="18" customHeight="1" spans="1:12">
+    <row r="132" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="7"/>
       <c r="B132" s="7"/>
       <c r="C132" s="8"/>
@@ -4944,7 +4416,7 @@
       <c r="K132" s="7"/>
       <c r="L132" s="7"/>
     </row>
-    <row r="133" ht="18" customHeight="1" spans="1:12">
+    <row r="133" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="7"/>
       <c r="B133" s="7"/>
       <c r="C133" s="8"/>
@@ -4958,7 +4430,7 @@
       <c r="K133" s="7"/>
       <c r="L133" s="7"/>
     </row>
-    <row r="134" ht="18" customHeight="1" spans="1:12">
+    <row r="134" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="7"/>
       <c r="B134" s="7"/>
       <c r="C134" s="8"/>
@@ -4972,7 +4444,7 @@
       <c r="K134" s="7"/>
       <c r="L134" s="7"/>
     </row>
-    <row r="135" ht="18" customHeight="1" spans="1:12">
+    <row r="135" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="7"/>
       <c r="B135" s="7"/>
       <c r="C135" s="8"/>
@@ -4986,7 +4458,7 @@
       <c r="K135" s="7"/>
       <c r="L135" s="7"/>
     </row>
-    <row r="136" ht="18" customHeight="1" spans="1:12">
+    <row r="136" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="7"/>
       <c r="B136" s="7"/>
       <c r="C136" s="8"/>
@@ -5000,7 +4472,7 @@
       <c r="K136" s="7"/>
       <c r="L136" s="7"/>
     </row>
-    <row r="137" ht="18" customHeight="1" spans="1:12">
+    <row r="137" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="7"/>
       <c r="B137" s="7"/>
       <c r="C137" s="8"/>
@@ -5014,7 +4486,7 @@
       <c r="K137" s="7"/>
       <c r="L137" s="7"/>
     </row>
-    <row r="138" ht="18" customHeight="1" spans="1:12">
+    <row r="138" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="7"/>
       <c r="B138" s="7"/>
       <c r="C138" s="8"/>
@@ -5028,7 +4500,7 @@
       <c r="K138" s="7"/>
       <c r="L138" s="7"/>
     </row>
-    <row r="139" ht="18" customHeight="1" spans="1:12">
+    <row r="139" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="7"/>
       <c r="B139" s="7"/>
       <c r="C139" s="8"/>
@@ -5042,7 +4514,7 @@
       <c r="K139" s="7"/>
       <c r="L139" s="7"/>
     </row>
-    <row r="140" ht="18" customHeight="1" spans="1:12">
+    <row r="140" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" s="7"/>
       <c r="B140" s="7"/>
       <c r="C140" s="8"/>
@@ -5056,7 +4528,7 @@
       <c r="K140" s="7"/>
       <c r="L140" s="7"/>
     </row>
-    <row r="141" ht="18" customHeight="1" spans="1:12">
+    <row r="141" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="7"/>
       <c r="B141" s="7"/>
       <c r="C141" s="8"/>
@@ -5070,7 +4542,7 @@
       <c r="K141" s="7"/>
       <c r="L141" s="7"/>
     </row>
-    <row r="142" ht="18" customHeight="1" spans="1:12">
+    <row r="142" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" s="7"/>
       <c r="B142" s="7"/>
       <c r="C142" s="8"/>
@@ -5084,7 +4556,7 @@
       <c r="K142" s="7"/>
       <c r="L142" s="7"/>
     </row>
-    <row r="143" ht="18" customHeight="1" spans="1:12">
+    <row r="143" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" s="7"/>
       <c r="B143" s="7"/>
       <c r="C143" s="8"/>
@@ -5098,7 +4570,7 @@
       <c r="K143" s="7"/>
       <c r="L143" s="7"/>
     </row>
-    <row r="144" ht="18" customHeight="1" spans="1:12">
+    <row r="144" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" s="7"/>
       <c r="B144" s="7"/>
       <c r="C144" s="8"/>
@@ -5112,7 +4584,7 @@
       <c r="K144" s="7"/>
       <c r="L144" s="7"/>
     </row>
-    <row r="145" ht="18" customHeight="1" spans="1:12">
+    <row r="145" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" s="7"/>
       <c r="B145" s="7"/>
       <c r="C145" s="8"/>
@@ -5126,7 +4598,7 @@
       <c r="K145" s="7"/>
       <c r="L145" s="7"/>
     </row>
-    <row r="146" ht="18" customHeight="1" spans="1:12">
+    <row r="146" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" s="7"/>
       <c r="B146" s="7"/>
       <c r="C146" s="8"/>
@@ -5140,7 +4612,7 @@
       <c r="K146" s="7"/>
       <c r="L146" s="7"/>
     </row>
-    <row r="147" ht="18" customHeight="1" spans="1:12">
+    <row r="147" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A147" s="7"/>
       <c r="B147" s="7"/>
       <c r="C147" s="8"/>
@@ -5154,7 +4626,7 @@
       <c r="K147" s="7"/>
       <c r="L147" s="7"/>
     </row>
-    <row r="148" ht="18" customHeight="1" spans="1:12">
+    <row r="148" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A148" s="7"/>
       <c r="B148" s="7"/>
       <c r="C148" s="8"/>
@@ -5168,7 +4640,7 @@
       <c r="K148" s="7"/>
       <c r="L148" s="7"/>
     </row>
-    <row r="149" ht="18" customHeight="1" spans="1:12">
+    <row r="149" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A149" s="7"/>
       <c r="B149" s="7"/>
       <c r="C149" s="8"/>
@@ -5182,7 +4654,7 @@
       <c r="K149" s="7"/>
       <c r="L149" s="7"/>
     </row>
-    <row r="150" ht="18" customHeight="1" spans="1:12">
+    <row r="150" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A150" s="7"/>
       <c r="B150" s="7"/>
       <c r="C150" s="8"/>
@@ -5196,7 +4668,7 @@
       <c r="K150" s="7"/>
       <c r="L150" s="7"/>
     </row>
-    <row r="151" ht="18" customHeight="1" spans="1:12">
+    <row r="151" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A151" s="7"/>
       <c r="B151" s="7"/>
       <c r="C151" s="8"/>
@@ -5210,7 +4682,7 @@
       <c r="K151" s="7"/>
       <c r="L151" s="7"/>
     </row>
-    <row r="152" ht="18" customHeight="1" spans="1:12">
+    <row r="152" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152" s="7"/>
       <c r="B152" s="7"/>
       <c r="C152" s="8"/>
@@ -5224,7 +4696,7 @@
       <c r="K152" s="7"/>
       <c r="L152" s="7"/>
     </row>
-    <row r="153" ht="18" customHeight="1" spans="1:12">
+    <row r="153" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A153" s="7"/>
       <c r="B153" s="7"/>
       <c r="C153" s="8"/>
@@ -5238,7 +4710,7 @@
       <c r="K153" s="7"/>
       <c r="L153" s="7"/>
     </row>
-    <row r="154" ht="18" customHeight="1" spans="1:12">
+    <row r="154" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A154" s="7"/>
       <c r="B154" s="7"/>
       <c r="C154" s="8"/>
@@ -5252,7 +4724,7 @@
       <c r="K154" s="7"/>
       <c r="L154" s="7"/>
     </row>
-    <row r="155" ht="18" customHeight="1" spans="1:12">
+    <row r="155" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A155" s="7"/>
       <c r="B155" s="7"/>
       <c r="C155" s="8"/>
@@ -5266,7 +4738,7 @@
       <c r="K155" s="7"/>
       <c r="L155" s="7"/>
     </row>
-    <row r="156" ht="18" customHeight="1" spans="1:12">
+    <row r="156" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A156" s="7"/>
       <c r="B156" s="7"/>
       <c r="C156" s="8"/>
@@ -5280,7 +4752,7 @@
       <c r="K156" s="7"/>
       <c r="L156" s="7"/>
     </row>
-    <row r="157" ht="18" customHeight="1" spans="1:12">
+    <row r="157" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A157" s="7"/>
       <c r="B157" s="7"/>
       <c r="C157" s="8"/>
@@ -5294,7 +4766,7 @@
       <c r="K157" s="7"/>
       <c r="L157" s="7"/>
     </row>
-    <row r="158" ht="18" customHeight="1" spans="1:12">
+    <row r="158" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A158" s="7"/>
       <c r="B158" s="7"/>
       <c r="C158" s="8"/>
@@ -5308,47 +4780,69 @@
       <c r="K158" s="7"/>
       <c r="L158" s="7"/>
     </row>
+    <row r="159" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A159" s="7"/>
+      <c r="B159" s="7"/>
+      <c r="C159" s="8"/>
+      <c r="D159" s="7"/>
+      <c r="E159" s="7"/>
+      <c r="F159" s="7"/>
+      <c r="G159" s="7"/>
+      <c r="H159" s="7"/>
+      <c r="I159" s="7"/>
+      <c r="J159" s="7"/>
+      <c r="K159" s="7"/>
+      <c r="L159" s="7"/>
+    </row>
+    <row r="160" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A160" s="7"/>
+      <c r="B160" s="7"/>
+      <c r="C160" s="8"/>
+      <c r="D160" s="7"/>
+      <c r="E160" s="7"/>
+      <c r="F160" s="7"/>
+      <c r="G160" s="7"/>
+      <c r="H160" s="7"/>
+      <c r="I160" s="7"/>
+      <c r="J160" s="7"/>
+      <c r="K160" s="7"/>
+      <c r="L160" s="7"/>
+    </row>
   </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="L79" r:id="rId3" display="https://item.szlcsc.com/87756.html" tooltip="https://item.szlcsc.com/87756.html"/>
+    <hyperlink ref="L81" r:id="rId1" tooltip="https://item.szlcsc.com/87756.html" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
-  <legacyDrawing r:id="rId2"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData/>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData/>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/物料索引.xlsx
+++ b/物料索引.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20228"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Cadence-LIB\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{F7D69DA7-B29B-45B4-9737-8A1633FC07B6}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="28695" windowHeight="14070"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,12 +16,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>zxiat</author>
   </authors>
   <commentList>
-    <comment ref="A2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="A2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -57,7 +51,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
+    <comment ref="A3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -94,7 +88,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="482" uniqueCount="307">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310">
   <si>
     <t>物料编码</t>
   </si>
@@ -919,12 +913,39 @@
     <t>电源开关，2通道，usb用</t>
   </si>
   <si>
+    <t>tps22971</t>
+  </si>
+  <si>
+    <t>电源开关，3A 6.7m欧</t>
+  </si>
+  <si>
+    <t>bga</t>
+  </si>
+  <si>
+    <t>ti</t>
+  </si>
+  <si>
     <t>DS1308</t>
   </si>
   <si>
+    <t>RTC时钟芯片，需6pf电容，慎用</t>
+  </si>
+  <si>
     <t>usop_8</t>
   </si>
   <si>
+    <t>DS3231</t>
+  </si>
+  <si>
+    <t>RTC时钟芯片,内置晶振</t>
+  </si>
+  <si>
+    <t>so16</t>
+  </si>
+  <si>
+    <t>SOIC16_300mil</t>
+  </si>
+  <si>
     <t>IP1001</t>
   </si>
   <si>
@@ -998,6 +1019,15 @@
   </si>
   <si>
     <t>https://item.szlcsc.com/87756.html</t>
+  </si>
+  <si>
+    <t>RJ45,8P8C,百兆口，无变压器，90度</t>
+  </si>
+  <si>
+    <t>TE</t>
+  </si>
+  <si>
+    <t>https://item.szlcsc.com/136348.html</t>
   </si>
   <si>
     <t>RJ45,8P8C,5x百兆口，无变压器，90度</t>
@@ -1108,43 +1138,36 @@
   <si>
     <t>tf-015</t>
   </si>
-  <si>
-    <t>DS3231</t>
-  </si>
-  <si>
-    <t>RTC时钟芯片,内置晶振</t>
-  </si>
-  <si>
-    <t>so16</t>
-  </si>
-  <si>
-    <t>SOIC16_300mil</t>
-  </si>
-  <si>
-    <t>tps22971</t>
-  </si>
-  <si>
-    <t>电源开关，3A 6.7m欧</t>
-  </si>
-  <si>
-    <t>bga</t>
-  </si>
-  <si>
-    <t>ti</t>
-  </si>
-  <si>
-    <t>RTC时钟芯片，需6pf电容，慎用</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1159,37 +1182,148 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1198,12 +1332,198 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999389629810485"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -1226,16 +1546,255 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1272,25 +1831,71 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="10" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="10" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="超链接" xfId="1" builtinId="8"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1577,33 +2182,35 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L160"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:L161"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A64" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C71" sqref="C71"/>
+      <selection/>
+      <selection pane="bottomLeft" activeCell="P93" sqref="P93"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="18" style="2" customWidth="1"/>
-    <col min="2" max="2" width="18.21875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="18.2166666666667" style="2" customWidth="1"/>
     <col min="3" max="3" width="27" style="3" customWidth="1"/>
     <col min="4" max="4" width="9" style="2"/>
-    <col min="5" max="5" width="10.88671875" style="2" customWidth="1"/>
+    <col min="5" max="5" width="10.8833333333333" style="2" customWidth="1"/>
     <col min="6" max="9" width="9" style="2"/>
-    <col min="10" max="11" width="11.88671875" style="2" customWidth="1"/>
+    <col min="10" max="10" width="11.8833333333333" style="2" customWidth="1"/>
+    <col min="11" max="11" width="13.875" style="2" customWidth="1"/>
     <col min="12" max="12" width="9" style="2"/>
     <col min="13" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" s="1" customFormat="1" ht="18" customHeight="1" spans="1:12">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -1641,7 +2248,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" ht="18" customHeight="1" spans="1:12">
       <c r="A2" s="7" t="s">
         <v>12</v>
       </c>
@@ -1675,7 +2282,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" ht="18" customHeight="1" spans="1:12">
       <c r="A3" s="7" t="s">
         <v>21</v>
       </c>
@@ -1709,7 +2316,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" customFormat="1" ht="18" customHeight="1" spans="1:12">
       <c r="A4" s="7"/>
       <c r="B4" s="7"/>
       <c r="C4" s="8"/>
@@ -1723,7 +2330,7 @@
       <c r="K4" s="7"/>
       <c r="L4" s="7"/>
     </row>
-    <row r="5" spans="1:12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" customFormat="1" ht="18" customHeight="1" spans="1:12">
       <c r="A5" s="7"/>
       <c r="B5" s="7"/>
       <c r="C5" s="8"/>
@@ -1737,7 +2344,7 @@
       <c r="K5" s="7"/>
       <c r="L5" s="7"/>
     </row>
-    <row r="6" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" ht="18" customHeight="1" spans="1:12">
       <c r="A6" s="7" t="s">
         <v>30</v>
       </c>
@@ -1771,7 +2378,7 @@
       <c r="K6" s="7"/>
       <c r="L6" s="7"/>
     </row>
-    <row r="7" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" ht="18" customHeight="1" spans="1:12">
       <c r="A7" s="7" t="s">
         <v>38</v>
       </c>
@@ -1805,7 +2412,7 @@
       <c r="K7" s="7"/>
       <c r="L7" s="7"/>
     </row>
-    <row r="8" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" ht="18" customHeight="1" spans="1:12">
       <c r="A8" s="7" t="s">
         <v>42</v>
       </c>
@@ -1839,7 +2446,7 @@
       <c r="K8" s="7"/>
       <c r="L8" s="7"/>
     </row>
-    <row r="9" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" ht="18" customHeight="1" spans="1:12">
       <c r="A9" s="7" t="s">
         <v>45</v>
       </c>
@@ -1873,7 +2480,7 @@
       <c r="K9" s="7"/>
       <c r="L9" s="7"/>
     </row>
-    <row r="10" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" ht="18" customHeight="1" spans="1:12">
       <c r="A10" s="7" t="s">
         <v>50</v>
       </c>
@@ -1907,7 +2514,7 @@
       <c r="K10" s="7"/>
       <c r="L10" s="7"/>
     </row>
-    <row r="11" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" ht="18" customHeight="1" spans="1:12">
       <c r="A11" s="7" t="s">
         <v>53</v>
       </c>
@@ -1941,7 +2548,7 @@
       <c r="K11" s="7"/>
       <c r="L11" s="7"/>
     </row>
-    <row r="12" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" ht="18" customHeight="1" spans="1:12">
       <c r="A12" s="7" t="s">
         <v>57</v>
       </c>
@@ -1975,7 +2582,7 @@
       <c r="K12" s="7"/>
       <c r="L12" s="7"/>
     </row>
-    <row r="13" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" ht="18" customHeight="1" spans="1:12">
       <c r="A13" s="7" t="s">
         <v>62</v>
       </c>
@@ -2009,7 +2616,7 @@
       <c r="K13" s="7"/>
       <c r="L13" s="7"/>
     </row>
-    <row r="14" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" ht="18" customHeight="1" spans="1:12">
       <c r="A14" s="7" t="s">
         <v>66</v>
       </c>
@@ -2043,7 +2650,7 @@
       <c r="K14" s="7"/>
       <c r="L14" s="7"/>
     </row>
-    <row r="15" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" ht="18" customHeight="1" spans="1:12">
       <c r="A15" s="7" t="s">
         <v>69</v>
       </c>
@@ -2077,7 +2684,7 @@
       <c r="K15" s="7"/>
       <c r="L15" s="7"/>
     </row>
-    <row r="16" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" ht="18" customHeight="1" spans="1:12">
       <c r="A16" s="7" t="s">
         <v>72</v>
       </c>
@@ -2111,7 +2718,7 @@
       <c r="K16" s="7"/>
       <c r="L16" s="7"/>
     </row>
-    <row r="17" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" ht="18" customHeight="1" spans="1:12">
       <c r="A17" s="7" t="s">
         <v>76</v>
       </c>
@@ -2145,7 +2752,7 @@
       <c r="K17" s="7"/>
       <c r="L17" s="7"/>
     </row>
-    <row r="18" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" ht="18" customHeight="1" spans="1:12">
       <c r="A18" s="7" t="s">
         <v>79</v>
       </c>
@@ -2181,7 +2788,7 @@
       </c>
       <c r="L18" s="7"/>
     </row>
-    <row r="19" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" ht="18" customHeight="1" spans="1:12">
       <c r="A19" s="7" t="s">
         <v>83</v>
       </c>
@@ -2215,7 +2822,7 @@
       <c r="K19" s="9"/>
       <c r="L19" s="7"/>
     </row>
-    <row r="20" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" ht="18" customHeight="1" spans="1:12">
       <c r="A20" s="7" t="s">
         <v>87</v>
       </c>
@@ -2249,7 +2856,7 @@
       <c r="K20" s="9"/>
       <c r="L20" s="7"/>
     </row>
-    <row r="21" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" ht="18" customHeight="1" spans="1:12">
       <c r="A21" s="7"/>
       <c r="B21" s="7" t="s">
         <v>93</v>
@@ -2281,7 +2888,7 @@
       </c>
       <c r="L21" s="7"/>
     </row>
-    <row r="22" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" ht="18" customHeight="1" spans="1:12">
       <c r="A22" s="7"/>
       <c r="B22" s="7" t="s">
         <v>99</v>
@@ -2315,7 +2922,7 @@
       </c>
       <c r="L22" s="7"/>
     </row>
-    <row r="23" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" ht="18" customHeight="1" spans="1:12">
       <c r="A23" s="7"/>
       <c r="B23" s="7" t="s">
         <v>101</v>
@@ -2349,7 +2956,7 @@
       </c>
       <c r="L23" s="7"/>
     </row>
-    <row r="24" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" ht="18" customHeight="1" spans="1:12">
       <c r="A24" s="7"/>
       <c r="B24" s="7"/>
       <c r="C24" s="8"/>
@@ -2363,7 +2970,7 @@
       <c r="K24" s="9"/>
       <c r="L24" s="7"/>
     </row>
-    <row r="25" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" ht="18" customHeight="1" spans="1:12">
       <c r="A25" s="7"/>
       <c r="B25" s="7" t="s">
         <v>105</v>
@@ -2397,7 +3004,7 @@
       </c>
       <c r="L25" s="7"/>
     </row>
-    <row r="26" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" ht="18" customHeight="1" spans="1:12">
       <c r="A26" s="7"/>
       <c r="B26" s="7" t="s">
         <v>112</v>
@@ -2431,7 +3038,7 @@
       </c>
       <c r="L26" s="7"/>
     </row>
-    <row r="27" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" ht="18" customHeight="1" spans="1:12">
       <c r="A27" s="7"/>
       <c r="B27" s="7"/>
       <c r="C27" s="8"/>
@@ -2445,7 +3052,7 @@
       <c r="K27" s="7"/>
       <c r="L27" s="7"/>
     </row>
-    <row r="28" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" ht="18" customHeight="1" spans="1:12">
       <c r="A28" s="7"/>
       <c r="B28" s="7" t="s">
         <v>118</v>
@@ -2473,7 +3080,7 @@
       </c>
       <c r="L28" s="7"/>
     </row>
-    <row r="29" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" ht="18" customHeight="1" spans="1:12">
       <c r="A29" s="7"/>
       <c r="B29" s="7"/>
       <c r="C29" s="8"/>
@@ -2487,7 +3094,7 @@
       <c r="K29" s="7"/>
       <c r="L29" s="7"/>
     </row>
-    <row r="30" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" ht="18" customHeight="1" spans="1:12">
       <c r="A30" s="7"/>
       <c r="B30" s="7" t="s">
         <v>125</v>
@@ -2519,7 +3126,7 @@
       </c>
       <c r="L30" s="7"/>
     </row>
-    <row r="31" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" ht="18" customHeight="1" spans="1:12">
       <c r="A31" s="7"/>
       <c r="B31" s="7"/>
       <c r="C31" s="8"/>
@@ -2533,7 +3140,7 @@
       <c r="K31" s="7"/>
       <c r="L31" s="7"/>
     </row>
-    <row r="32" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" ht="18" customHeight="1" spans="1:12">
       <c r="A32" s="7"/>
       <c r="B32" s="10" t="s">
         <v>133</v>
@@ -2565,7 +3172,7 @@
       </c>
       <c r="L32" s="7"/>
     </row>
-    <row r="33" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" ht="18" customHeight="1" spans="1:12">
       <c r="A33" s="7"/>
       <c r="B33" s="7" t="s">
         <v>140</v>
@@ -2597,7 +3204,7 @@
       </c>
       <c r="L33" s="7"/>
     </row>
-    <row r="34" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" ht="18" customHeight="1" spans="1:12">
       <c r="A34" s="7"/>
       <c r="B34" s="7" t="s">
         <v>145</v>
@@ -2629,7 +3236,7 @@
       </c>
       <c r="L34" s="7"/>
     </row>
-    <row r="35" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" ht="18" customHeight="1" spans="1:12">
       <c r="A35" s="7"/>
       <c r="B35" s="7" t="s">
         <v>148</v>
@@ -2661,7 +3268,7 @@
       </c>
       <c r="L35" s="7"/>
     </row>
-    <row r="36" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" ht="18" customHeight="1" spans="1:12">
       <c r="A36" s="7"/>
       <c r="B36" s="7" t="s">
         <v>154</v>
@@ -2691,7 +3298,7 @@
       </c>
       <c r="L36" s="7"/>
     </row>
-    <row r="37" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" ht="18" customHeight="1" spans="1:12">
       <c r="A37" s="7"/>
       <c r="B37" s="7"/>
       <c r="C37" s="8"/>
@@ -2705,7 +3312,7 @@
       <c r="K37" s="7"/>
       <c r="L37" s="7"/>
     </row>
-    <row r="38" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" ht="18" customHeight="1" spans="1:12">
       <c r="A38" s="7"/>
       <c r="B38" s="7" t="s">
         <v>160</v>
@@ -2727,7 +3334,7 @@
       <c r="K38" s="7"/>
       <c r="L38" s="7"/>
     </row>
-    <row r="39" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" ht="18" customHeight="1" spans="1:12">
       <c r="A39" s="7"/>
       <c r="B39" s="7" t="s">
         <v>164</v>
@@ -2753,7 +3360,7 @@
       </c>
       <c r="L39" s="7"/>
     </row>
-    <row r="40" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" ht="18" customHeight="1" spans="1:12">
       <c r="A40" s="7"/>
       <c r="B40" s="7" t="s">
         <v>167</v>
@@ -2777,7 +3384,7 @@
       <c r="K40" s="7"/>
       <c r="L40" s="7"/>
     </row>
-    <row r="41" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" ht="18" customHeight="1" spans="1:12">
       <c r="A41" s="7"/>
       <c r="B41" s="7"/>
       <c r="C41" s="8"/>
@@ -2791,7 +3398,7 @@
       <c r="K41" s="7"/>
       <c r="L41" s="7"/>
     </row>
-    <row r="42" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" ht="18" customHeight="1" spans="1:12">
       <c r="A42" s="7"/>
       <c r="B42" s="7" t="s">
         <v>171</v>
@@ -2815,7 +3422,7 @@
       </c>
       <c r="L42" s="7"/>
     </row>
-    <row r="43" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" ht="18" customHeight="1" spans="1:12">
       <c r="A43" s="7"/>
       <c r="B43" s="10" t="s">
         <v>175</v>
@@ -2841,7 +3448,7 @@
       </c>
       <c r="L43" s="7"/>
     </row>
-    <row r="44" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" ht="18" customHeight="1" spans="1:12">
       <c r="A44" s="7"/>
       <c r="B44" s="7" t="s">
         <v>180</v>
@@ -2865,7 +3472,7 @@
       </c>
       <c r="L44" s="7"/>
     </row>
-    <row r="45" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" ht="18" customHeight="1" spans="1:12">
       <c r="A45" s="7"/>
       <c r="B45" s="7"/>
       <c r="C45" s="8"/>
@@ -2879,7 +3486,7 @@
       <c r="K45" s="7"/>
       <c r="L45" s="7"/>
     </row>
-    <row r="46" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" ht="18" customHeight="1" spans="1:12">
       <c r="A46" s="7"/>
       <c r="B46" s="7" t="s">
         <v>185</v>
@@ -2901,7 +3508,7 @@
       </c>
       <c r="L46" s="7"/>
     </row>
-    <row r="47" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" ht="18" customHeight="1" spans="1:12">
       <c r="A47" s="7"/>
       <c r="B47" s="10" t="s">
         <v>188</v>
@@ -2923,7 +3530,7 @@
       </c>
       <c r="L47" s="7"/>
     </row>
-    <row r="48" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" ht="18" customHeight="1" spans="1:12">
       <c r="A48" s="7"/>
       <c r="B48" s="7"/>
       <c r="C48" s="8"/>
@@ -2937,7 +3544,7 @@
       <c r="K48" s="7"/>
       <c r="L48" s="7"/>
     </row>
-    <row r="49" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" ht="18" customHeight="1" spans="1:12">
       <c r="A49" s="7"/>
       <c r="B49" s="7" t="s">
         <v>191</v>
@@ -2969,7 +3576,7 @@
       </c>
       <c r="L49" s="7"/>
     </row>
-    <row r="50" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" ht="18" customHeight="1" spans="1:12">
       <c r="A50" s="7"/>
       <c r="B50" s="7" t="s">
         <v>197</v>
@@ -2997,7 +3604,7 @@
       </c>
       <c r="L50" s="7"/>
     </row>
-    <row r="51" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" ht="18" customHeight="1" spans="1:12">
       <c r="A51" s="7"/>
       <c r="B51" s="7"/>
       <c r="C51" s="8"/>
@@ -3011,7 +3618,7 @@
       <c r="K51" s="7"/>
       <c r="L51" s="7"/>
     </row>
-    <row r="52" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" ht="18" customHeight="1" spans="1:12">
       <c r="A52" s="7"/>
       <c r="B52" s="7" t="s">
         <v>199</v>
@@ -3041,7 +3648,7 @@
       </c>
       <c r="L52" s="7"/>
     </row>
-    <row r="53" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" ht="18" customHeight="1" spans="1:12">
       <c r="A53" s="7"/>
       <c r="B53" s="7"/>
       <c r="C53" s="8"/>
@@ -3055,7 +3662,7 @@
       <c r="K53" s="7"/>
       <c r="L53" s="7"/>
     </row>
-    <row r="54" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" ht="18" customHeight="1" spans="1:12">
       <c r="A54" s="7"/>
       <c r="B54" s="7" t="s">
         <v>206</v>
@@ -3081,7 +3688,7 @@
       </c>
       <c r="L54" s="7"/>
     </row>
-    <row r="55" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" ht="18" customHeight="1" spans="1:12">
       <c r="A55" s="7"/>
       <c r="B55" s="7" t="s">
         <v>212</v>
@@ -3105,7 +3712,7 @@
       </c>
       <c r="L55" s="7"/>
     </row>
-    <row r="56" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" ht="18" customHeight="1" spans="1:12">
       <c r="A56" s="7"/>
       <c r="B56" s="7"/>
       <c r="C56" s="8"/>
@@ -3119,7 +3726,7 @@
       <c r="K56" s="7"/>
       <c r="L56" s="7"/>
     </row>
-    <row r="57" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" ht="18" customHeight="1" spans="1:12">
       <c r="A57" s="7"/>
       <c r="B57" s="7" t="s">
         <v>217</v>
@@ -3141,7 +3748,7 @@
       </c>
       <c r="L57" s="7"/>
     </row>
-    <row r="58" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" ht="18" customHeight="1" spans="1:12">
       <c r="A58" s="7"/>
       <c r="B58" s="7" t="s">
         <v>221</v>
@@ -3163,7 +3770,7 @@
       </c>
       <c r="L58" s="7"/>
     </row>
-    <row r="59" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" ht="18" customHeight="1" spans="1:12">
       <c r="A59" s="7"/>
       <c r="B59" s="7"/>
       <c r="C59" s="8"/>
@@ -3177,7 +3784,7 @@
       <c r="K59" s="7"/>
       <c r="L59" s="7"/>
     </row>
-    <row r="60" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" ht="18" customHeight="1" spans="1:12">
       <c r="A60" s="7"/>
       <c r="B60" s="7" t="s">
         <v>224</v>
@@ -3205,7 +3812,7 @@
       </c>
       <c r="L60" s="7"/>
     </row>
-    <row r="61" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" ht="18" customHeight="1" spans="1:12">
       <c r="A61" s="7"/>
       <c r="B61" s="7" t="s">
         <v>229</v>
@@ -3227,7 +3834,7 @@
       </c>
       <c r="L61" s="7"/>
     </row>
-    <row r="62" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" ht="18" customHeight="1" spans="1:12">
       <c r="A62" s="7"/>
       <c r="B62" s="7" t="s">
         <v>231</v>
@@ -3255,7 +3862,7 @@
       </c>
       <c r="L62" s="7"/>
     </row>
-    <row r="63" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" ht="18" customHeight="1" spans="1:12">
       <c r="A63" s="7"/>
       <c r="B63" s="7" t="s">
         <v>235</v>
@@ -3277,7 +3884,7 @@
       </c>
       <c r="L63" s="7"/>
     </row>
-    <row r="64" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" ht="18" customHeight="1" spans="1:12">
       <c r="A64" s="7"/>
       <c r="B64" s="7" t="s">
         <v>237</v>
@@ -3299,7 +3906,7 @@
       </c>
       <c r="L64" s="7"/>
     </row>
-    <row r="65" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" ht="18" customHeight="1" spans="1:12">
       <c r="A65" s="7"/>
       <c r="B65" s="7"/>
       <c r="C65" s="8"/>
@@ -3313,7 +3920,7 @@
       <c r="K65" s="7"/>
       <c r="L65" s="7"/>
     </row>
-    <row r="66" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" ht="18" customHeight="1" spans="1:12">
       <c r="A66" s="7"/>
       <c r="B66" s="7" t="s">
         <v>239</v>
@@ -3333,7 +3940,7 @@
       </c>
       <c r="L66" s="7"/>
     </row>
-    <row r="67" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" ht="18" customHeight="1" spans="1:12">
       <c r="A67" s="7"/>
       <c r="B67" s="7" t="s">
         <v>242</v>
@@ -3353,7 +3960,7 @@
       </c>
       <c r="L67" s="7"/>
     </row>
-    <row r="68" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" ht="18" customHeight="1" spans="1:12">
       <c r="A68" s="7"/>
       <c r="B68" s="7" t="s">
         <v>244</v>
@@ -3372,13 +3979,13 @@
       </c>
       <c r="L68" s="7"/>
     </row>
-    <row r="69" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" ht="18" customHeight="1" spans="1:12">
       <c r="A69" s="7"/>
       <c r="B69" s="8" t="s">
-        <v>302</v>
+        <v>246</v>
       </c>
       <c r="C69" s="8" t="s">
-        <v>303</v>
+        <v>247</v>
       </c>
       <c r="D69" s="7"/>
       <c r="E69" s="7"/>
@@ -3386,23 +3993,23 @@
       <c r="G69" s="7"/>
       <c r="H69" s="7"/>
       <c r="I69" s="7" t="s">
-        <v>304</v>
+        <v>248</v>
       </c>
       <c r="J69" s="2" t="s">
-        <v>305</v>
+        <v>249</v>
       </c>
       <c r="K69" s="10" t="s">
-        <v>302</v>
+        <v>246</v>
       </c>
       <c r="L69" s="7"/>
     </row>
-    <row r="70" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" ht="18" customHeight="1" spans="1:12">
       <c r="A70" s="7"/>
       <c r="B70" s="7" t="s">
-        <v>246</v>
-      </c>
-      <c r="C70" s="13" t="s">
-        <v>306</v>
+        <v>250</v>
+      </c>
+      <c r="C70" s="12" t="s">
+        <v>251</v>
       </c>
       <c r="D70" s="7"/>
       <c r="E70" s="7"/>
@@ -3412,17 +4019,17 @@
       <c r="I70" s="7"/>
       <c r="J70" s="7"/>
       <c r="K70" s="10" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="L70" s="7"/>
     </row>
-    <row r="71" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" ht="18" customHeight="1" spans="1:12">
       <c r="A71" s="7"/>
       <c r="B71" s="7" t="s">
-        <v>298</v>
+        <v>253</v>
       </c>
       <c r="C71" s="8" t="s">
-        <v>299</v>
+        <v>254</v>
       </c>
       <c r="D71" s="7"/>
       <c r="E71" s="7"/>
@@ -3430,21 +4037,21 @@
       <c r="G71" s="7"/>
       <c r="H71" s="7"/>
       <c r="I71" s="7" t="s">
-        <v>300</v>
+        <v>255</v>
       </c>
       <c r="J71" s="7"/>
       <c r="K71" s="10" t="s">
-        <v>301</v>
+        <v>256</v>
       </c>
       <c r="L71" s="7"/>
     </row>
-    <row r="72" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" ht="18" customHeight="1" spans="1:12">
       <c r="A72" s="7"/>
       <c r="B72" s="7" t="s">
-        <v>248</v>
+        <v>257</v>
       </c>
       <c r="C72" s="8" t="s">
-        <v>249</v>
+        <v>258</v>
       </c>
       <c r="D72" s="7"/>
       <c r="E72" s="7"/>
@@ -3454,17 +4061,17 @@
       <c r="I72" s="7"/>
       <c r="J72" s="7"/>
       <c r="K72" s="10" t="s">
-        <v>250</v>
+        <v>259</v>
       </c>
       <c r="L72" s="7"/>
     </row>
-    <row r="73" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" ht="18" customHeight="1" spans="1:12">
       <c r="A73" s="7"/>
       <c r="B73" s="10" t="s">
-        <v>251</v>
+        <v>260</v>
       </c>
       <c r="C73" s="8" t="s">
-        <v>252</v>
+        <v>261</v>
       </c>
       <c r="D73" s="7"/>
       <c r="E73" s="7"/>
@@ -3474,41 +4081,41 @@
       <c r="I73" s="7"/>
       <c r="J73" s="7"/>
       <c r="K73" s="10" t="s">
-        <v>253</v>
+        <v>262</v>
       </c>
       <c r="L73" s="7"/>
     </row>
-    <row r="74" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" ht="18" customHeight="1" spans="1:12">
       <c r="A74" s="7"/>
       <c r="B74" s="7" t="s">
-        <v>254</v>
+        <v>263</v>
       </c>
       <c r="C74" s="8" t="s">
-        <v>255</v>
+        <v>264</v>
       </c>
       <c r="D74" s="7"/>
       <c r="E74" s="7" t="s">
-        <v>256</v>
+        <v>265</v>
       </c>
       <c r="F74" s="7"/>
       <c r="G74" s="7"/>
       <c r="H74" s="7"/>
       <c r="I74" s="7"/>
       <c r="J74" s="7" t="s">
-        <v>257</v>
+        <v>266</v>
       </c>
       <c r="K74" s="7" t="s">
-        <v>250</v>
+        <v>259</v>
       </c>
       <c r="L74" s="7"/>
     </row>
-    <row r="75" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" ht="18" customHeight="1" spans="1:12">
       <c r="A75" s="7"/>
       <c r="B75" s="7" t="s">
-        <v>258</v>
+        <v>267</v>
       </c>
       <c r="C75" s="8" t="s">
-        <v>259</v>
+        <v>268</v>
       </c>
       <c r="D75" s="7"/>
       <c r="E75" s="7"/>
@@ -3518,11 +4125,11 @@
       <c r="I75" s="7"/>
       <c r="J75" s="7"/>
       <c r="K75" s="7" t="s">
-        <v>260</v>
+        <v>269</v>
       </c>
       <c r="L75" s="7"/>
     </row>
-    <row r="76" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" ht="18" customHeight="1" spans="1:12">
       <c r="A76" s="7"/>
       <c r="B76" s="7"/>
       <c r="C76" s="8"/>
@@ -3536,13 +4143,13 @@
       <c r="K76" s="7"/>
       <c r="L76" s="7"/>
     </row>
-    <row r="77" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" ht="18" customHeight="1" spans="1:12">
       <c r="A77" s="7"/>
       <c r="B77" s="7" t="s">
-        <v>261</v>
+        <v>270</v>
       </c>
       <c r="C77" s="8" t="s">
-        <v>262</v>
+        <v>271</v>
       </c>
       <c r="D77" s="7"/>
       <c r="E77" s="7"/>
@@ -3552,11 +4159,11 @@
       <c r="I77" s="7"/>
       <c r="J77" s="7"/>
       <c r="K77" s="7" t="s">
-        <v>263</v>
+        <v>272</v>
       </c>
       <c r="L77" s="7"/>
     </row>
-    <row r="78" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" ht="18" customHeight="1" spans="1:12">
       <c r="A78" s="7"/>
       <c r="B78" s="7"/>
       <c r="C78" s="8"/>
@@ -3570,13 +4177,13 @@
       <c r="K78" s="7"/>
       <c r="L78" s="7"/>
     </row>
-    <row r="79" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" ht="18" customHeight="1" spans="1:12">
       <c r="A79" s="7"/>
       <c r="B79" s="7" t="s">
-        <v>264</v>
+        <v>273</v>
       </c>
       <c r="C79" s="8" t="s">
-        <v>265</v>
+        <v>274</v>
       </c>
       <c r="D79" s="7"/>
       <c r="E79" s="7"/>
@@ -3586,11 +4193,11 @@
       <c r="I79" s="7"/>
       <c r="J79" s="7"/>
       <c r="K79" s="7" t="s">
-        <v>266</v>
+        <v>275</v>
       </c>
       <c r="L79" s="7"/>
     </row>
-    <row r="80" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" ht="18" customHeight="1" spans="1:12">
       <c r="A80" s="7"/>
       <c r="B80" s="7"/>
       <c r="C80" s="8"/>
@@ -3604,123 +4211,137 @@
       <c r="K80" s="7"/>
       <c r="L80" s="7"/>
     </row>
-    <row r="81" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" ht="18" customHeight="1" spans="1:12">
       <c r="A81" s="7"/>
       <c r="B81" s="7" t="s">
-        <v>267</v>
+        <v>276</v>
       </c>
       <c r="C81" s="8" t="s">
-        <v>268</v>
+        <v>277</v>
       </c>
       <c r="D81" s="7"/>
       <c r="E81" s="7" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="F81" s="7"/>
       <c r="G81" s="7"/>
       <c r="H81" s="7"/>
       <c r="I81" s="7" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="J81" s="7" t="s">
-        <v>270</v>
+        <v>279</v>
       </c>
       <c r="K81" s="7" t="s">
-        <v>271</v>
-      </c>
-      <c r="L81" s="12" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="82" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+        <v>280</v>
+      </c>
+      <c r="L81" s="13" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="82" ht="18" customHeight="1" spans="1:12">
       <c r="A82" s="7"/>
       <c r="B82" s="7" t="s">
-        <v>267</v>
+        <v>276</v>
       </c>
       <c r="C82" s="8" t="s">
-        <v>273</v>
+        <v>282</v>
       </c>
       <c r="D82" s="7"/>
-      <c r="E82" s="7"/>
+      <c r="E82" s="7" t="s">
+        <v>278</v>
+      </c>
       <c r="F82" s="7"/>
       <c r="G82" s="7"/>
       <c r="H82" s="7"/>
       <c r="I82" s="7" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="J82" s="7" t="s">
-        <v>270</v>
+        <v>283</v>
       </c>
       <c r="K82" s="7" t="s">
-        <v>274</v>
-      </c>
-      <c r="L82" s="12" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="83" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+        <v>280</v>
+      </c>
+      <c r="L82" s="14" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="83" ht="18" customHeight="1" spans="1:12">
       <c r="A83" s="7"/>
       <c r="B83" s="7" t="s">
         <v>276</v>
       </c>
       <c r="C83" s="8" t="s">
-        <v>277</v>
+        <v>285</v>
       </c>
       <c r="D83" s="7"/>
-      <c r="E83" s="7" t="s">
-        <v>269</v>
-      </c>
+      <c r="E83" s="7"/>
       <c r="F83" s="7"/>
       <c r="G83" s="7"/>
       <c r="H83" s="7"/>
       <c r="I83" s="7" t="s">
-        <v>269</v>
-      </c>
-      <c r="J83" s="7"/>
+        <v>278</v>
+      </c>
+      <c r="J83" s="7" t="s">
+        <v>279</v>
+      </c>
       <c r="K83" s="7" t="s">
-        <v>278</v>
-      </c>
-      <c r="L83" s="7"/>
-    </row>
-    <row r="84" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+        <v>286</v>
+      </c>
+      <c r="L83" s="14" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="84" ht="18" customHeight="1" spans="1:12">
       <c r="A84" s="7"/>
       <c r="B84" s="7" t="s">
-        <v>279</v>
+        <v>288</v>
       </c>
       <c r="C84" s="8" t="s">
-        <v>280</v>
+        <v>289</v>
       </c>
       <c r="D84" s="7"/>
       <c r="E84" s="7" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="F84" s="7"/>
       <c r="G84" s="7"/>
       <c r="H84" s="7"/>
       <c r="I84" s="7" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="J84" s="7"/>
       <c r="K84" s="7" t="s">
-        <v>281</v>
+        <v>290</v>
       </c>
       <c r="L84" s="7"/>
     </row>
-    <row r="85" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" ht="18" customHeight="1" spans="1:12">
       <c r="A85" s="7"/>
-      <c r="B85" s="7"/>
-      <c r="C85" s="8"/>
+      <c r="B85" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="C85" s="8" t="s">
+        <v>292</v>
+      </c>
       <c r="D85" s="7"/>
-      <c r="E85" s="7"/>
+      <c r="E85" s="7" t="s">
+        <v>278</v>
+      </c>
       <c r="F85" s="7"/>
       <c r="G85" s="7"/>
       <c r="H85" s="7"/>
-      <c r="I85" s="7"/>
+      <c r="I85" s="7" t="s">
+        <v>278</v>
+      </c>
       <c r="J85" s="7"/>
-      <c r="K85" s="7"/>
+      <c r="K85" s="7" t="s">
+        <v>293</v>
+      </c>
       <c r="L85" s="7"/>
     </row>
-    <row r="86" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" ht="18" customHeight="1" spans="1:12">
       <c r="A86" s="7"/>
       <c r="B86" s="7"/>
       <c r="C86" s="8"/>
@@ -3734,55 +4355,49 @@
       <c r="K86" s="7"/>
       <c r="L86" s="7"/>
     </row>
-    <row r="87" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" ht="18" customHeight="1" spans="1:12">
       <c r="A87" s="7"/>
-      <c r="B87" s="10" t="s">
-        <v>282</v>
-      </c>
-      <c r="C87" s="11" t="s">
-        <v>283</v>
-      </c>
+      <c r="B87" s="7"/>
+      <c r="C87" s="8"/>
       <c r="D87" s="7"/>
       <c r="E87" s="7"/>
       <c r="F87" s="7"/>
       <c r="G87" s="7"/>
       <c r="H87" s="7"/>
-      <c r="I87" s="10" t="s">
-        <v>284</v>
-      </c>
+      <c r="I87" s="7"/>
       <c r="J87" s="7"/>
-      <c r="K87" s="10" t="s">
-        <v>284</v>
-      </c>
+      <c r="K87" s="7"/>
       <c r="L87" s="7"/>
     </row>
-    <row r="88" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" ht="18" customHeight="1" spans="1:12">
       <c r="A88" s="7"/>
-      <c r="B88" s="7" t="s">
-        <v>285</v>
-      </c>
-      <c r="C88" s="8" t="s">
-        <v>286</v>
+      <c r="B88" s="10" t="s">
+        <v>294</v>
+      </c>
+      <c r="C88" s="11" t="s">
+        <v>295</v>
       </c>
       <c r="D88" s="7"/>
       <c r="E88" s="7"/>
       <c r="F88" s="7"/>
       <c r="G88" s="7"/>
       <c r="H88" s="7"/>
-      <c r="I88" s="7"/>
+      <c r="I88" s="10" t="s">
+        <v>296</v>
+      </c>
       <c r="J88" s="7"/>
       <c r="K88" s="10" t="s">
-        <v>287</v>
+        <v>296</v>
       </c>
       <c r="L88" s="7"/>
     </row>
-    <row r="89" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" ht="18" customHeight="1" spans="1:12">
       <c r="A89" s="7"/>
       <c r="B89" s="7" t="s">
-        <v>288</v>
+        <v>297</v>
       </c>
       <c r="C89" s="8" t="s">
-        <v>289</v>
+        <v>298</v>
       </c>
       <c r="D89" s="7"/>
       <c r="E89" s="7"/>
@@ -3791,16 +4406,18 @@
       <c r="H89" s="7"/>
       <c r="I89" s="7"/>
       <c r="J89" s="7"/>
-      <c r="K89" s="7"/>
+      <c r="K89" s="10" t="s">
+        <v>299</v>
+      </c>
       <c r="L89" s="7"/>
     </row>
-    <row r="90" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" ht="18" customHeight="1" spans="1:12">
       <c r="A90" s="7"/>
       <c r="B90" s="7" t="s">
-        <v>290</v>
-      </c>
-      <c r="C90" s="11" t="s">
-        <v>291</v>
+        <v>300</v>
+      </c>
+      <c r="C90" s="8" t="s">
+        <v>301</v>
       </c>
       <c r="D90" s="7"/>
       <c r="E90" s="7"/>
@@ -3809,18 +4426,16 @@
       <c r="H90" s="7"/>
       <c r="I90" s="7"/>
       <c r="J90" s="7"/>
-      <c r="K90" s="7" t="s">
-        <v>290</v>
-      </c>
+      <c r="K90" s="7"/>
       <c r="L90" s="7"/>
     </row>
-    <row r="91" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" ht="18" customHeight="1" spans="1:12">
       <c r="A91" s="7"/>
       <c r="B91" s="7" t="s">
-        <v>292</v>
-      </c>
-      <c r="C91" s="8" t="s">
-        <v>293</v>
+        <v>302</v>
+      </c>
+      <c r="C91" s="11" t="s">
+        <v>303</v>
       </c>
       <c r="D91" s="7"/>
       <c r="E91" s="7"/>
@@ -3829,48 +4444,54 @@
       <c r="H91" s="7"/>
       <c r="I91" s="7"/>
       <c r="J91" s="7"/>
-      <c r="K91" s="10" t="s">
-        <v>294</v>
+      <c r="K91" s="7" t="s">
+        <v>302</v>
       </c>
       <c r="L91" s="7"/>
     </row>
-    <row r="92" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" ht="18" customHeight="1" spans="1:12">
       <c r="A92" s="7"/>
-      <c r="B92" s="10" t="s">
-        <v>295</v>
-      </c>
-      <c r="C92" s="11" t="s">
-        <v>296</v>
+      <c r="B92" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="C92" s="8" t="s">
+        <v>305</v>
       </c>
       <c r="D92" s="7"/>
       <c r="E92" s="7"/>
       <c r="F92" s="7"/>
       <c r="G92" s="7"/>
       <c r="H92" s="7"/>
-      <c r="I92" s="7" t="s">
-        <v>297</v>
-      </c>
+      <c r="I92" s="7"/>
       <c r="J92" s="7"/>
-      <c r="K92" s="7" t="s">
-        <v>297</v>
+      <c r="K92" s="10" t="s">
+        <v>306</v>
       </c>
       <c r="L92" s="7"/>
     </row>
-    <row r="93" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" ht="18" customHeight="1" spans="1:12">
       <c r="A93" s="7"/>
-      <c r="B93" s="7"/>
-      <c r="C93" s="8"/>
+      <c r="B93" s="10" t="s">
+        <v>307</v>
+      </c>
+      <c r="C93" s="11" t="s">
+        <v>308</v>
+      </c>
       <c r="D93" s="7"/>
       <c r="E93" s="7"/>
       <c r="F93" s="7"/>
       <c r="G93" s="7"/>
       <c r="H93" s="7"/>
-      <c r="I93" s="7"/>
+      <c r="I93" s="7" t="s">
+        <v>309</v>
+      </c>
       <c r="J93" s="7"/>
-      <c r="K93" s="7"/>
+      <c r="K93" s="7" t="s">
+        <v>309</v>
+      </c>
       <c r="L93" s="7"/>
     </row>
-    <row r="94" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" ht="18" customHeight="1" spans="1:12">
       <c r="A94" s="7"/>
       <c r="B94" s="7"/>
       <c r="C94" s="8"/>
@@ -3884,7 +4505,7 @@
       <c r="K94" s="7"/>
       <c r="L94" s="7"/>
     </row>
-    <row r="95" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" ht="18" customHeight="1" spans="1:12">
       <c r="A95" s="7"/>
       <c r="B95" s="7"/>
       <c r="C95" s="8"/>
@@ -3898,7 +4519,7 @@
       <c r="K95" s="7"/>
       <c r="L95" s="7"/>
     </row>
-    <row r="96" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" ht="18" customHeight="1" spans="1:12">
       <c r="A96" s="7"/>
       <c r="B96" s="7"/>
       <c r="C96" s="8"/>
@@ -3912,7 +4533,7 @@
       <c r="K96" s="7"/>
       <c r="L96" s="7"/>
     </row>
-    <row r="97" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" ht="18" customHeight="1" spans="1:12">
       <c r="A97" s="7"/>
       <c r="B97" s="7"/>
       <c r="C97" s="8"/>
@@ -3926,7 +4547,7 @@
       <c r="K97" s="7"/>
       <c r="L97" s="7"/>
     </row>
-    <row r="98" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" ht="18" customHeight="1" spans="1:12">
       <c r="A98" s="7"/>
       <c r="B98" s="7"/>
       <c r="C98" s="8"/>
@@ -3940,7 +4561,7 @@
       <c r="K98" s="7"/>
       <c r="L98" s="7"/>
     </row>
-    <row r="99" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" ht="18" customHeight="1" spans="1:12">
       <c r="A99" s="7"/>
       <c r="B99" s="7"/>
       <c r="C99" s="8"/>
@@ -3954,7 +4575,7 @@
       <c r="K99" s="7"/>
       <c r="L99" s="7"/>
     </row>
-    <row r="100" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" ht="18" customHeight="1" spans="1:12">
       <c r="A100" s="7"/>
       <c r="B100" s="7"/>
       <c r="C100" s="8"/>
@@ -3968,7 +4589,7 @@
       <c r="K100" s="7"/>
       <c r="L100" s="7"/>
     </row>
-    <row r="101" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="101" ht="18" customHeight="1" spans="1:12">
       <c r="A101" s="7"/>
       <c r="B101" s="7"/>
       <c r="C101" s="8"/>
@@ -3982,7 +4603,7 @@
       <c r="K101" s="7"/>
       <c r="L101" s="7"/>
     </row>
-    <row r="102" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="102" ht="18" customHeight="1" spans="1:12">
       <c r="A102" s="7"/>
       <c r="B102" s="7"/>
       <c r="C102" s="8"/>
@@ -3996,7 +4617,7 @@
       <c r="K102" s="7"/>
       <c r="L102" s="7"/>
     </row>
-    <row r="103" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="103" ht="18" customHeight="1" spans="1:12">
       <c r="A103" s="7"/>
       <c r="B103" s="7"/>
       <c r="C103" s="8"/>
@@ -4010,7 +4631,7 @@
       <c r="K103" s="7"/>
       <c r="L103" s="7"/>
     </row>
-    <row r="104" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="104" ht="18" customHeight="1" spans="1:12">
       <c r="A104" s="7"/>
       <c r="B104" s="7"/>
       <c r="C104" s="8"/>
@@ -4024,7 +4645,7 @@
       <c r="K104" s="7"/>
       <c r="L104" s="7"/>
     </row>
-    <row r="105" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="105" ht="18" customHeight="1" spans="1:12">
       <c r="A105" s="7"/>
       <c r="B105" s="7"/>
       <c r="C105" s="8"/>
@@ -4038,7 +4659,7 @@
       <c r="K105" s="7"/>
       <c r="L105" s="7"/>
     </row>
-    <row r="106" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="106" ht="18" customHeight="1" spans="1:12">
       <c r="A106" s="7"/>
       <c r="B106" s="7"/>
       <c r="C106" s="8"/>
@@ -4052,7 +4673,7 @@
       <c r="K106" s="7"/>
       <c r="L106" s="7"/>
     </row>
-    <row r="107" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="107" ht="18" customHeight="1" spans="1:12">
       <c r="A107" s="7"/>
       <c r="B107" s="7"/>
       <c r="C107" s="8"/>
@@ -4066,7 +4687,7 @@
       <c r="K107" s="7"/>
       <c r="L107" s="7"/>
     </row>
-    <row r="108" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="108" ht="18" customHeight="1" spans="1:12">
       <c r="A108" s="7"/>
       <c r="B108" s="7"/>
       <c r="C108" s="8"/>
@@ -4080,7 +4701,7 @@
       <c r="K108" s="7"/>
       <c r="L108" s="7"/>
     </row>
-    <row r="109" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="109" ht="18" customHeight="1" spans="1:12">
       <c r="A109" s="7"/>
       <c r="B109" s="7"/>
       <c r="C109" s="8"/>
@@ -4094,7 +4715,7 @@
       <c r="K109" s="7"/>
       <c r="L109" s="7"/>
     </row>
-    <row r="110" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" ht="18" customHeight="1" spans="1:12">
       <c r="A110" s="7"/>
       <c r="B110" s="7"/>
       <c r="C110" s="8"/>
@@ -4108,7 +4729,7 @@
       <c r="K110" s="7"/>
       <c r="L110" s="7"/>
     </row>
-    <row r="111" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="111" ht="18" customHeight="1" spans="1:12">
       <c r="A111" s="7"/>
       <c r="B111" s="7"/>
       <c r="C111" s="8"/>
@@ -4122,7 +4743,7 @@
       <c r="K111" s="7"/>
       <c r="L111" s="7"/>
     </row>
-    <row r="112" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="112" ht="18" customHeight="1" spans="1:12">
       <c r="A112" s="7"/>
       <c r="B112" s="7"/>
       <c r="C112" s="8"/>
@@ -4136,7 +4757,7 @@
       <c r="K112" s="7"/>
       <c r="L112" s="7"/>
     </row>
-    <row r="113" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="113" ht="18" customHeight="1" spans="1:12">
       <c r="A113" s="7"/>
       <c r="B113" s="7"/>
       <c r="C113" s="8"/>
@@ -4150,7 +4771,7 @@
       <c r="K113" s="7"/>
       <c r="L113" s="7"/>
     </row>
-    <row r="114" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="114" ht="18" customHeight="1" spans="1:12">
       <c r="A114" s="7"/>
       <c r="B114" s="7"/>
       <c r="C114" s="8"/>
@@ -4164,7 +4785,7 @@
       <c r="K114" s="7"/>
       <c r="L114" s="7"/>
     </row>
-    <row r="115" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="115" ht="18" customHeight="1" spans="1:12">
       <c r="A115" s="7"/>
       <c r="B115" s="7"/>
       <c r="C115" s="8"/>
@@ -4178,7 +4799,7 @@
       <c r="K115" s="7"/>
       <c r="L115" s="7"/>
     </row>
-    <row r="116" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="116" ht="18" customHeight="1" spans="1:12">
       <c r="A116" s="7"/>
       <c r="B116" s="7"/>
       <c r="C116" s="8"/>
@@ -4192,7 +4813,7 @@
       <c r="K116" s="7"/>
       <c r="L116" s="7"/>
     </row>
-    <row r="117" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="117" ht="18" customHeight="1" spans="1:12">
       <c r="A117" s="7"/>
       <c r="B117" s="7"/>
       <c r="C117" s="8"/>
@@ -4206,7 +4827,7 @@
       <c r="K117" s="7"/>
       <c r="L117" s="7"/>
     </row>
-    <row r="118" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="118" ht="18" customHeight="1" spans="1:12">
       <c r="A118" s="7"/>
       <c r="B118" s="7"/>
       <c r="C118" s="8"/>
@@ -4220,7 +4841,7 @@
       <c r="K118" s="7"/>
       <c r="L118" s="7"/>
     </row>
-    <row r="119" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="119" ht="18" customHeight="1" spans="1:12">
       <c r="A119" s="7"/>
       <c r="B119" s="7"/>
       <c r="C119" s="8"/>
@@ -4234,7 +4855,7 @@
       <c r="K119" s="7"/>
       <c r="L119" s="7"/>
     </row>
-    <row r="120" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="120" ht="18" customHeight="1" spans="1:12">
       <c r="A120" s="7"/>
       <c r="B120" s="7"/>
       <c r="C120" s="8"/>
@@ -4248,7 +4869,7 @@
       <c r="K120" s="7"/>
       <c r="L120" s="7"/>
     </row>
-    <row r="121" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="121" ht="18" customHeight="1" spans="1:12">
       <c r="A121" s="7"/>
       <c r="B121" s="7"/>
       <c r="C121" s="8"/>
@@ -4262,7 +4883,7 @@
       <c r="K121" s="7"/>
       <c r="L121" s="7"/>
     </row>
-    <row r="122" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="122" ht="18" customHeight="1" spans="1:12">
       <c r="A122" s="7"/>
       <c r="B122" s="7"/>
       <c r="C122" s="8"/>
@@ -4276,7 +4897,7 @@
       <c r="K122" s="7"/>
       <c r="L122" s="7"/>
     </row>
-    <row r="123" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="123" ht="18" customHeight="1" spans="1:12">
       <c r="A123" s="7"/>
       <c r="B123" s="7"/>
       <c r="C123" s="8"/>
@@ -4290,7 +4911,7 @@
       <c r="K123" s="7"/>
       <c r="L123" s="7"/>
     </row>
-    <row r="124" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="124" ht="18" customHeight="1" spans="1:12">
       <c r="A124" s="7"/>
       <c r="B124" s="7"/>
       <c r="C124" s="8"/>
@@ -4304,7 +4925,7 @@
       <c r="K124" s="7"/>
       <c r="L124" s="7"/>
     </row>
-    <row r="125" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="125" ht="18" customHeight="1" spans="1:12">
       <c r="A125" s="7"/>
       <c r="B125" s="7"/>
       <c r="C125" s="8"/>
@@ -4318,7 +4939,7 @@
       <c r="K125" s="7"/>
       <c r="L125" s="7"/>
     </row>
-    <row r="126" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="126" ht="18" customHeight="1" spans="1:12">
       <c r="A126" s="7"/>
       <c r="B126" s="7"/>
       <c r="C126" s="8"/>
@@ -4332,7 +4953,7 @@
       <c r="K126" s="7"/>
       <c r="L126" s="7"/>
     </row>
-    <row r="127" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="127" ht="18" customHeight="1" spans="1:12">
       <c r="A127" s="7"/>
       <c r="B127" s="7"/>
       <c r="C127" s="8"/>
@@ -4346,7 +4967,7 @@
       <c r="K127" s="7"/>
       <c r="L127" s="7"/>
     </row>
-    <row r="128" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="128" ht="18" customHeight="1" spans="1:12">
       <c r="A128" s="7"/>
       <c r="B128" s="7"/>
       <c r="C128" s="8"/>
@@ -4360,7 +4981,7 @@
       <c r="K128" s="7"/>
       <c r="L128" s="7"/>
     </row>
-    <row r="129" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="129" ht="18" customHeight="1" spans="1:12">
       <c r="A129" s="7"/>
       <c r="B129" s="7"/>
       <c r="C129" s="8"/>
@@ -4374,7 +4995,7 @@
       <c r="K129" s="7"/>
       <c r="L129" s="7"/>
     </row>
-    <row r="130" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="130" ht="18" customHeight="1" spans="1:12">
       <c r="A130" s="7"/>
       <c r="B130" s="7"/>
       <c r="C130" s="8"/>
@@ -4388,7 +5009,7 @@
       <c r="K130" s="7"/>
       <c r="L130" s="7"/>
     </row>
-    <row r="131" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="131" ht="18" customHeight="1" spans="1:12">
       <c r="A131" s="7"/>
       <c r="B131" s="7"/>
       <c r="C131" s="8"/>
@@ -4402,7 +5023,7 @@
       <c r="K131" s="7"/>
       <c r="L131" s="7"/>
     </row>
-    <row r="132" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="132" ht="18" customHeight="1" spans="1:12">
       <c r="A132" s="7"/>
       <c r="B132" s="7"/>
       <c r="C132" s="8"/>
@@ -4416,7 +5037,7 @@
       <c r="K132" s="7"/>
       <c r="L132" s="7"/>
     </row>
-    <row r="133" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="133" ht="18" customHeight="1" spans="1:12">
       <c r="A133" s="7"/>
       <c r="B133" s="7"/>
       <c r="C133" s="8"/>
@@ -4430,7 +5051,7 @@
       <c r="K133" s="7"/>
       <c r="L133" s="7"/>
     </row>
-    <row r="134" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="134" ht="18" customHeight="1" spans="1:12">
       <c r="A134" s="7"/>
       <c r="B134" s="7"/>
       <c r="C134" s="8"/>
@@ -4444,7 +5065,7 @@
       <c r="K134" s="7"/>
       <c r="L134" s="7"/>
     </row>
-    <row r="135" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="135" ht="18" customHeight="1" spans="1:12">
       <c r="A135" s="7"/>
       <c r="B135" s="7"/>
       <c r="C135" s="8"/>
@@ -4458,7 +5079,7 @@
       <c r="K135" s="7"/>
       <c r="L135" s="7"/>
     </row>
-    <row r="136" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="136" ht="18" customHeight="1" spans="1:12">
       <c r="A136" s="7"/>
       <c r="B136" s="7"/>
       <c r="C136" s="8"/>
@@ -4472,7 +5093,7 @@
       <c r="K136" s="7"/>
       <c r="L136" s="7"/>
     </row>
-    <row r="137" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="137" ht="18" customHeight="1" spans="1:12">
       <c r="A137" s="7"/>
       <c r="B137" s="7"/>
       <c r="C137" s="8"/>
@@ -4486,7 +5107,7 @@
       <c r="K137" s="7"/>
       <c r="L137" s="7"/>
     </row>
-    <row r="138" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="138" ht="18" customHeight="1" spans="1:12">
       <c r="A138" s="7"/>
       <c r="B138" s="7"/>
       <c r="C138" s="8"/>
@@ -4500,7 +5121,7 @@
       <c r="K138" s="7"/>
       <c r="L138" s="7"/>
     </row>
-    <row r="139" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="139" ht="18" customHeight="1" spans="1:12">
       <c r="A139" s="7"/>
       <c r="B139" s="7"/>
       <c r="C139" s="8"/>
@@ -4514,7 +5135,7 @@
       <c r="K139" s="7"/>
       <c r="L139" s="7"/>
     </row>
-    <row r="140" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="140" ht="18" customHeight="1" spans="1:12">
       <c r="A140" s="7"/>
       <c r="B140" s="7"/>
       <c r="C140" s="8"/>
@@ -4528,7 +5149,7 @@
       <c r="K140" s="7"/>
       <c r="L140" s="7"/>
     </row>
-    <row r="141" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="141" ht="18" customHeight="1" spans="1:12">
       <c r="A141" s="7"/>
       <c r="B141" s="7"/>
       <c r="C141" s="8"/>
@@ -4542,7 +5163,7 @@
       <c r="K141" s="7"/>
       <c r="L141" s="7"/>
     </row>
-    <row r="142" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="142" ht="18" customHeight="1" spans="1:12">
       <c r="A142" s="7"/>
       <c r="B142" s="7"/>
       <c r="C142" s="8"/>
@@ -4556,7 +5177,7 @@
       <c r="K142" s="7"/>
       <c r="L142" s="7"/>
     </row>
-    <row r="143" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="143" ht="18" customHeight="1" spans="1:12">
       <c r="A143" s="7"/>
       <c r="B143" s="7"/>
       <c r="C143" s="8"/>
@@ -4570,7 +5191,7 @@
       <c r="K143" s="7"/>
       <c r="L143" s="7"/>
     </row>
-    <row r="144" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="144" ht="18" customHeight="1" spans="1:12">
       <c r="A144" s="7"/>
       <c r="B144" s="7"/>
       <c r="C144" s="8"/>
@@ -4584,7 +5205,7 @@
       <c r="K144" s="7"/>
       <c r="L144" s="7"/>
     </row>
-    <row r="145" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="145" ht="18" customHeight="1" spans="1:12">
       <c r="A145" s="7"/>
       <c r="B145" s="7"/>
       <c r="C145" s="8"/>
@@ -4598,7 +5219,7 @@
       <c r="K145" s="7"/>
       <c r="L145" s="7"/>
     </row>
-    <row r="146" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="146" ht="18" customHeight="1" spans="1:12">
       <c r="A146" s="7"/>
       <c r="B146" s="7"/>
       <c r="C146" s="8"/>
@@ -4612,7 +5233,7 @@
       <c r="K146" s="7"/>
       <c r="L146" s="7"/>
     </row>
-    <row r="147" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="147" ht="18" customHeight="1" spans="1:12">
       <c r="A147" s="7"/>
       <c r="B147" s="7"/>
       <c r="C147" s="8"/>
@@ -4626,7 +5247,7 @@
       <c r="K147" s="7"/>
       <c r="L147" s="7"/>
     </row>
-    <row r="148" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="148" ht="18" customHeight="1" spans="1:12">
       <c r="A148" s="7"/>
       <c r="B148" s="7"/>
       <c r="C148" s="8"/>
@@ -4640,7 +5261,7 @@
       <c r="K148" s="7"/>
       <c r="L148" s="7"/>
     </row>
-    <row r="149" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="149" ht="18" customHeight="1" spans="1:12">
       <c r="A149" s="7"/>
       <c r="B149" s="7"/>
       <c r="C149" s="8"/>
@@ -4654,7 +5275,7 @@
       <c r="K149" s="7"/>
       <c r="L149" s="7"/>
     </row>
-    <row r="150" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="150" ht="18" customHeight="1" spans="1:12">
       <c r="A150" s="7"/>
       <c r="B150" s="7"/>
       <c r="C150" s="8"/>
@@ -4668,7 +5289,7 @@
       <c r="K150" s="7"/>
       <c r="L150" s="7"/>
     </row>
-    <row r="151" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="151" ht="18" customHeight="1" spans="1:12">
       <c r="A151" s="7"/>
       <c r="B151" s="7"/>
       <c r="C151" s="8"/>
@@ -4682,7 +5303,7 @@
       <c r="K151" s="7"/>
       <c r="L151" s="7"/>
     </row>
-    <row r="152" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="152" ht="18" customHeight="1" spans="1:12">
       <c r="A152" s="7"/>
       <c r="B152" s="7"/>
       <c r="C152" s="8"/>
@@ -4696,7 +5317,7 @@
       <c r="K152" s="7"/>
       <c r="L152" s="7"/>
     </row>
-    <row r="153" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="153" ht="18" customHeight="1" spans="1:12">
       <c r="A153" s="7"/>
       <c r="B153" s="7"/>
       <c r="C153" s="8"/>
@@ -4710,7 +5331,7 @@
       <c r="K153" s="7"/>
       <c r="L153" s="7"/>
     </row>
-    <row r="154" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="154" ht="18" customHeight="1" spans="1:12">
       <c r="A154" s="7"/>
       <c r="B154" s="7"/>
       <c r="C154" s="8"/>
@@ -4724,7 +5345,7 @@
       <c r="K154" s="7"/>
       <c r="L154" s="7"/>
     </row>
-    <row r="155" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="155" ht="18" customHeight="1" spans="1:12">
       <c r="A155" s="7"/>
       <c r="B155" s="7"/>
       <c r="C155" s="8"/>
@@ -4738,7 +5359,7 @@
       <c r="K155" s="7"/>
       <c r="L155" s="7"/>
     </row>
-    <row r="156" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="156" ht="18" customHeight="1" spans="1:12">
       <c r="A156" s="7"/>
       <c r="B156" s="7"/>
       <c r="C156" s="8"/>
@@ -4752,7 +5373,7 @@
       <c r="K156" s="7"/>
       <c r="L156" s="7"/>
     </row>
-    <row r="157" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="157" ht="18" customHeight="1" spans="1:12">
       <c r="A157" s="7"/>
       <c r="B157" s="7"/>
       <c r="C157" s="8"/>
@@ -4766,7 +5387,7 @@
       <c r="K157" s="7"/>
       <c r="L157" s="7"/>
     </row>
-    <row r="158" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="158" ht="18" customHeight="1" spans="1:12">
       <c r="A158" s="7"/>
       <c r="B158" s="7"/>
       <c r="C158" s="8"/>
@@ -4780,7 +5401,7 @@
       <c r="K158" s="7"/>
       <c r="L158" s="7"/>
     </row>
-    <row r="159" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="159" ht="18" customHeight="1" spans="1:12">
       <c r="A159" s="7"/>
       <c r="B159" s="7"/>
       <c r="C159" s="8"/>
@@ -4794,7 +5415,7 @@
       <c r="K159" s="7"/>
       <c r="L159" s="7"/>
     </row>
-    <row r="160" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="160" ht="18" customHeight="1" spans="1:12">
       <c r="A160" s="7"/>
       <c r="B160" s="7"/>
       <c r="C160" s="8"/>
@@ -4808,41 +5429,62 @@
       <c r="K160" s="7"/>
       <c r="L160" s="7"/>
     </row>
+    <row r="161" ht="18" customHeight="1" spans="1:12">
+      <c r="A161" s="7"/>
+      <c r="B161" s="7"/>
+      <c r="C161" s="8"/>
+      <c r="D161" s="7"/>
+      <c r="E161" s="7"/>
+      <c r="F161" s="7"/>
+      <c r="G161" s="7"/>
+      <c r="H161" s="7"/>
+      <c r="I161" s="7"/>
+      <c r="J161" s="7"/>
+      <c r="K161" s="7"/>
+      <c r="L161" s="7"/>
+    </row>
   </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="L81" r:id="rId1" tooltip="https://item.szlcsc.com/87756.html" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="L81" r:id="rId3" display="https://item.szlcsc.com/87756.html" tooltip="https://item.szlcsc.com/87756.html"/>
+    <hyperlink ref="L82" r:id="rId4" display="https://item.szlcsc.com/136348.html"/>
   </hyperlinks>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
-  <phoneticPr fontId="5" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
-  <phoneticPr fontId="5" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/物料索引.xlsx
+++ b/物料索引.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20228"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Cadence LIB\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{8124F776-BD59-412B-B85B-19FC4B35B66F}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="14070"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28692" windowHeight="14076" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,12 +22,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>zxiat</author>
   </authors>
   <commentList>
-    <comment ref="A2" authorId="0">
+    <comment ref="A2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -51,7 +57,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A3" authorId="0">
+    <comment ref="A3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -88,7 +94,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="500" uniqueCount="321">
   <si>
     <t>物料编码</t>
   </si>
@@ -1138,18 +1144,68 @@
   <si>
     <t>tf-015</t>
   </si>
+  <si>
+    <t>7K325TFFG676</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>FPGA</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>FFG676</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>BGA1mm_26x26</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>S29GL01GS10TFI010</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>NAND FLASH 1Gb,</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>TSOP-56</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>56L_14x20mm_TSOP</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>TPS51200DRCR</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>D</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>DR用端接电源</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>DRC0010J</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="23">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1182,148 +1238,37 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
   </fonts>
-  <fills count="34">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1332,198 +1277,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -1546,255 +1305,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1834,68 +1354,28 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="10" applyNumberFormat="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="10" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -2182,35 +1662,34 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:L161"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:L162"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A64" activePane="bottomLeft" state="frozen"/>
-      <selection/>
-      <selection pane="bottomLeft" activeCell="P93" sqref="P93"/>
+      <pane ySplit="3" topLeftCell="A61" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J65" sqref="J65"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18" style="2" customWidth="1"/>
-    <col min="2" max="2" width="18.2166666666667" style="2" customWidth="1"/>
+    <col min="2" max="2" width="18.21875" style="2" customWidth="1"/>
     <col min="3" max="3" width="27" style="3" customWidth="1"/>
     <col min="4" max="4" width="9" style="2"/>
-    <col min="5" max="5" width="10.8833333333333" style="2" customWidth="1"/>
+    <col min="5" max="5" width="10.88671875" style="2" customWidth="1"/>
     <col min="6" max="9" width="9" style="2"/>
-    <col min="10" max="10" width="11.8833333333333" style="2" customWidth="1"/>
-    <col min="11" max="11" width="13.875" style="2" customWidth="1"/>
+    <col min="10" max="10" width="11.88671875" style="2" customWidth="1"/>
+    <col min="11" max="11" width="13.88671875" style="2" customWidth="1"/>
     <col min="12" max="12" width="9" style="2"/>
     <col min="13" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="18" customHeight="1" spans="1:12">
+    <row r="1" spans="1:12" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -2248,7 +1727,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" ht="18" customHeight="1" spans="1:12">
+    <row r="2" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>12</v>
       </c>
@@ -2282,7 +1761,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" ht="18" customHeight="1" spans="1:12">
+    <row r="3" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>21</v>
       </c>
@@ -2316,7 +1795,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="4" customFormat="1" ht="18" customHeight="1" spans="1:12">
+    <row r="4" spans="1:12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="7"/>
       <c r="B4" s="7"/>
       <c r="C4" s="8"/>
@@ -2330,7 +1809,7 @@
       <c r="K4" s="7"/>
       <c r="L4" s="7"/>
     </row>
-    <row r="5" customFormat="1" ht="18" customHeight="1" spans="1:12">
+    <row r="5" spans="1:12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7"/>
       <c r="B5" s="7"/>
       <c r="C5" s="8"/>
@@ -2344,7 +1823,7 @@
       <c r="K5" s="7"/>
       <c r="L5" s="7"/>
     </row>
-    <row r="6" ht="18" customHeight="1" spans="1:12">
+    <row r="6" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>30</v>
       </c>
@@ -2378,7 +1857,7 @@
       <c r="K6" s="7"/>
       <c r="L6" s="7"/>
     </row>
-    <row r="7" ht="18" customHeight="1" spans="1:12">
+    <row r="7" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
         <v>38</v>
       </c>
@@ -2412,7 +1891,7 @@
       <c r="K7" s="7"/>
       <c r="L7" s="7"/>
     </row>
-    <row r="8" ht="18" customHeight="1" spans="1:12">
+    <row r="8" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>42</v>
       </c>
@@ -2446,7 +1925,7 @@
       <c r="K8" s="7"/>
       <c r="L8" s="7"/>
     </row>
-    <row r="9" ht="18" customHeight="1" spans="1:12">
+    <row r="9" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>45</v>
       </c>
@@ -2480,7 +1959,7 @@
       <c r="K9" s="7"/>
       <c r="L9" s="7"/>
     </row>
-    <row r="10" ht="18" customHeight="1" spans="1:12">
+    <row r="10" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>50</v>
       </c>
@@ -2514,7 +1993,7 @@
       <c r="K10" s="7"/>
       <c r="L10" s="7"/>
     </row>
-    <row r="11" ht="18" customHeight="1" spans="1:12">
+    <row r="11" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
         <v>53</v>
       </c>
@@ -2548,7 +2027,7 @@
       <c r="K11" s="7"/>
       <c r="L11" s="7"/>
     </row>
-    <row r="12" ht="18" customHeight="1" spans="1:12">
+    <row r="12" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
         <v>57</v>
       </c>
@@ -2582,7 +2061,7 @@
       <c r="K12" s="7"/>
       <c r="L12" s="7"/>
     </row>
-    <row r="13" ht="18" customHeight="1" spans="1:12">
+    <row r="13" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
         <v>62</v>
       </c>
@@ -2616,7 +2095,7 @@
       <c r="K13" s="7"/>
       <c r="L13" s="7"/>
     </row>
-    <row r="14" ht="18" customHeight="1" spans="1:12">
+    <row r="14" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
         <v>66</v>
       </c>
@@ -2650,7 +2129,7 @@
       <c r="K14" s="7"/>
       <c r="L14" s="7"/>
     </row>
-    <row r="15" ht="18" customHeight="1" spans="1:12">
+    <row r="15" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
         <v>69</v>
       </c>
@@ -2684,7 +2163,7 @@
       <c r="K15" s="7"/>
       <c r="L15" s="7"/>
     </row>
-    <row r="16" ht="18" customHeight="1" spans="1:12">
+    <row r="16" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
         <v>72</v>
       </c>
@@ -2718,7 +2197,7 @@
       <c r="K16" s="7"/>
       <c r="L16" s="7"/>
     </row>
-    <row r="17" ht="18" customHeight="1" spans="1:12">
+    <row r="17" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
         <v>76</v>
       </c>
@@ -2752,7 +2231,7 @@
       <c r="K17" s="7"/>
       <c r="L17" s="7"/>
     </row>
-    <row r="18" ht="18" customHeight="1" spans="1:12">
+    <row r="18" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
         <v>79</v>
       </c>
@@ -2788,7 +2267,7 @@
       </c>
       <c r="L18" s="7"/>
     </row>
-    <row r="19" ht="18" customHeight="1" spans="1:12">
+    <row r="19" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
         <v>83</v>
       </c>
@@ -2822,7 +2301,7 @@
       <c r="K19" s="9"/>
       <c r="L19" s="7"/>
     </row>
-    <row r="20" ht="18" customHeight="1" spans="1:12">
+    <row r="20" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
         <v>87</v>
       </c>
@@ -2856,7 +2335,7 @@
       <c r="K20" s="9"/>
       <c r="L20" s="7"/>
     </row>
-    <row r="21" ht="18" customHeight="1" spans="1:12">
+    <row r="21" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="7"/>
       <c r="B21" s="7" t="s">
         <v>93</v>
@@ -2888,7 +2367,7 @@
       </c>
       <c r="L21" s="7"/>
     </row>
-    <row r="22" ht="18" customHeight="1" spans="1:12">
+    <row r="22" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="7"/>
       <c r="B22" s="7" t="s">
         <v>99</v>
@@ -2922,7 +2401,7 @@
       </c>
       <c r="L22" s="7"/>
     </row>
-    <row r="23" ht="18" customHeight="1" spans="1:12">
+    <row r="23" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="7"/>
       <c r="B23" s="7" t="s">
         <v>101</v>
@@ -2956,7 +2435,7 @@
       </c>
       <c r="L23" s="7"/>
     </row>
-    <row r="24" ht="18" customHeight="1" spans="1:12">
+    <row r="24" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="7"/>
       <c r="B24" s="7"/>
       <c r="C24" s="8"/>
@@ -2970,7 +2449,7 @@
       <c r="K24" s="9"/>
       <c r="L24" s="7"/>
     </row>
-    <row r="25" ht="18" customHeight="1" spans="1:12">
+    <row r="25" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="7"/>
       <c r="B25" s="7" t="s">
         <v>105</v>
@@ -3004,7 +2483,7 @@
       </c>
       <c r="L25" s="7"/>
     </row>
-    <row r="26" ht="18" customHeight="1" spans="1:12">
+    <row r="26" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="7"/>
       <c r="B26" s="7" t="s">
         <v>112</v>
@@ -3038,7 +2517,7 @@
       </c>
       <c r="L26" s="7"/>
     </row>
-    <row r="27" ht="18" customHeight="1" spans="1:12">
+    <row r="27" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="7"/>
       <c r="B27" s="7"/>
       <c r="C27" s="8"/>
@@ -3052,7 +2531,7 @@
       <c r="K27" s="7"/>
       <c r="L27" s="7"/>
     </row>
-    <row r="28" ht="18" customHeight="1" spans="1:12">
+    <row r="28" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="7"/>
       <c r="B28" s="7" t="s">
         <v>118</v>
@@ -3080,7 +2559,7 @@
       </c>
       <c r="L28" s="7"/>
     </row>
-    <row r="29" ht="18" customHeight="1" spans="1:12">
+    <row r="29" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="7"/>
       <c r="B29" s="7"/>
       <c r="C29" s="8"/>
@@ -3094,7 +2573,7 @@
       <c r="K29" s="7"/>
       <c r="L29" s="7"/>
     </row>
-    <row r="30" ht="18" customHeight="1" spans="1:12">
+    <row r="30" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="7"/>
       <c r="B30" s="7" t="s">
         <v>125</v>
@@ -3126,7 +2605,7 @@
       </c>
       <c r="L30" s="7"/>
     </row>
-    <row r="31" ht="18" customHeight="1" spans="1:12">
+    <row r="31" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="7"/>
       <c r="B31" s="7"/>
       <c r="C31" s="8"/>
@@ -3140,7 +2619,7 @@
       <c r="K31" s="7"/>
       <c r="L31" s="7"/>
     </row>
-    <row r="32" ht="18" customHeight="1" spans="1:12">
+    <row r="32" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="7"/>
       <c r="B32" s="10" t="s">
         <v>133</v>
@@ -3172,7 +2651,7 @@
       </c>
       <c r="L32" s="7"/>
     </row>
-    <row r="33" ht="18" customHeight="1" spans="1:12">
+    <row r="33" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="7"/>
       <c r="B33" s="7" t="s">
         <v>140</v>
@@ -3204,7 +2683,7 @@
       </c>
       <c r="L33" s="7"/>
     </row>
-    <row r="34" ht="18" customHeight="1" spans="1:12">
+    <row r="34" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="7"/>
       <c r="B34" s="7" t="s">
         <v>145</v>
@@ -3236,7 +2715,7 @@
       </c>
       <c r="L34" s="7"/>
     </row>
-    <row r="35" ht="18" customHeight="1" spans="1:12">
+    <row r="35" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="7"/>
       <c r="B35" s="7" t="s">
         <v>148</v>
@@ -3268,7 +2747,7 @@
       </c>
       <c r="L35" s="7"/>
     </row>
-    <row r="36" ht="18" customHeight="1" spans="1:12">
+    <row r="36" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="7"/>
       <c r="B36" s="7" t="s">
         <v>154</v>
@@ -3298,7 +2777,7 @@
       </c>
       <c r="L36" s="7"/>
     </row>
-    <row r="37" ht="18" customHeight="1" spans="1:12">
+    <row r="37" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="7"/>
       <c r="B37" s="7"/>
       <c r="C37" s="8"/>
@@ -3312,7 +2791,7 @@
       <c r="K37" s="7"/>
       <c r="L37" s="7"/>
     </row>
-    <row r="38" ht="18" customHeight="1" spans="1:12">
+    <row r="38" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="7"/>
       <c r="B38" s="7" t="s">
         <v>160</v>
@@ -3334,7 +2813,7 @@
       <c r="K38" s="7"/>
       <c r="L38" s="7"/>
     </row>
-    <row r="39" ht="18" customHeight="1" spans="1:12">
+    <row r="39" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="7"/>
       <c r="B39" s="7" t="s">
         <v>164</v>
@@ -3360,7 +2839,7 @@
       </c>
       <c r="L39" s="7"/>
     </row>
-    <row r="40" ht="18" customHeight="1" spans="1:12">
+    <row r="40" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="7"/>
       <c r="B40" s="7" t="s">
         <v>167</v>
@@ -3384,7 +2863,7 @@
       <c r="K40" s="7"/>
       <c r="L40" s="7"/>
     </row>
-    <row r="41" ht="18" customHeight="1" spans="1:12">
+    <row r="41" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="7"/>
       <c r="B41" s="7"/>
       <c r="C41" s="8"/>
@@ -3398,7 +2877,7 @@
       <c r="K41" s="7"/>
       <c r="L41" s="7"/>
     </row>
-    <row r="42" ht="18" customHeight="1" spans="1:12">
+    <row r="42" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="7"/>
       <c r="B42" s="7" t="s">
         <v>171</v>
@@ -3422,7 +2901,7 @@
       </c>
       <c r="L42" s="7"/>
     </row>
-    <row r="43" ht="18" customHeight="1" spans="1:12">
+    <row r="43" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="7"/>
       <c r="B43" s="10" t="s">
         <v>175</v>
@@ -3448,7 +2927,7 @@
       </c>
       <c r="L43" s="7"/>
     </row>
-    <row r="44" ht="18" customHeight="1" spans="1:12">
+    <row r="44" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="7"/>
       <c r="B44" s="7" t="s">
         <v>180</v>
@@ -3472,7 +2951,7 @@
       </c>
       <c r="L44" s="7"/>
     </row>
-    <row r="45" ht="18" customHeight="1" spans="1:12">
+    <row r="45" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="7"/>
       <c r="B45" s="7"/>
       <c r="C45" s="8"/>
@@ -3486,7 +2965,7 @@
       <c r="K45" s="7"/>
       <c r="L45" s="7"/>
     </row>
-    <row r="46" ht="18" customHeight="1" spans="1:12">
+    <row r="46" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="7"/>
       <c r="B46" s="7" t="s">
         <v>185</v>
@@ -3508,7 +2987,7 @@
       </c>
       <c r="L46" s="7"/>
     </row>
-    <row r="47" ht="18" customHeight="1" spans="1:12">
+    <row r="47" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="7"/>
       <c r="B47" s="10" t="s">
         <v>188</v>
@@ -3530,7 +3009,7 @@
       </c>
       <c r="L47" s="7"/>
     </row>
-    <row r="48" ht="18" customHeight="1" spans="1:12">
+    <row r="48" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="7"/>
       <c r="B48" s="7"/>
       <c r="C48" s="8"/>
@@ -3544,7 +3023,7 @@
       <c r="K48" s="7"/>
       <c r="L48" s="7"/>
     </row>
-    <row r="49" ht="18" customHeight="1" spans="1:12">
+    <row r="49" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="7"/>
       <c r="B49" s="7" t="s">
         <v>191</v>
@@ -3576,7 +3055,7 @@
       </c>
       <c r="L49" s="7"/>
     </row>
-    <row r="50" ht="18" customHeight="1" spans="1:12">
+    <row r="50" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="7"/>
       <c r="B50" s="7" t="s">
         <v>197</v>
@@ -3604,7 +3083,7 @@
       </c>
       <c r="L50" s="7"/>
     </row>
-    <row r="51" ht="18" customHeight="1" spans="1:12">
+    <row r="51" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="7"/>
       <c r="B51" s="7"/>
       <c r="C51" s="8"/>
@@ -3618,7 +3097,7 @@
       <c r="K51" s="7"/>
       <c r="L51" s="7"/>
     </row>
-    <row r="52" ht="18" customHeight="1" spans="1:12">
+    <row r="52" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="7"/>
       <c r="B52" s="7" t="s">
         <v>199</v>
@@ -3648,7 +3127,7 @@
       </c>
       <c r="L52" s="7"/>
     </row>
-    <row r="53" ht="18" customHeight="1" spans="1:12">
+    <row r="53" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="7"/>
       <c r="B53" s="7"/>
       <c r="C53" s="8"/>
@@ -3662,7 +3141,7 @@
       <c r="K53" s="7"/>
       <c r="L53" s="7"/>
     </row>
-    <row r="54" ht="18" customHeight="1" spans="1:12">
+    <row r="54" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="7"/>
       <c r="B54" s="7" t="s">
         <v>206</v>
@@ -3688,7 +3167,7 @@
       </c>
       <c r="L54" s="7"/>
     </row>
-    <row r="55" ht="18" customHeight="1" spans="1:12">
+    <row r="55" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="7"/>
       <c r="B55" s="7" t="s">
         <v>212</v>
@@ -3712,7 +3191,7 @@
       </c>
       <c r="L55" s="7"/>
     </row>
-    <row r="56" ht="18" customHeight="1" spans="1:12">
+    <row r="56" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="7"/>
       <c r="B56" s="7"/>
       <c r="C56" s="8"/>
@@ -3726,7 +3205,7 @@
       <c r="K56" s="7"/>
       <c r="L56" s="7"/>
     </row>
-    <row r="57" ht="18" customHeight="1" spans="1:12">
+    <row r="57" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="7"/>
       <c r="B57" s="7" t="s">
         <v>217</v>
@@ -3748,7 +3227,7 @@
       </c>
       <c r="L57" s="7"/>
     </row>
-    <row r="58" ht="18" customHeight="1" spans="1:12">
+    <row r="58" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="7"/>
       <c r="B58" s="7" t="s">
         <v>221</v>
@@ -3770,7 +3249,7 @@
       </c>
       <c r="L58" s="7"/>
     </row>
-    <row r="59" ht="18" customHeight="1" spans="1:12">
+    <row r="59" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="7"/>
       <c r="B59" s="7"/>
       <c r="C59" s="8"/>
@@ -3784,7 +3263,7 @@
       <c r="K59" s="7"/>
       <c r="L59" s="7"/>
     </row>
-    <row r="60" ht="18" customHeight="1" spans="1:12">
+    <row r="60" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="7"/>
       <c r="B60" s="7" t="s">
         <v>224</v>
@@ -3812,7 +3291,7 @@
       </c>
       <c r="L60" s="7"/>
     </row>
-    <row r="61" ht="18" customHeight="1" spans="1:12">
+    <row r="61" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="7"/>
       <c r="B61" s="7" t="s">
         <v>229</v>
@@ -3834,7 +3313,7 @@
       </c>
       <c r="L61" s="7"/>
     </row>
-    <row r="62" ht="18" customHeight="1" spans="1:12">
+    <row r="62" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="7"/>
       <c r="B62" s="7" t="s">
         <v>231</v>
@@ -3862,7 +3341,7 @@
       </c>
       <c r="L62" s="7"/>
     </row>
-    <row r="63" ht="18" customHeight="1" spans="1:12">
+    <row r="63" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="7"/>
       <c r="B63" s="7" t="s">
         <v>235</v>
@@ -3884,7 +3363,7 @@
       </c>
       <c r="L63" s="7"/>
     </row>
-    <row r="64" ht="18" customHeight="1" spans="1:12">
+    <row r="64" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="7"/>
       <c r="B64" s="7" t="s">
         <v>237</v>
@@ -3906,10 +3385,14 @@
       </c>
       <c r="L64" s="7"/>
     </row>
-    <row r="65" ht="18" customHeight="1" spans="1:12">
+    <row r="65" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="7"/>
-      <c r="B65" s="7"/>
-      <c r="C65" s="8"/>
+      <c r="B65" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="C65" s="15" t="s">
+        <v>319</v>
+      </c>
       <c r="D65" s="7"/>
       <c r="E65" s="7"/>
       <c r="F65" s="7"/>
@@ -3917,17 +3400,15 @@
       <c r="H65" s="7"/>
       <c r="I65" s="7"/>
       <c r="J65" s="7"/>
-      <c r="K65" s="7"/>
+      <c r="K65" s="7" t="s">
+        <v>320</v>
+      </c>
       <c r="L65" s="7"/>
     </row>
-    <row r="66" ht="18" customHeight="1" spans="1:12">
+    <row r="66" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="7"/>
-      <c r="B66" s="7" t="s">
-        <v>239</v>
-      </c>
-      <c r="C66" s="8" t="s">
-        <v>240</v>
-      </c>
+      <c r="B66" s="7"/>
+      <c r="C66" s="8"/>
       <c r="D66" s="7"/>
       <c r="E66" s="7"/>
       <c r="F66" s="7"/>
@@ -3935,18 +3416,16 @@
       <c r="H66" s="7"/>
       <c r="I66" s="7"/>
       <c r="J66" s="7"/>
-      <c r="K66" s="7" t="s">
-        <v>241</v>
-      </c>
+      <c r="K66" s="7"/>
       <c r="L66" s="7"/>
     </row>
-    <row r="67" ht="18" customHeight="1" spans="1:12">
+    <row r="67" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="7"/>
       <c r="B67" s="7" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="C67" s="8" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="D67" s="7"/>
       <c r="E67" s="7"/>
@@ -3955,18 +3434,18 @@
       <c r="H67" s="7"/>
       <c r="I67" s="7"/>
       <c r="J67" s="7"/>
-      <c r="K67" s="10" t="s">
-        <v>179</v>
+      <c r="K67" s="7" t="s">
+        <v>241</v>
       </c>
       <c r="L67" s="7"/>
     </row>
-    <row r="68" ht="18" customHeight="1" spans="1:12">
+    <row r="68" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="7"/>
       <c r="B68" s="7" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C68" s="8" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="D68" s="7"/>
       <c r="E68" s="7"/>
@@ -3974,104 +3453,104 @@
       <c r="G68" s="7"/>
       <c r="H68" s="7"/>
       <c r="I68" s="7"/>
+      <c r="J68" s="7"/>
       <c r="K68" s="10" t="s">
-        <v>241</v>
+        <v>179</v>
       </c>
       <c r="L68" s="7"/>
     </row>
-    <row r="69" ht="18" customHeight="1" spans="1:12">
+    <row r="69" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="7"/>
-      <c r="B69" s="8" t="s">
-        <v>246</v>
+      <c r="B69" s="7" t="s">
+        <v>244</v>
       </c>
       <c r="C69" s="8" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="D69" s="7"/>
       <c r="E69" s="7"/>
       <c r="F69" s="7"/>
       <c r="G69" s="7"/>
       <c r="H69" s="7"/>
-      <c r="I69" s="7" t="s">
-        <v>248</v>
-      </c>
-      <c r="J69" s="2" t="s">
-        <v>249</v>
-      </c>
+      <c r="I69" s="7"/>
       <c r="K69" s="10" t="s">
+        <v>241</v>
+      </c>
+      <c r="L69" s="7"/>
+    </row>
+    <row r="70" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="7"/>
+      <c r="B70" s="8" t="s">
         <v>246</v>
       </c>
-      <c r="L69" s="7"/>
-    </row>
-    <row r="70" ht="18" customHeight="1" spans="1:12">
-      <c r="A70" s="7"/>
-      <c r="B70" s="7" t="s">
-        <v>250</v>
-      </c>
-      <c r="C70" s="12" t="s">
-        <v>251</v>
+      <c r="C70" s="8" t="s">
+        <v>247</v>
       </c>
       <c r="D70" s="7"/>
       <c r="E70" s="7"/>
       <c r="F70" s="7"/>
       <c r="G70" s="7"/>
       <c r="H70" s="7"/>
-      <c r="I70" s="7"/>
-      <c r="J70" s="7"/>
+      <c r="I70" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="J70" s="2" t="s">
+        <v>249</v>
+      </c>
       <c r="K70" s="10" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="L70" s="7"/>
     </row>
-    <row r="71" ht="18" customHeight="1" spans="1:12">
+    <row r="71" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="7"/>
       <c r="B71" s="7" t="s">
-        <v>253</v>
-      </c>
-      <c r="C71" s="8" t="s">
-        <v>254</v>
+        <v>250</v>
+      </c>
+      <c r="C71" s="12" t="s">
+        <v>251</v>
       </c>
       <c r="D71" s="7"/>
       <c r="E71" s="7"/>
       <c r="F71" s="7"/>
       <c r="G71" s="7"/>
       <c r="H71" s="7"/>
-      <c r="I71" s="7" t="s">
-        <v>255</v>
-      </c>
+      <c r="I71" s="7"/>
       <c r="J71" s="7"/>
       <c r="K71" s="10" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="L71" s="7"/>
     </row>
-    <row r="72" ht="18" customHeight="1" spans="1:12">
+    <row r="72" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="7"/>
       <c r="B72" s="7" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="C72" s="8" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="D72" s="7"/>
       <c r="E72" s="7"/>
       <c r="F72" s="7"/>
       <c r="G72" s="7"/>
       <c r="H72" s="7"/>
-      <c r="I72" s="7"/>
+      <c r="I72" s="7" t="s">
+        <v>255</v>
+      </c>
       <c r="J72" s="7"/>
       <c r="K72" s="10" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="L72" s="7"/>
     </row>
-    <row r="73" ht="18" customHeight="1" spans="1:12">
+    <row r="73" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="7"/>
-      <c r="B73" s="10" t="s">
-        <v>260</v>
+      <c r="B73" s="7" t="s">
+        <v>257</v>
       </c>
       <c r="C73" s="8" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="D73" s="7"/>
       <c r="E73" s="7"/>
@@ -4081,58 +3560,62 @@
       <c r="I73" s="7"/>
       <c r="J73" s="7"/>
       <c r="K73" s="10" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="L73" s="7"/>
     </row>
-    <row r="74" ht="18" customHeight="1" spans="1:12">
+    <row r="74" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="7"/>
-      <c r="B74" s="7" t="s">
-        <v>263</v>
+      <c r="B74" s="10" t="s">
+        <v>260</v>
       </c>
       <c r="C74" s="8" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="D74" s="7"/>
-      <c r="E74" s="7" t="s">
-        <v>265</v>
-      </c>
+      <c r="E74" s="7"/>
       <c r="F74" s="7"/>
       <c r="G74" s="7"/>
       <c r="H74" s="7"/>
       <c r="I74" s="7"/>
-      <c r="J74" s="7" t="s">
-        <v>266</v>
-      </c>
-      <c r="K74" s="7" t="s">
-        <v>259</v>
+      <c r="J74" s="7"/>
+      <c r="K74" s="10" t="s">
+        <v>262</v>
       </c>
       <c r="L74" s="7"/>
     </row>
-    <row r="75" ht="18" customHeight="1" spans="1:12">
+    <row r="75" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="7"/>
       <c r="B75" s="7" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="C75" s="8" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="D75" s="7"/>
-      <c r="E75" s="7"/>
+      <c r="E75" s="7" t="s">
+        <v>265</v>
+      </c>
       <c r="F75" s="7"/>
       <c r="G75" s="7"/>
       <c r="H75" s="7"/>
       <c r="I75" s="7"/>
-      <c r="J75" s="7"/>
+      <c r="J75" s="7" t="s">
+        <v>266</v>
+      </c>
       <c r="K75" s="7" t="s">
-        <v>269</v>
+        <v>259</v>
       </c>
       <c r="L75" s="7"/>
     </row>
-    <row r="76" ht="18" customHeight="1" spans="1:12">
+    <row r="76" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="7"/>
-      <c r="B76" s="7"/>
-      <c r="C76" s="8"/>
+      <c r="B76" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="C76" s="8" t="s">
+        <v>268</v>
+      </c>
       <c r="D76" s="7"/>
       <c r="E76" s="7"/>
       <c r="F76" s="7"/>
@@ -4140,17 +3623,15 @@
       <c r="H76" s="7"/>
       <c r="I76" s="7"/>
       <c r="J76" s="7"/>
-      <c r="K76" s="7"/>
+      <c r="K76" s="7" t="s">
+        <v>269</v>
+      </c>
       <c r="L76" s="7"/>
     </row>
-    <row r="77" ht="18" customHeight="1" spans="1:12">
+    <row r="77" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="7"/>
-      <c r="B77" s="7" t="s">
-        <v>270</v>
-      </c>
-      <c r="C77" s="8" t="s">
-        <v>271</v>
-      </c>
+      <c r="B77" s="7"/>
+      <c r="C77" s="8"/>
       <c r="D77" s="7"/>
       <c r="E77" s="7"/>
       <c r="F77" s="7"/>
@@ -4158,15 +3639,17 @@
       <c r="H77" s="7"/>
       <c r="I77" s="7"/>
       <c r="J77" s="7"/>
-      <c r="K77" s="7" t="s">
-        <v>272</v>
-      </c>
+      <c r="K77" s="7"/>
       <c r="L77" s="7"/>
     </row>
-    <row r="78" ht="18" customHeight="1" spans="1:12">
+    <row r="78" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="7"/>
-      <c r="B78" s="7"/>
-      <c r="C78" s="8"/>
+      <c r="B78" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="C78" s="8" t="s">
+        <v>271</v>
+      </c>
       <c r="D78" s="7"/>
       <c r="E78" s="7"/>
       <c r="F78" s="7"/>
@@ -4174,17 +3657,15 @@
       <c r="H78" s="7"/>
       <c r="I78" s="7"/>
       <c r="J78" s="7"/>
-      <c r="K78" s="7"/>
+      <c r="K78" s="7" t="s">
+        <v>272</v>
+      </c>
       <c r="L78" s="7"/>
     </row>
-    <row r="79" ht="18" customHeight="1" spans="1:12">
+    <row r="79" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="7"/>
-      <c r="B79" s="7" t="s">
-        <v>273</v>
-      </c>
-      <c r="C79" s="8" t="s">
-        <v>274</v>
-      </c>
+      <c r="B79" s="7"/>
+      <c r="C79" s="8"/>
       <c r="D79" s="7"/>
       <c r="E79" s="7"/>
       <c r="F79" s="7"/>
@@ -4192,15 +3673,17 @@
       <c r="H79" s="7"/>
       <c r="I79" s="7"/>
       <c r="J79" s="7"/>
-      <c r="K79" s="7" t="s">
-        <v>275</v>
-      </c>
+      <c r="K79" s="7"/>
       <c r="L79" s="7"/>
     </row>
-    <row r="80" ht="18" customHeight="1" spans="1:12">
+    <row r="80" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="7"/>
-      <c r="B80" s="7"/>
-      <c r="C80" s="8"/>
+      <c r="B80" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="C80" s="8" t="s">
+        <v>274</v>
+      </c>
       <c r="D80" s="7"/>
       <c r="E80" s="7"/>
       <c r="F80" s="7"/>
@@ -4208,44 +3691,32 @@
       <c r="H80" s="7"/>
       <c r="I80" s="7"/>
       <c r="J80" s="7"/>
-      <c r="K80" s="7"/>
+      <c r="K80" s="7" t="s">
+        <v>275</v>
+      </c>
       <c r="L80" s="7"/>
     </row>
-    <row r="81" ht="18" customHeight="1" spans="1:12">
+    <row r="81" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="7"/>
-      <c r="B81" s="7" t="s">
-        <v>276</v>
-      </c>
-      <c r="C81" s="8" t="s">
-        <v>277</v>
-      </c>
+      <c r="B81" s="7"/>
+      <c r="C81" s="8"/>
       <c r="D81" s="7"/>
-      <c r="E81" s="7" t="s">
-        <v>278</v>
-      </c>
+      <c r="E81" s="7"/>
       <c r="F81" s="7"/>
       <c r="G81" s="7"/>
       <c r="H81" s="7"/>
-      <c r="I81" s="7" t="s">
-        <v>278</v>
-      </c>
-      <c r="J81" s="7" t="s">
-        <v>279</v>
-      </c>
-      <c r="K81" s="7" t="s">
-        <v>280</v>
-      </c>
-      <c r="L81" s="13" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="82" ht="18" customHeight="1" spans="1:12">
+      <c r="I81" s="7"/>
+      <c r="J81" s="7"/>
+      <c r="K81" s="7"/>
+      <c r="L81" s="7"/>
+    </row>
+    <row r="82" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="7"/>
       <c r="B82" s="7" t="s">
         <v>276</v>
       </c>
       <c r="C82" s="8" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="D82" s="7"/>
       <c r="E82" s="7" t="s">
@@ -4258,25 +3729,27 @@
         <v>278</v>
       </c>
       <c r="J82" s="7" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="K82" s="7" t="s">
         <v>280</v>
       </c>
-      <c r="L82" s="14" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="83" ht="18" customHeight="1" spans="1:12">
+      <c r="L82" s="13" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="7"/>
       <c r="B83" s="7" t="s">
         <v>276</v>
       </c>
       <c r="C83" s="8" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="D83" s="7"/>
-      <c r="E83" s="7"/>
+      <c r="E83" s="7" t="s">
+        <v>278</v>
+      </c>
       <c r="F83" s="7"/>
       <c r="G83" s="7"/>
       <c r="H83" s="7"/>
@@ -4284,46 +3757,48 @@
         <v>278</v>
       </c>
       <c r="J83" s="7" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="K83" s="7" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="L83" s="14" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="84" ht="18" customHeight="1" spans="1:12">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="7"/>
       <c r="B84" s="7" t="s">
-        <v>288</v>
+        <v>276</v>
       </c>
       <c r="C84" s="8" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="D84" s="7"/>
-      <c r="E84" s="7" t="s">
-        <v>278</v>
-      </c>
+      <c r="E84" s="7"/>
       <c r="F84" s="7"/>
       <c r="G84" s="7"/>
       <c r="H84" s="7"/>
       <c r="I84" s="7" t="s">
         <v>278</v>
       </c>
-      <c r="J84" s="7"/>
+      <c r="J84" s="7" t="s">
+        <v>279</v>
+      </c>
       <c r="K84" s="7" t="s">
-        <v>290</v>
-      </c>
-      <c r="L84" s="7"/>
-    </row>
-    <row r="85" ht="18" customHeight="1" spans="1:12">
+        <v>286</v>
+      </c>
+      <c r="L84" s="14" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="7"/>
       <c r="B85" s="7" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="C85" s="8" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="D85" s="7"/>
       <c r="E85" s="7" t="s">
@@ -4337,25 +3812,35 @@
       </c>
       <c r="J85" s="7"/>
       <c r="K85" s="7" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="L85" s="7"/>
     </row>
-    <row r="86" ht="18" customHeight="1" spans="1:12">
+    <row r="86" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="7"/>
-      <c r="B86" s="7"/>
-      <c r="C86" s="8"/>
+      <c r="B86" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="C86" s="8" t="s">
+        <v>292</v>
+      </c>
       <c r="D86" s="7"/>
-      <c r="E86" s="7"/>
+      <c r="E86" s="7" t="s">
+        <v>278</v>
+      </c>
       <c r="F86" s="7"/>
       <c r="G86" s="7"/>
       <c r="H86" s="7"/>
-      <c r="I86" s="7"/>
+      <c r="I86" s="7" t="s">
+        <v>278</v>
+      </c>
       <c r="J86" s="7"/>
-      <c r="K86" s="7"/>
+      <c r="K86" s="7" t="s">
+        <v>293</v>
+      </c>
       <c r="L86" s="7"/>
     </row>
-    <row r="87" ht="18" customHeight="1" spans="1:12">
+    <row r="87" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="7"/>
       <c r="B87" s="7"/>
       <c r="C87" s="8"/>
@@ -4369,55 +3854,49 @@
       <c r="K87" s="7"/>
       <c r="L87" s="7"/>
     </row>
-    <row r="88" ht="18" customHeight="1" spans="1:12">
+    <row r="88" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="7"/>
-      <c r="B88" s="10" t="s">
-        <v>294</v>
-      </c>
-      <c r="C88" s="11" t="s">
-        <v>295</v>
-      </c>
+      <c r="B88" s="7"/>
+      <c r="C88" s="8"/>
       <c r="D88" s="7"/>
       <c r="E88" s="7"/>
       <c r="F88" s="7"/>
       <c r="G88" s="7"/>
       <c r="H88" s="7"/>
-      <c r="I88" s="10" t="s">
-        <v>296</v>
-      </c>
+      <c r="I88" s="7"/>
       <c r="J88" s="7"/>
-      <c r="K88" s="10" t="s">
-        <v>296</v>
-      </c>
+      <c r="K88" s="7"/>
       <c r="L88" s="7"/>
     </row>
-    <row r="89" ht="18" customHeight="1" spans="1:12">
+    <row r="89" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="7"/>
-      <c r="B89" s="7" t="s">
-        <v>297</v>
-      </c>
-      <c r="C89" s="8" t="s">
-        <v>298</v>
+      <c r="B89" s="10" t="s">
+        <v>294</v>
+      </c>
+      <c r="C89" s="11" t="s">
+        <v>295</v>
       </c>
       <c r="D89" s="7"/>
       <c r="E89" s="7"/>
       <c r="F89" s="7"/>
       <c r="G89" s="7"/>
       <c r="H89" s="7"/>
-      <c r="I89" s="7"/>
+      <c r="I89" s="10" t="s">
+        <v>296</v>
+      </c>
       <c r="J89" s="7"/>
       <c r="K89" s="10" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="L89" s="7"/>
     </row>
-    <row r="90" ht="18" customHeight="1" spans="1:12">
+    <row r="90" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="7"/>
       <c r="B90" s="7" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="C90" s="8" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="D90" s="7"/>
       <c r="E90" s="7"/>
@@ -4426,16 +3905,18 @@
       <c r="H90" s="7"/>
       <c r="I90" s="7"/>
       <c r="J90" s="7"/>
-      <c r="K90" s="7"/>
+      <c r="K90" s="10" t="s">
+        <v>299</v>
+      </c>
       <c r="L90" s="7"/>
     </row>
-    <row r="91" ht="18" customHeight="1" spans="1:12">
+    <row r="91" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="7"/>
       <c r="B91" s="7" t="s">
-        <v>302</v>
-      </c>
-      <c r="C91" s="11" t="s">
-        <v>303</v>
+        <v>300</v>
+      </c>
+      <c r="C91" s="8" t="s">
+        <v>301</v>
       </c>
       <c r="D91" s="7"/>
       <c r="E91" s="7"/>
@@ -4444,18 +3925,16 @@
       <c r="H91" s="7"/>
       <c r="I91" s="7"/>
       <c r="J91" s="7"/>
-      <c r="K91" s="7" t="s">
-        <v>302</v>
-      </c>
+      <c r="K91" s="7"/>
       <c r="L91" s="7"/>
     </row>
-    <row r="92" ht="18" customHeight="1" spans="1:12">
+    <row r="92" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="7"/>
       <c r="B92" s="7" t="s">
-        <v>304</v>
-      </c>
-      <c r="C92" s="8" t="s">
-        <v>305</v>
+        <v>302</v>
+      </c>
+      <c r="C92" s="11" t="s">
+        <v>303</v>
       </c>
       <c r="D92" s="7"/>
       <c r="E92" s="7"/>
@@ -4464,48 +3943,54 @@
       <c r="H92" s="7"/>
       <c r="I92" s="7"/>
       <c r="J92" s="7"/>
-      <c r="K92" s="10" t="s">
-        <v>306</v>
+      <c r="K92" s="7" t="s">
+        <v>302</v>
       </c>
       <c r="L92" s="7"/>
     </row>
-    <row r="93" ht="18" customHeight="1" spans="1:12">
+    <row r="93" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="7"/>
-      <c r="B93" s="10" t="s">
-        <v>307</v>
-      </c>
-      <c r="C93" s="11" t="s">
-        <v>308</v>
+      <c r="B93" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="C93" s="8" t="s">
+        <v>305</v>
       </c>
       <c r="D93" s="7"/>
       <c r="E93" s="7"/>
       <c r="F93" s="7"/>
       <c r="G93" s="7"/>
       <c r="H93" s="7"/>
-      <c r="I93" s="7" t="s">
-        <v>309</v>
-      </c>
+      <c r="I93" s="7"/>
       <c r="J93" s="7"/>
-      <c r="K93" s="7" t="s">
-        <v>309</v>
+      <c r="K93" s="10" t="s">
+        <v>306</v>
       </c>
       <c r="L93" s="7"/>
     </row>
-    <row r="94" ht="18" customHeight="1" spans="1:12">
+    <row r="94" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="7"/>
-      <c r="B94" s="7"/>
-      <c r="C94" s="8"/>
+      <c r="B94" s="10" t="s">
+        <v>307</v>
+      </c>
+      <c r="C94" s="11" t="s">
+        <v>308</v>
+      </c>
       <c r="D94" s="7"/>
       <c r="E94" s="7"/>
       <c r="F94" s="7"/>
       <c r="G94" s="7"/>
       <c r="H94" s="7"/>
-      <c r="I94" s="7"/>
+      <c r="I94" s="7" t="s">
+        <v>309</v>
+      </c>
       <c r="J94" s="7"/>
-      <c r="K94" s="7"/>
+      <c r="K94" s="7" t="s">
+        <v>309</v>
+      </c>
       <c r="L94" s="7"/>
     </row>
-    <row r="95" ht="18" customHeight="1" spans="1:12">
+    <row r="95" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="7"/>
       <c r="B95" s="7"/>
       <c r="C95" s="8"/>
@@ -4519,35 +4004,51 @@
       <c r="K95" s="7"/>
       <c r="L95" s="7"/>
     </row>
-    <row r="96" ht="18" customHeight="1" spans="1:12">
+    <row r="96" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="7"/>
-      <c r="B96" s="7"/>
-      <c r="C96" s="8"/>
+      <c r="B96" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="C96" s="8" t="s">
+        <v>311</v>
+      </c>
       <c r="D96" s="7"/>
       <c r="E96" s="7"/>
       <c r="F96" s="7"/>
       <c r="G96" s="7"/>
       <c r="H96" s="7"/>
-      <c r="I96" s="7"/>
+      <c r="I96" s="7" t="s">
+        <v>312</v>
+      </c>
       <c r="J96" s="7"/>
-      <c r="K96" s="7"/>
+      <c r="K96" s="7" t="s">
+        <v>313</v>
+      </c>
       <c r="L96" s="7"/>
     </row>
-    <row r="97" ht="18" customHeight="1" spans="1:12">
+    <row r="97" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="7"/>
-      <c r="B97" s="7"/>
-      <c r="C97" s="8"/>
+      <c r="B97" s="7" t="s">
+        <v>314</v>
+      </c>
+      <c r="C97" s="8" t="s">
+        <v>315</v>
+      </c>
       <c r="D97" s="7"/>
       <c r="E97" s="7"/>
       <c r="F97" s="7"/>
       <c r="G97" s="7"/>
       <c r="H97" s="7"/>
-      <c r="I97" s="7"/>
+      <c r="I97" s="7" t="s">
+        <v>316</v>
+      </c>
       <c r="J97" s="7"/>
-      <c r="K97" s="7"/>
+      <c r="K97" s="7" t="s">
+        <v>317</v>
+      </c>
       <c r="L97" s="7"/>
     </row>
-    <row r="98" ht="18" customHeight="1" spans="1:12">
+    <row r="98" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="7"/>
       <c r="B98" s="7"/>
       <c r="C98" s="8"/>
@@ -4561,7 +4062,7 @@
       <c r="K98" s="7"/>
       <c r="L98" s="7"/>
     </row>
-    <row r="99" ht="18" customHeight="1" spans="1:12">
+    <row r="99" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="7"/>
       <c r="B99" s="7"/>
       <c r="C99" s="8"/>
@@ -4575,7 +4076,7 @@
       <c r="K99" s="7"/>
       <c r="L99" s="7"/>
     </row>
-    <row r="100" ht="18" customHeight="1" spans="1:12">
+    <row r="100" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="7"/>
       <c r="B100" s="7"/>
       <c r="C100" s="8"/>
@@ -4589,7 +4090,7 @@
       <c r="K100" s="7"/>
       <c r="L100" s="7"/>
     </row>
-    <row r="101" ht="18" customHeight="1" spans="1:12">
+    <row r="101" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="7"/>
       <c r="B101" s="7"/>
       <c r="C101" s="8"/>
@@ -4603,7 +4104,7 @@
       <c r="K101" s="7"/>
       <c r="L101" s="7"/>
     </row>
-    <row r="102" ht="18" customHeight="1" spans="1:12">
+    <row r="102" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="7"/>
       <c r="B102" s="7"/>
       <c r="C102" s="8"/>
@@ -4617,7 +4118,7 @@
       <c r="K102" s="7"/>
       <c r="L102" s="7"/>
     </row>
-    <row r="103" ht="18" customHeight="1" spans="1:12">
+    <row r="103" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="7"/>
       <c r="B103" s="7"/>
       <c r="C103" s="8"/>
@@ -4631,7 +4132,7 @@
       <c r="K103" s="7"/>
       <c r="L103" s="7"/>
     </row>
-    <row r="104" ht="18" customHeight="1" spans="1:12">
+    <row r="104" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="7"/>
       <c r="B104" s="7"/>
       <c r="C104" s="8"/>
@@ -4645,7 +4146,7 @@
       <c r="K104" s="7"/>
       <c r="L104" s="7"/>
     </row>
-    <row r="105" ht="18" customHeight="1" spans="1:12">
+    <row r="105" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="7"/>
       <c r="B105" s="7"/>
       <c r="C105" s="8"/>
@@ -4659,7 +4160,7 @@
       <c r="K105" s="7"/>
       <c r="L105" s="7"/>
     </row>
-    <row r="106" ht="18" customHeight="1" spans="1:12">
+    <row r="106" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="7"/>
       <c r="B106" s="7"/>
       <c r="C106" s="8"/>
@@ -4673,7 +4174,7 @@
       <c r="K106" s="7"/>
       <c r="L106" s="7"/>
     </row>
-    <row r="107" ht="18" customHeight="1" spans="1:12">
+    <row r="107" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="7"/>
       <c r="B107" s="7"/>
       <c r="C107" s="8"/>
@@ -4687,7 +4188,7 @@
       <c r="K107" s="7"/>
       <c r="L107" s="7"/>
     </row>
-    <row r="108" ht="18" customHeight="1" spans="1:12">
+    <row r="108" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="7"/>
       <c r="B108" s="7"/>
       <c r="C108" s="8"/>
@@ -4701,7 +4202,7 @@
       <c r="K108" s="7"/>
       <c r="L108" s="7"/>
     </row>
-    <row r="109" ht="18" customHeight="1" spans="1:12">
+    <row r="109" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="7"/>
       <c r="B109" s="7"/>
       <c r="C109" s="8"/>
@@ -4715,7 +4216,7 @@
       <c r="K109" s="7"/>
       <c r="L109" s="7"/>
     </row>
-    <row r="110" ht="18" customHeight="1" spans="1:12">
+    <row r="110" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="7"/>
       <c r="B110" s="7"/>
       <c r="C110" s="8"/>
@@ -4729,7 +4230,7 @@
       <c r="K110" s="7"/>
       <c r="L110" s="7"/>
     </row>
-    <row r="111" ht="18" customHeight="1" spans="1:12">
+    <row r="111" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="7"/>
       <c r="B111" s="7"/>
       <c r="C111" s="8"/>
@@ -4743,7 +4244,7 @@
       <c r="K111" s="7"/>
       <c r="L111" s="7"/>
     </row>
-    <row r="112" ht="18" customHeight="1" spans="1:12">
+    <row r="112" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="7"/>
       <c r="B112" s="7"/>
       <c r="C112" s="8"/>
@@ -4757,7 +4258,7 @@
       <c r="K112" s="7"/>
       <c r="L112" s="7"/>
     </row>
-    <row r="113" ht="18" customHeight="1" spans="1:12">
+    <row r="113" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="7"/>
       <c r="B113" s="7"/>
       <c r="C113" s="8"/>
@@ -4771,7 +4272,7 @@
       <c r="K113" s="7"/>
       <c r="L113" s="7"/>
     </row>
-    <row r="114" ht="18" customHeight="1" spans="1:12">
+    <row r="114" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="7"/>
       <c r="B114" s="7"/>
       <c r="C114" s="8"/>
@@ -4785,7 +4286,7 @@
       <c r="K114" s="7"/>
       <c r="L114" s="7"/>
     </row>
-    <row r="115" ht="18" customHeight="1" spans="1:12">
+    <row r="115" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="7"/>
       <c r="B115" s="7"/>
       <c r="C115" s="8"/>
@@ -4799,7 +4300,7 @@
       <c r="K115" s="7"/>
       <c r="L115" s="7"/>
     </row>
-    <row r="116" ht="18" customHeight="1" spans="1:12">
+    <row r="116" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="7"/>
       <c r="B116" s="7"/>
       <c r="C116" s="8"/>
@@ -4813,7 +4314,7 @@
       <c r="K116" s="7"/>
       <c r="L116" s="7"/>
     </row>
-    <row r="117" ht="18" customHeight="1" spans="1:12">
+    <row r="117" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="7"/>
       <c r="B117" s="7"/>
       <c r="C117" s="8"/>
@@ -4827,7 +4328,7 @@
       <c r="K117" s="7"/>
       <c r="L117" s="7"/>
     </row>
-    <row r="118" ht="18" customHeight="1" spans="1:12">
+    <row r="118" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="7"/>
       <c r="B118" s="7"/>
       <c r="C118" s="8"/>
@@ -4841,7 +4342,7 @@
       <c r="K118" s="7"/>
       <c r="L118" s="7"/>
     </row>
-    <row r="119" ht="18" customHeight="1" spans="1:12">
+    <row r="119" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="7"/>
       <c r="B119" s="7"/>
       <c r="C119" s="8"/>
@@ -4855,7 +4356,7 @@
       <c r="K119" s="7"/>
       <c r="L119" s="7"/>
     </row>
-    <row r="120" ht="18" customHeight="1" spans="1:12">
+    <row r="120" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="7"/>
       <c r="B120" s="7"/>
       <c r="C120" s="8"/>
@@ -4869,7 +4370,7 @@
       <c r="K120" s="7"/>
       <c r="L120" s="7"/>
     </row>
-    <row r="121" ht="18" customHeight="1" spans="1:12">
+    <row r="121" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="7"/>
       <c r="B121" s="7"/>
       <c r="C121" s="8"/>
@@ -4883,7 +4384,7 @@
       <c r="K121" s="7"/>
       <c r="L121" s="7"/>
     </row>
-    <row r="122" ht="18" customHeight="1" spans="1:12">
+    <row r="122" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="7"/>
       <c r="B122" s="7"/>
       <c r="C122" s="8"/>
@@ -4897,7 +4398,7 @@
       <c r="K122" s="7"/>
       <c r="L122" s="7"/>
     </row>
-    <row r="123" ht="18" customHeight="1" spans="1:12">
+    <row r="123" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="7"/>
       <c r="B123" s="7"/>
       <c r="C123" s="8"/>
@@ -4911,7 +4412,7 @@
       <c r="K123" s="7"/>
       <c r="L123" s="7"/>
     </row>
-    <row r="124" ht="18" customHeight="1" spans="1:12">
+    <row r="124" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="7"/>
       <c r="B124" s="7"/>
       <c r="C124" s="8"/>
@@ -4925,7 +4426,7 @@
       <c r="K124" s="7"/>
       <c r="L124" s="7"/>
     </row>
-    <row r="125" ht="18" customHeight="1" spans="1:12">
+    <row r="125" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="7"/>
       <c r="B125" s="7"/>
       <c r="C125" s="8"/>
@@ -4939,7 +4440,7 @@
       <c r="K125" s="7"/>
       <c r="L125" s="7"/>
     </row>
-    <row r="126" ht="18" customHeight="1" spans="1:12">
+    <row r="126" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="7"/>
       <c r="B126" s="7"/>
       <c r="C126" s="8"/>
@@ -4953,7 +4454,7 @@
       <c r="K126" s="7"/>
       <c r="L126" s="7"/>
     </row>
-    <row r="127" ht="18" customHeight="1" spans="1:12">
+    <row r="127" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="7"/>
       <c r="B127" s="7"/>
       <c r="C127" s="8"/>
@@ -4967,7 +4468,7 @@
       <c r="K127" s="7"/>
       <c r="L127" s="7"/>
     </row>
-    <row r="128" ht="18" customHeight="1" spans="1:12">
+    <row r="128" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="7"/>
       <c r="B128" s="7"/>
       <c r="C128" s="8"/>
@@ -4981,7 +4482,7 @@
       <c r="K128" s="7"/>
       <c r="L128" s="7"/>
     </row>
-    <row r="129" ht="18" customHeight="1" spans="1:12">
+    <row r="129" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="7"/>
       <c r="B129" s="7"/>
       <c r="C129" s="8"/>
@@ -4995,7 +4496,7 @@
       <c r="K129" s="7"/>
       <c r="L129" s="7"/>
     </row>
-    <row r="130" ht="18" customHeight="1" spans="1:12">
+    <row r="130" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="7"/>
       <c r="B130" s="7"/>
       <c r="C130" s="8"/>
@@ -5009,7 +4510,7 @@
       <c r="K130" s="7"/>
       <c r="L130" s="7"/>
     </row>
-    <row r="131" ht="18" customHeight="1" spans="1:12">
+    <row r="131" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="7"/>
       <c r="B131" s="7"/>
       <c r="C131" s="8"/>
@@ -5023,7 +4524,7 @@
       <c r="K131" s="7"/>
       <c r="L131" s="7"/>
     </row>
-    <row r="132" ht="18" customHeight="1" spans="1:12">
+    <row r="132" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="7"/>
       <c r="B132" s="7"/>
       <c r="C132" s="8"/>
@@ -5037,7 +4538,7 @@
       <c r="K132" s="7"/>
       <c r="L132" s="7"/>
     </row>
-    <row r="133" ht="18" customHeight="1" spans="1:12">
+    <row r="133" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="7"/>
       <c r="B133" s="7"/>
       <c r="C133" s="8"/>
@@ -5051,7 +4552,7 @@
       <c r="K133" s="7"/>
       <c r="L133" s="7"/>
     </row>
-    <row r="134" ht="18" customHeight="1" spans="1:12">
+    <row r="134" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="7"/>
       <c r="B134" s="7"/>
       <c r="C134" s="8"/>
@@ -5065,7 +4566,7 @@
       <c r="K134" s="7"/>
       <c r="L134" s="7"/>
     </row>
-    <row r="135" ht="18" customHeight="1" spans="1:12">
+    <row r="135" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="7"/>
       <c r="B135" s="7"/>
       <c r="C135" s="8"/>
@@ -5079,7 +4580,7 @@
       <c r="K135" s="7"/>
       <c r="L135" s="7"/>
     </row>
-    <row r="136" ht="18" customHeight="1" spans="1:12">
+    <row r="136" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="7"/>
       <c r="B136" s="7"/>
       <c r="C136" s="8"/>
@@ -5093,7 +4594,7 @@
       <c r="K136" s="7"/>
       <c r="L136" s="7"/>
     </row>
-    <row r="137" ht="18" customHeight="1" spans="1:12">
+    <row r="137" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="7"/>
       <c r="B137" s="7"/>
       <c r="C137" s="8"/>
@@ -5107,7 +4608,7 @@
       <c r="K137" s="7"/>
       <c r="L137" s="7"/>
     </row>
-    <row r="138" ht="18" customHeight="1" spans="1:12">
+    <row r="138" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="7"/>
       <c r="B138" s="7"/>
       <c r="C138" s="8"/>
@@ -5121,7 +4622,7 @@
       <c r="K138" s="7"/>
       <c r="L138" s="7"/>
     </row>
-    <row r="139" ht="18" customHeight="1" spans="1:12">
+    <row r="139" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="7"/>
       <c r="B139" s="7"/>
       <c r="C139" s="8"/>
@@ -5135,7 +4636,7 @@
       <c r="K139" s="7"/>
       <c r="L139" s="7"/>
     </row>
-    <row r="140" ht="18" customHeight="1" spans="1:12">
+    <row r="140" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" s="7"/>
       <c r="B140" s="7"/>
       <c r="C140" s="8"/>
@@ -5149,7 +4650,7 @@
       <c r="K140" s="7"/>
       <c r="L140" s="7"/>
     </row>
-    <row r="141" ht="18" customHeight="1" spans="1:12">
+    <row r="141" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="7"/>
       <c r="B141" s="7"/>
       <c r="C141" s="8"/>
@@ -5163,7 +4664,7 @@
       <c r="K141" s="7"/>
       <c r="L141" s="7"/>
     </row>
-    <row r="142" ht="18" customHeight="1" spans="1:12">
+    <row r="142" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" s="7"/>
       <c r="B142" s="7"/>
       <c r="C142" s="8"/>
@@ -5177,7 +4678,7 @@
       <c r="K142" s="7"/>
       <c r="L142" s="7"/>
     </row>
-    <row r="143" ht="18" customHeight="1" spans="1:12">
+    <row r="143" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" s="7"/>
       <c r="B143" s="7"/>
       <c r="C143" s="8"/>
@@ -5191,7 +4692,7 @@
       <c r="K143" s="7"/>
       <c r="L143" s="7"/>
     </row>
-    <row r="144" ht="18" customHeight="1" spans="1:12">
+    <row r="144" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" s="7"/>
       <c r="B144" s="7"/>
       <c r="C144" s="8"/>
@@ -5205,7 +4706,7 @@
       <c r="K144" s="7"/>
       <c r="L144" s="7"/>
     </row>
-    <row r="145" ht="18" customHeight="1" spans="1:12">
+    <row r="145" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" s="7"/>
       <c r="B145" s="7"/>
       <c r="C145" s="8"/>
@@ -5219,7 +4720,7 @@
       <c r="K145" s="7"/>
       <c r="L145" s="7"/>
     </row>
-    <row r="146" ht="18" customHeight="1" spans="1:12">
+    <row r="146" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" s="7"/>
       <c r="B146" s="7"/>
       <c r="C146" s="8"/>
@@ -5233,7 +4734,7 @@
       <c r="K146" s="7"/>
       <c r="L146" s="7"/>
     </row>
-    <row r="147" ht="18" customHeight="1" spans="1:12">
+    <row r="147" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A147" s="7"/>
       <c r="B147" s="7"/>
       <c r="C147" s="8"/>
@@ -5247,7 +4748,7 @@
       <c r="K147" s="7"/>
       <c r="L147" s="7"/>
     </row>
-    <row r="148" ht="18" customHeight="1" spans="1:12">
+    <row r="148" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A148" s="7"/>
       <c r="B148" s="7"/>
       <c r="C148" s="8"/>
@@ -5261,7 +4762,7 @@
       <c r="K148" s="7"/>
       <c r="L148" s="7"/>
     </row>
-    <row r="149" ht="18" customHeight="1" spans="1:12">
+    <row r="149" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A149" s="7"/>
       <c r="B149" s="7"/>
       <c r="C149" s="8"/>
@@ -5275,7 +4776,7 @@
       <c r="K149" s="7"/>
       <c r="L149" s="7"/>
     </row>
-    <row r="150" ht="18" customHeight="1" spans="1:12">
+    <row r="150" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A150" s="7"/>
       <c r="B150" s="7"/>
       <c r="C150" s="8"/>
@@ -5289,7 +4790,7 @@
       <c r="K150" s="7"/>
       <c r="L150" s="7"/>
     </row>
-    <row r="151" ht="18" customHeight="1" spans="1:12">
+    <row r="151" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A151" s="7"/>
       <c r="B151" s="7"/>
       <c r="C151" s="8"/>
@@ -5303,7 +4804,7 @@
       <c r="K151" s="7"/>
       <c r="L151" s="7"/>
     </row>
-    <row r="152" ht="18" customHeight="1" spans="1:12">
+    <row r="152" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152" s="7"/>
       <c r="B152" s="7"/>
       <c r="C152" s="8"/>
@@ -5317,7 +4818,7 @@
       <c r="K152" s="7"/>
       <c r="L152" s="7"/>
     </row>
-    <row r="153" ht="18" customHeight="1" spans="1:12">
+    <row r="153" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A153" s="7"/>
       <c r="B153" s="7"/>
       <c r="C153" s="8"/>
@@ -5331,7 +4832,7 @@
       <c r="K153" s="7"/>
       <c r="L153" s="7"/>
     </row>
-    <row r="154" ht="18" customHeight="1" spans="1:12">
+    <row r="154" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A154" s="7"/>
       <c r="B154" s="7"/>
       <c r="C154" s="8"/>
@@ -5345,7 +4846,7 @@
       <c r="K154" s="7"/>
       <c r="L154" s="7"/>
     </row>
-    <row r="155" ht="18" customHeight="1" spans="1:12">
+    <row r="155" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A155" s="7"/>
       <c r="B155" s="7"/>
       <c r="C155" s="8"/>
@@ -5359,7 +4860,7 @@
       <c r="K155" s="7"/>
       <c r="L155" s="7"/>
     </row>
-    <row r="156" ht="18" customHeight="1" spans="1:12">
+    <row r="156" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A156" s="7"/>
       <c r="B156" s="7"/>
       <c r="C156" s="8"/>
@@ -5373,7 +4874,7 @@
       <c r="K156" s="7"/>
       <c r="L156" s="7"/>
     </row>
-    <row r="157" ht="18" customHeight="1" spans="1:12">
+    <row r="157" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A157" s="7"/>
       <c r="B157" s="7"/>
       <c r="C157" s="8"/>
@@ -5387,7 +4888,7 @@
       <c r="K157" s="7"/>
       <c r="L157" s="7"/>
     </row>
-    <row r="158" ht="18" customHeight="1" spans="1:12">
+    <row r="158" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A158" s="7"/>
       <c r="B158" s="7"/>
       <c r="C158" s="8"/>
@@ -5401,7 +4902,7 @@
       <c r="K158" s="7"/>
       <c r="L158" s="7"/>
     </row>
-    <row r="159" ht="18" customHeight="1" spans="1:12">
+    <row r="159" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A159" s="7"/>
       <c r="B159" s="7"/>
       <c r="C159" s="8"/>
@@ -5415,7 +4916,7 @@
       <c r="K159" s="7"/>
       <c r="L159" s="7"/>
     </row>
-    <row r="160" ht="18" customHeight="1" spans="1:12">
+    <row r="160" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A160" s="7"/>
       <c r="B160" s="7"/>
       <c r="C160" s="8"/>
@@ -5429,7 +4930,7 @@
       <c r="K160" s="7"/>
       <c r="L160" s="7"/>
     </row>
-    <row r="161" ht="18" customHeight="1" spans="1:12">
+    <row r="161" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A161" s="7"/>
       <c r="B161" s="7"/>
       <c r="C161" s="8"/>
@@ -5443,48 +4944,56 @@
       <c r="K161" s="7"/>
       <c r="L161" s="7"/>
     </row>
+    <row r="162" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A162" s="7"/>
+      <c r="B162" s="7"/>
+      <c r="C162" s="8"/>
+      <c r="D162" s="7"/>
+      <c r="E162" s="7"/>
+      <c r="F162" s="7"/>
+      <c r="G162" s="7"/>
+      <c r="H162" s="7"/>
+      <c r="I162" s="7"/>
+      <c r="J162" s="7"/>
+      <c r="K162" s="7"/>
+      <c r="L162" s="7"/>
+    </row>
   </sheetData>
+  <phoneticPr fontId="7" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="L81" r:id="rId3" display="https://item.szlcsc.com/87756.html" tooltip="https://item.szlcsc.com/87756.html"/>
-    <hyperlink ref="L82" r:id="rId4" display="https://item.szlcsc.com/136348.html"/>
+    <hyperlink ref="L82" r:id="rId1" tooltip="https://item.szlcsc.com/87756.html" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="L83" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
   </hyperlinks>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
-  <legacyDrawing r:id="rId2"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
+  <legacyDrawing r:id="rId4"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData/>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="7" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData/>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="7" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/物料索引.xlsx
+++ b/物料索引.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20228"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Cadence LIB\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{8124F776-BD59-412B-B85B-19FC4B35B66F}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28692" windowHeight="14076" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="28695" windowHeight="14070"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,12 +16,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>zxiat</author>
   </authors>
   <commentList>
-    <comment ref="A2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="A2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -57,7 +51,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
+    <comment ref="A3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -94,7 +88,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="500" uniqueCount="321">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325">
   <si>
     <t>物料编码</t>
   </si>
@@ -607,6 +601,15 @@
   </si>
   <si>
     <t>VISHAY</t>
+  </si>
+  <si>
+    <t>HSMS-2822</t>
+  </si>
+  <si>
+    <t>RF肖特基二极管</t>
+  </si>
+  <si>
+    <t>sot_23_m</t>
   </si>
   <si>
     <t>2SB1386</t>
@@ -667,9 +670,6 @@
     <t>sot-23</t>
   </si>
   <si>
-    <t>sot_23_m</t>
-  </si>
-  <si>
     <t>MIC94052</t>
   </si>
   <si>
@@ -778,6 +778,12 @@
     <t>保险丝盒</t>
   </si>
   <si>
+    <t>ADT1-1WT</t>
+  </si>
+  <si>
+    <t>RF变压器</t>
+  </si>
+  <si>
     <t>RAC60-24SB</t>
   </si>
   <si>
@@ -896,6 +902,32 @@
   </si>
   <si>
     <t>sot23_6</t>
+  </si>
+  <si>
+    <t>TPS51200DRCR</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>D</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>DR用端接电源</t>
+    </r>
+  </si>
+  <si>
+    <t>DRC0010J</t>
   </si>
   <si>
     <t>MAX13487EE</t>
@@ -1146,66 +1178,40 @@
   </si>
   <si>
     <t>7K325TFFG676</t>
-    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>FPGA</t>
-    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>FFG676</t>
-    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>BGA1mm_26x26</t>
-    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>S29GL01GS10TFI010</t>
-    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>NAND FLASH 1Gb,</t>
-    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>TSOP-56</t>
-    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>56L_14x20mm_TSOP</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>TPS51200DRCR</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>D</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>DR用端接电源</t>
-    </r>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>DRC0010J</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1237,38 +1243,149 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="9"/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
-      <family val="3"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1277,12 +1394,198 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999389629810485"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -1305,16 +1608,255 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1354,28 +1896,68 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="10" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="10" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="超链接" xfId="1" builtinId="8"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1662,34 +2244,35 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L162"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:L165"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A61" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J65" sqref="J65"/>
+      <pane ySplit="3" topLeftCell="A25" activePane="bottomLeft" state="frozen"/>
+      <selection/>
+      <selection pane="bottomLeft" activeCell="K41" sqref="K41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="18" style="2" customWidth="1"/>
-    <col min="2" max="2" width="18.21875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="18.2166666666667" style="2" customWidth="1"/>
     <col min="3" max="3" width="27" style="3" customWidth="1"/>
     <col min="4" max="4" width="9" style="2"/>
-    <col min="5" max="5" width="10.88671875" style="2" customWidth="1"/>
+    <col min="5" max="5" width="10.8833333333333" style="2" customWidth="1"/>
     <col min="6" max="9" width="9" style="2"/>
-    <col min="10" max="10" width="11.88671875" style="2" customWidth="1"/>
-    <col min="11" max="11" width="13.88671875" style="2" customWidth="1"/>
+    <col min="10" max="10" width="11.8833333333333" style="2" customWidth="1"/>
+    <col min="11" max="11" width="13.8833333333333" style="2" customWidth="1"/>
     <col min="12" max="12" width="9" style="2"/>
     <col min="13" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" s="1" customFormat="1" ht="18" customHeight="1" spans="1:12">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -1727,7 +2310,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" ht="18" customHeight="1" spans="1:12">
       <c r="A2" s="7" t="s">
         <v>12</v>
       </c>
@@ -1761,7 +2344,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" ht="18" customHeight="1" spans="1:12">
       <c r="A3" s="7" t="s">
         <v>21</v>
       </c>
@@ -1795,7 +2378,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" customFormat="1" ht="18" customHeight="1" spans="1:12">
       <c r="A4" s="7"/>
       <c r="B4" s="7"/>
       <c r="C4" s="8"/>
@@ -1809,7 +2392,7 @@
       <c r="K4" s="7"/>
       <c r="L4" s="7"/>
     </row>
-    <row r="5" spans="1:12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" customFormat="1" ht="18" customHeight="1" spans="1:12">
       <c r="A5" s="7"/>
       <c r="B5" s="7"/>
       <c r="C5" s="8"/>
@@ -1823,7 +2406,7 @@
       <c r="K5" s="7"/>
       <c r="L5" s="7"/>
     </row>
-    <row r="6" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" ht="18" customHeight="1" spans="1:12">
       <c r="A6" s="7" t="s">
         <v>30</v>
       </c>
@@ -1857,7 +2440,7 @@
       <c r="K6" s="7"/>
       <c r="L6" s="7"/>
     </row>
-    <row r="7" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" ht="18" customHeight="1" spans="1:12">
       <c r="A7" s="7" t="s">
         <v>38</v>
       </c>
@@ -1891,7 +2474,7 @@
       <c r="K7" s="7"/>
       <c r="L7" s="7"/>
     </row>
-    <row r="8" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" ht="18" customHeight="1" spans="1:12">
       <c r="A8" s="7" t="s">
         <v>42</v>
       </c>
@@ -1925,7 +2508,7 @@
       <c r="K8" s="7"/>
       <c r="L8" s="7"/>
     </row>
-    <row r="9" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" ht="18" customHeight="1" spans="1:12">
       <c r="A9" s="7" t="s">
         <v>45</v>
       </c>
@@ -1959,7 +2542,7 @@
       <c r="K9" s="7"/>
       <c r="L9" s="7"/>
     </row>
-    <row r="10" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" ht="18" customHeight="1" spans="1:12">
       <c r="A10" s="7" t="s">
         <v>50</v>
       </c>
@@ -1993,7 +2576,7 @@
       <c r="K10" s="7"/>
       <c r="L10" s="7"/>
     </row>
-    <row r="11" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" ht="18" customHeight="1" spans="1:12">
       <c r="A11" s="7" t="s">
         <v>53</v>
       </c>
@@ -2027,7 +2610,7 @@
       <c r="K11" s="7"/>
       <c r="L11" s="7"/>
     </row>
-    <row r="12" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" ht="18" customHeight="1" spans="1:12">
       <c r="A12" s="7" t="s">
         <v>57</v>
       </c>
@@ -2061,7 +2644,7 @@
       <c r="K12" s="7"/>
       <c r="L12" s="7"/>
     </row>
-    <row r="13" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" ht="18" customHeight="1" spans="1:12">
       <c r="A13" s="7" t="s">
         <v>62</v>
       </c>
@@ -2095,7 +2678,7 @@
       <c r="K13" s="7"/>
       <c r="L13" s="7"/>
     </row>
-    <row r="14" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" ht="18" customHeight="1" spans="1:12">
       <c r="A14" s="7" t="s">
         <v>66</v>
       </c>
@@ -2129,7 +2712,7 @@
       <c r="K14" s="7"/>
       <c r="L14" s="7"/>
     </row>
-    <row r="15" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" ht="18" customHeight="1" spans="1:12">
       <c r="A15" s="7" t="s">
         <v>69</v>
       </c>
@@ -2163,7 +2746,7 @@
       <c r="K15" s="7"/>
       <c r="L15" s="7"/>
     </row>
-    <row r="16" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" ht="18" customHeight="1" spans="1:12">
       <c r="A16" s="7" t="s">
         <v>72</v>
       </c>
@@ -2197,7 +2780,7 @@
       <c r="K16" s="7"/>
       <c r="L16" s="7"/>
     </row>
-    <row r="17" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" ht="18" customHeight="1" spans="1:12">
       <c r="A17" s="7" t="s">
         <v>76</v>
       </c>
@@ -2231,7 +2814,7 @@
       <c r="K17" s="7"/>
       <c r="L17" s="7"/>
     </row>
-    <row r="18" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" ht="18" customHeight="1" spans="1:12">
       <c r="A18" s="7" t="s">
         <v>79</v>
       </c>
@@ -2267,7 +2850,7 @@
       </c>
       <c r="L18" s="7"/>
     </row>
-    <row r="19" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" ht="18" customHeight="1" spans="1:12">
       <c r="A19" s="7" t="s">
         <v>83</v>
       </c>
@@ -2301,7 +2884,7 @@
       <c r="K19" s="9"/>
       <c r="L19" s="7"/>
     </row>
-    <row r="20" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" ht="18" customHeight="1" spans="1:12">
       <c r="A20" s="7" t="s">
         <v>87</v>
       </c>
@@ -2335,7 +2918,7 @@
       <c r="K20" s="9"/>
       <c r="L20" s="7"/>
     </row>
-    <row r="21" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" ht="18" customHeight="1" spans="1:12">
       <c r="A21" s="7"/>
       <c r="B21" s="7" t="s">
         <v>93</v>
@@ -2367,7 +2950,7 @@
       </c>
       <c r="L21" s="7"/>
     </row>
-    <row r="22" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" ht="18" customHeight="1" spans="1:12">
       <c r="A22" s="7"/>
       <c r="B22" s="7" t="s">
         <v>99</v>
@@ -2401,7 +2984,7 @@
       </c>
       <c r="L22" s="7"/>
     </row>
-    <row r="23" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" ht="18" customHeight="1" spans="1:12">
       <c r="A23" s="7"/>
       <c r="B23" s="7" t="s">
         <v>101</v>
@@ -2435,7 +3018,7 @@
       </c>
       <c r="L23" s="7"/>
     </row>
-    <row r="24" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" ht="18" customHeight="1" spans="1:12">
       <c r="A24" s="7"/>
       <c r="B24" s="7"/>
       <c r="C24" s="8"/>
@@ -2449,7 +3032,7 @@
       <c r="K24" s="9"/>
       <c r="L24" s="7"/>
     </row>
-    <row r="25" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" ht="18" customHeight="1" spans="1:12">
       <c r="A25" s="7"/>
       <c r="B25" s="7" t="s">
         <v>105</v>
@@ -2483,7 +3066,7 @@
       </c>
       <c r="L25" s="7"/>
     </row>
-    <row r="26" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" ht="18" customHeight="1" spans="1:12">
       <c r="A26" s="7"/>
       <c r="B26" s="7" t="s">
         <v>112</v>
@@ -2517,7 +3100,7 @@
       </c>
       <c r="L26" s="7"/>
     </row>
-    <row r="27" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" ht="18" customHeight="1" spans="1:12">
       <c r="A27" s="7"/>
       <c r="B27" s="7"/>
       <c r="C27" s="8"/>
@@ -2531,7 +3114,7 @@
       <c r="K27" s="7"/>
       <c r="L27" s="7"/>
     </row>
-    <row r="28" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" ht="18" customHeight="1" spans="1:12">
       <c r="A28" s="7"/>
       <c r="B28" s="7" t="s">
         <v>118</v>
@@ -2559,7 +3142,7 @@
       </c>
       <c r="L28" s="7"/>
     </row>
-    <row r="29" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" ht="18" customHeight="1" spans="1:12">
       <c r="A29" s="7"/>
       <c r="B29" s="7"/>
       <c r="C29" s="8"/>
@@ -2573,7 +3156,7 @@
       <c r="K29" s="7"/>
       <c r="L29" s="7"/>
     </row>
-    <row r="30" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" ht="18" customHeight="1" spans="1:12">
       <c r="A30" s="7"/>
       <c r="B30" s="7" t="s">
         <v>125</v>
@@ -2605,7 +3188,7 @@
       </c>
       <c r="L30" s="7"/>
     </row>
-    <row r="31" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" ht="18" customHeight="1" spans="1:12">
       <c r="A31" s="7"/>
       <c r="B31" s="7"/>
       <c r="C31" s="8"/>
@@ -2619,7 +3202,7 @@
       <c r="K31" s="7"/>
       <c r="L31" s="7"/>
     </row>
-    <row r="32" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" ht="18" customHeight="1" spans="1:12">
       <c r="A32" s="7"/>
       <c r="B32" s="10" t="s">
         <v>133</v>
@@ -2651,7 +3234,7 @@
       </c>
       <c r="L32" s="7"/>
     </row>
-    <row r="33" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" ht="18" customHeight="1" spans="1:12">
       <c r="A33" s="7"/>
       <c r="B33" s="7" t="s">
         <v>140</v>
@@ -2683,7 +3266,7 @@
       </c>
       <c r="L33" s="7"/>
     </row>
-    <row r="34" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" ht="18" customHeight="1" spans="1:12">
       <c r="A34" s="7"/>
       <c r="B34" s="7" t="s">
         <v>145</v>
@@ -2715,7 +3298,7 @@
       </c>
       <c r="L34" s="7"/>
     </row>
-    <row r="35" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" ht="18" customHeight="1" spans="1:12">
       <c r="A35" s="7"/>
       <c r="B35" s="7" t="s">
         <v>148</v>
@@ -2747,7 +3330,7 @@
       </c>
       <c r="L35" s="7"/>
     </row>
-    <row r="36" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" ht="18" customHeight="1" spans="1:12">
       <c r="A36" s="7"/>
       <c r="B36" s="7" t="s">
         <v>154</v>
@@ -2777,7 +3360,7 @@
       </c>
       <c r="L36" s="7"/>
     </row>
-    <row r="37" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" ht="18" customHeight="1" spans="1:12">
       <c r="A37" s="7"/>
       <c r="B37" s="7"/>
       <c r="C37" s="8"/>
@@ -2791,7 +3374,7 @@
       <c r="K37" s="7"/>
       <c r="L37" s="7"/>
     </row>
-    <row r="38" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" ht="18" customHeight="1" spans="1:12">
       <c r="A38" s="7"/>
       <c r="B38" s="7" t="s">
         <v>160</v>
@@ -2813,7 +3396,7 @@
       <c r="K38" s="7"/>
       <c r="L38" s="7"/>
     </row>
-    <row r="39" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" ht="18" customHeight="1" spans="1:12">
       <c r="A39" s="7"/>
       <c r="B39" s="7" t="s">
         <v>164</v>
@@ -2839,7 +3422,7 @@
       </c>
       <c r="L39" s="7"/>
     </row>
-    <row r="40" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" ht="18" customHeight="1" spans="1:12">
       <c r="A40" s="7"/>
       <c r="B40" s="7" t="s">
         <v>167</v>
@@ -2863,10 +3446,14 @@
       <c r="K40" s="7"/>
       <c r="L40" s="7"/>
     </row>
-    <row r="41" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" ht="18" customHeight="1" spans="1:12">
       <c r="A41" s="7"/>
-      <c r="B41" s="7"/>
-      <c r="C41" s="8"/>
+      <c r="B41" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="C41" s="8" t="s">
+        <v>172</v>
+      </c>
       <c r="D41" s="7"/>
       <c r="E41" s="7"/>
       <c r="F41" s="7"/>
@@ -2874,126 +3461,120 @@
       <c r="H41" s="7"/>
       <c r="I41" s="7"/>
       <c r="J41" s="7"/>
-      <c r="K41" s="7"/>
+      <c r="K41" s="10" t="s">
+        <v>173</v>
+      </c>
       <c r="L41" s="7"/>
     </row>
-    <row r="42" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" ht="18" customHeight="1" spans="1:12">
       <c r="A42" s="7"/>
-      <c r="B42" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="C42" s="8" t="s">
-        <v>172</v>
-      </c>
+      <c r="B42" s="7"/>
+      <c r="C42" s="8"/>
       <c r="D42" s="7"/>
       <c r="E42" s="7"/>
       <c r="F42" s="7"/>
       <c r="G42" s="7"/>
       <c r="H42" s="7"/>
-      <c r="I42" s="10" t="s">
-        <v>173</v>
-      </c>
-      <c r="J42" s="10" t="s">
+      <c r="I42" s="7"/>
+      <c r="J42" s="7"/>
+      <c r="K42" s="7"/>
+      <c r="L42" s="7"/>
+    </row>
+    <row r="43" ht="18" customHeight="1" spans="1:12">
+      <c r="A43" s="7"/>
+      <c r="B43" s="7" t="s">
         <v>174</v>
       </c>
-      <c r="K42" s="10" t="s">
-        <v>173</v>
-      </c>
-      <c r="L42" s="7"/>
-    </row>
-    <row r="43" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="7"/>
-      <c r="B43" s="10" t="s">
+      <c r="C43" s="8" t="s">
         <v>175</v>
       </c>
-      <c r="C43" s="8" t="s">
-        <v>176</v>
-      </c>
       <c r="D43" s="7"/>
-      <c r="E43" s="10" t="s">
-        <v>177</v>
-      </c>
+      <c r="E43" s="7"/>
       <c r="F43" s="7"/>
       <c r="G43" s="7"/>
       <c r="H43" s="7"/>
       <c r="I43" s="10" t="s">
+        <v>176</v>
+      </c>
+      <c r="J43" s="10" t="s">
+        <v>177</v>
+      </c>
+      <c r="K43" s="10" t="s">
+        <v>176</v>
+      </c>
+      <c r="L43" s="7"/>
+    </row>
+    <row r="44" ht="18" customHeight="1" spans="1:12">
+      <c r="A44" s="7"/>
+      <c r="B44" s="10" t="s">
         <v>178</v>
       </c>
-      <c r="J43" s="10" t="s">
-        <v>163</v>
-      </c>
-      <c r="K43" s="10" t="s">
+      <c r="C44" s="8" t="s">
         <v>179</v>
       </c>
-      <c r="L43" s="7"/>
-    </row>
-    <row r="44" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="7"/>
-      <c r="B44" s="7" t="s">
+      <c r="D44" s="7"/>
+      <c r="E44" s="10" t="s">
         <v>180</v>
       </c>
-      <c r="C44" s="8" t="s">
-        <v>181</v>
-      </c>
-      <c r="D44" s="7"/>
-      <c r="E44" s="7"/>
       <c r="F44" s="7"/>
       <c r="G44" s="7"/>
       <c r="H44" s="7"/>
       <c r="I44" s="10" t="s">
+        <v>181</v>
+      </c>
+      <c r="J44" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="K44" s="10" t="s">
+        <v>173</v>
+      </c>
+      <c r="L44" s="7"/>
+    </row>
+    <row r="45" ht="18" customHeight="1" spans="1:12">
+      <c r="A45" s="7"/>
+      <c r="B45" s="7" t="s">
         <v>182</v>
       </c>
-      <c r="J44" s="10" t="s">
+      <c r="C45" s="8" t="s">
         <v>183</v>
       </c>
-      <c r="K44" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="L44" s="7"/>
-    </row>
-    <row r="45" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="7"/>
-      <c r="B45" s="7"/>
-      <c r="C45" s="8"/>
       <c r="D45" s="7"/>
       <c r="E45" s="7"/>
       <c r="F45" s="7"/>
       <c r="G45" s="7"/>
       <c r="H45" s="7"/>
-      <c r="I45" s="7"/>
-      <c r="J45" s="7"/>
-      <c r="K45" s="7"/>
+      <c r="I45" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="J45" s="10" t="s">
+        <v>185</v>
+      </c>
+      <c r="K45" s="7" t="s">
+        <v>186</v>
+      </c>
       <c r="L45" s="7"/>
     </row>
-    <row r="46" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" ht="18" customHeight="1" spans="1:12">
       <c r="A46" s="7"/>
-      <c r="B46" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="C46" s="8" t="s">
-        <v>186</v>
-      </c>
+      <c r="B46" s="7"/>
+      <c r="C46" s="8"/>
       <c r="D46" s="7"/>
       <c r="E46" s="7"/>
       <c r="F46" s="7"/>
       <c r="G46" s="7"/>
       <c r="H46" s="7"/>
       <c r="I46" s="7"/>
-      <c r="J46" s="10" t="s">
+      <c r="J46" s="7"/>
+      <c r="K46" s="7"/>
+      <c r="L46" s="7"/>
+    </row>
+    <row r="47" ht="18" customHeight="1" spans="1:12">
+      <c r="A47" s="7"/>
+      <c r="B47" s="7" t="s">
         <v>187</v>
       </c>
-      <c r="K46" s="10" t="s">
-        <v>184</v>
-      </c>
-      <c r="L46" s="7"/>
-    </row>
-    <row r="47" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="7"/>
-      <c r="B47" s="10" t="s">
+      <c r="C47" s="8" t="s">
         <v>188</v>
-      </c>
-      <c r="C47" s="8" t="s">
-        <v>189</v>
       </c>
       <c r="D47" s="7"/>
       <c r="E47" s="7"/>
@@ -3002,75 +3583,69 @@
       <c r="H47" s="7"/>
       <c r="I47" s="7"/>
       <c r="J47" s="10" t="s">
-        <v>187</v>
-      </c>
-      <c r="K47" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="K47" s="10" t="s">
+        <v>186</v>
+      </c>
+      <c r="L47" s="7"/>
+    </row>
+    <row r="48" ht="18" customHeight="1" spans="1:12">
+      <c r="A48" s="7"/>
+      <c r="B48" s="10" t="s">
         <v>190</v>
       </c>
-      <c r="L47" s="7"/>
-    </row>
-    <row r="48" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="7"/>
-      <c r="B48" s="7"/>
-      <c r="C48" s="8"/>
+      <c r="C48" s="8" t="s">
+        <v>191</v>
+      </c>
       <c r="D48" s="7"/>
       <c r="E48" s="7"/>
       <c r="F48" s="7"/>
       <c r="G48" s="7"/>
       <c r="H48" s="7"/>
       <c r="I48" s="7"/>
-      <c r="J48" s="7"/>
-      <c r="K48" s="7"/>
+      <c r="J48" s="10" t="s">
+        <v>189</v>
+      </c>
+      <c r="K48" s="7" t="s">
+        <v>192</v>
+      </c>
       <c r="L48" s="7"/>
     </row>
-    <row r="49" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" ht="18" customHeight="1" spans="1:12">
       <c r="A49" s="7"/>
-      <c r="B49" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="C49" s="8" t="s">
-        <v>192</v>
-      </c>
-      <c r="D49" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="E49" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="F49" s="7" t="s">
-        <v>194</v>
-      </c>
-      <c r="G49" s="7" t="s">
-        <v>195</v>
-      </c>
+      <c r="B49" s="7"/>
+      <c r="C49" s="8"/>
+      <c r="D49" s="7"/>
+      <c r="E49" s="7"/>
+      <c r="F49" s="7"/>
+      <c r="G49" s="7"/>
       <c r="H49" s="7"/>
-      <c r="I49" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="J49" s="9" t="s">
-        <v>131</v>
-      </c>
-      <c r="K49" s="9" t="s">
-        <v>196</v>
-      </c>
+      <c r="I49" s="7"/>
+      <c r="J49" s="7"/>
+      <c r="K49" s="7"/>
       <c r="L49" s="7"/>
     </row>
-    <row r="50" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" ht="18" customHeight="1" spans="1:12">
       <c r="A50" s="7"/>
       <c r="B50" s="7" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="C50" s="8" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="D50" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="E50" s="8" t="s">
-        <v>198</v>
-      </c>
-      <c r="F50" s="7"/>
-      <c r="G50" s="7"/>
+      <c r="E50" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="F50" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="G50" s="7" t="s">
+        <v>197</v>
+      </c>
       <c r="H50" s="7"/>
       <c r="I50" s="7" t="s">
         <v>130</v>
@@ -3079,58 +3654,60 @@
         <v>131</v>
       </c>
       <c r="K50" s="9" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="L50" s="7"/>
     </row>
-    <row r="51" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" ht="18" customHeight="1" spans="1:12">
       <c r="A51" s="7"/>
-      <c r="B51" s="7"/>
-      <c r="C51" s="8"/>
-      <c r="D51" s="7"/>
-      <c r="E51" s="7"/>
+      <c r="B51" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="C51" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="D51" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E51" s="8" t="s">
+        <v>200</v>
+      </c>
       <c r="F51" s="7"/>
       <c r="G51" s="7"/>
       <c r="H51" s="7"/>
-      <c r="I51" s="7"/>
-      <c r="J51" s="7"/>
-      <c r="K51" s="7"/>
+      <c r="I51" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="J51" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="K51" s="9" t="s">
+        <v>198</v>
+      </c>
       <c r="L51" s="7"/>
     </row>
-    <row r="52" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" ht="18" customHeight="1" spans="1:12">
       <c r="A52" s="7"/>
-      <c r="B52" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="C52" s="8" t="s">
-        <v>200</v>
-      </c>
-      <c r="D52" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="E52" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="F52" s="7" t="s">
-        <v>202</v>
-      </c>
+      <c r="B52" s="7"/>
+      <c r="C52" s="8"/>
+      <c r="D52" s="7"/>
+      <c r="E52" s="7"/>
+      <c r="F52" s="7"/>
       <c r="G52" s="7"/>
       <c r="H52" s="7"/>
-      <c r="I52" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="J52" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="K52" s="7" t="s">
-        <v>205</v>
-      </c>
+      <c r="I52" s="7"/>
+      <c r="J52" s="7"/>
+      <c r="K52" s="7"/>
       <c r="L52" s="7"/>
     </row>
-    <row r="53" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" ht="18" customHeight="1" spans="1:12">
       <c r="A53" s="7"/>
-      <c r="B53" s="7"/>
-      <c r="C53" s="8"/>
+      <c r="B53" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="C53" s="8" t="s">
+        <v>202</v>
+      </c>
       <c r="D53" s="7"/>
       <c r="E53" s="7"/>
       <c r="F53" s="7"/>
@@ -3138,60 +3715,56 @@
       <c r="H53" s="7"/>
       <c r="I53" s="7"/>
       <c r="J53" s="7"/>
-      <c r="K53" s="7"/>
+      <c r="K53" s="7" t="s">
+        <v>201</v>
+      </c>
       <c r="L53" s="7"/>
     </row>
-    <row r="54" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" ht="18" customHeight="1" spans="1:12">
       <c r="A54" s="7"/>
-      <c r="B54" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="C54" s="8" t="s">
-        <v>207</v>
-      </c>
+      <c r="B54" s="7"/>
+      <c r="C54" s="8"/>
       <c r="D54" s="7"/>
-      <c r="E54" s="7" t="s">
-        <v>208</v>
-      </c>
+      <c r="E54" s="7"/>
       <c r="F54" s="7"/>
       <c r="G54" s="7"/>
       <c r="H54" s="7"/>
-      <c r="I54" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="J54" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="K54" s="7" t="s">
-        <v>211</v>
-      </c>
+      <c r="I54" s="7"/>
+      <c r="J54" s="7"/>
+      <c r="K54" s="7"/>
       <c r="L54" s="7"/>
     </row>
-    <row r="55" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" ht="18" customHeight="1" spans="1:12">
       <c r="A55" s="7"/>
       <c r="B55" s="7" t="s">
-        <v>212</v>
+        <v>203</v>
       </c>
       <c r="C55" s="8" t="s">
-        <v>213</v>
-      </c>
-      <c r="D55" s="7"/>
+        <v>204</v>
+      </c>
+      <c r="D55" s="7" t="s">
+        <v>24</v>
+      </c>
       <c r="E55" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="F55" s="7"/>
+        <v>205</v>
+      </c>
+      <c r="F55" s="7" t="s">
+        <v>206</v>
+      </c>
       <c r="G55" s="7"/>
       <c r="H55" s="7"/>
       <c r="I55" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="J55" s="7"/>
+        <v>207</v>
+      </c>
+      <c r="J55" s="7" t="s">
+        <v>208</v>
+      </c>
       <c r="K55" s="7" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="L55" s="7"/>
     </row>
-    <row r="56" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" ht="18" customHeight="1" spans="1:12">
       <c r="A56" s="7"/>
       <c r="B56" s="7"/>
       <c r="C56" s="8"/>
@@ -3205,51 +3778,57 @@
       <c r="K56" s="7"/>
       <c r="L56" s="7"/>
     </row>
-    <row r="57" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" ht="18" customHeight="1" spans="1:12">
       <c r="A57" s="7"/>
       <c r="B57" s="7" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="C57" s="8" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="D57" s="7"/>
-      <c r="E57" s="7"/>
+      <c r="E57" s="7" t="s">
+        <v>212</v>
+      </c>
       <c r="F57" s="7"/>
       <c r="G57" s="7"/>
       <c r="H57" s="7"/>
       <c r="I57" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="J57" s="7"/>
+        <v>213</v>
+      </c>
+      <c r="J57" s="7" t="s">
+        <v>214</v>
+      </c>
       <c r="K57" s="7" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="L57" s="7"/>
     </row>
-    <row r="58" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" ht="18" customHeight="1" spans="1:12">
       <c r="A58" s="7"/>
       <c r="B58" s="7" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="C58" s="8" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="D58" s="7"/>
-      <c r="E58" s="7"/>
+      <c r="E58" s="7" t="s">
+        <v>218</v>
+      </c>
       <c r="F58" s="7"/>
       <c r="G58" s="7"/>
       <c r="H58" s="7"/>
       <c r="I58" s="7" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="J58" s="7"/>
-      <c r="K58" s="10" t="s">
-        <v>179</v>
+      <c r="K58" s="7" t="s">
+        <v>220</v>
       </c>
       <c r="L58" s="7"/>
     </row>
-    <row r="59" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" ht="18" customHeight="1" spans="1:12">
       <c r="A59" s="7"/>
       <c r="B59" s="7"/>
       <c r="C59" s="8"/>
@@ -3263,117 +3842,103 @@
       <c r="K59" s="7"/>
       <c r="L59" s="7"/>
     </row>
-    <row r="60" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" ht="18" customHeight="1" spans="1:12">
       <c r="A60" s="7"/>
       <c r="B60" s="7" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="C60" s="8" t="s">
-        <v>225</v>
-      </c>
-      <c r="D60" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="E60" s="7" t="s">
-        <v>225</v>
-      </c>
+        <v>222</v>
+      </c>
+      <c r="D60" s="7"/>
+      <c r="E60" s="7"/>
       <c r="F60" s="7"/>
       <c r="G60" s="7"/>
       <c r="H60" s="7"/>
       <c r="I60" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="J60" s="7" t="s">
-        <v>227</v>
-      </c>
+        <v>223</v>
+      </c>
+      <c r="J60" s="7"/>
       <c r="K60" s="7" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="L60" s="7"/>
     </row>
-    <row r="61" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" ht="18" customHeight="1" spans="1:12">
       <c r="A61" s="7"/>
       <c r="B61" s="7" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="C61" s="8" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="D61" s="7"/>
-      <c r="E61" s="7" t="s">
-        <v>225</v>
-      </c>
+      <c r="E61" s="7"/>
       <c r="F61" s="7"/>
       <c r="G61" s="7"/>
       <c r="H61" s="7"/>
-      <c r="I61" s="7"/>
+      <c r="I61" s="7" t="s">
+        <v>227</v>
+      </c>
       <c r="J61" s="7"/>
-      <c r="K61" s="7" t="s">
-        <v>230</v>
+      <c r="K61" s="10" t="s">
+        <v>173</v>
       </c>
       <c r="L61" s="7"/>
     </row>
-    <row r="62" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" ht="18" customHeight="1" spans="1:12">
       <c r="A62" s="7"/>
-      <c r="B62" s="7" t="s">
-        <v>231</v>
-      </c>
-      <c r="C62" s="8" t="s">
-        <v>232</v>
-      </c>
-      <c r="D62" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="E62" s="7" t="s">
-        <v>232</v>
-      </c>
+      <c r="B62" s="7"/>
+      <c r="C62" s="8"/>
+      <c r="D62" s="7"/>
+      <c r="E62" s="7"/>
       <c r="F62" s="7"/>
       <c r="G62" s="7"/>
       <c r="H62" s="7"/>
-      <c r="I62" s="7" t="s">
-        <v>233</v>
-      </c>
-      <c r="J62" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="K62" s="7" t="s">
-        <v>234</v>
-      </c>
+      <c r="I62" s="7"/>
+      <c r="J62" s="7"/>
+      <c r="K62" s="7"/>
       <c r="L62" s="7"/>
     </row>
-    <row r="63" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" ht="18" customHeight="1" spans="1:12">
       <c r="A63" s="7"/>
       <c r="B63" s="7" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="C63" s="8" t="s">
-        <v>232</v>
-      </c>
-      <c r="D63" s="7"/>
-      <c r="E63" s="8" t="s">
-        <v>232</v>
+        <v>229</v>
+      </c>
+      <c r="D63" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E63" s="7" t="s">
+        <v>229</v>
       </c>
       <c r="F63" s="7"/>
       <c r="G63" s="7"/>
       <c r="H63" s="7"/>
-      <c r="I63" s="7"/>
-      <c r="J63" s="7"/>
+      <c r="I63" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="J63" s="7" t="s">
+        <v>231</v>
+      </c>
       <c r="K63" s="7" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="L63" s="7"/>
     </row>
-    <row r="64" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" ht="18" customHeight="1" spans="1:12">
       <c r="A64" s="7"/>
       <c r="B64" s="7" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="C64" s="8" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="D64" s="7"/>
-      <c r="E64" s="8" t="s">
-        <v>232</v>
+      <c r="E64" s="7" t="s">
+        <v>229</v>
       </c>
       <c r="F64" s="7"/>
       <c r="G64" s="7"/>
@@ -3381,71 +3946,89 @@
       <c r="I64" s="7"/>
       <c r="J64" s="7"/>
       <c r="K64" s="7" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="L64" s="7"/>
     </row>
-    <row r="65" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" ht="18" customHeight="1" spans="1:12">
       <c r="A65" s="7"/>
       <c r="B65" s="7" t="s">
-        <v>318</v>
-      </c>
-      <c r="C65" s="15" t="s">
-        <v>319</v>
-      </c>
-      <c r="D65" s="7"/>
-      <c r="E65" s="7"/>
+        <v>235</v>
+      </c>
+      <c r="C65" s="8" t="s">
+        <v>236</v>
+      </c>
+      <c r="D65" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E65" s="7" t="s">
+        <v>236</v>
+      </c>
       <c r="F65" s="7"/>
       <c r="G65" s="7"/>
       <c r="H65" s="7"/>
-      <c r="I65" s="7"/>
-      <c r="J65" s="7"/>
+      <c r="I65" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="J65" s="7" t="s">
+        <v>231</v>
+      </c>
       <c r="K65" s="7" t="s">
-        <v>320</v>
+        <v>238</v>
       </c>
       <c r="L65" s="7"/>
     </row>
-    <row r="66" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" ht="18" customHeight="1" spans="1:12">
       <c r="A66" s="7"/>
-      <c r="B66" s="7"/>
-      <c r="C66" s="8"/>
+      <c r="B66" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="C66" s="8" t="s">
+        <v>236</v>
+      </c>
       <c r="D66" s="7"/>
-      <c r="E66" s="7"/>
+      <c r="E66" s="8" t="s">
+        <v>236</v>
+      </c>
       <c r="F66" s="7"/>
       <c r="G66" s="7"/>
       <c r="H66" s="7"/>
       <c r="I66" s="7"/>
       <c r="J66" s="7"/>
-      <c r="K66" s="7"/>
+      <c r="K66" s="7" t="s">
+        <v>240</v>
+      </c>
       <c r="L66" s="7"/>
     </row>
-    <row r="67" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" ht="18" customHeight="1" spans="1:12">
       <c r="A67" s="7"/>
       <c r="B67" s="7" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="C67" s="8" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="D67" s="7"/>
-      <c r="E67" s="7"/>
+      <c r="E67" s="8" t="s">
+        <v>236</v>
+      </c>
       <c r="F67" s="7"/>
       <c r="G67" s="7"/>
       <c r="H67" s="7"/>
       <c r="I67" s="7"/>
       <c r="J67" s="7"/>
       <c r="K67" s="7" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="L67" s="7"/>
     </row>
-    <row r="68" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" ht="18" customHeight="1" spans="1:12">
       <c r="A68" s="7"/>
       <c r="B68" s="7" t="s">
-        <v>242</v>
-      </c>
-      <c r="C68" s="8" t="s">
         <v>243</v>
+      </c>
+      <c r="C68" s="12" t="s">
+        <v>244</v>
       </c>
       <c r="D68" s="7"/>
       <c r="E68" s="7"/>
@@ -3454,33 +4037,28 @@
       <c r="H68" s="7"/>
       <c r="I68" s="7"/>
       <c r="J68" s="7"/>
-      <c r="K68" s="10" t="s">
-        <v>179</v>
+      <c r="K68" s="7" t="s">
+        <v>245</v>
       </c>
       <c r="L68" s="7"/>
     </row>
-    <row r="69" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" ht="18" customHeight="1" spans="1:12">
       <c r="A69" s="7"/>
-      <c r="B69" s="7" t="s">
-        <v>244</v>
-      </c>
-      <c r="C69" s="8" t="s">
-        <v>245</v>
-      </c>
+      <c r="B69" s="7"/>
+      <c r="C69" s="8"/>
       <c r="D69" s="7"/>
       <c r="E69" s="7"/>
       <c r="F69" s="7"/>
       <c r="G69" s="7"/>
       <c r="H69" s="7"/>
       <c r="I69" s="7"/>
-      <c r="K69" s="10" t="s">
-        <v>241</v>
-      </c>
+      <c r="J69" s="7"/>
+      <c r="K69" s="7"/>
       <c r="L69" s="7"/>
     </row>
-    <row r="70" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" ht="18" customHeight="1" spans="1:12">
       <c r="A70" s="7"/>
-      <c r="B70" s="8" t="s">
+      <c r="B70" s="7" t="s">
         <v>246</v>
       </c>
       <c r="C70" s="8" t="s">
@@ -3491,24 +4069,20 @@
       <c r="F70" s="7"/>
       <c r="G70" s="7"/>
       <c r="H70" s="7"/>
-      <c r="I70" s="7" t="s">
+      <c r="I70" s="7"/>
+      <c r="J70" s="7"/>
+      <c r="K70" s="7" t="s">
         <v>248</v>
       </c>
-      <c r="J70" s="2" t="s">
-        <v>249</v>
-      </c>
-      <c r="K70" s="10" t="s">
-        <v>246</v>
-      </c>
       <c r="L70" s="7"/>
     </row>
-    <row r="71" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" ht="18" customHeight="1" spans="1:12">
       <c r="A71" s="7"/>
       <c r="B71" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="C71" s="8" t="s">
         <v>250</v>
-      </c>
-      <c r="C71" s="12" t="s">
-        <v>251</v>
       </c>
       <c r="D71" s="7"/>
       <c r="E71" s="7"/>
@@ -3518,59 +4092,60 @@
       <c r="I71" s="7"/>
       <c r="J71" s="7"/>
       <c r="K71" s="10" t="s">
-        <v>252</v>
+        <v>173</v>
       </c>
       <c r="L71" s="7"/>
     </row>
-    <row r="72" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" ht="18" customHeight="1" spans="1:12">
       <c r="A72" s="7"/>
       <c r="B72" s="7" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C72" s="8" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="D72" s="7"/>
       <c r="E72" s="7"/>
       <c r="F72" s="7"/>
       <c r="G72" s="7"/>
       <c r="H72" s="7"/>
-      <c r="I72" s="7" t="s">
-        <v>255</v>
-      </c>
-      <c r="J72" s="7"/>
+      <c r="I72" s="7"/>
       <c r="K72" s="10" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
       <c r="L72" s="7"/>
     </row>
-    <row r="73" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" ht="18" customHeight="1" spans="1:12">
       <c r="A73" s="7"/>
-      <c r="B73" s="7" t="s">
-        <v>257</v>
+      <c r="B73" s="8" t="s">
+        <v>253</v>
       </c>
       <c r="C73" s="8" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="D73" s="7"/>
       <c r="E73" s="7"/>
       <c r="F73" s="7"/>
       <c r="G73" s="7"/>
       <c r="H73" s="7"/>
-      <c r="I73" s="7"/>
-      <c r="J73" s="7"/>
+      <c r="I73" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="J73" s="2" t="s">
+        <v>256</v>
+      </c>
       <c r="K73" s="10" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="L73" s="7"/>
     </row>
-    <row r="74" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" ht="18" customHeight="1" spans="1:12">
       <c r="A74" s="7"/>
-      <c r="B74" s="10" t="s">
-        <v>260</v>
-      </c>
-      <c r="C74" s="8" t="s">
-        <v>261</v>
+      <c r="B74" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="C74" s="11" t="s">
+        <v>258</v>
       </c>
       <c r="D74" s="7"/>
       <c r="E74" s="7"/>
@@ -3580,41 +4155,39 @@
       <c r="I74" s="7"/>
       <c r="J74" s="7"/>
       <c r="K74" s="10" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="L74" s="7"/>
     </row>
-    <row r="75" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" ht="18" customHeight="1" spans="1:12">
       <c r="A75" s="7"/>
       <c r="B75" s="7" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="C75" s="8" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="D75" s="7"/>
-      <c r="E75" s="7" t="s">
-        <v>265</v>
-      </c>
+      <c r="E75" s="7"/>
       <c r="F75" s="7"/>
       <c r="G75" s="7"/>
       <c r="H75" s="7"/>
-      <c r="I75" s="7"/>
-      <c r="J75" s="7" t="s">
-        <v>266</v>
-      </c>
-      <c r="K75" s="7" t="s">
-        <v>259</v>
+      <c r="I75" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="J75" s="7"/>
+      <c r="K75" s="10" t="s">
+        <v>263</v>
       </c>
       <c r="L75" s="7"/>
     </row>
-    <row r="76" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" ht="18" customHeight="1" spans="1:12">
       <c r="A76" s="7"/>
       <c r="B76" s="7" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="C76" s="8" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="D76" s="7"/>
       <c r="E76" s="7"/>
@@ -3623,15 +4196,19 @@
       <c r="H76" s="7"/>
       <c r="I76" s="7"/>
       <c r="J76" s="7"/>
-      <c r="K76" s="7" t="s">
-        <v>269</v>
+      <c r="K76" s="10" t="s">
+        <v>266</v>
       </c>
       <c r="L76" s="7"/>
     </row>
-    <row r="77" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" ht="18" customHeight="1" spans="1:12">
       <c r="A77" s="7"/>
-      <c r="B77" s="7"/>
-      <c r="C77" s="8"/>
+      <c r="B77" s="10" t="s">
+        <v>267</v>
+      </c>
+      <c r="C77" s="8" t="s">
+        <v>268</v>
+      </c>
       <c r="D77" s="7"/>
       <c r="E77" s="7"/>
       <c r="F77" s="7"/>
@@ -3639,10 +4216,12 @@
       <c r="H77" s="7"/>
       <c r="I77" s="7"/>
       <c r="J77" s="7"/>
-      <c r="K77" s="7"/>
+      <c r="K77" s="10" t="s">
+        <v>269</v>
+      </c>
       <c r="L77" s="7"/>
     </row>
-    <row r="78" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" ht="18" customHeight="1" spans="1:12">
       <c r="A78" s="7"/>
       <c r="B78" s="7" t="s">
         <v>270</v>
@@ -3651,21 +4230,29 @@
         <v>271</v>
       </c>
       <c r="D78" s="7"/>
-      <c r="E78" s="7"/>
+      <c r="E78" s="7" t="s">
+        <v>272</v>
+      </c>
       <c r="F78" s="7"/>
       <c r="G78" s="7"/>
       <c r="H78" s="7"/>
       <c r="I78" s="7"/>
-      <c r="J78" s="7"/>
+      <c r="J78" s="7" t="s">
+        <v>273</v>
+      </c>
       <c r="K78" s="7" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="L78" s="7"/>
     </row>
-    <row r="79" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" ht="18" customHeight="1" spans="1:12">
       <c r="A79" s="7"/>
-      <c r="B79" s="7"/>
-      <c r="C79" s="8"/>
+      <c r="B79" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="C79" s="8" t="s">
+        <v>275</v>
+      </c>
       <c r="D79" s="7"/>
       <c r="E79" s="7"/>
       <c r="F79" s="7"/>
@@ -3673,17 +4260,15 @@
       <c r="H79" s="7"/>
       <c r="I79" s="7"/>
       <c r="J79" s="7"/>
-      <c r="K79" s="7"/>
+      <c r="K79" s="7" t="s">
+        <v>276</v>
+      </c>
       <c r="L79" s="7"/>
     </row>
-    <row r="80" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" ht="18" customHeight="1" spans="1:12">
       <c r="A80" s="7"/>
-      <c r="B80" s="7" t="s">
-        <v>273</v>
-      </c>
-      <c r="C80" s="8" t="s">
-        <v>274</v>
-      </c>
+      <c r="B80" s="7"/>
+      <c r="C80" s="8"/>
       <c r="D80" s="7"/>
       <c r="E80" s="7"/>
       <c r="F80" s="7"/>
@@ -3691,15 +4276,17 @@
       <c r="H80" s="7"/>
       <c r="I80" s="7"/>
       <c r="J80" s="7"/>
-      <c r="K80" s="7" t="s">
-        <v>275</v>
-      </c>
+      <c r="K80" s="7"/>
       <c r="L80" s="7"/>
     </row>
-    <row r="81" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" ht="18" customHeight="1" spans="1:12">
       <c r="A81" s="7"/>
-      <c r="B81" s="7"/>
-      <c r="C81" s="8"/>
+      <c r="B81" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="C81" s="8" t="s">
+        <v>278</v>
+      </c>
       <c r="D81" s="7"/>
       <c r="E81" s="7"/>
       <c r="F81" s="7"/>
@@ -3707,197 +4294,193 @@
       <c r="H81" s="7"/>
       <c r="I81" s="7"/>
       <c r="J81" s="7"/>
-      <c r="K81" s="7"/>
+      <c r="K81" s="7" t="s">
+        <v>279</v>
+      </c>
       <c r="L81" s="7"/>
     </row>
-    <row r="82" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" ht="18" customHeight="1" spans="1:12">
       <c r="A82" s="7"/>
-      <c r="B82" s="7" t="s">
-        <v>276</v>
-      </c>
-      <c r="C82" s="8" t="s">
-        <v>277</v>
-      </c>
+      <c r="B82" s="7"/>
+      <c r="C82" s="8"/>
       <c r="D82" s="7"/>
-      <c r="E82" s="7" t="s">
-        <v>278</v>
-      </c>
+      <c r="E82" s="7"/>
       <c r="F82" s="7"/>
       <c r="G82" s="7"/>
       <c r="H82" s="7"/>
-      <c r="I82" s="7" t="s">
-        <v>278</v>
-      </c>
-      <c r="J82" s="7" t="s">
-        <v>279</v>
-      </c>
-      <c r="K82" s="7" t="s">
-        <v>280</v>
-      </c>
-      <c r="L82" s="13" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="83" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I82" s="7"/>
+      <c r="J82" s="7"/>
+      <c r="K82" s="7"/>
+      <c r="L82" s="7"/>
+    </row>
+    <row r="83" ht="18" customHeight="1" spans="1:12">
       <c r="A83" s="7"/>
       <c r="B83" s="7" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="C83" s="8" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D83" s="7"/>
-      <c r="E83" s="7" t="s">
-        <v>278</v>
-      </c>
+      <c r="E83" s="7"/>
       <c r="F83" s="7"/>
       <c r="G83" s="7"/>
       <c r="H83" s="7"/>
-      <c r="I83" s="7" t="s">
-        <v>278</v>
-      </c>
-      <c r="J83" s="7" t="s">
-        <v>283</v>
-      </c>
+      <c r="I83" s="7"/>
+      <c r="J83" s="7"/>
       <c r="K83" s="7" t="s">
-        <v>280</v>
-      </c>
-      <c r="L83" s="14" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="84" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+        <v>282</v>
+      </c>
+      <c r="L83" s="7"/>
+    </row>
+    <row r="84" ht="18" customHeight="1" spans="1:12">
       <c r="A84" s="7"/>
-      <c r="B84" s="7" t="s">
-        <v>276</v>
-      </c>
-      <c r="C84" s="8" t="s">
-        <v>285</v>
-      </c>
+      <c r="B84" s="7"/>
+      <c r="C84" s="8"/>
       <c r="D84" s="7"/>
       <c r="E84" s="7"/>
       <c r="F84" s="7"/>
       <c r="G84" s="7"/>
       <c r="H84" s="7"/>
-      <c r="I84" s="7" t="s">
-        <v>278</v>
-      </c>
-      <c r="J84" s="7" t="s">
-        <v>279</v>
-      </c>
-      <c r="K84" s="7" t="s">
-        <v>286</v>
-      </c>
-      <c r="L84" s="14" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="85" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I84" s="7"/>
+      <c r="J84" s="7"/>
+      <c r="K84" s="7"/>
+      <c r="L84" s="7"/>
+    </row>
+    <row r="85" ht="18" customHeight="1" spans="1:12">
       <c r="A85" s="7"/>
       <c r="B85" s="7" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="C85" s="8" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="D85" s="7"/>
       <c r="E85" s="7" t="s">
-        <v>278</v>
+        <v>285</v>
       </c>
       <c r="F85" s="7"/>
       <c r="G85" s="7"/>
       <c r="H85" s="7"/>
       <c r="I85" s="7" t="s">
-        <v>278</v>
-      </c>
-      <c r="J85" s="7"/>
+        <v>285</v>
+      </c>
+      <c r="J85" s="7" t="s">
+        <v>286</v>
+      </c>
       <c r="K85" s="7" t="s">
-        <v>290</v>
-      </c>
-      <c r="L85" s="7"/>
-    </row>
-    <row r="86" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+        <v>287</v>
+      </c>
+      <c r="L85" s="13" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="86" ht="18" customHeight="1" spans="1:12">
       <c r="A86" s="7"/>
       <c r="B86" s="7" t="s">
-        <v>291</v>
+        <v>283</v>
       </c>
       <c r="C86" s="8" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="D86" s="7"/>
       <c r="E86" s="7" t="s">
-        <v>278</v>
+        <v>285</v>
       </c>
       <c r="F86" s="7"/>
       <c r="G86" s="7"/>
       <c r="H86" s="7"/>
       <c r="I86" s="7" t="s">
-        <v>278</v>
-      </c>
-      <c r="J86" s="7"/>
+        <v>285</v>
+      </c>
+      <c r="J86" s="7" t="s">
+        <v>290</v>
+      </c>
       <c r="K86" s="7" t="s">
-        <v>293</v>
-      </c>
-      <c r="L86" s="7"/>
-    </row>
-    <row r="87" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+        <v>287</v>
+      </c>
+      <c r="L86" s="14" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="87" ht="18" customHeight="1" spans="1:12">
       <c r="A87" s="7"/>
-      <c r="B87" s="7"/>
-      <c r="C87" s="8"/>
+      <c r="B87" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="C87" s="8" t="s">
+        <v>292</v>
+      </c>
       <c r="D87" s="7"/>
       <c r="E87" s="7"/>
       <c r="F87" s="7"/>
       <c r="G87" s="7"/>
       <c r="H87" s="7"/>
-      <c r="I87" s="7"/>
-      <c r="J87" s="7"/>
-      <c r="K87" s="7"/>
-      <c r="L87" s="7"/>
-    </row>
-    <row r="88" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I87" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="J87" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="K87" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="L87" s="14" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="88" ht="18" customHeight="1" spans="1:12">
       <c r="A88" s="7"/>
-      <c r="B88" s="7"/>
-      <c r="C88" s="8"/>
+      <c r="B88" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="C88" s="8" t="s">
+        <v>296</v>
+      </c>
       <c r="D88" s="7"/>
-      <c r="E88" s="7"/>
+      <c r="E88" s="7" t="s">
+        <v>285</v>
+      </c>
       <c r="F88" s="7"/>
       <c r="G88" s="7"/>
       <c r="H88" s="7"/>
-      <c r="I88" s="7"/>
+      <c r="I88" s="7" t="s">
+        <v>285</v>
+      </c>
       <c r="J88" s="7"/>
-      <c r="K88" s="7"/>
+      <c r="K88" s="7" t="s">
+        <v>297</v>
+      </c>
       <c r="L88" s="7"/>
     </row>
-    <row r="89" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" ht="18" customHeight="1" spans="1:12">
       <c r="A89" s="7"/>
-      <c r="B89" s="10" t="s">
-        <v>294</v>
-      </c>
-      <c r="C89" s="11" t="s">
-        <v>295</v>
+      <c r="B89" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="C89" s="8" t="s">
+        <v>299</v>
       </c>
       <c r="D89" s="7"/>
-      <c r="E89" s="7"/>
+      <c r="E89" s="7" t="s">
+        <v>285</v>
+      </c>
       <c r="F89" s="7"/>
       <c r="G89" s="7"/>
       <c r="H89" s="7"/>
-      <c r="I89" s="10" t="s">
-        <v>296</v>
+      <c r="I89" s="7" t="s">
+        <v>285</v>
       </c>
       <c r="J89" s="7"/>
-      <c r="K89" s="10" t="s">
-        <v>296</v>
+      <c r="K89" s="7" t="s">
+        <v>300</v>
       </c>
       <c r="L89" s="7"/>
     </row>
-    <row r="90" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" ht="18" customHeight="1" spans="1:12">
       <c r="A90" s="7"/>
-      <c r="B90" s="7" t="s">
-        <v>297</v>
-      </c>
-      <c r="C90" s="8" t="s">
-        <v>298</v>
-      </c>
+      <c r="B90" s="7"/>
+      <c r="C90" s="8"/>
       <c r="D90" s="7"/>
       <c r="E90" s="7"/>
       <c r="F90" s="7"/>
@@ -3905,19 +4488,13 @@
       <c r="H90" s="7"/>
       <c r="I90" s="7"/>
       <c r="J90" s="7"/>
-      <c r="K90" s="10" t="s">
-        <v>299</v>
-      </c>
+      <c r="K90" s="7"/>
       <c r="L90" s="7"/>
     </row>
-    <row r="91" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" ht="18" customHeight="1" spans="1:12">
       <c r="A91" s="7"/>
-      <c r="B91" s="7" t="s">
-        <v>300</v>
-      </c>
-      <c r="C91" s="8" t="s">
-        <v>301</v>
-      </c>
+      <c r="B91" s="7"/>
+      <c r="C91" s="8"/>
       <c r="D91" s="7"/>
       <c r="E91" s="7"/>
       <c r="F91" s="7"/>
@@ -3928,27 +4505,29 @@
       <c r="K91" s="7"/>
       <c r="L91" s="7"/>
     </row>
-    <row r="92" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" ht="18" customHeight="1" spans="1:12">
       <c r="A92" s="7"/>
-      <c r="B92" s="7" t="s">
+      <c r="B92" s="10" t="s">
+        <v>301</v>
+      </c>
+      <c r="C92" s="11" t="s">
         <v>302</v>
-      </c>
-      <c r="C92" s="11" t="s">
-        <v>303</v>
       </c>
       <c r="D92" s="7"/>
       <c r="E92" s="7"/>
       <c r="F92" s="7"/>
       <c r="G92" s="7"/>
       <c r="H92" s="7"/>
-      <c r="I92" s="7"/>
+      <c r="I92" s="10" t="s">
+        <v>303</v>
+      </c>
       <c r="J92" s="7"/>
-      <c r="K92" s="7" t="s">
-        <v>302</v>
+      <c r="K92" s="10" t="s">
+        <v>303</v>
       </c>
       <c r="L92" s="7"/>
     </row>
-    <row r="93" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" ht="18" customHeight="1" spans="1:12">
       <c r="A93" s="7"/>
       <c r="B93" s="7" t="s">
         <v>304</v>
@@ -3968,12 +4547,12 @@
       </c>
       <c r="L93" s="7"/>
     </row>
-    <row r="94" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" ht="18" customHeight="1" spans="1:12">
       <c r="A94" s="7"/>
-      <c r="B94" s="10" t="s">
+      <c r="B94" s="7" t="s">
         <v>307</v>
       </c>
-      <c r="C94" s="11" t="s">
+      <c r="C94" s="8" t="s">
         <v>308</v>
       </c>
       <c r="D94" s="7"/>
@@ -3981,19 +4560,19 @@
       <c r="F94" s="7"/>
       <c r="G94" s="7"/>
       <c r="H94" s="7"/>
-      <c r="I94" s="7" t="s">
+      <c r="I94" s="7"/>
+      <c r="J94" s="7"/>
+      <c r="K94" s="7"/>
+      <c r="L94" s="7"/>
+    </row>
+    <row r="95" ht="18" customHeight="1" spans="1:12">
+      <c r="A95" s="7"/>
+      <c r="B95" s="7" t="s">
         <v>309</v>
       </c>
-      <c r="J94" s="7"/>
-      <c r="K94" s="7" t="s">
-        <v>309</v>
-      </c>
-      <c r="L94" s="7"/>
-    </row>
-    <row r="95" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="7"/>
-      <c r="B95" s="7"/>
-      <c r="C95" s="8"/>
+      <c r="C95" s="11" t="s">
+        <v>310</v>
+      </c>
       <c r="D95" s="7"/>
       <c r="E95" s="7"/>
       <c r="F95" s="7"/>
@@ -4001,37 +4580,37 @@
       <c r="H95" s="7"/>
       <c r="I95" s="7"/>
       <c r="J95" s="7"/>
-      <c r="K95" s="7"/>
+      <c r="K95" s="7" t="s">
+        <v>309</v>
+      </c>
       <c r="L95" s="7"/>
     </row>
-    <row r="96" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" ht="18" customHeight="1" spans="1:12">
       <c r="A96" s="7"/>
       <c r="B96" s="7" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="C96" s="8" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="D96" s="7"/>
       <c r="E96" s="7"/>
       <c r="F96" s="7"/>
       <c r="G96" s="7"/>
       <c r="H96" s="7"/>
-      <c r="I96" s="7" t="s">
-        <v>312</v>
-      </c>
+      <c r="I96" s="7"/>
       <c r="J96" s="7"/>
-      <c r="K96" s="7" t="s">
+      <c r="K96" s="10" t="s">
         <v>313</v>
       </c>
       <c r="L96" s="7"/>
     </row>
-    <row r="97" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" ht="18" customHeight="1" spans="1:12">
       <c r="A97" s="7"/>
-      <c r="B97" s="7" t="s">
+      <c r="B97" s="10" t="s">
         <v>314</v>
       </c>
-      <c r="C97" s="8" t="s">
+      <c r="C97" s="11" t="s">
         <v>315</v>
       </c>
       <c r="D97" s="7"/>
@@ -4044,11 +4623,11 @@
       </c>
       <c r="J97" s="7"/>
       <c r="K97" s="7" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="L97" s="7"/>
     </row>
-    <row r="98" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" ht="18" customHeight="1" spans="1:12">
       <c r="A98" s="7"/>
       <c r="B98" s="7"/>
       <c r="C98" s="8"/>
@@ -4062,35 +4641,51 @@
       <c r="K98" s="7"/>
       <c r="L98" s="7"/>
     </row>
-    <row r="99" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" ht="18" customHeight="1" spans="1:12">
       <c r="A99" s="7"/>
-      <c r="B99" s="7"/>
-      <c r="C99" s="8"/>
+      <c r="B99" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="C99" s="8" t="s">
+        <v>318</v>
+      </c>
       <c r="D99" s="7"/>
       <c r="E99" s="7"/>
       <c r="F99" s="7"/>
       <c r="G99" s="7"/>
       <c r="H99" s="7"/>
-      <c r="I99" s="7"/>
+      <c r="I99" s="7" t="s">
+        <v>319</v>
+      </c>
       <c r="J99" s="7"/>
-      <c r="K99" s="7"/>
+      <c r="K99" s="7" t="s">
+        <v>320</v>
+      </c>
       <c r="L99" s="7"/>
     </row>
-    <row r="100" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" ht="18" customHeight="1" spans="1:12">
       <c r="A100" s="7"/>
-      <c r="B100" s="7"/>
-      <c r="C100" s="8"/>
+      <c r="B100" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="C100" s="8" t="s">
+        <v>322</v>
+      </c>
       <c r="D100" s="7"/>
       <c r="E100" s="7"/>
       <c r="F100" s="7"/>
       <c r="G100" s="7"/>
       <c r="H100" s="7"/>
-      <c r="I100" s="7"/>
+      <c r="I100" s="7" t="s">
+        <v>323</v>
+      </c>
       <c r="J100" s="7"/>
-      <c r="K100" s="7"/>
+      <c r="K100" s="7" t="s">
+        <v>324</v>
+      </c>
       <c r="L100" s="7"/>
     </row>
-    <row r="101" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="101" ht="18" customHeight="1" spans="1:12">
       <c r="A101" s="7"/>
       <c r="B101" s="7"/>
       <c r="C101" s="8"/>
@@ -4104,7 +4699,7 @@
       <c r="K101" s="7"/>
       <c r="L101" s="7"/>
     </row>
-    <row r="102" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="102" ht="18" customHeight="1" spans="1:12">
       <c r="A102" s="7"/>
       <c r="B102" s="7"/>
       <c r="C102" s="8"/>
@@ -4118,7 +4713,7 @@
       <c r="K102" s="7"/>
       <c r="L102" s="7"/>
     </row>
-    <row r="103" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="103" ht="18" customHeight="1" spans="1:12">
       <c r="A103" s="7"/>
       <c r="B103" s="7"/>
       <c r="C103" s="8"/>
@@ -4132,7 +4727,7 @@
       <c r="K103" s="7"/>
       <c r="L103" s="7"/>
     </row>
-    <row r="104" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="104" ht="18" customHeight="1" spans="1:12">
       <c r="A104" s="7"/>
       <c r="B104" s="7"/>
       <c r="C104" s="8"/>
@@ -4146,7 +4741,7 @@
       <c r="K104" s="7"/>
       <c r="L104" s="7"/>
     </row>
-    <row r="105" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="105" ht="18" customHeight="1" spans="1:12">
       <c r="A105" s="7"/>
       <c r="B105" s="7"/>
       <c r="C105" s="8"/>
@@ -4160,7 +4755,7 @@
       <c r="K105" s="7"/>
       <c r="L105" s="7"/>
     </row>
-    <row r="106" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="106" ht="18" customHeight="1" spans="1:12">
       <c r="A106" s="7"/>
       <c r="B106" s="7"/>
       <c r="C106" s="8"/>
@@ -4174,7 +4769,7 @@
       <c r="K106" s="7"/>
       <c r="L106" s="7"/>
     </row>
-    <row r="107" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="107" ht="18" customHeight="1" spans="1:12">
       <c r="A107" s="7"/>
       <c r="B107" s="7"/>
       <c r="C107" s="8"/>
@@ -4188,7 +4783,7 @@
       <c r="K107" s="7"/>
       <c r="L107" s="7"/>
     </row>
-    <row r="108" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="108" ht="18" customHeight="1" spans="1:12">
       <c r="A108" s="7"/>
       <c r="B108" s="7"/>
       <c r="C108" s="8"/>
@@ -4202,7 +4797,7 @@
       <c r="K108" s="7"/>
       <c r="L108" s="7"/>
     </row>
-    <row r="109" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="109" ht="18" customHeight="1" spans="1:12">
       <c r="A109" s="7"/>
       <c r="B109" s="7"/>
       <c r="C109" s="8"/>
@@ -4216,7 +4811,7 @@
       <c r="K109" s="7"/>
       <c r="L109" s="7"/>
     </row>
-    <row r="110" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" ht="18" customHeight="1" spans="1:12">
       <c r="A110" s="7"/>
       <c r="B110" s="7"/>
       <c r="C110" s="8"/>
@@ -4230,7 +4825,7 @@
       <c r="K110" s="7"/>
       <c r="L110" s="7"/>
     </row>
-    <row r="111" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="111" ht="18" customHeight="1" spans="1:12">
       <c r="A111" s="7"/>
       <c r="B111" s="7"/>
       <c r="C111" s="8"/>
@@ -4244,7 +4839,7 @@
       <c r="K111" s="7"/>
       <c r="L111" s="7"/>
     </row>
-    <row r="112" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="112" ht="18" customHeight="1" spans="1:12">
       <c r="A112" s="7"/>
       <c r="B112" s="7"/>
       <c r="C112" s="8"/>
@@ -4258,7 +4853,7 @@
       <c r="K112" s="7"/>
       <c r="L112" s="7"/>
     </row>
-    <row r="113" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="113" ht="18" customHeight="1" spans="1:12">
       <c r="A113" s="7"/>
       <c r="B113" s="7"/>
       <c r="C113" s="8"/>
@@ -4272,7 +4867,7 @@
       <c r="K113" s="7"/>
       <c r="L113" s="7"/>
     </row>
-    <row r="114" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="114" ht="18" customHeight="1" spans="1:12">
       <c r="A114" s="7"/>
       <c r="B114" s="7"/>
       <c r="C114" s="8"/>
@@ -4286,7 +4881,7 @@
       <c r="K114" s="7"/>
       <c r="L114" s="7"/>
     </row>
-    <row r="115" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="115" ht="18" customHeight="1" spans="1:12">
       <c r="A115" s="7"/>
       <c r="B115" s="7"/>
       <c r="C115" s="8"/>
@@ -4300,7 +4895,7 @@
       <c r="K115" s="7"/>
       <c r="L115" s="7"/>
     </row>
-    <row r="116" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="116" ht="18" customHeight="1" spans="1:12">
       <c r="A116" s="7"/>
       <c r="B116" s="7"/>
       <c r="C116" s="8"/>
@@ -4314,7 +4909,7 @@
       <c r="K116" s="7"/>
       <c r="L116" s="7"/>
     </row>
-    <row r="117" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="117" ht="18" customHeight="1" spans="1:12">
       <c r="A117" s="7"/>
       <c r="B117" s="7"/>
       <c r="C117" s="8"/>
@@ -4328,7 +4923,7 @@
       <c r="K117" s="7"/>
       <c r="L117" s="7"/>
     </row>
-    <row r="118" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="118" ht="18" customHeight="1" spans="1:12">
       <c r="A118" s="7"/>
       <c r="B118" s="7"/>
       <c r="C118" s="8"/>
@@ -4342,7 +4937,7 @@
       <c r="K118" s="7"/>
       <c r="L118" s="7"/>
     </row>
-    <row r="119" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="119" ht="18" customHeight="1" spans="1:12">
       <c r="A119" s="7"/>
       <c r="B119" s="7"/>
       <c r="C119" s="8"/>
@@ -4356,7 +4951,7 @@
       <c r="K119" s="7"/>
       <c r="L119" s="7"/>
     </row>
-    <row r="120" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="120" ht="18" customHeight="1" spans="1:12">
       <c r="A120" s="7"/>
       <c r="B120" s="7"/>
       <c r="C120" s="8"/>
@@ -4370,7 +4965,7 @@
       <c r="K120" s="7"/>
       <c r="L120" s="7"/>
     </row>
-    <row r="121" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="121" ht="18" customHeight="1" spans="1:12">
       <c r="A121" s="7"/>
       <c r="B121" s="7"/>
       <c r="C121" s="8"/>
@@ -4384,7 +4979,7 @@
       <c r="K121" s="7"/>
       <c r="L121" s="7"/>
     </row>
-    <row r="122" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="122" ht="18" customHeight="1" spans="1:12">
       <c r="A122" s="7"/>
       <c r="B122" s="7"/>
       <c r="C122" s="8"/>
@@ -4398,7 +4993,7 @@
       <c r="K122" s="7"/>
       <c r="L122" s="7"/>
     </row>
-    <row r="123" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="123" ht="18" customHeight="1" spans="1:12">
       <c r="A123" s="7"/>
       <c r="B123" s="7"/>
       <c r="C123" s="8"/>
@@ -4412,7 +5007,7 @@
       <c r="K123" s="7"/>
       <c r="L123" s="7"/>
     </row>
-    <row r="124" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="124" ht="18" customHeight="1" spans="1:12">
       <c r="A124" s="7"/>
       <c r="B124" s="7"/>
       <c r="C124" s="8"/>
@@ -4426,7 +5021,7 @@
       <c r="K124" s="7"/>
       <c r="L124" s="7"/>
     </row>
-    <row r="125" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="125" ht="18" customHeight="1" spans="1:12">
       <c r="A125" s="7"/>
       <c r="B125" s="7"/>
       <c r="C125" s="8"/>
@@ -4440,7 +5035,7 @@
       <c r="K125" s="7"/>
       <c r="L125" s="7"/>
     </row>
-    <row r="126" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="126" ht="18" customHeight="1" spans="1:12">
       <c r="A126" s="7"/>
       <c r="B126" s="7"/>
       <c r="C126" s="8"/>
@@ -4454,7 +5049,7 @@
       <c r="K126" s="7"/>
       <c r="L126" s="7"/>
     </row>
-    <row r="127" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="127" ht="18" customHeight="1" spans="1:12">
       <c r="A127" s="7"/>
       <c r="B127" s="7"/>
       <c r="C127" s="8"/>
@@ -4468,7 +5063,7 @@
       <c r="K127" s="7"/>
       <c r="L127" s="7"/>
     </row>
-    <row r="128" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="128" ht="18" customHeight="1" spans="1:12">
       <c r="A128" s="7"/>
       <c r="B128" s="7"/>
       <c r="C128" s="8"/>
@@ -4482,7 +5077,7 @@
       <c r="K128" s="7"/>
       <c r="L128" s="7"/>
     </row>
-    <row r="129" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="129" ht="18" customHeight="1" spans="1:12">
       <c r="A129" s="7"/>
       <c r="B129" s="7"/>
       <c r="C129" s="8"/>
@@ -4496,7 +5091,7 @@
       <c r="K129" s="7"/>
       <c r="L129" s="7"/>
     </row>
-    <row r="130" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="130" ht="18" customHeight="1" spans="1:12">
       <c r="A130" s="7"/>
       <c r="B130" s="7"/>
       <c r="C130" s="8"/>
@@ -4510,7 +5105,7 @@
       <c r="K130" s="7"/>
       <c r="L130" s="7"/>
     </row>
-    <row r="131" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="131" ht="18" customHeight="1" spans="1:12">
       <c r="A131" s="7"/>
       <c r="B131" s="7"/>
       <c r="C131" s="8"/>
@@ -4524,7 +5119,7 @@
       <c r="K131" s="7"/>
       <c r="L131" s="7"/>
     </row>
-    <row r="132" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="132" ht="18" customHeight="1" spans="1:12">
       <c r="A132" s="7"/>
       <c r="B132" s="7"/>
       <c r="C132" s="8"/>
@@ -4538,7 +5133,7 @@
       <c r="K132" s="7"/>
       <c r="L132" s="7"/>
     </row>
-    <row r="133" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="133" ht="18" customHeight="1" spans="1:12">
       <c r="A133" s="7"/>
       <c r="B133" s="7"/>
       <c r="C133" s="8"/>
@@ -4552,7 +5147,7 @@
       <c r="K133" s="7"/>
       <c r="L133" s="7"/>
     </row>
-    <row r="134" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="134" ht="18" customHeight="1" spans="1:12">
       <c r="A134" s="7"/>
       <c r="B134" s="7"/>
       <c r="C134" s="8"/>
@@ -4566,7 +5161,7 @@
       <c r="K134" s="7"/>
       <c r="L134" s="7"/>
     </row>
-    <row r="135" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="135" ht="18" customHeight="1" spans="1:12">
       <c r="A135" s="7"/>
       <c r="B135" s="7"/>
       <c r="C135" s="8"/>
@@ -4580,7 +5175,7 @@
       <c r="K135" s="7"/>
       <c r="L135" s="7"/>
     </row>
-    <row r="136" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="136" ht="18" customHeight="1" spans="1:12">
       <c r="A136" s="7"/>
       <c r="B136" s="7"/>
       <c r="C136" s="8"/>
@@ -4594,7 +5189,7 @@
       <c r="K136" s="7"/>
       <c r="L136" s="7"/>
     </row>
-    <row r="137" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="137" ht="18" customHeight="1" spans="1:12">
       <c r="A137" s="7"/>
       <c r="B137" s="7"/>
       <c r="C137" s="8"/>
@@ -4608,7 +5203,7 @@
       <c r="K137" s="7"/>
       <c r="L137" s="7"/>
     </row>
-    <row r="138" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="138" ht="18" customHeight="1" spans="1:12">
       <c r="A138" s="7"/>
       <c r="B138" s="7"/>
       <c r="C138" s="8"/>
@@ -4622,7 +5217,7 @@
       <c r="K138" s="7"/>
       <c r="L138" s="7"/>
     </row>
-    <row r="139" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="139" ht="18" customHeight="1" spans="1:12">
       <c r="A139" s="7"/>
       <c r="B139" s="7"/>
       <c r="C139" s="8"/>
@@ -4636,7 +5231,7 @@
       <c r="K139" s="7"/>
       <c r="L139" s="7"/>
     </row>
-    <row r="140" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="140" ht="18" customHeight="1" spans="1:12">
       <c r="A140" s="7"/>
       <c r="B140" s="7"/>
       <c r="C140" s="8"/>
@@ -4650,7 +5245,7 @@
       <c r="K140" s="7"/>
       <c r="L140" s="7"/>
     </row>
-    <row r="141" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="141" ht="18" customHeight="1" spans="1:12">
       <c r="A141" s="7"/>
       <c r="B141" s="7"/>
       <c r="C141" s="8"/>
@@ -4664,7 +5259,7 @@
       <c r="K141" s="7"/>
       <c r="L141" s="7"/>
     </row>
-    <row r="142" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="142" ht="18" customHeight="1" spans="1:12">
       <c r="A142" s="7"/>
       <c r="B142" s="7"/>
       <c r="C142" s="8"/>
@@ -4678,7 +5273,7 @@
       <c r="K142" s="7"/>
       <c r="L142" s="7"/>
     </row>
-    <row r="143" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="143" ht="18" customHeight="1" spans="1:12">
       <c r="A143" s="7"/>
       <c r="B143" s="7"/>
       <c r="C143" s="8"/>
@@ -4692,7 +5287,7 @@
       <c r="K143" s="7"/>
       <c r="L143" s="7"/>
     </row>
-    <row r="144" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="144" ht="18" customHeight="1" spans="1:12">
       <c r="A144" s="7"/>
       <c r="B144" s="7"/>
       <c r="C144" s="8"/>
@@ -4706,7 +5301,7 @@
       <c r="K144" s="7"/>
       <c r="L144" s="7"/>
     </row>
-    <row r="145" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="145" ht="18" customHeight="1" spans="1:12">
       <c r="A145" s="7"/>
       <c r="B145" s="7"/>
       <c r="C145" s="8"/>
@@ -4720,7 +5315,7 @@
       <c r="K145" s="7"/>
       <c r="L145" s="7"/>
     </row>
-    <row r="146" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="146" ht="18" customHeight="1" spans="1:12">
       <c r="A146" s="7"/>
       <c r="B146" s="7"/>
       <c r="C146" s="8"/>
@@ -4734,7 +5329,7 @@
       <c r="K146" s="7"/>
       <c r="L146" s="7"/>
     </row>
-    <row r="147" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="147" ht="18" customHeight="1" spans="1:12">
       <c r="A147" s="7"/>
       <c r="B147" s="7"/>
       <c r="C147" s="8"/>
@@ -4748,7 +5343,7 @@
       <c r="K147" s="7"/>
       <c r="L147" s="7"/>
     </row>
-    <row r="148" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="148" ht="18" customHeight="1" spans="1:12">
       <c r="A148" s="7"/>
       <c r="B148" s="7"/>
       <c r="C148" s="8"/>
@@ -4762,7 +5357,7 @@
       <c r="K148" s="7"/>
       <c r="L148" s="7"/>
     </row>
-    <row r="149" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="149" ht="18" customHeight="1" spans="1:12">
       <c r="A149" s="7"/>
       <c r="B149" s="7"/>
       <c r="C149" s="8"/>
@@ -4776,7 +5371,7 @@
       <c r="K149" s="7"/>
       <c r="L149" s="7"/>
     </row>
-    <row r="150" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="150" ht="18" customHeight="1" spans="1:12">
       <c r="A150" s="7"/>
       <c r="B150" s="7"/>
       <c r="C150" s="8"/>
@@ -4790,7 +5385,7 @@
       <c r="K150" s="7"/>
       <c r="L150" s="7"/>
     </row>
-    <row r="151" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="151" ht="18" customHeight="1" spans="1:12">
       <c r="A151" s="7"/>
       <c r="B151" s="7"/>
       <c r="C151" s="8"/>
@@ -4804,7 +5399,7 @@
       <c r="K151" s="7"/>
       <c r="L151" s="7"/>
     </row>
-    <row r="152" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="152" ht="18" customHeight="1" spans="1:12">
       <c r="A152" s="7"/>
       <c r="B152" s="7"/>
       <c r="C152" s="8"/>
@@ -4818,7 +5413,7 @@
       <c r="K152" s="7"/>
       <c r="L152" s="7"/>
     </row>
-    <row r="153" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="153" ht="18" customHeight="1" spans="1:12">
       <c r="A153" s="7"/>
       <c r="B153" s="7"/>
       <c r="C153" s="8"/>
@@ -4832,7 +5427,7 @@
       <c r="K153" s="7"/>
       <c r="L153" s="7"/>
     </row>
-    <row r="154" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="154" ht="18" customHeight="1" spans="1:12">
       <c r="A154" s="7"/>
       <c r="B154" s="7"/>
       <c r="C154" s="8"/>
@@ -4846,7 +5441,7 @@
       <c r="K154" s="7"/>
       <c r="L154" s="7"/>
     </row>
-    <row r="155" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="155" ht="18" customHeight="1" spans="1:12">
       <c r="A155" s="7"/>
       <c r="B155" s="7"/>
       <c r="C155" s="8"/>
@@ -4860,7 +5455,7 @@
       <c r="K155" s="7"/>
       <c r="L155" s="7"/>
     </row>
-    <row r="156" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="156" ht="18" customHeight="1" spans="1:12">
       <c r="A156" s="7"/>
       <c r="B156" s="7"/>
       <c r="C156" s="8"/>
@@ -4874,7 +5469,7 @@
       <c r="K156" s="7"/>
       <c r="L156" s="7"/>
     </row>
-    <row r="157" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="157" ht="18" customHeight="1" spans="1:12">
       <c r="A157" s="7"/>
       <c r="B157" s="7"/>
       <c r="C157" s="8"/>
@@ -4888,7 +5483,7 @@
       <c r="K157" s="7"/>
       <c r="L157" s="7"/>
     </row>
-    <row r="158" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="158" ht="18" customHeight="1" spans="1:12">
       <c r="A158" s="7"/>
       <c r="B158" s="7"/>
       <c r="C158" s="8"/>
@@ -4902,7 +5497,7 @@
       <c r="K158" s="7"/>
       <c r="L158" s="7"/>
     </row>
-    <row r="159" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="159" ht="18" customHeight="1" spans="1:12">
       <c r="A159" s="7"/>
       <c r="B159" s="7"/>
       <c r="C159" s="8"/>
@@ -4916,7 +5511,7 @@
       <c r="K159" s="7"/>
       <c r="L159" s="7"/>
     </row>
-    <row r="160" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="160" ht="18" customHeight="1" spans="1:12">
       <c r="A160" s="7"/>
       <c r="B160" s="7"/>
       <c r="C160" s="8"/>
@@ -4930,7 +5525,7 @@
       <c r="K160" s="7"/>
       <c r="L160" s="7"/>
     </row>
-    <row r="161" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="161" ht="18" customHeight="1" spans="1:12">
       <c r="A161" s="7"/>
       <c r="B161" s="7"/>
       <c r="C161" s="8"/>
@@ -4944,7 +5539,7 @@
       <c r="K161" s="7"/>
       <c r="L161" s="7"/>
     </row>
-    <row r="162" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="162" ht="18" customHeight="1" spans="1:12">
       <c r="A162" s="7"/>
       <c r="B162" s="7"/>
       <c r="C162" s="8"/>
@@ -4958,42 +5553,90 @@
       <c r="K162" s="7"/>
       <c r="L162" s="7"/>
     </row>
+    <row r="163" ht="18" customHeight="1" spans="1:12">
+      <c r="A163" s="7"/>
+      <c r="B163" s="7"/>
+      <c r="C163" s="8"/>
+      <c r="D163" s="7"/>
+      <c r="E163" s="7"/>
+      <c r="F163" s="7"/>
+      <c r="G163" s="7"/>
+      <c r="H163" s="7"/>
+      <c r="I163" s="7"/>
+      <c r="J163" s="7"/>
+      <c r="K163" s="7"/>
+      <c r="L163" s="7"/>
+    </row>
+    <row r="164" ht="18" customHeight="1" spans="1:12">
+      <c r="A164" s="7"/>
+      <c r="B164" s="7"/>
+      <c r="C164" s="8"/>
+      <c r="D164" s="7"/>
+      <c r="E164" s="7"/>
+      <c r="F164" s="7"/>
+      <c r="G164" s="7"/>
+      <c r="H164" s="7"/>
+      <c r="I164" s="7"/>
+      <c r="J164" s="7"/>
+      <c r="K164" s="7"/>
+      <c r="L164" s="7"/>
+    </row>
+    <row r="165" ht="18" customHeight="1" spans="1:12">
+      <c r="A165" s="7"/>
+      <c r="B165" s="7"/>
+      <c r="C165" s="8"/>
+      <c r="D165" s="7"/>
+      <c r="E165" s="7"/>
+      <c r="F165" s="7"/>
+      <c r="G165" s="7"/>
+      <c r="H165" s="7"/>
+      <c r="I165" s="7"/>
+      <c r="J165" s="7"/>
+      <c r="K165" s="7"/>
+      <c r="L165" s="7"/>
+    </row>
   </sheetData>
-  <phoneticPr fontId="7" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="L82" r:id="rId1" tooltip="https://item.szlcsc.com/87756.html" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="L83" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="L85" r:id="rId3" display="https://item.szlcsc.com/87756.html" tooltip="https://item.szlcsc.com/87756.html"/>
+    <hyperlink ref="L86" r:id="rId4" display="https://item.szlcsc.com/136348.html"/>
   </hyperlinks>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
-  <legacyDrawing r:id="rId4"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
-  <phoneticPr fontId="7" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
-  <phoneticPr fontId="7" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/物料索引.xlsx
+++ b/物料索引.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="14070"/>
+    <workbookView windowWidth="28800" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -88,7 +88,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330">
   <si>
     <t>物料编码</t>
   </si>
@@ -489,13 +489,28 @@
     <t>MOVs_14MM</t>
   </si>
   <si>
+    <t>SDR0302-4R7ML</t>
+  </si>
+  <si>
+    <t>4.7uH,1.2A,150m欧</t>
+  </si>
+  <si>
+    <t>电感</t>
+  </si>
+  <si>
+    <t>4.7uH</t>
+  </si>
+  <si>
+    <t>1.2</t>
+  </si>
+  <si>
+    <t>L_3x3</t>
+  </si>
+  <si>
     <t>SDR0604-330KL</t>
   </si>
   <si>
     <t>33uH，0.88A，250m欧</t>
-  </si>
-  <si>
-    <t>电感</t>
   </si>
   <si>
     <t>33uH</t>
@@ -1206,19 +1221,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1243,9 +1251,30 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1258,6 +1287,7 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -1265,8 +1295,53 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1281,16 +1356,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1304,18 +1372,11 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1327,65 +1388,12 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1400,7 +1408,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1412,49 +1540,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1466,73 +1570,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1544,43 +1582,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1609,6 +1611,26 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1624,24 +1646,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -1653,30 +1657,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1698,11 +1678,33 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1714,10 +1716,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1726,137 +1728,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1893,13 +1895,10 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="10" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="10" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="10" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="10" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2250,12 +2249,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L165"/>
+  <dimension ref="A1:L166"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A25" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="3" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="K41" sqref="K41"/>
+      <selection pane="bottomLeft" activeCell="K35" sqref="K35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3204,15 +3203,13 @@
     </row>
     <row r="32" ht="18" customHeight="1" spans="1:12">
       <c r="A32" s="7"/>
-      <c r="B32" s="10" t="s">
+      <c r="B32" s="7" t="s">
         <v>133</v>
       </c>
       <c r="C32" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="D32" s="7" t="s">
-        <v>24</v>
-      </c>
+      <c r="D32" s="7"/>
       <c r="E32" s="7" t="s">
         <v>135</v>
       </c>
@@ -3224,23 +3221,23 @@
       </c>
       <c r="H32" s="7"/>
       <c r="I32" s="7" t="s">
-        <v>138</v>
+        <v>122</v>
       </c>
       <c r="J32" s="8" t="s">
         <v>123</v>
       </c>
       <c r="K32" s="8" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="L32" s="7"/>
     </row>
     <row r="33" ht="18" customHeight="1" spans="1:12">
       <c r="A33" s="7"/>
-      <c r="B33" s="7" t="s">
+      <c r="B33" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="C33" s="8" t="s">
         <v>140</v>
-      </c>
-      <c r="C33" s="8" t="s">
-        <v>141</v>
       </c>
       <c r="D33" s="7" t="s">
         <v>24</v>
@@ -3249,20 +3246,20 @@
         <v>135</v>
       </c>
       <c r="F33" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="G33" s="7" t="s">
         <v>142</v>
-      </c>
-      <c r="G33" s="7" t="s">
-        <v>143</v>
       </c>
       <c r="H33" s="7"/>
       <c r="I33" s="7" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="J33" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="K33" s="8" t="s">
         <v>144</v>
-      </c>
-      <c r="K33" s="8" t="s">
-        <v>139</v>
       </c>
       <c r="L33" s="7"/>
     </row>
@@ -3281,30 +3278,30 @@
         <v>135</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>136</v>
+        <v>147</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="H34" s="7"/>
       <c r="I34" s="7" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="J34" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="K34" s="8" t="s">
         <v>144</v>
-      </c>
-      <c r="K34" s="8" t="s">
-        <v>139</v>
       </c>
       <c r="L34" s="7"/>
     </row>
     <row r="35" ht="18" customHeight="1" spans="1:12">
       <c r="A35" s="7"/>
       <c r="B35" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="C35" s="8" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="D35" s="7" t="s">
         <v>24</v>
@@ -3313,163 +3310,179 @@
         <v>135</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="H35" s="7"/>
       <c r="I35" s="7" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
       <c r="J35" s="8" t="s">
-        <v>123</v>
+        <v>149</v>
       </c>
       <c r="K35" s="8" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
       <c r="L35" s="7"/>
     </row>
     <row r="36" ht="18" customHeight="1" spans="1:12">
       <c r="A36" s="7"/>
       <c r="B36" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="C36" s="8" t="s">
         <v>154</v>
-      </c>
-      <c r="C36" s="8" t="s">
-        <v>155</v>
       </c>
       <c r="D36" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="E36" s="8" t="s">
+      <c r="E36" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="F36" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="G36" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="F36" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="G36" s="7"/>
       <c r="H36" s="7"/>
       <c r="I36" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="J36" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="K36" s="8" t="s">
         <v>158</v>
-      </c>
-      <c r="J36" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="K36" s="9" t="s">
-        <v>159</v>
       </c>
       <c r="L36" s="7"/>
     </row>
     <row r="37" ht="18" customHeight="1" spans="1:12">
       <c r="A37" s="7"/>
-      <c r="B37" s="7"/>
-      <c r="C37" s="8"/>
-      <c r="D37" s="7"/>
-      <c r="E37" s="7"/>
-      <c r="F37" s="7"/>
+      <c r="B37" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="C37" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="D37" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E37" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="F37" s="7" t="s">
+        <v>162</v>
+      </c>
       <c r="G37" s="7"/>
       <c r="H37" s="7"/>
-      <c r="I37" s="7"/>
-      <c r="J37" s="7"/>
-      <c r="K37" s="7"/>
+      <c r="I37" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="J37" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="K37" s="9" t="s">
+        <v>164</v>
+      </c>
       <c r="L37" s="7"/>
     </row>
     <row r="38" ht="18" customHeight="1" spans="1:12">
       <c r="A38" s="7"/>
-      <c r="B38" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="C38" s="11" t="s">
-        <v>161</v>
-      </c>
+      <c r="B38" s="7"/>
+      <c r="C38" s="8"/>
       <c r="D38" s="7"/>
-      <c r="E38" s="7" t="s">
-        <v>162</v>
-      </c>
+      <c r="E38" s="7"/>
       <c r="F38" s="7"/>
       <c r="G38" s="7"/>
       <c r="H38" s="7"/>
       <c r="I38" s="7"/>
-      <c r="J38" s="7" t="s">
-        <v>163</v>
-      </c>
+      <c r="J38" s="7"/>
       <c r="K38" s="7"/>
       <c r="L38" s="7"/>
     </row>
     <row r="39" ht="18" customHeight="1" spans="1:12">
       <c r="A39" s="7"/>
       <c r="B39" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C39" s="11" t="s">
-        <v>165</v>
-      </c>
-      <c r="D39" s="7" t="s">
-        <v>24</v>
-      </c>
+        <v>166</v>
+      </c>
+      <c r="D39" s="7"/>
       <c r="E39" s="7" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="F39" s="7"/>
       <c r="G39" s="7"/>
       <c r="H39" s="7"/>
       <c r="I39" s="7"/>
       <c r="J39" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="K39" s="7" t="s">
-        <v>166</v>
-      </c>
+        <v>168</v>
+      </c>
+      <c r="K39" s="7"/>
       <c r="L39" s="7"/>
     </row>
     <row r="40" ht="18" customHeight="1" spans="1:12">
       <c r="A40" s="7"/>
       <c r="B40" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="C40" s="11" t="s">
+        <v>170</v>
+      </c>
+      <c r="D40" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E40" s="7" t="s">
         <v>167</v>
-      </c>
-      <c r="C40" s="8" t="s">
-        <v>168</v>
-      </c>
-      <c r="D40" s="7"/>
-      <c r="E40" s="7" t="s">
-        <v>162</v>
       </c>
       <c r="F40" s="7"/>
       <c r="G40" s="7"/>
       <c r="H40" s="7"/>
-      <c r="I40" s="7" t="s">
-        <v>169</v>
-      </c>
+      <c r="I40" s="7"/>
       <c r="J40" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="K40" s="7"/>
+        <v>168</v>
+      </c>
+      <c r="K40" s="7" t="s">
+        <v>171</v>
+      </c>
       <c r="L40" s="7"/>
     </row>
     <row r="41" ht="18" customHeight="1" spans="1:12">
       <c r="A41" s="7"/>
       <c r="B41" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C41" s="8" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D41" s="7"/>
-      <c r="E41" s="7"/>
+      <c r="E41" s="7" t="s">
+        <v>167</v>
+      </c>
       <c r="F41" s="7"/>
       <c r="G41" s="7"/>
       <c r="H41" s="7"/>
-      <c r="I41" s="7"/>
-      <c r="J41" s="7"/>
-      <c r="K41" s="10" t="s">
-        <v>173</v>
-      </c>
+      <c r="I41" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="J41" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="K41" s="7"/>
       <c r="L41" s="7"/>
     </row>
     <row r="42" ht="18" customHeight="1" spans="1:12">
       <c r="A42" s="7"/>
-      <c r="B42" s="7"/>
-      <c r="C42" s="8"/>
+      <c r="B42" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="C42" s="8" t="s">
+        <v>177</v>
+      </c>
       <c r="D42" s="7"/>
       <c r="E42" s="7"/>
       <c r="F42" s="7"/>
@@ -3477,45 +3490,35 @@
       <c r="H42" s="7"/>
       <c r="I42" s="7"/>
       <c r="J42" s="7"/>
-      <c r="K42" s="7"/>
+      <c r="K42" s="10" t="s">
+        <v>178</v>
+      </c>
       <c r="L42" s="7"/>
     </row>
     <row r="43" ht="18" customHeight="1" spans="1:12">
       <c r="A43" s="7"/>
-      <c r="B43" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="C43" s="8" t="s">
-        <v>175</v>
-      </c>
+      <c r="B43" s="7"/>
+      <c r="C43" s="8"/>
       <c r="D43" s="7"/>
       <c r="E43" s="7"/>
       <c r="F43" s="7"/>
       <c r="G43" s="7"/>
       <c r="H43" s="7"/>
-      <c r="I43" s="10" t="s">
-        <v>176</v>
-      </c>
-      <c r="J43" s="10" t="s">
-        <v>177</v>
-      </c>
-      <c r="K43" s="10" t="s">
-        <v>176</v>
-      </c>
+      <c r="I43" s="7"/>
+      <c r="J43" s="7"/>
+      <c r="K43" s="7"/>
       <c r="L43" s="7"/>
     </row>
     <row r="44" ht="18" customHeight="1" spans="1:12">
       <c r="A44" s="7"/>
-      <c r="B44" s="10" t="s">
-        <v>178</v>
+      <c r="B44" s="7" t="s">
+        <v>179</v>
       </c>
       <c r="C44" s="8" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D44" s="7"/>
-      <c r="E44" s="10" t="s">
-        <v>180</v>
-      </c>
+      <c r="E44" s="7"/>
       <c r="F44" s="7"/>
       <c r="G44" s="7"/>
       <c r="H44" s="7"/>
@@ -3523,80 +3526,84 @@
         <v>181</v>
       </c>
       <c r="J44" s="10" t="s">
-        <v>163</v>
+        <v>182</v>
       </c>
       <c r="K44" s="10" t="s">
-        <v>173</v>
+        <v>181</v>
       </c>
       <c r="L44" s="7"/>
     </row>
     <row r="45" ht="18" customHeight="1" spans="1:12">
       <c r="A45" s="7"/>
-      <c r="B45" s="7" t="s">
-        <v>182</v>
+      <c r="B45" s="10" t="s">
+        <v>183</v>
       </c>
       <c r="C45" s="8" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D45" s="7"/>
-      <c r="E45" s="7"/>
+      <c r="E45" s="10" t="s">
+        <v>185</v>
+      </c>
       <c r="F45" s="7"/>
       <c r="G45" s="7"/>
       <c r="H45" s="7"/>
       <c r="I45" s="10" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="J45" s="10" t="s">
-        <v>185</v>
-      </c>
-      <c r="K45" s="7" t="s">
-        <v>186</v>
+        <v>168</v>
+      </c>
+      <c r="K45" s="10" t="s">
+        <v>178</v>
       </c>
       <c r="L45" s="7"/>
     </row>
     <row r="46" ht="18" customHeight="1" spans="1:12">
       <c r="A46" s="7"/>
-      <c r="B46" s="7"/>
-      <c r="C46" s="8"/>
+      <c r="B46" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="C46" s="8" t="s">
+        <v>188</v>
+      </c>
       <c r="D46" s="7"/>
       <c r="E46" s="7"/>
       <c r="F46" s="7"/>
       <c r="G46" s="7"/>
       <c r="H46" s="7"/>
-      <c r="I46" s="7"/>
-      <c r="J46" s="7"/>
-      <c r="K46" s="7"/>
+      <c r="I46" s="10" t="s">
+        <v>189</v>
+      </c>
+      <c r="J46" s="10" t="s">
+        <v>190</v>
+      </c>
+      <c r="K46" s="7" t="s">
+        <v>191</v>
+      </c>
       <c r="L46" s="7"/>
     </row>
     <row r="47" ht="18" customHeight="1" spans="1:12">
       <c r="A47" s="7"/>
-      <c r="B47" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="C47" s="8" t="s">
-        <v>188</v>
-      </c>
+      <c r="B47" s="7"/>
+      <c r="C47" s="8"/>
       <c r="D47" s="7"/>
       <c r="E47" s="7"/>
       <c r="F47" s="7"/>
       <c r="G47" s="7"/>
       <c r="H47" s="7"/>
       <c r="I47" s="7"/>
-      <c r="J47" s="10" t="s">
-        <v>189</v>
-      </c>
-      <c r="K47" s="10" t="s">
-        <v>186</v>
-      </c>
+      <c r="J47" s="7"/>
+      <c r="K47" s="7"/>
       <c r="L47" s="7"/>
     </row>
     <row r="48" ht="18" customHeight="1" spans="1:12">
       <c r="A48" s="7"/>
-      <c r="B48" s="10" t="s">
-        <v>190</v>
+      <c r="B48" s="7" t="s">
+        <v>192</v>
       </c>
       <c r="C48" s="8" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="D48" s="7"/>
       <c r="E48" s="7"/>
@@ -3605,75 +3612,69 @@
       <c r="H48" s="7"/>
       <c r="I48" s="7"/>
       <c r="J48" s="10" t="s">
-        <v>189</v>
-      </c>
-      <c r="K48" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
+      </c>
+      <c r="K48" s="10" t="s">
+        <v>191</v>
       </c>
       <c r="L48" s="7"/>
     </row>
     <row r="49" ht="18" customHeight="1" spans="1:12">
       <c r="A49" s="7"/>
-      <c r="B49" s="7"/>
-      <c r="C49" s="8"/>
+      <c r="B49" s="10" t="s">
+        <v>195</v>
+      </c>
+      <c r="C49" s="8" t="s">
+        <v>196</v>
+      </c>
       <c r="D49" s="7"/>
       <c r="E49" s="7"/>
       <c r="F49" s="7"/>
       <c r="G49" s="7"/>
       <c r="H49" s="7"/>
       <c r="I49" s="7"/>
-      <c r="J49" s="7"/>
-      <c r="K49" s="7"/>
+      <c r="J49" s="10" t="s">
+        <v>194</v>
+      </c>
+      <c r="K49" s="7" t="s">
+        <v>197</v>
+      </c>
       <c r="L49" s="7"/>
     </row>
     <row r="50" ht="18" customHeight="1" spans="1:12">
       <c r="A50" s="7"/>
-      <c r="B50" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="C50" s="8" t="s">
-        <v>194</v>
-      </c>
-      <c r="D50" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="E50" s="7" t="s">
-        <v>195</v>
-      </c>
-      <c r="F50" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="G50" s="7" t="s">
-        <v>197</v>
-      </c>
+      <c r="B50" s="7"/>
+      <c r="C50" s="8"/>
+      <c r="D50" s="7"/>
+      <c r="E50" s="7"/>
+      <c r="F50" s="7"/>
+      <c r="G50" s="7"/>
       <c r="H50" s="7"/>
-      <c r="I50" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="J50" s="9" t="s">
-        <v>131</v>
-      </c>
-      <c r="K50" s="9" t="s">
-        <v>198</v>
-      </c>
+      <c r="I50" s="7"/>
+      <c r="J50" s="7"/>
+      <c r="K50" s="7"/>
       <c r="L50" s="7"/>
     </row>
     <row r="51" ht="18" customHeight="1" spans="1:12">
       <c r="A51" s="7"/>
       <c r="B51" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="C51" s="8" t="s">
         <v>199</v>
-      </c>
-      <c r="C51" s="8" t="s">
-        <v>200</v>
       </c>
       <c r="D51" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="E51" s="8" t="s">
+      <c r="E51" s="7" t="s">
         <v>200</v>
       </c>
-      <c r="F51" s="7"/>
-      <c r="G51" s="7"/>
+      <c r="F51" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="G51" s="7" t="s">
+        <v>202</v>
+      </c>
       <c r="H51" s="7"/>
       <c r="I51" s="7" t="s">
         <v>130</v>
@@ -3682,32 +3683,42 @@
         <v>131</v>
       </c>
       <c r="K51" s="9" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="L51" s="7"/>
     </row>
     <row r="52" ht="18" customHeight="1" spans="1:12">
       <c r="A52" s="7"/>
-      <c r="B52" s="7"/>
-      <c r="C52" s="8"/>
-      <c r="D52" s="7"/>
-      <c r="E52" s="7"/>
+      <c r="B52" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="C52" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="D52" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E52" s="8" t="s">
+        <v>205</v>
+      </c>
       <c r="F52" s="7"/>
       <c r="G52" s="7"/>
       <c r="H52" s="7"/>
-      <c r="I52" s="7"/>
-      <c r="J52" s="7"/>
-      <c r="K52" s="7"/>
+      <c r="I52" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="J52" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="K52" s="9" t="s">
+        <v>203</v>
+      </c>
       <c r="L52" s="7"/>
     </row>
     <row r="53" ht="18" customHeight="1" spans="1:12">
       <c r="A53" s="7"/>
-      <c r="B53" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="C53" s="8" t="s">
-        <v>202</v>
-      </c>
+      <c r="B53" s="7"/>
+      <c r="C53" s="8"/>
       <c r="D53" s="7"/>
       <c r="E53" s="7"/>
       <c r="F53" s="7"/>
@@ -3715,15 +3726,17 @@
       <c r="H53" s="7"/>
       <c r="I53" s="7"/>
       <c r="J53" s="7"/>
-      <c r="K53" s="7" t="s">
-        <v>201</v>
-      </c>
+      <c r="K53" s="7"/>
       <c r="L53" s="7"/>
     </row>
     <row r="54" ht="18" customHeight="1" spans="1:12">
       <c r="A54" s="7"/>
-      <c r="B54" s="7"/>
-      <c r="C54" s="8"/>
+      <c r="B54" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="C54" s="8" t="s">
+        <v>207</v>
+      </c>
       <c r="D54" s="7"/>
       <c r="E54" s="7"/>
       <c r="F54" s="7"/>
@@ -3731,98 +3744,90 @@
       <c r="H54" s="7"/>
       <c r="I54" s="7"/>
       <c r="J54" s="7"/>
-      <c r="K54" s="7"/>
+      <c r="K54" s="7" t="s">
+        <v>206</v>
+      </c>
       <c r="L54" s="7"/>
     </row>
     <row r="55" ht="18" customHeight="1" spans="1:12">
       <c r="A55" s="7"/>
-      <c r="B55" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="C55" s="8" t="s">
-        <v>204</v>
-      </c>
-      <c r="D55" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="E55" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="F55" s="7" t="s">
-        <v>206</v>
-      </c>
+      <c r="B55" s="7"/>
+      <c r="C55" s="8"/>
+      <c r="D55" s="7"/>
+      <c r="E55" s="7"/>
+      <c r="F55" s="7"/>
       <c r="G55" s="7"/>
       <c r="H55" s="7"/>
-      <c r="I55" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="J55" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="K55" s="7" t="s">
-        <v>209</v>
-      </c>
+      <c r="I55" s="7"/>
+      <c r="J55" s="7"/>
+      <c r="K55" s="7"/>
       <c r="L55" s="7"/>
     </row>
     <row r="56" ht="18" customHeight="1" spans="1:12">
       <c r="A56" s="7"/>
-      <c r="B56" s="7"/>
-      <c r="C56" s="8"/>
-      <c r="D56" s="7"/>
-      <c r="E56" s="7"/>
-      <c r="F56" s="7"/>
+      <c r="B56" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="C56" s="8" t="s">
+        <v>209</v>
+      </c>
+      <c r="D56" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E56" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="F56" s="7" t="s">
+        <v>211</v>
+      </c>
       <c r="G56" s="7"/>
       <c r="H56" s="7"/>
-      <c r="I56" s="7"/>
-      <c r="J56" s="7"/>
-      <c r="K56" s="7"/>
+      <c r="I56" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="J56" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="K56" s="7" t="s">
+        <v>214</v>
+      </c>
       <c r="L56" s="7"/>
     </row>
     <row r="57" ht="18" customHeight="1" spans="1:12">
       <c r="A57" s="7"/>
-      <c r="B57" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="C57" s="8" t="s">
-        <v>211</v>
-      </c>
+      <c r="B57" s="7"/>
+      <c r="C57" s="8"/>
       <c r="D57" s="7"/>
-      <c r="E57" s="7" t="s">
-        <v>212</v>
-      </c>
+      <c r="E57" s="7"/>
       <c r="F57" s="7"/>
       <c r="G57" s="7"/>
       <c r="H57" s="7"/>
-      <c r="I57" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="J57" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="K57" s="7" t="s">
-        <v>215</v>
-      </c>
+      <c r="I57" s="7"/>
+      <c r="J57" s="7"/>
+      <c r="K57" s="7"/>
       <c r="L57" s="7"/>
     </row>
     <row r="58" ht="18" customHeight="1" spans="1:12">
       <c r="A58" s="7"/>
       <c r="B58" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="C58" s="8" t="s">
         <v>216</v>
-      </c>
-      <c r="C58" s="8" t="s">
-        <v>217</v>
       </c>
       <c r="D58" s="7"/>
       <c r="E58" s="7" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F58" s="7"/>
       <c r="G58" s="7"/>
       <c r="H58" s="7"/>
       <c r="I58" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="J58" s="7" t="s">
         <v>219</v>
       </c>
-      <c r="J58" s="7"/>
       <c r="K58" s="7" t="s">
         <v>220</v>
       </c>
@@ -3830,47 +3835,49 @@
     </row>
     <row r="59" ht="18" customHeight="1" spans="1:12">
       <c r="A59" s="7"/>
-      <c r="B59" s="7"/>
-      <c r="C59" s="8"/>
+      <c r="B59" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="C59" s="8" t="s">
+        <v>222</v>
+      </c>
       <c r="D59" s="7"/>
-      <c r="E59" s="7"/>
+      <c r="E59" s="7" t="s">
+        <v>223</v>
+      </c>
       <c r="F59" s="7"/>
       <c r="G59" s="7"/>
       <c r="H59" s="7"/>
-      <c r="I59" s="7"/>
+      <c r="I59" s="7" t="s">
+        <v>224</v>
+      </c>
       <c r="J59" s="7"/>
-      <c r="K59" s="7"/>
+      <c r="K59" s="7" t="s">
+        <v>225</v>
+      </c>
       <c r="L59" s="7"/>
     </row>
     <row r="60" ht="18" customHeight="1" spans="1:12">
       <c r="A60" s="7"/>
-      <c r="B60" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="C60" s="8" t="s">
-        <v>222</v>
-      </c>
+      <c r="B60" s="7"/>
+      <c r="C60" s="8"/>
       <c r="D60" s="7"/>
       <c r="E60" s="7"/>
       <c r="F60" s="7"/>
       <c r="G60" s="7"/>
       <c r="H60" s="7"/>
-      <c r="I60" s="7" t="s">
-        <v>223</v>
-      </c>
+      <c r="I60" s="7"/>
       <c r="J60" s="7"/>
-      <c r="K60" s="7" t="s">
-        <v>224</v>
-      </c>
+      <c r="K60" s="7"/>
       <c r="L60" s="7"/>
     </row>
     <row r="61" ht="18" customHeight="1" spans="1:12">
       <c r="A61" s="7"/>
       <c r="B61" s="7" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C61" s="8" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="D61" s="7"/>
       <c r="E61" s="7"/>
@@ -3878,54 +3885,48 @@
       <c r="G61" s="7"/>
       <c r="H61" s="7"/>
       <c r="I61" s="7" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="J61" s="7"/>
-      <c r="K61" s="10" t="s">
-        <v>173</v>
+      <c r="K61" s="7" t="s">
+        <v>229</v>
       </c>
       <c r="L61" s="7"/>
     </row>
     <row r="62" ht="18" customHeight="1" spans="1:12">
       <c r="A62" s="7"/>
-      <c r="B62" s="7"/>
-      <c r="C62" s="8"/>
+      <c r="B62" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="C62" s="8" t="s">
+        <v>231</v>
+      </c>
       <c r="D62" s="7"/>
       <c r="E62" s="7"/>
       <c r="F62" s="7"/>
       <c r="G62" s="7"/>
       <c r="H62" s="7"/>
-      <c r="I62" s="7"/>
+      <c r="I62" s="7" t="s">
+        <v>232</v>
+      </c>
       <c r="J62" s="7"/>
-      <c r="K62" s="7"/>
+      <c r="K62" s="10" t="s">
+        <v>178</v>
+      </c>
       <c r="L62" s="7"/>
     </row>
     <row r="63" ht="18" customHeight="1" spans="1:12">
       <c r="A63" s="7"/>
-      <c r="B63" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="C63" s="8" t="s">
-        <v>229</v>
-      </c>
-      <c r="D63" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="E63" s="7" t="s">
-        <v>229</v>
-      </c>
+      <c r="B63" s="7"/>
+      <c r="C63" s="8"/>
+      <c r="D63" s="7"/>
+      <c r="E63" s="7"/>
       <c r="F63" s="7"/>
       <c r="G63" s="7"/>
       <c r="H63" s="7"/>
-      <c r="I63" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="J63" s="7" t="s">
-        <v>231</v>
-      </c>
-      <c r="K63" s="7" t="s">
-        <v>232</v>
-      </c>
+      <c r="I63" s="7"/>
+      <c r="J63" s="7"/>
+      <c r="K63" s="7"/>
       <c r="L63" s="7"/>
     </row>
     <row r="64" ht="18" customHeight="1" spans="1:12">
@@ -3934,83 +3935,89 @@
         <v>233</v>
       </c>
       <c r="C64" s="8" t="s">
-        <v>229</v>
-      </c>
-      <c r="D64" s="7"/>
+        <v>234</v>
+      </c>
+      <c r="D64" s="7" t="s">
+        <v>24</v>
+      </c>
       <c r="E64" s="7" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="F64" s="7"/>
       <c r="G64" s="7"/>
       <c r="H64" s="7"/>
-      <c r="I64" s="7"/>
-      <c r="J64" s="7"/>
+      <c r="I64" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="J64" s="7" t="s">
+        <v>236</v>
+      </c>
       <c r="K64" s="7" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="L64" s="7"/>
     </row>
     <row r="65" ht="18" customHeight="1" spans="1:12">
       <c r="A65" s="7"/>
       <c r="B65" s="7" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="C65" s="8" t="s">
-        <v>236</v>
-      </c>
-      <c r="D65" s="7" t="s">
-        <v>24</v>
-      </c>
+        <v>234</v>
+      </c>
+      <c r="D65" s="7"/>
       <c r="E65" s="7" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="F65" s="7"/>
       <c r="G65" s="7"/>
       <c r="H65" s="7"/>
-      <c r="I65" s="7" t="s">
-        <v>237</v>
-      </c>
-      <c r="J65" s="7" t="s">
-        <v>231</v>
-      </c>
+      <c r="I65" s="7"/>
+      <c r="J65" s="7"/>
       <c r="K65" s="7" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="L65" s="7"/>
     </row>
     <row r="66" ht="18" customHeight="1" spans="1:12">
       <c r="A66" s="7"/>
       <c r="B66" s="7" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C66" s="8" t="s">
-        <v>236</v>
-      </c>
-      <c r="D66" s="7"/>
-      <c r="E66" s="8" t="s">
-        <v>236</v>
+        <v>241</v>
+      </c>
+      <c r="D66" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E66" s="7" t="s">
+        <v>241</v>
       </c>
       <c r="F66" s="7"/>
       <c r="G66" s="7"/>
       <c r="H66" s="7"/>
-      <c r="I66" s="7"/>
-      <c r="J66" s="7"/>
+      <c r="I66" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="J66" s="7" t="s">
+        <v>236</v>
+      </c>
       <c r="K66" s="7" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="L66" s="7"/>
     </row>
     <row r="67" ht="18" customHeight="1" spans="1:12">
       <c r="A67" s="7"/>
       <c r="B67" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="C67" s="8" t="s">
         <v>241</v>
-      </c>
-      <c r="C67" s="8" t="s">
-        <v>236</v>
       </c>
       <c r="D67" s="7"/>
       <c r="E67" s="8" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="F67" s="7"/>
       <c r="G67" s="7"/>
@@ -4018,34 +4025,40 @@
       <c r="I67" s="7"/>
       <c r="J67" s="7"/>
       <c r="K67" s="7" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="L67" s="7"/>
     </row>
     <row r="68" ht="18" customHeight="1" spans="1:12">
       <c r="A68" s="7"/>
       <c r="B68" s="7" t="s">
-        <v>243</v>
-      </c>
-      <c r="C68" s="12" t="s">
-        <v>244</v>
+        <v>246</v>
+      </c>
+      <c r="C68" s="8" t="s">
+        <v>241</v>
       </c>
       <c r="D68" s="7"/>
-      <c r="E68" s="7"/>
+      <c r="E68" s="8" t="s">
+        <v>241</v>
+      </c>
       <c r="F68" s="7"/>
       <c r="G68" s="7"/>
       <c r="H68" s="7"/>
       <c r="I68" s="7"/>
       <c r="J68" s="7"/>
       <c r="K68" s="7" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="L68" s="7"/>
     </row>
     <row r="69" ht="18" customHeight="1" spans="1:12">
       <c r="A69" s="7"/>
-      <c r="B69" s="7"/>
-      <c r="C69" s="8"/>
+      <c r="B69" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="C69" s="11" t="s">
+        <v>249</v>
+      </c>
       <c r="D69" s="7"/>
       <c r="E69" s="7"/>
       <c r="F69" s="7"/>
@@ -4053,17 +4066,15 @@
       <c r="H69" s="7"/>
       <c r="I69" s="7"/>
       <c r="J69" s="7"/>
-      <c r="K69" s="7"/>
+      <c r="K69" s="7" t="s">
+        <v>250</v>
+      </c>
       <c r="L69" s="7"/>
     </row>
     <row r="70" ht="18" customHeight="1" spans="1:12">
       <c r="A70" s="7"/>
-      <c r="B70" s="7" t="s">
-        <v>246</v>
-      </c>
-      <c r="C70" s="8" t="s">
-        <v>247</v>
-      </c>
+      <c r="B70" s="7"/>
+      <c r="C70" s="8"/>
       <c r="D70" s="7"/>
       <c r="E70" s="7"/>
       <c r="F70" s="7"/>
@@ -4071,18 +4082,16 @@
       <c r="H70" s="7"/>
       <c r="I70" s="7"/>
       <c r="J70" s="7"/>
-      <c r="K70" s="7" t="s">
-        <v>248</v>
-      </c>
+      <c r="K70" s="7"/>
       <c r="L70" s="7"/>
     </row>
     <row r="71" ht="18" customHeight="1" spans="1:12">
       <c r="A71" s="7"/>
       <c r="B71" s="7" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="C71" s="8" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="D71" s="7"/>
       <c r="E71" s="7"/>
@@ -4091,18 +4100,18 @@
       <c r="H71" s="7"/>
       <c r="I71" s="7"/>
       <c r="J71" s="7"/>
-      <c r="K71" s="10" t="s">
-        <v>173</v>
+      <c r="K71" s="7" t="s">
+        <v>253</v>
       </c>
       <c r="L71" s="7"/>
     </row>
     <row r="72" ht="18" customHeight="1" spans="1:12">
       <c r="A72" s="7"/>
       <c r="B72" s="7" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="C72" s="8" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="D72" s="7"/>
       <c r="E72" s="7"/>
@@ -4110,30 +4119,26 @@
       <c r="G72" s="7"/>
       <c r="H72" s="7"/>
       <c r="I72" s="7"/>
+      <c r="J72" s="7"/>
       <c r="K72" s="10" t="s">
-        <v>248</v>
+        <v>178</v>
       </c>
       <c r="L72" s="7"/>
     </row>
     <row r="73" ht="18" customHeight="1" spans="1:12">
       <c r="A73" s="7"/>
-      <c r="B73" s="8" t="s">
-        <v>253</v>
+      <c r="B73" s="7" t="s">
+        <v>256</v>
       </c>
       <c r="C73" s="8" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="D73" s="7"/>
       <c r="E73" s="7"/>
       <c r="F73" s="7"/>
       <c r="G73" s="7"/>
       <c r="H73" s="7"/>
-      <c r="I73" s="7" t="s">
-        <v>255</v>
-      </c>
-      <c r="J73" s="2" t="s">
-        <v>256</v>
-      </c>
+      <c r="I73" s="7"/>
       <c r="K73" s="10" t="s">
         <v>253</v>
       </c>
@@ -4141,73 +4146,77 @@
     </row>
     <row r="74" ht="18" customHeight="1" spans="1:12">
       <c r="A74" s="7"/>
-      <c r="B74" s="7" t="s">
-        <v>257</v>
-      </c>
-      <c r="C74" s="11" t="s">
+      <c r="B74" s="8" t="s">
         <v>258</v>
+      </c>
+      <c r="C74" s="8" t="s">
+        <v>259</v>
       </c>
       <c r="D74" s="7"/>
       <c r="E74" s="7"/>
       <c r="F74" s="7"/>
       <c r="G74" s="7"/>
       <c r="H74" s="7"/>
-      <c r="I74" s="7"/>
-      <c r="J74" s="7"/>
+      <c r="I74" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="J74" s="2" t="s">
+        <v>261</v>
+      </c>
       <c r="K74" s="10" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="L74" s="7"/>
     </row>
     <row r="75" ht="18" customHeight="1" spans="1:12">
       <c r="A75" s="7"/>
       <c r="B75" s="7" t="s">
-        <v>260</v>
-      </c>
-      <c r="C75" s="8" t="s">
-        <v>261</v>
+        <v>262</v>
+      </c>
+      <c r="C75" s="11" t="s">
+        <v>263</v>
       </c>
       <c r="D75" s="7"/>
       <c r="E75" s="7"/>
       <c r="F75" s="7"/>
       <c r="G75" s="7"/>
       <c r="H75" s="7"/>
-      <c r="I75" s="7" t="s">
-        <v>262</v>
-      </c>
+      <c r="I75" s="7"/>
       <c r="J75" s="7"/>
       <c r="K75" s="10" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="L75" s="7"/>
     </row>
     <row r="76" ht="18" customHeight="1" spans="1:12">
       <c r="A76" s="7"/>
       <c r="B76" s="7" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C76" s="8" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D76" s="7"/>
       <c r="E76" s="7"/>
       <c r="F76" s="7"/>
       <c r="G76" s="7"/>
       <c r="H76" s="7"/>
-      <c r="I76" s="7"/>
+      <c r="I76" s="7" t="s">
+        <v>267</v>
+      </c>
       <c r="J76" s="7"/>
       <c r="K76" s="10" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="L76" s="7"/>
     </row>
     <row r="77" ht="18" customHeight="1" spans="1:12">
       <c r="A77" s="7"/>
-      <c r="B77" s="10" t="s">
-        <v>267</v>
+      <c r="B77" s="7" t="s">
+        <v>269</v>
       </c>
       <c r="C77" s="8" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="D77" s="7"/>
       <c r="E77" s="7"/>
@@ -4217,58 +4226,62 @@
       <c r="I77" s="7"/>
       <c r="J77" s="7"/>
       <c r="K77" s="10" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="L77" s="7"/>
     </row>
     <row r="78" ht="18" customHeight="1" spans="1:12">
       <c r="A78" s="7"/>
-      <c r="B78" s="7" t="s">
-        <v>270</v>
+      <c r="B78" s="10" t="s">
+        <v>272</v>
       </c>
       <c r="C78" s="8" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="D78" s="7"/>
-      <c r="E78" s="7" t="s">
-        <v>272</v>
-      </c>
+      <c r="E78" s="7"/>
       <c r="F78" s="7"/>
       <c r="G78" s="7"/>
       <c r="H78" s="7"/>
       <c r="I78" s="7"/>
-      <c r="J78" s="7" t="s">
-        <v>273</v>
-      </c>
-      <c r="K78" s="7" t="s">
-        <v>266</v>
+      <c r="J78" s="7"/>
+      <c r="K78" s="10" t="s">
+        <v>274</v>
       </c>
       <c r="L78" s="7"/>
     </row>
     <row r="79" ht="18" customHeight="1" spans="1:12">
       <c r="A79" s="7"/>
       <c r="B79" s="7" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="C79" s="8" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="D79" s="7"/>
-      <c r="E79" s="7"/>
+      <c r="E79" s="7" t="s">
+        <v>277</v>
+      </c>
       <c r="F79" s="7"/>
       <c r="G79" s="7"/>
       <c r="H79" s="7"/>
       <c r="I79" s="7"/>
-      <c r="J79" s="7"/>
+      <c r="J79" s="7" t="s">
+        <v>278</v>
+      </c>
       <c r="K79" s="7" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="L79" s="7"/>
     </row>
     <row r="80" ht="18" customHeight="1" spans="1:12">
       <c r="A80" s="7"/>
-      <c r="B80" s="7"/>
-      <c r="C80" s="8"/>
+      <c r="B80" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="C80" s="8" t="s">
+        <v>280</v>
+      </c>
       <c r="D80" s="7"/>
       <c r="E80" s="7"/>
       <c r="F80" s="7"/>
@@ -4276,17 +4289,15 @@
       <c r="H80" s="7"/>
       <c r="I80" s="7"/>
       <c r="J80" s="7"/>
-      <c r="K80" s="7"/>
+      <c r="K80" s="7" t="s">
+        <v>281</v>
+      </c>
       <c r="L80" s="7"/>
     </row>
     <row r="81" ht="18" customHeight="1" spans="1:12">
       <c r="A81" s="7"/>
-      <c r="B81" s="7" t="s">
-        <v>277</v>
-      </c>
-      <c r="C81" s="8" t="s">
-        <v>278</v>
-      </c>
+      <c r="B81" s="7"/>
+      <c r="C81" s="8"/>
       <c r="D81" s="7"/>
       <c r="E81" s="7"/>
       <c r="F81" s="7"/>
@@ -4294,15 +4305,17 @@
       <c r="H81" s="7"/>
       <c r="I81" s="7"/>
       <c r="J81" s="7"/>
-      <c r="K81" s="7" t="s">
-        <v>279</v>
-      </c>
+      <c r="K81" s="7"/>
       <c r="L81" s="7"/>
     </row>
     <row r="82" ht="18" customHeight="1" spans="1:12">
       <c r="A82" s="7"/>
-      <c r="B82" s="7"/>
-      <c r="C82" s="8"/>
+      <c r="B82" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="C82" s="8" t="s">
+        <v>283</v>
+      </c>
       <c r="D82" s="7"/>
       <c r="E82" s="7"/>
       <c r="F82" s="7"/>
@@ -4310,17 +4323,15 @@
       <c r="H82" s="7"/>
       <c r="I82" s="7"/>
       <c r="J82" s="7"/>
-      <c r="K82" s="7"/>
+      <c r="K82" s="7" t="s">
+        <v>284</v>
+      </c>
       <c r="L82" s="7"/>
     </row>
     <row r="83" ht="18" customHeight="1" spans="1:12">
       <c r="A83" s="7"/>
-      <c r="B83" s="7" t="s">
-        <v>280</v>
-      </c>
-      <c r="C83" s="8" t="s">
-        <v>281</v>
-      </c>
+      <c r="B83" s="7"/>
+      <c r="C83" s="8"/>
       <c r="D83" s="7"/>
       <c r="E83" s="7"/>
       <c r="F83" s="7"/>
@@ -4328,15 +4339,17 @@
       <c r="H83" s="7"/>
       <c r="I83" s="7"/>
       <c r="J83" s="7"/>
-      <c r="K83" s="7" t="s">
-        <v>282</v>
-      </c>
+      <c r="K83" s="7"/>
       <c r="L83" s="7"/>
     </row>
     <row r="84" ht="18" customHeight="1" spans="1:12">
       <c r="A84" s="7"/>
-      <c r="B84" s="7"/>
-      <c r="C84" s="8"/>
+      <c r="B84" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="C84" s="8" t="s">
+        <v>286</v>
+      </c>
       <c r="D84" s="7"/>
       <c r="E84" s="7"/>
       <c r="F84" s="7"/>
@@ -4344,151 +4357,153 @@
       <c r="H84" s="7"/>
       <c r="I84" s="7"/>
       <c r="J84" s="7"/>
-      <c r="K84" s="7"/>
+      <c r="K84" s="7" t="s">
+        <v>287</v>
+      </c>
       <c r="L84" s="7"/>
     </row>
     <row r="85" ht="18" customHeight="1" spans="1:12">
       <c r="A85" s="7"/>
-      <c r="B85" s="7" t="s">
-        <v>283</v>
-      </c>
-      <c r="C85" s="8" t="s">
-        <v>284</v>
-      </c>
+      <c r="B85" s="7"/>
+      <c r="C85" s="8"/>
       <c r="D85" s="7"/>
-      <c r="E85" s="7" t="s">
-        <v>285</v>
-      </c>
+      <c r="E85" s="7"/>
       <c r="F85" s="7"/>
       <c r="G85" s="7"/>
       <c r="H85" s="7"/>
-      <c r="I85" s="7" t="s">
-        <v>285</v>
-      </c>
-      <c r="J85" s="7" t="s">
-        <v>286</v>
-      </c>
-      <c r="K85" s="7" t="s">
-        <v>287</v>
-      </c>
-      <c r="L85" s="13" t="s">
-        <v>288</v>
-      </c>
+      <c r="I85" s="7"/>
+      <c r="J85" s="7"/>
+      <c r="K85" s="7"/>
+      <c r="L85" s="7"/>
     </row>
     <row r="86" ht="18" customHeight="1" spans="1:12">
       <c r="A86" s="7"/>
       <c r="B86" s="7" t="s">
-        <v>283</v>
+        <v>288</v>
       </c>
       <c r="C86" s="8" t="s">
         <v>289</v>
       </c>
       <c r="D86" s="7"/>
       <c r="E86" s="7" t="s">
-        <v>285</v>
+        <v>290</v>
       </c>
       <c r="F86" s="7"/>
       <c r="G86" s="7"/>
       <c r="H86" s="7"/>
       <c r="I86" s="7" t="s">
-        <v>285</v>
+        <v>290</v>
       </c>
       <c r="J86" s="7" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="K86" s="7" t="s">
-        <v>287</v>
-      </c>
-      <c r="L86" s="14" t="s">
-        <v>291</v>
+        <v>292</v>
+      </c>
+      <c r="L86" s="12" t="s">
+        <v>293</v>
       </c>
     </row>
     <row r="87" ht="18" customHeight="1" spans="1:12">
       <c r="A87" s="7"/>
       <c r="B87" s="7" t="s">
-        <v>283</v>
+        <v>288</v>
       </c>
       <c r="C87" s="8" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="D87" s="7"/>
-      <c r="E87" s="7"/>
+      <c r="E87" s="7" t="s">
+        <v>290</v>
+      </c>
       <c r="F87" s="7"/>
       <c r="G87" s="7"/>
       <c r="H87" s="7"/>
       <c r="I87" s="7" t="s">
-        <v>285</v>
+        <v>290</v>
       </c>
       <c r="J87" s="7" t="s">
-        <v>286</v>
+        <v>295</v>
       </c>
       <c r="K87" s="7" t="s">
-        <v>293</v>
-      </c>
-      <c r="L87" s="14" t="s">
-        <v>294</v>
+        <v>292</v>
+      </c>
+      <c r="L87" s="13" t="s">
+        <v>296</v>
       </c>
     </row>
     <row r="88" ht="18" customHeight="1" spans="1:12">
       <c r="A88" s="7"/>
       <c r="B88" s="7" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="C88" s="8" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="D88" s="7"/>
-      <c r="E88" s="7" t="s">
-        <v>285</v>
-      </c>
+      <c r="E88" s="7"/>
       <c r="F88" s="7"/>
       <c r="G88" s="7"/>
       <c r="H88" s="7"/>
       <c r="I88" s="7" t="s">
-        <v>285</v>
-      </c>
-      <c r="J88" s="7"/>
+        <v>290</v>
+      </c>
+      <c r="J88" s="7" t="s">
+        <v>291</v>
+      </c>
       <c r="K88" s="7" t="s">
-        <v>297</v>
-      </c>
-      <c r="L88" s="7"/>
+        <v>298</v>
+      </c>
+      <c r="L88" s="13" t="s">
+        <v>299</v>
+      </c>
     </row>
     <row r="89" ht="18" customHeight="1" spans="1:12">
       <c r="A89" s="7"/>
       <c r="B89" s="7" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="C89" s="8" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="D89" s="7"/>
       <c r="E89" s="7" t="s">
-        <v>285</v>
+        <v>290</v>
       </c>
       <c r="F89" s="7"/>
       <c r="G89" s="7"/>
       <c r="H89" s="7"/>
       <c r="I89" s="7" t="s">
-        <v>285</v>
+        <v>290</v>
       </c>
       <c r="J89" s="7"/>
       <c r="K89" s="7" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="L89" s="7"/>
     </row>
     <row r="90" ht="18" customHeight="1" spans="1:12">
       <c r="A90" s="7"/>
-      <c r="B90" s="7"/>
-      <c r="C90" s="8"/>
+      <c r="B90" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="C90" s="8" t="s">
+        <v>304</v>
+      </c>
       <c r="D90" s="7"/>
-      <c r="E90" s="7"/>
+      <c r="E90" s="7" t="s">
+        <v>290</v>
+      </c>
       <c r="F90" s="7"/>
       <c r="G90" s="7"/>
       <c r="H90" s="7"/>
-      <c r="I90" s="7"/>
+      <c r="I90" s="7" t="s">
+        <v>290</v>
+      </c>
       <c r="J90" s="7"/>
-      <c r="K90" s="7"/>
+      <c r="K90" s="7" t="s">
+        <v>305</v>
+      </c>
       <c r="L90" s="7"/>
     </row>
     <row r="91" ht="18" customHeight="1" spans="1:12">
@@ -4507,53 +4522,47 @@
     </row>
     <row r="92" ht="18" customHeight="1" spans="1:12">
       <c r="A92" s="7"/>
-      <c r="B92" s="10" t="s">
-        <v>301</v>
-      </c>
-      <c r="C92" s="11" t="s">
-        <v>302</v>
-      </c>
+      <c r="B92" s="7"/>
+      <c r="C92" s="8"/>
       <c r="D92" s="7"/>
       <c r="E92" s="7"/>
       <c r="F92" s="7"/>
       <c r="G92" s="7"/>
       <c r="H92" s="7"/>
-      <c r="I92" s="10" t="s">
-        <v>303</v>
-      </c>
+      <c r="I92" s="7"/>
       <c r="J92" s="7"/>
-      <c r="K92" s="10" t="s">
-        <v>303</v>
-      </c>
+      <c r="K92" s="7"/>
       <c r="L92" s="7"/>
     </row>
     <row r="93" ht="18" customHeight="1" spans="1:12">
       <c r="A93" s="7"/>
-      <c r="B93" s="7" t="s">
-        <v>304</v>
-      </c>
-      <c r="C93" s="8" t="s">
-        <v>305</v>
+      <c r="B93" s="10" t="s">
+        <v>306</v>
+      </c>
+      <c r="C93" s="11" t="s">
+        <v>307</v>
       </c>
       <c r="D93" s="7"/>
       <c r="E93" s="7"/>
       <c r="F93" s="7"/>
       <c r="G93" s="7"/>
       <c r="H93" s="7"/>
-      <c r="I93" s="7"/>
+      <c r="I93" s="10" t="s">
+        <v>308</v>
+      </c>
       <c r="J93" s="7"/>
       <c r="K93" s="10" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="L93" s="7"/>
     </row>
     <row r="94" ht="18" customHeight="1" spans="1:12">
       <c r="A94" s="7"/>
       <c r="B94" s="7" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="C94" s="8" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="D94" s="7"/>
       <c r="E94" s="7"/>
@@ -4562,16 +4571,18 @@
       <c r="H94" s="7"/>
       <c r="I94" s="7"/>
       <c r="J94" s="7"/>
-      <c r="K94" s="7"/>
+      <c r="K94" s="10" t="s">
+        <v>311</v>
+      </c>
       <c r="L94" s="7"/>
     </row>
     <row r="95" ht="18" customHeight="1" spans="1:12">
       <c r="A95" s="7"/>
       <c r="B95" s="7" t="s">
-        <v>309</v>
-      </c>
-      <c r="C95" s="11" t="s">
-        <v>310</v>
+        <v>312</v>
+      </c>
+      <c r="C95" s="8" t="s">
+        <v>313</v>
       </c>
       <c r="D95" s="7"/>
       <c r="E95" s="7"/>
@@ -4580,18 +4591,16 @@
       <c r="H95" s="7"/>
       <c r="I95" s="7"/>
       <c r="J95" s="7"/>
-      <c r="K95" s="7" t="s">
-        <v>309</v>
-      </c>
+      <c r="K95" s="7"/>
       <c r="L95" s="7"/>
     </row>
     <row r="96" ht="18" customHeight="1" spans="1:12">
       <c r="A96" s="7"/>
       <c r="B96" s="7" t="s">
-        <v>311</v>
-      </c>
-      <c r="C96" s="8" t="s">
-        <v>312</v>
+        <v>314</v>
+      </c>
+      <c r="C96" s="11" t="s">
+        <v>315</v>
       </c>
       <c r="D96" s="7"/>
       <c r="E96" s="7"/>
@@ -4600,76 +4609,74 @@
       <c r="H96" s="7"/>
       <c r="I96" s="7"/>
       <c r="J96" s="7"/>
-      <c r="K96" s="10" t="s">
-        <v>313</v>
+      <c r="K96" s="7" t="s">
+        <v>314</v>
       </c>
       <c r="L96" s="7"/>
     </row>
     <row r="97" ht="18" customHeight="1" spans="1:12">
       <c r="A97" s="7"/>
-      <c r="B97" s="10" t="s">
-        <v>314</v>
-      </c>
-      <c r="C97" s="11" t="s">
-        <v>315</v>
+      <c r="B97" s="7" t="s">
+        <v>316</v>
+      </c>
+      <c r="C97" s="8" t="s">
+        <v>317</v>
       </c>
       <c r="D97" s="7"/>
       <c r="E97" s="7"/>
       <c r="F97" s="7"/>
       <c r="G97" s="7"/>
       <c r="H97" s="7"/>
-      <c r="I97" s="7" t="s">
-        <v>316</v>
-      </c>
+      <c r="I97" s="7"/>
       <c r="J97" s="7"/>
-      <c r="K97" s="7" t="s">
-        <v>316</v>
+      <c r="K97" s="10" t="s">
+        <v>318</v>
       </c>
       <c r="L97" s="7"/>
     </row>
     <row r="98" ht="18" customHeight="1" spans="1:12">
       <c r="A98" s="7"/>
-      <c r="B98" s="7"/>
-      <c r="C98" s="8"/>
+      <c r="B98" s="10" t="s">
+        <v>319</v>
+      </c>
+      <c r="C98" s="11" t="s">
+        <v>320</v>
+      </c>
       <c r="D98" s="7"/>
       <c r="E98" s="7"/>
       <c r="F98" s="7"/>
       <c r="G98" s="7"/>
       <c r="H98" s="7"/>
-      <c r="I98" s="7"/>
+      <c r="I98" s="7" t="s">
+        <v>321</v>
+      </c>
       <c r="J98" s="7"/>
-      <c r="K98" s="7"/>
+      <c r="K98" s="7" t="s">
+        <v>321</v>
+      </c>
       <c r="L98" s="7"/>
     </row>
     <row r="99" ht="18" customHeight="1" spans="1:12">
       <c r="A99" s="7"/>
-      <c r="B99" s="7" t="s">
-        <v>317</v>
-      </c>
-      <c r="C99" s="8" t="s">
-        <v>318</v>
-      </c>
+      <c r="B99" s="7"/>
+      <c r="C99" s="8"/>
       <c r="D99" s="7"/>
       <c r="E99" s="7"/>
       <c r="F99" s="7"/>
       <c r="G99" s="7"/>
       <c r="H99" s="7"/>
-      <c r="I99" s="7" t="s">
-        <v>319</v>
-      </c>
+      <c r="I99" s="7"/>
       <c r="J99" s="7"/>
-      <c r="K99" s="7" t="s">
-        <v>320</v>
-      </c>
+      <c r="K99" s="7"/>
       <c r="L99" s="7"/>
     </row>
     <row r="100" ht="18" customHeight="1" spans="1:12">
       <c r="A100" s="7"/>
       <c r="B100" s="7" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="C100" s="8" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="D100" s="7"/>
       <c r="E100" s="7"/>
@@ -4677,26 +4684,34 @@
       <c r="G100" s="7"/>
       <c r="H100" s="7"/>
       <c r="I100" s="7" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="J100" s="7"/>
       <c r="K100" s="7" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="L100" s="7"/>
     </row>
     <row r="101" ht="18" customHeight="1" spans="1:12">
       <c r="A101" s="7"/>
-      <c r="B101" s="7"/>
-      <c r="C101" s="8"/>
+      <c r="B101" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="C101" s="8" t="s">
+        <v>327</v>
+      </c>
       <c r="D101" s="7"/>
       <c r="E101" s="7"/>
       <c r="F101" s="7"/>
       <c r="G101" s="7"/>
       <c r="H101" s="7"/>
-      <c r="I101" s="7"/>
+      <c r="I101" s="7" t="s">
+        <v>328</v>
+      </c>
       <c r="J101" s="7"/>
-      <c r="K101" s="7"/>
+      <c r="K101" s="7" t="s">
+        <v>329</v>
+      </c>
       <c r="L101" s="7"/>
     </row>
     <row r="102" ht="18" customHeight="1" spans="1:12">
@@ -5595,10 +5610,24 @@
       <c r="K165" s="7"/>
       <c r="L165" s="7"/>
     </row>
+    <row r="166" ht="18" customHeight="1" spans="1:12">
+      <c r="A166" s="7"/>
+      <c r="B166" s="7"/>
+      <c r="C166" s="8"/>
+      <c r="D166" s="7"/>
+      <c r="E166" s="7"/>
+      <c r="F166" s="7"/>
+      <c r="G166" s="7"/>
+      <c r="H166" s="7"/>
+      <c r="I166" s="7"/>
+      <c r="J166" s="7"/>
+      <c r="K166" s="7"/>
+      <c r="L166" s="7"/>
+    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="L85" r:id="rId3" display="https://item.szlcsc.com/87756.html" tooltip="https://item.szlcsc.com/87756.html"/>
-    <hyperlink ref="L86" r:id="rId4" display="https://item.szlcsc.com/136348.html"/>
+    <hyperlink ref="L86" r:id="rId3" display="https://item.szlcsc.com/87756.html" tooltip="https://item.szlcsc.com/87756.html"/>
+    <hyperlink ref="L87" r:id="rId4" display="https://item.szlcsc.com/136348.html"/>
   </hyperlinks>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/物料索引.xlsx
+++ b/物料索引.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540"/>
+    <workbookView windowWidth="28695" windowHeight="14070"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -88,7 +88,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353">
   <si>
     <t>物料编码</t>
   </si>
@@ -489,13 +489,22 @@
     <t>MOVs_14MM</t>
   </si>
   <si>
+    <t>ME3220</t>
+  </si>
+  <si>
+    <t>39uH 1.24Ohm</t>
+  </si>
+  <si>
+    <t>电感</t>
+  </si>
+  <si>
+    <t>39uH</t>
+  </si>
+  <si>
     <t>SDR0302-4R7ML</t>
   </si>
   <si>
     <t>4.7uH,1.2A,150m欧</t>
-  </si>
-  <si>
-    <t>电感</t>
   </si>
   <si>
     <t>4.7uH</t>
@@ -734,6 +743,27 @@
     <t>SC88_SC70-6_SOT-363</t>
   </si>
   <si>
+    <t>UB2-5NU-L</t>
+  </si>
+  <si>
+    <t>双刀双掷继电器 SMT贴片 5VDC，触电电流1A</t>
+  </si>
+  <si>
+    <t>RL_SMD_420x260</t>
+  </si>
+  <si>
+    <t>AD8599ARZ</t>
+  </si>
+  <si>
+    <t>OP</t>
+  </si>
+  <si>
+    <t>TI</t>
+  </si>
+  <si>
+    <t>R_8</t>
+  </si>
+  <si>
     <t>NUP4202W1</t>
   </si>
   <si>
@@ -799,27 +829,6 @@
     <t>RF变压器</t>
   </si>
   <si>
-    <t>RAC60-24SB</t>
-  </si>
-  <si>
-    <t>220VAC-24VDC模块，可微调输出，60W，短路保护，800元</t>
-  </si>
-  <si>
-    <t>AC/DC</t>
-  </si>
-  <si>
-    <t>60W</t>
-  </si>
-  <si>
-    <t>109*58</t>
-  </si>
-  <si>
-    <t>POWERLINE</t>
-  </si>
-  <si>
-    <t>RAC60-SB</t>
-  </si>
-  <si>
     <t xml:space="preserve">TXC 7A晶体 </t>
   </si>
   <si>
@@ -853,6 +862,15 @@
     <t>XTAL_2P_3215</t>
   </si>
   <si>
+    <t>LM334Z/NOPB</t>
+  </si>
+  <si>
+    <t>3端子可调节电流源</t>
+  </si>
+  <si>
+    <t>to_92_m</t>
+  </si>
+  <si>
     <t>LM340S-5.0/NOPB</t>
   </si>
   <si>
@@ -874,12 +892,21 @@
     <t>SOT23-3</t>
   </si>
   <si>
+    <t>LM43601PWPT</t>
+  </si>
+  <si>
+    <t>DCDC 3.5-36 1A DCDC降压</t>
+  </si>
+  <si>
+    <t>DCDC</t>
+  </si>
+  <si>
+    <t>PWP0016F</t>
+  </si>
+  <si>
     <t>LT3976IMSE#PBF</t>
   </si>
   <si>
-    <t>DCDC</t>
-  </si>
-  <si>
     <t>msop-16</t>
   </si>
   <si>
@@ -908,9 +935,6 @@
   </si>
   <si>
     <t>MIC39102BM</t>
-  </si>
-  <si>
-    <t>R_8</t>
   </si>
   <si>
     <t>MIC5309-1.2YD6</t>
@@ -945,6 +969,36 @@
     <t>DRC0010J</t>
   </si>
   <si>
+    <t>S12IS24-1W</t>
+  </si>
+  <si>
+    <t>DCDC升压 12-24</t>
+  </si>
+  <si>
+    <t>S12IS24_1W</t>
+  </si>
+  <si>
+    <t>RAC60-24SB</t>
+  </si>
+  <si>
+    <t>220VAC-24VDC模块，可微调输出，60W，短路保护，800元</t>
+  </si>
+  <si>
+    <t>AC/DC</t>
+  </si>
+  <si>
+    <t>60W</t>
+  </si>
+  <si>
+    <t>109*58</t>
+  </si>
+  <si>
+    <t>POWERLINE</t>
+  </si>
+  <si>
+    <t>RAC60-SB</t>
+  </si>
+  <si>
     <t>MAX13487EE</t>
   </si>
   <si>
@@ -1192,6 +1246,21 @@
     <t>tf-015</t>
   </si>
   <si>
+    <t>2*32P SMT连接器</t>
+  </si>
+  <si>
+    <t>板对板插座 1.0mm间距 64P 2*32P SMT贴片公座母座</t>
+  </si>
+  <si>
+    <t>板对板连接器</t>
+  </si>
+  <si>
+    <t>64PIN_SMD_CC</t>
+  </si>
+  <si>
+    <t>64PIN_SMD_CC(底座)/64PIN_SMD_MC(插头)</t>
+  </si>
+  <si>
     <t>7K325TFFG676</t>
   </si>
   <si>
@@ -1221,10 +1290,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -1259,7 +1328,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1281,52 +1358,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1356,9 +1388,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1380,6 +1434,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -1408,7 +1477,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1420,7 +1513,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1432,55 +1615,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1498,85 +1633,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1611,21 +1680,25 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -1642,21 +1715,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1685,17 +1743,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1708,6 +1766,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1716,149 +1785,149 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1889,11 +1958,17 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="10" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
@@ -2249,12 +2324,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L166"/>
+  <dimension ref="A1:L174"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="3" topLeftCell="A34" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="K35" sqref="K35"/>
+      <selection pane="bottomLeft" activeCell="C53" sqref="C53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3206,7 +3281,7 @@
       <c r="B32" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="C32" s="8" t="s">
+      <c r="C32" s="10" t="s">
         <v>134</v>
       </c>
       <c r="D32" s="7"/>
@@ -3216,60 +3291,54 @@
       <c r="F32" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="G32" s="7" t="s">
-        <v>137</v>
-      </c>
+      <c r="G32" s="7"/>
       <c r="H32" s="7"/>
       <c r="I32" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="J32" s="8" t="s">
-        <v>123</v>
-      </c>
-      <c r="K32" s="8" t="s">
-        <v>138</v>
+      <c r="J32" s="7"/>
+      <c r="K32" s="13" t="s">
+        <v>133</v>
       </c>
       <c r="L32" s="7"/>
     </row>
     <row r="33" ht="18" customHeight="1" spans="1:12">
       <c r="A33" s="7"/>
-      <c r="B33" s="10" t="s">
-        <v>139</v>
+      <c r="B33" s="7" t="s">
+        <v>137</v>
       </c>
       <c r="C33" s="8" t="s">
-        <v>140</v>
-      </c>
-      <c r="D33" s="7" t="s">
-        <v>24</v>
-      </c>
+        <v>138</v>
+      </c>
+      <c r="D33" s="7"/>
       <c r="E33" s="7" t="s">
         <v>135</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="H33" s="7"/>
       <c r="I33" s="7" t="s">
-        <v>143</v>
+        <v>122</v>
       </c>
       <c r="J33" s="8" t="s">
         <v>123</v>
       </c>
       <c r="K33" s="8" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="L33" s="7"/>
     </row>
     <row r="34" ht="18" customHeight="1" spans="1:12">
       <c r="A34" s="7"/>
-      <c r="B34" s="7" t="s">
-        <v>145</v>
+      <c r="B34" s="11" t="s">
+        <v>142</v>
       </c>
       <c r="C34" s="8" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="D34" s="7" t="s">
         <v>24</v>
@@ -3278,30 +3347,30 @@
         <v>135</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="H34" s="7"/>
       <c r="I34" s="7" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="J34" s="8" t="s">
-        <v>149</v>
+        <v>123</v>
       </c>
       <c r="K34" s="8" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="L34" s="7"/>
     </row>
     <row r="35" ht="18" customHeight="1" spans="1:12">
       <c r="A35" s="7"/>
       <c r="B35" s="7" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C35" s="8" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D35" s="7" t="s">
         <v>24</v>
@@ -3310,20 +3379,20 @@
         <v>135</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>141</v>
+        <v>150</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H35" s="7"/>
       <c r="I35" s="7" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="J35" s="8" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="K35" s="8" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="L35" s="7"/>
     </row>
@@ -3342,113 +3411,119 @@
         <v>135</v>
       </c>
       <c r="F36" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="G36" s="7" t="s">
         <v>155</v>
-      </c>
-      <c r="G36" s="7" t="s">
-        <v>156</v>
       </c>
       <c r="H36" s="7"/>
       <c r="I36" s="7" t="s">
-        <v>157</v>
+        <v>146</v>
       </c>
       <c r="J36" s="8" t="s">
-        <v>123</v>
+        <v>152</v>
       </c>
       <c r="K36" s="8" t="s">
-        <v>158</v>
+        <v>147</v>
       </c>
       <c r="L36" s="7"/>
     </row>
     <row r="37" ht="18" customHeight="1" spans="1:12">
       <c r="A37" s="7"/>
       <c r="B37" s="7" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="C37" s="8" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="D37" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="E37" s="8" t="s">
-        <v>161</v>
+      <c r="E37" s="7" t="s">
+        <v>135</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="G37" s="7"/>
+        <v>158</v>
+      </c>
+      <c r="G37" s="7" t="s">
+        <v>159</v>
+      </c>
       <c r="H37" s="7"/>
       <c r="I37" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="J37" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="K37" s="9" t="s">
-        <v>164</v>
+        <v>160</v>
+      </c>
+      <c r="J37" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="K37" s="8" t="s">
+        <v>161</v>
       </c>
       <c r="L37" s="7"/>
     </row>
     <row r="38" ht="18" customHeight="1" spans="1:12">
       <c r="A38" s="7"/>
-      <c r="B38" s="7"/>
-      <c r="C38" s="8"/>
-      <c r="D38" s="7"/>
-      <c r="E38" s="7"/>
-      <c r="F38" s="7"/>
+      <c r="B38" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="C38" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="D38" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E38" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="F38" s="7" t="s">
+        <v>165</v>
+      </c>
       <c r="G38" s="7"/>
       <c r="H38" s="7"/>
-      <c r="I38" s="7"/>
-      <c r="J38" s="7"/>
-      <c r="K38" s="7"/>
+      <c r="I38" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="J38" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="K38" s="9" t="s">
+        <v>167</v>
+      </c>
       <c r="L38" s="7"/>
     </row>
     <row r="39" ht="18" customHeight="1" spans="1:12">
       <c r="A39" s="7"/>
-      <c r="B39" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="C39" s="11" t="s">
-        <v>166</v>
-      </c>
+      <c r="B39" s="7"/>
+      <c r="C39" s="8"/>
       <c r="D39" s="7"/>
-      <c r="E39" s="7" t="s">
-        <v>167</v>
-      </c>
+      <c r="E39" s="7"/>
       <c r="F39" s="7"/>
       <c r="G39" s="7"/>
       <c r="H39" s="7"/>
       <c r="I39" s="7"/>
-      <c r="J39" s="7" t="s">
-        <v>168</v>
-      </c>
+      <c r="J39" s="7"/>
       <c r="K39" s="7"/>
       <c r="L39" s="7"/>
     </row>
     <row r="40" ht="18" customHeight="1" spans="1:12">
       <c r="A40" s="7"/>
       <c r="B40" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="C40" s="12" t="s">
         <v>169</v>
       </c>
-      <c r="C40" s="11" t="s">
+      <c r="D40" s="7"/>
+      <c r="E40" s="7" t="s">
         <v>170</v>
-      </c>
-      <c r="D40" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="E40" s="7" t="s">
-        <v>167</v>
       </c>
       <c r="F40" s="7"/>
       <c r="G40" s="7"/>
       <c r="H40" s="7"/>
       <c r="I40" s="7"/>
       <c r="J40" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="K40" s="7" t="s">
         <v>171</v>
       </c>
+      <c r="K40" s="7"/>
       <c r="L40" s="7"/>
     </row>
     <row r="41" ht="18" customHeight="1" spans="1:12">
@@ -3456,49 +3531,59 @@
       <c r="B41" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="C41" s="8" t="s">
+      <c r="C41" s="12" t="s">
         <v>173</v>
       </c>
-      <c r="D41" s="7"/>
+      <c r="D41" s="7" t="s">
+        <v>24</v>
+      </c>
       <c r="E41" s="7" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="F41" s="7"/>
       <c r="G41" s="7"/>
       <c r="H41" s="7"/>
-      <c r="I41" s="7" t="s">
+      <c r="I41" s="7"/>
+      <c r="J41" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="K41" s="7" t="s">
         <v>174</v>
       </c>
-      <c r="J41" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="K41" s="7"/>
       <c r="L41" s="7"/>
     </row>
     <row r="42" ht="18" customHeight="1" spans="1:12">
       <c r="A42" s="7"/>
       <c r="B42" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="C42" s="8" t="s">
         <v>176</v>
       </c>
-      <c r="C42" s="8" t="s">
-        <v>177</v>
-      </c>
       <c r="D42" s="7"/>
-      <c r="E42" s="7"/>
+      <c r="E42" s="7" t="s">
+        <v>170</v>
+      </c>
       <c r="F42" s="7"/>
       <c r="G42" s="7"/>
       <c r="H42" s="7"/>
-      <c r="I42" s="7"/>
-      <c r="J42" s="7"/>
-      <c r="K42" s="10" t="s">
+      <c r="I42" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="J42" s="7" t="s">
         <v>178</v>
       </c>
+      <c r="K42" s="7"/>
       <c r="L42" s="7"/>
     </row>
     <row r="43" ht="18" customHeight="1" spans="1:12">
       <c r="A43" s="7"/>
-      <c r="B43" s="7"/>
-      <c r="C43" s="8"/>
+      <c r="B43" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="C43" s="8" t="s">
+        <v>180</v>
+      </c>
       <c r="D43" s="7"/>
       <c r="E43" s="7"/>
       <c r="F43" s="7"/>
@@ -3506,122 +3591,116 @@
       <c r="H43" s="7"/>
       <c r="I43" s="7"/>
       <c r="J43" s="7"/>
-      <c r="K43" s="7"/>
+      <c r="K43" s="11" t="s">
+        <v>181</v>
+      </c>
       <c r="L43" s="7"/>
     </row>
     <row r="44" ht="18" customHeight="1" spans="1:12">
       <c r="A44" s="7"/>
-      <c r="B44" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="C44" s="8" t="s">
-        <v>180</v>
-      </c>
+      <c r="B44" s="7"/>
+      <c r="C44" s="8"/>
       <c r="D44" s="7"/>
       <c r="E44" s="7"/>
       <c r="F44" s="7"/>
       <c r="G44" s="7"/>
       <c r="H44" s="7"/>
-      <c r="I44" s="10" t="s">
-        <v>181</v>
-      </c>
-      <c r="J44" s="10" t="s">
-        <v>182</v>
-      </c>
-      <c r="K44" s="10" t="s">
-        <v>181</v>
-      </c>
+      <c r="I44" s="7"/>
+      <c r="J44" s="7"/>
+      <c r="K44" s="7"/>
       <c r="L44" s="7"/>
     </row>
     <row r="45" ht="18" customHeight="1" spans="1:12">
       <c r="A45" s="7"/>
-      <c r="B45" s="10" t="s">
+      <c r="B45" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="C45" s="8" t="s">
         <v>183</v>
       </c>
-      <c r="C45" s="8" t="s">
-        <v>184</v>
-      </c>
       <c r="D45" s="7"/>
-      <c r="E45" s="10" t="s">
-        <v>185</v>
-      </c>
+      <c r="E45" s="7"/>
       <c r="F45" s="7"/>
       <c r="G45" s="7"/>
       <c r="H45" s="7"/>
-      <c r="I45" s="10" t="s">
-        <v>186</v>
-      </c>
-      <c r="J45" s="10" t="s">
-        <v>168</v>
-      </c>
-      <c r="K45" s="10" t="s">
-        <v>178</v>
+      <c r="I45" s="11" t="s">
+        <v>184</v>
+      </c>
+      <c r="J45" s="11" t="s">
+        <v>185</v>
+      </c>
+      <c r="K45" s="11" t="s">
+        <v>184</v>
       </c>
       <c r="L45" s="7"/>
     </row>
     <row r="46" ht="18" customHeight="1" spans="1:12">
       <c r="A46" s="7"/>
-      <c r="B46" s="7" t="s">
+      <c r="B46" s="11" t="s">
+        <v>186</v>
+      </c>
+      <c r="C46" s="8" t="s">
         <v>187</v>
       </c>
-      <c r="C46" s="8" t="s">
+      <c r="D46" s="7"/>
+      <c r="E46" s="11" t="s">
         <v>188</v>
       </c>
-      <c r="D46" s="7"/>
-      <c r="E46" s="7"/>
       <c r="F46" s="7"/>
       <c r="G46" s="7"/>
       <c r="H46" s="7"/>
-      <c r="I46" s="10" t="s">
+      <c r="I46" s="11" t="s">
         <v>189</v>
       </c>
-      <c r="J46" s="10" t="s">
-        <v>190</v>
-      </c>
-      <c r="K46" s="7" t="s">
-        <v>191</v>
+      <c r="J46" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="K46" s="11" t="s">
+        <v>181</v>
       </c>
       <c r="L46" s="7"/>
     </row>
     <row r="47" ht="18" customHeight="1" spans="1:12">
       <c r="A47" s="7"/>
-      <c r="B47" s="7"/>
-      <c r="C47" s="8"/>
+      <c r="B47" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="C47" s="8" t="s">
+        <v>191</v>
+      </c>
       <c r="D47" s="7"/>
       <c r="E47" s="7"/>
       <c r="F47" s="7"/>
       <c r="G47" s="7"/>
       <c r="H47" s="7"/>
-      <c r="I47" s="7"/>
-      <c r="J47" s="7"/>
-      <c r="K47" s="7"/>
+      <c r="I47" s="11" t="s">
+        <v>192</v>
+      </c>
+      <c r="J47" s="11" t="s">
+        <v>193</v>
+      </c>
+      <c r="K47" s="7" t="s">
+        <v>194</v>
+      </c>
       <c r="L47" s="7"/>
     </row>
     <row r="48" ht="18" customHeight="1" spans="1:12">
       <c r="A48" s="7"/>
-      <c r="B48" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="C48" s="8" t="s">
-        <v>193</v>
-      </c>
+      <c r="B48" s="7"/>
+      <c r="C48" s="8"/>
       <c r="D48" s="7"/>
       <c r="E48" s="7"/>
       <c r="F48" s="7"/>
       <c r="G48" s="7"/>
       <c r="H48" s="7"/>
-      <c r="I48" s="7"/>
-      <c r="J48" s="10" t="s">
-        <v>194</v>
-      </c>
-      <c r="K48" s="10" t="s">
-        <v>191</v>
-      </c>
+      <c r="I48" s="11"/>
+      <c r="J48" s="11"/>
+      <c r="K48" s="7"/>
       <c r="L48" s="7"/>
     </row>
     <row r="49" ht="18" customHeight="1" spans="1:12">
       <c r="A49" s="7"/>
-      <c r="B49" s="10" t="s">
+      <c r="B49" s="7" t="s">
         <v>195</v>
       </c>
       <c r="C49" s="8" t="s">
@@ -3632,10 +3711,8 @@
       <c r="F49" s="7"/>
       <c r="G49" s="7"/>
       <c r="H49" s="7"/>
-      <c r="I49" s="7"/>
-      <c r="J49" s="10" t="s">
-        <v>194</v>
-      </c>
+      <c r="I49" s="11"/>
+      <c r="J49" s="11"/>
       <c r="K49" s="7" t="s">
         <v>197</v>
       </c>
@@ -3650,92 +3727,78 @@
       <c r="F50" s="7"/>
       <c r="G50" s="7"/>
       <c r="H50" s="7"/>
-      <c r="I50" s="7"/>
-      <c r="J50" s="7"/>
+      <c r="I50" s="11"/>
+      <c r="J50" s="11"/>
       <c r="K50" s="7"/>
       <c r="L50" s="7"/>
     </row>
     <row r="51" ht="18" customHeight="1" spans="1:12">
       <c r="A51" s="7"/>
-      <c r="B51" s="7" t="s">
+      <c r="B51" s="10" t="s">
         <v>198</v>
       </c>
       <c r="C51" s="8" t="s">
         <v>199</v>
       </c>
-      <c r="D51" s="7" t="s">
-        <v>24</v>
-      </c>
+      <c r="D51" s="7"/>
       <c r="E51" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="F51" s="7"/>
+      <c r="G51" s="7"/>
+      <c r="H51" s="7"/>
+      <c r="I51" s="11"/>
+      <c r="J51" s="11" t="s">
         <v>200</v>
       </c>
-      <c r="F51" s="7" t="s">
+      <c r="K51" s="13" t="s">
         <v>201</v>
-      </c>
-      <c r="G51" s="7" t="s">
-        <v>202</v>
-      </c>
-      <c r="H51" s="7"/>
-      <c r="I51" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="J51" s="9" t="s">
-        <v>131</v>
-      </c>
-      <c r="K51" s="9" t="s">
-        <v>203</v>
       </c>
       <c r="L51" s="7"/>
     </row>
     <row r="52" ht="18" customHeight="1" spans="1:12">
       <c r="A52" s="7"/>
-      <c r="B52" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="C52" s="8" t="s">
-        <v>205</v>
-      </c>
-      <c r="D52" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="E52" s="8" t="s">
-        <v>205</v>
-      </c>
+      <c r="B52" s="7"/>
+      <c r="C52" s="8"/>
+      <c r="D52" s="7"/>
+      <c r="E52" s="7"/>
       <c r="F52" s="7"/>
       <c r="G52" s="7"/>
       <c r="H52" s="7"/>
-      <c r="I52" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="J52" s="9" t="s">
-        <v>131</v>
-      </c>
-      <c r="K52" s="9" t="s">
-        <v>203</v>
-      </c>
+      <c r="I52" s="7"/>
+      <c r="J52" s="7"/>
+      <c r="K52" s="7"/>
       <c r="L52" s="7"/>
     </row>
     <row r="53" ht="18" customHeight="1" spans="1:12">
       <c r="A53" s="7"/>
-      <c r="B53" s="7"/>
-      <c r="C53" s="8"/>
+      <c r="B53" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="C53" s="8" t="s">
+        <v>203</v>
+      </c>
       <c r="D53" s="7"/>
       <c r="E53" s="7"/>
       <c r="F53" s="7"/>
       <c r="G53" s="7"/>
       <c r="H53" s="7"/>
       <c r="I53" s="7"/>
-      <c r="J53" s="7"/>
-      <c r="K53" s="7"/>
+      <c r="J53" s="11" t="s">
+        <v>204</v>
+      </c>
+      <c r="K53" s="11" t="s">
+        <v>194</v>
+      </c>
       <c r="L53" s="7"/>
     </row>
     <row r="54" ht="18" customHeight="1" spans="1:12">
       <c r="A54" s="7"/>
-      <c r="B54" s="7" t="s">
+      <c r="B54" s="11" t="s">
+        <v>205</v>
+      </c>
+      <c r="C54" s="8" t="s">
         <v>206</v>
-      </c>
-      <c r="C54" s="8" t="s">
-        <v>207</v>
       </c>
       <c r="D54" s="7"/>
       <c r="E54" s="7"/>
@@ -3743,9 +3806,11 @@
       <c r="G54" s="7"/>
       <c r="H54" s="7"/>
       <c r="I54" s="7"/>
-      <c r="J54" s="7"/>
+      <c r="J54" s="11" t="s">
+        <v>204</v>
+      </c>
       <c r="K54" s="7" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="L54" s="7"/>
     </row>
@@ -3780,80 +3845,80 @@
       <c r="F56" s="7" t="s">
         <v>211</v>
       </c>
-      <c r="G56" s="7"/>
+      <c r="G56" s="7" t="s">
+        <v>212</v>
+      </c>
       <c r="H56" s="7"/>
       <c r="I56" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="J56" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="J56" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="K56" s="9" t="s">
         <v>213</v>
-      </c>
-      <c r="K56" s="7" t="s">
-        <v>214</v>
       </c>
       <c r="L56" s="7"/>
     </row>
     <row r="57" ht="18" customHeight="1" spans="1:12">
       <c r="A57" s="7"/>
-      <c r="B57" s="7"/>
-      <c r="C57" s="8"/>
-      <c r="D57" s="7"/>
-      <c r="E57" s="7"/>
+      <c r="B57" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="C57" s="8" t="s">
+        <v>215</v>
+      </c>
+      <c r="D57" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E57" s="8" t="s">
+        <v>215</v>
+      </c>
       <c r="F57" s="7"/>
       <c r="G57" s="7"/>
       <c r="H57" s="7"/>
-      <c r="I57" s="7"/>
-      <c r="J57" s="7"/>
-      <c r="K57" s="7"/>
+      <c r="I57" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="J57" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="K57" s="9" t="s">
+        <v>213</v>
+      </c>
       <c r="L57" s="7"/>
     </row>
     <row r="58" ht="18" customHeight="1" spans="1:12">
       <c r="A58" s="7"/>
-      <c r="B58" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="C58" s="8" t="s">
-        <v>216</v>
-      </c>
+      <c r="B58" s="7"/>
+      <c r="C58" s="8"/>
       <c r="D58" s="7"/>
-      <c r="E58" s="7" t="s">
-        <v>217</v>
-      </c>
+      <c r="E58" s="7"/>
       <c r="F58" s="7"/>
       <c r="G58" s="7"/>
       <c r="H58" s="7"/>
-      <c r="I58" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="J58" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="K58" s="7" t="s">
-        <v>220</v>
-      </c>
+      <c r="I58" s="7"/>
+      <c r="J58" s="7"/>
+      <c r="K58" s="7"/>
       <c r="L58" s="7"/>
     </row>
     <row r="59" ht="18" customHeight="1" spans="1:12">
       <c r="A59" s="7"/>
       <c r="B59" s="7" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="C59" s="8" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="D59" s="7"/>
-      <c r="E59" s="7" t="s">
-        <v>223</v>
-      </c>
+      <c r="E59" s="7"/>
       <c r="F59" s="7"/>
       <c r="G59" s="7"/>
       <c r="H59" s="7"/>
-      <c r="I59" s="7" t="s">
-        <v>224</v>
-      </c>
+      <c r="I59" s="7"/>
       <c r="J59" s="7"/>
       <c r="K59" s="7" t="s">
-        <v>225</v>
+        <v>216</v>
       </c>
       <c r="L59" s="7"/>
     </row>
@@ -3874,44 +3939,50 @@
     <row r="61" ht="18" customHeight="1" spans="1:12">
       <c r="A61" s="7"/>
       <c r="B61" s="7" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="C61" s="8" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="D61" s="7"/>
-      <c r="E61" s="7"/>
+      <c r="E61" s="7" t="s">
+        <v>220</v>
+      </c>
       <c r="F61" s="7"/>
       <c r="G61" s="7"/>
       <c r="H61" s="7"/>
       <c r="I61" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="J61" s="7"/>
+        <v>221</v>
+      </c>
+      <c r="J61" s="7" t="s">
+        <v>222</v>
+      </c>
       <c r="K61" s="7" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="L61" s="7"/>
     </row>
     <row r="62" ht="18" customHeight="1" spans="1:12">
       <c r="A62" s="7"/>
       <c r="B62" s="7" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="C62" s="8" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="D62" s="7"/>
-      <c r="E62" s="7"/>
+      <c r="E62" s="7" t="s">
+        <v>226</v>
+      </c>
       <c r="F62" s="7"/>
       <c r="G62" s="7"/>
       <c r="H62" s="7"/>
       <c r="I62" s="7" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="J62" s="7"/>
-      <c r="K62" s="10" t="s">
-        <v>178</v>
+      <c r="K62" s="7" t="s">
+        <v>228</v>
       </c>
       <c r="L62" s="7"/>
     </row>
@@ -3931,293 +4002,306 @@
     </row>
     <row r="64" ht="18" customHeight="1" spans="1:12">
       <c r="A64" s="7"/>
-      <c r="B64" s="7" t="s">
-        <v>233</v>
+      <c r="B64" s="10" t="s">
+        <v>229</v>
       </c>
       <c r="C64" s="8" t="s">
-        <v>234</v>
-      </c>
-      <c r="D64" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="E64" s="7" t="s">
-        <v>234</v>
-      </c>
+        <v>230</v>
+      </c>
+      <c r="D64" s="7"/>
+      <c r="E64" s="7"/>
       <c r="F64" s="7"/>
       <c r="G64" s="7"/>
       <c r="H64" s="7"/>
-      <c r="I64" s="7" t="s">
-        <v>235</v>
-      </c>
-      <c r="J64" s="7" t="s">
-        <v>236</v>
-      </c>
+      <c r="I64" s="7"/>
+      <c r="J64" s="7"/>
       <c r="K64" s="7" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="L64" s="7"/>
     </row>
     <row r="65" ht="18" customHeight="1" spans="1:12">
       <c r="A65" s="7"/>
       <c r="B65" s="7" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="C65" s="8" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D65" s="7"/>
-      <c r="E65" s="7" t="s">
-        <v>234</v>
-      </c>
+      <c r="E65" s="7"/>
       <c r="F65" s="7"/>
       <c r="G65" s="7"/>
       <c r="H65" s="7"/>
-      <c r="I65" s="7"/>
+      <c r="I65" s="7" t="s">
+        <v>234</v>
+      </c>
       <c r="J65" s="7"/>
       <c r="K65" s="7" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="L65" s="7"/>
     </row>
     <row r="66" ht="18" customHeight="1" spans="1:12">
       <c r="A66" s="7"/>
       <c r="B66" s="7" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="C66" s="8" t="s">
-        <v>241</v>
-      </c>
-      <c r="D66" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="E66" s="7" t="s">
-        <v>241</v>
-      </c>
+        <v>237</v>
+      </c>
+      <c r="D66" s="7"/>
+      <c r="E66" s="7"/>
       <c r="F66" s="7"/>
       <c r="G66" s="7"/>
       <c r="H66" s="7"/>
       <c r="I66" s="7" t="s">
-        <v>242</v>
-      </c>
-      <c r="J66" s="7" t="s">
-        <v>236</v>
-      </c>
-      <c r="K66" s="7" t="s">
-        <v>243</v>
+        <v>238</v>
+      </c>
+      <c r="J66" s="7"/>
+      <c r="K66" s="11" t="s">
+        <v>181</v>
       </c>
       <c r="L66" s="7"/>
     </row>
     <row r="67" ht="18" customHeight="1" spans="1:12">
       <c r="A67" s="7"/>
-      <c r="B67" s="7" t="s">
-        <v>244</v>
-      </c>
-      <c r="C67" s="8" t="s">
-        <v>241</v>
-      </c>
+      <c r="B67" s="7"/>
+      <c r="C67" s="8"/>
       <c r="D67" s="7"/>
-      <c r="E67" s="8" t="s">
-        <v>241</v>
-      </c>
+      <c r="E67" s="7"/>
       <c r="F67" s="7"/>
       <c r="G67" s="7"/>
       <c r="H67" s="7"/>
       <c r="I67" s="7"/>
       <c r="J67" s="7"/>
-      <c r="K67" s="7" t="s">
-        <v>245</v>
-      </c>
+      <c r="K67" s="11"/>
       <c r="L67" s="7"/>
     </row>
     <row r="68" ht="18" customHeight="1" spans="1:12">
       <c r="A68" s="7"/>
       <c r="B68" s="7" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="C68" s="8" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D68" s="7"/>
-      <c r="E68" s="8" t="s">
+      <c r="E68" s="7" t="s">
         <v>241</v>
       </c>
       <c r="F68" s="7"/>
       <c r="G68" s="7"/>
       <c r="H68" s="7"/>
-      <c r="I68" s="7"/>
-      <c r="J68" s="7"/>
+      <c r="I68" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="J68" s="7" t="s">
+        <v>200</v>
+      </c>
       <c r="K68" s="7" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="L68" s="7"/>
     </row>
     <row r="69" ht="18" customHeight="1" spans="1:12">
       <c r="A69" s="7"/>
       <c r="B69" s="7" t="s">
-        <v>248</v>
-      </c>
-      <c r="C69" s="11" t="s">
-        <v>249</v>
-      </c>
-      <c r="D69" s="7"/>
-      <c r="E69" s="7"/>
+        <v>243</v>
+      </c>
+      <c r="C69" s="8" t="s">
+        <v>241</v>
+      </c>
+      <c r="D69" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E69" s="7" t="s">
+        <v>241</v>
+      </c>
       <c r="F69" s="7"/>
       <c r="G69" s="7"/>
       <c r="H69" s="7"/>
-      <c r="I69" s="7"/>
-      <c r="J69" s="7"/>
+      <c r="I69" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="J69" s="7" t="s">
+        <v>245</v>
+      </c>
       <c r="K69" s="7" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="L69" s="7"/>
     </row>
     <row r="70" ht="18" customHeight="1" spans="1:12">
       <c r="A70" s="7"/>
-      <c r="B70" s="7"/>
-      <c r="C70" s="8"/>
+      <c r="B70" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="C70" s="8" t="s">
+        <v>241</v>
+      </c>
       <c r="D70" s="7"/>
-      <c r="E70" s="7"/>
+      <c r="E70" s="7" t="s">
+        <v>241</v>
+      </c>
       <c r="F70" s="7"/>
       <c r="G70" s="7"/>
       <c r="H70" s="7"/>
       <c r="I70" s="7"/>
       <c r="J70" s="7"/>
-      <c r="K70" s="7"/>
+      <c r="K70" s="7" t="s">
+        <v>248</v>
+      </c>
       <c r="L70" s="7"/>
     </row>
     <row r="71" ht="18" customHeight="1" spans="1:12">
       <c r="A71" s="7"/>
       <c r="B71" s="7" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C71" s="8" t="s">
-        <v>252</v>
-      </c>
-      <c r="D71" s="7"/>
-      <c r="E71" s="7"/>
+        <v>250</v>
+      </c>
+      <c r="D71" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E71" s="7" t="s">
+        <v>250</v>
+      </c>
       <c r="F71" s="7"/>
       <c r="G71" s="7"/>
       <c r="H71" s="7"/>
-      <c r="I71" s="7"/>
-      <c r="J71" s="7"/>
+      <c r="I71" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="J71" s="7" t="s">
+        <v>245</v>
+      </c>
       <c r="K71" s="7" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="L71" s="7"/>
     </row>
     <row r="72" ht="18" customHeight="1" spans="1:12">
       <c r="A72" s="7"/>
       <c r="B72" s="7" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C72" s="8" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="D72" s="7"/>
-      <c r="E72" s="7"/>
+      <c r="E72" s="8" t="s">
+        <v>250</v>
+      </c>
       <c r="F72" s="7"/>
       <c r="G72" s="7"/>
       <c r="H72" s="7"/>
       <c r="I72" s="7"/>
       <c r="J72" s="7"/>
-      <c r="K72" s="10" t="s">
-        <v>178</v>
+      <c r="K72" s="7" t="s">
+        <v>201</v>
       </c>
       <c r="L72" s="7"/>
     </row>
     <row r="73" ht="18" customHeight="1" spans="1:12">
       <c r="A73" s="7"/>
       <c r="B73" s="7" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C73" s="8" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="D73" s="7"/>
-      <c r="E73" s="7"/>
+      <c r="E73" s="8" t="s">
+        <v>250</v>
+      </c>
       <c r="F73" s="7"/>
       <c r="G73" s="7"/>
       <c r="H73" s="7"/>
       <c r="I73" s="7"/>
-      <c r="K73" s="10" t="s">
-        <v>253</v>
+      <c r="J73" s="7"/>
+      <c r="K73" s="7" t="s">
+        <v>255</v>
       </c>
       <c r="L73" s="7"/>
     </row>
     <row r="74" ht="18" customHeight="1" spans="1:12">
       <c r="A74" s="7"/>
-      <c r="B74" s="8" t="s">
-        <v>258</v>
-      </c>
-      <c r="C74" s="8" t="s">
-        <v>259</v>
+      <c r="B74" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="C74" s="12" t="s">
+        <v>257</v>
       </c>
       <c r="D74" s="7"/>
       <c r="E74" s="7"/>
       <c r="F74" s="7"/>
       <c r="G74" s="7"/>
       <c r="H74" s="7"/>
-      <c r="I74" s="7" t="s">
-        <v>260</v>
-      </c>
-      <c r="J74" s="2" t="s">
-        <v>261</v>
-      </c>
-      <c r="K74" s="10" t="s">
+      <c r="I74" s="7"/>
+      <c r="J74" s="7"/>
+      <c r="K74" s="7" t="s">
         <v>258</v>
       </c>
       <c r="L74" s="7"/>
     </row>
     <row r="75" ht="18" customHeight="1" spans="1:12">
       <c r="A75" s="7"/>
-      <c r="B75" s="7" t="s">
-        <v>262</v>
-      </c>
-      <c r="C75" s="11" t="s">
-        <v>263</v>
+      <c r="B75" s="10" t="s">
+        <v>259</v>
+      </c>
+      <c r="C75" s="12" t="s">
+        <v>260</v>
       </c>
       <c r="D75" s="7"/>
-      <c r="E75" s="7"/>
+      <c r="E75" s="7" t="s">
+        <v>241</v>
+      </c>
       <c r="F75" s="7"/>
       <c r="G75" s="7"/>
       <c r="H75" s="7"/>
       <c r="I75" s="7"/>
       <c r="J75" s="7"/>
-      <c r="K75" s="10" t="s">
-        <v>264</v>
+      <c r="K75" s="13" t="s">
+        <v>261</v>
       </c>
       <c r="L75" s="7"/>
     </row>
     <row r="76" ht="18" customHeight="1" spans="1:12">
       <c r="A76" s="7"/>
       <c r="B76" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="C76" s="8" t="s">
+        <v>263</v>
+      </c>
+      <c r="D76" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E76" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="F76" s="7" t="s">
         <v>265</v>
       </c>
-      <c r="C76" s="8" t="s">
-        <v>266</v>
-      </c>
-      <c r="D76" s="7"/>
-      <c r="E76" s="7"/>
-      <c r="F76" s="7"/>
       <c r="G76" s="7"/>
       <c r="H76" s="7"/>
       <c r="I76" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="J76" s="7" t="s">
         <v>267</v>
       </c>
-      <c r="J76" s="7"/>
-      <c r="K76" s="10" t="s">
+      <c r="K76" s="7" t="s">
         <v>268</v>
       </c>
       <c r="L76" s="7"/>
     </row>
     <row r="77" ht="18" customHeight="1" spans="1:12">
       <c r="A77" s="7"/>
-      <c r="B77" s="7" t="s">
-        <v>269</v>
-      </c>
-      <c r="C77" s="8" t="s">
-        <v>270</v>
-      </c>
+      <c r="B77" s="7"/>
+      <c r="C77" s="8"/>
       <c r="D77" s="7"/>
       <c r="E77" s="7"/>
       <c r="F77" s="7"/>
@@ -4225,18 +4309,16 @@
       <c r="H77" s="7"/>
       <c r="I77" s="7"/>
       <c r="J77" s="7"/>
-      <c r="K77" s="10" t="s">
-        <v>271</v>
-      </c>
+      <c r="K77" s="7"/>
       <c r="L77" s="7"/>
     </row>
     <row r="78" ht="18" customHeight="1" spans="1:12">
       <c r="A78" s="7"/>
-      <c r="B78" s="10" t="s">
-        <v>272</v>
+      <c r="B78" s="7" t="s">
+        <v>269</v>
       </c>
       <c r="C78" s="8" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="D78" s="7"/>
       <c r="E78" s="7"/>
@@ -4245,42 +4327,38 @@
       <c r="H78" s="7"/>
       <c r="I78" s="7"/>
       <c r="J78" s="7"/>
-      <c r="K78" s="10" t="s">
-        <v>274</v>
+      <c r="K78" s="7" t="s">
+        <v>271</v>
       </c>
       <c r="L78" s="7"/>
     </row>
     <row r="79" ht="18" customHeight="1" spans="1:12">
       <c r="A79" s="7"/>
       <c r="B79" s="7" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="C79" s="8" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="D79" s="7"/>
-      <c r="E79" s="7" t="s">
-        <v>277</v>
-      </c>
+      <c r="E79" s="7"/>
       <c r="F79" s="7"/>
       <c r="G79" s="7"/>
       <c r="H79" s="7"/>
       <c r="I79" s="7"/>
-      <c r="J79" s="7" t="s">
-        <v>278</v>
-      </c>
-      <c r="K79" s="7" t="s">
-        <v>271</v>
+      <c r="J79" s="7"/>
+      <c r="K79" s="11" t="s">
+        <v>181</v>
       </c>
       <c r="L79" s="7"/>
     </row>
     <row r="80" ht="18" customHeight="1" spans="1:12">
       <c r="A80" s="7"/>
       <c r="B80" s="7" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="C80" s="8" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="D80" s="7"/>
       <c r="E80" s="7"/>
@@ -4288,33 +4366,42 @@
       <c r="G80" s="7"/>
       <c r="H80" s="7"/>
       <c r="I80" s="7"/>
-      <c r="J80" s="7"/>
-      <c r="K80" s="7" t="s">
-        <v>281</v>
+      <c r="K80" s="11" t="s">
+        <v>271</v>
       </c>
       <c r="L80" s="7"/>
     </row>
     <row r="81" ht="18" customHeight="1" spans="1:12">
       <c r="A81" s="7"/>
-      <c r="B81" s="7"/>
-      <c r="C81" s="8"/>
+      <c r="B81" s="8" t="s">
+        <v>276</v>
+      </c>
+      <c r="C81" s="8" t="s">
+        <v>277</v>
+      </c>
       <c r="D81" s="7"/>
       <c r="E81" s="7"/>
       <c r="F81" s="7"/>
       <c r="G81" s="7"/>
       <c r="H81" s="7"/>
-      <c r="I81" s="7"/>
-      <c r="J81" s="7"/>
-      <c r="K81" s="7"/>
+      <c r="I81" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="J81" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="K81" s="11" t="s">
+        <v>276</v>
+      </c>
       <c r="L81" s="7"/>
     </row>
     <row r="82" ht="18" customHeight="1" spans="1:12">
       <c r="A82" s="7"/>
       <c r="B82" s="7" t="s">
-        <v>282</v>
-      </c>
-      <c r="C82" s="8" t="s">
-        <v>283</v>
+        <v>280</v>
+      </c>
+      <c r="C82" s="12" t="s">
+        <v>281</v>
       </c>
       <c r="D82" s="7"/>
       <c r="E82" s="7"/>
@@ -4323,32 +4410,40 @@
       <c r="H82" s="7"/>
       <c r="I82" s="7"/>
       <c r="J82" s="7"/>
-      <c r="K82" s="7" t="s">
-        <v>284</v>
+      <c r="K82" s="11" t="s">
+        <v>282</v>
       </c>
       <c r="L82" s="7"/>
     </row>
     <row r="83" ht="18" customHeight="1" spans="1:12">
       <c r="A83" s="7"/>
-      <c r="B83" s="7"/>
-      <c r="C83" s="8"/>
+      <c r="B83" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="C83" s="8" t="s">
+        <v>284</v>
+      </c>
       <c r="D83" s="7"/>
       <c r="E83" s="7"/>
       <c r="F83" s="7"/>
       <c r="G83" s="7"/>
       <c r="H83" s="7"/>
-      <c r="I83" s="7"/>
+      <c r="I83" s="7" t="s">
+        <v>285</v>
+      </c>
       <c r="J83" s="7"/>
-      <c r="K83" s="7"/>
+      <c r="K83" s="11" t="s">
+        <v>286</v>
+      </c>
       <c r="L83" s="7"/>
     </row>
     <row r="84" ht="18" customHeight="1" spans="1:12">
       <c r="A84" s="7"/>
       <c r="B84" s="7" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="C84" s="8" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="D84" s="7"/>
       <c r="E84" s="7"/>
@@ -4357,15 +4452,19 @@
       <c r="H84" s="7"/>
       <c r="I84" s="7"/>
       <c r="J84" s="7"/>
-      <c r="K84" s="7" t="s">
-        <v>287</v>
+      <c r="K84" s="11" t="s">
+        <v>289</v>
       </c>
       <c r="L84" s="7"/>
     </row>
     <row r="85" ht="18" customHeight="1" spans="1:12">
       <c r="A85" s="7"/>
-      <c r="B85" s="7"/>
-      <c r="C85" s="8"/>
+      <c r="B85" s="11" t="s">
+        <v>290</v>
+      </c>
+      <c r="C85" s="8" t="s">
+        <v>291</v>
+      </c>
       <c r="D85" s="7"/>
       <c r="E85" s="7"/>
       <c r="F85" s="7"/>
@@ -4373,90 +4472,68 @@
       <c r="H85" s="7"/>
       <c r="I85" s="7"/>
       <c r="J85" s="7"/>
-      <c r="K85" s="7"/>
+      <c r="K85" s="11" t="s">
+        <v>292</v>
+      </c>
       <c r="L85" s="7"/>
     </row>
     <row r="86" ht="18" customHeight="1" spans="1:12">
       <c r="A86" s="7"/>
       <c r="B86" s="7" t="s">
-        <v>288</v>
+        <v>293</v>
       </c>
       <c r="C86" s="8" t="s">
-        <v>289</v>
+        <v>294</v>
       </c>
       <c r="D86" s="7"/>
       <c r="E86" s="7" t="s">
-        <v>290</v>
+        <v>295</v>
       </c>
       <c r="F86" s="7"/>
       <c r="G86" s="7"/>
       <c r="H86" s="7"/>
-      <c r="I86" s="7" t="s">
-        <v>290</v>
-      </c>
+      <c r="I86" s="7"/>
       <c r="J86" s="7" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="K86" s="7" t="s">
-        <v>292</v>
-      </c>
-      <c r="L86" s="12" t="s">
-        <v>293</v>
-      </c>
+        <v>289</v>
+      </c>
+      <c r="L86" s="7"/>
     </row>
     <row r="87" ht="18" customHeight="1" spans="1:12">
       <c r="A87" s="7"/>
       <c r="B87" s="7" t="s">
-        <v>288</v>
+        <v>297</v>
       </c>
       <c r="C87" s="8" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="D87" s="7"/>
-      <c r="E87" s="7" t="s">
-        <v>290</v>
-      </c>
+      <c r="E87" s="7"/>
       <c r="F87" s="7"/>
       <c r="G87" s="7"/>
       <c r="H87" s="7"/>
-      <c r="I87" s="7" t="s">
-        <v>290</v>
-      </c>
-      <c r="J87" s="7" t="s">
-        <v>295</v>
-      </c>
+      <c r="I87" s="7"/>
+      <c r="J87" s="7"/>
       <c r="K87" s="7" t="s">
-        <v>292</v>
-      </c>
-      <c r="L87" s="13" t="s">
-        <v>296</v>
-      </c>
+        <v>299</v>
+      </c>
+      <c r="L87" s="7"/>
     </row>
     <row r="88" ht="18" customHeight="1" spans="1:12">
       <c r="A88" s="7"/>
-      <c r="B88" s="7" t="s">
-        <v>288</v>
-      </c>
-      <c r="C88" s="8" t="s">
-        <v>297</v>
-      </c>
+      <c r="B88" s="7"/>
+      <c r="C88" s="8"/>
       <c r="D88" s="7"/>
       <c r="E88" s="7"/>
       <c r="F88" s="7"/>
       <c r="G88" s="7"/>
       <c r="H88" s="7"/>
-      <c r="I88" s="7" t="s">
-        <v>290</v>
-      </c>
-      <c r="J88" s="7" t="s">
-        <v>291</v>
-      </c>
-      <c r="K88" s="7" t="s">
-        <v>298</v>
-      </c>
-      <c r="L88" s="13" t="s">
-        <v>299</v>
-      </c>
+      <c r="I88" s="7"/>
+      <c r="J88" s="7"/>
+      <c r="K88" s="7"/>
+      <c r="L88" s="7"/>
     </row>
     <row r="89" ht="18" customHeight="1" spans="1:12">
       <c r="A89" s="7"/>
@@ -4467,15 +4544,11 @@
         <v>301</v>
       </c>
       <c r="D89" s="7"/>
-      <c r="E89" s="7" t="s">
-        <v>290</v>
-      </c>
+      <c r="E89" s="7"/>
       <c r="F89" s="7"/>
       <c r="G89" s="7"/>
       <c r="H89" s="7"/>
-      <c r="I89" s="7" t="s">
-        <v>290</v>
-      </c>
+      <c r="I89" s="7"/>
       <c r="J89" s="7"/>
       <c r="K89" s="7" t="s">
         <v>302</v>
@@ -4484,32 +4557,26 @@
     </row>
     <row r="90" ht="18" customHeight="1" spans="1:12">
       <c r="A90" s="7"/>
-      <c r="B90" s="7" t="s">
-        <v>303</v>
-      </c>
-      <c r="C90" s="8" t="s">
-        <v>304</v>
-      </c>
+      <c r="B90" s="7"/>
+      <c r="C90" s="8"/>
       <c r="D90" s="7"/>
-      <c r="E90" s="7" t="s">
-        <v>290</v>
-      </c>
+      <c r="E90" s="7"/>
       <c r="F90" s="7"/>
       <c r="G90" s="7"/>
       <c r="H90" s="7"/>
-      <c r="I90" s="7" t="s">
-        <v>290</v>
-      </c>
+      <c r="I90" s="7"/>
       <c r="J90" s="7"/>
-      <c r="K90" s="7" t="s">
-        <v>305</v>
-      </c>
+      <c r="K90" s="7"/>
       <c r="L90" s="7"/>
     </row>
     <row r="91" ht="18" customHeight="1" spans="1:12">
       <c r="A91" s="7"/>
-      <c r="B91" s="7"/>
-      <c r="C91" s="8"/>
+      <c r="B91" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="C91" s="8" t="s">
+        <v>304</v>
+      </c>
       <c r="D91" s="7"/>
       <c r="E91" s="7"/>
       <c r="F91" s="7"/>
@@ -4517,7 +4584,9 @@
       <c r="H91" s="7"/>
       <c r="I91" s="7"/>
       <c r="J91" s="7"/>
-      <c r="K91" s="7"/>
+      <c r="K91" s="7" t="s">
+        <v>305</v>
+      </c>
       <c r="L91" s="7"/>
     </row>
     <row r="92" ht="18" customHeight="1" spans="1:12">
@@ -4536,124 +4605,146 @@
     </row>
     <row r="93" ht="18" customHeight="1" spans="1:12">
       <c r="A93" s="7"/>
-      <c r="B93" s="10" t="s">
+      <c r="B93" s="7" t="s">
         <v>306</v>
       </c>
-      <c r="C93" s="11" t="s">
+      <c r="C93" s="8" t="s">
         <v>307</v>
       </c>
       <c r="D93" s="7"/>
-      <c r="E93" s="7"/>
+      <c r="E93" s="7" t="s">
+        <v>308</v>
+      </c>
       <c r="F93" s="7"/>
       <c r="G93" s="7"/>
       <c r="H93" s="7"/>
-      <c r="I93" s="10" t="s">
+      <c r="I93" s="7" t="s">
         <v>308</v>
       </c>
-      <c r="J93" s="7"/>
-      <c r="K93" s="10" t="s">
-        <v>308</v>
-      </c>
-      <c r="L93" s="7"/>
+      <c r="J93" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="K93" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="L93" s="14" t="s">
+        <v>311</v>
+      </c>
     </row>
     <row r="94" ht="18" customHeight="1" spans="1:12">
       <c r="A94" s="7"/>
       <c r="B94" s="7" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="C94" s="8" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="D94" s="7"/>
-      <c r="E94" s="7"/>
+      <c r="E94" s="7" t="s">
+        <v>308</v>
+      </c>
       <c r="F94" s="7"/>
       <c r="G94" s="7"/>
       <c r="H94" s="7"/>
-      <c r="I94" s="7"/>
-      <c r="J94" s="7"/>
-      <c r="K94" s="10" t="s">
-        <v>311</v>
-      </c>
-      <c r="L94" s="7"/>
+      <c r="I94" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="J94" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="K94" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="L94" s="15" t="s">
+        <v>314</v>
+      </c>
     </row>
     <row r="95" ht="18" customHeight="1" spans="1:12">
       <c r="A95" s="7"/>
       <c r="B95" s="7" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="C95" s="8" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="D95" s="7"/>
       <c r="E95" s="7"/>
       <c r="F95" s="7"/>
       <c r="G95" s="7"/>
       <c r="H95" s="7"/>
-      <c r="I95" s="7"/>
-      <c r="J95" s="7"/>
-      <c r="K95" s="7"/>
-      <c r="L95" s="7"/>
+      <c r="I95" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="J95" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="K95" s="7" t="s">
+        <v>316</v>
+      </c>
+      <c r="L95" s="15" t="s">
+        <v>317</v>
+      </c>
     </row>
     <row r="96" ht="18" customHeight="1" spans="1:12">
       <c r="A96" s="7"/>
       <c r="B96" s="7" t="s">
-        <v>314</v>
-      </c>
-      <c r="C96" s="11" t="s">
-        <v>315</v>
+        <v>318</v>
+      </c>
+      <c r="C96" s="8" t="s">
+        <v>319</v>
       </c>
       <c r="D96" s="7"/>
-      <c r="E96" s="7"/>
+      <c r="E96" s="7" t="s">
+        <v>308</v>
+      </c>
       <c r="F96" s="7"/>
       <c r="G96" s="7"/>
       <c r="H96" s="7"/>
-      <c r="I96" s="7"/>
+      <c r="I96" s="7" t="s">
+        <v>308</v>
+      </c>
       <c r="J96" s="7"/>
       <c r="K96" s="7" t="s">
-        <v>314</v>
+        <v>320</v>
       </c>
       <c r="L96" s="7"/>
     </row>
     <row r="97" ht="18" customHeight="1" spans="1:12">
       <c r="A97" s="7"/>
       <c r="B97" s="7" t="s">
-        <v>316</v>
+        <v>321</v>
       </c>
       <c r="C97" s="8" t="s">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="D97" s="7"/>
-      <c r="E97" s="7"/>
+      <c r="E97" s="7" t="s">
+        <v>308</v>
+      </c>
       <c r="F97" s="7"/>
       <c r="G97" s="7"/>
       <c r="H97" s="7"/>
-      <c r="I97" s="7"/>
+      <c r="I97" s="7" t="s">
+        <v>308</v>
+      </c>
       <c r="J97" s="7"/>
-      <c r="K97" s="10" t="s">
-        <v>318</v>
+      <c r="K97" s="7" t="s">
+        <v>323</v>
       </c>
       <c r="L97" s="7"/>
     </row>
     <row r="98" ht="18" customHeight="1" spans="1:12">
       <c r="A98" s="7"/>
-      <c r="B98" s="10" t="s">
-        <v>319</v>
-      </c>
-      <c r="C98" s="11" t="s">
-        <v>320</v>
-      </c>
+      <c r="B98" s="7"/>
+      <c r="C98" s="8"/>
       <c r="D98" s="7"/>
       <c r="E98" s="7"/>
       <c r="F98" s="7"/>
       <c r="G98" s="7"/>
       <c r="H98" s="7"/>
-      <c r="I98" s="7" t="s">
-        <v>321</v>
-      </c>
+      <c r="I98" s="7"/>
       <c r="J98" s="7"/>
-      <c r="K98" s="7" t="s">
-        <v>321</v>
-      </c>
+      <c r="K98" s="7"/>
       <c r="L98" s="7"/>
     </row>
     <row r="99" ht="18" customHeight="1" spans="1:12">
@@ -4672,52 +4763,54 @@
     </row>
     <row r="100" ht="18" customHeight="1" spans="1:12">
       <c r="A100" s="7"/>
-      <c r="B100" s="7" t="s">
-        <v>322</v>
-      </c>
-      <c r="C100" s="8" t="s">
-        <v>323</v>
+      <c r="B100" s="11" t="s">
+        <v>324</v>
+      </c>
+      <c r="C100" s="12" t="s">
+        <v>325</v>
       </c>
       <c r="D100" s="7"/>
       <c r="E100" s="7"/>
       <c r="F100" s="7"/>
       <c r="G100" s="7"/>
       <c r="H100" s="7"/>
-      <c r="I100" s="7" t="s">
-        <v>324</v>
+      <c r="I100" s="11" t="s">
+        <v>326</v>
       </c>
       <c r="J100" s="7"/>
-      <c r="K100" s="7" t="s">
-        <v>325</v>
+      <c r="K100" s="11" t="s">
+        <v>326</v>
       </c>
       <c r="L100" s="7"/>
     </row>
     <row r="101" ht="18" customHeight="1" spans="1:12">
       <c r="A101" s="7"/>
       <c r="B101" s="7" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="C101" s="8" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="D101" s="7"/>
       <c r="E101" s="7"/>
       <c r="F101" s="7"/>
       <c r="G101" s="7"/>
       <c r="H101" s="7"/>
-      <c r="I101" s="7" t="s">
-        <v>328</v>
-      </c>
+      <c r="I101" s="7"/>
       <c r="J101" s="7"/>
-      <c r="K101" s="7" t="s">
+      <c r="K101" s="11" t="s">
         <v>329</v>
       </c>
       <c r="L101" s="7"/>
     </row>
     <row r="102" ht="18" customHeight="1" spans="1:12">
       <c r="A102" s="7"/>
-      <c r="B102" s="7"/>
-      <c r="C102" s="8"/>
+      <c r="B102" s="7" t="s">
+        <v>330</v>
+      </c>
+      <c r="C102" s="8" t="s">
+        <v>331</v>
+      </c>
       <c r="D102" s="7"/>
       <c r="E102" s="7"/>
       <c r="F102" s="7"/>
@@ -4730,8 +4823,12 @@
     </row>
     <row r="103" ht="18" customHeight="1" spans="1:12">
       <c r="A103" s="7"/>
-      <c r="B103" s="7"/>
-      <c r="C103" s="8"/>
+      <c r="B103" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="C103" s="12" t="s">
+        <v>333</v>
+      </c>
       <c r="D103" s="7"/>
       <c r="E103" s="7"/>
       <c r="F103" s="7"/>
@@ -4739,13 +4836,19 @@
       <c r="H103" s="7"/>
       <c r="I103" s="7"/>
       <c r="J103" s="7"/>
-      <c r="K103" s="7"/>
+      <c r="K103" s="7" t="s">
+        <v>332</v>
+      </c>
       <c r="L103" s="7"/>
     </row>
     <row r="104" ht="18" customHeight="1" spans="1:12">
       <c r="A104" s="7"/>
-      <c r="B104" s="7"/>
-      <c r="C104" s="8"/>
+      <c r="B104" s="7" t="s">
+        <v>334</v>
+      </c>
+      <c r="C104" s="8" t="s">
+        <v>335</v>
+      </c>
       <c r="D104" s="7"/>
       <c r="E104" s="7"/>
       <c r="F104" s="7"/>
@@ -4753,35 +4856,55 @@
       <c r="H104" s="7"/>
       <c r="I104" s="7"/>
       <c r="J104" s="7"/>
-      <c r="K104" s="7"/>
+      <c r="K104" s="11" t="s">
+        <v>336</v>
+      </c>
       <c r="L104" s="7"/>
     </row>
     <row r="105" ht="18" customHeight="1" spans="1:12">
       <c r="A105" s="7"/>
-      <c r="B105" s="7"/>
-      <c r="C105" s="8"/>
+      <c r="B105" s="11" t="s">
+        <v>337</v>
+      </c>
+      <c r="C105" s="12" t="s">
+        <v>338</v>
+      </c>
       <c r="D105" s="7"/>
       <c r="E105" s="7"/>
       <c r="F105" s="7"/>
       <c r="G105" s="7"/>
       <c r="H105" s="7"/>
-      <c r="I105" s="7"/>
+      <c r="I105" s="7" t="s">
+        <v>339</v>
+      </c>
       <c r="J105" s="7"/>
-      <c r="K105" s="7"/>
+      <c r="K105" s="7" t="s">
+        <v>339</v>
+      </c>
       <c r="L105" s="7"/>
     </row>
     <row r="106" ht="18" customHeight="1" spans="1:12">
       <c r="A106" s="7"/>
-      <c r="B106" s="7"/>
-      <c r="C106" s="8"/>
+      <c r="B106" s="11" t="s">
+        <v>340</v>
+      </c>
+      <c r="C106" s="12" t="s">
+        <v>341</v>
+      </c>
       <c r="D106" s="7"/>
-      <c r="E106" s="7"/>
+      <c r="E106" s="7" t="s">
+        <v>342</v>
+      </c>
       <c r="F106" s="7"/>
       <c r="G106" s="7"/>
       <c r="H106" s="7"/>
-      <c r="I106" s="7"/>
+      <c r="I106" s="7" t="s">
+        <v>343</v>
+      </c>
       <c r="J106" s="7"/>
-      <c r="K106" s="7"/>
+      <c r="K106" s="7" t="s">
+        <v>344</v>
+      </c>
       <c r="L106" s="7"/>
     </row>
     <row r="107" ht="18" customHeight="1" spans="1:12">
@@ -4800,30 +4923,46 @@
     </row>
     <row r="108" ht="18" customHeight="1" spans="1:12">
       <c r="A108" s="7"/>
-      <c r="B108" s="7"/>
-      <c r="C108" s="8"/>
+      <c r="B108" s="7" t="s">
+        <v>345</v>
+      </c>
+      <c r="C108" s="8" t="s">
+        <v>346</v>
+      </c>
       <c r="D108" s="7"/>
       <c r="E108" s="7"/>
       <c r="F108" s="7"/>
       <c r="G108" s="7"/>
       <c r="H108" s="7"/>
-      <c r="I108" s="7"/>
+      <c r="I108" s="7" t="s">
+        <v>347</v>
+      </c>
       <c r="J108" s="7"/>
-      <c r="K108" s="7"/>
+      <c r="K108" s="7" t="s">
+        <v>348</v>
+      </c>
       <c r="L108" s="7"/>
     </row>
     <row r="109" ht="18" customHeight="1" spans="1:12">
       <c r="A109" s="7"/>
-      <c r="B109" s="7"/>
-      <c r="C109" s="8"/>
+      <c r="B109" s="7" t="s">
+        <v>349</v>
+      </c>
+      <c r="C109" s="8" t="s">
+        <v>350</v>
+      </c>
       <c r="D109" s="7"/>
       <c r="E109" s="7"/>
       <c r="F109" s="7"/>
       <c r="G109" s="7"/>
       <c r="H109" s="7"/>
-      <c r="I109" s="7"/>
+      <c r="I109" s="7" t="s">
+        <v>351</v>
+      </c>
       <c r="J109" s="7"/>
-      <c r="K109" s="7"/>
+      <c r="K109" s="7" t="s">
+        <v>352</v>
+      </c>
       <c r="L109" s="7"/>
     </row>
     <row r="110" ht="18" customHeight="1" spans="1:12">
@@ -5624,10 +5763,122 @@
       <c r="K166" s="7"/>
       <c r="L166" s="7"/>
     </row>
+    <row r="167" ht="18" customHeight="1" spans="1:12">
+      <c r="A167" s="7"/>
+      <c r="B167" s="7"/>
+      <c r="C167" s="8"/>
+      <c r="D167" s="7"/>
+      <c r="E167" s="7"/>
+      <c r="F167" s="7"/>
+      <c r="G167" s="7"/>
+      <c r="H167" s="7"/>
+      <c r="I167" s="7"/>
+      <c r="J167" s="7"/>
+      <c r="K167" s="7"/>
+      <c r="L167" s="7"/>
+    </row>
+    <row r="168" ht="18" customHeight="1" spans="1:12">
+      <c r="A168" s="7"/>
+      <c r="B168" s="7"/>
+      <c r="C168" s="8"/>
+      <c r="D168" s="7"/>
+      <c r="E168" s="7"/>
+      <c r="F168" s="7"/>
+      <c r="G168" s="7"/>
+      <c r="H168" s="7"/>
+      <c r="I168" s="7"/>
+      <c r="J168" s="7"/>
+      <c r="K168" s="7"/>
+      <c r="L168" s="7"/>
+    </row>
+    <row r="169" ht="18" customHeight="1" spans="1:12">
+      <c r="A169" s="7"/>
+      <c r="B169" s="7"/>
+      <c r="C169" s="8"/>
+      <c r="D169" s="7"/>
+      <c r="E169" s="7"/>
+      <c r="F169" s="7"/>
+      <c r="G169" s="7"/>
+      <c r="H169" s="7"/>
+      <c r="I169" s="7"/>
+      <c r="J169" s="7"/>
+      <c r="K169" s="7"/>
+      <c r="L169" s="7"/>
+    </row>
+    <row r="170" ht="18" customHeight="1" spans="1:12">
+      <c r="A170" s="7"/>
+      <c r="B170" s="7"/>
+      <c r="C170" s="8"/>
+      <c r="D170" s="7"/>
+      <c r="E170" s="7"/>
+      <c r="F170" s="7"/>
+      <c r="G170" s="7"/>
+      <c r="H170" s="7"/>
+      <c r="I170" s="7"/>
+      <c r="J170" s="7"/>
+      <c r="K170" s="7"/>
+      <c r="L170" s="7"/>
+    </row>
+    <row r="171" ht="18" customHeight="1" spans="1:12">
+      <c r="A171" s="7"/>
+      <c r="B171" s="7"/>
+      <c r="C171" s="8"/>
+      <c r="D171" s="7"/>
+      <c r="E171" s="7"/>
+      <c r="F171" s="7"/>
+      <c r="G171" s="7"/>
+      <c r="H171" s="7"/>
+      <c r="I171" s="7"/>
+      <c r="J171" s="7"/>
+      <c r="K171" s="7"/>
+      <c r="L171" s="7"/>
+    </row>
+    <row r="172" ht="18" customHeight="1" spans="1:12">
+      <c r="A172" s="7"/>
+      <c r="B172" s="7"/>
+      <c r="C172" s="8"/>
+      <c r="D172" s="7"/>
+      <c r="E172" s="7"/>
+      <c r="F172" s="7"/>
+      <c r="G172" s="7"/>
+      <c r="H172" s="7"/>
+      <c r="I172" s="7"/>
+      <c r="J172" s="7"/>
+      <c r="K172" s="7"/>
+      <c r="L172" s="7"/>
+    </row>
+    <row r="173" ht="18" customHeight="1" spans="1:12">
+      <c r="A173" s="7"/>
+      <c r="B173" s="7"/>
+      <c r="C173" s="8"/>
+      <c r="D173" s="7"/>
+      <c r="E173" s="7"/>
+      <c r="F173" s="7"/>
+      <c r="G173" s="7"/>
+      <c r="H173" s="7"/>
+      <c r="I173" s="7"/>
+      <c r="J173" s="7"/>
+      <c r="K173" s="7"/>
+      <c r="L173" s="7"/>
+    </row>
+    <row r="174" ht="18" customHeight="1" spans="1:12">
+      <c r="A174" s="7"/>
+      <c r="B174" s="7"/>
+      <c r="C174" s="8"/>
+      <c r="D174" s="7"/>
+      <c r="E174" s="7"/>
+      <c r="F174" s="7"/>
+      <c r="G174" s="7"/>
+      <c r="H174" s="7"/>
+      <c r="I174" s="7"/>
+      <c r="J174" s="7"/>
+      <c r="K174" s="7"/>
+      <c r="L174" s="7"/>
+    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="L86" r:id="rId3" display="https://item.szlcsc.com/87756.html" tooltip="https://item.szlcsc.com/87756.html"/>
-    <hyperlink ref="L87" r:id="rId4" display="https://item.szlcsc.com/136348.html"/>
+    <hyperlink ref="L93" r:id="rId3" display="https://item.szlcsc.com/87756.html" tooltip="https://item.szlcsc.com/87756.html"/>
+    <hyperlink ref="L94" r:id="rId4" display="https://item.szlcsc.com/136348.html"/>
   </hyperlinks>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/物料索引.xlsx
+++ b/物料索引.xlsx
@@ -88,7 +88,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367">
   <si>
     <t>物料编码</t>
   </si>
@@ -999,6 +999,21 @@
     <t>RAC60-SB</t>
   </si>
   <si>
+    <t>SN74LVC1G08-DBV</t>
+  </si>
+  <si>
+    <t>与门</t>
+  </si>
+  <si>
+    <t>DBV</t>
+  </si>
+  <si>
+    <t>ti</t>
+  </si>
+  <si>
+    <t>SOT23_5</t>
+  </si>
+  <si>
     <t>MAX13487EE</t>
   </si>
   <si>
@@ -1029,9 +1044,6 @@
     <t>bga</t>
   </si>
   <si>
-    <t>ti</t>
-  </si>
-  <si>
     <t>DS1308</t>
   </si>
   <si>
@@ -1092,6 +1104,12 @@
     <t>h5004_7</t>
   </si>
   <si>
+    <t>cp2104</t>
+  </si>
+  <si>
+    <t>QFN24_4X4</t>
+  </si>
+  <si>
     <t>AD9653BCPZ-125</t>
   </si>
   <si>
@@ -1101,6 +1119,12 @@
     <t>CP_48_13</t>
   </si>
   <si>
+    <t>AD7606</t>
+  </si>
+  <si>
+    <t>ST_64_2</t>
+  </si>
+  <si>
     <t>MT7620_MODULE_SOCKET</t>
   </si>
   <si>
@@ -1108,6 +1132,12 @@
   </si>
   <si>
     <t>mt7620a_core</t>
+  </si>
+  <si>
+    <t>DP83848VYB/NOPB</t>
+  </si>
+  <si>
+    <t>百兆PHY</t>
   </si>
   <si>
     <t>RJ45网口变压器</t>
@@ -1284,16 +1314,28 @@
   <si>
     <t>56L_14x20mm_TSOP</t>
   </si>
+  <si>
+    <t>轻触按键</t>
+  </si>
+  <si>
+    <t>2P 3x6x5</t>
+  </si>
+  <si>
+    <t>sw_2p_3x6x5</t>
+  </si>
+  <si>
+    <t>https://item.szlcsc.com/72964.html</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -1320,45 +1362,25 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1380,11 +1402,48 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="18"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1396,7 +1455,7 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1410,32 +1469,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1448,9 +1484,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1477,13 +1519,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1495,25 +1531,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1525,13 +1561,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1543,85 +1591,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1639,19 +1615,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1680,6 +1722,30 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1695,26 +1761,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1743,17 +1800,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1766,17 +1819,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1785,10 +1827,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1797,16 +1839,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1815,115 +1857,115 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2324,12 +2366,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L174"/>
+  <dimension ref="A1:L178"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A34" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="3" topLeftCell="A73" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C53" sqref="C53"/>
+      <selection pane="bottomLeft" activeCell="B93" sqref="B93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -4325,20 +4367,24 @@
       <c r="F78" s="7"/>
       <c r="G78" s="7"/>
       <c r="H78" s="7"/>
-      <c r="I78" s="7"/>
-      <c r="J78" s="7"/>
+      <c r="I78" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="J78" s="2" t="s">
+        <v>272</v>
+      </c>
       <c r="K78" s="7" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="L78" s="7"/>
     </row>
     <row r="79" ht="18" customHeight="1" spans="1:12">
       <c r="A79" s="7"/>
       <c r="B79" s="7" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="C79" s="8" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="D79" s="7"/>
       <c r="E79" s="7"/>
@@ -4347,18 +4393,18 @@
       <c r="H79" s="7"/>
       <c r="I79" s="7"/>
       <c r="J79" s="7"/>
-      <c r="K79" s="11" t="s">
-        <v>181</v>
+      <c r="K79" s="7" t="s">
+        <v>276</v>
       </c>
       <c r="L79" s="7"/>
     </row>
     <row r="80" ht="18" customHeight="1" spans="1:12">
       <c r="A80" s="7"/>
       <c r="B80" s="7" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="C80" s="8" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="D80" s="7"/>
       <c r="E80" s="7"/>
@@ -4366,30 +4412,26 @@
       <c r="G80" s="7"/>
       <c r="H80" s="7"/>
       <c r="I80" s="7"/>
+      <c r="J80" s="7"/>
       <c r="K80" s="11" t="s">
-        <v>271</v>
+        <v>181</v>
       </c>
       <c r="L80" s="7"/>
     </row>
     <row r="81" ht="18" customHeight="1" spans="1:12">
       <c r="A81" s="7"/>
-      <c r="B81" s="8" t="s">
-        <v>276</v>
+      <c r="B81" s="7" t="s">
+        <v>279</v>
       </c>
       <c r="C81" s="8" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="D81" s="7"/>
       <c r="E81" s="7"/>
       <c r="F81" s="7"/>
       <c r="G81" s="7"/>
       <c r="H81" s="7"/>
-      <c r="I81" s="7" t="s">
-        <v>278</v>
-      </c>
-      <c r="J81" s="2" t="s">
-        <v>279</v>
-      </c>
+      <c r="I81" s="7"/>
       <c r="K81" s="11" t="s">
         <v>276</v>
       </c>
@@ -4397,40 +4439,42 @@
     </row>
     <row r="82" ht="18" customHeight="1" spans="1:12">
       <c r="A82" s="7"/>
-      <c r="B82" s="7" t="s">
-        <v>280</v>
-      </c>
-      <c r="C82" s="12" t="s">
+      <c r="B82" s="8" t="s">
         <v>281</v>
+      </c>
+      <c r="C82" s="8" t="s">
+        <v>282</v>
       </c>
       <c r="D82" s="7"/>
       <c r="E82" s="7"/>
       <c r="F82" s="7"/>
       <c r="G82" s="7"/>
       <c r="H82" s="7"/>
-      <c r="I82" s="7"/>
-      <c r="J82" s="7"/>
+      <c r="I82" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="J82" s="2" t="s">
+        <v>272</v>
+      </c>
       <c r="K82" s="11" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="L82" s="7"/>
     </row>
     <row r="83" ht="18" customHeight="1" spans="1:12">
       <c r="A83" s="7"/>
       <c r="B83" s="7" t="s">
-        <v>283</v>
-      </c>
-      <c r="C83" s="8" t="s">
         <v>284</v>
+      </c>
+      <c r="C83" s="12" t="s">
+        <v>285</v>
       </c>
       <c r="D83" s="7"/>
       <c r="E83" s="7"/>
       <c r="F83" s="7"/>
       <c r="G83" s="7"/>
       <c r="H83" s="7"/>
-      <c r="I83" s="7" t="s">
-        <v>285</v>
-      </c>
+      <c r="I83" s="7"/>
       <c r="J83" s="7"/>
       <c r="K83" s="11" t="s">
         <v>286</v>
@@ -4450,20 +4494,22 @@
       <c r="F84" s="7"/>
       <c r="G84" s="7"/>
       <c r="H84" s="7"/>
-      <c r="I84" s="7"/>
+      <c r="I84" s="7" t="s">
+        <v>289</v>
+      </c>
       <c r="J84" s="7"/>
       <c r="K84" s="11" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="L84" s="7"/>
     </row>
     <row r="85" ht="18" customHeight="1" spans="1:12">
       <c r="A85" s="7"/>
-      <c r="B85" s="11" t="s">
-        <v>290</v>
+      <c r="B85" s="7" t="s">
+        <v>291</v>
       </c>
       <c r="C85" s="8" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="D85" s="7"/>
       <c r="E85" s="7"/>
@@ -4473,31 +4519,27 @@
       <c r="I85" s="7"/>
       <c r="J85" s="7"/>
       <c r="K85" s="11" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="L85" s="7"/>
     </row>
     <row r="86" ht="18" customHeight="1" spans="1:12">
       <c r="A86" s="7"/>
-      <c r="B86" s="7" t="s">
-        <v>293</v>
+      <c r="B86" s="11" t="s">
+        <v>294</v>
       </c>
       <c r="C86" s="8" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="D86" s="7"/>
-      <c r="E86" s="7" t="s">
-        <v>295</v>
-      </c>
+      <c r="E86" s="7"/>
       <c r="F86" s="7"/>
       <c r="G86" s="7"/>
       <c r="H86" s="7"/>
       <c r="I86" s="7"/>
-      <c r="J86" s="7" t="s">
+      <c r="J86" s="7"/>
+      <c r="K86" s="11" t="s">
         <v>296</v>
-      </c>
-      <c r="K86" s="7" t="s">
-        <v>289</v>
       </c>
       <c r="L86" s="7"/>
     </row>
@@ -4510,21 +4552,29 @@
         <v>298</v>
       </c>
       <c r="D87" s="7"/>
-      <c r="E87" s="7"/>
+      <c r="E87" s="7" t="s">
+        <v>299</v>
+      </c>
       <c r="F87" s="7"/>
       <c r="G87" s="7"/>
       <c r="H87" s="7"/>
       <c r="I87" s="7"/>
-      <c r="J87" s="7"/>
+      <c r="J87" s="7" t="s">
+        <v>300</v>
+      </c>
       <c r="K87" s="7" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="L87" s="7"/>
     </row>
     <row r="88" ht="18" customHeight="1" spans="1:12">
       <c r="A88" s="7"/>
-      <c r="B88" s="7"/>
-      <c r="C88" s="8"/>
+      <c r="B88" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="C88" s="8" t="s">
+        <v>302</v>
+      </c>
       <c r="D88" s="7"/>
       <c r="E88" s="7"/>
       <c r="F88" s="7"/>
@@ -4532,17 +4582,17 @@
       <c r="H88" s="7"/>
       <c r="I88" s="7"/>
       <c r="J88" s="7"/>
-      <c r="K88" s="7"/>
+      <c r="K88" s="7" t="s">
+        <v>303</v>
+      </c>
       <c r="L88" s="7"/>
     </row>
     <row r="89" ht="18" customHeight="1" spans="1:12">
       <c r="A89" s="7"/>
       <c r="B89" s="7" t="s">
-        <v>300</v>
-      </c>
-      <c r="C89" s="8" t="s">
-        <v>301</v>
-      </c>
+        <v>304</v>
+      </c>
+      <c r="C89" s="8"/>
       <c r="D89" s="7"/>
       <c r="E89" s="7"/>
       <c r="F89" s="7"/>
@@ -4551,7 +4601,7 @@
       <c r="I89" s="7"/>
       <c r="J89" s="7"/>
       <c r="K89" s="7" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="L89" s="7"/>
     </row>
@@ -4572,10 +4622,10 @@
     <row r="91" ht="18" customHeight="1" spans="1:12">
       <c r="A91" s="7"/>
       <c r="B91" s="7" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="C91" s="8" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="D91" s="7"/>
       <c r="E91" s="7"/>
@@ -4585,14 +4635,18 @@
       <c r="I91" s="7"/>
       <c r="J91" s="7"/>
       <c r="K91" s="7" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="L91" s="7"/>
     </row>
     <row r="92" ht="18" customHeight="1" spans="1:12">
       <c r="A92" s="7"/>
-      <c r="B92" s="7"/>
-      <c r="C92" s="8"/>
+      <c r="B92" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="C92" s="8" t="s">
+        <v>307</v>
+      </c>
       <c r="D92" s="7"/>
       <c r="E92" s="7"/>
       <c r="F92" s="7"/>
@@ -4600,217 +4654,211 @@
       <c r="H92" s="7"/>
       <c r="I92" s="7"/>
       <c r="J92" s="7"/>
-      <c r="K92" s="7"/>
+      <c r="K92" s="7" t="s">
+        <v>310</v>
+      </c>
       <c r="L92" s="7"/>
     </row>
     <row r="93" ht="18" customHeight="1" spans="1:12">
       <c r="A93" s="7"/>
-      <c r="B93" s="7" t="s">
-        <v>306</v>
-      </c>
-      <c r="C93" s="8" t="s">
-        <v>307</v>
-      </c>
+      <c r="B93" s="7"/>
+      <c r="C93" s="8"/>
       <c r="D93" s="7"/>
-      <c r="E93" s="7" t="s">
-        <v>308</v>
-      </c>
+      <c r="E93" s="7"/>
       <c r="F93" s="7"/>
       <c r="G93" s="7"/>
       <c r="H93" s="7"/>
-      <c r="I93" s="7" t="s">
-        <v>308</v>
-      </c>
-      <c r="J93" s="7" t="s">
-        <v>309</v>
-      </c>
-      <c r="K93" s="7" t="s">
-        <v>310</v>
-      </c>
-      <c r="L93" s="14" t="s">
-        <v>311</v>
-      </c>
+      <c r="I93" s="7"/>
+      <c r="J93" s="7"/>
+      <c r="K93" s="7"/>
+      <c r="L93" s="7"/>
     </row>
     <row r="94" ht="18" customHeight="1" spans="1:12">
       <c r="A94" s="7"/>
       <c r="B94" s="7" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
       <c r="C94" s="8" t="s">
         <v>312</v>
       </c>
       <c r="D94" s="7"/>
-      <c r="E94" s="7" t="s">
-        <v>308</v>
-      </c>
+      <c r="E94" s="7"/>
       <c r="F94" s="7"/>
       <c r="G94" s="7"/>
       <c r="H94" s="7"/>
-      <c r="I94" s="7" t="s">
-        <v>308</v>
-      </c>
-      <c r="J94" s="7" t="s">
+      <c r="I94" s="7"/>
+      <c r="J94" s="7"/>
+      <c r="K94" s="7" t="s">
         <v>313</v>
       </c>
-      <c r="K94" s="7" t="s">
-        <v>310</v>
-      </c>
-      <c r="L94" s="15" t="s">
-        <v>314</v>
-      </c>
+      <c r="L94" s="7"/>
     </row>
     <row r="95" ht="18" customHeight="1" spans="1:12">
       <c r="A95" s="7"/>
-      <c r="B95" s="7" t="s">
-        <v>306</v>
-      </c>
-      <c r="C95" s="8" t="s">
-        <v>315</v>
-      </c>
+      <c r="B95" s="7"/>
+      <c r="C95" s="8"/>
       <c r="D95" s="7"/>
       <c r="E95" s="7"/>
       <c r="F95" s="7"/>
       <c r="G95" s="7"/>
       <c r="H95" s="7"/>
-      <c r="I95" s="7" t="s">
-        <v>308</v>
-      </c>
-      <c r="J95" s="7" t="s">
-        <v>309</v>
-      </c>
-      <c r="K95" s="7" t="s">
-        <v>316</v>
-      </c>
-      <c r="L95" s="15" t="s">
-        <v>317</v>
-      </c>
+      <c r="I95" s="7"/>
+      <c r="J95" s="7"/>
+      <c r="K95" s="7"/>
+      <c r="L95" s="7"/>
     </row>
     <row r="96" ht="18" customHeight="1" spans="1:12">
       <c r="A96" s="7"/>
       <c r="B96" s="7" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="C96" s="8" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="D96" s="7"/>
-      <c r="E96" s="7" t="s">
-        <v>308</v>
-      </c>
+      <c r="E96" s="7"/>
       <c r="F96" s="7"/>
       <c r="G96" s="7"/>
       <c r="H96" s="7"/>
-      <c r="I96" s="7" t="s">
-        <v>308</v>
-      </c>
+      <c r="I96" s="7"/>
       <c r="J96" s="7"/>
-      <c r="K96" s="7" t="s">
-        <v>320</v>
-      </c>
+      <c r="K96" s="7"/>
       <c r="L96" s="7"/>
     </row>
     <row r="97" ht="18" customHeight="1" spans="1:12">
       <c r="A97" s="7"/>
       <c r="B97" s="7" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="C97" s="8" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="D97" s="7"/>
       <c r="E97" s="7" t="s">
-        <v>308</v>
+        <v>318</v>
       </c>
       <c r="F97" s="7"/>
       <c r="G97" s="7"/>
       <c r="H97" s="7"/>
       <c r="I97" s="7" t="s">
-        <v>308</v>
-      </c>
-      <c r="J97" s="7"/>
+        <v>318</v>
+      </c>
+      <c r="J97" s="7" t="s">
+        <v>319</v>
+      </c>
       <c r="K97" s="7" t="s">
-        <v>323</v>
-      </c>
-      <c r="L97" s="7"/>
+        <v>320</v>
+      </c>
+      <c r="L97" s="14" t="s">
+        <v>321</v>
+      </c>
     </row>
     <row r="98" ht="18" customHeight="1" spans="1:12">
       <c r="A98" s="7"/>
-      <c r="B98" s="7"/>
-      <c r="C98" s="8"/>
+      <c r="B98" s="7" t="s">
+        <v>316</v>
+      </c>
+      <c r="C98" s="8" t="s">
+        <v>322</v>
+      </c>
       <c r="D98" s="7"/>
-      <c r="E98" s="7"/>
+      <c r="E98" s="7" t="s">
+        <v>318</v>
+      </c>
       <c r="F98" s="7"/>
       <c r="G98" s="7"/>
       <c r="H98" s="7"/>
-      <c r="I98" s="7"/>
-      <c r="J98" s="7"/>
-      <c r="K98" s="7"/>
-      <c r="L98" s="7"/>
+      <c r="I98" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="J98" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="K98" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="L98" s="15" t="s">
+        <v>324</v>
+      </c>
     </row>
     <row r="99" ht="18" customHeight="1" spans="1:12">
       <c r="A99" s="7"/>
-      <c r="B99" s="7"/>
-      <c r="C99" s="8"/>
+      <c r="B99" s="7" t="s">
+        <v>316</v>
+      </c>
+      <c r="C99" s="8" t="s">
+        <v>325</v>
+      </c>
       <c r="D99" s="7"/>
       <c r="E99" s="7"/>
       <c r="F99" s="7"/>
       <c r="G99" s="7"/>
       <c r="H99" s="7"/>
-      <c r="I99" s="7"/>
-      <c r="J99" s="7"/>
-      <c r="K99" s="7"/>
-      <c r="L99" s="7"/>
+      <c r="I99" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="J99" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="K99" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="L99" s="15" t="s">
+        <v>327</v>
+      </c>
     </row>
     <row r="100" ht="18" customHeight="1" spans="1:12">
       <c r="A100" s="7"/>
-      <c r="B100" s="11" t="s">
-        <v>324</v>
-      </c>
-      <c r="C100" s="12" t="s">
-        <v>325</v>
+      <c r="B100" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="C100" s="8" t="s">
+        <v>329</v>
       </c>
       <c r="D100" s="7"/>
-      <c r="E100" s="7"/>
+      <c r="E100" s="7" t="s">
+        <v>318</v>
+      </c>
       <c r="F100" s="7"/>
       <c r="G100" s="7"/>
       <c r="H100" s="7"/>
-      <c r="I100" s="11" t="s">
-        <v>326</v>
+      <c r="I100" s="7" t="s">
+        <v>318</v>
       </c>
       <c r="J100" s="7"/>
-      <c r="K100" s="11" t="s">
-        <v>326</v>
+      <c r="K100" s="7" t="s">
+        <v>330</v>
       </c>
       <c r="L100" s="7"/>
     </row>
     <row r="101" ht="18" customHeight="1" spans="1:12">
       <c r="A101" s="7"/>
       <c r="B101" s="7" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="C101" s="8" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="D101" s="7"/>
-      <c r="E101" s="7"/>
+      <c r="E101" s="7" t="s">
+        <v>318</v>
+      </c>
       <c r="F101" s="7"/>
       <c r="G101" s="7"/>
       <c r="H101" s="7"/>
-      <c r="I101" s="7"/>
+      <c r="I101" s="7" t="s">
+        <v>318</v>
+      </c>
       <c r="J101" s="7"/>
-      <c r="K101" s="11" t="s">
-        <v>329</v>
+      <c r="K101" s="7" t="s">
+        <v>333</v>
       </c>
       <c r="L101" s="7"/>
     </row>
     <row r="102" ht="18" customHeight="1" spans="1:12">
       <c r="A102" s="7"/>
-      <c r="B102" s="7" t="s">
-        <v>330</v>
-      </c>
-      <c r="C102" s="8" t="s">
-        <v>331</v>
-      </c>
+      <c r="B102" s="7"/>
+      <c r="C102" s="8"/>
       <c r="D102" s="7"/>
       <c r="E102" s="7"/>
       <c r="F102" s="7"/>
@@ -4823,12 +4871,8 @@
     </row>
     <row r="103" ht="18" customHeight="1" spans="1:12">
       <c r="A103" s="7"/>
-      <c r="B103" s="7" t="s">
-        <v>332</v>
-      </c>
-      <c r="C103" s="12" t="s">
-        <v>333</v>
-      </c>
+      <c r="B103" s="7"/>
+      <c r="C103" s="8"/>
       <c r="D103" s="7"/>
       <c r="E103" s="7"/>
       <c r="F103" s="7"/>
@@ -4836,17 +4880,15 @@
       <c r="H103" s="7"/>
       <c r="I103" s="7"/>
       <c r="J103" s="7"/>
-      <c r="K103" s="7" t="s">
-        <v>332</v>
-      </c>
+      <c r="K103" s="7"/>
       <c r="L103" s="7"/>
     </row>
     <row r="104" ht="18" customHeight="1" spans="1:12">
       <c r="A104" s="7"/>
-      <c r="B104" s="7" t="s">
+      <c r="B104" s="11" t="s">
         <v>334</v>
       </c>
-      <c r="C104" s="8" t="s">
+      <c r="C104" s="12" t="s">
         <v>335</v>
       </c>
       <c r="D104" s="7"/>
@@ -4854,7 +4896,9 @@
       <c r="F104" s="7"/>
       <c r="G104" s="7"/>
       <c r="H104" s="7"/>
-      <c r="I104" s="7"/>
+      <c r="I104" s="11" t="s">
+        <v>336</v>
+      </c>
       <c r="J104" s="7"/>
       <c r="K104" s="11" t="s">
         <v>336</v>
@@ -4863,10 +4907,10 @@
     </row>
     <row r="105" ht="18" customHeight="1" spans="1:12">
       <c r="A105" s="7"/>
-      <c r="B105" s="11" t="s">
+      <c r="B105" s="7" t="s">
         <v>337</v>
       </c>
-      <c r="C105" s="12" t="s">
+      <c r="C105" s="8" t="s">
         <v>338</v>
       </c>
       <c r="D105" s="7"/>
@@ -4874,43 +4918,39 @@
       <c r="F105" s="7"/>
       <c r="G105" s="7"/>
       <c r="H105" s="7"/>
-      <c r="I105" s="7" t="s">
-        <v>339</v>
-      </c>
+      <c r="I105" s="7"/>
       <c r="J105" s="7"/>
-      <c r="K105" s="7" t="s">
+      <c r="K105" s="11" t="s">
         <v>339</v>
       </c>
       <c r="L105" s="7"/>
     </row>
     <row r="106" ht="18" customHeight="1" spans="1:12">
       <c r="A106" s="7"/>
-      <c r="B106" s="11" t="s">
+      <c r="B106" s="7" t="s">
         <v>340</v>
       </c>
-      <c r="C106" s="12" t="s">
+      <c r="C106" s="8" t="s">
         <v>341</v>
       </c>
       <c r="D106" s="7"/>
-      <c r="E106" s="7" t="s">
-        <v>342</v>
-      </c>
+      <c r="E106" s="7"/>
       <c r="F106" s="7"/>
       <c r="G106" s="7"/>
       <c r="H106" s="7"/>
-      <c r="I106" s="7" t="s">
-        <v>343</v>
-      </c>
+      <c r="I106" s="7"/>
       <c r="J106" s="7"/>
-      <c r="K106" s="7" t="s">
-        <v>344</v>
-      </c>
+      <c r="K106" s="7"/>
       <c r="L106" s="7"/>
     </row>
     <row r="107" ht="18" customHeight="1" spans="1:12">
       <c r="A107" s="7"/>
-      <c r="B107" s="7"/>
-      <c r="C107" s="8"/>
+      <c r="B107" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="C107" s="12" t="s">
+        <v>343</v>
+      </c>
       <c r="D107" s="7"/>
       <c r="E107" s="7"/>
       <c r="F107" s="7"/>
@@ -4918,38 +4958,38 @@
       <c r="H107" s="7"/>
       <c r="I107" s="7"/>
       <c r="J107" s="7"/>
-      <c r="K107" s="7"/>
+      <c r="K107" s="7" t="s">
+        <v>342</v>
+      </c>
       <c r="L107" s="7"/>
     </row>
     <row r="108" ht="18" customHeight="1" spans="1:12">
       <c r="A108" s="7"/>
       <c r="B108" s="7" t="s">
+        <v>344</v>
+      </c>
+      <c r="C108" s="8" t="s">
         <v>345</v>
-      </c>
-      <c r="C108" s="8" t="s">
-        <v>346</v>
       </c>
       <c r="D108" s="7"/>
       <c r="E108" s="7"/>
       <c r="F108" s="7"/>
       <c r="G108" s="7"/>
       <c r="H108" s="7"/>
-      <c r="I108" s="7" t="s">
-        <v>347</v>
-      </c>
+      <c r="I108" s="7"/>
       <c r="J108" s="7"/>
-      <c r="K108" s="7" t="s">
-        <v>348</v>
+      <c r="K108" s="11" t="s">
+        <v>346</v>
       </c>
       <c r="L108" s="7"/>
     </row>
     <row r="109" ht="18" customHeight="1" spans="1:12">
       <c r="A109" s="7"/>
-      <c r="B109" s="7" t="s">
-        <v>349</v>
-      </c>
-      <c r="C109" s="8" t="s">
-        <v>350</v>
+      <c r="B109" s="11" t="s">
+        <v>347</v>
+      </c>
+      <c r="C109" s="12" t="s">
+        <v>348</v>
       </c>
       <c r="D109" s="7"/>
       <c r="E109" s="7"/>
@@ -4957,26 +4997,36 @@
       <c r="G109" s="7"/>
       <c r="H109" s="7"/>
       <c r="I109" s="7" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="J109" s="7"/>
       <c r="K109" s="7" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="L109" s="7"/>
     </row>
     <row r="110" ht="18" customHeight="1" spans="1:12">
       <c r="A110" s="7"/>
-      <c r="B110" s="7"/>
-      <c r="C110" s="8"/>
+      <c r="B110" s="11" t="s">
+        <v>350</v>
+      </c>
+      <c r="C110" s="12" t="s">
+        <v>351</v>
+      </c>
       <c r="D110" s="7"/>
-      <c r="E110" s="7"/>
+      <c r="E110" s="7" t="s">
+        <v>352</v>
+      </c>
       <c r="F110" s="7"/>
       <c r="G110" s="7"/>
       <c r="H110" s="7"/>
-      <c r="I110" s="7"/>
+      <c r="I110" s="7" t="s">
+        <v>353</v>
+      </c>
       <c r="J110" s="7"/>
-      <c r="K110" s="7"/>
+      <c r="K110" s="7" t="s">
+        <v>354</v>
+      </c>
       <c r="L110" s="7"/>
     </row>
     <row r="111" ht="18" customHeight="1" spans="1:12">
@@ -4995,30 +5045,46 @@
     </row>
     <row r="112" ht="18" customHeight="1" spans="1:12">
       <c r="A112" s="7"/>
-      <c r="B112" s="7"/>
-      <c r="C112" s="8"/>
+      <c r="B112" s="7" t="s">
+        <v>355</v>
+      </c>
+      <c r="C112" s="8" t="s">
+        <v>356</v>
+      </c>
       <c r="D112" s="7"/>
       <c r="E112" s="7"/>
       <c r="F112" s="7"/>
       <c r="G112" s="7"/>
       <c r="H112" s="7"/>
-      <c r="I112" s="7"/>
+      <c r="I112" s="7" t="s">
+        <v>357</v>
+      </c>
       <c r="J112" s="7"/>
-      <c r="K112" s="7"/>
+      <c r="K112" s="7" t="s">
+        <v>358</v>
+      </c>
       <c r="L112" s="7"/>
     </row>
     <row r="113" ht="18" customHeight="1" spans="1:12">
       <c r="A113" s="7"/>
-      <c r="B113" s="7"/>
-      <c r="C113" s="8"/>
+      <c r="B113" s="7" t="s">
+        <v>359</v>
+      </c>
+      <c r="C113" s="8" t="s">
+        <v>360</v>
+      </c>
       <c r="D113" s="7"/>
       <c r="E113" s="7"/>
       <c r="F113" s="7"/>
       <c r="G113" s="7"/>
       <c r="H113" s="7"/>
-      <c r="I113" s="7"/>
+      <c r="I113" s="7" t="s">
+        <v>361</v>
+      </c>
       <c r="J113" s="7"/>
-      <c r="K113" s="7"/>
+      <c r="K113" s="7" t="s">
+        <v>362</v>
+      </c>
       <c r="L113" s="7"/>
     </row>
     <row r="114" ht="18" customHeight="1" spans="1:12">
@@ -5037,8 +5103,12 @@
     </row>
     <row r="115" ht="18" customHeight="1" spans="1:12">
       <c r="A115" s="7"/>
-      <c r="B115" s="7"/>
-      <c r="C115" s="8"/>
+      <c r="B115" s="7" t="s">
+        <v>363</v>
+      </c>
+      <c r="C115" s="8" t="s">
+        <v>364</v>
+      </c>
       <c r="D115" s="7"/>
       <c r="E115" s="7"/>
       <c r="F115" s="7"/>
@@ -5046,8 +5116,12 @@
       <c r="H115" s="7"/>
       <c r="I115" s="7"/>
       <c r="J115" s="7"/>
-      <c r="K115" s="7"/>
-      <c r="L115" s="7"/>
+      <c r="K115" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="L115" s="15" t="s">
+        <v>366</v>
+      </c>
     </row>
     <row r="116" ht="18" customHeight="1" spans="1:12">
       <c r="A116" s="7"/>
@@ -5875,10 +5949,67 @@
       <c r="K174" s="7"/>
       <c r="L174" s="7"/>
     </row>
+    <row r="175" ht="18" customHeight="1" spans="1:12">
+      <c r="A175" s="7"/>
+      <c r="B175" s="7"/>
+      <c r="C175" s="8"/>
+      <c r="D175" s="7"/>
+      <c r="E175" s="7"/>
+      <c r="F175" s="7"/>
+      <c r="G175" s="7"/>
+      <c r="H175" s="7"/>
+      <c r="I175" s="7"/>
+      <c r="J175" s="7"/>
+      <c r="K175" s="7"/>
+      <c r="L175" s="7"/>
+    </row>
+    <row r="176" ht="18" customHeight="1" spans="1:12">
+      <c r="A176" s="7"/>
+      <c r="B176" s="7"/>
+      <c r="C176" s="8"/>
+      <c r="D176" s="7"/>
+      <c r="E176" s="7"/>
+      <c r="F176" s="7"/>
+      <c r="G176" s="7"/>
+      <c r="H176" s="7"/>
+      <c r="I176" s="7"/>
+      <c r="J176" s="7"/>
+      <c r="K176" s="7"/>
+      <c r="L176" s="7"/>
+    </row>
+    <row r="177" ht="18" customHeight="1" spans="1:12">
+      <c r="A177" s="7"/>
+      <c r="B177" s="7"/>
+      <c r="C177" s="8"/>
+      <c r="D177" s="7"/>
+      <c r="E177" s="7"/>
+      <c r="F177" s="7"/>
+      <c r="G177" s="7"/>
+      <c r="H177" s="7"/>
+      <c r="I177" s="7"/>
+      <c r="J177" s="7"/>
+      <c r="K177" s="7"/>
+      <c r="L177" s="7"/>
+    </row>
+    <row r="178" ht="18" customHeight="1" spans="1:12">
+      <c r="A178" s="7"/>
+      <c r="B178" s="7"/>
+      <c r="C178" s="8"/>
+      <c r="D178" s="7"/>
+      <c r="E178" s="7"/>
+      <c r="F178" s="7"/>
+      <c r="G178" s="7"/>
+      <c r="H178" s="7"/>
+      <c r="I178" s="7"/>
+      <c r="J178" s="7"/>
+      <c r="K178" s="7"/>
+      <c r="L178" s="7"/>
+    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="L93" r:id="rId3" display="https://item.szlcsc.com/87756.html" tooltip="https://item.szlcsc.com/87756.html"/>
-    <hyperlink ref="L94" r:id="rId4" display="https://item.szlcsc.com/136348.html"/>
+    <hyperlink ref="L97" r:id="rId3" display="https://item.szlcsc.com/87756.html" tooltip="https://item.szlcsc.com/87756.html"/>
+    <hyperlink ref="L98" r:id="rId4" display="https://item.szlcsc.com/136348.html"/>
+    <hyperlink ref="L115" r:id="rId5" display="https://item.szlcsc.com/72964.html"/>
   </hyperlinks>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/物料索引.xlsx
+++ b/物料索引.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20325"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Cadence LIB\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{9CF1815A-ABFE-4757-85DF-DBB5BFEF22BE}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="14070"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28692" windowHeight="14076" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,12 +22,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>zxiat</author>
   </authors>
   <commentList>
-    <comment ref="A2" authorId="0">
+    <comment ref="A2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -51,7 +57,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A3" authorId="0">
+    <comment ref="A3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -88,7 +94,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="563" uniqueCount="368">
   <si>
     <t>物料编码</t>
   </si>
@@ -1164,9 +1170,6 @@
     <t>TE</t>
   </si>
   <si>
-    <t>https://item.szlcsc.com/136348.html</t>
-  </si>
-  <si>
     <t>RJ45,8P8C,5x百兆口，无变压器，90度</t>
   </si>
   <si>
@@ -1192,12 +1195,6 @@
   </si>
   <si>
     <t>hr911130c</t>
-  </si>
-  <si>
-    <t>USB_A-F</t>
-  </si>
-  <si>
-    <t>USB A型母座 单个，侧插；http://item.szlcsc.com/26978.html</t>
   </si>
   <si>
     <t>USB-AF</t>
@@ -1324,20 +1321,31 @@
     <t>sw_2p_3x6x5</t>
   </si>
   <si>
+    <t>https://item.szlcsc.com/136348.html</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
     <t>https://item.szlcsc.com/72964.html</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://item.szlcsc.com/26978.html</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>USB_A-F</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>USB A型母座，侧插；</t>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="22">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1362,149 +1370,30 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="33">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1513,192 +1402,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -1721,251 +1430,12 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2012,68 +1482,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="10" applyNumberFormat="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="10" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -2360,35 +1787,34 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L178"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A73" activePane="bottomLeft" state="frozen"/>
-      <selection/>
-      <selection pane="bottomLeft" activeCell="B93" sqref="B93"/>
+      <pane ySplit="3" topLeftCell="A99" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C104" sqref="C104"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18" style="2" customWidth="1"/>
-    <col min="2" max="2" width="18.2166666666667" style="2" customWidth="1"/>
+    <col min="2" max="2" width="18.21875" style="2" customWidth="1"/>
     <col min="3" max="3" width="27" style="3" customWidth="1"/>
     <col min="4" max="4" width="9" style="2"/>
-    <col min="5" max="5" width="10.8833333333333" style="2" customWidth="1"/>
+    <col min="5" max="5" width="10.88671875" style="2" customWidth="1"/>
     <col min="6" max="9" width="9" style="2"/>
-    <col min="10" max="10" width="11.8833333333333" style="2" customWidth="1"/>
-    <col min="11" max="11" width="13.8833333333333" style="2" customWidth="1"/>
+    <col min="10" max="10" width="11.88671875" style="2" customWidth="1"/>
+    <col min="11" max="11" width="13.88671875" style="2" customWidth="1"/>
     <col min="12" max="12" width="9" style="2"/>
     <col min="13" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="18" customHeight="1" spans="1:12">
+    <row r="1" spans="1:12" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -2426,7 +1852,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" ht="18" customHeight="1" spans="1:12">
+    <row r="2" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>12</v>
       </c>
@@ -2460,7 +1886,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" ht="18" customHeight="1" spans="1:12">
+    <row r="3" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>21</v>
       </c>
@@ -2494,7 +1920,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="4" customFormat="1" ht="18" customHeight="1" spans="1:12">
+    <row r="4" spans="1:12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="7"/>
       <c r="B4" s="7"/>
       <c r="C4" s="8"/>
@@ -2508,7 +1934,7 @@
       <c r="K4" s="7"/>
       <c r="L4" s="7"/>
     </row>
-    <row r="5" customFormat="1" ht="18" customHeight="1" spans="1:12">
+    <row r="5" spans="1:12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7"/>
       <c r="B5" s="7"/>
       <c r="C5" s="8"/>
@@ -2522,7 +1948,7 @@
       <c r="K5" s="7"/>
       <c r="L5" s="7"/>
     </row>
-    <row r="6" ht="18" customHeight="1" spans="1:12">
+    <row r="6" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>30</v>
       </c>
@@ -2556,7 +1982,7 @@
       <c r="K6" s="7"/>
       <c r="L6" s="7"/>
     </row>
-    <row r="7" ht="18" customHeight="1" spans="1:12">
+    <row r="7" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
         <v>38</v>
       </c>
@@ -2590,7 +2016,7 @@
       <c r="K7" s="7"/>
       <c r="L7" s="7"/>
     </row>
-    <row r="8" ht="18" customHeight="1" spans="1:12">
+    <row r="8" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>42</v>
       </c>
@@ -2624,7 +2050,7 @@
       <c r="K8" s="7"/>
       <c r="L8" s="7"/>
     </row>
-    <row r="9" ht="18" customHeight="1" spans="1:12">
+    <row r="9" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>45</v>
       </c>
@@ -2658,7 +2084,7 @@
       <c r="K9" s="7"/>
       <c r="L9" s="7"/>
     </row>
-    <row r="10" ht="18" customHeight="1" spans="1:12">
+    <row r="10" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>50</v>
       </c>
@@ -2692,7 +2118,7 @@
       <c r="K10" s="7"/>
       <c r="L10" s="7"/>
     </row>
-    <row r="11" ht="18" customHeight="1" spans="1:12">
+    <row r="11" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
         <v>53</v>
       </c>
@@ -2726,7 +2152,7 @@
       <c r="K11" s="7"/>
       <c r="L11" s="7"/>
     </row>
-    <row r="12" ht="18" customHeight="1" spans="1:12">
+    <row r="12" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
         <v>57</v>
       </c>
@@ -2760,7 +2186,7 @@
       <c r="K12" s="7"/>
       <c r="L12" s="7"/>
     </row>
-    <row r="13" ht="18" customHeight="1" spans="1:12">
+    <row r="13" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
         <v>62</v>
       </c>
@@ -2794,7 +2220,7 @@
       <c r="K13" s="7"/>
       <c r="L13" s="7"/>
     </row>
-    <row r="14" ht="18" customHeight="1" spans="1:12">
+    <row r="14" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
         <v>66</v>
       </c>
@@ -2828,7 +2254,7 @@
       <c r="K14" s="7"/>
       <c r="L14" s="7"/>
     </row>
-    <row r="15" ht="18" customHeight="1" spans="1:12">
+    <row r="15" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
         <v>69</v>
       </c>
@@ -2862,7 +2288,7 @@
       <c r="K15" s="7"/>
       <c r="L15" s="7"/>
     </row>
-    <row r="16" ht="18" customHeight="1" spans="1:12">
+    <row r="16" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
         <v>72</v>
       </c>
@@ -2896,7 +2322,7 @@
       <c r="K16" s="7"/>
       <c r="L16" s="7"/>
     </row>
-    <row r="17" ht="18" customHeight="1" spans="1:12">
+    <row r="17" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
         <v>76</v>
       </c>
@@ -2930,7 +2356,7 @@
       <c r="K17" s="7"/>
       <c r="L17" s="7"/>
     </row>
-    <row r="18" ht="18" customHeight="1" spans="1:12">
+    <row r="18" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
         <v>79</v>
       </c>
@@ -2966,7 +2392,7 @@
       </c>
       <c r="L18" s="7"/>
     </row>
-    <row r="19" ht="18" customHeight="1" spans="1:12">
+    <row r="19" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
         <v>83</v>
       </c>
@@ -3000,7 +2426,7 @@
       <c r="K19" s="9"/>
       <c r="L19" s="7"/>
     </row>
-    <row r="20" ht="18" customHeight="1" spans="1:12">
+    <row r="20" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
         <v>87</v>
       </c>
@@ -3034,7 +2460,7 @@
       <c r="K20" s="9"/>
       <c r="L20" s="7"/>
     </row>
-    <row r="21" ht="18" customHeight="1" spans="1:12">
+    <row r="21" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="7"/>
       <c r="B21" s="7" t="s">
         <v>93</v>
@@ -3066,7 +2492,7 @@
       </c>
       <c r="L21" s="7"/>
     </row>
-    <row r="22" ht="18" customHeight="1" spans="1:12">
+    <row r="22" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="7"/>
       <c r="B22" s="7" t="s">
         <v>99</v>
@@ -3100,7 +2526,7 @@
       </c>
       <c r="L22" s="7"/>
     </row>
-    <row r="23" ht="18" customHeight="1" spans="1:12">
+    <row r="23" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="7"/>
       <c r="B23" s="7" t="s">
         <v>101</v>
@@ -3134,7 +2560,7 @@
       </c>
       <c r="L23" s="7"/>
     </row>
-    <row r="24" ht="18" customHeight="1" spans="1:12">
+    <row r="24" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="7"/>
       <c r="B24" s="7"/>
       <c r="C24" s="8"/>
@@ -3148,7 +2574,7 @@
       <c r="K24" s="9"/>
       <c r="L24" s="7"/>
     </row>
-    <row r="25" ht="18" customHeight="1" spans="1:12">
+    <row r="25" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="7"/>
       <c r="B25" s="7" t="s">
         <v>105</v>
@@ -3182,7 +2608,7 @@
       </c>
       <c r="L25" s="7"/>
     </row>
-    <row r="26" ht="18" customHeight="1" spans="1:12">
+    <row r="26" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="7"/>
       <c r="B26" s="7" t="s">
         <v>112</v>
@@ -3216,7 +2642,7 @@
       </c>
       <c r="L26" s="7"/>
     </row>
-    <row r="27" ht="18" customHeight="1" spans="1:12">
+    <row r="27" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="7"/>
       <c r="B27" s="7"/>
       <c r="C27" s="8"/>
@@ -3230,7 +2656,7 @@
       <c r="K27" s="7"/>
       <c r="L27" s="7"/>
     </row>
-    <row r="28" ht="18" customHeight="1" spans="1:12">
+    <row r="28" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="7"/>
       <c r="B28" s="7" t="s">
         <v>118</v>
@@ -3258,7 +2684,7 @@
       </c>
       <c r="L28" s="7"/>
     </row>
-    <row r="29" ht="18" customHeight="1" spans="1:12">
+    <row r="29" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="7"/>
       <c r="B29" s="7"/>
       <c r="C29" s="8"/>
@@ -3272,7 +2698,7 @@
       <c r="K29" s="7"/>
       <c r="L29" s="7"/>
     </row>
-    <row r="30" ht="18" customHeight="1" spans="1:12">
+    <row r="30" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="7"/>
       <c r="B30" s="7" t="s">
         <v>125</v>
@@ -3304,7 +2730,7 @@
       </c>
       <c r="L30" s="7"/>
     </row>
-    <row r="31" ht="18" customHeight="1" spans="1:12">
+    <row r="31" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="7"/>
       <c r="B31" s="7"/>
       <c r="C31" s="8"/>
@@ -3318,7 +2744,7 @@
       <c r="K31" s="7"/>
       <c r="L31" s="7"/>
     </row>
-    <row r="32" ht="18" customHeight="1" spans="1:12">
+    <row r="32" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="7"/>
       <c r="B32" s="7" t="s">
         <v>133</v>
@@ -3344,7 +2770,7 @@
       </c>
       <c r="L32" s="7"/>
     </row>
-    <row r="33" ht="18" customHeight="1" spans="1:12">
+    <row r="33" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="7"/>
       <c r="B33" s="7" t="s">
         <v>137</v>
@@ -3374,7 +2800,7 @@
       </c>
       <c r="L33" s="7"/>
     </row>
-    <row r="34" ht="18" customHeight="1" spans="1:12">
+    <row r="34" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="7"/>
       <c r="B34" s="11" t="s">
         <v>142</v>
@@ -3406,7 +2832,7 @@
       </c>
       <c r="L34" s="7"/>
     </row>
-    <row r="35" ht="18" customHeight="1" spans="1:12">
+    <row r="35" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="7"/>
       <c r="B35" s="7" t="s">
         <v>148</v>
@@ -3438,7 +2864,7 @@
       </c>
       <c r="L35" s="7"/>
     </row>
-    <row r="36" ht="18" customHeight="1" spans="1:12">
+    <row r="36" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="7"/>
       <c r="B36" s="7" t="s">
         <v>153</v>
@@ -3470,7 +2896,7 @@
       </c>
       <c r="L36" s="7"/>
     </row>
-    <row r="37" ht="18" customHeight="1" spans="1:12">
+    <row r="37" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="7"/>
       <c r="B37" s="7" t="s">
         <v>156</v>
@@ -3502,7 +2928,7 @@
       </c>
       <c r="L37" s="7"/>
     </row>
-    <row r="38" ht="18" customHeight="1" spans="1:12">
+    <row r="38" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="7"/>
       <c r="B38" s="7" t="s">
         <v>162</v>
@@ -3532,7 +2958,7 @@
       </c>
       <c r="L38" s="7"/>
     </row>
-    <row r="39" ht="18" customHeight="1" spans="1:12">
+    <row r="39" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="7"/>
       <c r="B39" s="7"/>
       <c r="C39" s="8"/>
@@ -3546,7 +2972,7 @@
       <c r="K39" s="7"/>
       <c r="L39" s="7"/>
     </row>
-    <row r="40" ht="18" customHeight="1" spans="1:12">
+    <row r="40" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="7"/>
       <c r="B40" s="7" t="s">
         <v>168</v>
@@ -3568,7 +2994,7 @@
       <c r="K40" s="7"/>
       <c r="L40" s="7"/>
     </row>
-    <row r="41" ht="18" customHeight="1" spans="1:12">
+    <row r="41" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="7"/>
       <c r="B41" s="7" t="s">
         <v>172</v>
@@ -3594,7 +3020,7 @@
       </c>
       <c r="L41" s="7"/>
     </row>
-    <row r="42" ht="18" customHeight="1" spans="1:12">
+    <row r="42" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="7"/>
       <c r="B42" s="7" t="s">
         <v>175</v>
@@ -3618,7 +3044,7 @@
       <c r="K42" s="7"/>
       <c r="L42" s="7"/>
     </row>
-    <row r="43" ht="18" customHeight="1" spans="1:12">
+    <row r="43" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="7"/>
       <c r="B43" s="7" t="s">
         <v>179</v>
@@ -3638,7 +3064,7 @@
       </c>
       <c r="L43" s="7"/>
     </row>
-    <row r="44" ht="18" customHeight="1" spans="1:12">
+    <row r="44" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="7"/>
       <c r="B44" s="7"/>
       <c r="C44" s="8"/>
@@ -3652,7 +3078,7 @@
       <c r="K44" s="7"/>
       <c r="L44" s="7"/>
     </row>
-    <row r="45" ht="18" customHeight="1" spans="1:12">
+    <row r="45" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="7"/>
       <c r="B45" s="7" t="s">
         <v>182</v>
@@ -3676,7 +3102,7 @@
       </c>
       <c r="L45" s="7"/>
     </row>
-    <row r="46" ht="18" customHeight="1" spans="1:12">
+    <row r="46" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="7"/>
       <c r="B46" s="11" t="s">
         <v>186</v>
@@ -3702,7 +3128,7 @@
       </c>
       <c r="L46" s="7"/>
     </row>
-    <row r="47" ht="18" customHeight="1" spans="1:12">
+    <row r="47" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="7"/>
       <c r="B47" s="7" t="s">
         <v>190</v>
@@ -3726,7 +3152,7 @@
       </c>
       <c r="L47" s="7"/>
     </row>
-    <row r="48" ht="18" customHeight="1" spans="1:12">
+    <row r="48" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="7"/>
       <c r="B48" s="7"/>
       <c r="C48" s="8"/>
@@ -3740,7 +3166,7 @@
       <c r="K48" s="7"/>
       <c r="L48" s="7"/>
     </row>
-    <row r="49" ht="18" customHeight="1" spans="1:12">
+    <row r="49" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="7"/>
       <c r="B49" s="7" t="s">
         <v>195</v>
@@ -3760,7 +3186,7 @@
       </c>
       <c r="L49" s="7"/>
     </row>
-    <row r="50" ht="18" customHeight="1" spans="1:12">
+    <row r="50" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="7"/>
       <c r="B50" s="7"/>
       <c r="C50" s="8"/>
@@ -3774,7 +3200,7 @@
       <c r="K50" s="7"/>
       <c r="L50" s="7"/>
     </row>
-    <row r="51" ht="18" customHeight="1" spans="1:12">
+    <row r="51" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="7"/>
       <c r="B51" s="10" t="s">
         <v>198</v>
@@ -3798,7 +3224,7 @@
       </c>
       <c r="L51" s="7"/>
     </row>
-    <row r="52" ht="18" customHeight="1" spans="1:12">
+    <row r="52" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="7"/>
       <c r="B52" s="7"/>
       <c r="C52" s="8"/>
@@ -3812,7 +3238,7 @@
       <c r="K52" s="7"/>
       <c r="L52" s="7"/>
     </row>
-    <row r="53" ht="18" customHeight="1" spans="1:12">
+    <row r="53" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="7"/>
       <c r="B53" s="7" t="s">
         <v>202</v>
@@ -3834,7 +3260,7 @@
       </c>
       <c r="L53" s="7"/>
     </row>
-    <row r="54" ht="18" customHeight="1" spans="1:12">
+    <row r="54" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="7"/>
       <c r="B54" s="11" t="s">
         <v>205</v>
@@ -3856,7 +3282,7 @@
       </c>
       <c r="L54" s="7"/>
     </row>
-    <row r="55" ht="18" customHeight="1" spans="1:12">
+    <row r="55" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="7"/>
       <c r="B55" s="7"/>
       <c r="C55" s="8"/>
@@ -3870,7 +3296,7 @@
       <c r="K55" s="7"/>
       <c r="L55" s="7"/>
     </row>
-    <row r="56" ht="18" customHeight="1" spans="1:12">
+    <row r="56" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="7"/>
       <c r="B56" s="7" t="s">
         <v>208</v>
@@ -3902,7 +3328,7 @@
       </c>
       <c r="L56" s="7"/>
     </row>
-    <row r="57" ht="18" customHeight="1" spans="1:12">
+    <row r="57" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="7"/>
       <c r="B57" s="7" t="s">
         <v>214</v>
@@ -3930,7 +3356,7 @@
       </c>
       <c r="L57" s="7"/>
     </row>
-    <row r="58" ht="18" customHeight="1" spans="1:12">
+    <row r="58" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="7"/>
       <c r="B58" s="7"/>
       <c r="C58" s="8"/>
@@ -3944,7 +3370,7 @@
       <c r="K58" s="7"/>
       <c r="L58" s="7"/>
     </row>
-    <row r="59" ht="18" customHeight="1" spans="1:12">
+    <row r="59" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="7"/>
       <c r="B59" s="7" t="s">
         <v>216</v>
@@ -3964,7 +3390,7 @@
       </c>
       <c r="L59" s="7"/>
     </row>
-    <row r="60" ht="18" customHeight="1" spans="1:12">
+    <row r="60" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="7"/>
       <c r="B60" s="7"/>
       <c r="C60" s="8"/>
@@ -3978,7 +3404,7 @@
       <c r="K60" s="7"/>
       <c r="L60" s="7"/>
     </row>
-    <row r="61" ht="18" customHeight="1" spans="1:12">
+    <row r="61" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="7"/>
       <c r="B61" s="7" t="s">
         <v>218</v>
@@ -4004,7 +3430,7 @@
       </c>
       <c r="L61" s="7"/>
     </row>
-    <row r="62" ht="18" customHeight="1" spans="1:12">
+    <row r="62" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="7"/>
       <c r="B62" s="7" t="s">
         <v>224</v>
@@ -4028,7 +3454,7 @@
       </c>
       <c r="L62" s="7"/>
     </row>
-    <row r="63" ht="18" customHeight="1" spans="1:12">
+    <row r="63" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="7"/>
       <c r="B63" s="7"/>
       <c r="C63" s="8"/>
@@ -4042,7 +3468,7 @@
       <c r="K63" s="7"/>
       <c r="L63" s="7"/>
     </row>
-    <row r="64" ht="18" customHeight="1" spans="1:12">
+    <row r="64" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="7"/>
       <c r="B64" s="10" t="s">
         <v>229</v>
@@ -4062,7 +3488,7 @@
       </c>
       <c r="L64" s="7"/>
     </row>
-    <row r="65" ht="18" customHeight="1" spans="1:12">
+    <row r="65" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="7"/>
       <c r="B65" s="7" t="s">
         <v>232</v>
@@ -4084,7 +3510,7 @@
       </c>
       <c r="L65" s="7"/>
     </row>
-    <row r="66" ht="18" customHeight="1" spans="1:12">
+    <row r="66" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="7"/>
       <c r="B66" s="7" t="s">
         <v>236</v>
@@ -4106,7 +3532,7 @@
       </c>
       <c r="L66" s="7"/>
     </row>
-    <row r="67" ht="18" customHeight="1" spans="1:12">
+    <row r="67" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="7"/>
       <c r="B67" s="7"/>
       <c r="C67" s="8"/>
@@ -4120,7 +3546,7 @@
       <c r="K67" s="11"/>
       <c r="L67" s="7"/>
     </row>
-    <row r="68" ht="18" customHeight="1" spans="1:12">
+    <row r="68" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="7"/>
       <c r="B68" s="7" t="s">
         <v>239</v>
@@ -4146,7 +3572,7 @@
       </c>
       <c r="L68" s="7"/>
     </row>
-    <row r="69" ht="18" customHeight="1" spans="1:12">
+    <row r="69" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="7"/>
       <c r="B69" s="7" t="s">
         <v>243</v>
@@ -4174,7 +3600,7 @@
       </c>
       <c r="L69" s="7"/>
     </row>
-    <row r="70" ht="18" customHeight="1" spans="1:12">
+    <row r="70" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="7"/>
       <c r="B70" s="7" t="s">
         <v>247</v>
@@ -4196,7 +3622,7 @@
       </c>
       <c r="L70" s="7"/>
     </row>
-    <row r="71" ht="18" customHeight="1" spans="1:12">
+    <row r="71" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="7"/>
       <c r="B71" s="7" t="s">
         <v>249</v>
@@ -4224,7 +3650,7 @@
       </c>
       <c r="L71" s="7"/>
     </row>
-    <row r="72" ht="18" customHeight="1" spans="1:12">
+    <row r="72" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="7"/>
       <c r="B72" s="7" t="s">
         <v>253</v>
@@ -4246,7 +3672,7 @@
       </c>
       <c r="L72" s="7"/>
     </row>
-    <row r="73" ht="18" customHeight="1" spans="1:12">
+    <row r="73" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="7"/>
       <c r="B73" s="7" t="s">
         <v>254</v>
@@ -4268,7 +3694,7 @@
       </c>
       <c r="L73" s="7"/>
     </row>
-    <row r="74" ht="18" customHeight="1" spans="1:12">
+    <row r="74" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="7"/>
       <c r="B74" s="7" t="s">
         <v>256</v>
@@ -4288,7 +3714,7 @@
       </c>
       <c r="L74" s="7"/>
     </row>
-    <row r="75" ht="18" customHeight="1" spans="1:12">
+    <row r="75" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="7"/>
       <c r="B75" s="10" t="s">
         <v>259</v>
@@ -4310,7 +3736,7 @@
       </c>
       <c r="L75" s="7"/>
     </row>
-    <row r="76" ht="18" customHeight="1" spans="1:12">
+    <row r="76" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="7"/>
       <c r="B76" s="7" t="s">
         <v>262</v>
@@ -4340,7 +3766,7 @@
       </c>
       <c r="L76" s="7"/>
     </row>
-    <row r="77" ht="18" customHeight="1" spans="1:12">
+    <row r="77" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="7"/>
       <c r="B77" s="7"/>
       <c r="C77" s="8"/>
@@ -4354,7 +3780,7 @@
       <c r="K77" s="7"/>
       <c r="L77" s="7"/>
     </row>
-    <row r="78" ht="18" customHeight="1" spans="1:12">
+    <row r="78" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="7"/>
       <c r="B78" s="7" t="s">
         <v>269</v>
@@ -4378,7 +3804,7 @@
       </c>
       <c r="L78" s="7"/>
     </row>
-    <row r="79" ht="18" customHeight="1" spans="1:12">
+    <row r="79" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="7"/>
       <c r="B79" s="7" t="s">
         <v>274</v>
@@ -4398,7 +3824,7 @@
       </c>
       <c r="L79" s="7"/>
     </row>
-    <row r="80" ht="18" customHeight="1" spans="1:12">
+    <row r="80" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="7"/>
       <c r="B80" s="7" t="s">
         <v>277</v>
@@ -4418,7 +3844,7 @@
       </c>
       <c r="L80" s="7"/>
     </row>
-    <row r="81" ht="18" customHeight="1" spans="1:12">
+    <row r="81" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="7"/>
       <c r="B81" s="7" t="s">
         <v>279</v>
@@ -4437,7 +3863,7 @@
       </c>
       <c r="L81" s="7"/>
     </row>
-    <row r="82" ht="18" customHeight="1" spans="1:12">
+    <row r="82" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="7"/>
       <c r="B82" s="8" t="s">
         <v>281</v>
@@ -4461,7 +3887,7 @@
       </c>
       <c r="L82" s="7"/>
     </row>
-    <row r="83" ht="18" customHeight="1" spans="1:12">
+    <row r="83" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="7"/>
       <c r="B83" s="7" t="s">
         <v>284</v>
@@ -4481,7 +3907,7 @@
       </c>
       <c r="L83" s="7"/>
     </row>
-    <row r="84" ht="18" customHeight="1" spans="1:12">
+    <row r="84" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="7"/>
       <c r="B84" s="7" t="s">
         <v>287</v>
@@ -4503,7 +3929,7 @@
       </c>
       <c r="L84" s="7"/>
     </row>
-    <row r="85" ht="18" customHeight="1" spans="1:12">
+    <row r="85" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="7"/>
       <c r="B85" s="7" t="s">
         <v>291</v>
@@ -4523,7 +3949,7 @@
       </c>
       <c r="L85" s="7"/>
     </row>
-    <row r="86" ht="18" customHeight="1" spans="1:12">
+    <row r="86" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="7"/>
       <c r="B86" s="11" t="s">
         <v>294</v>
@@ -4543,7 +3969,7 @@
       </c>
       <c r="L86" s="7"/>
     </row>
-    <row r="87" ht="18" customHeight="1" spans="1:12">
+    <row r="87" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="7"/>
       <c r="B87" s="7" t="s">
         <v>297</v>
@@ -4567,7 +3993,7 @@
       </c>
       <c r="L87" s="7"/>
     </row>
-    <row r="88" ht="18" customHeight="1" spans="1:12">
+    <row r="88" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="7"/>
       <c r="B88" s="7" t="s">
         <v>301</v>
@@ -4587,7 +4013,7 @@
       </c>
       <c r="L88" s="7"/>
     </row>
-    <row r="89" ht="18" customHeight="1" spans="1:12">
+    <row r="89" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="7"/>
       <c r="B89" s="7" t="s">
         <v>304</v>
@@ -4605,7 +4031,7 @@
       </c>
       <c r="L89" s="7"/>
     </row>
-    <row r="90" ht="18" customHeight="1" spans="1:12">
+    <row r="90" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="7"/>
       <c r="B90" s="7"/>
       <c r="C90" s="8"/>
@@ -4619,7 +4045,7 @@
       <c r="K90" s="7"/>
       <c r="L90" s="7"/>
     </row>
-    <row r="91" ht="18" customHeight="1" spans="1:12">
+    <row r="91" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="7"/>
       <c r="B91" s="7" t="s">
         <v>306</v>
@@ -4639,7 +4065,7 @@
       </c>
       <c r="L91" s="7"/>
     </row>
-    <row r="92" ht="18" customHeight="1" spans="1:12">
+    <row r="92" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="7"/>
       <c r="B92" s="7" t="s">
         <v>309</v>
@@ -4659,7 +4085,7 @@
       </c>
       <c r="L92" s="7"/>
     </row>
-    <row r="93" ht="18" customHeight="1" spans="1:12">
+    <row r="93" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="7"/>
       <c r="B93" s="7"/>
       <c r="C93" s="8"/>
@@ -4673,7 +4099,7 @@
       <c r="K93" s="7"/>
       <c r="L93" s="7"/>
     </row>
-    <row r="94" ht="18" customHeight="1" spans="1:12">
+    <row r="94" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="7"/>
       <c r="B94" s="7" t="s">
         <v>311</v>
@@ -4693,7 +4119,7 @@
       </c>
       <c r="L94" s="7"/>
     </row>
-    <row r="95" ht="18" customHeight="1" spans="1:12">
+    <row r="95" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="7"/>
       <c r="B95" s="7"/>
       <c r="C95" s="8"/>
@@ -4707,7 +4133,7 @@
       <c r="K95" s="7"/>
       <c r="L95" s="7"/>
     </row>
-    <row r="96" ht="18" customHeight="1" spans="1:12">
+    <row r="96" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="7"/>
       <c r="B96" s="7" t="s">
         <v>314</v>
@@ -4725,7 +4151,7 @@
       <c r="K96" s="7"/>
       <c r="L96" s="7"/>
     </row>
-    <row r="97" ht="18" customHeight="1" spans="1:12">
+    <row r="97" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="7"/>
       <c r="B97" s="7" t="s">
         <v>316</v>
@@ -4753,7 +4179,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="98" ht="18" customHeight="1" spans="1:12">
+    <row r="98" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="7"/>
       <c r="B98" s="7" t="s">
         <v>316</v>
@@ -4778,16 +4204,16 @@
         <v>320</v>
       </c>
       <c r="L98" s="15" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="99" ht="18" customHeight="1" spans="1:12">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="99" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="7"/>
       <c r="B99" s="7" t="s">
         <v>316</v>
       </c>
       <c r="C99" s="8" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D99" s="7"/>
       <c r="E99" s="7"/>
@@ -4801,19 +4227,19 @@
         <v>319</v>
       </c>
       <c r="K99" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="L99" s="15" t="s">
         <v>326</v>
       </c>
-      <c r="L99" s="15" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="100" ht="18" customHeight="1" spans="1:12">
+    </row>
+    <row r="100" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="7"/>
       <c r="B100" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="C100" s="8" t="s">
         <v>328</v>
-      </c>
-      <c r="C100" s="8" t="s">
-        <v>329</v>
       </c>
       <c r="D100" s="7"/>
       <c r="E100" s="7" t="s">
@@ -4827,17 +4253,17 @@
       </c>
       <c r="J100" s="7"/>
       <c r="K100" s="7" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="L100" s="7"/>
     </row>
-    <row r="101" ht="18" customHeight="1" spans="1:12">
+    <row r="101" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="7"/>
       <c r="B101" s="7" t="s">
+        <v>330</v>
+      </c>
+      <c r="C101" s="8" t="s">
         <v>331</v>
-      </c>
-      <c r="C101" s="8" t="s">
-        <v>332</v>
       </c>
       <c r="D101" s="7"/>
       <c r="E101" s="7" t="s">
@@ -4851,11 +4277,11 @@
       </c>
       <c r="J101" s="7"/>
       <c r="K101" s="7" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="L101" s="7"/>
     </row>
-    <row r="102" ht="18" customHeight="1" spans="1:12">
+    <row r="102" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="7"/>
       <c r="B102" s="7"/>
       <c r="C102" s="8"/>
@@ -4869,7 +4295,7 @@
       <c r="K102" s="7"/>
       <c r="L102" s="7"/>
     </row>
-    <row r="103" ht="18" customHeight="1" spans="1:12">
+    <row r="103" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="7"/>
       <c r="B103" s="7"/>
       <c r="C103" s="8"/>
@@ -4883,13 +4309,13 @@
       <c r="K103" s="7"/>
       <c r="L103" s="7"/>
     </row>
-    <row r="104" ht="18" customHeight="1" spans="1:12">
+    <row r="104" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="7"/>
       <c r="B104" s="11" t="s">
-        <v>334</v>
+        <v>366</v>
       </c>
       <c r="C104" s="12" t="s">
-        <v>335</v>
+        <v>367</v>
       </c>
       <c r="D104" s="7"/>
       <c r="E104" s="7"/>
@@ -4897,21 +4323,23 @@
       <c r="G104" s="7"/>
       <c r="H104" s="7"/>
       <c r="I104" s="11" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="J104" s="7"/>
       <c r="K104" s="11" t="s">
-        <v>336</v>
-      </c>
-      <c r="L104" s="7"/>
-    </row>
-    <row r="105" ht="18" customHeight="1" spans="1:12">
+        <v>333</v>
+      </c>
+      <c r="L104" s="15" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="105" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="7"/>
       <c r="B105" s="7" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="C105" s="8" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="D105" s="7"/>
       <c r="E105" s="7"/>
@@ -4921,17 +4349,17 @@
       <c r="I105" s="7"/>
       <c r="J105" s="7"/>
       <c r="K105" s="11" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="L105" s="7"/>
     </row>
-    <row r="106" ht="18" customHeight="1" spans="1:12">
+    <row r="106" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="7"/>
       <c r="B106" s="7" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="C106" s="8" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="D106" s="7"/>
       <c r="E106" s="7"/>
@@ -4943,13 +4371,13 @@
       <c r="K106" s="7"/>
       <c r="L106" s="7"/>
     </row>
-    <row r="107" ht="18" customHeight="1" spans="1:12">
+    <row r="107" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="7"/>
       <c r="B107" s="7" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="C107" s="12" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="D107" s="7"/>
       <c r="E107" s="7"/>
@@ -4959,17 +4387,17 @@
       <c r="I107" s="7"/>
       <c r="J107" s="7"/>
       <c r="K107" s="7" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="L107" s="7"/>
     </row>
-    <row r="108" ht="18" customHeight="1" spans="1:12">
+    <row r="108" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="7"/>
       <c r="B108" s="7" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="C108" s="8" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="D108" s="7"/>
       <c r="E108" s="7"/>
@@ -4979,17 +4407,17 @@
       <c r="I108" s="7"/>
       <c r="J108" s="7"/>
       <c r="K108" s="11" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="L108" s="7"/>
     </row>
-    <row r="109" ht="18" customHeight="1" spans="1:12">
+    <row r="109" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="7"/>
       <c r="B109" s="11" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="C109" s="12" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="D109" s="7"/>
       <c r="E109" s="7"/>
@@ -4997,39 +4425,39 @@
       <c r="G109" s="7"/>
       <c r="H109" s="7"/>
       <c r="I109" s="7" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="J109" s="7"/>
       <c r="K109" s="7" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="L109" s="7"/>
     </row>
-    <row r="110" ht="18" customHeight="1" spans="1:12">
+    <row r="110" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="7"/>
       <c r="B110" s="11" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="C110" s="12" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="D110" s="7"/>
       <c r="E110" s="7" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="F110" s="7"/>
       <c r="G110" s="7"/>
       <c r="H110" s="7"/>
       <c r="I110" s="7" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="J110" s="7"/>
       <c r="K110" s="7" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="L110" s="7"/>
     </row>
-    <row r="111" ht="18" customHeight="1" spans="1:12">
+    <row r="111" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="7"/>
       <c r="B111" s="7"/>
       <c r="C111" s="8"/>
@@ -5043,13 +4471,13 @@
       <c r="K111" s="7"/>
       <c r="L111" s="7"/>
     </row>
-    <row r="112" ht="18" customHeight="1" spans="1:12">
+    <row r="112" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="7"/>
       <c r="B112" s="7" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="C112" s="8" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="D112" s="7"/>
       <c r="E112" s="7"/>
@@ -5057,21 +4485,21 @@
       <c r="G112" s="7"/>
       <c r="H112" s="7"/>
       <c r="I112" s="7" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="J112" s="7"/>
       <c r="K112" s="7" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="L112" s="7"/>
     </row>
-    <row r="113" ht="18" customHeight="1" spans="1:12">
+    <row r="113" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="7"/>
       <c r="B113" s="7" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="C113" s="8" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="D113" s="7"/>
       <c r="E113" s="7"/>
@@ -5079,15 +4507,15 @@
       <c r="G113" s="7"/>
       <c r="H113" s="7"/>
       <c r="I113" s="7" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="J113" s="7"/>
       <c r="K113" s="7" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="L113" s="7"/>
     </row>
-    <row r="114" ht="18" customHeight="1" spans="1:12">
+    <row r="114" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="7"/>
       <c r="B114" s="7"/>
       <c r="C114" s="8"/>
@@ -5101,13 +4529,13 @@
       <c r="K114" s="7"/>
       <c r="L114" s="7"/>
     </row>
-    <row r="115" ht="18" customHeight="1" spans="1:12">
+    <row r="115" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="7"/>
       <c r="B115" s="7" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="C115" s="8" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="D115" s="7"/>
       <c r="E115" s="7"/>
@@ -5117,13 +4545,13 @@
       <c r="I115" s="7"/>
       <c r="J115" s="7"/>
       <c r="K115" s="7" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="L115" s="15" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="116" ht="18" customHeight="1" spans="1:12">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="116" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="7"/>
       <c r="B116" s="7"/>
       <c r="C116" s="8"/>
@@ -5137,7 +4565,7 @@
       <c r="K116" s="7"/>
       <c r="L116" s="7"/>
     </row>
-    <row r="117" ht="18" customHeight="1" spans="1:12">
+    <row r="117" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="7"/>
       <c r="B117" s="7"/>
       <c r="C117" s="8"/>
@@ -5151,7 +4579,7 @@
       <c r="K117" s="7"/>
       <c r="L117" s="7"/>
     </row>
-    <row r="118" ht="18" customHeight="1" spans="1:12">
+    <row r="118" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="7"/>
       <c r="B118" s="7"/>
       <c r="C118" s="8"/>
@@ -5165,7 +4593,7 @@
       <c r="K118" s="7"/>
       <c r="L118" s="7"/>
     </row>
-    <row r="119" ht="18" customHeight="1" spans="1:12">
+    <row r="119" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="7"/>
       <c r="B119" s="7"/>
       <c r="C119" s="8"/>
@@ -5179,7 +4607,7 @@
       <c r="K119" s="7"/>
       <c r="L119" s="7"/>
     </row>
-    <row r="120" ht="18" customHeight="1" spans="1:12">
+    <row r="120" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="7"/>
       <c r="B120" s="7"/>
       <c r="C120" s="8"/>
@@ -5193,7 +4621,7 @@
       <c r="K120" s="7"/>
       <c r="L120" s="7"/>
     </row>
-    <row r="121" ht="18" customHeight="1" spans="1:12">
+    <row r="121" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="7"/>
       <c r="B121" s="7"/>
       <c r="C121" s="8"/>
@@ -5207,7 +4635,7 @@
       <c r="K121" s="7"/>
       <c r="L121" s="7"/>
     </row>
-    <row r="122" ht="18" customHeight="1" spans="1:12">
+    <row r="122" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="7"/>
       <c r="B122" s="7"/>
       <c r="C122" s="8"/>
@@ -5221,7 +4649,7 @@
       <c r="K122" s="7"/>
       <c r="L122" s="7"/>
     </row>
-    <row r="123" ht="18" customHeight="1" spans="1:12">
+    <row r="123" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="7"/>
       <c r="B123" s="7"/>
       <c r="C123" s="8"/>
@@ -5235,7 +4663,7 @@
       <c r="K123" s="7"/>
       <c r="L123" s="7"/>
     </row>
-    <row r="124" ht="18" customHeight="1" spans="1:12">
+    <row r="124" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="7"/>
       <c r="B124" s="7"/>
       <c r="C124" s="8"/>
@@ -5249,7 +4677,7 @@
       <c r="K124" s="7"/>
       <c r="L124" s="7"/>
     </row>
-    <row r="125" ht="18" customHeight="1" spans="1:12">
+    <row r="125" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="7"/>
       <c r="B125" s="7"/>
       <c r="C125" s="8"/>
@@ -5263,7 +4691,7 @@
       <c r="K125" s="7"/>
       <c r="L125" s="7"/>
     </row>
-    <row r="126" ht="18" customHeight="1" spans="1:12">
+    <row r="126" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="7"/>
       <c r="B126" s="7"/>
       <c r="C126" s="8"/>
@@ -5277,7 +4705,7 @@
       <c r="K126" s="7"/>
       <c r="L126" s="7"/>
     </row>
-    <row r="127" ht="18" customHeight="1" spans="1:12">
+    <row r="127" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="7"/>
       <c r="B127" s="7"/>
       <c r="C127" s="8"/>
@@ -5291,7 +4719,7 @@
       <c r="K127" s="7"/>
       <c r="L127" s="7"/>
     </row>
-    <row r="128" ht="18" customHeight="1" spans="1:12">
+    <row r="128" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="7"/>
       <c r="B128" s="7"/>
       <c r="C128" s="8"/>
@@ -5305,7 +4733,7 @@
       <c r="K128" s="7"/>
       <c r="L128" s="7"/>
     </row>
-    <row r="129" ht="18" customHeight="1" spans="1:12">
+    <row r="129" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="7"/>
       <c r="B129" s="7"/>
       <c r="C129" s="8"/>
@@ -5319,7 +4747,7 @@
       <c r="K129" s="7"/>
       <c r="L129" s="7"/>
     </row>
-    <row r="130" ht="18" customHeight="1" spans="1:12">
+    <row r="130" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="7"/>
       <c r="B130" s="7"/>
       <c r="C130" s="8"/>
@@ -5333,7 +4761,7 @@
       <c r="K130" s="7"/>
       <c r="L130" s="7"/>
     </row>
-    <row r="131" ht="18" customHeight="1" spans="1:12">
+    <row r="131" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="7"/>
       <c r="B131" s="7"/>
       <c r="C131" s="8"/>
@@ -5347,7 +4775,7 @@
       <c r="K131" s="7"/>
       <c r="L131" s="7"/>
     </row>
-    <row r="132" ht="18" customHeight="1" spans="1:12">
+    <row r="132" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="7"/>
       <c r="B132" s="7"/>
       <c r="C132" s="8"/>
@@ -5361,7 +4789,7 @@
       <c r="K132" s="7"/>
       <c r="L132" s="7"/>
     </row>
-    <row r="133" ht="18" customHeight="1" spans="1:12">
+    <row r="133" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="7"/>
       <c r="B133" s="7"/>
       <c r="C133" s="8"/>
@@ -5375,7 +4803,7 @@
       <c r="K133" s="7"/>
       <c r="L133" s="7"/>
     </row>
-    <row r="134" ht="18" customHeight="1" spans="1:12">
+    <row r="134" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="7"/>
       <c r="B134" s="7"/>
       <c r="C134" s="8"/>
@@ -5389,7 +4817,7 @@
       <c r="K134" s="7"/>
       <c r="L134" s="7"/>
     </row>
-    <row r="135" ht="18" customHeight="1" spans="1:12">
+    <row r="135" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="7"/>
       <c r="B135" s="7"/>
       <c r="C135" s="8"/>
@@ -5403,7 +4831,7 @@
       <c r="K135" s="7"/>
       <c r="L135" s="7"/>
     </row>
-    <row r="136" ht="18" customHeight="1" spans="1:12">
+    <row r="136" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="7"/>
       <c r="B136" s="7"/>
       <c r="C136" s="8"/>
@@ -5417,7 +4845,7 @@
       <c r="K136" s="7"/>
       <c r="L136" s="7"/>
     </row>
-    <row r="137" ht="18" customHeight="1" spans="1:12">
+    <row r="137" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="7"/>
       <c r="B137" s="7"/>
       <c r="C137" s="8"/>
@@ -5431,7 +4859,7 @@
       <c r="K137" s="7"/>
       <c r="L137" s="7"/>
     </row>
-    <row r="138" ht="18" customHeight="1" spans="1:12">
+    <row r="138" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="7"/>
       <c r="B138" s="7"/>
       <c r="C138" s="8"/>
@@ -5445,7 +4873,7 @@
       <c r="K138" s="7"/>
       <c r="L138" s="7"/>
     </row>
-    <row r="139" ht="18" customHeight="1" spans="1:12">
+    <row r="139" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="7"/>
       <c r="B139" s="7"/>
       <c r="C139" s="8"/>
@@ -5459,7 +4887,7 @@
       <c r="K139" s="7"/>
       <c r="L139" s="7"/>
     </row>
-    <row r="140" ht="18" customHeight="1" spans="1:12">
+    <row r="140" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" s="7"/>
       <c r="B140" s="7"/>
       <c r="C140" s="8"/>
@@ -5473,7 +4901,7 @@
       <c r="K140" s="7"/>
       <c r="L140" s="7"/>
     </row>
-    <row r="141" ht="18" customHeight="1" spans="1:12">
+    <row r="141" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="7"/>
       <c r="B141" s="7"/>
       <c r="C141" s="8"/>
@@ -5487,7 +4915,7 @@
       <c r="K141" s="7"/>
       <c r="L141" s="7"/>
     </row>
-    <row r="142" ht="18" customHeight="1" spans="1:12">
+    <row r="142" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" s="7"/>
       <c r="B142" s="7"/>
       <c r="C142" s="8"/>
@@ -5501,7 +4929,7 @@
       <c r="K142" s="7"/>
       <c r="L142" s="7"/>
     </row>
-    <row r="143" ht="18" customHeight="1" spans="1:12">
+    <row r="143" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" s="7"/>
       <c r="B143" s="7"/>
       <c r="C143" s="8"/>
@@ -5515,7 +4943,7 @@
       <c r="K143" s="7"/>
       <c r="L143" s="7"/>
     </row>
-    <row r="144" ht="18" customHeight="1" spans="1:12">
+    <row r="144" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" s="7"/>
       <c r="B144" s="7"/>
       <c r="C144" s="8"/>
@@ -5529,7 +4957,7 @@
       <c r="K144" s="7"/>
       <c r="L144" s="7"/>
     </row>
-    <row r="145" ht="18" customHeight="1" spans="1:12">
+    <row r="145" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" s="7"/>
       <c r="B145" s="7"/>
       <c r="C145" s="8"/>
@@ -5543,7 +4971,7 @@
       <c r="K145" s="7"/>
       <c r="L145" s="7"/>
     </row>
-    <row r="146" ht="18" customHeight="1" spans="1:12">
+    <row r="146" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" s="7"/>
       <c r="B146" s="7"/>
       <c r="C146" s="8"/>
@@ -5557,7 +4985,7 @@
       <c r="K146" s="7"/>
       <c r="L146" s="7"/>
     </row>
-    <row r="147" ht="18" customHeight="1" spans="1:12">
+    <row r="147" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A147" s="7"/>
       <c r="B147" s="7"/>
       <c r="C147" s="8"/>
@@ -5571,7 +4999,7 @@
       <c r="K147" s="7"/>
       <c r="L147" s="7"/>
     </row>
-    <row r="148" ht="18" customHeight="1" spans="1:12">
+    <row r="148" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A148" s="7"/>
       <c r="B148" s="7"/>
       <c r="C148" s="8"/>
@@ -5585,7 +5013,7 @@
       <c r="K148" s="7"/>
       <c r="L148" s="7"/>
     </row>
-    <row r="149" ht="18" customHeight="1" spans="1:12">
+    <row r="149" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A149" s="7"/>
       <c r="B149" s="7"/>
       <c r="C149" s="8"/>
@@ -5599,7 +5027,7 @@
       <c r="K149" s="7"/>
       <c r="L149" s="7"/>
     </row>
-    <row r="150" ht="18" customHeight="1" spans="1:12">
+    <row r="150" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A150" s="7"/>
       <c r="B150" s="7"/>
       <c r="C150" s="8"/>
@@ -5613,7 +5041,7 @@
       <c r="K150" s="7"/>
       <c r="L150" s="7"/>
     </row>
-    <row r="151" ht="18" customHeight="1" spans="1:12">
+    <row r="151" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A151" s="7"/>
       <c r="B151" s="7"/>
       <c r="C151" s="8"/>
@@ -5627,7 +5055,7 @@
       <c r="K151" s="7"/>
       <c r="L151" s="7"/>
     </row>
-    <row r="152" ht="18" customHeight="1" spans="1:12">
+    <row r="152" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152" s="7"/>
       <c r="B152" s="7"/>
       <c r="C152" s="8"/>
@@ -5641,7 +5069,7 @@
       <c r="K152" s="7"/>
       <c r="L152" s="7"/>
     </row>
-    <row r="153" ht="18" customHeight="1" spans="1:12">
+    <row r="153" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A153" s="7"/>
       <c r="B153" s="7"/>
       <c r="C153" s="8"/>
@@ -5655,7 +5083,7 @@
       <c r="K153" s="7"/>
       <c r="L153" s="7"/>
     </row>
-    <row r="154" ht="18" customHeight="1" spans="1:12">
+    <row r="154" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A154" s="7"/>
       <c r="B154" s="7"/>
       <c r="C154" s="8"/>
@@ -5669,7 +5097,7 @@
       <c r="K154" s="7"/>
       <c r="L154" s="7"/>
     </row>
-    <row r="155" ht="18" customHeight="1" spans="1:12">
+    <row r="155" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A155" s="7"/>
       <c r="B155" s="7"/>
       <c r="C155" s="8"/>
@@ -5683,7 +5111,7 @@
       <c r="K155" s="7"/>
       <c r="L155" s="7"/>
     </row>
-    <row r="156" ht="18" customHeight="1" spans="1:12">
+    <row r="156" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A156" s="7"/>
       <c r="B156" s="7"/>
       <c r="C156" s="8"/>
@@ -5697,7 +5125,7 @@
       <c r="K156" s="7"/>
       <c r="L156" s="7"/>
     </row>
-    <row r="157" ht="18" customHeight="1" spans="1:12">
+    <row r="157" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A157" s="7"/>
       <c r="B157" s="7"/>
       <c r="C157" s="8"/>
@@ -5711,7 +5139,7 @@
       <c r="K157" s="7"/>
       <c r="L157" s="7"/>
     </row>
-    <row r="158" ht="18" customHeight="1" spans="1:12">
+    <row r="158" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A158" s="7"/>
       <c r="B158" s="7"/>
       <c r="C158" s="8"/>
@@ -5725,7 +5153,7 @@
       <c r="K158" s="7"/>
       <c r="L158" s="7"/>
     </row>
-    <row r="159" ht="18" customHeight="1" spans="1:12">
+    <row r="159" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A159" s="7"/>
       <c r="B159" s="7"/>
       <c r="C159" s="8"/>
@@ -5739,7 +5167,7 @@
       <c r="K159" s="7"/>
       <c r="L159" s="7"/>
     </row>
-    <row r="160" ht="18" customHeight="1" spans="1:12">
+    <row r="160" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A160" s="7"/>
       <c r="B160" s="7"/>
       <c r="C160" s="8"/>
@@ -5753,7 +5181,7 @@
       <c r="K160" s="7"/>
       <c r="L160" s="7"/>
     </row>
-    <row r="161" ht="18" customHeight="1" spans="1:12">
+    <row r="161" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A161" s="7"/>
       <c r="B161" s="7"/>
       <c r="C161" s="8"/>
@@ -5767,7 +5195,7 @@
       <c r="K161" s="7"/>
       <c r="L161" s="7"/>
     </row>
-    <row r="162" ht="18" customHeight="1" spans="1:12">
+    <row r="162" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A162" s="7"/>
       <c r="B162" s="7"/>
       <c r="C162" s="8"/>
@@ -5781,7 +5209,7 @@
       <c r="K162" s="7"/>
       <c r="L162" s="7"/>
     </row>
-    <row r="163" ht="18" customHeight="1" spans="1:12">
+    <row r="163" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A163" s="7"/>
       <c r="B163" s="7"/>
       <c r="C163" s="8"/>
@@ -5795,7 +5223,7 @@
       <c r="K163" s="7"/>
       <c r="L163" s="7"/>
     </row>
-    <row r="164" ht="18" customHeight="1" spans="1:12">
+    <row r="164" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A164" s="7"/>
       <c r="B164" s="7"/>
       <c r="C164" s="8"/>
@@ -5809,7 +5237,7 @@
       <c r="K164" s="7"/>
       <c r="L164" s="7"/>
     </row>
-    <row r="165" ht="18" customHeight="1" spans="1:12">
+    <row r="165" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A165" s="7"/>
       <c r="B165" s="7"/>
       <c r="C165" s="8"/>
@@ -5823,7 +5251,7 @@
       <c r="K165" s="7"/>
       <c r="L165" s="7"/>
     </row>
-    <row r="166" ht="18" customHeight="1" spans="1:12">
+    <row r="166" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A166" s="7"/>
       <c r="B166" s="7"/>
       <c r="C166" s="8"/>
@@ -5837,7 +5265,7 @@
       <c r="K166" s="7"/>
       <c r="L166" s="7"/>
     </row>
-    <row r="167" ht="18" customHeight="1" spans="1:12">
+    <row r="167" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A167" s="7"/>
       <c r="B167" s="7"/>
       <c r="C167" s="8"/>
@@ -5851,7 +5279,7 @@
       <c r="K167" s="7"/>
       <c r="L167" s="7"/>
     </row>
-    <row r="168" ht="18" customHeight="1" spans="1:12">
+    <row r="168" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A168" s="7"/>
       <c r="B168" s="7"/>
       <c r="C168" s="8"/>
@@ -5865,7 +5293,7 @@
       <c r="K168" s="7"/>
       <c r="L168" s="7"/>
     </row>
-    <row r="169" ht="18" customHeight="1" spans="1:12">
+    <row r="169" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A169" s="7"/>
       <c r="B169" s="7"/>
       <c r="C169" s="8"/>
@@ -5879,7 +5307,7 @@
       <c r="K169" s="7"/>
       <c r="L169" s="7"/>
     </row>
-    <row r="170" ht="18" customHeight="1" spans="1:12">
+    <row r="170" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A170" s="7"/>
       <c r="B170" s="7"/>
       <c r="C170" s="8"/>
@@ -5893,7 +5321,7 @@
       <c r="K170" s="7"/>
       <c r="L170" s="7"/>
     </row>
-    <row r="171" ht="18" customHeight="1" spans="1:12">
+    <row r="171" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A171" s="7"/>
       <c r="B171" s="7"/>
       <c r="C171" s="8"/>
@@ -5907,7 +5335,7 @@
       <c r="K171" s="7"/>
       <c r="L171" s="7"/>
     </row>
-    <row r="172" ht="18" customHeight="1" spans="1:12">
+    <row r="172" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A172" s="7"/>
       <c r="B172" s="7"/>
       <c r="C172" s="8"/>
@@ -5921,7 +5349,7 @@
       <c r="K172" s="7"/>
       <c r="L172" s="7"/>
     </row>
-    <row r="173" ht="18" customHeight="1" spans="1:12">
+    <row r="173" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A173" s="7"/>
       <c r="B173" s="7"/>
       <c r="C173" s="8"/>
@@ -5935,7 +5363,7 @@
       <c r="K173" s="7"/>
       <c r="L173" s="7"/>
     </row>
-    <row r="174" ht="18" customHeight="1" spans="1:12">
+    <row r="174" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A174" s="7"/>
       <c r="B174" s="7"/>
       <c r="C174" s="8"/>
@@ -5949,7 +5377,7 @@
       <c r="K174" s="7"/>
       <c r="L174" s="7"/>
     </row>
-    <row r="175" ht="18" customHeight="1" spans="1:12">
+    <row r="175" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A175" s="7"/>
       <c r="B175" s="7"/>
       <c r="C175" s="8"/>
@@ -5963,7 +5391,7 @@
       <c r="K175" s="7"/>
       <c r="L175" s="7"/>
     </row>
-    <row r="176" ht="18" customHeight="1" spans="1:12">
+    <row r="176" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A176" s="7"/>
       <c r="B176" s="7"/>
       <c r="C176" s="8"/>
@@ -5977,7 +5405,7 @@
       <c r="K176" s="7"/>
       <c r="L176" s="7"/>
     </row>
-    <row r="177" ht="18" customHeight="1" spans="1:12">
+    <row r="177" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A177" s="7"/>
       <c r="B177" s="7"/>
       <c r="C177" s="8"/>
@@ -5991,7 +5419,7 @@
       <c r="K177" s="7"/>
       <c r="L177" s="7"/>
     </row>
-    <row r="178" ht="18" customHeight="1" spans="1:12">
+    <row r="178" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A178" s="7"/>
       <c r="B178" s="7"/>
       <c r="C178" s="8"/>
@@ -6006,48 +5434,43 @@
       <c r="L178" s="7"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="6" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="L97" r:id="rId3" display="https://item.szlcsc.com/87756.html" tooltip="https://item.szlcsc.com/87756.html"/>
-    <hyperlink ref="L98" r:id="rId4" display="https://item.szlcsc.com/136348.html"/>
-    <hyperlink ref="L115" r:id="rId5" display="https://item.szlcsc.com/72964.html"/>
+    <hyperlink ref="L97" r:id="rId1" tooltip="https://item.szlcsc.com/87756.html" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="L98" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="L115" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="L104" r:id="rId4" xr:uid="{0086F3D1-F44F-41A8-BCCD-F9BCF8A56195}"/>
   </hyperlinks>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
-  <legacyDrawing r:id="rId2"/>
+  <legacyDrawing r:id="rId5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData/>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="6" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData/>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="6" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/物料索引.xlsx
+++ b/物料索引.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20325"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Cadence LIB\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{9CF1815A-ABFE-4757-85DF-DBB5BFEF22BE}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28692" windowHeight="14076" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="28695" windowHeight="13050"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,12 +16,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>zxiat</author>
   </authors>
   <commentList>
-    <comment ref="A2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="A2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -57,7 +51,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
+    <comment ref="A3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -94,7 +88,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="563" uniqueCount="368">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374">
   <si>
     <t>物料编码</t>
   </si>
@@ -540,6 +534,24 @@
     <t>L_6x6</t>
   </si>
   <si>
+    <t>SDR0805-220ML</t>
+  </si>
+  <si>
+    <t>22uH，1.5A，110m欧</t>
+  </si>
+  <si>
+    <t>22uH</t>
+  </si>
+  <si>
+    <t>1.5</t>
+  </si>
+  <si>
+    <t>8mm</t>
+  </si>
+  <si>
+    <t>L_8x8</t>
+  </si>
+  <si>
     <t xml:space="preserve">NR6045T3R0N </t>
   </si>
   <si>
@@ -568,9 +580,6 @@
   </si>
   <si>
     <t>电感，22uH，3.5A，43m欧姆，12.5x12.5</t>
-  </si>
-  <si>
-    <t>22uH</t>
   </si>
   <si>
     <t>3.5A</t>
@@ -1170,6 +1179,9 @@
     <t>TE</t>
   </si>
   <si>
+    <t>https://item.szlcsc.com/136348.html</t>
+  </si>
+  <si>
     <t>RJ45,8P8C,5x百兆口，无变压器，90度</t>
   </si>
   <si>
@@ -1197,7 +1209,16 @@
     <t>hr911130c</t>
   </si>
   <si>
+    <t>USB_A-F</t>
+  </si>
+  <si>
+    <t>USB A型母座，侧插；</t>
+  </si>
+  <si>
     <t>USB-AF</t>
+  </si>
+  <si>
+    <t>http://item.szlcsc.com/26978.html</t>
   </si>
   <si>
     <t>DDR2 SODIMM</t>
@@ -1288,6 +1309,9 @@
     <t>64PIN_SMD_CC(底座)/64PIN_SMD_MC(插头)</t>
   </si>
   <si>
+    <t>https://item.taobao.com/item.htm?spm=a230r.1.14.11.4e3e3b039DZu79&amp;id=530564269635&amp;ns=1&amp;abbucket=5#detail</t>
+  </si>
+  <si>
     <t>7K325TFFG676</t>
   </si>
   <si>
@@ -1321,31 +1345,20 @@
     <t>sw_2p_3x6x5</t>
   </si>
   <si>
-    <t>https://item.szlcsc.com/136348.html</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>https://item.szlcsc.com/72964.html</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://item.szlcsc.com/26978.html</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>USB_A-F</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>USB A型母座，侧插；</t>
-    <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1370,30 +1383,149 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="3">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1402,12 +1534,192 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999389629810485"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -1430,16 +1742,255 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1482,25 +2033,71 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="10" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="10" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="10" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="超链接" xfId="1" builtinId="8"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1787,34 +2384,35 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L178"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:M179"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A99" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C104" sqref="C104"/>
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection/>
+      <selection pane="bottomLeft" activeCell="I35" sqref="I35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="18" style="2" customWidth="1"/>
-    <col min="2" max="2" width="18.21875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="18.2166666666667" style="2" customWidth="1"/>
     <col min="3" max="3" width="27" style="3" customWidth="1"/>
     <col min="4" max="4" width="9" style="2"/>
-    <col min="5" max="5" width="10.88671875" style="2" customWidth="1"/>
+    <col min="5" max="5" width="10.8833333333333" style="2" customWidth="1"/>
     <col min="6" max="9" width="9" style="2"/>
-    <col min="10" max="10" width="11.88671875" style="2" customWidth="1"/>
-    <col min="11" max="11" width="13.88671875" style="2" customWidth="1"/>
+    <col min="10" max="10" width="11.8833333333333" style="2" customWidth="1"/>
+    <col min="11" max="11" width="13.8833333333333" style="2" customWidth="1"/>
     <col min="12" max="12" width="9" style="2"/>
     <col min="13" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" s="1" customFormat="1" ht="18" customHeight="1" spans="1:12">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -1852,7 +2450,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" ht="18" customHeight="1" spans="1:12">
       <c r="A2" s="7" t="s">
         <v>12</v>
       </c>
@@ -1886,7 +2484,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" ht="18" customHeight="1" spans="1:12">
       <c r="A3" s="7" t="s">
         <v>21</v>
       </c>
@@ -1920,7 +2518,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" customFormat="1" ht="18" customHeight="1" spans="1:12">
       <c r="A4" s="7"/>
       <c r="B4" s="7"/>
       <c r="C4" s="8"/>
@@ -1934,7 +2532,7 @@
       <c r="K4" s="7"/>
       <c r="L4" s="7"/>
     </row>
-    <row r="5" spans="1:12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" customFormat="1" ht="18" customHeight="1" spans="1:12">
       <c r="A5" s="7"/>
       <c r="B5" s="7"/>
       <c r="C5" s="8"/>
@@ -1948,7 +2546,7 @@
       <c r="K5" s="7"/>
       <c r="L5" s="7"/>
     </row>
-    <row r="6" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" ht="18" customHeight="1" spans="1:12">
       <c r="A6" s="7" t="s">
         <v>30</v>
       </c>
@@ -1982,7 +2580,7 @@
       <c r="K6" s="7"/>
       <c r="L6" s="7"/>
     </row>
-    <row r="7" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" ht="18" customHeight="1" spans="1:12">
       <c r="A7" s="7" t="s">
         <v>38</v>
       </c>
@@ -2016,7 +2614,7 @@
       <c r="K7" s="7"/>
       <c r="L7" s="7"/>
     </row>
-    <row r="8" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" ht="18" customHeight="1" spans="1:12">
       <c r="A8" s="7" t="s">
         <v>42</v>
       </c>
@@ -2050,7 +2648,7 @@
       <c r="K8" s="7"/>
       <c r="L8" s="7"/>
     </row>
-    <row r="9" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" ht="18" customHeight="1" spans="1:12">
       <c r="A9" s="7" t="s">
         <v>45</v>
       </c>
@@ -2084,7 +2682,7 @@
       <c r="K9" s="7"/>
       <c r="L9" s="7"/>
     </row>
-    <row r="10" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" ht="18" customHeight="1" spans="1:12">
       <c r="A10" s="7" t="s">
         <v>50</v>
       </c>
@@ -2118,7 +2716,7 @@
       <c r="K10" s="7"/>
       <c r="L10" s="7"/>
     </row>
-    <row r="11" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" ht="18" customHeight="1" spans="1:12">
       <c r="A11" s="7" t="s">
         <v>53</v>
       </c>
@@ -2152,7 +2750,7 @@
       <c r="K11" s="7"/>
       <c r="L11" s="7"/>
     </row>
-    <row r="12" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" ht="18" customHeight="1" spans="1:12">
       <c r="A12" s="7" t="s">
         <v>57</v>
       </c>
@@ -2186,7 +2784,7 @@
       <c r="K12" s="7"/>
       <c r="L12" s="7"/>
     </row>
-    <row r="13" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" ht="18" customHeight="1" spans="1:12">
       <c r="A13" s="7" t="s">
         <v>62</v>
       </c>
@@ -2220,7 +2818,7 @@
       <c r="K13" s="7"/>
       <c r="L13" s="7"/>
     </row>
-    <row r="14" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" ht="18" customHeight="1" spans="1:12">
       <c r="A14" s="7" t="s">
         <v>66</v>
       </c>
@@ -2254,7 +2852,7 @@
       <c r="K14" s="7"/>
       <c r="L14" s="7"/>
     </row>
-    <row r="15" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" ht="18" customHeight="1" spans="1:12">
       <c r="A15" s="7" t="s">
         <v>69</v>
       </c>
@@ -2288,7 +2886,7 @@
       <c r="K15" s="7"/>
       <c r="L15" s="7"/>
     </row>
-    <row r="16" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" ht="18" customHeight="1" spans="1:12">
       <c r="A16" s="7" t="s">
         <v>72</v>
       </c>
@@ -2322,7 +2920,7 @@
       <c r="K16" s="7"/>
       <c r="L16" s="7"/>
     </row>
-    <row r="17" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" ht="18" customHeight="1" spans="1:12">
       <c r="A17" s="7" t="s">
         <v>76</v>
       </c>
@@ -2356,7 +2954,7 @@
       <c r="K17" s="7"/>
       <c r="L17" s="7"/>
     </row>
-    <row r="18" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" ht="18" customHeight="1" spans="1:12">
       <c r="A18" s="7" t="s">
         <v>79</v>
       </c>
@@ -2392,7 +2990,7 @@
       </c>
       <c r="L18" s="7"/>
     </row>
-    <row r="19" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" ht="18" customHeight="1" spans="1:12">
       <c r="A19" s="7" t="s">
         <v>83</v>
       </c>
@@ -2426,7 +3024,7 @@
       <c r="K19" s="9"/>
       <c r="L19" s="7"/>
     </row>
-    <row r="20" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" ht="18" customHeight="1" spans="1:12">
       <c r="A20" s="7" t="s">
         <v>87</v>
       </c>
@@ -2460,7 +3058,7 @@
       <c r="K20" s="9"/>
       <c r="L20" s="7"/>
     </row>
-    <row r="21" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" ht="18" customHeight="1" spans="1:12">
       <c r="A21" s="7"/>
       <c r="B21" s="7" t="s">
         <v>93</v>
@@ -2492,7 +3090,7 @@
       </c>
       <c r="L21" s="7"/>
     </row>
-    <row r="22" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" ht="18" customHeight="1" spans="1:12">
       <c r="A22" s="7"/>
       <c r="B22" s="7" t="s">
         <v>99</v>
@@ -2526,7 +3124,7 @@
       </c>
       <c r="L22" s="7"/>
     </row>
-    <row r="23" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" ht="18" customHeight="1" spans="1:12">
       <c r="A23" s="7"/>
       <c r="B23" s="7" t="s">
         <v>101</v>
@@ -2560,7 +3158,7 @@
       </c>
       <c r="L23" s="7"/>
     </row>
-    <row r="24" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" ht="18" customHeight="1" spans="1:12">
       <c r="A24" s="7"/>
       <c r="B24" s="7"/>
       <c r="C24" s="8"/>
@@ -2574,7 +3172,7 @@
       <c r="K24" s="9"/>
       <c r="L24" s="7"/>
     </row>
-    <row r="25" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" ht="18" customHeight="1" spans="1:12">
       <c r="A25" s="7"/>
       <c r="B25" s="7" t="s">
         <v>105</v>
@@ -2608,7 +3206,7 @@
       </c>
       <c r="L25" s="7"/>
     </row>
-    <row r="26" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" ht="18" customHeight="1" spans="1:12">
       <c r="A26" s="7"/>
       <c r="B26" s="7" t="s">
         <v>112</v>
@@ -2642,7 +3240,7 @@
       </c>
       <c r="L26" s="7"/>
     </row>
-    <row r="27" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" ht="18" customHeight="1" spans="1:12">
       <c r="A27" s="7"/>
       <c r="B27" s="7"/>
       <c r="C27" s="8"/>
@@ -2656,7 +3254,7 @@
       <c r="K27" s="7"/>
       <c r="L27" s="7"/>
     </row>
-    <row r="28" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" ht="18" customHeight="1" spans="1:12">
       <c r="A28" s="7"/>
       <c r="B28" s="7" t="s">
         <v>118</v>
@@ -2684,7 +3282,7 @@
       </c>
       <c r="L28" s="7"/>
     </row>
-    <row r="29" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" ht="18" customHeight="1" spans="1:12">
       <c r="A29" s="7"/>
       <c r="B29" s="7"/>
       <c r="C29" s="8"/>
@@ -2698,7 +3296,7 @@
       <c r="K29" s="7"/>
       <c r="L29" s="7"/>
     </row>
-    <row r="30" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" ht="18" customHeight="1" spans="1:12">
       <c r="A30" s="7"/>
       <c r="B30" s="7" t="s">
         <v>125</v>
@@ -2730,7 +3328,7 @@
       </c>
       <c r="L30" s="7"/>
     </row>
-    <row r="31" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" ht="18" customHeight="1" spans="1:12">
       <c r="A31" s="7"/>
       <c r="B31" s="7"/>
       <c r="C31" s="8"/>
@@ -2744,7 +3342,7 @@
       <c r="K31" s="7"/>
       <c r="L31" s="7"/>
     </row>
-    <row r="32" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" ht="18" customHeight="1" spans="1:12">
       <c r="A32" s="7"/>
       <c r="B32" s="7" t="s">
         <v>133</v>
@@ -2770,7 +3368,7 @@
       </c>
       <c r="L32" s="7"/>
     </row>
-    <row r="33" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" ht="18" customHeight="1" spans="1:12">
       <c r="A33" s="7"/>
       <c r="B33" s="7" t="s">
         <v>137</v>
@@ -2800,7 +3398,7 @@
       </c>
       <c r="L33" s="7"/>
     </row>
-    <row r="34" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" ht="18" customHeight="1" spans="1:12">
       <c r="A34" s="7"/>
       <c r="B34" s="11" t="s">
         <v>142</v>
@@ -2832,17 +3430,15 @@
       </c>
       <c r="L34" s="7"/>
     </row>
-    <row r="35" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" ht="18" customHeight="1" spans="1:12">
       <c r="A35" s="7"/>
-      <c r="B35" s="7" t="s">
+      <c r="B35" t="s">
         <v>148</v>
       </c>
       <c r="C35" s="8" t="s">
         <v>149</v>
       </c>
-      <c r="D35" s="7" t="s">
-        <v>24</v>
-      </c>
+      <c r="D35" s="7"/>
       <c r="E35" s="7" t="s">
         <v>135</v>
       </c>
@@ -2854,23 +3450,23 @@
       </c>
       <c r="H35" s="7"/>
       <c r="I35" s="7" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="J35" s="8" t="s">
-        <v>152</v>
+        <v>123</v>
       </c>
       <c r="K35" s="8" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="L35" s="7"/>
     </row>
-    <row r="36" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" ht="18" customHeight="1" spans="1:12">
       <c r="A36" s="7"/>
       <c r="B36" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C36" s="8" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D36" s="7" t="s">
         <v>24</v>
@@ -2879,30 +3475,30 @@
         <v>135</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>144</v>
+        <v>156</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="H36" s="7"/>
       <c r="I36" s="7" t="s">
         <v>146</v>
       </c>
       <c r="J36" s="8" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="K36" s="8" t="s">
         <v>147</v>
       </c>
       <c r="L36" s="7"/>
     </row>
-    <row r="37" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" ht="18" customHeight="1" spans="1:12">
       <c r="A37" s="7"/>
       <c r="B37" s="7" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="C37" s="8" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="D37" s="7" t="s">
         <v>24</v>
@@ -2911,24 +3507,24 @@
         <v>135</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>158</v>
+        <v>144</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="H37" s="7"/>
       <c r="I37" s="7" t="s">
-        <v>160</v>
+        <v>146</v>
       </c>
       <c r="J37" s="8" t="s">
-        <v>123</v>
+        <v>158</v>
       </c>
       <c r="K37" s="8" t="s">
-        <v>161</v>
+        <v>147</v>
       </c>
       <c r="L37" s="7"/>
     </row>
-    <row r="38" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" ht="18" customHeight="1" spans="1:12">
       <c r="A38" s="7"/>
       <c r="B38" s="7" t="s">
         <v>162</v>
@@ -2939,135 +3535,151 @@
       <c r="D38" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="E38" s="8" t="s">
+      <c r="E38" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="F38" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="G38" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="F38" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="G38" s="7"/>
       <c r="H38" s="7"/>
       <c r="I38" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="J38" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="K38" s="8" t="s">
         <v>166</v>
       </c>
-      <c r="J38" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="K38" s="9" t="s">
+      <c r="L38" s="7"/>
+    </row>
+    <row r="39" ht="18" customHeight="1" spans="1:12">
+      <c r="A39" s="7"/>
+      <c r="B39" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="L38" s="7"/>
-    </row>
-    <row r="39" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="7"/>
-      <c r="B39" s="7"/>
-      <c r="C39" s="8"/>
-      <c r="D39" s="7"/>
-      <c r="E39" s="7"/>
-      <c r="F39" s="7"/>
+      <c r="C39" s="8" t="s">
+        <v>168</v>
+      </c>
+      <c r="D39" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E39" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="F39" s="7" t="s">
+        <v>170</v>
+      </c>
       <c r="G39" s="7"/>
       <c r="H39" s="7"/>
-      <c r="I39" s="7"/>
-      <c r="J39" s="7"/>
-      <c r="K39" s="7"/>
+      <c r="I39" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="J39" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="K39" s="9" t="s">
+        <v>172</v>
+      </c>
       <c r="L39" s="7"/>
     </row>
-    <row r="40" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" ht="18" customHeight="1" spans="1:12">
       <c r="A40" s="7"/>
-      <c r="B40" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="C40" s="12" t="s">
-        <v>169</v>
-      </c>
+      <c r="B40" s="7"/>
+      <c r="C40" s="8"/>
       <c r="D40" s="7"/>
-      <c r="E40" s="7" t="s">
-        <v>170</v>
-      </c>
+      <c r="E40" s="7"/>
       <c r="F40" s="7"/>
       <c r="G40" s="7"/>
       <c r="H40" s="7"/>
       <c r="I40" s="7"/>
-      <c r="J40" s="7" t="s">
-        <v>171</v>
-      </c>
+      <c r="J40" s="7"/>
       <c r="K40" s="7"/>
       <c r="L40" s="7"/>
     </row>
-    <row r="41" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" ht="18" customHeight="1" spans="1:12">
       <c r="A41" s="7"/>
       <c r="B41" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C41" s="12" t="s">
-        <v>173</v>
-      </c>
-      <c r="D41" s="7" t="s">
-        <v>24</v>
-      </c>
+        <v>174</v>
+      </c>
+      <c r="D41" s="7"/>
       <c r="E41" s="7" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="F41" s="7"/>
       <c r="G41" s="7"/>
       <c r="H41" s="7"/>
       <c r="I41" s="7"/>
       <c r="J41" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="K41" s="7" t="s">
-        <v>174</v>
-      </c>
+        <v>176</v>
+      </c>
+      <c r="K41" s="7"/>
       <c r="L41" s="7"/>
     </row>
-    <row r="42" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" ht="18" customHeight="1" spans="1:12">
       <c r="A42" s="7"/>
       <c r="B42" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="C42" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="D42" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E42" s="7" t="s">
         <v>175</v>
-      </c>
-      <c r="C42" s="8" t="s">
-        <v>176</v>
-      </c>
-      <c r="D42" s="7"/>
-      <c r="E42" s="7" t="s">
-        <v>170</v>
       </c>
       <c r="F42" s="7"/>
       <c r="G42" s="7"/>
       <c r="H42" s="7"/>
-      <c r="I42" s="7" t="s">
-        <v>177</v>
-      </c>
+      <c r="I42" s="7"/>
       <c r="J42" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="K42" s="7"/>
+        <v>176</v>
+      </c>
+      <c r="K42" s="7" t="s">
+        <v>179</v>
+      </c>
       <c r="L42" s="7"/>
     </row>
-    <row r="43" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" ht="18" customHeight="1" spans="1:12">
       <c r="A43" s="7"/>
       <c r="B43" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C43" s="8" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D43" s="7"/>
-      <c r="E43" s="7"/>
+      <c r="E43" s="7" t="s">
+        <v>175</v>
+      </c>
       <c r="F43" s="7"/>
       <c r="G43" s="7"/>
       <c r="H43" s="7"/>
-      <c r="I43" s="7"/>
-      <c r="J43" s="7"/>
-      <c r="K43" s="11" t="s">
-        <v>181</v>
-      </c>
+      <c r="I43" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="J43" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="K43" s="7"/>
       <c r="L43" s="7"/>
     </row>
-    <row r="44" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" ht="18" customHeight="1" spans="1:12">
       <c r="A44" s="7"/>
-      <c r="B44" s="7"/>
-      <c r="C44" s="8"/>
+      <c r="B44" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="C44" s="8" t="s">
+        <v>185</v>
+      </c>
       <c r="D44" s="7"/>
       <c r="E44" s="7"/>
       <c r="F44" s="7"/>
@@ -3075,45 +3687,35 @@
       <c r="H44" s="7"/>
       <c r="I44" s="7"/>
       <c r="J44" s="7"/>
-      <c r="K44" s="7"/>
+      <c r="K44" s="11" t="s">
+        <v>186</v>
+      </c>
       <c r="L44" s="7"/>
     </row>
-    <row r="45" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" ht="18" customHeight="1" spans="1:12">
       <c r="A45" s="7"/>
-      <c r="B45" s="7" t="s">
-        <v>182</v>
-      </c>
-      <c r="C45" s="8" t="s">
-        <v>183</v>
-      </c>
+      <c r="B45" s="7"/>
+      <c r="C45" s="8"/>
       <c r="D45" s="7"/>
       <c r="E45" s="7"/>
       <c r="F45" s="7"/>
       <c r="G45" s="7"/>
       <c r="H45" s="7"/>
-      <c r="I45" s="11" t="s">
-        <v>184</v>
-      </c>
-      <c r="J45" s="11" t="s">
-        <v>185</v>
-      </c>
-      <c r="K45" s="11" t="s">
-        <v>184</v>
-      </c>
+      <c r="I45" s="7"/>
+      <c r="J45" s="7"/>
+      <c r="K45" s="7"/>
       <c r="L45" s="7"/>
     </row>
-    <row r="46" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" ht="18" customHeight="1" spans="1:12">
       <c r="A46" s="7"/>
-      <c r="B46" s="11" t="s">
-        <v>186</v>
+      <c r="B46" s="7" t="s">
+        <v>187</v>
       </c>
       <c r="C46" s="8" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D46" s="7"/>
-      <c r="E46" s="11" t="s">
-        <v>188</v>
-      </c>
+      <c r="E46" s="7"/>
       <c r="F46" s="7"/>
       <c r="G46" s="7"/>
       <c r="H46" s="7"/>
@@ -3121,59 +3723,67 @@
         <v>189</v>
       </c>
       <c r="J46" s="11" t="s">
-        <v>171</v>
+        <v>190</v>
       </c>
       <c r="K46" s="11" t="s">
-        <v>181</v>
+        <v>189</v>
       </c>
       <c r="L46" s="7"/>
     </row>
-    <row r="47" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" ht="18" customHeight="1" spans="1:12">
       <c r="A47" s="7"/>
-      <c r="B47" s="7" t="s">
-        <v>190</v>
+      <c r="B47" s="11" t="s">
+        <v>191</v>
       </c>
       <c r="C47" s="8" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D47" s="7"/>
-      <c r="E47" s="7"/>
+      <c r="E47" s="11" t="s">
+        <v>193</v>
+      </c>
       <c r="F47" s="7"/>
       <c r="G47" s="7"/>
       <c r="H47" s="7"/>
       <c r="I47" s="11" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="J47" s="11" t="s">
-        <v>193</v>
-      </c>
-      <c r="K47" s="7" t="s">
-        <v>194</v>
+        <v>176</v>
+      </c>
+      <c r="K47" s="11" t="s">
+        <v>186</v>
       </c>
       <c r="L47" s="7"/>
     </row>
-    <row r="48" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" ht="18" customHeight="1" spans="1:12">
       <c r="A48" s="7"/>
-      <c r="B48" s="7"/>
-      <c r="C48" s="8"/>
+      <c r="B48" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="C48" s="8" t="s">
+        <v>196</v>
+      </c>
       <c r="D48" s="7"/>
       <c r="E48" s="7"/>
       <c r="F48" s="7"/>
       <c r="G48" s="7"/>
       <c r="H48" s="7"/>
-      <c r="I48" s="11"/>
-      <c r="J48" s="11"/>
-      <c r="K48" s="7"/>
+      <c r="I48" s="11" t="s">
+        <v>197</v>
+      </c>
+      <c r="J48" s="11" t="s">
+        <v>198</v>
+      </c>
+      <c r="K48" s="7" t="s">
+        <v>199</v>
+      </c>
       <c r="L48" s="7"/>
     </row>
-    <row r="49" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" ht="18" customHeight="1" spans="1:12">
       <c r="A49" s="7"/>
-      <c r="B49" s="7" t="s">
-        <v>195</v>
-      </c>
-      <c r="C49" s="8" t="s">
-        <v>196</v>
-      </c>
+      <c r="B49" s="7"/>
+      <c r="C49" s="8"/>
       <c r="D49" s="7"/>
       <c r="E49" s="7"/>
       <c r="F49" s="7"/>
@@ -3181,15 +3791,17 @@
       <c r="H49" s="7"/>
       <c r="I49" s="11"/>
       <c r="J49" s="11"/>
-      <c r="K49" s="7" t="s">
-        <v>197</v>
-      </c>
+      <c r="K49" s="7"/>
       <c r="L49" s="7"/>
     </row>
-    <row r="50" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" ht="18" customHeight="1" spans="1:12">
       <c r="A50" s="7"/>
-      <c r="B50" s="7"/>
-      <c r="C50" s="8"/>
+      <c r="B50" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="C50" s="8" t="s">
+        <v>201</v>
+      </c>
       <c r="D50" s="7"/>
       <c r="E50" s="7"/>
       <c r="F50" s="7"/>
@@ -3197,76 +3809,70 @@
       <c r="H50" s="7"/>
       <c r="I50" s="11"/>
       <c r="J50" s="11"/>
-      <c r="K50" s="7"/>
+      <c r="K50" s="7" t="s">
+        <v>202</v>
+      </c>
       <c r="L50" s="7"/>
     </row>
-    <row r="51" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" ht="18" customHeight="1" spans="1:12">
       <c r="A51" s="7"/>
-      <c r="B51" s="10" t="s">
-        <v>198</v>
-      </c>
-      <c r="C51" s="8" t="s">
-        <v>199</v>
-      </c>
+      <c r="B51" s="7"/>
+      <c r="C51" s="8"/>
       <c r="D51" s="7"/>
-      <c r="E51" s="7" t="s">
-        <v>199</v>
-      </c>
+      <c r="E51" s="7"/>
       <c r="F51" s="7"/>
       <c r="G51" s="7"/>
       <c r="H51" s="7"/>
       <c r="I51" s="11"/>
-      <c r="J51" s="11" t="s">
-        <v>200</v>
-      </c>
-      <c r="K51" s="13" t="s">
-        <v>201</v>
-      </c>
+      <c r="J51" s="11"/>
+      <c r="K51" s="7"/>
       <c r="L51" s="7"/>
     </row>
-    <row r="52" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" ht="18" customHeight="1" spans="1:12">
       <c r="A52" s="7"/>
-      <c r="B52" s="7"/>
-      <c r="C52" s="8"/>
+      <c r="B52" s="10" t="s">
+        <v>203</v>
+      </c>
+      <c r="C52" s="8" t="s">
+        <v>204</v>
+      </c>
       <c r="D52" s="7"/>
-      <c r="E52" s="7"/>
+      <c r="E52" s="7" t="s">
+        <v>204</v>
+      </c>
       <c r="F52" s="7"/>
       <c r="G52" s="7"/>
       <c r="H52" s="7"/>
-      <c r="I52" s="7"/>
-      <c r="J52" s="7"/>
-      <c r="K52" s="7"/>
+      <c r="I52" s="11"/>
+      <c r="J52" s="11" t="s">
+        <v>205</v>
+      </c>
+      <c r="K52" s="13" t="s">
+        <v>206</v>
+      </c>
       <c r="L52" s="7"/>
     </row>
-    <row r="53" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" ht="18" customHeight="1" spans="1:12">
       <c r="A53" s="7"/>
-      <c r="B53" s="7" t="s">
-        <v>202</v>
-      </c>
-      <c r="C53" s="8" t="s">
-        <v>203</v>
-      </c>
+      <c r="B53" s="7"/>
+      <c r="C53" s="8"/>
       <c r="D53" s="7"/>
       <c r="E53" s="7"/>
       <c r="F53" s="7"/>
       <c r="G53" s="7"/>
       <c r="H53" s="7"/>
       <c r="I53" s="7"/>
-      <c r="J53" s="11" t="s">
-        <v>204</v>
-      </c>
-      <c r="K53" s="11" t="s">
-        <v>194</v>
-      </c>
+      <c r="J53" s="7"/>
+      <c r="K53" s="7"/>
       <c r="L53" s="7"/>
     </row>
-    <row r="54" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" ht="18" customHeight="1" spans="1:12">
       <c r="A54" s="7"/>
-      <c r="B54" s="11" t="s">
-        <v>205</v>
+      <c r="B54" s="7" t="s">
+        <v>207</v>
       </c>
       <c r="C54" s="8" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="D54" s="7"/>
       <c r="E54" s="7"/>
@@ -3275,75 +3881,69 @@
       <c r="H54" s="7"/>
       <c r="I54" s="7"/>
       <c r="J54" s="11" t="s">
-        <v>204</v>
-      </c>
-      <c r="K54" s="7" t="s">
-        <v>207</v>
+        <v>209</v>
+      </c>
+      <c r="K54" s="11" t="s">
+        <v>199</v>
       </c>
       <c r="L54" s="7"/>
     </row>
-    <row r="55" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" ht="18" customHeight="1" spans="1:12">
       <c r="A55" s="7"/>
-      <c r="B55" s="7"/>
-      <c r="C55" s="8"/>
+      <c r="B55" s="11" t="s">
+        <v>210</v>
+      </c>
+      <c r="C55" s="8" t="s">
+        <v>211</v>
+      </c>
       <c r="D55" s="7"/>
       <c r="E55" s="7"/>
       <c r="F55" s="7"/>
       <c r="G55" s="7"/>
       <c r="H55" s="7"/>
       <c r="I55" s="7"/>
-      <c r="J55" s="7"/>
-      <c r="K55" s="7"/>
+      <c r="J55" s="11" t="s">
+        <v>209</v>
+      </c>
+      <c r="K55" s="7" t="s">
+        <v>212</v>
+      </c>
       <c r="L55" s="7"/>
     </row>
-    <row r="56" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" ht="18" customHeight="1" spans="1:12">
       <c r="A56" s="7"/>
-      <c r="B56" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="C56" s="8" t="s">
-        <v>209</v>
-      </c>
-      <c r="D56" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="E56" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="F56" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="G56" s="7" t="s">
-        <v>212</v>
-      </c>
+      <c r="B56" s="7"/>
+      <c r="C56" s="8"/>
+      <c r="D56" s="7"/>
+      <c r="E56" s="7"/>
+      <c r="F56" s="7"/>
+      <c r="G56" s="7"/>
       <c r="H56" s="7"/>
-      <c r="I56" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="J56" s="9" t="s">
-        <v>131</v>
-      </c>
-      <c r="K56" s="9" t="s">
-        <v>213</v>
-      </c>
+      <c r="I56" s="7"/>
+      <c r="J56" s="7"/>
+      <c r="K56" s="7"/>
       <c r="L56" s="7"/>
     </row>
-    <row r="57" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" ht="18" customHeight="1" spans="1:12">
       <c r="A57" s="7"/>
       <c r="B57" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="C57" s="8" t="s">
         <v>214</v>
-      </c>
-      <c r="C57" s="8" t="s">
-        <v>215</v>
       </c>
       <c r="D57" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="E57" s="8" t="s">
+      <c r="E57" s="7" t="s">
         <v>215</v>
       </c>
-      <c r="F57" s="7"/>
-      <c r="G57" s="7"/>
+      <c r="F57" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="G57" s="7" t="s">
+        <v>217</v>
+      </c>
       <c r="H57" s="7"/>
       <c r="I57" s="7" t="s">
         <v>130</v>
@@ -3352,32 +3952,42 @@
         <v>131</v>
       </c>
       <c r="K57" s="9" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="L57" s="7"/>
     </row>
-    <row r="58" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" ht="18" customHeight="1" spans="1:12">
       <c r="A58" s="7"/>
-      <c r="B58" s="7"/>
-      <c r="C58" s="8"/>
-      <c r="D58" s="7"/>
-      <c r="E58" s="7"/>
+      <c r="B58" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="C58" s="8" t="s">
+        <v>220</v>
+      </c>
+      <c r="D58" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E58" s="8" t="s">
+        <v>220</v>
+      </c>
       <c r="F58" s="7"/>
       <c r="G58" s="7"/>
       <c r="H58" s="7"/>
-      <c r="I58" s="7"/>
-      <c r="J58" s="7"/>
-      <c r="K58" s="7"/>
+      <c r="I58" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="J58" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="K58" s="9" t="s">
+        <v>218</v>
+      </c>
       <c r="L58" s="7"/>
     </row>
-    <row r="59" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" ht="18" customHeight="1" spans="1:12">
       <c r="A59" s="7"/>
-      <c r="B59" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="C59" s="8" t="s">
-        <v>217</v>
-      </c>
+      <c r="B59" s="7"/>
+      <c r="C59" s="8"/>
       <c r="D59" s="7"/>
       <c r="E59" s="7"/>
       <c r="F59" s="7"/>
@@ -3385,15 +3995,17 @@
       <c r="H59" s="7"/>
       <c r="I59" s="7"/>
       <c r="J59" s="7"/>
-      <c r="K59" s="7" t="s">
-        <v>216</v>
-      </c>
+      <c r="K59" s="7"/>
       <c r="L59" s="7"/>
     </row>
-    <row r="60" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" ht="18" customHeight="1" spans="1:12">
       <c r="A60" s="7"/>
-      <c r="B60" s="7"/>
-      <c r="C60" s="8"/>
+      <c r="B60" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="C60" s="8" t="s">
+        <v>222</v>
+      </c>
       <c r="D60" s="7"/>
       <c r="E60" s="7"/>
       <c r="F60" s="7"/>
@@ -3401,81 +4013,79 @@
       <c r="H60" s="7"/>
       <c r="I60" s="7"/>
       <c r="J60" s="7"/>
-      <c r="K60" s="7"/>
+      <c r="K60" s="7" t="s">
+        <v>221</v>
+      </c>
       <c r="L60" s="7"/>
     </row>
-    <row r="61" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" ht="18" customHeight="1" spans="1:12">
       <c r="A61" s="7"/>
-      <c r="B61" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="C61" s="8" t="s">
-        <v>219</v>
-      </c>
+      <c r="B61" s="7"/>
+      <c r="C61" s="8"/>
       <c r="D61" s="7"/>
-      <c r="E61" s="7" t="s">
-        <v>220</v>
-      </c>
+      <c r="E61" s="7"/>
       <c r="F61" s="7"/>
       <c r="G61" s="7"/>
       <c r="H61" s="7"/>
-      <c r="I61" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="J61" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="K61" s="7" t="s">
-        <v>223</v>
-      </c>
+      <c r="I61" s="7"/>
+      <c r="J61" s="7"/>
+      <c r="K61" s="7"/>
       <c r="L61" s="7"/>
     </row>
-    <row r="62" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" ht="18" customHeight="1" spans="1:12">
       <c r="A62" s="7"/>
       <c r="B62" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="C62" s="8" t="s">
         <v>224</v>
-      </c>
-      <c r="C62" s="8" t="s">
-        <v>225</v>
       </c>
       <c r="D62" s="7"/>
       <c r="E62" s="7" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="F62" s="7"/>
       <c r="G62" s="7"/>
       <c r="H62" s="7"/>
       <c r="I62" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="J62" s="7" t="s">
         <v>227</v>
       </c>
-      <c r="J62" s="7"/>
       <c r="K62" s="7" t="s">
         <v>228</v>
       </c>
       <c r="L62" s="7"/>
     </row>
-    <row r="63" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" ht="18" customHeight="1" spans="1:12">
       <c r="A63" s="7"/>
-      <c r="B63" s="7"/>
-      <c r="C63" s="8"/>
+      <c r="B63" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="C63" s="8" t="s">
+        <v>230</v>
+      </c>
       <c r="D63" s="7"/>
-      <c r="E63" s="7"/>
+      <c r="E63" s="7" t="s">
+        <v>231</v>
+      </c>
       <c r="F63" s="7"/>
       <c r="G63" s="7"/>
       <c r="H63" s="7"/>
-      <c r="I63" s="7"/>
+      <c r="I63" s="7" t="s">
+        <v>232</v>
+      </c>
       <c r="J63" s="7"/>
-      <c r="K63" s="7"/>
+      <c r="K63" s="7" t="s">
+        <v>233</v>
+      </c>
       <c r="L63" s="7"/>
     </row>
-    <row r="64" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" ht="18" customHeight="1" spans="1:12">
       <c r="A64" s="7"/>
-      <c r="B64" s="10" t="s">
-        <v>229</v>
-      </c>
-      <c r="C64" s="8" t="s">
-        <v>230</v>
-      </c>
+      <c r="B64" s="7"/>
+      <c r="C64" s="8"/>
       <c r="D64" s="7"/>
       <c r="E64" s="7"/>
       <c r="F64" s="7"/>
@@ -3483,40 +4093,36 @@
       <c r="H64" s="7"/>
       <c r="I64" s="7"/>
       <c r="J64" s="7"/>
-      <c r="K64" s="7" t="s">
-        <v>231</v>
-      </c>
+      <c r="K64" s="7"/>
       <c r="L64" s="7"/>
     </row>
-    <row r="65" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" ht="18" customHeight="1" spans="1:12">
       <c r="A65" s="7"/>
-      <c r="B65" s="7" t="s">
-        <v>232</v>
+      <c r="B65" s="10" t="s">
+        <v>234</v>
       </c>
       <c r="C65" s="8" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="D65" s="7"/>
       <c r="E65" s="7"/>
       <c r="F65" s="7"/>
       <c r="G65" s="7"/>
       <c r="H65" s="7"/>
-      <c r="I65" s="7" t="s">
-        <v>234</v>
-      </c>
+      <c r="I65" s="7"/>
       <c r="J65" s="7"/>
       <c r="K65" s="7" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="L65" s="7"/>
     </row>
-    <row r="66" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" ht="18" customHeight="1" spans="1:12">
       <c r="A66" s="7"/>
       <c r="B66" s="7" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C66" s="8" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="D66" s="7"/>
       <c r="E66" s="7"/>
@@ -3524,165 +4130,165 @@
       <c r="G66" s="7"/>
       <c r="H66" s="7"/>
       <c r="I66" s="7" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="J66" s="7"/>
-      <c r="K66" s="11" t="s">
-        <v>181</v>
+      <c r="K66" s="7" t="s">
+        <v>240</v>
       </c>
       <c r="L66" s="7"/>
     </row>
-    <row r="67" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" ht="18" customHeight="1" spans="1:12">
       <c r="A67" s="7"/>
-      <c r="B67" s="7"/>
-      <c r="C67" s="8"/>
+      <c r="B67" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="C67" s="8" t="s">
+        <v>242</v>
+      </c>
       <c r="D67" s="7"/>
       <c r="E67" s="7"/>
       <c r="F67" s="7"/>
       <c r="G67" s="7"/>
       <c r="H67" s="7"/>
-      <c r="I67" s="7"/>
+      <c r="I67" s="7" t="s">
+        <v>243</v>
+      </c>
       <c r="J67" s="7"/>
-      <c r="K67" s="11"/>
+      <c r="K67" s="11" t="s">
+        <v>186</v>
+      </c>
       <c r="L67" s="7"/>
     </row>
-    <row r="68" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" ht="18" customHeight="1" spans="1:12">
       <c r="A68" s="7"/>
-      <c r="B68" s="7" t="s">
-        <v>239</v>
-      </c>
-      <c r="C68" s="8" t="s">
-        <v>240</v>
-      </c>
+      <c r="B68" s="7"/>
+      <c r="C68" s="8"/>
       <c r="D68" s="7"/>
-      <c r="E68" s="7" t="s">
-        <v>241</v>
-      </c>
+      <c r="E68" s="7"/>
       <c r="F68" s="7"/>
       <c r="G68" s="7"/>
       <c r="H68" s="7"/>
-      <c r="I68" s="7" t="s">
-        <v>242</v>
-      </c>
-      <c r="J68" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="K68" s="7" t="s">
-        <v>242</v>
-      </c>
+      <c r="I68" s="7"/>
+      <c r="J68" s="7"/>
+      <c r="K68" s="11"/>
       <c r="L68" s="7"/>
     </row>
-    <row r="69" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" ht="18" customHeight="1" spans="1:12">
       <c r="A69" s="7"/>
       <c r="B69" s="7" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C69" s="8" t="s">
-        <v>241</v>
-      </c>
-      <c r="D69" s="7" t="s">
-        <v>24</v>
-      </c>
+        <v>245</v>
+      </c>
+      <c r="D69" s="7"/>
       <c r="E69" s="7" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="F69" s="7"/>
       <c r="G69" s="7"/>
       <c r="H69" s="7"/>
       <c r="I69" s="7" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="J69" s="7" t="s">
-        <v>245</v>
+        <v>205</v>
       </c>
       <c r="K69" s="7" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="L69" s="7"/>
     </row>
-    <row r="70" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" ht="18" customHeight="1" spans="1:12">
       <c r="A70" s="7"/>
       <c r="B70" s="7" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C70" s="8" t="s">
-        <v>241</v>
-      </c>
-      <c r="D70" s="7"/>
+        <v>246</v>
+      </c>
+      <c r="D70" s="7" t="s">
+        <v>24</v>
+      </c>
       <c r="E70" s="7" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="F70" s="7"/>
       <c r="G70" s="7"/>
       <c r="H70" s="7"/>
-      <c r="I70" s="7"/>
-      <c r="J70" s="7"/>
+      <c r="I70" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="J70" s="7" t="s">
+        <v>250</v>
+      </c>
       <c r="K70" s="7" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="L70" s="7"/>
     </row>
-    <row r="71" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" ht="18" customHeight="1" spans="1:12">
       <c r="A71" s="7"/>
       <c r="B71" s="7" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="C71" s="8" t="s">
-        <v>250</v>
-      </c>
-      <c r="D71" s="7" t="s">
-        <v>24</v>
-      </c>
+        <v>246</v>
+      </c>
+      <c r="D71" s="7"/>
       <c r="E71" s="7" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="F71" s="7"/>
       <c r="G71" s="7"/>
       <c r="H71" s="7"/>
-      <c r="I71" s="7" t="s">
-        <v>251</v>
-      </c>
-      <c r="J71" s="7" t="s">
-        <v>245</v>
-      </c>
+      <c r="I71" s="7"/>
+      <c r="J71" s="7"/>
       <c r="K71" s="7" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="L71" s="7"/>
     </row>
-    <row r="72" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" ht="18" customHeight="1" spans="1:12">
       <c r="A72" s="7"/>
       <c r="B72" s="7" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C72" s="8" t="s">
-        <v>250</v>
-      </c>
-      <c r="D72" s="7"/>
-      <c r="E72" s="8" t="s">
-        <v>250</v>
+        <v>255</v>
+      </c>
+      <c r="D72" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E72" s="7" t="s">
+        <v>255</v>
       </c>
       <c r="F72" s="7"/>
       <c r="G72" s="7"/>
       <c r="H72" s="7"/>
-      <c r="I72" s="7"/>
-      <c r="J72" s="7"/>
+      <c r="I72" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="J72" s="7" t="s">
+        <v>250</v>
+      </c>
       <c r="K72" s="7" t="s">
-        <v>201</v>
+        <v>257</v>
       </c>
       <c r="L72" s="7"/>
     </row>
-    <row r="73" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" ht="18" customHeight="1" spans="1:12">
       <c r="A73" s="7"/>
       <c r="B73" s="7" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="C73" s="8" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="D73" s="7"/>
       <c r="E73" s="8" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="F73" s="7"/>
       <c r="G73" s="7"/>
@@ -3690,121 +4296,119 @@
       <c r="I73" s="7"/>
       <c r="J73" s="7"/>
       <c r="K73" s="7" t="s">
-        <v>255</v>
+        <v>206</v>
       </c>
       <c r="L73" s="7"/>
     </row>
-    <row r="74" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" ht="18" customHeight="1" spans="1:12">
       <c r="A74" s="7"/>
       <c r="B74" s="7" t="s">
-        <v>256</v>
-      </c>
-      <c r="C74" s="12" t="s">
-        <v>257</v>
+        <v>259</v>
+      </c>
+      <c r="C74" s="8" t="s">
+        <v>255</v>
       </c>
       <c r="D74" s="7"/>
-      <c r="E74" s="7"/>
+      <c r="E74" s="8" t="s">
+        <v>255</v>
+      </c>
       <c r="F74" s="7"/>
       <c r="G74" s="7"/>
       <c r="H74" s="7"/>
       <c r="I74" s="7"/>
       <c r="J74" s="7"/>
       <c r="K74" s="7" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="L74" s="7"/>
     </row>
-    <row r="75" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" ht="18" customHeight="1" spans="1:12">
       <c r="A75" s="7"/>
-      <c r="B75" s="10" t="s">
-        <v>259</v>
+      <c r="B75" s="7" t="s">
+        <v>261</v>
       </c>
       <c r="C75" s="12" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="D75" s="7"/>
-      <c r="E75" s="7" t="s">
-        <v>241</v>
-      </c>
+      <c r="E75" s="7"/>
       <c r="F75" s="7"/>
       <c r="G75" s="7"/>
       <c r="H75" s="7"/>
       <c r="I75" s="7"/>
       <c r="J75" s="7"/>
-      <c r="K75" s="13" t="s">
-        <v>261</v>
+      <c r="K75" s="7" t="s">
+        <v>263</v>
       </c>
       <c r="L75" s="7"/>
     </row>
-    <row r="76" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" ht="18" customHeight="1" spans="1:12">
       <c r="A76" s="7"/>
-      <c r="B76" s="7" t="s">
-        <v>262</v>
-      </c>
-      <c r="C76" s="8" t="s">
-        <v>263</v>
-      </c>
-      <c r="D76" s="7" t="s">
-        <v>24</v>
-      </c>
+      <c r="B76" s="10" t="s">
+        <v>264</v>
+      </c>
+      <c r="C76" s="12" t="s">
+        <v>265</v>
+      </c>
+      <c r="D76" s="7"/>
       <c r="E76" s="7" t="s">
-        <v>264</v>
-      </c>
-      <c r="F76" s="7" t="s">
-        <v>265</v>
-      </c>
+        <v>246</v>
+      </c>
+      <c r="F76" s="7"/>
       <c r="G76" s="7"/>
       <c r="H76" s="7"/>
-      <c r="I76" s="7" t="s">
+      <c r="I76" s="7"/>
+      <c r="J76" s="7"/>
+      <c r="K76" s="13" t="s">
         <v>266</v>
       </c>
-      <c r="J76" s="7" t="s">
+      <c r="L76" s="7"/>
+    </row>
+    <row r="77" ht="18" customHeight="1" spans="1:12">
+      <c r="A77" s="7"/>
+      <c r="B77" s="7" t="s">
         <v>267</v>
       </c>
-      <c r="K76" s="7" t="s">
+      <c r="C77" s="8" t="s">
         <v>268</v>
       </c>
-      <c r="L76" s="7"/>
-    </row>
-    <row r="77" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="7"/>
-      <c r="B77" s="7"/>
-      <c r="C77" s="8"/>
-      <c r="D77" s="7"/>
-      <c r="E77" s="7"/>
-      <c r="F77" s="7"/>
+      <c r="D77" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E77" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="F77" s="7" t="s">
+        <v>270</v>
+      </c>
       <c r="G77" s="7"/>
       <c r="H77" s="7"/>
-      <c r="I77" s="7"/>
-      <c r="J77" s="7"/>
-      <c r="K77" s="7"/>
+      <c r="I77" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="J77" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="K77" s="7" t="s">
+        <v>273</v>
+      </c>
       <c r="L77" s="7"/>
     </row>
-    <row r="78" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" ht="18" customHeight="1" spans="1:12">
       <c r="A78" s="7"/>
-      <c r="B78" s="7" t="s">
-        <v>269</v>
-      </c>
-      <c r="C78" s="8" t="s">
-        <v>270</v>
-      </c>
+      <c r="B78" s="7"/>
+      <c r="C78" s="8"/>
       <c r="D78" s="7"/>
       <c r="E78" s="7"/>
       <c r="F78" s="7"/>
       <c r="G78" s="7"/>
       <c r="H78" s="7"/>
-      <c r="I78" s="7" t="s">
-        <v>271</v>
-      </c>
-      <c r="J78" s="2" t="s">
-        <v>272</v>
-      </c>
-      <c r="K78" s="7" t="s">
-        <v>273</v>
-      </c>
+      <c r="I78" s="7"/>
+      <c r="J78" s="7"/>
+      <c r="K78" s="7"/>
       <c r="L78" s="7"/>
     </row>
-    <row r="79" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" ht="18" customHeight="1" spans="1:12">
       <c r="A79" s="7"/>
       <c r="B79" s="7" t="s">
         <v>274</v>
@@ -3817,20 +4421,24 @@
       <c r="F79" s="7"/>
       <c r="G79" s="7"/>
       <c r="H79" s="7"/>
-      <c r="I79" s="7"/>
-      <c r="J79" s="7"/>
+      <c r="I79" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="J79" s="2" t="s">
+        <v>277</v>
+      </c>
       <c r="K79" s="7" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="L79" s="7"/>
     </row>
-    <row r="80" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" ht="18" customHeight="1" spans="1:12">
       <c r="A80" s="7"/>
       <c r="B80" s="7" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="C80" s="8" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="D80" s="7"/>
       <c r="E80" s="7"/>
@@ -3839,18 +4447,18 @@
       <c r="H80" s="7"/>
       <c r="I80" s="7"/>
       <c r="J80" s="7"/>
-      <c r="K80" s="11" t="s">
-        <v>181</v>
+      <c r="K80" s="7" t="s">
+        <v>281</v>
       </c>
       <c r="L80" s="7"/>
     </row>
-    <row r="81" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" ht="18" customHeight="1" spans="1:12">
       <c r="A81" s="7"/>
       <c r="B81" s="7" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="C81" s="8" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="D81" s="7"/>
       <c r="E81" s="7"/>
@@ -3858,104 +4466,104 @@
       <c r="G81" s="7"/>
       <c r="H81" s="7"/>
       <c r="I81" s="7"/>
+      <c r="J81" s="7"/>
       <c r="K81" s="11" t="s">
-        <v>276</v>
+        <v>186</v>
       </c>
       <c r="L81" s="7"/>
     </row>
-    <row r="82" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" ht="18" customHeight="1" spans="1:12">
       <c r="A82" s="7"/>
-      <c r="B82" s="8" t="s">
-        <v>281</v>
+      <c r="B82" s="7" t="s">
+        <v>284</v>
       </c>
       <c r="C82" s="8" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="D82" s="7"/>
       <c r="E82" s="7"/>
       <c r="F82" s="7"/>
       <c r="G82" s="7"/>
       <c r="H82" s="7"/>
-      <c r="I82" s="7" t="s">
-        <v>283</v>
-      </c>
-      <c r="J82" s="2" t="s">
-        <v>272</v>
-      </c>
+      <c r="I82" s="7"/>
       <c r="K82" s="11" t="s">
         <v>281</v>
       </c>
       <c r="L82" s="7"/>
     </row>
-    <row r="83" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" ht="18" customHeight="1" spans="1:12">
       <c r="A83" s="7"/>
-      <c r="B83" s="7" t="s">
-        <v>284</v>
-      </c>
-      <c r="C83" s="12" t="s">
-        <v>285</v>
+      <c r="B83" s="8" t="s">
+        <v>286</v>
+      </c>
+      <c r="C83" s="8" t="s">
+        <v>287</v>
       </c>
       <c r="D83" s="7"/>
       <c r="E83" s="7"/>
       <c r="F83" s="7"/>
       <c r="G83" s="7"/>
       <c r="H83" s="7"/>
-      <c r="I83" s="7"/>
-      <c r="J83" s="7"/>
+      <c r="I83" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="J83" s="2" t="s">
+        <v>277</v>
+      </c>
       <c r="K83" s="11" t="s">
         <v>286</v>
       </c>
       <c r="L83" s="7"/>
     </row>
-    <row r="84" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" ht="18" customHeight="1" spans="1:12">
       <c r="A84" s="7"/>
       <c r="B84" s="7" t="s">
-        <v>287</v>
-      </c>
-      <c r="C84" s="8" t="s">
-        <v>288</v>
+        <v>289</v>
+      </c>
+      <c r="C84" s="12" t="s">
+        <v>290</v>
       </c>
       <c r="D84" s="7"/>
       <c r="E84" s="7"/>
       <c r="F84" s="7"/>
       <c r="G84" s="7"/>
       <c r="H84" s="7"/>
-      <c r="I84" s="7" t="s">
-        <v>289</v>
-      </c>
+      <c r="I84" s="7"/>
       <c r="J84" s="7"/>
       <c r="K84" s="11" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="L84" s="7"/>
     </row>
-    <row r="85" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" ht="18" customHeight="1" spans="1:12">
       <c r="A85" s="7"/>
       <c r="B85" s="7" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="C85" s="8" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="D85" s="7"/>
       <c r="E85" s="7"/>
       <c r="F85" s="7"/>
       <c r="G85" s="7"/>
       <c r="H85" s="7"/>
-      <c r="I85" s="7"/>
+      <c r="I85" s="7" t="s">
+        <v>294</v>
+      </c>
       <c r="J85" s="7"/>
       <c r="K85" s="11" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="L85" s="7"/>
     </row>
-    <row r="86" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" ht="18" customHeight="1" spans="1:12">
       <c r="A86" s="7"/>
-      <c r="B86" s="11" t="s">
-        <v>294</v>
+      <c r="B86" s="7" t="s">
+        <v>296</v>
       </c>
       <c r="C86" s="8" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="D86" s="7"/>
       <c r="E86" s="7"/>
@@ -3965,60 +4573,62 @@
       <c r="I86" s="7"/>
       <c r="J86" s="7"/>
       <c r="K86" s="11" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="L86" s="7"/>
     </row>
-    <row r="87" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" ht="18" customHeight="1" spans="1:12">
       <c r="A87" s="7"/>
-      <c r="B87" s="7" t="s">
-        <v>297</v>
+      <c r="B87" s="11" t="s">
+        <v>299</v>
       </c>
       <c r="C87" s="8" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="D87" s="7"/>
-      <c r="E87" s="7" t="s">
-        <v>299</v>
-      </c>
+      <c r="E87" s="7"/>
       <c r="F87" s="7"/>
       <c r="G87" s="7"/>
       <c r="H87" s="7"/>
       <c r="I87" s="7"/>
-      <c r="J87" s="7" t="s">
-        <v>300</v>
-      </c>
-      <c r="K87" s="7" t="s">
-        <v>293</v>
+      <c r="J87" s="7"/>
+      <c r="K87" s="11" t="s">
+        <v>301</v>
       </c>
       <c r="L87" s="7"/>
     </row>
-    <row r="88" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" ht="18" customHeight="1" spans="1:12">
       <c r="A88" s="7"/>
       <c r="B88" s="7" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="C88" s="8" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="D88" s="7"/>
-      <c r="E88" s="7"/>
+      <c r="E88" s="7" t="s">
+        <v>304</v>
+      </c>
       <c r="F88" s="7"/>
       <c r="G88" s="7"/>
       <c r="H88" s="7"/>
       <c r="I88" s="7"/>
-      <c r="J88" s="7"/>
+      <c r="J88" s="7" t="s">
+        <v>305</v>
+      </c>
       <c r="K88" s="7" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="L88" s="7"/>
     </row>
-    <row r="89" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" ht="18" customHeight="1" spans="1:12">
       <c r="A89" s="7"/>
       <c r="B89" s="7" t="s">
-        <v>304</v>
-      </c>
-      <c r="C89" s="8"/>
+        <v>306</v>
+      </c>
+      <c r="C89" s="8" t="s">
+        <v>307</v>
+      </c>
       <c r="D89" s="7"/>
       <c r="E89" s="7"/>
       <c r="F89" s="7"/>
@@ -4027,13 +4637,15 @@
       <c r="I89" s="7"/>
       <c r="J89" s="7"/>
       <c r="K89" s="7" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="L89" s="7"/>
     </row>
-    <row r="90" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" ht="18" customHeight="1" spans="1:12">
       <c r="A90" s="7"/>
-      <c r="B90" s="7"/>
+      <c r="B90" s="7" t="s">
+        <v>309</v>
+      </c>
       <c r="C90" s="8"/>
       <c r="D90" s="7"/>
       <c r="E90" s="7"/>
@@ -4042,17 +4654,15 @@
       <c r="H90" s="7"/>
       <c r="I90" s="7"/>
       <c r="J90" s="7"/>
-      <c r="K90" s="7"/>
+      <c r="K90" s="7" t="s">
+        <v>310</v>
+      </c>
       <c r="L90" s="7"/>
     </row>
-    <row r="91" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" ht="18" customHeight="1" spans="1:12">
       <c r="A91" s="7"/>
-      <c r="B91" s="7" t="s">
-        <v>306</v>
-      </c>
-      <c r="C91" s="8" t="s">
-        <v>307</v>
-      </c>
+      <c r="B91" s="7"/>
+      <c r="C91" s="8"/>
       <c r="D91" s="7"/>
       <c r="E91" s="7"/>
       <c r="F91" s="7"/>
@@ -4060,18 +4670,16 @@
       <c r="H91" s="7"/>
       <c r="I91" s="7"/>
       <c r="J91" s="7"/>
-      <c r="K91" s="7" t="s">
-        <v>308</v>
-      </c>
+      <c r="K91" s="7"/>
       <c r="L91" s="7"/>
     </row>
-    <row r="92" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" ht="18" customHeight="1" spans="1:12">
       <c r="A92" s="7"/>
       <c r="B92" s="7" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="C92" s="8" t="s">
-        <v>307</v>
+        <v>312</v>
       </c>
       <c r="D92" s="7"/>
       <c r="E92" s="7"/>
@@ -4081,14 +4689,18 @@
       <c r="I92" s="7"/>
       <c r="J92" s="7"/>
       <c r="K92" s="7" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="L92" s="7"/>
     </row>
-    <row r="93" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" ht="18" customHeight="1" spans="1:12">
       <c r="A93" s="7"/>
-      <c r="B93" s="7"/>
-      <c r="C93" s="8"/>
+      <c r="B93" s="7" t="s">
+        <v>314</v>
+      </c>
+      <c r="C93" s="8" t="s">
+        <v>312</v>
+      </c>
       <c r="D93" s="7"/>
       <c r="E93" s="7"/>
       <c r="F93" s="7"/>
@@ -4096,17 +4708,15 @@
       <c r="H93" s="7"/>
       <c r="I93" s="7"/>
       <c r="J93" s="7"/>
-      <c r="K93" s="7"/>
+      <c r="K93" s="7" t="s">
+        <v>315</v>
+      </c>
       <c r="L93" s="7"/>
     </row>
-    <row r="94" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" ht="18" customHeight="1" spans="1:12">
       <c r="A94" s="7"/>
-      <c r="B94" s="7" t="s">
-        <v>311</v>
-      </c>
-      <c r="C94" s="8" t="s">
-        <v>312</v>
-      </c>
+      <c r="B94" s="7"/>
+      <c r="C94" s="8"/>
       <c r="D94" s="7"/>
       <c r="E94" s="7"/>
       <c r="F94" s="7"/>
@@ -4114,15 +4724,17 @@
       <c r="H94" s="7"/>
       <c r="I94" s="7"/>
       <c r="J94" s="7"/>
-      <c r="K94" s="7" t="s">
-        <v>313</v>
-      </c>
+      <c r="K94" s="7"/>
       <c r="L94" s="7"/>
     </row>
-    <row r="95" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" ht="18" customHeight="1" spans="1:12">
       <c r="A95" s="7"/>
-      <c r="B95" s="7"/>
-      <c r="C95" s="8"/>
+      <c r="B95" s="7" t="s">
+        <v>316</v>
+      </c>
+      <c r="C95" s="8" t="s">
+        <v>317</v>
+      </c>
       <c r="D95" s="7"/>
       <c r="E95" s="7"/>
       <c r="F95" s="7"/>
@@ -4130,17 +4742,15 @@
       <c r="H95" s="7"/>
       <c r="I95" s="7"/>
       <c r="J95" s="7"/>
-      <c r="K95" s="7"/>
+      <c r="K95" s="7" t="s">
+        <v>318</v>
+      </c>
       <c r="L95" s="7"/>
     </row>
-    <row r="96" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" ht="18" customHeight="1" spans="1:12">
       <c r="A96" s="7"/>
-      <c r="B96" s="7" t="s">
-        <v>314</v>
-      </c>
-      <c r="C96" s="8" t="s">
-        <v>315</v>
-      </c>
+      <c r="B96" s="7"/>
+      <c r="C96" s="8"/>
       <c r="D96" s="7"/>
       <c r="E96" s="7"/>
       <c r="F96" s="7"/>
@@ -4151,151 +4761,155 @@
       <c r="K96" s="7"/>
       <c r="L96" s="7"/>
     </row>
-    <row r="97" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" ht="18" customHeight="1" spans="1:12">
       <c r="A97" s="7"/>
       <c r="B97" s="7" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="C97" s="8" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="D97" s="7"/>
-      <c r="E97" s="7" t="s">
-        <v>318</v>
-      </c>
+      <c r="E97" s="7"/>
       <c r="F97" s="7"/>
       <c r="G97" s="7"/>
       <c r="H97" s="7"/>
-      <c r="I97" s="7" t="s">
-        <v>318</v>
-      </c>
-      <c r="J97" s="7" t="s">
-        <v>319</v>
-      </c>
-      <c r="K97" s="7" t="s">
-        <v>320</v>
-      </c>
-      <c r="L97" s="14" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="98" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I97" s="7"/>
+      <c r="J97" s="7"/>
+      <c r="K97" s="7"/>
+      <c r="L97" s="7"/>
+    </row>
+    <row r="98" ht="18" customHeight="1" spans="1:12">
       <c r="A98" s="7"/>
       <c r="B98" s="7" t="s">
-        <v>316</v>
+        <v>321</v>
       </c>
       <c r="C98" s="8" t="s">
         <v>322</v>
       </c>
       <c r="D98" s="7"/>
       <c r="E98" s="7" t="s">
-        <v>318</v>
+        <v>323</v>
       </c>
       <c r="F98" s="7"/>
       <c r="G98" s="7"/>
       <c r="H98" s="7"/>
       <c r="I98" s="7" t="s">
-        <v>318</v>
+        <v>323</v>
       </c>
       <c r="J98" s="7" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="K98" s="7" t="s">
-        <v>320</v>
-      </c>
-      <c r="L98" s="15" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="99" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+        <v>325</v>
+      </c>
+      <c r="L98" s="14" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="99" ht="18" customHeight="1" spans="1:12">
       <c r="A99" s="7"/>
       <c r="B99" s="7" t="s">
-        <v>316</v>
+        <v>321</v>
       </c>
       <c r="C99" s="8" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="D99" s="7"/>
-      <c r="E99" s="7"/>
+      <c r="E99" s="7" t="s">
+        <v>323</v>
+      </c>
       <c r="F99" s="7"/>
       <c r="G99" s="7"/>
       <c r="H99" s="7"/>
       <c r="I99" s="7" t="s">
-        <v>318</v>
+        <v>323</v>
       </c>
       <c r="J99" s="7" t="s">
-        <v>319</v>
+        <v>328</v>
       </c>
       <c r="K99" s="7" t="s">
         <v>325</v>
       </c>
       <c r="L99" s="15" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="100" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="100" ht="18" customHeight="1" spans="1:12">
       <c r="A100" s="7"/>
       <c r="B100" s="7" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="C100" s="8" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="D100" s="7"/>
-      <c r="E100" s="7" t="s">
-        <v>318</v>
-      </c>
+      <c r="E100" s="7"/>
       <c r="F100" s="7"/>
       <c r="G100" s="7"/>
       <c r="H100" s="7"/>
       <c r="I100" s="7" t="s">
-        <v>318</v>
-      </c>
-      <c r="J100" s="7"/>
+        <v>323</v>
+      </c>
+      <c r="J100" s="7" t="s">
+        <v>324</v>
+      </c>
       <c r="K100" s="7" t="s">
-        <v>329</v>
-      </c>
-      <c r="L100" s="7"/>
-    </row>
-    <row r="101" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+        <v>331</v>
+      </c>
+      <c r="L100" s="15" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="101" ht="18" customHeight="1" spans="1:12">
       <c r="A101" s="7"/>
       <c r="B101" s="7" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="C101" s="8" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="D101" s="7"/>
       <c r="E101" s="7" t="s">
-        <v>318</v>
+        <v>323</v>
       </c>
       <c r="F101" s="7"/>
       <c r="G101" s="7"/>
       <c r="H101" s="7"/>
       <c r="I101" s="7" t="s">
-        <v>318</v>
+        <v>323</v>
       </c>
       <c r="J101" s="7"/>
       <c r="K101" s="7" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="L101" s="7"/>
     </row>
-    <row r="102" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="102" ht="18" customHeight="1" spans="1:12">
       <c r="A102" s="7"/>
-      <c r="B102" s="7"/>
-      <c r="C102" s="8"/>
+      <c r="B102" s="7" t="s">
+        <v>336</v>
+      </c>
+      <c r="C102" s="8" t="s">
+        <v>337</v>
+      </c>
       <c r="D102" s="7"/>
-      <c r="E102" s="7"/>
+      <c r="E102" s="7" t="s">
+        <v>323</v>
+      </c>
       <c r="F102" s="7"/>
       <c r="G102" s="7"/>
       <c r="H102" s="7"/>
-      <c r="I102" s="7"/>
+      <c r="I102" s="7" t="s">
+        <v>323</v>
+      </c>
       <c r="J102" s="7"/>
-      <c r="K102" s="7"/>
+      <c r="K102" s="7" t="s">
+        <v>338</v>
+      </c>
       <c r="L102" s="7"/>
     </row>
-    <row r="103" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="103" ht="18" customHeight="1" spans="1:12">
       <c r="A103" s="7"/>
       <c r="B103" s="7"/>
       <c r="C103" s="8"/>
@@ -4309,57 +4923,51 @@
       <c r="K103" s="7"/>
       <c r="L103" s="7"/>
     </row>
-    <row r="104" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="104" ht="18" customHeight="1" spans="1:12">
       <c r="A104" s="7"/>
-      <c r="B104" s="11" t="s">
-        <v>366</v>
-      </c>
-      <c r="C104" s="12" t="s">
-        <v>367</v>
-      </c>
+      <c r="B104" s="7"/>
+      <c r="C104" s="8"/>
       <c r="D104" s="7"/>
       <c r="E104" s="7"/>
       <c r="F104" s="7"/>
       <c r="G104" s="7"/>
       <c r="H104" s="7"/>
-      <c r="I104" s="11" t="s">
-        <v>333</v>
-      </c>
+      <c r="I104" s="7"/>
       <c r="J104" s="7"/>
-      <c r="K104" s="11" t="s">
-        <v>333</v>
-      </c>
-      <c r="L104" s="15" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="105" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K104" s="7"/>
+      <c r="L104" s="7"/>
+    </row>
+    <row r="105" ht="18" customHeight="1" spans="1:12">
       <c r="A105" s="7"/>
-      <c r="B105" s="7" t="s">
-        <v>334</v>
-      </c>
-      <c r="C105" s="8" t="s">
-        <v>335</v>
+      <c r="B105" s="11" t="s">
+        <v>339</v>
+      </c>
+      <c r="C105" s="12" t="s">
+        <v>340</v>
       </c>
       <c r="D105" s="7"/>
       <c r="E105" s="7"/>
       <c r="F105" s="7"/>
       <c r="G105" s="7"/>
       <c r="H105" s="7"/>
-      <c r="I105" s="7"/>
+      <c r="I105" s="11" t="s">
+        <v>341</v>
+      </c>
       <c r="J105" s="7"/>
       <c r="K105" s="11" t="s">
-        <v>336</v>
-      </c>
-      <c r="L105" s="7"/>
-    </row>
-    <row r="106" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+        <v>341</v>
+      </c>
+      <c r="L105" s="15" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="106" ht="18" customHeight="1" spans="1:12">
       <c r="A106" s="7"/>
       <c r="B106" s="7" t="s">
-        <v>337</v>
+        <v>343</v>
       </c>
       <c r="C106" s="8" t="s">
-        <v>338</v>
+        <v>344</v>
       </c>
       <c r="D106" s="7"/>
       <c r="E106" s="7"/>
@@ -4368,16 +4976,18 @@
       <c r="H106" s="7"/>
       <c r="I106" s="7"/>
       <c r="J106" s="7"/>
-      <c r="K106" s="7"/>
+      <c r="K106" s="11" t="s">
+        <v>345</v>
+      </c>
       <c r="L106" s="7"/>
     </row>
-    <row r="107" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="107" ht="18" customHeight="1" spans="1:12">
       <c r="A107" s="7"/>
       <c r="B107" s="7" t="s">
-        <v>339</v>
-      </c>
-      <c r="C107" s="12" t="s">
-        <v>340</v>
+        <v>346</v>
+      </c>
+      <c r="C107" s="8" t="s">
+        <v>347</v>
       </c>
       <c r="D107" s="7"/>
       <c r="E107" s="7"/>
@@ -4386,18 +4996,16 @@
       <c r="H107" s="7"/>
       <c r="I107" s="7"/>
       <c r="J107" s="7"/>
-      <c r="K107" s="7" t="s">
-        <v>339</v>
-      </c>
+      <c r="K107" s="7"/>
       <c r="L107" s="7"/>
     </row>
-    <row r="108" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="108" ht="18" customHeight="1" spans="1:12">
       <c r="A108" s="7"/>
       <c r="B108" s="7" t="s">
-        <v>341</v>
-      </c>
-      <c r="C108" s="8" t="s">
-        <v>342</v>
+        <v>348</v>
+      </c>
+      <c r="C108" s="12" t="s">
+        <v>349</v>
       </c>
       <c r="D108" s="7"/>
       <c r="E108" s="7"/>
@@ -4406,100 +5014,101 @@
       <c r="H108" s="7"/>
       <c r="I108" s="7"/>
       <c r="J108" s="7"/>
-      <c r="K108" s="11" t="s">
-        <v>343</v>
+      <c r="K108" s="7" t="s">
+        <v>348</v>
       </c>
       <c r="L108" s="7"/>
     </row>
-    <row r="109" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="109" ht="18" customHeight="1" spans="1:12">
       <c r="A109" s="7"/>
-      <c r="B109" s="11" t="s">
-        <v>344</v>
-      </c>
-      <c r="C109" s="12" t="s">
-        <v>345</v>
+      <c r="B109" s="7" t="s">
+        <v>350</v>
+      </c>
+      <c r="C109" s="8" t="s">
+        <v>351</v>
       </c>
       <c r="D109" s="7"/>
       <c r="E109" s="7"/>
       <c r="F109" s="7"/>
       <c r="G109" s="7"/>
       <c r="H109" s="7"/>
-      <c r="I109" s="7" t="s">
-        <v>346</v>
-      </c>
+      <c r="I109" s="7"/>
       <c r="J109" s="7"/>
-      <c r="K109" s="7" t="s">
-        <v>346</v>
+      <c r="K109" s="11" t="s">
+        <v>352</v>
       </c>
       <c r="L109" s="7"/>
     </row>
-    <row r="110" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" ht="18" customHeight="1" spans="1:12">
       <c r="A110" s="7"/>
       <c r="B110" s="11" t="s">
-        <v>347</v>
+        <v>353</v>
       </c>
       <c r="C110" s="12" t="s">
-        <v>348</v>
+        <v>354</v>
       </c>
       <c r="D110" s="7"/>
-      <c r="E110" s="7" t="s">
-        <v>349</v>
-      </c>
+      <c r="E110" s="7"/>
       <c r="F110" s="7"/>
       <c r="G110" s="7"/>
       <c r="H110" s="7"/>
       <c r="I110" s="7" t="s">
-        <v>350</v>
+        <v>355</v>
       </c>
       <c r="J110" s="7"/>
       <c r="K110" s="7" t="s">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="L110" s="7"/>
     </row>
-    <row r="111" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="111" ht="18" customHeight="1" spans="1:13">
       <c r="A111" s="7"/>
-      <c r="B111" s="7"/>
-      <c r="C111" s="8"/>
+      <c r="B111" s="11" t="s">
+        <v>356</v>
+      </c>
+      <c r="C111" s="12" t="s">
+        <v>357</v>
+      </c>
       <c r="D111" s="7"/>
-      <c r="E111" s="7"/>
+      <c r="E111" s="7" t="s">
+        <v>358</v>
+      </c>
       <c r="F111" s="7"/>
       <c r="G111" s="7"/>
       <c r="H111" s="7"/>
-      <c r="I111" s="7"/>
+      <c r="I111" s="7" t="s">
+        <v>359</v>
+      </c>
       <c r="J111" s="7"/>
-      <c r="K111" s="7"/>
+      <c r="K111" s="7" t="s">
+        <v>360</v>
+      </c>
       <c r="L111" s="7"/>
-    </row>
-    <row r="112" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M111" s="16" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="112" ht="18" customHeight="1" spans="1:12">
       <c r="A112" s="7"/>
-      <c r="B112" s="7" t="s">
-        <v>352</v>
-      </c>
-      <c r="C112" s="8" t="s">
-        <v>353</v>
-      </c>
+      <c r="B112" s="7"/>
+      <c r="C112" s="8"/>
       <c r="D112" s="7"/>
       <c r="E112" s="7"/>
       <c r="F112" s="7"/>
       <c r="G112" s="7"/>
       <c r="H112" s="7"/>
-      <c r="I112" s="7" t="s">
-        <v>354</v>
-      </c>
+      <c r="I112" s="7"/>
       <c r="J112" s="7"/>
-      <c r="K112" s="7" t="s">
-        <v>355</v>
-      </c>
+      <c r="K112" s="7"/>
       <c r="L112" s="7"/>
     </row>
-    <row r="113" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="113" ht="18" customHeight="1" spans="1:12">
       <c r="A113" s="7"/>
       <c r="B113" s="7" t="s">
-        <v>356</v>
+        <v>362</v>
       </c>
       <c r="C113" s="8" t="s">
-        <v>357</v>
+        <v>363</v>
       </c>
       <c r="D113" s="7"/>
       <c r="E113" s="7"/>
@@ -4507,36 +5116,40 @@
       <c r="G113" s="7"/>
       <c r="H113" s="7"/>
       <c r="I113" s="7" t="s">
-        <v>358</v>
+        <v>364</v>
       </c>
       <c r="J113" s="7"/>
       <c r="K113" s="7" t="s">
-        <v>359</v>
+        <v>365</v>
       </c>
       <c r="L113" s="7"/>
     </row>
-    <row r="114" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="114" ht="18" customHeight="1" spans="1:12">
       <c r="A114" s="7"/>
-      <c r="B114" s="7"/>
-      <c r="C114" s="8"/>
+      <c r="B114" s="7" t="s">
+        <v>366</v>
+      </c>
+      <c r="C114" s="8" t="s">
+        <v>367</v>
+      </c>
       <c r="D114" s="7"/>
       <c r="E114" s="7"/>
       <c r="F114" s="7"/>
       <c r="G114" s="7"/>
       <c r="H114" s="7"/>
-      <c r="I114" s="7"/>
+      <c r="I114" s="7" t="s">
+        <v>368</v>
+      </c>
       <c r="J114" s="7"/>
-      <c r="K114" s="7"/>
+      <c r="K114" s="7" t="s">
+        <v>369</v>
+      </c>
       <c r="L114" s="7"/>
     </row>
-    <row r="115" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="115" ht="18" customHeight="1" spans="1:12">
       <c r="A115" s="7"/>
-      <c r="B115" s="7" t="s">
-        <v>360</v>
-      </c>
-      <c r="C115" s="8" t="s">
-        <v>361</v>
-      </c>
+      <c r="B115" s="7"/>
+      <c r="C115" s="8"/>
       <c r="D115" s="7"/>
       <c r="E115" s="7"/>
       <c r="F115" s="7"/>
@@ -4544,17 +5157,17 @@
       <c r="H115" s="7"/>
       <c r="I115" s="7"/>
       <c r="J115" s="7"/>
-      <c r="K115" s="7" t="s">
-        <v>362</v>
-      </c>
-      <c r="L115" s="15" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="116" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K115" s="7"/>
+      <c r="L115" s="7"/>
+    </row>
+    <row r="116" ht="18" customHeight="1" spans="1:12">
       <c r="A116" s="7"/>
-      <c r="B116" s="7"/>
-      <c r="C116" s="8"/>
+      <c r="B116" s="7" t="s">
+        <v>370</v>
+      </c>
+      <c r="C116" s="8" t="s">
+        <v>371</v>
+      </c>
       <c r="D116" s="7"/>
       <c r="E116" s="7"/>
       <c r="F116" s="7"/>
@@ -4562,10 +5175,14 @@
       <c r="H116" s="7"/>
       <c r="I116" s="7"/>
       <c r="J116" s="7"/>
-      <c r="K116" s="7"/>
-      <c r="L116" s="7"/>
-    </row>
-    <row r="117" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K116" s="7" t="s">
+        <v>372</v>
+      </c>
+      <c r="L116" s="15" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="117" ht="18" customHeight="1" spans="1:12">
       <c r="A117" s="7"/>
       <c r="B117" s="7"/>
       <c r="C117" s="8"/>
@@ -4579,7 +5196,7 @@
       <c r="K117" s="7"/>
       <c r="L117" s="7"/>
     </row>
-    <row r="118" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="118" ht="18" customHeight="1" spans="1:12">
       <c r="A118" s="7"/>
       <c r="B118" s="7"/>
       <c r="C118" s="8"/>
@@ -4593,7 +5210,7 @@
       <c r="K118" s="7"/>
       <c r="L118" s="7"/>
     </row>
-    <row r="119" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="119" ht="18" customHeight="1" spans="1:12">
       <c r="A119" s="7"/>
       <c r="B119" s="7"/>
       <c r="C119" s="8"/>
@@ -4607,7 +5224,7 @@
       <c r="K119" s="7"/>
       <c r="L119" s="7"/>
     </row>
-    <row r="120" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="120" ht="18" customHeight="1" spans="1:12">
       <c r="A120" s="7"/>
       <c r="B120" s="7"/>
       <c r="C120" s="8"/>
@@ -4621,7 +5238,7 @@
       <c r="K120" s="7"/>
       <c r="L120" s="7"/>
     </row>
-    <row r="121" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="121" ht="18" customHeight="1" spans="1:12">
       <c r="A121" s="7"/>
       <c r="B121" s="7"/>
       <c r="C121" s="8"/>
@@ -4635,7 +5252,7 @@
       <c r="K121" s="7"/>
       <c r="L121" s="7"/>
     </row>
-    <row r="122" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="122" ht="18" customHeight="1" spans="1:12">
       <c r="A122" s="7"/>
       <c r="B122" s="7"/>
       <c r="C122" s="8"/>
@@ -4649,7 +5266,7 @@
       <c r="K122" s="7"/>
       <c r="L122" s="7"/>
     </row>
-    <row r="123" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="123" ht="18" customHeight="1" spans="1:12">
       <c r="A123" s="7"/>
       <c r="B123" s="7"/>
       <c r="C123" s="8"/>
@@ -4663,7 +5280,7 @@
       <c r="K123" s="7"/>
       <c r="L123" s="7"/>
     </row>
-    <row r="124" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="124" ht="18" customHeight="1" spans="1:12">
       <c r="A124" s="7"/>
       <c r="B124" s="7"/>
       <c r="C124" s="8"/>
@@ -4677,7 +5294,7 @@
       <c r="K124" s="7"/>
       <c r="L124" s="7"/>
     </row>
-    <row r="125" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="125" ht="18" customHeight="1" spans="1:12">
       <c r="A125" s="7"/>
       <c r="B125" s="7"/>
       <c r="C125" s="8"/>
@@ -4691,7 +5308,7 @@
       <c r="K125" s="7"/>
       <c r="L125" s="7"/>
     </row>
-    <row r="126" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="126" ht="18" customHeight="1" spans="1:12">
       <c r="A126" s="7"/>
       <c r="B126" s="7"/>
       <c r="C126" s="8"/>
@@ -4705,7 +5322,7 @@
       <c r="K126" s="7"/>
       <c r="L126" s="7"/>
     </row>
-    <row r="127" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="127" ht="18" customHeight="1" spans="1:12">
       <c r="A127" s="7"/>
       <c r="B127" s="7"/>
       <c r="C127" s="8"/>
@@ -4719,7 +5336,7 @@
       <c r="K127" s="7"/>
       <c r="L127" s="7"/>
     </row>
-    <row r="128" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="128" ht="18" customHeight="1" spans="1:12">
       <c r="A128" s="7"/>
       <c r="B128" s="7"/>
       <c r="C128" s="8"/>
@@ -4733,7 +5350,7 @@
       <c r="K128" s="7"/>
       <c r="L128" s="7"/>
     </row>
-    <row r="129" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="129" ht="18" customHeight="1" spans="1:12">
       <c r="A129" s="7"/>
       <c r="B129" s="7"/>
       <c r="C129" s="8"/>
@@ -4747,7 +5364,7 @@
       <c r="K129" s="7"/>
       <c r="L129" s="7"/>
     </row>
-    <row r="130" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="130" ht="18" customHeight="1" spans="1:12">
       <c r="A130" s="7"/>
       <c r="B130" s="7"/>
       <c r="C130" s="8"/>
@@ -4761,7 +5378,7 @@
       <c r="K130" s="7"/>
       <c r="L130" s="7"/>
     </row>
-    <row r="131" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="131" ht="18" customHeight="1" spans="1:12">
       <c r="A131" s="7"/>
       <c r="B131" s="7"/>
       <c r="C131" s="8"/>
@@ -4775,7 +5392,7 @@
       <c r="K131" s="7"/>
       <c r="L131" s="7"/>
     </row>
-    <row r="132" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="132" ht="18" customHeight="1" spans="1:12">
       <c r="A132" s="7"/>
       <c r="B132" s="7"/>
       <c r="C132" s="8"/>
@@ -4789,7 +5406,7 @@
       <c r="K132" s="7"/>
       <c r="L132" s="7"/>
     </row>
-    <row r="133" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="133" ht="18" customHeight="1" spans="1:12">
       <c r="A133" s="7"/>
       <c r="B133" s="7"/>
       <c r="C133" s="8"/>
@@ -4803,7 +5420,7 @@
       <c r="K133" s="7"/>
       <c r="L133" s="7"/>
     </row>
-    <row r="134" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="134" ht="18" customHeight="1" spans="1:12">
       <c r="A134" s="7"/>
       <c r="B134" s="7"/>
       <c r="C134" s="8"/>
@@ -4817,7 +5434,7 @@
       <c r="K134" s="7"/>
       <c r="L134" s="7"/>
     </row>
-    <row r="135" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="135" ht="18" customHeight="1" spans="1:12">
       <c r="A135" s="7"/>
       <c r="B135" s="7"/>
       <c r="C135" s="8"/>
@@ -4831,7 +5448,7 @@
       <c r="K135" s="7"/>
       <c r="L135" s="7"/>
     </row>
-    <row r="136" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="136" ht="18" customHeight="1" spans="1:12">
       <c r="A136" s="7"/>
       <c r="B136" s="7"/>
       <c r="C136" s="8"/>
@@ -4845,7 +5462,7 @@
       <c r="K136" s="7"/>
       <c r="L136" s="7"/>
     </row>
-    <row r="137" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="137" ht="18" customHeight="1" spans="1:12">
       <c r="A137" s="7"/>
       <c r="B137" s="7"/>
       <c r="C137" s="8"/>
@@ -4859,7 +5476,7 @@
       <c r="K137" s="7"/>
       <c r="L137" s="7"/>
     </row>
-    <row r="138" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="138" ht="18" customHeight="1" spans="1:12">
       <c r="A138" s="7"/>
       <c r="B138" s="7"/>
       <c r="C138" s="8"/>
@@ -4873,7 +5490,7 @@
       <c r="K138" s="7"/>
       <c r="L138" s="7"/>
     </row>
-    <row r="139" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="139" ht="18" customHeight="1" spans="1:12">
       <c r="A139" s="7"/>
       <c r="B139" s="7"/>
       <c r="C139" s="8"/>
@@ -4887,7 +5504,7 @@
       <c r="K139" s="7"/>
       <c r="L139" s="7"/>
     </row>
-    <row r="140" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="140" ht="18" customHeight="1" spans="1:12">
       <c r="A140" s="7"/>
       <c r="B140" s="7"/>
       <c r="C140" s="8"/>
@@ -4901,7 +5518,7 @@
       <c r="K140" s="7"/>
       <c r="L140" s="7"/>
     </row>
-    <row r="141" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="141" ht="18" customHeight="1" spans="1:12">
       <c r="A141" s="7"/>
       <c r="B141" s="7"/>
       <c r="C141" s="8"/>
@@ -4915,7 +5532,7 @@
       <c r="K141" s="7"/>
       <c r="L141" s="7"/>
     </row>
-    <row r="142" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="142" ht="18" customHeight="1" spans="1:12">
       <c r="A142" s="7"/>
       <c r="B142" s="7"/>
       <c r="C142" s="8"/>
@@ -4929,7 +5546,7 @@
       <c r="K142" s="7"/>
       <c r="L142" s="7"/>
     </row>
-    <row r="143" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="143" ht="18" customHeight="1" spans="1:12">
       <c r="A143" s="7"/>
       <c r="B143" s="7"/>
       <c r="C143" s="8"/>
@@ -4943,7 +5560,7 @@
       <c r="K143" s="7"/>
       <c r="L143" s="7"/>
     </row>
-    <row r="144" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="144" ht="18" customHeight="1" spans="1:12">
       <c r="A144" s="7"/>
       <c r="B144" s="7"/>
       <c r="C144" s="8"/>
@@ -4957,7 +5574,7 @@
       <c r="K144" s="7"/>
       <c r="L144" s="7"/>
     </row>
-    <row r="145" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="145" ht="18" customHeight="1" spans="1:12">
       <c r="A145" s="7"/>
       <c r="B145" s="7"/>
       <c r="C145" s="8"/>
@@ -4971,7 +5588,7 @@
       <c r="K145" s="7"/>
       <c r="L145" s="7"/>
     </row>
-    <row r="146" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="146" ht="18" customHeight="1" spans="1:12">
       <c r="A146" s="7"/>
       <c r="B146" s="7"/>
       <c r="C146" s="8"/>
@@ -4985,7 +5602,7 @@
       <c r="K146" s="7"/>
       <c r="L146" s="7"/>
     </row>
-    <row r="147" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="147" ht="18" customHeight="1" spans="1:12">
       <c r="A147" s="7"/>
       <c r="B147" s="7"/>
       <c r="C147" s="8"/>
@@ -4999,7 +5616,7 @@
       <c r="K147" s="7"/>
       <c r="L147" s="7"/>
     </row>
-    <row r="148" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="148" ht="18" customHeight="1" spans="1:12">
       <c r="A148" s="7"/>
       <c r="B148" s="7"/>
       <c r="C148" s="8"/>
@@ -5013,7 +5630,7 @@
       <c r="K148" s="7"/>
       <c r="L148" s="7"/>
     </row>
-    <row r="149" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="149" ht="18" customHeight="1" spans="1:12">
       <c r="A149" s="7"/>
       <c r="B149" s="7"/>
       <c r="C149" s="8"/>
@@ -5027,7 +5644,7 @@
       <c r="K149" s="7"/>
       <c r="L149" s="7"/>
     </row>
-    <row r="150" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="150" ht="18" customHeight="1" spans="1:12">
       <c r="A150" s="7"/>
       <c r="B150" s="7"/>
       <c r="C150" s="8"/>
@@ -5041,7 +5658,7 @@
       <c r="K150" s="7"/>
       <c r="L150" s="7"/>
     </row>
-    <row r="151" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="151" ht="18" customHeight="1" spans="1:12">
       <c r="A151" s="7"/>
       <c r="B151" s="7"/>
       <c r="C151" s="8"/>
@@ -5055,7 +5672,7 @@
       <c r="K151" s="7"/>
       <c r="L151" s="7"/>
     </row>
-    <row r="152" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="152" ht="18" customHeight="1" spans="1:12">
       <c r="A152" s="7"/>
       <c r="B152" s="7"/>
       <c r="C152" s="8"/>
@@ -5069,7 +5686,7 @@
       <c r="K152" s="7"/>
       <c r="L152" s="7"/>
     </row>
-    <row r="153" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="153" ht="18" customHeight="1" spans="1:12">
       <c r="A153" s="7"/>
       <c r="B153" s="7"/>
       <c r="C153" s="8"/>
@@ -5083,7 +5700,7 @@
       <c r="K153" s="7"/>
       <c r="L153" s="7"/>
     </row>
-    <row r="154" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="154" ht="18" customHeight="1" spans="1:12">
       <c r="A154" s="7"/>
       <c r="B154" s="7"/>
       <c r="C154" s="8"/>
@@ -5097,7 +5714,7 @@
       <c r="K154" s="7"/>
       <c r="L154" s="7"/>
     </row>
-    <row r="155" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="155" ht="18" customHeight="1" spans="1:12">
       <c r="A155" s="7"/>
       <c r="B155" s="7"/>
       <c r="C155" s="8"/>
@@ -5111,7 +5728,7 @@
       <c r="K155" s="7"/>
       <c r="L155" s="7"/>
     </row>
-    <row r="156" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="156" ht="18" customHeight="1" spans="1:12">
       <c r="A156" s="7"/>
       <c r="B156" s="7"/>
       <c r="C156" s="8"/>
@@ -5125,7 +5742,7 @@
       <c r="K156" s="7"/>
       <c r="L156" s="7"/>
     </row>
-    <row r="157" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="157" ht="18" customHeight="1" spans="1:12">
       <c r="A157" s="7"/>
       <c r="B157" s="7"/>
       <c r="C157" s="8"/>
@@ -5139,7 +5756,7 @@
       <c r="K157" s="7"/>
       <c r="L157" s="7"/>
     </row>
-    <row r="158" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="158" ht="18" customHeight="1" spans="1:12">
       <c r="A158" s="7"/>
       <c r="B158" s="7"/>
       <c r="C158" s="8"/>
@@ -5153,7 +5770,7 @@
       <c r="K158" s="7"/>
       <c r="L158" s="7"/>
     </row>
-    <row r="159" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="159" ht="18" customHeight="1" spans="1:12">
       <c r="A159" s="7"/>
       <c r="B159" s="7"/>
       <c r="C159" s="8"/>
@@ -5167,7 +5784,7 @@
       <c r="K159" s="7"/>
       <c r="L159" s="7"/>
     </row>
-    <row r="160" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="160" ht="18" customHeight="1" spans="1:12">
       <c r="A160" s="7"/>
       <c r="B160" s="7"/>
       <c r="C160" s="8"/>
@@ -5181,7 +5798,7 @@
       <c r="K160" s="7"/>
       <c r="L160" s="7"/>
     </row>
-    <row r="161" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="161" ht="18" customHeight="1" spans="1:12">
       <c r="A161" s="7"/>
       <c r="B161" s="7"/>
       <c r="C161" s="8"/>
@@ -5195,7 +5812,7 @@
       <c r="K161" s="7"/>
       <c r="L161" s="7"/>
     </row>
-    <row r="162" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="162" ht="18" customHeight="1" spans="1:12">
       <c r="A162" s="7"/>
       <c r="B162" s="7"/>
       <c r="C162" s="8"/>
@@ -5209,7 +5826,7 @@
       <c r="K162" s="7"/>
       <c r="L162" s="7"/>
     </row>
-    <row r="163" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="163" ht="18" customHeight="1" spans="1:12">
       <c r="A163" s="7"/>
       <c r="B163" s="7"/>
       <c r="C163" s="8"/>
@@ -5223,7 +5840,7 @@
       <c r="K163" s="7"/>
       <c r="L163" s="7"/>
     </row>
-    <row r="164" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="164" ht="18" customHeight="1" spans="1:12">
       <c r="A164" s="7"/>
       <c r="B164" s="7"/>
       <c r="C164" s="8"/>
@@ -5237,7 +5854,7 @@
       <c r="K164" s="7"/>
       <c r="L164" s="7"/>
     </row>
-    <row r="165" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="165" ht="18" customHeight="1" spans="1:12">
       <c r="A165" s="7"/>
       <c r="B165" s="7"/>
       <c r="C165" s="8"/>
@@ -5251,7 +5868,7 @@
       <c r="K165" s="7"/>
       <c r="L165" s="7"/>
     </row>
-    <row r="166" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="166" ht="18" customHeight="1" spans="1:12">
       <c r="A166" s="7"/>
       <c r="B166" s="7"/>
       <c r="C166" s="8"/>
@@ -5265,7 +5882,7 @@
       <c r="K166" s="7"/>
       <c r="L166" s="7"/>
     </row>
-    <row r="167" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="167" ht="18" customHeight="1" spans="1:12">
       <c r="A167" s="7"/>
       <c r="B167" s="7"/>
       <c r="C167" s="8"/>
@@ -5279,7 +5896,7 @@
       <c r="K167" s="7"/>
       <c r="L167" s="7"/>
     </row>
-    <row r="168" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="168" ht="18" customHeight="1" spans="1:12">
       <c r="A168" s="7"/>
       <c r="B168" s="7"/>
       <c r="C168" s="8"/>
@@ -5293,7 +5910,7 @@
       <c r="K168" s="7"/>
       <c r="L168" s="7"/>
     </row>
-    <row r="169" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="169" ht="18" customHeight="1" spans="1:12">
       <c r="A169" s="7"/>
       <c r="B169" s="7"/>
       <c r="C169" s="8"/>
@@ -5307,7 +5924,7 @@
       <c r="K169" s="7"/>
       <c r="L169" s="7"/>
     </row>
-    <row r="170" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="170" ht="18" customHeight="1" spans="1:12">
       <c r="A170" s="7"/>
       <c r="B170" s="7"/>
       <c r="C170" s="8"/>
@@ -5321,7 +5938,7 @@
       <c r="K170" s="7"/>
       <c r="L170" s="7"/>
     </row>
-    <row r="171" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="171" ht="18" customHeight="1" spans="1:12">
       <c r="A171" s="7"/>
       <c r="B171" s="7"/>
       <c r="C171" s="8"/>
@@ -5335,7 +5952,7 @@
       <c r="K171" s="7"/>
       <c r="L171" s="7"/>
     </row>
-    <row r="172" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="172" ht="18" customHeight="1" spans="1:12">
       <c r="A172" s="7"/>
       <c r="B172" s="7"/>
       <c r="C172" s="8"/>
@@ -5349,7 +5966,7 @@
       <c r="K172" s="7"/>
       <c r="L172" s="7"/>
     </row>
-    <row r="173" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="173" ht="18" customHeight="1" spans="1:12">
       <c r="A173" s="7"/>
       <c r="B173" s="7"/>
       <c r="C173" s="8"/>
@@ -5363,7 +5980,7 @@
       <c r="K173" s="7"/>
       <c r="L173" s="7"/>
     </row>
-    <row r="174" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="174" ht="18" customHeight="1" spans="1:12">
       <c r="A174" s="7"/>
       <c r="B174" s="7"/>
       <c r="C174" s="8"/>
@@ -5377,7 +5994,7 @@
       <c r="K174" s="7"/>
       <c r="L174" s="7"/>
     </row>
-    <row r="175" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="175" ht="18" customHeight="1" spans="1:12">
       <c r="A175" s="7"/>
       <c r="B175" s="7"/>
       <c r="C175" s="8"/>
@@ -5391,7 +6008,7 @@
       <c r="K175" s="7"/>
       <c r="L175" s="7"/>
     </row>
-    <row r="176" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="176" ht="18" customHeight="1" spans="1:12">
       <c r="A176" s="7"/>
       <c r="B176" s="7"/>
       <c r="C176" s="8"/>
@@ -5405,7 +6022,7 @@
       <c r="K176" s="7"/>
       <c r="L176" s="7"/>
     </row>
-    <row r="177" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="177" ht="18" customHeight="1" spans="1:12">
       <c r="A177" s="7"/>
       <c r="B177" s="7"/>
       <c r="C177" s="8"/>
@@ -5419,7 +6036,7 @@
       <c r="K177" s="7"/>
       <c r="L177" s="7"/>
     </row>
-    <row r="178" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="178" ht="18" customHeight="1" spans="1:12">
       <c r="A178" s="7"/>
       <c r="B178" s="7"/>
       <c r="C178" s="8"/>
@@ -5433,44 +6050,65 @@
       <c r="K178" s="7"/>
       <c r="L178" s="7"/>
     </row>
+    <row r="179" ht="18" customHeight="1" spans="1:12">
+      <c r="A179" s="7"/>
+      <c r="B179" s="7"/>
+      <c r="C179" s="8"/>
+      <c r="D179" s="7"/>
+      <c r="E179" s="7"/>
+      <c r="F179" s="7"/>
+      <c r="G179" s="7"/>
+      <c r="H179" s="7"/>
+      <c r="I179" s="7"/>
+      <c r="J179" s="7"/>
+      <c r="K179" s="7"/>
+      <c r="L179" s="7"/>
+    </row>
   </sheetData>
-  <phoneticPr fontId="6" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="L97" r:id="rId1" tooltip="https://item.szlcsc.com/87756.html" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="L98" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="L115" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="L104" r:id="rId4" xr:uid="{0086F3D1-F44F-41A8-BCCD-F9BCF8A56195}"/>
+    <hyperlink ref="L98" r:id="rId3" display="https://item.szlcsc.com/87756.html" tooltip="https://item.szlcsc.com/87756.html"/>
+    <hyperlink ref="L99" r:id="rId4" display="https://item.szlcsc.com/136348.html"/>
+    <hyperlink ref="L116" r:id="rId5" display="https://item.szlcsc.com/72964.html"/>
+    <hyperlink ref="L105" r:id="rId6" display="http://item.szlcsc.com/26978.html"/>
+    <hyperlink ref="M111" r:id="rId7" display="https://item.taobao.com/item.htm?spm=a230r.1.14.11.4e3e3b039DZu79&amp;id=530564269635&amp;ns=1&amp;abbucket=5#detail"/>
   </hyperlinks>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <legacyDrawing r:id="rId5"/>
+  <headerFooter/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
-  <phoneticPr fontId="6" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
-  <phoneticPr fontId="6" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/物料索引.xlsx
+++ b/物料索引.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13050"/>
+    <workbookView windowWidth="28800" windowHeight="12465"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -88,7 +88,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="586" uniqueCount="382">
   <si>
     <t>物料编码</t>
   </si>
@@ -767,6 +767,24 @@
     <t>RL_SMD_420x260</t>
   </si>
   <si>
+    <t>TS5A3159</t>
+  </si>
+  <si>
+    <t>SPDT,模拟开关</t>
+  </si>
+  <si>
+    <t>sot23_6</t>
+  </si>
+  <si>
+    <t>INA226AIDGSR</t>
+  </si>
+  <si>
+    <t>OP，电流感应放大器</t>
+  </si>
+  <si>
+    <t>DGS10</t>
+  </si>
+  <si>
     <t>AD8599ARZ</t>
   </si>
   <si>
@@ -777,6 +795,15 @@
   </si>
   <si>
     <t>R_8</t>
+  </si>
+  <si>
+    <t>TLV3202AIDR</t>
+  </si>
+  <si>
+    <t>OP 比较器,封装同AD8599</t>
+  </si>
+  <si>
+    <t>MC33078</t>
   </si>
   <si>
     <t>NUP4202W1</t>
@@ -955,9 +982,6 @@
     <t>MIC5309-1.2YD6</t>
   </si>
   <si>
-    <t>sot23_6</t>
-  </si>
-  <si>
     <t>TPS51200DRCR</t>
   </si>
   <si>
@@ -1353,12 +1377,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1383,9 +1407,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1395,6 +1418,36 @@
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1414,6 +1467,22 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1422,7 +1491,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1435,8 +1504,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1450,17 +1528,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1468,52 +1537,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1521,6 +1545,17 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -1540,6 +1575,42 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1552,7 +1623,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1564,7 +1653,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1576,37 +1677,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1618,25 +1707,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1654,67 +1743,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1745,11 +1780,48 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1759,6 +1831,21 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1778,65 +1865,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1848,10 +1883,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1860,133 +1895,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2390,12 +2425,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M179"/>
+  <dimension ref="A1:M182"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="3" topLeftCell="A37" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="I35" sqref="I35"/>
+      <selection pane="bottomLeft" activeCell="B56" sqref="B56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3816,8 +3851,12 @@
     </row>
     <row r="51" ht="18" customHeight="1" spans="1:12">
       <c r="A51" s="7"/>
-      <c r="B51" s="7"/>
-      <c r="C51" s="8"/>
+      <c r="B51" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="C51" s="8" t="s">
+        <v>204</v>
+      </c>
       <c r="D51" s="7"/>
       <c r="E51" s="7"/>
       <c r="F51" s="7"/>
@@ -3825,95 +3864,103 @@
       <c r="H51" s="7"/>
       <c r="I51" s="11"/>
       <c r="J51" s="11"/>
-      <c r="K51" s="7"/>
+      <c r="K51" s="7" t="s">
+        <v>205</v>
+      </c>
       <c r="L51" s="7"/>
     </row>
     <row r="52" ht="18" customHeight="1" spans="1:12">
       <c r="A52" s="7"/>
-      <c r="B52" s="10" t="s">
-        <v>203</v>
-      </c>
-      <c r="C52" s="8" t="s">
-        <v>204</v>
-      </c>
+      <c r="B52" s="7"/>
+      <c r="C52" s="8"/>
       <c r="D52" s="7"/>
-      <c r="E52" s="7" t="s">
-        <v>204</v>
-      </c>
+      <c r="E52" s="7"/>
       <c r="F52" s="7"/>
       <c r="G52" s="7"/>
       <c r="H52" s="7"/>
       <c r="I52" s="11"/>
-      <c r="J52" s="11" t="s">
-        <v>205</v>
-      </c>
-      <c r="K52" s="13" t="s">
-        <v>206</v>
-      </c>
+      <c r="J52" s="11"/>
+      <c r="K52" s="7"/>
       <c r="L52" s="7"/>
     </row>
     <row r="53" ht="18" customHeight="1" spans="1:12">
       <c r="A53" s="7"/>
-      <c r="B53" s="7"/>
-      <c r="C53" s="8"/>
+      <c r="B53" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="C53" s="8" t="s">
+        <v>207</v>
+      </c>
       <c r="D53" s="7"/>
       <c r="E53" s="7"/>
       <c r="F53" s="7"/>
       <c r="G53" s="7"/>
       <c r="H53" s="7"/>
-      <c r="I53" s="7"/>
+      <c r="I53" s="7" t="s">
+        <v>208</v>
+      </c>
       <c r="J53" s="7"/>
-      <c r="K53" s="7"/>
+      <c r="K53" s="7" t="s">
+        <v>208</v>
+      </c>
       <c r="L53" s="7"/>
     </row>
     <row r="54" ht="18" customHeight="1" spans="1:12">
       <c r="A54" s="7"/>
-      <c r="B54" s="7" t="s">
-        <v>207</v>
+      <c r="B54" s="10" t="s">
+        <v>209</v>
       </c>
       <c r="C54" s="8" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="D54" s="7"/>
-      <c r="E54" s="7"/>
+      <c r="E54" s="7" t="s">
+        <v>210</v>
+      </c>
       <c r="F54" s="7"/>
       <c r="G54" s="7"/>
       <c r="H54" s="7"/>
-      <c r="I54" s="7"/>
+      <c r="I54" s="11"/>
       <c r="J54" s="11" t="s">
-        <v>209</v>
-      </c>
-      <c r="K54" s="11" t="s">
-        <v>199</v>
+        <v>211</v>
+      </c>
+      <c r="K54" s="13" t="s">
+        <v>212</v>
       </c>
       <c r="L54" s="7"/>
     </row>
     <row r="55" ht="18" customHeight="1" spans="1:12">
       <c r="A55" s="7"/>
-      <c r="B55" s="11" t="s">
+      <c r="B55" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="C55" s="8" t="s">
+        <v>214</v>
+      </c>
+      <c r="D55" s="7"/>
+      <c r="E55" s="7" t="s">
         <v>210</v>
       </c>
-      <c r="C55" s="8" t="s">
-        <v>211</v>
-      </c>
-      <c r="D55" s="7"/>
-      <c r="E55" s="7"/>
       <c r="F55" s="7"/>
       <c r="G55" s="7"/>
       <c r="H55" s="7"/>
       <c r="I55" s="7"/>
-      <c r="J55" s="11" t="s">
-        <v>209</v>
-      </c>
-      <c r="K55" s="7" t="s">
+      <c r="J55" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="K55" s="13" t="s">
         <v>212</v>
       </c>
       <c r="L55" s="7"/>
     </row>
     <row r="56" ht="18" customHeight="1" spans="1:12">
       <c r="A56" s="7"/>
-      <c r="B56" s="7"/>
-      <c r="C56" s="8"/>
+      <c r="B56" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="C56" s="8" t="s">
+        <v>214</v>
+      </c>
       <c r="D56" s="7"/>
       <c r="E56" s="7"/>
       <c r="F56" s="7"/>
@@ -3921,91 +3968,71 @@
       <c r="H56" s="7"/>
       <c r="I56" s="7"/>
       <c r="J56" s="7"/>
-      <c r="K56" s="7"/>
+      <c r="K56" s="13"/>
       <c r="L56" s="7"/>
     </row>
     <row r="57" ht="18" customHeight="1" spans="1:12">
       <c r="A57" s="7"/>
-      <c r="B57" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="C57" s="8" t="s">
-        <v>214</v>
-      </c>
-      <c r="D57" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="E57" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="F57" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="G57" s="7" t="s">
-        <v>217</v>
-      </c>
+      <c r="B57" s="7"/>
+      <c r="C57" s="8"/>
+      <c r="D57" s="7"/>
+      <c r="E57" s="7"/>
+      <c r="F57" s="7"/>
+      <c r="G57" s="7"/>
       <c r="H57" s="7"/>
-      <c r="I57" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="J57" s="9" t="s">
-        <v>131</v>
-      </c>
-      <c r="K57" s="9" t="s">
-        <v>218</v>
-      </c>
+      <c r="I57" s="7"/>
+      <c r="J57" s="7"/>
+      <c r="K57" s="7"/>
       <c r="L57" s="7"/>
     </row>
     <row r="58" ht="18" customHeight="1" spans="1:12">
       <c r="A58" s="7"/>
       <c r="B58" s="7" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="C58" s="8" t="s">
-        <v>220</v>
-      </c>
-      <c r="D58" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="E58" s="8" t="s">
-        <v>220</v>
-      </c>
+        <v>217</v>
+      </c>
+      <c r="D58" s="7"/>
+      <c r="E58" s="7"/>
       <c r="F58" s="7"/>
       <c r="G58" s="7"/>
       <c r="H58" s="7"/>
-      <c r="I58" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="J58" s="9" t="s">
-        <v>131</v>
-      </c>
-      <c r="K58" s="9" t="s">
+      <c r="I58" s="7"/>
+      <c r="J58" s="11" t="s">
         <v>218</v>
+      </c>
+      <c r="K58" s="11" t="s">
+        <v>199</v>
       </c>
       <c r="L58" s="7"/>
     </row>
     <row r="59" ht="18" customHeight="1" spans="1:12">
       <c r="A59" s="7"/>
-      <c r="B59" s="7"/>
-      <c r="C59" s="8"/>
+      <c r="B59" s="11" t="s">
+        <v>219</v>
+      </c>
+      <c r="C59" s="8" t="s">
+        <v>220</v>
+      </c>
       <c r="D59" s="7"/>
       <c r="E59" s="7"/>
       <c r="F59" s="7"/>
       <c r="G59" s="7"/>
       <c r="H59" s="7"/>
       <c r="I59" s="7"/>
-      <c r="J59" s="7"/>
-      <c r="K59" s="7"/>
+      <c r="J59" s="11" t="s">
+        <v>218</v>
+      </c>
+      <c r="K59" s="7" t="s">
+        <v>221</v>
+      </c>
       <c r="L59" s="7"/>
     </row>
     <row r="60" ht="18" customHeight="1" spans="1:12">
       <c r="A60" s="7"/>
-      <c r="B60" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="C60" s="8" t="s">
-        <v>222</v>
-      </c>
+      <c r="B60" s="7"/>
+      <c r="C60" s="8"/>
       <c r="D60" s="7"/>
       <c r="E60" s="7"/>
       <c r="F60" s="7"/>
@@ -4013,79 +4040,91 @@
       <c r="H60" s="7"/>
       <c r="I60" s="7"/>
       <c r="J60" s="7"/>
-      <c r="K60" s="7" t="s">
-        <v>221</v>
-      </c>
+      <c r="K60" s="7"/>
       <c r="L60" s="7"/>
     </row>
     <row r="61" ht="18" customHeight="1" spans="1:12">
       <c r="A61" s="7"/>
-      <c r="B61" s="7"/>
-      <c r="C61" s="8"/>
-      <c r="D61" s="7"/>
-      <c r="E61" s="7"/>
-      <c r="F61" s="7"/>
-      <c r="G61" s="7"/>
+      <c r="B61" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="C61" s="8" t="s">
+        <v>223</v>
+      </c>
+      <c r="D61" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E61" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="F61" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="G61" s="7" t="s">
+        <v>226</v>
+      </c>
       <c r="H61" s="7"/>
-      <c r="I61" s="7"/>
-      <c r="J61" s="7"/>
-      <c r="K61" s="7"/>
+      <c r="I61" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="J61" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="K61" s="9" t="s">
+        <v>227</v>
+      </c>
       <c r="L61" s="7"/>
     </row>
     <row r="62" ht="18" customHeight="1" spans="1:12">
       <c r="A62" s="7"/>
       <c r="B62" s="7" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="C62" s="8" t="s">
-        <v>224</v>
-      </c>
-      <c r="D62" s="7"/>
-      <c r="E62" s="7" t="s">
-        <v>225</v>
+        <v>229</v>
+      </c>
+      <c r="D62" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E62" s="8" t="s">
+        <v>229</v>
       </c>
       <c r="F62" s="7"/>
       <c r="G62" s="7"/>
       <c r="H62" s="7"/>
       <c r="I62" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="J62" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="J62" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="K62" s="9" t="s">
         <v>227</v>
-      </c>
-      <c r="K62" s="7" t="s">
-        <v>228</v>
       </c>
       <c r="L62" s="7"/>
     </row>
     <row r="63" ht="18" customHeight="1" spans="1:12">
       <c r="A63" s="7"/>
-      <c r="B63" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="C63" s="8" t="s">
-        <v>230</v>
-      </c>
+      <c r="B63" s="7"/>
+      <c r="C63" s="8"/>
       <c r="D63" s="7"/>
-      <c r="E63" s="7" t="s">
-        <v>231</v>
-      </c>
+      <c r="E63" s="7"/>
       <c r="F63" s="7"/>
       <c r="G63" s="7"/>
       <c r="H63" s="7"/>
-      <c r="I63" s="7" t="s">
-        <v>232</v>
-      </c>
+      <c r="I63" s="7"/>
       <c r="J63" s="7"/>
-      <c r="K63" s="7" t="s">
-        <v>233</v>
-      </c>
+      <c r="K63" s="7"/>
       <c r="L63" s="7"/>
     </row>
     <row r="64" ht="18" customHeight="1" spans="1:12">
       <c r="A64" s="7"/>
-      <c r="B64" s="7"/>
-      <c r="C64" s="8"/>
+      <c r="B64" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="C64" s="8" t="s">
+        <v>231</v>
+      </c>
       <c r="D64" s="7"/>
       <c r="E64" s="7"/>
       <c r="F64" s="7"/>
@@ -4093,17 +4132,15 @@
       <c r="H64" s="7"/>
       <c r="I64" s="7"/>
       <c r="J64" s="7"/>
-      <c r="K64" s="7"/>
+      <c r="K64" s="7" t="s">
+        <v>230</v>
+      </c>
       <c r="L64" s="7"/>
     </row>
     <row r="65" ht="18" customHeight="1" spans="1:12">
       <c r="A65" s="7"/>
-      <c r="B65" s="10" t="s">
-        <v>234</v>
-      </c>
-      <c r="C65" s="8" t="s">
-        <v>235</v>
-      </c>
+      <c r="B65" s="7"/>
+      <c r="C65" s="8"/>
       <c r="D65" s="7"/>
       <c r="E65" s="7"/>
       <c r="F65" s="7"/>
@@ -4111,52 +4148,56 @@
       <c r="H65" s="7"/>
       <c r="I65" s="7"/>
       <c r="J65" s="7"/>
-      <c r="K65" s="7" t="s">
-        <v>236</v>
-      </c>
+      <c r="K65" s="7"/>
       <c r="L65" s="7"/>
     </row>
     <row r="66" ht="18" customHeight="1" spans="1:12">
       <c r="A66" s="7"/>
       <c r="B66" s="7" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="C66" s="8" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="D66" s="7"/>
-      <c r="E66" s="7"/>
+      <c r="E66" s="7" t="s">
+        <v>234</v>
+      </c>
       <c r="F66" s="7"/>
       <c r="G66" s="7"/>
       <c r="H66" s="7"/>
       <c r="I66" s="7" t="s">
-        <v>239</v>
-      </c>
-      <c r="J66" s="7"/>
+        <v>235</v>
+      </c>
+      <c r="J66" s="7" t="s">
+        <v>236</v>
+      </c>
       <c r="K66" s="7" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="L66" s="7"/>
     </row>
     <row r="67" ht="18" customHeight="1" spans="1:12">
       <c r="A67" s="7"/>
       <c r="B67" s="7" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="C67" s="8" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="D67" s="7"/>
-      <c r="E67" s="7"/>
+      <c r="E67" s="7" t="s">
+        <v>240</v>
+      </c>
       <c r="F67" s="7"/>
       <c r="G67" s="7"/>
       <c r="H67" s="7"/>
       <c r="I67" s="7" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="J67" s="7"/>
-      <c r="K67" s="11" t="s">
-        <v>186</v>
+      <c r="K67" s="7" t="s">
+        <v>242</v>
       </c>
       <c r="L67" s="7"/>
     </row>
@@ -4171,152 +4212,136 @@
       <c r="H68" s="7"/>
       <c r="I68" s="7"/>
       <c r="J68" s="7"/>
-      <c r="K68" s="11"/>
+      <c r="K68" s="7"/>
       <c r="L68" s="7"/>
     </row>
     <row r="69" ht="18" customHeight="1" spans="1:12">
       <c r="A69" s="7"/>
-      <c r="B69" s="7" t="s">
+      <c r="B69" s="10" t="s">
+        <v>243</v>
+      </c>
+      <c r="C69" s="8" t="s">
         <v>244</v>
       </c>
-      <c r="C69" s="8" t="s">
-        <v>245</v>
-      </c>
       <c r="D69" s="7"/>
-      <c r="E69" s="7" t="s">
-        <v>246</v>
-      </c>
+      <c r="E69" s="7"/>
       <c r="F69" s="7"/>
       <c r="G69" s="7"/>
       <c r="H69" s="7"/>
-      <c r="I69" s="7" t="s">
-        <v>247</v>
-      </c>
-      <c r="J69" s="7" t="s">
-        <v>205</v>
-      </c>
+      <c r="I69" s="7"/>
+      <c r="J69" s="7"/>
       <c r="K69" s="7" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="L69" s="7"/>
     </row>
     <row r="70" ht="18" customHeight="1" spans="1:12">
       <c r="A70" s="7"/>
       <c r="B70" s="7" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="C70" s="8" t="s">
-        <v>246</v>
-      </c>
-      <c r="D70" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="E70" s="7" t="s">
-        <v>246</v>
-      </c>
+        <v>247</v>
+      </c>
+      <c r="D70" s="7"/>
+      <c r="E70" s="7"/>
       <c r="F70" s="7"/>
       <c r="G70" s="7"/>
       <c r="H70" s="7"/>
       <c r="I70" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="J70" s="7"/>
+      <c r="K70" s="7" t="s">
         <v>249</v>
-      </c>
-      <c r="J70" s="7" t="s">
-        <v>250</v>
-      </c>
-      <c r="K70" s="7" t="s">
-        <v>251</v>
       </c>
       <c r="L70" s="7"/>
     </row>
     <row r="71" ht="18" customHeight="1" spans="1:12">
       <c r="A71" s="7"/>
       <c r="B71" s="7" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C71" s="8" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="D71" s="7"/>
-      <c r="E71" s="7" t="s">
-        <v>246</v>
-      </c>
+      <c r="E71" s="7"/>
       <c r="F71" s="7"/>
       <c r="G71" s="7"/>
       <c r="H71" s="7"/>
-      <c r="I71" s="7"/>
+      <c r="I71" s="7" t="s">
+        <v>252</v>
+      </c>
       <c r="J71" s="7"/>
-      <c r="K71" s="7" t="s">
-        <v>253</v>
+      <c r="K71" s="11" t="s">
+        <v>186</v>
       </c>
       <c r="L71" s="7"/>
     </row>
     <row r="72" ht="18" customHeight="1" spans="1:12">
       <c r="A72" s="7"/>
-      <c r="B72" s="7" t="s">
-        <v>254</v>
-      </c>
-      <c r="C72" s="8" t="s">
-        <v>255</v>
-      </c>
-      <c r="D72" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="E72" s="7" t="s">
-        <v>255</v>
-      </c>
+      <c r="B72" s="7"/>
+      <c r="C72" s="8"/>
+      <c r="D72" s="7"/>
+      <c r="E72" s="7"/>
       <c r="F72" s="7"/>
       <c r="G72" s="7"/>
       <c r="H72" s="7"/>
-      <c r="I72" s="7" t="s">
-        <v>256</v>
-      </c>
-      <c r="J72" s="7" t="s">
-        <v>250</v>
-      </c>
-      <c r="K72" s="7" t="s">
-        <v>257</v>
-      </c>
+      <c r="I72" s="7"/>
+      <c r="J72" s="7"/>
+      <c r="K72" s="11"/>
       <c r="L72" s="7"/>
     </row>
     <row r="73" ht="18" customHeight="1" spans="1:12">
       <c r="A73" s="7"/>
       <c r="B73" s="7" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="C73" s="8" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D73" s="7"/>
-      <c r="E73" s="8" t="s">
+      <c r="E73" s="7" t="s">
         <v>255</v>
       </c>
       <c r="F73" s="7"/>
       <c r="G73" s="7"/>
       <c r="H73" s="7"/>
-      <c r="I73" s="7"/>
-      <c r="J73" s="7"/>
+      <c r="I73" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="J73" s="7" t="s">
+        <v>211</v>
+      </c>
       <c r="K73" s="7" t="s">
-        <v>206</v>
+        <v>256</v>
       </c>
       <c r="L73" s="7"/>
     </row>
     <row r="74" ht="18" customHeight="1" spans="1:12">
       <c r="A74" s="7"/>
       <c r="B74" s="7" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="C74" s="8" t="s">
         <v>255</v>
       </c>
-      <c r="D74" s="7"/>
-      <c r="E74" s="8" t="s">
+      <c r="D74" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E74" s="7" t="s">
         <v>255</v>
       </c>
       <c r="F74" s="7"/>
       <c r="G74" s="7"/>
       <c r="H74" s="7"/>
-      <c r="I74" s="7"/>
-      <c r="J74" s="7"/>
+      <c r="I74" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="J74" s="7" t="s">
+        <v>259</v>
+      </c>
       <c r="K74" s="7" t="s">
         <v>260</v>
       </c>
@@ -4327,39 +4352,47 @@
       <c r="B75" s="7" t="s">
         <v>261</v>
       </c>
-      <c r="C75" s="12" t="s">
-        <v>262</v>
+      <c r="C75" s="8" t="s">
+        <v>255</v>
       </c>
       <c r="D75" s="7"/>
-      <c r="E75" s="7"/>
+      <c r="E75" s="7" t="s">
+        <v>255</v>
+      </c>
       <c r="F75" s="7"/>
       <c r="G75" s="7"/>
       <c r="H75" s="7"/>
       <c r="I75" s="7"/>
       <c r="J75" s="7"/>
       <c r="K75" s="7" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="L75" s="7"/>
     </row>
     <row r="76" ht="18" customHeight="1" spans="1:12">
       <c r="A76" s="7"/>
-      <c r="B76" s="10" t="s">
+      <c r="B76" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="C76" s="8" t="s">
         <v>264</v>
       </c>
-      <c r="C76" s="12" t="s">
-        <v>265</v>
-      </c>
-      <c r="D76" s="7"/>
+      <c r="D76" s="7" t="s">
+        <v>24</v>
+      </c>
       <c r="E76" s="7" t="s">
-        <v>246</v>
+        <v>264</v>
       </c>
       <c r="F76" s="7"/>
       <c r="G76" s="7"/>
       <c r="H76" s="7"/>
-      <c r="I76" s="7"/>
-      <c r="J76" s="7"/>
-      <c r="K76" s="13" t="s">
+      <c r="I76" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="J76" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="K76" s="7" t="s">
         <v>266</v>
       </c>
       <c r="L76" s="7"/>
@@ -4370,134 +4403,137 @@
         <v>267</v>
       </c>
       <c r="C77" s="8" t="s">
-        <v>268</v>
-      </c>
-      <c r="D77" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="E77" s="7" t="s">
-        <v>269</v>
-      </c>
-      <c r="F77" s="7" t="s">
-        <v>270</v>
-      </c>
+        <v>264</v>
+      </c>
+      <c r="D77" s="7"/>
+      <c r="E77" s="8" t="s">
+        <v>264</v>
+      </c>
+      <c r="F77" s="7"/>
       <c r="G77" s="7"/>
       <c r="H77" s="7"/>
-      <c r="I77" s="7" t="s">
-        <v>271</v>
-      </c>
-      <c r="J77" s="7" t="s">
-        <v>272</v>
-      </c>
+      <c r="I77" s="7"/>
+      <c r="J77" s="7"/>
       <c r="K77" s="7" t="s">
-        <v>273</v>
+        <v>212</v>
       </c>
       <c r="L77" s="7"/>
     </row>
     <row r="78" ht="18" customHeight="1" spans="1:12">
       <c r="A78" s="7"/>
-      <c r="B78" s="7"/>
-      <c r="C78" s="8"/>
+      <c r="B78" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="C78" s="8" t="s">
+        <v>264</v>
+      </c>
       <c r="D78" s="7"/>
-      <c r="E78" s="7"/>
+      <c r="E78" s="8" t="s">
+        <v>264</v>
+      </c>
       <c r="F78" s="7"/>
       <c r="G78" s="7"/>
       <c r="H78" s="7"/>
       <c r="I78" s="7"/>
       <c r="J78" s="7"/>
-      <c r="K78" s="7"/>
+      <c r="K78" s="7" t="s">
+        <v>205</v>
+      </c>
       <c r="L78" s="7"/>
     </row>
     <row r="79" ht="18" customHeight="1" spans="1:12">
       <c r="A79" s="7"/>
       <c r="B79" s="7" t="s">
-        <v>274</v>
-      </c>
-      <c r="C79" s="8" t="s">
-        <v>275</v>
+        <v>269</v>
+      </c>
+      <c r="C79" s="12" t="s">
+        <v>270</v>
       </c>
       <c r="D79" s="7"/>
       <c r="E79" s="7"/>
       <c r="F79" s="7"/>
       <c r="G79" s="7"/>
       <c r="H79" s="7"/>
-      <c r="I79" s="7" t="s">
-        <v>276</v>
-      </c>
-      <c r="J79" s="2" t="s">
-        <v>277</v>
-      </c>
+      <c r="I79" s="7"/>
+      <c r="J79" s="7"/>
       <c r="K79" s="7" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
       <c r="L79" s="7"/>
     </row>
     <row r="80" ht="18" customHeight="1" spans="1:12">
       <c r="A80" s="7"/>
-      <c r="B80" s="7" t="s">
-        <v>279</v>
-      </c>
-      <c r="C80" s="8" t="s">
-        <v>280</v>
+      <c r="B80" s="10" t="s">
+        <v>272</v>
+      </c>
+      <c r="C80" s="12" t="s">
+        <v>273</v>
       </c>
       <c r="D80" s="7"/>
-      <c r="E80" s="7"/>
+      <c r="E80" s="7" t="s">
+        <v>255</v>
+      </c>
       <c r="F80" s="7"/>
       <c r="G80" s="7"/>
       <c r="H80" s="7"/>
       <c r="I80" s="7"/>
       <c r="J80" s="7"/>
-      <c r="K80" s="7" t="s">
-        <v>281</v>
+      <c r="K80" s="13" t="s">
+        <v>274</v>
       </c>
       <c r="L80" s="7"/>
     </row>
     <row r="81" ht="18" customHeight="1" spans="1:12">
       <c r="A81" s="7"/>
       <c r="B81" s="7" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
       <c r="C81" s="8" t="s">
-        <v>283</v>
-      </c>
-      <c r="D81" s="7"/>
-      <c r="E81" s="7"/>
-      <c r="F81" s="7"/>
+        <v>276</v>
+      </c>
+      <c r="D81" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E81" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="F81" s="7" t="s">
+        <v>278</v>
+      </c>
       <c r="G81" s="7"/>
       <c r="H81" s="7"/>
-      <c r="I81" s="7"/>
-      <c r="J81" s="7"/>
-      <c r="K81" s="11" t="s">
-        <v>186</v>
+      <c r="I81" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="J81" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="K81" s="7" t="s">
+        <v>281</v>
       </c>
       <c r="L81" s="7"/>
     </row>
     <row r="82" ht="18" customHeight="1" spans="1:12">
       <c r="A82" s="7"/>
-      <c r="B82" s="7" t="s">
-        <v>284</v>
-      </c>
-      <c r="C82" s="8" t="s">
-        <v>285</v>
-      </c>
+      <c r="B82" s="7"/>
+      <c r="C82" s="8"/>
       <c r="D82" s="7"/>
       <c r="E82" s="7"/>
       <c r="F82" s="7"/>
       <c r="G82" s="7"/>
       <c r="H82" s="7"/>
       <c r="I82" s="7"/>
-      <c r="K82" s="11" t="s">
-        <v>281</v>
-      </c>
+      <c r="J82" s="7"/>
+      <c r="K82" s="7"/>
       <c r="L82" s="7"/>
     </row>
     <row r="83" ht="18" customHeight="1" spans="1:12">
       <c r="A83" s="7"/>
-      <c r="B83" s="8" t="s">
-        <v>286</v>
+      <c r="B83" s="7" t="s">
+        <v>282</v>
       </c>
       <c r="C83" s="8" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="D83" s="7"/>
       <c r="E83" s="7"/>
@@ -4505,12 +4541,12 @@
       <c r="G83" s="7"/>
       <c r="H83" s="7"/>
       <c r="I83" s="7" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="J83" s="2" t="s">
-        <v>277</v>
-      </c>
-      <c r="K83" s="11" t="s">
+        <v>285</v>
+      </c>
+      <c r="K83" s="7" t="s">
         <v>286</v>
       </c>
       <c r="L83" s="7"/>
@@ -4518,10 +4554,10 @@
     <row r="84" ht="18" customHeight="1" spans="1:12">
       <c r="A84" s="7"/>
       <c r="B84" s="7" t="s">
-        <v>289</v>
-      </c>
-      <c r="C84" s="12" t="s">
-        <v>290</v>
+        <v>287</v>
+      </c>
+      <c r="C84" s="8" t="s">
+        <v>288</v>
       </c>
       <c r="D84" s="7"/>
       <c r="E84" s="7"/>
@@ -4530,40 +4566,38 @@
       <c r="H84" s="7"/>
       <c r="I84" s="7"/>
       <c r="J84" s="7"/>
-      <c r="K84" s="11" t="s">
-        <v>291</v>
+      <c r="K84" s="7" t="s">
+        <v>289</v>
       </c>
       <c r="L84" s="7"/>
     </row>
     <row r="85" ht="18" customHeight="1" spans="1:12">
       <c r="A85" s="7"/>
       <c r="B85" s="7" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="C85" s="8" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="D85" s="7"/>
       <c r="E85" s="7"/>
       <c r="F85" s="7"/>
       <c r="G85" s="7"/>
       <c r="H85" s="7"/>
-      <c r="I85" s="7" t="s">
-        <v>294</v>
-      </c>
+      <c r="I85" s="7"/>
       <c r="J85" s="7"/>
       <c r="K85" s="11" t="s">
-        <v>295</v>
+        <v>186</v>
       </c>
       <c r="L85" s="7"/>
     </row>
     <row r="86" ht="18" customHeight="1" spans="1:12">
       <c r="A86" s="7"/>
       <c r="B86" s="7" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="C86" s="8" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="D86" s="7"/>
       <c r="E86" s="7"/>
@@ -4571,82 +4605,85 @@
       <c r="G86" s="7"/>
       <c r="H86" s="7"/>
       <c r="I86" s="7"/>
-      <c r="J86" s="7"/>
       <c r="K86" s="11" t="s">
-        <v>298</v>
+        <v>289</v>
       </c>
       <c r="L86" s="7"/>
     </row>
     <row r="87" ht="18" customHeight="1" spans="1:12">
       <c r="A87" s="7"/>
-      <c r="B87" s="11" t="s">
-        <v>299</v>
+      <c r="B87" s="8" t="s">
+        <v>294</v>
       </c>
       <c r="C87" s="8" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="D87" s="7"/>
       <c r="E87" s="7"/>
       <c r="F87" s="7"/>
       <c r="G87" s="7"/>
       <c r="H87" s="7"/>
-      <c r="I87" s="7"/>
-      <c r="J87" s="7"/>
+      <c r="I87" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="J87" s="2" t="s">
+        <v>285</v>
+      </c>
       <c r="K87" s="11" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="L87" s="7"/>
     </row>
     <row r="88" ht="18" customHeight="1" spans="1:12">
       <c r="A88" s="7"/>
       <c r="B88" s="7" t="s">
-        <v>302</v>
-      </c>
-      <c r="C88" s="8" t="s">
-        <v>303</v>
+        <v>297</v>
+      </c>
+      <c r="C88" s="12" t="s">
+        <v>298</v>
       </c>
       <c r="D88" s="7"/>
-      <c r="E88" s="7" t="s">
-        <v>304</v>
-      </c>
+      <c r="E88" s="7"/>
       <c r="F88" s="7"/>
       <c r="G88" s="7"/>
       <c r="H88" s="7"/>
       <c r="I88" s="7"/>
-      <c r="J88" s="7" t="s">
-        <v>305</v>
-      </c>
-      <c r="K88" s="7" t="s">
-        <v>298</v>
+      <c r="J88" s="7"/>
+      <c r="K88" s="11" t="s">
+        <v>299</v>
       </c>
       <c r="L88" s="7"/>
     </row>
     <row r="89" ht="18" customHeight="1" spans="1:12">
       <c r="A89" s="7"/>
       <c r="B89" s="7" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="C89" s="8" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="D89" s="7"/>
       <c r="E89" s="7"/>
       <c r="F89" s="7"/>
       <c r="G89" s="7"/>
       <c r="H89" s="7"/>
-      <c r="I89" s="7"/>
+      <c r="I89" s="7" t="s">
+        <v>302</v>
+      </c>
       <c r="J89" s="7"/>
-      <c r="K89" s="7" t="s">
-        <v>308</v>
+      <c r="K89" s="11" t="s">
+        <v>303</v>
       </c>
       <c r="L89" s="7"/>
     </row>
     <row r="90" ht="18" customHeight="1" spans="1:12">
       <c r="A90" s="7"/>
       <c r="B90" s="7" t="s">
-        <v>309</v>
-      </c>
-      <c r="C90" s="8"/>
+        <v>304</v>
+      </c>
+      <c r="C90" s="8" t="s">
+        <v>305</v>
+      </c>
       <c r="D90" s="7"/>
       <c r="E90" s="7"/>
       <c r="F90" s="7"/>
@@ -4654,15 +4691,19 @@
       <c r="H90" s="7"/>
       <c r="I90" s="7"/>
       <c r="J90" s="7"/>
-      <c r="K90" s="7" t="s">
-        <v>310</v>
+      <c r="K90" s="11" t="s">
+        <v>306</v>
       </c>
       <c r="L90" s="7"/>
     </row>
     <row r="91" ht="18" customHeight="1" spans="1:12">
       <c r="A91" s="7"/>
-      <c r="B91" s="7"/>
-      <c r="C91" s="8"/>
+      <c r="B91" s="11" t="s">
+        <v>307</v>
+      </c>
+      <c r="C91" s="8" t="s">
+        <v>308</v>
+      </c>
       <c r="D91" s="7"/>
       <c r="E91" s="7"/>
       <c r="F91" s="7"/>
@@ -4670,26 +4711,32 @@
       <c r="H91" s="7"/>
       <c r="I91" s="7"/>
       <c r="J91" s="7"/>
-      <c r="K91" s="7"/>
+      <c r="K91" s="11" t="s">
+        <v>309</v>
+      </c>
       <c r="L91" s="7"/>
     </row>
     <row r="92" ht="18" customHeight="1" spans="1:12">
       <c r="A92" s="7"/>
       <c r="B92" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="C92" s="8" t="s">
         <v>311</v>
       </c>
-      <c r="C92" s="8" t="s">
+      <c r="D92" s="7"/>
+      <c r="E92" s="7" t="s">
         <v>312</v>
       </c>
-      <c r="D92" s="7"/>
-      <c r="E92" s="7"/>
       <c r="F92" s="7"/>
       <c r="G92" s="7"/>
       <c r="H92" s="7"/>
       <c r="I92" s="7"/>
-      <c r="J92" s="7"/>
+      <c r="J92" s="7" t="s">
+        <v>313</v>
+      </c>
       <c r="K92" s="7" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="L92" s="7"/>
     </row>
@@ -4699,7 +4746,7 @@
         <v>314</v>
       </c>
       <c r="C93" s="8" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="D93" s="7"/>
       <c r="E93" s="7"/>
@@ -4709,13 +4756,15 @@
       <c r="I93" s="7"/>
       <c r="J93" s="7"/>
       <c r="K93" s="7" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="L93" s="7"/>
     </row>
     <row r="94" ht="18" customHeight="1" spans="1:12">
       <c r="A94" s="7"/>
-      <c r="B94" s="7"/>
+      <c r="B94" s="7" t="s">
+        <v>317</v>
+      </c>
       <c r="C94" s="8"/>
       <c r="D94" s="7"/>
       <c r="E94" s="7"/>
@@ -4724,17 +4773,15 @@
       <c r="H94" s="7"/>
       <c r="I94" s="7"/>
       <c r="J94" s="7"/>
-      <c r="K94" s="7"/>
+      <c r="K94" s="7" t="s">
+        <v>318</v>
+      </c>
       <c r="L94" s="7"/>
     </row>
     <row r="95" ht="18" customHeight="1" spans="1:12">
       <c r="A95" s="7"/>
-      <c r="B95" s="7" t="s">
-        <v>316</v>
-      </c>
-      <c r="C95" s="8" t="s">
-        <v>317</v>
-      </c>
+      <c r="B95" s="7"/>
+      <c r="C95" s="8"/>
       <c r="D95" s="7"/>
       <c r="E95" s="7"/>
       <c r="F95" s="7"/>
@@ -4742,15 +4789,17 @@
       <c r="H95" s="7"/>
       <c r="I95" s="7"/>
       <c r="J95" s="7"/>
-      <c r="K95" s="7" t="s">
-        <v>318</v>
-      </c>
+      <c r="K95" s="7"/>
       <c r="L95" s="7"/>
     </row>
     <row r="96" ht="18" customHeight="1" spans="1:12">
       <c r="A96" s="7"/>
-      <c r="B96" s="7"/>
-      <c r="C96" s="8"/>
+      <c r="B96" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="C96" s="8" t="s">
+        <v>320</v>
+      </c>
       <c r="D96" s="7"/>
       <c r="E96" s="7"/>
       <c r="F96" s="7"/>
@@ -4758,13 +4807,15 @@
       <c r="H96" s="7"/>
       <c r="I96" s="7"/>
       <c r="J96" s="7"/>
-      <c r="K96" s="7"/>
+      <c r="K96" s="7" t="s">
+        <v>321</v>
+      </c>
       <c r="L96" s="7"/>
     </row>
     <row r="97" ht="18" customHeight="1" spans="1:12">
       <c r="A97" s="7"/>
       <c r="B97" s="7" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="C97" s="8" t="s">
         <v>320</v>
@@ -4776,219 +4827,211 @@
       <c r="H97" s="7"/>
       <c r="I97" s="7"/>
       <c r="J97" s="7"/>
-      <c r="K97" s="7"/>
+      <c r="K97" s="7" t="s">
+        <v>323</v>
+      </c>
       <c r="L97" s="7"/>
     </row>
     <row r="98" ht="18" customHeight="1" spans="1:12">
       <c r="A98" s="7"/>
-      <c r="B98" s="7" t="s">
-        <v>321</v>
-      </c>
-      <c r="C98" s="8" t="s">
-        <v>322</v>
-      </c>
+      <c r="B98" s="7"/>
+      <c r="C98" s="8"/>
       <c r="D98" s="7"/>
-      <c r="E98" s="7" t="s">
-        <v>323</v>
-      </c>
+      <c r="E98" s="7"/>
       <c r="F98" s="7"/>
       <c r="G98" s="7"/>
       <c r="H98" s="7"/>
-      <c r="I98" s="7" t="s">
-        <v>323</v>
-      </c>
-      <c r="J98" s="7" t="s">
-        <v>324</v>
-      </c>
-      <c r="K98" s="7" t="s">
-        <v>325</v>
-      </c>
-      <c r="L98" s="14" t="s">
-        <v>326</v>
-      </c>
+      <c r="I98" s="7"/>
+      <c r="J98" s="7"/>
+      <c r="K98" s="7"/>
+      <c r="L98" s="7"/>
     </row>
     <row r="99" ht="18" customHeight="1" spans="1:12">
       <c r="A99" s="7"/>
       <c r="B99" s="7" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="C99" s="8" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="D99" s="7"/>
-      <c r="E99" s="7" t="s">
-        <v>323</v>
-      </c>
+      <c r="E99" s="7"/>
       <c r="F99" s="7"/>
       <c r="G99" s="7"/>
       <c r="H99" s="7"/>
-      <c r="I99" s="7" t="s">
-        <v>323</v>
-      </c>
-      <c r="J99" s="7" t="s">
-        <v>328</v>
-      </c>
+      <c r="I99" s="7"/>
+      <c r="J99" s="7"/>
       <c r="K99" s="7" t="s">
-        <v>325</v>
-      </c>
-      <c r="L99" s="15" t="s">
-        <v>329</v>
-      </c>
+        <v>326</v>
+      </c>
+      <c r="L99" s="7"/>
     </row>
     <row r="100" ht="18" customHeight="1" spans="1:12">
       <c r="A100" s="7"/>
-      <c r="B100" s="7" t="s">
-        <v>321</v>
-      </c>
-      <c r="C100" s="8" t="s">
-        <v>330</v>
-      </c>
+      <c r="B100" s="7"/>
+      <c r="C100" s="8"/>
       <c r="D100" s="7"/>
       <c r="E100" s="7"/>
       <c r="F100" s="7"/>
       <c r="G100" s="7"/>
       <c r="H100" s="7"/>
-      <c r="I100" s="7" t="s">
-        <v>323</v>
-      </c>
-      <c r="J100" s="7" t="s">
-        <v>324</v>
-      </c>
-      <c r="K100" s="7" t="s">
-        <v>331</v>
-      </c>
-      <c r="L100" s="15" t="s">
-        <v>332</v>
-      </c>
+      <c r="I100" s="7"/>
+      <c r="J100" s="7"/>
+      <c r="K100" s="7"/>
+      <c r="L100" s="7"/>
     </row>
     <row r="101" ht="18" customHeight="1" spans="1:12">
       <c r="A101" s="7"/>
       <c r="B101" s="7" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="C101" s="8" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="D101" s="7"/>
-      <c r="E101" s="7" t="s">
-        <v>323</v>
-      </c>
+      <c r="E101" s="7"/>
       <c r="F101" s="7"/>
       <c r="G101" s="7"/>
       <c r="H101" s="7"/>
-      <c r="I101" s="7" t="s">
-        <v>323</v>
-      </c>
+      <c r="I101" s="7"/>
       <c r="J101" s="7"/>
-      <c r="K101" s="7" t="s">
-        <v>335</v>
-      </c>
+      <c r="K101" s="7"/>
       <c r="L101" s="7"/>
     </row>
     <row r="102" ht="18" customHeight="1" spans="1:12">
       <c r="A102" s="7"/>
       <c r="B102" s="7" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="C102" s="8" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="D102" s="7"/>
       <c r="E102" s="7" t="s">
-        <v>323</v>
+        <v>331</v>
       </c>
       <c r="F102" s="7"/>
       <c r="G102" s="7"/>
       <c r="H102" s="7"/>
       <c r="I102" s="7" t="s">
-        <v>323</v>
-      </c>
-      <c r="J102" s="7"/>
+        <v>331</v>
+      </c>
+      <c r="J102" s="7" t="s">
+        <v>332</v>
+      </c>
       <c r="K102" s="7" t="s">
-        <v>338</v>
-      </c>
-      <c r="L102" s="7"/>
+        <v>333</v>
+      </c>
+      <c r="L102" s="14" t="s">
+        <v>334</v>
+      </c>
     </row>
     <row r="103" ht="18" customHeight="1" spans="1:12">
       <c r="A103" s="7"/>
-      <c r="B103" s="7"/>
-      <c r="C103" s="8"/>
+      <c r="B103" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="C103" s="8" t="s">
+        <v>335</v>
+      </c>
       <c r="D103" s="7"/>
-      <c r="E103" s="7"/>
+      <c r="E103" s="7" t="s">
+        <v>331</v>
+      </c>
       <c r="F103" s="7"/>
       <c r="G103" s="7"/>
       <c r="H103" s="7"/>
-      <c r="I103" s="7"/>
-      <c r="J103" s="7"/>
-      <c r="K103" s="7"/>
-      <c r="L103" s="7"/>
+      <c r="I103" s="7" t="s">
+        <v>331</v>
+      </c>
+      <c r="J103" s="7" t="s">
+        <v>336</v>
+      </c>
+      <c r="K103" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="L103" s="15" t="s">
+        <v>337</v>
+      </c>
     </row>
     <row r="104" ht="18" customHeight="1" spans="1:12">
       <c r="A104" s="7"/>
-      <c r="B104" s="7"/>
-      <c r="C104" s="8"/>
+      <c r="B104" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="C104" s="8" t="s">
+        <v>338</v>
+      </c>
       <c r="D104" s="7"/>
       <c r="E104" s="7"/>
       <c r="F104" s="7"/>
       <c r="G104" s="7"/>
       <c r="H104" s="7"/>
-      <c r="I104" s="7"/>
-      <c r="J104" s="7"/>
-      <c r="K104" s="7"/>
-      <c r="L104" s="7"/>
+      <c r="I104" s="7" t="s">
+        <v>331</v>
+      </c>
+      <c r="J104" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="K104" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="L104" s="15" t="s">
+        <v>340</v>
+      </c>
     </row>
     <row r="105" ht="18" customHeight="1" spans="1:12">
       <c r="A105" s="7"/>
-      <c r="B105" s="11" t="s">
-        <v>339</v>
-      </c>
-      <c r="C105" s="12" t="s">
-        <v>340</v>
+      <c r="B105" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="C105" s="8" t="s">
+        <v>342</v>
       </c>
       <c r="D105" s="7"/>
-      <c r="E105" s="7"/>
+      <c r="E105" s="7" t="s">
+        <v>331</v>
+      </c>
       <c r="F105" s="7"/>
       <c r="G105" s="7"/>
       <c r="H105" s="7"/>
-      <c r="I105" s="11" t="s">
-        <v>341</v>
+      <c r="I105" s="7" t="s">
+        <v>331</v>
       </c>
       <c r="J105" s="7"/>
-      <c r="K105" s="11" t="s">
-        <v>341</v>
-      </c>
-      <c r="L105" s="15" t="s">
-        <v>342</v>
-      </c>
+      <c r="K105" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="L105" s="7"/>
     </row>
     <row r="106" ht="18" customHeight="1" spans="1:12">
       <c r="A106" s="7"/>
       <c r="B106" s="7" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="C106" s="8" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="D106" s="7"/>
-      <c r="E106" s="7"/>
+      <c r="E106" s="7" t="s">
+        <v>331</v>
+      </c>
       <c r="F106" s="7"/>
       <c r="G106" s="7"/>
       <c r="H106" s="7"/>
-      <c r="I106" s="7"/>
+      <c r="I106" s="7" t="s">
+        <v>331</v>
+      </c>
       <c r="J106" s="7"/>
-      <c r="K106" s="11" t="s">
-        <v>345</v>
+      <c r="K106" s="7" t="s">
+        <v>346</v>
       </c>
       <c r="L106" s="7"/>
     </row>
     <row r="107" ht="18" customHeight="1" spans="1:12">
       <c r="A107" s="7"/>
-      <c r="B107" s="7" t="s">
-        <v>346</v>
-      </c>
-      <c r="C107" s="8" t="s">
-        <v>347</v>
-      </c>
+      <c r="B107" s="7"/>
+      <c r="C107" s="8"/>
       <c r="D107" s="7"/>
       <c r="E107" s="7"/>
       <c r="F107" s="7"/>
@@ -5001,12 +5044,8 @@
     </row>
     <row r="108" ht="18" customHeight="1" spans="1:12">
       <c r="A108" s="7"/>
-      <c r="B108" s="7" t="s">
-        <v>348</v>
-      </c>
-      <c r="C108" s="12" t="s">
-        <v>349</v>
-      </c>
+      <c r="B108" s="7"/>
+      <c r="C108" s="8"/>
       <c r="D108" s="7"/>
       <c r="E108" s="7"/>
       <c r="F108" s="7"/>
@@ -5014,84 +5053,79 @@
       <c r="H108" s="7"/>
       <c r="I108" s="7"/>
       <c r="J108" s="7"/>
-      <c r="K108" s="7" t="s">
-        <v>348</v>
-      </c>
+      <c r="K108" s="7"/>
       <c r="L108" s="7"/>
     </row>
     <row r="109" ht="18" customHeight="1" spans="1:12">
       <c r="A109" s="7"/>
-      <c r="B109" s="7" t="s">
-        <v>350</v>
-      </c>
-      <c r="C109" s="8" t="s">
-        <v>351</v>
+      <c r="B109" s="11" t="s">
+        <v>347</v>
+      </c>
+      <c r="C109" s="12" t="s">
+        <v>348</v>
       </c>
       <c r="D109" s="7"/>
       <c r="E109" s="7"/>
       <c r="F109" s="7"/>
       <c r="G109" s="7"/>
       <c r="H109" s="7"/>
-      <c r="I109" s="7"/>
+      <c r="I109" s="11" t="s">
+        <v>349</v>
+      </c>
       <c r="J109" s="7"/>
       <c r="K109" s="11" t="s">
-        <v>352</v>
-      </c>
-      <c r="L109" s="7"/>
+        <v>349</v>
+      </c>
+      <c r="L109" s="15" t="s">
+        <v>350</v>
+      </c>
     </row>
     <row r="110" ht="18" customHeight="1" spans="1:12">
       <c r="A110" s="7"/>
-      <c r="B110" s="11" t="s">
-        <v>353</v>
-      </c>
-      <c r="C110" s="12" t="s">
-        <v>354</v>
+      <c r="B110" s="7" t="s">
+        <v>351</v>
+      </c>
+      <c r="C110" s="8" t="s">
+        <v>352</v>
       </c>
       <c r="D110" s="7"/>
       <c r="E110" s="7"/>
       <c r="F110" s="7"/>
       <c r="G110" s="7"/>
       <c r="H110" s="7"/>
-      <c r="I110" s="7" t="s">
+      <c r="I110" s="7"/>
+      <c r="J110" s="7"/>
+      <c r="K110" s="11" t="s">
+        <v>353</v>
+      </c>
+      <c r="L110" s="7"/>
+    </row>
+    <row r="111" ht="18" customHeight="1" spans="1:12">
+      <c r="A111" s="7"/>
+      <c r="B111" s="7" t="s">
+        <v>354</v>
+      </c>
+      <c r="C111" s="8" t="s">
         <v>355</v>
       </c>
-      <c r="J110" s="7"/>
-      <c r="K110" s="7" t="s">
-        <v>355</v>
-      </c>
-      <c r="L110" s="7"/>
-    </row>
-    <row r="111" ht="18" customHeight="1" spans="1:13">
-      <c r="A111" s="7"/>
-      <c r="B111" s="11" t="s">
-        <v>356</v>
-      </c>
-      <c r="C111" s="12" t="s">
-        <v>357</v>
-      </c>
       <c r="D111" s="7"/>
-      <c r="E111" s="7" t="s">
-        <v>358</v>
-      </c>
+      <c r="E111" s="7"/>
       <c r="F111" s="7"/>
       <c r="G111" s="7"/>
       <c r="H111" s="7"/>
-      <c r="I111" s="7" t="s">
-        <v>359</v>
-      </c>
+      <c r="I111" s="7"/>
       <c r="J111" s="7"/>
-      <c r="K111" s="7" t="s">
-        <v>360</v>
-      </c>
+      <c r="K111" s="7"/>
       <c r="L111" s="7"/>
-      <c r="M111" s="16" t="s">
-        <v>361</v>
-      </c>
     </row>
     <row r="112" ht="18" customHeight="1" spans="1:12">
       <c r="A112" s="7"/>
-      <c r="B112" s="7"/>
-      <c r="C112" s="8"/>
+      <c r="B112" s="7" t="s">
+        <v>356</v>
+      </c>
+      <c r="C112" s="12" t="s">
+        <v>357</v>
+      </c>
       <c r="D112" s="7"/>
       <c r="E112" s="7"/>
       <c r="F112" s="7"/>
@@ -5099,38 +5133,38 @@
       <c r="H112" s="7"/>
       <c r="I112" s="7"/>
       <c r="J112" s="7"/>
-      <c r="K112" s="7"/>
+      <c r="K112" s="7" t="s">
+        <v>356</v>
+      </c>
       <c r="L112" s="7"/>
     </row>
     <row r="113" ht="18" customHeight="1" spans="1:12">
       <c r="A113" s="7"/>
       <c r="B113" s="7" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="C113" s="8" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="D113" s="7"/>
       <c r="E113" s="7"/>
       <c r="F113" s="7"/>
       <c r="G113" s="7"/>
       <c r="H113" s="7"/>
-      <c r="I113" s="7" t="s">
-        <v>364</v>
-      </c>
+      <c r="I113" s="7"/>
       <c r="J113" s="7"/>
-      <c r="K113" s="7" t="s">
-        <v>365</v>
+      <c r="K113" s="11" t="s">
+        <v>360</v>
       </c>
       <c r="L113" s="7"/>
     </row>
     <row r="114" ht="18" customHeight="1" spans="1:12">
       <c r="A114" s="7"/>
-      <c r="B114" s="7" t="s">
-        <v>366</v>
-      </c>
-      <c r="C114" s="8" t="s">
-        <v>367</v>
+      <c r="B114" s="11" t="s">
+        <v>361</v>
+      </c>
+      <c r="C114" s="12" t="s">
+        <v>362</v>
       </c>
       <c r="D114" s="7"/>
       <c r="E114" s="7"/>
@@ -5138,36 +5172,45 @@
       <c r="G114" s="7"/>
       <c r="H114" s="7"/>
       <c r="I114" s="7" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="J114" s="7"/>
       <c r="K114" s="7" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="L114" s="7"/>
     </row>
-    <row r="115" ht="18" customHeight="1" spans="1:12">
+    <row r="115" ht="18" customHeight="1" spans="1:13">
       <c r="A115" s="7"/>
-      <c r="B115" s="7"/>
-      <c r="C115" s="8"/>
+      <c r="B115" s="11" t="s">
+        <v>364</v>
+      </c>
+      <c r="C115" s="12" t="s">
+        <v>365</v>
+      </c>
       <c r="D115" s="7"/>
-      <c r="E115" s="7"/>
+      <c r="E115" s="7" t="s">
+        <v>366</v>
+      </c>
       <c r="F115" s="7"/>
       <c r="G115" s="7"/>
       <c r="H115" s="7"/>
-      <c r="I115" s="7"/>
+      <c r="I115" s="7" t="s">
+        <v>367</v>
+      </c>
       <c r="J115" s="7"/>
-      <c r="K115" s="7"/>
+      <c r="K115" s="7" t="s">
+        <v>368</v>
+      </c>
       <c r="L115" s="7"/>
+      <c r="M115" s="16" t="s">
+        <v>369</v>
+      </c>
     </row>
     <row r="116" ht="18" customHeight="1" spans="1:12">
       <c r="A116" s="7"/>
-      <c r="B116" s="7" t="s">
-        <v>370</v>
-      </c>
-      <c r="C116" s="8" t="s">
-        <v>371</v>
-      </c>
+      <c r="B116" s="7"/>
+      <c r="C116" s="8"/>
       <c r="D116" s="7"/>
       <c r="E116" s="7"/>
       <c r="F116" s="7"/>
@@ -5175,39 +5218,51 @@
       <c r="H116" s="7"/>
       <c r="I116" s="7"/>
       <c r="J116" s="7"/>
-      <c r="K116" s="7" t="s">
-        <v>372</v>
-      </c>
-      <c r="L116" s="15" t="s">
-        <v>373</v>
-      </c>
+      <c r="K116" s="7"/>
+      <c r="L116" s="7"/>
     </row>
     <row r="117" ht="18" customHeight="1" spans="1:12">
       <c r="A117" s="7"/>
-      <c r="B117" s="7"/>
-      <c r="C117" s="8"/>
+      <c r="B117" s="7" t="s">
+        <v>370</v>
+      </c>
+      <c r="C117" s="8" t="s">
+        <v>371</v>
+      </c>
       <c r="D117" s="7"/>
       <c r="E117" s="7"/>
       <c r="F117" s="7"/>
       <c r="G117" s="7"/>
       <c r="H117" s="7"/>
-      <c r="I117" s="7"/>
+      <c r="I117" s="7" t="s">
+        <v>372</v>
+      </c>
       <c r="J117" s="7"/>
-      <c r="K117" s="7"/>
+      <c r="K117" s="7" t="s">
+        <v>373</v>
+      </c>
       <c r="L117" s="7"/>
     </row>
     <row r="118" ht="18" customHeight="1" spans="1:12">
       <c r="A118" s="7"/>
-      <c r="B118" s="7"/>
-      <c r="C118" s="8"/>
+      <c r="B118" s="7" t="s">
+        <v>374</v>
+      </c>
+      <c r="C118" s="8" t="s">
+        <v>375</v>
+      </c>
       <c r="D118" s="7"/>
       <c r="E118" s="7"/>
       <c r="F118" s="7"/>
       <c r="G118" s="7"/>
       <c r="H118" s="7"/>
-      <c r="I118" s="7"/>
+      <c r="I118" s="7" t="s">
+        <v>376</v>
+      </c>
       <c r="J118" s="7"/>
-      <c r="K118" s="7"/>
+      <c r="K118" s="7" t="s">
+        <v>377</v>
+      </c>
       <c r="L118" s="7"/>
     </row>
     <row r="119" ht="18" customHeight="1" spans="1:12">
@@ -5226,8 +5281,12 @@
     </row>
     <row r="120" ht="18" customHeight="1" spans="1:12">
       <c r="A120" s="7"/>
-      <c r="B120" s="7"/>
-      <c r="C120" s="8"/>
+      <c r="B120" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="C120" s="8" t="s">
+        <v>379</v>
+      </c>
       <c r="D120" s="7"/>
       <c r="E120" s="7"/>
       <c r="F120" s="7"/>
@@ -5235,8 +5294,12 @@
       <c r="H120" s="7"/>
       <c r="I120" s="7"/>
       <c r="J120" s="7"/>
-      <c r="K120" s="7"/>
-      <c r="L120" s="7"/>
+      <c r="K120" s="7" t="s">
+        <v>380</v>
+      </c>
+      <c r="L120" s="15" t="s">
+        <v>381</v>
+      </c>
     </row>
     <row r="121" ht="18" customHeight="1" spans="1:12">
       <c r="A121" s="7"/>
@@ -6064,13 +6127,55 @@
       <c r="K179" s="7"/>
       <c r="L179" s="7"/>
     </row>
+    <row r="180" ht="18" customHeight="1" spans="1:12">
+      <c r="A180" s="7"/>
+      <c r="B180" s="7"/>
+      <c r="C180" s="8"/>
+      <c r="D180" s="7"/>
+      <c r="E180" s="7"/>
+      <c r="F180" s="7"/>
+      <c r="G180" s="7"/>
+      <c r="H180" s="7"/>
+      <c r="I180" s="7"/>
+      <c r="J180" s="7"/>
+      <c r="K180" s="7"/>
+      <c r="L180" s="7"/>
+    </row>
+    <row r="181" ht="18" customHeight="1" spans="1:12">
+      <c r="A181" s="7"/>
+      <c r="B181" s="7"/>
+      <c r="C181" s="8"/>
+      <c r="D181" s="7"/>
+      <c r="E181" s="7"/>
+      <c r="F181" s="7"/>
+      <c r="G181" s="7"/>
+      <c r="H181" s="7"/>
+      <c r="I181" s="7"/>
+      <c r="J181" s="7"/>
+      <c r="K181" s="7"/>
+      <c r="L181" s="7"/>
+    </row>
+    <row r="182" ht="18" customHeight="1" spans="1:12">
+      <c r="A182" s="7"/>
+      <c r="B182" s="7"/>
+      <c r="C182" s="8"/>
+      <c r="D182" s="7"/>
+      <c r="E182" s="7"/>
+      <c r="F182" s="7"/>
+      <c r="G182" s="7"/>
+      <c r="H182" s="7"/>
+      <c r="I182" s="7"/>
+      <c r="J182" s="7"/>
+      <c r="K182" s="7"/>
+      <c r="L182" s="7"/>
+    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="L98" r:id="rId3" display="https://item.szlcsc.com/87756.html" tooltip="https://item.szlcsc.com/87756.html"/>
-    <hyperlink ref="L99" r:id="rId4" display="https://item.szlcsc.com/136348.html"/>
-    <hyperlink ref="L116" r:id="rId5" display="https://item.szlcsc.com/72964.html"/>
-    <hyperlink ref="L105" r:id="rId6" display="http://item.szlcsc.com/26978.html"/>
-    <hyperlink ref="M111" r:id="rId7" display="https://item.taobao.com/item.htm?spm=a230r.1.14.11.4e3e3b039DZu79&amp;id=530564269635&amp;ns=1&amp;abbucket=5#detail"/>
+    <hyperlink ref="L102" r:id="rId3" display="https://item.szlcsc.com/87756.html" tooltip="https://item.szlcsc.com/87756.html"/>
+    <hyperlink ref="L103" r:id="rId4" display="https://item.szlcsc.com/136348.html"/>
+    <hyperlink ref="L120" r:id="rId5" display="https://item.szlcsc.com/72964.html"/>
+    <hyperlink ref="L109" r:id="rId6" display="http://item.szlcsc.com/26978.html"/>
+    <hyperlink ref="M115" r:id="rId7" display="https://item.taobao.com/item.htm?spm=a230r.1.14.11.4e3e3b039DZu79&amp;id=530564269635&amp;ns=1&amp;abbucket=5#detail"/>
   </hyperlinks>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/物料索引.xlsx
+++ b/物料索引.xlsx
@@ -88,7 +88,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="586" uniqueCount="382">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="621" uniqueCount="407">
   <si>
     <t>物料编码</t>
   </si>
@@ -612,7 +612,7 @@
     <t>B340A_13_F</t>
   </si>
   <si>
-    <t>肖特基二极管</t>
+    <t>肖特基二极管  Pd=850mW，40V13A</t>
   </si>
   <si>
     <t>二极管</t>
@@ -621,6 +621,9 @@
     <t>DIODES</t>
   </si>
   <si>
+    <t>DO_214AA</t>
+  </si>
+  <si>
     <t>PDS760-13</t>
   </si>
   <si>
@@ -649,6 +652,68 @@
   </si>
   <si>
     <t>sot_23_m</t>
+  </si>
+  <si>
+    <t>BAT760</t>
+  </si>
+  <si>
+    <t>肖特基二极管，Ir=1A</t>
+  </si>
+  <si>
+    <t>sod-323</t>
+  </si>
+  <si>
+    <t>ESD5Z5.0CT</t>
+  </si>
+  <si>
+    <t>二极管_TVS二极管</t>
+  </si>
+  <si>
+    <t>sod-523</t>
+  </si>
+  <si>
+    <t>NUP4202W1</t>
+  </si>
+  <si>
+    <t>TVS保护芯片，通用</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>O</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>N</t>
+    </r>
+  </si>
+  <si>
+    <t>SC88_SC70-6_SOT-363</t>
+  </si>
+  <si>
+    <t>ESD5384</t>
+  </si>
+  <si>
+    <t>TVS保护芯片，HDMI用，0.4mmBGA</t>
+  </si>
+  <si>
+    <t>esd5384</t>
+  </si>
+  <si>
+    <t>ss8050</t>
+  </si>
+  <si>
+    <t>NPN三极管</t>
   </si>
   <si>
     <t>2SB1386</t>
@@ -755,9 +820,6 @@
     </r>
   </si>
   <si>
-    <t>SC88_SC70-6_SOT-363</t>
-  </si>
-  <si>
     <t>UB2-5NU-L</t>
   </si>
   <si>
@@ -806,41 +868,6 @@
     <t>MC33078</t>
   </si>
   <si>
-    <t>NUP4202W1</t>
-  </si>
-  <si>
-    <t>TVS保护芯片，通用</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>O</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>N</t>
-    </r>
-  </si>
-  <si>
-    <t>ESD5384</t>
-  </si>
-  <si>
-    <t>TVS保护芯片，HDMI用，0.4mmBGA</t>
-  </si>
-  <si>
-    <t>esd5384</t>
-  </si>
-  <si>
     <t>0208.500MXP</t>
   </si>
   <si>
@@ -980,6 +1007,21 @@
   </si>
   <si>
     <t>MIC5309-1.2YD6</t>
+  </si>
+  <si>
+    <t>AMS1117-3.3</t>
+  </si>
+  <si>
+    <t>smsot2231234</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TPS7A3001DGNR </t>
+  </si>
+  <si>
+    <t>LDO 负压稳压芯片</t>
+  </si>
+  <si>
+    <t>msop-8_ep</t>
   </si>
   <si>
     <t>TPS51200DRCR</t>
@@ -1017,6 +1059,15 @@
     <t>S12IS24_1W</t>
   </si>
   <si>
+    <t>MP2451DT-LF-Z</t>
+  </si>
+  <si>
+    <t>DCDC BUCK</t>
+  </si>
+  <si>
+    <t>SOT23_6</t>
+  </si>
+  <si>
     <t>RAC60-24SB</t>
   </si>
   <si>
@@ -1149,6 +1200,12 @@
     <t>QFN24_4X4</t>
   </si>
   <si>
+    <t>CP2102-GMR</t>
+  </si>
+  <si>
+    <t>qfn-28_5x5x05p</t>
+  </si>
+  <si>
     <t>AD9653BCPZ-125</t>
   </si>
   <si>
@@ -1231,6 +1288,69 @@
   </si>
   <si>
     <t>hr911130c</t>
+  </si>
+  <si>
+    <t>7K325TFFG676</t>
+  </si>
+  <si>
+    <t>FPGA</t>
+  </si>
+  <si>
+    <t>FFG676</t>
+  </si>
+  <si>
+    <t>BGA1mm_26x26</t>
+  </si>
+  <si>
+    <t>S29GL01GS10TFI010</t>
+  </si>
+  <si>
+    <t>NAND FLASH 1Gb,</t>
+  </si>
+  <si>
+    <t>TSOP-56</t>
+  </si>
+  <si>
+    <t>56L_14x20mm_TSOP</t>
+  </si>
+  <si>
+    <t>轻触按键</t>
+  </si>
+  <si>
+    <t>2P 3x6x5</t>
+  </si>
+  <si>
+    <t>sw_2p_3x6x5</t>
+  </si>
+  <si>
+    <t>https://item.szlcsc.com/72964.html</t>
+  </si>
+  <si>
+    <t>71436-2164插头</t>
+  </si>
+  <si>
+    <t>64P、贴片</t>
+  </si>
+  <si>
+    <t>64PIN_SMD_MC</t>
+  </si>
+  <si>
+    <t>https://item.taobao.com/item.htm?spm=a230r.1.14.11.4e3e3b039DZu79&amp;id=530564269635&amp;ns=1&amp;abbucket=5</t>
+  </si>
+  <si>
+    <t>71439-0164插座</t>
+  </si>
+  <si>
+    <t>64PIN_SMD_CC</t>
+  </si>
+  <si>
+    <t>9001-16481C00A</t>
+  </si>
+  <si>
+    <t>3*16 欧式直脚孔座</t>
+  </si>
+  <si>
+    <t>https://detail.tmall.com/item.htm?id=570096251281&amp;spm=a220o.1000855.1998099587.3.4919570cZ0XYLb</t>
   </si>
   <si>
     <t>USB_A-F</t>
@@ -1295,81 +1415,19 @@
     <t>TFCard</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>TF卡座，</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> http://item.szlcsc.com/114441.html</t>
-    </r>
+    <t>TF卡座， http://item.szlcsc.com/114441.html</t>
   </si>
   <si>
     <t>tf-015</t>
   </si>
   <si>
-    <t>2*32P SMT连接器</t>
-  </si>
-  <si>
-    <t>板对板插座 1.0mm间距 64P 2*32P SMT贴片公座母座</t>
-  </si>
-  <si>
-    <t>板对板连接器</t>
-  </si>
-  <si>
-    <t>64PIN_SMD_CC</t>
-  </si>
-  <si>
-    <t>64PIN_SMD_CC(底座)/64PIN_SMD_MC(插头)</t>
-  </si>
-  <si>
-    <t>https://item.taobao.com/item.htm?spm=a230r.1.14.11.4e3e3b039DZu79&amp;id=530564269635&amp;ns=1&amp;abbucket=5#detail</t>
-  </si>
-  <si>
-    <t>7K325TFFG676</t>
-  </si>
-  <si>
-    <t>FPGA</t>
-  </si>
-  <si>
-    <t>FFG676</t>
-  </si>
-  <si>
-    <t>BGA1mm_26x26</t>
-  </si>
-  <si>
-    <t>S29GL01GS10TFI010</t>
-  </si>
-  <si>
-    <t>NAND FLASH 1Gb,</t>
-  </si>
-  <si>
-    <t>TSOP-56</t>
-  </si>
-  <si>
-    <t>56L_14x20mm_TSOP</t>
-  </si>
-  <si>
-    <t>轻触按键</t>
-  </si>
-  <si>
-    <t>2P 3x6x5</t>
-  </si>
-  <si>
-    <t>sw_2p_3x6x5</t>
-  </si>
-  <si>
-    <t>https://item.szlcsc.com/72964.html</t>
+    <t>U.FL</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 射频RF同轴连接器（天线座）</t>
+  </si>
+  <si>
+    <t>U_FL_SMT</t>
   </si>
 </sst>
 </file>
@@ -1377,10 +1435,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -1408,10 +1466,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1421,51 +1478,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -1489,6 +1501,50 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -1497,8 +1553,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1529,24 +1593,18 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
@@ -1575,6 +1633,30 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1587,13 +1669,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1605,19 +1765,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1629,97 +1795,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1731,25 +1807,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1791,22 +1849,18 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1826,15 +1880,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1846,6 +1891,15 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1865,13 +1919,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1883,10 +1941,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1895,133 +1953,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2074,8 +2132,8 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="10" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="10" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -2425,12 +2483,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M182"/>
+  <dimension ref="A1:L180"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A37" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="3" topLeftCell="A116" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="B56" sqref="B56"/>
+      <selection pane="bottomLeft" activeCell="L133" sqref="L133"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3654,16 +3712,18 @@
       <c r="J41" s="7" t="s">
         <v>176</v>
       </c>
-      <c r="K41" s="7"/>
+      <c r="K41" s="7" t="s">
+        <v>177</v>
+      </c>
       <c r="L41" s="7"/>
     </row>
     <row r="42" ht="18" customHeight="1" spans="1:12">
       <c r="A42" s="7"/>
       <c r="B42" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C42" s="12" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D42" s="7" t="s">
         <v>24</v>
@@ -3679,17 +3739,17 @@
         <v>176</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="L42" s="7"/>
     </row>
     <row r="43" ht="18" customHeight="1" spans="1:12">
       <c r="A43" s="7"/>
       <c r="B43" s="7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C43" s="8" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D43" s="7"/>
       <c r="E43" s="7" t="s">
@@ -3699,10 +3759,10 @@
       <c r="G43" s="7"/>
       <c r="H43" s="7"/>
       <c r="I43" s="7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="K43" s="7"/>
       <c r="L43" s="7"/>
@@ -3710,108 +3770,110 @@
     <row r="44" ht="18" customHeight="1" spans="1:12">
       <c r="A44" s="7"/>
       <c r="B44" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C44" s="8" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D44" s="7"/>
-      <c r="E44" s="7"/>
+      <c r="E44" s="7" t="s">
+        <v>175</v>
+      </c>
       <c r="F44" s="7"/>
       <c r="G44" s="7"/>
       <c r="H44" s="7"/>
       <c r="I44" s="7"/>
       <c r="J44" s="7"/>
       <c r="K44" s="11" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="L44" s="7"/>
     </row>
     <row r="45" ht="18" customHeight="1" spans="1:12">
       <c r="A45" s="7"/>
-      <c r="B45" s="7"/>
-      <c r="C45" s="8"/>
+      <c r="B45" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="C45" s="8" t="s">
+        <v>189</v>
+      </c>
       <c r="D45" s="7"/>
-      <c r="E45" s="7"/>
+      <c r="E45" s="7" t="s">
+        <v>175</v>
+      </c>
       <c r="F45" s="7"/>
       <c r="G45" s="7"/>
       <c r="H45" s="7"/>
       <c r="I45" s="7"/>
       <c r="J45" s="7"/>
-      <c r="K45" s="7"/>
+      <c r="K45" s="11" t="s">
+        <v>190</v>
+      </c>
       <c r="L45" s="7"/>
     </row>
     <row r="46" ht="18" customHeight="1" spans="1:12">
       <c r="A46" s="7"/>
       <c r="B46" s="7" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="C46" s="8" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="D46" s="7"/>
-      <c r="E46" s="7"/>
+      <c r="E46" s="7" t="s">
+        <v>175</v>
+      </c>
       <c r="F46" s="7"/>
       <c r="G46" s="7"/>
       <c r="H46" s="7"/>
-      <c r="I46" s="11" t="s">
-        <v>189</v>
-      </c>
-      <c r="J46" s="11" t="s">
-        <v>190</v>
-      </c>
+      <c r="I46" s="7"/>
+      <c r="J46" s="7"/>
       <c r="K46" s="11" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="L46" s="7"/>
     </row>
     <row r="47" ht="18" customHeight="1" spans="1:12">
       <c r="A47" s="7"/>
-      <c r="B47" s="11" t="s">
-        <v>191</v>
+      <c r="B47" s="7" t="s">
+        <v>194</v>
       </c>
       <c r="C47" s="8" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="D47" s="7"/>
-      <c r="E47" s="11" t="s">
-        <v>193</v>
-      </c>
+      <c r="E47" s="7"/>
       <c r="F47" s="7"/>
       <c r="G47" s="7"/>
       <c r="H47" s="7"/>
-      <c r="I47" s="11" t="s">
-        <v>194</v>
-      </c>
+      <c r="I47" s="7"/>
       <c r="J47" s="11" t="s">
-        <v>176</v>
+        <v>196</v>
       </c>
       <c r="K47" s="11" t="s">
-        <v>186</v>
+        <v>197</v>
       </c>
       <c r="L47" s="7"/>
     </row>
     <row r="48" ht="18" customHeight="1" spans="1:12">
       <c r="A48" s="7"/>
-      <c r="B48" s="7" t="s">
-        <v>195</v>
+      <c r="B48" s="11" t="s">
+        <v>198</v>
       </c>
       <c r="C48" s="8" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="D48" s="7"/>
       <c r="E48" s="7"/>
       <c r="F48" s="7"/>
       <c r="G48" s="7"/>
       <c r="H48" s="7"/>
-      <c r="I48" s="11" t="s">
-        <v>197</v>
-      </c>
+      <c r="I48" s="7"/>
       <c r="J48" s="11" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="K48" s="7" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="L48" s="7"/>
     </row>
@@ -3824,28 +3886,28 @@
       <c r="F49" s="7"/>
       <c r="G49" s="7"/>
       <c r="H49" s="7"/>
-      <c r="I49" s="11"/>
-      <c r="J49" s="11"/>
+      <c r="I49" s="7"/>
+      <c r="J49" s="7"/>
       <c r="K49" s="7"/>
       <c r="L49" s="7"/>
     </row>
     <row r="50" ht="18" customHeight="1" spans="1:12">
       <c r="A50" s="7"/>
       <c r="B50" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C50" s="8" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D50" s="7"/>
       <c r="E50" s="7"/>
       <c r="F50" s="7"/>
       <c r="G50" s="7"/>
       <c r="H50" s="7"/>
-      <c r="I50" s="11"/>
-      <c r="J50" s="11"/>
-      <c r="K50" s="7" t="s">
-        <v>202</v>
+      <c r="I50" s="7"/>
+      <c r="J50" s="7"/>
+      <c r="K50" s="11" t="s">
+        <v>187</v>
       </c>
       <c r="L50" s="7"/>
     </row>
@@ -3862,113 +3924,119 @@
       <c r="F51" s="7"/>
       <c r="G51" s="7"/>
       <c r="H51" s="7"/>
-      <c r="I51" s="11"/>
-      <c r="J51" s="11"/>
-      <c r="K51" s="7" t="s">
+      <c r="I51" s="11" t="s">
+        <v>205</v>
+      </c>
+      <c r="J51" s="11" t="s">
+        <v>206</v>
+      </c>
+      <c r="K51" s="11" t="s">
         <v>205</v>
       </c>
       <c r="L51" s="7"/>
     </row>
     <row r="52" ht="18" customHeight="1" spans="1:12">
       <c r="A52" s="7"/>
-      <c r="B52" s="7"/>
-      <c r="C52" s="8"/>
+      <c r="B52" s="11" t="s">
+        <v>207</v>
+      </c>
+      <c r="C52" s="8" t="s">
+        <v>208</v>
+      </c>
       <c r="D52" s="7"/>
-      <c r="E52" s="7"/>
+      <c r="E52" s="11" t="s">
+        <v>209</v>
+      </c>
       <c r="F52" s="7"/>
       <c r="G52" s="7"/>
       <c r="H52" s="7"/>
-      <c r="I52" s="11"/>
-      <c r="J52" s="11"/>
-      <c r="K52" s="7"/>
+      <c r="I52" s="11" t="s">
+        <v>210</v>
+      </c>
+      <c r="J52" s="11" t="s">
+        <v>176</v>
+      </c>
+      <c r="K52" s="11" t="s">
+        <v>187</v>
+      </c>
       <c r="L52" s="7"/>
     </row>
     <row r="53" ht="18" customHeight="1" spans="1:12">
       <c r="A53" s="7"/>
       <c r="B53" s="7" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="C53" s="8" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="D53" s="7"/>
       <c r="E53" s="7"/>
       <c r="F53" s="7"/>
       <c r="G53" s="7"/>
       <c r="H53" s="7"/>
-      <c r="I53" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="J53" s="7"/>
+      <c r="I53" s="11" t="s">
+        <v>213</v>
+      </c>
+      <c r="J53" s="11" t="s">
+        <v>214</v>
+      </c>
       <c r="K53" s="7" t="s">
-        <v>208</v>
+        <v>197</v>
       </c>
       <c r="L53" s="7"/>
     </row>
     <row r="54" ht="18" customHeight="1" spans="1:12">
       <c r="A54" s="7"/>
-      <c r="B54" s="10" t="s">
-        <v>209</v>
-      </c>
-      <c r="C54" s="8" t="s">
-        <v>210</v>
-      </c>
+      <c r="B54" s="7"/>
+      <c r="C54" s="8"/>
       <c r="D54" s="7"/>
-      <c r="E54" s="7" t="s">
-        <v>210</v>
-      </c>
+      <c r="E54" s="7"/>
       <c r="F54" s="7"/>
       <c r="G54" s="7"/>
       <c r="H54" s="7"/>
       <c r="I54" s="11"/>
-      <c r="J54" s="11" t="s">
-        <v>211</v>
-      </c>
-      <c r="K54" s="13" t="s">
-        <v>212</v>
-      </c>
+      <c r="J54" s="11"/>
+      <c r="K54" s="7"/>
       <c r="L54" s="7"/>
     </row>
     <row r="55" ht="18" customHeight="1" spans="1:12">
       <c r="A55" s="7"/>
       <c r="B55" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="C55" s="8" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="D55" s="7"/>
-      <c r="E55" s="7" t="s">
-        <v>210</v>
-      </c>
+      <c r="E55" s="7"/>
       <c r="F55" s="7"/>
       <c r="G55" s="7"/>
       <c r="H55" s="7"/>
-      <c r="I55" s="7"/>
-      <c r="J55" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="K55" s="13" t="s">
-        <v>212</v>
+      <c r="I55" s="11"/>
+      <c r="J55" s="11"/>
+      <c r="K55" s="7" t="s">
+        <v>217</v>
       </c>
       <c r="L55" s="7"/>
     </row>
     <row r="56" ht="18" customHeight="1" spans="1:12">
       <c r="A56" s="7"/>
       <c r="B56" s="7" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="C56" s="8" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="D56" s="7"/>
       <c r="E56" s="7"/>
       <c r="F56" s="7"/>
       <c r="G56" s="7"/>
       <c r="H56" s="7"/>
-      <c r="I56" s="7"/>
-      <c r="J56" s="7"/>
-      <c r="K56" s="13"/>
+      <c r="I56" s="11"/>
+      <c r="J56" s="11"/>
+      <c r="K56" s="7" t="s">
+        <v>220</v>
+      </c>
       <c r="L56" s="7"/>
     </row>
     <row r="57" ht="18" customHeight="1" spans="1:12">
@@ -3980,127 +4048,111 @@
       <c r="F57" s="7"/>
       <c r="G57" s="7"/>
       <c r="H57" s="7"/>
-      <c r="I57" s="7"/>
-      <c r="J57" s="7"/>
+      <c r="I57" s="11"/>
+      <c r="J57" s="11"/>
       <c r="K57" s="7"/>
       <c r="L57" s="7"/>
     </row>
     <row r="58" ht="18" customHeight="1" spans="1:12">
       <c r="A58" s="7"/>
       <c r="B58" s="7" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="C58" s="8" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="D58" s="7"/>
       <c r="E58" s="7"/>
       <c r="F58" s="7"/>
       <c r="G58" s="7"/>
       <c r="H58" s="7"/>
-      <c r="I58" s="7"/>
-      <c r="J58" s="11" t="s">
-        <v>218</v>
-      </c>
-      <c r="K58" s="11" t="s">
-        <v>199</v>
+      <c r="I58" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="J58" s="7"/>
+      <c r="K58" s="7" t="s">
+        <v>223</v>
       </c>
       <c r="L58" s="7"/>
     </row>
     <row r="59" ht="18" customHeight="1" spans="1:12">
       <c r="A59" s="7"/>
-      <c r="B59" s="11" t="s">
-        <v>219</v>
+      <c r="B59" s="10" t="s">
+        <v>224</v>
       </c>
       <c r="C59" s="8" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="D59" s="7"/>
-      <c r="E59" s="7"/>
+      <c r="E59" s="7" t="s">
+        <v>225</v>
+      </c>
       <c r="F59" s="7"/>
       <c r="G59" s="7"/>
       <c r="H59" s="7"/>
-      <c r="I59" s="7"/>
+      <c r="I59" s="11"/>
       <c r="J59" s="11" t="s">
-        <v>218</v>
-      </c>
-      <c r="K59" s="7" t="s">
-        <v>221</v>
+        <v>226</v>
+      </c>
+      <c r="K59" s="13" t="s">
+        <v>227</v>
       </c>
       <c r="L59" s="7"/>
     </row>
     <row r="60" ht="18" customHeight="1" spans="1:12">
       <c r="A60" s="7"/>
-      <c r="B60" s="7"/>
-      <c r="C60" s="8"/>
+      <c r="B60" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="C60" s="8" t="s">
+        <v>229</v>
+      </c>
       <c r="D60" s="7"/>
-      <c r="E60" s="7"/>
+      <c r="E60" s="7" t="s">
+        <v>225</v>
+      </c>
       <c r="F60" s="7"/>
       <c r="G60" s="7"/>
       <c r="H60" s="7"/>
       <c r="I60" s="7"/>
-      <c r="J60" s="7"/>
-      <c r="K60" s="7"/>
+      <c r="J60" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="K60" s="13" t="s">
+        <v>227</v>
+      </c>
       <c r="L60" s="7"/>
     </row>
     <row r="61" ht="18" customHeight="1" spans="1:12">
       <c r="A61" s="7"/>
       <c r="B61" s="7" t="s">
-        <v>222</v>
+        <v>230</v>
       </c>
       <c r="C61" s="8" t="s">
-        <v>223</v>
-      </c>
-      <c r="D61" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="E61" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="F61" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="G61" s="7" t="s">
-        <v>226</v>
-      </c>
+        <v>229</v>
+      </c>
+      <c r="D61" s="7"/>
+      <c r="E61" s="7"/>
+      <c r="F61" s="7"/>
+      <c r="G61" s="7"/>
       <c r="H61" s="7"/>
-      <c r="I61" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="J61" s="9" t="s">
-        <v>131</v>
-      </c>
-      <c r="K61" s="9" t="s">
-        <v>227</v>
-      </c>
+      <c r="I61" s="7"/>
+      <c r="J61" s="7"/>
+      <c r="K61" s="13"/>
       <c r="L61" s="7"/>
     </row>
     <row r="62" ht="18" customHeight="1" spans="1:12">
       <c r="A62" s="7"/>
-      <c r="B62" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="C62" s="8" t="s">
-        <v>229</v>
-      </c>
-      <c r="D62" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="E62" s="8" t="s">
-        <v>229</v>
-      </c>
+      <c r="B62" s="7"/>
+      <c r="C62" s="8"/>
+      <c r="D62" s="7"/>
+      <c r="E62" s="7"/>
       <c r="F62" s="7"/>
       <c r="G62" s="7"/>
       <c r="H62" s="7"/>
-      <c r="I62" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="J62" s="9" t="s">
-        <v>131</v>
-      </c>
-      <c r="K62" s="9" t="s">
-        <v>227</v>
-      </c>
+      <c r="I62" s="7"/>
+      <c r="J62" s="7"/>
+      <c r="K62" s="7"/>
       <c r="L62" s="7"/>
     </row>
     <row r="63" ht="18" customHeight="1" spans="1:12">
@@ -4120,84 +4172,94 @@
     <row r="64" ht="18" customHeight="1" spans="1:12">
       <c r="A64" s="7"/>
       <c r="B64" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C64" s="8" t="s">
-        <v>231</v>
-      </c>
-      <c r="D64" s="7"/>
-      <c r="E64" s="7"/>
-      <c r="F64" s="7"/>
-      <c r="G64" s="7"/>
+        <v>232</v>
+      </c>
+      <c r="D64" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E64" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="F64" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="G64" s="7" t="s">
+        <v>235</v>
+      </c>
       <c r="H64" s="7"/>
-      <c r="I64" s="7"/>
-      <c r="J64" s="7"/>
-      <c r="K64" s="7" t="s">
-        <v>230</v>
+      <c r="I64" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="J64" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="K64" s="9" t="s">
+        <v>236</v>
       </c>
       <c r="L64" s="7"/>
     </row>
     <row r="65" ht="18" customHeight="1" spans="1:12">
       <c r="A65" s="7"/>
-      <c r="B65" s="7"/>
-      <c r="C65" s="8"/>
-      <c r="D65" s="7"/>
-      <c r="E65" s="7"/>
+      <c r="B65" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="C65" s="8" t="s">
+        <v>238</v>
+      </c>
+      <c r="D65" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E65" s="8" t="s">
+        <v>238</v>
+      </c>
       <c r="F65" s="7"/>
       <c r="G65" s="7"/>
       <c r="H65" s="7"/>
-      <c r="I65" s="7"/>
-      <c r="J65" s="7"/>
-      <c r="K65" s="7"/>
+      <c r="I65" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="J65" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="K65" s="9" t="s">
+        <v>236</v>
+      </c>
       <c r="L65" s="7"/>
     </row>
     <row r="66" ht="18" customHeight="1" spans="1:12">
       <c r="A66" s="7"/>
-      <c r="B66" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="C66" s="8" t="s">
-        <v>233</v>
-      </c>
+      <c r="B66" s="7"/>
+      <c r="C66" s="8"/>
       <c r="D66" s="7"/>
-      <c r="E66" s="7" t="s">
-        <v>234</v>
-      </c>
+      <c r="E66" s="7"/>
       <c r="F66" s="7"/>
       <c r="G66" s="7"/>
       <c r="H66" s="7"/>
-      <c r="I66" s="7" t="s">
-        <v>235</v>
-      </c>
-      <c r="J66" s="7" t="s">
-        <v>236</v>
-      </c>
-      <c r="K66" s="7" t="s">
-        <v>237</v>
-      </c>
+      <c r="I66" s="7"/>
+      <c r="J66" s="7"/>
+      <c r="K66" s="7"/>
       <c r="L66" s="7"/>
     </row>
     <row r="67" ht="18" customHeight="1" spans="1:12">
       <c r="A67" s="7"/>
       <c r="B67" s="7" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C67" s="8" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D67" s="7"/>
-      <c r="E67" s="7" t="s">
-        <v>240</v>
-      </c>
+      <c r="E67" s="7"/>
       <c r="F67" s="7"/>
       <c r="G67" s="7"/>
       <c r="H67" s="7"/>
-      <c r="I67" s="7" t="s">
-        <v>241</v>
-      </c>
+      <c r="I67" s="7"/>
       <c r="J67" s="7"/>
       <c r="K67" s="7" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="L67" s="7"/>
     </row>
@@ -4217,72 +4279,76 @@
     </row>
     <row r="69" ht="18" customHeight="1" spans="1:12">
       <c r="A69" s="7"/>
-      <c r="B69" s="10" t="s">
+      <c r="B69" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="C69" s="8" t="s">
+        <v>242</v>
+      </c>
+      <c r="D69" s="7"/>
+      <c r="E69" s="7" t="s">
         <v>243</v>
       </c>
-      <c r="C69" s="8" t="s">
-        <v>244</v>
-      </c>
-      <c r="D69" s="7"/>
-      <c r="E69" s="7"/>
       <c r="F69" s="7"/>
       <c r="G69" s="7"/>
       <c r="H69" s="7"/>
-      <c r="I69" s="7"/>
-      <c r="J69" s="7"/>
+      <c r="I69" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="J69" s="7" t="s">
+        <v>245</v>
+      </c>
       <c r="K69" s="7" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="L69" s="7"/>
     </row>
     <row r="70" ht="18" customHeight="1" spans="1:12">
       <c r="A70" s="7"/>
       <c r="B70" s="7" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C70" s="8" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="D70" s="7"/>
-      <c r="E70" s="7"/>
+      <c r="E70" s="7" t="s">
+        <v>249</v>
+      </c>
       <c r="F70" s="7"/>
       <c r="G70" s="7"/>
       <c r="H70" s="7"/>
       <c r="I70" s="7" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="J70" s="7"/>
       <c r="K70" s="7" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="L70" s="7"/>
     </row>
     <row r="71" ht="18" customHeight="1" spans="1:12">
       <c r="A71" s="7"/>
-      <c r="B71" s="7" t="s">
-        <v>250</v>
-      </c>
-      <c r="C71" s="8" t="s">
-        <v>251</v>
-      </c>
+      <c r="B71" s="7"/>
+      <c r="C71" s="8"/>
       <c r="D71" s="7"/>
       <c r="E71" s="7"/>
       <c r="F71" s="7"/>
       <c r="G71" s="7"/>
       <c r="H71" s="7"/>
-      <c r="I71" s="7" t="s">
-        <v>252</v>
-      </c>
+      <c r="I71" s="7"/>
       <c r="J71" s="7"/>
-      <c r="K71" s="11" t="s">
-        <v>186</v>
-      </c>
+      <c r="K71" s="7"/>
       <c r="L71" s="7"/>
     </row>
     <row r="72" ht="18" customHeight="1" spans="1:12">
       <c r="A72" s="7"/>
-      <c r="B72" s="7"/>
-      <c r="C72" s="8"/>
+      <c r="B72" s="10" t="s">
+        <v>252</v>
+      </c>
+      <c r="C72" s="8" t="s">
+        <v>253</v>
+      </c>
       <c r="D72" s="7"/>
       <c r="E72" s="7"/>
       <c r="F72" s="7"/>
@@ -4290,96 +4356,78 @@
       <c r="H72" s="7"/>
       <c r="I72" s="7"/>
       <c r="J72" s="7"/>
-      <c r="K72" s="11"/>
+      <c r="K72" s="7" t="s">
+        <v>254</v>
+      </c>
       <c r="L72" s="7"/>
     </row>
     <row r="73" ht="18" customHeight="1" spans="1:12">
       <c r="A73" s="7"/>
       <c r="B73" s="7" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="C73" s="8" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="D73" s="7"/>
-      <c r="E73" s="7" t="s">
-        <v>255</v>
-      </c>
+      <c r="E73" s="7"/>
       <c r="F73" s="7"/>
       <c r="G73" s="7"/>
       <c r="H73" s="7"/>
       <c r="I73" s="7" t="s">
-        <v>256</v>
-      </c>
-      <c r="J73" s="7" t="s">
-        <v>211</v>
-      </c>
+        <v>257</v>
+      </c>
+      <c r="J73" s="7"/>
       <c r="K73" s="7" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="L73" s="7"/>
     </row>
     <row r="74" ht="18" customHeight="1" spans="1:12">
       <c r="A74" s="7"/>
       <c r="B74" s="7" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="C74" s="8" t="s">
-        <v>255</v>
-      </c>
-      <c r="D74" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="E74" s="7" t="s">
-        <v>255</v>
-      </c>
+        <v>260</v>
+      </c>
+      <c r="D74" s="7"/>
+      <c r="E74" s="7"/>
       <c r="F74" s="7"/>
       <c r="G74" s="7"/>
       <c r="H74" s="7"/>
       <c r="I74" s="7" t="s">
-        <v>258</v>
-      </c>
-      <c r="J74" s="7" t="s">
-        <v>259</v>
-      </c>
-      <c r="K74" s="7" t="s">
-        <v>260</v>
+        <v>261</v>
+      </c>
+      <c r="J74" s="7"/>
+      <c r="K74" s="11" t="s">
+        <v>187</v>
       </c>
       <c r="L74" s="7"/>
     </row>
     <row r="75" ht="18" customHeight="1" spans="1:12">
       <c r="A75" s="7"/>
-      <c r="B75" s="7" t="s">
-        <v>261</v>
-      </c>
-      <c r="C75" s="8" t="s">
-        <v>255</v>
-      </c>
+      <c r="B75" s="7"/>
+      <c r="C75" s="8"/>
       <c r="D75" s="7"/>
-      <c r="E75" s="7" t="s">
-        <v>255</v>
-      </c>
+      <c r="E75" s="7"/>
       <c r="F75" s="7"/>
       <c r="G75" s="7"/>
       <c r="H75" s="7"/>
       <c r="I75" s="7"/>
       <c r="J75" s="7"/>
-      <c r="K75" s="7" t="s">
-        <v>262</v>
-      </c>
+      <c r="K75" s="11"/>
       <c r="L75" s="7"/>
     </row>
     <row r="76" ht="18" customHeight="1" spans="1:12">
       <c r="A76" s="7"/>
       <c r="B76" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="C76" s="8" t="s">
         <v>263</v>
       </c>
-      <c r="C76" s="8" t="s">
-        <v>264</v>
-      </c>
-      <c r="D76" s="7" t="s">
-        <v>24</v>
-      </c>
+      <c r="D76" s="7"/>
       <c r="E76" s="7" t="s">
         <v>264</v>
       </c>
@@ -4390,45 +4438,51 @@
         <v>265</v>
       </c>
       <c r="J76" s="7" t="s">
-        <v>259</v>
+        <v>226</v>
       </c>
       <c r="K76" s="7" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="L76" s="7"/>
     </row>
     <row r="77" ht="18" customHeight="1" spans="1:12">
       <c r="A77" s="7"/>
       <c r="B77" s="7" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C77" s="8" t="s">
         <v>264</v>
       </c>
-      <c r="D77" s="7"/>
-      <c r="E77" s="8" t="s">
+      <c r="D77" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E77" s="7" t="s">
         <v>264</v>
       </c>
       <c r="F77" s="7"/>
       <c r="G77" s="7"/>
       <c r="H77" s="7"/>
-      <c r="I77" s="7"/>
-      <c r="J77" s="7"/>
+      <c r="I77" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="J77" s="7" t="s">
+        <v>268</v>
+      </c>
       <c r="K77" s="7" t="s">
-        <v>212</v>
+        <v>269</v>
       </c>
       <c r="L77" s="7"/>
     </row>
     <row r="78" ht="18" customHeight="1" spans="1:12">
       <c r="A78" s="7"/>
       <c r="B78" s="7" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="C78" s="8" t="s">
         <v>264</v>
       </c>
       <c r="D78" s="7"/>
-      <c r="E78" s="8" t="s">
+      <c r="E78" s="7" t="s">
         <v>264</v>
       </c>
       <c r="F78" s="7"/>
@@ -4437,127 +4491,133 @@
       <c r="I78" s="7"/>
       <c r="J78" s="7"/>
       <c r="K78" s="7" t="s">
-        <v>205</v>
+        <v>271</v>
       </c>
       <c r="L78" s="7"/>
     </row>
     <row r="79" ht="18" customHeight="1" spans="1:12">
       <c r="A79" s="7"/>
       <c r="B79" s="7" t="s">
-        <v>269</v>
-      </c>
-      <c r="C79" s="12" t="s">
-        <v>270</v>
-      </c>
-      <c r="D79" s="7"/>
-      <c r="E79" s="7"/>
+        <v>272</v>
+      </c>
+      <c r="C79" s="8" t="s">
+        <v>273</v>
+      </c>
+      <c r="D79" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E79" s="7" t="s">
+        <v>273</v>
+      </c>
       <c r="F79" s="7"/>
       <c r="G79" s="7"/>
       <c r="H79" s="7"/>
-      <c r="I79" s="7"/>
-      <c r="J79" s="7"/>
+      <c r="I79" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="J79" s="7" t="s">
+        <v>268</v>
+      </c>
       <c r="K79" s="7" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="L79" s="7"/>
     </row>
     <row r="80" ht="18" customHeight="1" spans="1:12">
       <c r="A80" s="7"/>
-      <c r="B80" s="10" t="s">
-        <v>272</v>
-      </c>
-      <c r="C80" s="12" t="s">
+      <c r="B80" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="C80" s="8" t="s">
         <v>273</v>
       </c>
       <c r="D80" s="7"/>
-      <c r="E80" s="7" t="s">
-        <v>255</v>
+      <c r="E80" s="8" t="s">
+        <v>273</v>
       </c>
       <c r="F80" s="7"/>
       <c r="G80" s="7"/>
       <c r="H80" s="7"/>
       <c r="I80" s="7"/>
       <c r="J80" s="7"/>
-      <c r="K80" s="13" t="s">
-        <v>274</v>
+      <c r="K80" s="7" t="s">
+        <v>227</v>
       </c>
       <c r="L80" s="7"/>
     </row>
     <row r="81" ht="18" customHeight="1" spans="1:12">
       <c r="A81" s="7"/>
       <c r="B81" s="7" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="C81" s="8" t="s">
-        <v>276</v>
-      </c>
-      <c r="D81" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="E81" s="7" t="s">
-        <v>277</v>
-      </c>
-      <c r="F81" s="7" t="s">
-        <v>278</v>
-      </c>
+        <v>273</v>
+      </c>
+      <c r="D81" s="7"/>
+      <c r="E81" s="8" t="s">
+        <v>273</v>
+      </c>
+      <c r="F81" s="7"/>
       <c r="G81" s="7"/>
       <c r="H81" s="7"/>
-      <c r="I81" s="7" t="s">
-        <v>279</v>
-      </c>
-      <c r="J81" s="7" t="s">
-        <v>280</v>
-      </c>
+      <c r="I81" s="7"/>
+      <c r="J81" s="7"/>
       <c r="K81" s="7" t="s">
-        <v>281</v>
+        <v>220</v>
       </c>
       <c r="L81" s="7"/>
     </row>
     <row r="82" ht="18" customHeight="1" spans="1:12">
       <c r="A82" s="7"/>
-      <c r="B82" s="7"/>
-      <c r="C82" s="8"/>
+      <c r="B82" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="C82" s="8" t="s">
+        <v>273</v>
+      </c>
       <c r="D82" s="7"/>
-      <c r="E82" s="7"/>
+      <c r="E82" s="8" t="s">
+        <v>273</v>
+      </c>
       <c r="F82" s="7"/>
       <c r="G82" s="7"/>
       <c r="H82" s="7"/>
       <c r="I82" s="7"/>
       <c r="J82" s="7"/>
-      <c r="K82" s="7"/>
+      <c r="K82" s="7" t="s">
+        <v>279</v>
+      </c>
       <c r="L82" s="7"/>
     </row>
     <row r="83" ht="18" customHeight="1" spans="1:12">
       <c r="A83" s="7"/>
       <c r="B83" s="7" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="C83" s="8" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="D83" s="7"/>
-      <c r="E83" s="7"/>
+      <c r="E83" s="8" t="s">
+        <v>273</v>
+      </c>
       <c r="F83" s="7"/>
       <c r="G83" s="7"/>
       <c r="H83" s="7"/>
-      <c r="I83" s="7" t="s">
-        <v>284</v>
-      </c>
-      <c r="J83" s="2" t="s">
-        <v>285</v>
-      </c>
+      <c r="I83" s="7"/>
+      <c r="J83" s="7"/>
       <c r="K83" s="7" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="L83" s="7"/>
     </row>
     <row r="84" ht="18" customHeight="1" spans="1:12">
       <c r="A84" s="7"/>
       <c r="B84" s="7" t="s">
-        <v>287</v>
-      </c>
-      <c r="C84" s="8" t="s">
-        <v>288</v>
+        <v>283</v>
+      </c>
+      <c r="C84" s="12" t="s">
+        <v>284</v>
       </c>
       <c r="D84" s="7"/>
       <c r="E84" s="7"/>
@@ -4567,37 +4627,39 @@
       <c r="I84" s="7"/>
       <c r="J84" s="7"/>
       <c r="K84" s="7" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="L84" s="7"/>
     </row>
     <row r="85" ht="18" customHeight="1" spans="1:12">
       <c r="A85" s="7"/>
-      <c r="B85" s="7" t="s">
-        <v>290</v>
-      </c>
-      <c r="C85" s="8" t="s">
-        <v>291</v>
+      <c r="B85" s="10" t="s">
+        <v>286</v>
+      </c>
+      <c r="C85" s="12" t="s">
+        <v>287</v>
       </c>
       <c r="D85" s="7"/>
-      <c r="E85" s="7"/>
+      <c r="E85" s="7" t="s">
+        <v>264</v>
+      </c>
       <c r="F85" s="7"/>
       <c r="G85" s="7"/>
       <c r="H85" s="7"/>
       <c r="I85" s="7"/>
       <c r="J85" s="7"/>
-      <c r="K85" s="11" t="s">
-        <v>186</v>
+      <c r="K85" s="13" t="s">
+        <v>288</v>
       </c>
       <c r="L85" s="7"/>
     </row>
     <row r="86" ht="18" customHeight="1" spans="1:12">
       <c r="A86" s="7"/>
-      <c r="B86" s="7" t="s">
-        <v>292</v>
-      </c>
-      <c r="C86" s="8" t="s">
-        <v>293</v>
+      <c r="B86" s="10" t="s">
+        <v>289</v>
+      </c>
+      <c r="C86" s="12" t="s">
+        <v>290</v>
       </c>
       <c r="D86" s="7"/>
       <c r="E86" s="7"/>
@@ -4605,43 +4667,46 @@
       <c r="G86" s="7"/>
       <c r="H86" s="7"/>
       <c r="I86" s="7"/>
-      <c r="K86" s="11" t="s">
-        <v>289</v>
+      <c r="J86" s="7"/>
+      <c r="K86" s="13" t="s">
+        <v>291</v>
       </c>
       <c r="L86" s="7"/>
     </row>
     <row r="87" ht="18" customHeight="1" spans="1:12">
       <c r="A87" s="7"/>
-      <c r="B87" s="8" t="s">
+      <c r="B87" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="C87" s="8" t="s">
+        <v>293</v>
+      </c>
+      <c r="D87" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E87" s="7" t="s">
         <v>294</v>
       </c>
-      <c r="C87" s="8" t="s">
+      <c r="F87" s="7" t="s">
         <v>295</v>
       </c>
-      <c r="D87" s="7"/>
-      <c r="E87" s="7"/>
-      <c r="F87" s="7"/>
       <c r="G87" s="7"/>
       <c r="H87" s="7"/>
       <c r="I87" s="7" t="s">
         <v>296</v>
       </c>
-      <c r="J87" s="2" t="s">
-        <v>285</v>
-      </c>
-      <c r="K87" s="11" t="s">
-        <v>294</v>
+      <c r="J87" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="K87" s="7" t="s">
+        <v>298</v>
       </c>
       <c r="L87" s="7"/>
     </row>
     <row r="88" ht="18" customHeight="1" spans="1:12">
       <c r="A88" s="7"/>
-      <c r="B88" s="7" t="s">
-        <v>297</v>
-      </c>
-      <c r="C88" s="12" t="s">
-        <v>298</v>
-      </c>
+      <c r="B88" s="7"/>
+      <c r="C88" s="8"/>
       <c r="D88" s="7"/>
       <c r="E88" s="7"/>
       <c r="F88" s="7"/>
@@ -4649,18 +4714,16 @@
       <c r="H88" s="7"/>
       <c r="I88" s="7"/>
       <c r="J88" s="7"/>
-      <c r="K88" s="11" t="s">
-        <v>299</v>
-      </c>
+      <c r="K88" s="7"/>
       <c r="L88" s="7"/>
     </row>
     <row r="89" ht="18" customHeight="1" spans="1:12">
       <c r="A89" s="7"/>
       <c r="B89" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="C89" s="8" t="s">
         <v>300</v>
-      </c>
-      <c r="C89" s="8" t="s">
-        <v>301</v>
       </c>
       <c r="D89" s="7"/>
       <c r="E89" s="7"/>
@@ -4668,10 +4731,12 @@
       <c r="G89" s="7"/>
       <c r="H89" s="7"/>
       <c r="I89" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="J89" s="2" t="s">
         <v>302</v>
       </c>
-      <c r="J89" s="7"/>
-      <c r="K89" s="11" t="s">
+      <c r="K89" s="7" t="s">
         <v>303</v>
       </c>
       <c r="L89" s="7"/>
@@ -4691,14 +4756,14 @@
       <c r="H90" s="7"/>
       <c r="I90" s="7"/>
       <c r="J90" s="7"/>
-      <c r="K90" s="11" t="s">
+      <c r="K90" s="7" t="s">
         <v>306</v>
       </c>
       <c r="L90" s="7"/>
     </row>
     <row r="91" ht="18" customHeight="1" spans="1:12">
       <c r="A91" s="7"/>
-      <c r="B91" s="11" t="s">
+      <c r="B91" s="7" t="s">
         <v>307</v>
       </c>
       <c r="C91" s="8" t="s">
@@ -4712,60 +4777,61 @@
       <c r="I91" s="7"/>
       <c r="J91" s="7"/>
       <c r="K91" s="11" t="s">
-        <v>309</v>
+        <v>187</v>
       </c>
       <c r="L91" s="7"/>
     </row>
     <row r="92" ht="18" customHeight="1" spans="1:12">
       <c r="A92" s="7"/>
       <c r="B92" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="C92" s="8" t="s">
         <v>310</v>
       </c>
-      <c r="C92" s="8" t="s">
-        <v>311</v>
-      </c>
       <c r="D92" s="7"/>
-      <c r="E92" s="7" t="s">
-        <v>312</v>
-      </c>
+      <c r="E92" s="7"/>
       <c r="F92" s="7"/>
       <c r="G92" s="7"/>
       <c r="H92" s="7"/>
       <c r="I92" s="7"/>
-      <c r="J92" s="7" t="s">
-        <v>313</v>
-      </c>
-      <c r="K92" s="7" t="s">
+      <c r="K92" s="11" t="s">
         <v>306</v>
       </c>
       <c r="L92" s="7"/>
     </row>
     <row r="93" ht="18" customHeight="1" spans="1:12">
       <c r="A93" s="7"/>
-      <c r="B93" s="7" t="s">
-        <v>314</v>
+      <c r="B93" s="8" t="s">
+        <v>311</v>
       </c>
       <c r="C93" s="8" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="D93" s="7"/>
       <c r="E93" s="7"/>
       <c r="F93" s="7"/>
       <c r="G93" s="7"/>
       <c r="H93" s="7"/>
-      <c r="I93" s="7"/>
-      <c r="J93" s="7"/>
-      <c r="K93" s="7" t="s">
-        <v>316</v>
+      <c r="I93" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="J93" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="K93" s="11" t="s">
+        <v>311</v>
       </c>
       <c r="L93" s="7"/>
     </row>
     <row r="94" ht="18" customHeight="1" spans="1:12">
       <c r="A94" s="7"/>
       <c r="B94" s="7" t="s">
-        <v>317</v>
-      </c>
-      <c r="C94" s="8"/>
+        <v>314</v>
+      </c>
+      <c r="C94" s="12" t="s">
+        <v>315</v>
+      </c>
       <c r="D94" s="7"/>
       <c r="E94" s="7"/>
       <c r="F94" s="7"/>
@@ -4773,32 +4839,40 @@
       <c r="H94" s="7"/>
       <c r="I94" s="7"/>
       <c r="J94" s="7"/>
-      <c r="K94" s="7" t="s">
-        <v>318</v>
+      <c r="K94" s="11" t="s">
+        <v>316</v>
       </c>
       <c r="L94" s="7"/>
     </row>
     <row r="95" ht="18" customHeight="1" spans="1:12">
       <c r="A95" s="7"/>
-      <c r="B95" s="7"/>
-      <c r="C95" s="8"/>
+      <c r="B95" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="C95" s="8" t="s">
+        <v>318</v>
+      </c>
       <c r="D95" s="7"/>
       <c r="E95" s="7"/>
       <c r="F95" s="7"/>
       <c r="G95" s="7"/>
       <c r="H95" s="7"/>
-      <c r="I95" s="7"/>
+      <c r="I95" s="7" t="s">
+        <v>319</v>
+      </c>
       <c r="J95" s="7"/>
-      <c r="K95" s="7"/>
+      <c r="K95" s="11" t="s">
+        <v>320</v>
+      </c>
       <c r="L95" s="7"/>
     </row>
     <row r="96" ht="18" customHeight="1" spans="1:12">
       <c r="A96" s="7"/>
       <c r="B96" s="7" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="C96" s="8" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="D96" s="7"/>
       <c r="E96" s="7"/>
@@ -4807,18 +4881,18 @@
       <c r="H96" s="7"/>
       <c r="I96" s="7"/>
       <c r="J96" s="7"/>
-      <c r="K96" s="7" t="s">
-        <v>321</v>
+      <c r="K96" s="11" t="s">
+        <v>323</v>
       </c>
       <c r="L96" s="7"/>
     </row>
     <row r="97" ht="18" customHeight="1" spans="1:12">
       <c r="A97" s="7"/>
-      <c r="B97" s="7" t="s">
-        <v>322</v>
+      <c r="B97" s="11" t="s">
+        <v>324</v>
       </c>
       <c r="C97" s="8" t="s">
-        <v>320</v>
+        <v>325</v>
       </c>
       <c r="D97" s="7"/>
       <c r="E97" s="7"/>
@@ -4827,32 +4901,42 @@
       <c r="H97" s="7"/>
       <c r="I97" s="7"/>
       <c r="J97" s="7"/>
-      <c r="K97" s="7" t="s">
-        <v>323</v>
+      <c r="K97" s="11" t="s">
+        <v>326</v>
       </c>
       <c r="L97" s="7"/>
     </row>
     <row r="98" ht="18" customHeight="1" spans="1:12">
       <c r="A98" s="7"/>
-      <c r="B98" s="7"/>
-      <c r="C98" s="8"/>
+      <c r="B98" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="C98" s="8" t="s">
+        <v>328</v>
+      </c>
       <c r="D98" s="7"/>
-      <c r="E98" s="7"/>
+      <c r="E98" s="7" t="s">
+        <v>329</v>
+      </c>
       <c r="F98" s="7"/>
       <c r="G98" s="7"/>
       <c r="H98" s="7"/>
       <c r="I98" s="7"/>
-      <c r="J98" s="7"/>
-      <c r="K98" s="7"/>
+      <c r="J98" s="7" t="s">
+        <v>330</v>
+      </c>
+      <c r="K98" s="7" t="s">
+        <v>323</v>
+      </c>
       <c r="L98" s="7"/>
     </row>
     <row r="99" ht="18" customHeight="1" spans="1:12">
       <c r="A99" s="7"/>
       <c r="B99" s="7" t="s">
-        <v>324</v>
+        <v>331</v>
       </c>
       <c r="C99" s="8" t="s">
-        <v>325</v>
+        <v>332</v>
       </c>
       <c r="D99" s="7"/>
       <c r="E99" s="7"/>
@@ -4862,13 +4946,15 @@
       <c r="I99" s="7"/>
       <c r="J99" s="7"/>
       <c r="K99" s="7" t="s">
-        <v>326</v>
+        <v>333</v>
       </c>
       <c r="L99" s="7"/>
     </row>
     <row r="100" ht="18" customHeight="1" spans="1:12">
       <c r="A100" s="7"/>
-      <c r="B100" s="7"/>
+      <c r="B100" s="7" t="s">
+        <v>334</v>
+      </c>
       <c r="C100" s="8"/>
       <c r="D100" s="7"/>
       <c r="E100" s="7"/>
@@ -4877,17 +4963,17 @@
       <c r="H100" s="7"/>
       <c r="I100" s="7"/>
       <c r="J100" s="7"/>
-      <c r="K100" s="7"/>
+      <c r="K100" s="7" t="s">
+        <v>335</v>
+      </c>
       <c r="L100" s="7"/>
     </row>
     <row r="101" ht="18" customHeight="1" spans="1:12">
       <c r="A101" s="7"/>
       <c r="B101" s="7" t="s">
-        <v>327</v>
-      </c>
-      <c r="C101" s="8" t="s">
-        <v>328</v>
-      </c>
+        <v>336</v>
+      </c>
+      <c r="C101" s="8"/>
       <c r="D101" s="7"/>
       <c r="E101" s="7"/>
       <c r="F101" s="7"/>
@@ -4895,136 +4981,96 @@
       <c r="H101" s="7"/>
       <c r="I101" s="7"/>
       <c r="J101" s="7"/>
-      <c r="K101" s="7"/>
+      <c r="K101" s="7" t="s">
+        <v>337</v>
+      </c>
       <c r="L101" s="7"/>
     </row>
     <row r="102" ht="18" customHeight="1" spans="1:12">
       <c r="A102" s="7"/>
-      <c r="B102" s="7" t="s">
-        <v>329</v>
-      </c>
-      <c r="C102" s="8" t="s">
-        <v>330</v>
-      </c>
+      <c r="B102" s="7"/>
+      <c r="C102" s="8"/>
       <c r="D102" s="7"/>
-      <c r="E102" s="7" t="s">
-        <v>331</v>
-      </c>
+      <c r="E102" s="7"/>
       <c r="F102" s="7"/>
       <c r="G102" s="7"/>
       <c r="H102" s="7"/>
-      <c r="I102" s="7" t="s">
-        <v>331</v>
-      </c>
-      <c r="J102" s="7" t="s">
-        <v>332</v>
-      </c>
-      <c r="K102" s="7" t="s">
-        <v>333</v>
-      </c>
-      <c r="L102" s="14" t="s">
-        <v>334</v>
-      </c>
+      <c r="I102" s="7"/>
+      <c r="J102" s="7"/>
+      <c r="K102" s="7"/>
+      <c r="L102" s="7"/>
     </row>
     <row r="103" ht="18" customHeight="1" spans="1:12">
       <c r="A103" s="7"/>
       <c r="B103" s="7" t="s">
-        <v>329</v>
+        <v>338</v>
       </c>
       <c r="C103" s="8" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="D103" s="7"/>
-      <c r="E103" s="7" t="s">
-        <v>331</v>
-      </c>
+      <c r="E103" s="7"/>
       <c r="F103" s="7"/>
       <c r="G103" s="7"/>
       <c r="H103" s="7"/>
-      <c r="I103" s="7" t="s">
-        <v>331</v>
-      </c>
-      <c r="J103" s="7" t="s">
-        <v>336</v>
-      </c>
+      <c r="I103" s="7"/>
+      <c r="J103" s="7"/>
       <c r="K103" s="7" t="s">
-        <v>333</v>
-      </c>
-      <c r="L103" s="15" t="s">
-        <v>337</v>
-      </c>
+        <v>340</v>
+      </c>
+      <c r="L103" s="7"/>
     </row>
     <row r="104" ht="18" customHeight="1" spans="1:12">
       <c r="A104" s="7"/>
       <c r="B104" s="7" t="s">
-        <v>329</v>
+        <v>341</v>
       </c>
       <c r="C104" s="8" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="D104" s="7"/>
       <c r="E104" s="7"/>
       <c r="F104" s="7"/>
       <c r="G104" s="7"/>
       <c r="H104" s="7"/>
-      <c r="I104" s="7" t="s">
-        <v>331</v>
-      </c>
-      <c r="J104" s="7" t="s">
-        <v>332</v>
-      </c>
+      <c r="I104" s="7"/>
+      <c r="J104" s="7"/>
       <c r="K104" s="7" t="s">
-        <v>339</v>
-      </c>
-      <c r="L104" s="15" t="s">
-        <v>340</v>
-      </c>
+        <v>342</v>
+      </c>
+      <c r="L104" s="7"/>
     </row>
     <row r="105" ht="18" customHeight="1" spans="1:12">
       <c r="A105" s="7"/>
-      <c r="B105" s="7" t="s">
-        <v>341</v>
-      </c>
-      <c r="C105" s="8" t="s">
-        <v>342</v>
-      </c>
+      <c r="B105" s="7"/>
+      <c r="C105" s="8"/>
       <c r="D105" s="7"/>
-      <c r="E105" s="7" t="s">
-        <v>331</v>
-      </c>
+      <c r="E105" s="7"/>
       <c r="F105" s="7"/>
       <c r="G105" s="7"/>
       <c r="H105" s="7"/>
-      <c r="I105" s="7" t="s">
-        <v>331</v>
-      </c>
+      <c r="I105" s="7"/>
       <c r="J105" s="7"/>
-      <c r="K105" s="7" t="s">
-        <v>343</v>
-      </c>
+      <c r="K105" s="7"/>
       <c r="L105" s="7"/>
     </row>
     <row r="106" ht="18" customHeight="1" spans="1:12">
       <c r="A106" s="7"/>
       <c r="B106" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="C106" s="8" t="s">
         <v>344</v>
       </c>
-      <c r="C106" s="8" t="s">
-        <v>345</v>
-      </c>
       <c r="D106" s="7"/>
-      <c r="E106" s="7" t="s">
-        <v>331</v>
-      </c>
+      <c r="E106" s="7"/>
       <c r="F106" s="7"/>
       <c r="G106" s="7"/>
       <c r="H106" s="7"/>
-      <c r="I106" s="7" t="s">
-        <v>331</v>
-      </c>
+      <c r="I106" s="7"/>
       <c r="J106" s="7"/>
       <c r="K106" s="7" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="L106" s="7"/>
     </row>
@@ -5044,8 +5090,12 @@
     </row>
     <row r="108" ht="18" customHeight="1" spans="1:12">
       <c r="A108" s="7"/>
-      <c r="B108" s="7"/>
-      <c r="C108" s="8"/>
+      <c r="B108" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="C108" s="8" t="s">
+        <v>347</v>
+      </c>
       <c r="D108" s="7"/>
       <c r="E108" s="7"/>
       <c r="F108" s="7"/>
@@ -5058,189 +5108,204 @@
     </row>
     <row r="109" ht="18" customHeight="1" spans="1:12">
       <c r="A109" s="7"/>
-      <c r="B109" s="11" t="s">
-        <v>347</v>
-      </c>
-      <c r="C109" s="12" t="s">
+      <c r="B109" s="7" t="s">
         <v>348</v>
       </c>
+      <c r="C109" s="8" t="s">
+        <v>349</v>
+      </c>
       <c r="D109" s="7"/>
-      <c r="E109" s="7"/>
+      <c r="E109" s="7" t="s">
+        <v>350</v>
+      </c>
       <c r="F109" s="7"/>
       <c r="G109" s="7"/>
       <c r="H109" s="7"/>
-      <c r="I109" s="11" t="s">
-        <v>349</v>
-      </c>
-      <c r="J109" s="7"/>
-      <c r="K109" s="11" t="s">
-        <v>349</v>
-      </c>
-      <c r="L109" s="15" t="s">
+      <c r="I109" s="7" t="s">
         <v>350</v>
+      </c>
+      <c r="J109" s="7" t="s">
+        <v>351</v>
+      </c>
+      <c r="K109" s="7" t="s">
+        <v>352</v>
+      </c>
+      <c r="L109" s="14" t="s">
+        <v>353</v>
       </c>
     </row>
     <row r="110" ht="18" customHeight="1" spans="1:12">
       <c r="A110" s="7"/>
       <c r="B110" s="7" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="C110" s="8" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="D110" s="7"/>
-      <c r="E110" s="7"/>
+      <c r="E110" s="7" t="s">
+        <v>350</v>
+      </c>
       <c r="F110" s="7"/>
       <c r="G110" s="7"/>
       <c r="H110" s="7"/>
-      <c r="I110" s="7"/>
-      <c r="J110" s="7"/>
-      <c r="K110" s="11" t="s">
-        <v>353</v>
-      </c>
-      <c r="L110" s="7"/>
+      <c r="I110" s="7" t="s">
+        <v>350</v>
+      </c>
+      <c r="J110" s="7" t="s">
+        <v>355</v>
+      </c>
+      <c r="K110" s="7" t="s">
+        <v>352</v>
+      </c>
+      <c r="L110" s="15" t="s">
+        <v>356</v>
+      </c>
     </row>
     <row r="111" ht="18" customHeight="1" spans="1:12">
       <c r="A111" s="7"/>
       <c r="B111" s="7" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="C111" s="8" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="D111" s="7"/>
       <c r="E111" s="7"/>
       <c r="F111" s="7"/>
       <c r="G111" s="7"/>
       <c r="H111" s="7"/>
-      <c r="I111" s="7"/>
-      <c r="J111" s="7"/>
-      <c r="K111" s="7"/>
-      <c r="L111" s="7"/>
+      <c r="I111" s="7" t="s">
+        <v>350</v>
+      </c>
+      <c r="J111" s="7" t="s">
+        <v>351</v>
+      </c>
+      <c r="K111" s="7" t="s">
+        <v>358</v>
+      </c>
+      <c r="L111" s="15" t="s">
+        <v>359</v>
+      </c>
     </row>
     <row r="112" ht="18" customHeight="1" spans="1:12">
       <c r="A112" s="7"/>
       <c r="B112" s="7" t="s">
-        <v>356</v>
-      </c>
-      <c r="C112" s="12" t="s">
-        <v>357</v>
+        <v>360</v>
+      </c>
+      <c r="C112" s="8" t="s">
+        <v>361</v>
       </c>
       <c r="D112" s="7"/>
-      <c r="E112" s="7"/>
+      <c r="E112" s="7" t="s">
+        <v>350</v>
+      </c>
       <c r="F112" s="7"/>
       <c r="G112" s="7"/>
       <c r="H112" s="7"/>
-      <c r="I112" s="7"/>
+      <c r="I112" s="7" t="s">
+        <v>350</v>
+      </c>
       <c r="J112" s="7"/>
       <c r="K112" s="7" t="s">
-        <v>356</v>
+        <v>362</v>
       </c>
       <c r="L112" s="7"/>
     </row>
     <row r="113" ht="18" customHeight="1" spans="1:12">
       <c r="A113" s="7"/>
       <c r="B113" s="7" t="s">
-        <v>358</v>
+        <v>363</v>
       </c>
       <c r="C113" s="8" t="s">
-        <v>359</v>
+        <v>364</v>
       </c>
       <c r="D113" s="7"/>
-      <c r="E113" s="7"/>
+      <c r="E113" s="7" t="s">
+        <v>350</v>
+      </c>
       <c r="F113" s="7"/>
       <c r="G113" s="7"/>
       <c r="H113" s="7"/>
-      <c r="I113" s="7"/>
+      <c r="I113" s="7" t="s">
+        <v>350</v>
+      </c>
       <c r="J113" s="7"/>
-      <c r="K113" s="11" t="s">
-        <v>360</v>
+      <c r="K113" s="7" t="s">
+        <v>365</v>
       </c>
       <c r="L113" s="7"/>
     </row>
     <row r="114" ht="18" customHeight="1" spans="1:12">
       <c r="A114" s="7"/>
-      <c r="B114" s="11" t="s">
-        <v>361</v>
-      </c>
-      <c r="C114" s="12" t="s">
-        <v>362</v>
-      </c>
+      <c r="B114" s="7"/>
+      <c r="C114" s="8"/>
       <c r="D114" s="7"/>
       <c r="E114" s="7"/>
       <c r="F114" s="7"/>
       <c r="G114" s="7"/>
       <c r="H114" s="7"/>
-      <c r="I114" s="7" t="s">
-        <v>363</v>
-      </c>
+      <c r="I114" s="7"/>
       <c r="J114" s="7"/>
-      <c r="K114" s="7" t="s">
-        <v>363</v>
-      </c>
+      <c r="K114" s="7"/>
       <c r="L114" s="7"/>
     </row>
-    <row r="115" ht="18" customHeight="1" spans="1:13">
+    <row r="115" ht="18" customHeight="1" spans="1:12">
       <c r="A115" s="7"/>
-      <c r="B115" s="11" t="s">
-        <v>364</v>
-      </c>
-      <c r="C115" s="12" t="s">
-        <v>365</v>
+      <c r="B115" s="7" t="s">
+        <v>366</v>
+      </c>
+      <c r="C115" s="8" t="s">
+        <v>367</v>
       </c>
       <c r="D115" s="7"/>
-      <c r="E115" s="7" t="s">
-        <v>366</v>
-      </c>
+      <c r="E115" s="7"/>
       <c r="F115" s="7"/>
       <c r="G115" s="7"/>
       <c r="H115" s="7"/>
       <c r="I115" s="7" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="J115" s="7"/>
       <c r="K115" s="7" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="L115" s="7"/>
-      <c r="M115" s="16" t="s">
-        <v>369</v>
-      </c>
     </row>
     <row r="116" ht="18" customHeight="1" spans="1:12">
       <c r="A116" s="7"/>
-      <c r="B116" s="7"/>
-      <c r="C116" s="8"/>
+      <c r="B116" s="7" t="s">
+        <v>370</v>
+      </c>
+      <c r="C116" s="8" t="s">
+        <v>371</v>
+      </c>
       <c r="D116" s="7"/>
       <c r="E116" s="7"/>
       <c r="F116" s="7"/>
       <c r="G116" s="7"/>
       <c r="H116" s="7"/>
-      <c r="I116" s="7"/>
+      <c r="I116" s="7" t="s">
+        <v>372</v>
+      </c>
       <c r="J116" s="7"/>
-      <c r="K116" s="7"/>
+      <c r="K116" s="7" t="s">
+        <v>373</v>
+      </c>
       <c r="L116" s="7"/>
     </row>
     <row r="117" ht="18" customHeight="1" spans="1:12">
       <c r="A117" s="7"/>
-      <c r="B117" s="7" t="s">
-        <v>370</v>
-      </c>
-      <c r="C117" s="8" t="s">
-        <v>371</v>
-      </c>
+      <c r="B117" s="7"/>
+      <c r="C117" s="8"/>
       <c r="D117" s="7"/>
       <c r="E117" s="7"/>
       <c r="F117" s="7"/>
       <c r="G117" s="7"/>
       <c r="H117" s="7"/>
-      <c r="I117" s="7" t="s">
-        <v>372</v>
-      </c>
+      <c r="I117" s="7"/>
       <c r="J117" s="7"/>
-      <c r="K117" s="7" t="s">
-        <v>373</v>
-      </c>
+      <c r="K117" s="7"/>
       <c r="L117" s="7"/>
     </row>
     <row r="118" ht="18" customHeight="1" spans="1:12">
@@ -5256,14 +5321,14 @@
       <c r="F118" s="7"/>
       <c r="G118" s="7"/>
       <c r="H118" s="7"/>
-      <c r="I118" s="7" t="s">
-        <v>376</v>
-      </c>
+      <c r="I118" s="7"/>
       <c r="J118" s="7"/>
       <c r="K118" s="7" t="s">
+        <v>376</v>
+      </c>
+      <c r="L118" s="15" t="s">
         <v>377</v>
       </c>
-      <c r="L118" s="7"/>
     </row>
     <row r="119" ht="18" customHeight="1" spans="1:12">
       <c r="A119" s="7"/>
@@ -5303,8 +5368,12 @@
     </row>
     <row r="121" ht="18" customHeight="1" spans="1:12">
       <c r="A121" s="7"/>
-      <c r="B121" s="7"/>
-      <c r="C121" s="8"/>
+      <c r="B121" s="7" t="s">
+        <v>382</v>
+      </c>
+      <c r="C121" s="8" t="s">
+        <v>379</v>
+      </c>
       <c r="D121" s="7"/>
       <c r="E121" s="7"/>
       <c r="F121" s="7"/>
@@ -5312,13 +5381,21 @@
       <c r="H121" s="7"/>
       <c r="I121" s="7"/>
       <c r="J121" s="7"/>
-      <c r="K121" s="7"/>
-      <c r="L121" s="7"/>
+      <c r="K121" s="7" t="s">
+        <v>383</v>
+      </c>
+      <c r="L121" s="15" t="s">
+        <v>381</v>
+      </c>
     </row>
     <row r="122" ht="18" customHeight="1" spans="1:12">
       <c r="A122" s="7"/>
-      <c r="B122" s="7"/>
-      <c r="C122" s="8"/>
+      <c r="B122" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="C122" s="8" t="s">
+        <v>385</v>
+      </c>
       <c r="D122" s="7"/>
       <c r="E122" s="7"/>
       <c r="F122" s="7"/>
@@ -5326,8 +5403,12 @@
       <c r="H122" s="7"/>
       <c r="I122" s="7"/>
       <c r="J122" s="7"/>
-      <c r="K122" s="7"/>
-      <c r="L122" s="7"/>
+      <c r="K122" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="L122" s="7" t="s">
+        <v>386</v>
+      </c>
     </row>
     <row r="123" ht="18" customHeight="1" spans="1:12">
       <c r="A123" s="7"/>
@@ -5345,22 +5426,36 @@
     </row>
     <row r="124" ht="18" customHeight="1" spans="1:12">
       <c r="A124" s="7"/>
-      <c r="B124" s="7"/>
-      <c r="C124" s="8"/>
+      <c r="B124" s="11" t="s">
+        <v>387</v>
+      </c>
+      <c r="C124" s="12" t="s">
+        <v>388</v>
+      </c>
       <c r="D124" s="7"/>
       <c r="E124" s="7"/>
       <c r="F124" s="7"/>
       <c r="G124" s="7"/>
       <c r="H124" s="7"/>
-      <c r="I124" s="7"/>
+      <c r="I124" s="11" t="s">
+        <v>389</v>
+      </c>
       <c r="J124" s="7"/>
-      <c r="K124" s="7"/>
-      <c r="L124" s="7"/>
+      <c r="K124" s="11" t="s">
+        <v>389</v>
+      </c>
+      <c r="L124" s="15" t="s">
+        <v>390</v>
+      </c>
     </row>
     <row r="125" ht="18" customHeight="1" spans="1:12">
       <c r="A125" s="7"/>
-      <c r="B125" s="7"/>
-      <c r="C125" s="8"/>
+      <c r="B125" s="7" t="s">
+        <v>391</v>
+      </c>
+      <c r="C125" s="8" t="s">
+        <v>392</v>
+      </c>
       <c r="D125" s="7"/>
       <c r="E125" s="7"/>
       <c r="F125" s="7"/>
@@ -5368,13 +5463,19 @@
       <c r="H125" s="7"/>
       <c r="I125" s="7"/>
       <c r="J125" s="7"/>
-      <c r="K125" s="7"/>
+      <c r="K125" s="11" t="s">
+        <v>393</v>
+      </c>
       <c r="L125" s="7"/>
     </row>
     <row r="126" ht="18" customHeight="1" spans="1:12">
       <c r="A126" s="7"/>
-      <c r="B126" s="7"/>
-      <c r="C126" s="8"/>
+      <c r="B126" s="7" t="s">
+        <v>394</v>
+      </c>
+      <c r="C126" s="8" t="s">
+        <v>395</v>
+      </c>
       <c r="D126" s="7"/>
       <c r="E126" s="7"/>
       <c r="F126" s="7"/>
@@ -5387,8 +5488,12 @@
     </row>
     <row r="127" ht="18" customHeight="1" spans="1:12">
       <c r="A127" s="7"/>
-      <c r="B127" s="7"/>
-      <c r="C127" s="8"/>
+      <c r="B127" s="7" t="s">
+        <v>396</v>
+      </c>
+      <c r="C127" s="12" t="s">
+        <v>397</v>
+      </c>
       <c r="D127" s="7"/>
       <c r="E127" s="7"/>
       <c r="F127" s="7"/>
@@ -5396,13 +5501,19 @@
       <c r="H127" s="7"/>
       <c r="I127" s="7"/>
       <c r="J127" s="7"/>
-      <c r="K127" s="7"/>
+      <c r="K127" s="7" t="s">
+        <v>396</v>
+      </c>
       <c r="L127" s="7"/>
     </row>
     <row r="128" ht="18" customHeight="1" spans="1:12">
       <c r="A128" s="7"/>
-      <c r="B128" s="7"/>
-      <c r="C128" s="8"/>
+      <c r="B128" s="7" t="s">
+        <v>398</v>
+      </c>
+      <c r="C128" s="8" t="s">
+        <v>399</v>
+      </c>
       <c r="D128" s="7"/>
       <c r="E128" s="7"/>
       <c r="F128" s="7"/>
@@ -5410,27 +5521,41 @@
       <c r="H128" s="7"/>
       <c r="I128" s="7"/>
       <c r="J128" s="7"/>
-      <c r="K128" s="7"/>
+      <c r="K128" s="11" t="s">
+        <v>400</v>
+      </c>
       <c r="L128" s="7"/>
     </row>
     <row r="129" ht="18" customHeight="1" spans="1:12">
       <c r="A129" s="7"/>
-      <c r="B129" s="7"/>
-      <c r="C129" s="8"/>
+      <c r="B129" s="11" t="s">
+        <v>401</v>
+      </c>
+      <c r="C129" s="16" t="s">
+        <v>402</v>
+      </c>
       <c r="D129" s="7"/>
       <c r="E129" s="7"/>
       <c r="F129" s="7"/>
       <c r="G129" s="7"/>
       <c r="H129" s="7"/>
-      <c r="I129" s="7"/>
+      <c r="I129" s="7" t="s">
+        <v>403</v>
+      </c>
       <c r="J129" s="7"/>
-      <c r="K129" s="7"/>
+      <c r="K129" s="7" t="s">
+        <v>403</v>
+      </c>
       <c r="L129" s="7"/>
     </row>
     <row r="130" ht="18" customHeight="1" spans="1:12">
       <c r="A130" s="7"/>
-      <c r="B130" s="7"/>
-      <c r="C130" s="8"/>
+      <c r="B130" s="7" t="s">
+        <v>404</v>
+      </c>
+      <c r="C130" s="8" t="s">
+        <v>405</v>
+      </c>
       <c r="D130" s="7"/>
       <c r="E130" s="7"/>
       <c r="F130" s="7"/>
@@ -5438,7 +5563,9 @@
       <c r="H130" s="7"/>
       <c r="I130" s="7"/>
       <c r="J130" s="7"/>
-      <c r="K130" s="7"/>
+      <c r="K130" s="7" t="s">
+        <v>406</v>
+      </c>
       <c r="L130" s="7"/>
     </row>
     <row r="131" ht="18" customHeight="1" spans="1:12">
@@ -6141,41 +6268,14 @@
       <c r="K180" s="7"/>
       <c r="L180" s="7"/>
     </row>
-    <row r="181" ht="18" customHeight="1" spans="1:12">
-      <c r="A181" s="7"/>
-      <c r="B181" s="7"/>
-      <c r="C181" s="8"/>
-      <c r="D181" s="7"/>
-      <c r="E181" s="7"/>
-      <c r="F181" s="7"/>
-      <c r="G181" s="7"/>
-      <c r="H181" s="7"/>
-      <c r="I181" s="7"/>
-      <c r="J181" s="7"/>
-      <c r="K181" s="7"/>
-      <c r="L181" s="7"/>
-    </row>
-    <row r="182" ht="18" customHeight="1" spans="1:12">
-      <c r="A182" s="7"/>
-      <c r="B182" s="7"/>
-      <c r="C182" s="8"/>
-      <c r="D182" s="7"/>
-      <c r="E182" s="7"/>
-      <c r="F182" s="7"/>
-      <c r="G182" s="7"/>
-      <c r="H182" s="7"/>
-      <c r="I182" s="7"/>
-      <c r="J182" s="7"/>
-      <c r="K182" s="7"/>
-      <c r="L182" s="7"/>
-    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="L102" r:id="rId3" display="https://item.szlcsc.com/87756.html" tooltip="https://item.szlcsc.com/87756.html"/>
-    <hyperlink ref="L103" r:id="rId4" display="https://item.szlcsc.com/136348.html"/>
-    <hyperlink ref="L120" r:id="rId5" display="https://item.szlcsc.com/72964.html"/>
-    <hyperlink ref="L109" r:id="rId6" display="http://item.szlcsc.com/26978.html"/>
-    <hyperlink ref="M115" r:id="rId7" display="https://item.taobao.com/item.htm?spm=a230r.1.14.11.4e3e3b039DZu79&amp;id=530564269635&amp;ns=1&amp;abbucket=5#detail"/>
+    <hyperlink ref="L109" r:id="rId3" display="https://item.szlcsc.com/87756.html" tooltip="https://item.szlcsc.com/87756.html"/>
+    <hyperlink ref="L110" r:id="rId4" display="https://item.szlcsc.com/136348.html"/>
+    <hyperlink ref="L118" r:id="rId5" display="https://item.szlcsc.com/72964.html"/>
+    <hyperlink ref="L124" r:id="rId6" display="http://item.szlcsc.com/26978.html"/>
+    <hyperlink ref="L120" r:id="rId7" display="https://item.taobao.com/item.htm?spm=a230r.1.14.11.4e3e3b039DZu79&amp;id=530564269635&amp;ns=1&amp;abbucket=5"/>
+    <hyperlink ref="L121" r:id="rId7" display="https://item.taobao.com/item.htm?spm=a230r.1.14.11.4e3e3b039DZu79&amp;id=530564269635&amp;ns=1&amp;abbucket=5"/>
   </hyperlinks>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/物料索引.xlsx
+++ b/物料索引.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22130"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Cadence-LIB\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E49846E2-1FA1-4539-A893-3BB2620CC617}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12465"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,18 +22,19 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>zxiat</author>
   </authors>
   <commentList>
-    <comment ref="A2" authorId="0">
+    <comment ref="A2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>zxiat:</t>
@@ -36,6 +43,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -51,13 +59,14 @@
         </r>
       </text>
     </comment>
-    <comment ref="A3" authorId="0">
+    <comment ref="A3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>zxiat:</t>
@@ -66,6 +75,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -88,7 +98,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="621" uniqueCount="407">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="609" uniqueCount="406">
   <si>
     <t>物料编码</t>
   </si>
@@ -516,81 +526,9 @@
     <t>L_3x3</t>
   </si>
   <si>
-    <t>SDR0604-330KL</t>
-  </si>
-  <si>
-    <t>33uH，0.88A，250m欧</t>
-  </si>
-  <si>
-    <t>33uH</t>
-  </si>
-  <si>
-    <t>0.88A</t>
-  </si>
-  <si>
-    <t>6mm</t>
-  </si>
-  <si>
     <t>L_6x6</t>
   </si>
   <si>
-    <t>SDR0805-220ML</t>
-  </si>
-  <si>
-    <t>22uH，1.5A，110m欧</t>
-  </si>
-  <si>
-    <t>22uH</t>
-  </si>
-  <si>
-    <t>1.5</t>
-  </si>
-  <si>
-    <t>8mm</t>
-  </si>
-  <si>
-    <t>L_8x8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NR6045T3R0N </t>
-  </si>
-  <si>
-    <t>电感，3uH，3.2A，24m欧姆，6x6</t>
-  </si>
-  <si>
-    <t>3uH</t>
-  </si>
-  <si>
-    <t>3.2A</t>
-  </si>
-  <si>
-    <t>Taiyo Yuden</t>
-  </si>
-  <si>
-    <t>NRS6045T330MMGKV</t>
-  </si>
-  <si>
-    <t>电感，33uH，1.4A，141m欧姆，6x6</t>
-  </si>
-  <si>
-    <t>1.4A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SRR1208-220ML </t>
-  </si>
-  <si>
-    <t>电感，22uH，3.5A，43m欧姆，12.5x12.5</t>
-  </si>
-  <si>
-    <t>3.5A</t>
-  </si>
-  <si>
-    <t>12.5mm</t>
-  </si>
-  <si>
-    <t>L_12_5x12_5</t>
-  </si>
-  <si>
     <t>SS11H-10062-CH</t>
   </si>
   <si>
@@ -639,25 +577,13 @@
     <t>快速开关二极管</t>
   </si>
   <si>
-    <t>SOD123</t>
-  </si>
-  <si>
     <t>VISHAY</t>
   </si>
   <si>
-    <t>HSMS-2822</t>
-  </si>
-  <si>
     <t>RF肖特基二极管</t>
   </si>
   <si>
     <t>sot_23_m</t>
-  </si>
-  <si>
-    <t>BAT760</t>
-  </si>
-  <si>
-    <t>肖特基二极管，Ir=1A</t>
   </si>
   <si>
     <t>sod-323</t>
@@ -683,6 +609,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>O</t>
@@ -692,6 +619,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>N</t>
@@ -730,6 +658,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>R</t>
@@ -739,6 +668,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>OHM</t>
@@ -756,6 +686,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>M</t>
@@ -765,6 +696,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>OS管</t>
@@ -785,6 +717,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>s</t>
@@ -794,6 +727,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>c70</t>
@@ -805,6 +739,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>M</t>
@@ -814,27 +749,16 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>ICREL</t>
     </r>
   </si>
   <si>
-    <t>UB2-5NU-L</t>
-  </si>
-  <si>
-    <t>双刀双掷继电器 SMT贴片 5VDC，触电电流1A</t>
-  </si>
-  <si>
     <t>RL_SMD_420x260</t>
   </si>
   <si>
-    <t>TS5A3159</t>
-  </si>
-  <si>
-    <t>SPDT,模拟开关</t>
-  </si>
-  <si>
     <t>sot23_6</t>
   </si>
   <si>
@@ -1013,9 +937,6 @@
   </si>
   <si>
     <t>smsot2231234</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TPS7A3001DGNR </t>
   </si>
   <si>
     <t>LDO 负压稳压芯片</t>
@@ -1032,6 +953,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>D</t>
@@ -1041,6 +963,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>DR用端接电源</t>
@@ -1068,27 +991,6 @@
     <t>SOT23_6</t>
   </si>
   <si>
-    <t>RAC60-24SB</t>
-  </si>
-  <si>
-    <t>220VAC-24VDC模块，可微调输出，60W，短路保护，800元</t>
-  </si>
-  <si>
-    <t>AC/DC</t>
-  </si>
-  <si>
-    <t>60W</t>
-  </si>
-  <si>
-    <t>109*58</t>
-  </si>
-  <si>
-    <t>POWERLINE</t>
-  </si>
-  <si>
-    <t>RAC60-SB</t>
-  </si>
-  <si>
     <t>SN74LVC1G08-DBV</t>
   </si>
   <si>
@@ -1152,9 +1054,6 @@
     <t>so16</t>
   </si>
   <si>
-    <t>SOIC16_300mil</t>
-  </si>
-  <si>
     <t>IP1001</t>
   </si>
   <si>
@@ -1188,9 +1087,6 @@
     <t>H5004</t>
   </si>
   <si>
-    <t>网络变压器，4通道</t>
-  </si>
-  <si>
     <t>h5004_7</t>
   </si>
   <si>
@@ -1239,9 +1135,6 @@
     <t>RJ45网口变压器</t>
   </si>
   <si>
-    <t>RJ45,8P8C,百兆口，无变压器，180度</t>
-  </si>
-  <si>
     <t>RJ45</t>
   </si>
   <si>
@@ -1254,9 +1147,6 @@
     <t>https://item.szlcsc.com/87756.html</t>
   </si>
   <si>
-    <t>RJ45,8P8C,百兆口，无变压器，90度</t>
-  </si>
-  <si>
     <t>TE</t>
   </si>
   <si>
@@ -1326,31 +1216,13 @@
     <t>https://item.szlcsc.com/72964.html</t>
   </si>
   <si>
-    <t>71436-2164插头</t>
-  </si>
-  <si>
-    <t>64P、贴片</t>
-  </si>
-  <si>
     <t>64PIN_SMD_MC</t>
   </si>
   <si>
     <t>https://item.taobao.com/item.htm?spm=a230r.1.14.11.4e3e3b039DZu79&amp;id=530564269635&amp;ns=1&amp;abbucket=5</t>
   </si>
   <si>
-    <t>71439-0164插座</t>
-  </si>
-  <si>
     <t>64PIN_SMD_CC</t>
-  </si>
-  <si>
-    <t>9001-16481C00A</t>
-  </si>
-  <si>
-    <t>3*16 欧式直脚孔座</t>
-  </si>
-  <si>
-    <t>https://detail.tmall.com/item.htm?id=570096251281&amp;spm=a220o.1000855.1998099587.3.4919570cZ0XYLb</t>
   </si>
   <si>
     <t>USB_A-F</t>
@@ -1397,6 +1269,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>DIN41612_96P_MALE</t>
@@ -1406,6 +1279,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve"> / DIN41612_96P_FEMALE</t>
@@ -1424,23 +1298,227 @@
     <t>U.FL</t>
   </si>
   <si>
-    <t xml:space="preserve"> 射频RF同轴连接器（天线座）</t>
-  </si>
-  <si>
     <t>U_FL_SMT</t>
+  </si>
+  <si>
+    <t>SMMS0530-4R7M</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>SMD,5.5x5.2x3mm</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.5</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>6mm</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>SMMS0530-100M</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>10uH</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.2</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>UB2-5NU-L</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>ADG5204</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> / ADG1204</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>TS5A3159</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>SPDT,模拟开关</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">TPS7A3001DGNR </t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>MP2451DT-LF-Z</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>DCDC</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>双刀双掷继电器 SMT贴片 5VDC，触电电流1A</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">TPS7A4901DGNR </t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>LDO 正压压稳压芯片</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>模拟开关 160/120欧</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>SOD123</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>sod-123</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>SOIC16_300mil</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>RJ45,8P8C,百兆口，无变压器，180度</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>RJ45,8P8C,百兆口，无变压器，90度</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>RJ45_3_05_CONNFLY</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">30F-81ANL </t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>网络变压器，4通道</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>网络变压器,4通道</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>64P、贴片、6.3/8.3mm</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>LED带灯座</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://item.szlcsc.com/114822.html</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>LEDX2_SOCKET</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>LEDx2</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>射频RF同轴连接器（天线座）</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>SMB</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>BNC</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>BNC-KWE 29.5MM</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>DC005</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>DC5.5 2.1mm 插座 90度</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>肖特基二极管，Ir=1A</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>BAT760</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>HSMS-2822</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>KF2EDG-3.81</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>KF2EDG-3.81 PCB接线端子</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>KF2EDG-3_81</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>71439-0164插座</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>71436-2164插头</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://item.taobao.com/item.htm?spm=a230r.1.14.11.4e3e3b039DZu79&amp;id=530564269635&amp;ns=1&amp;abbucket=5</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>9001-16481C00A</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://detail.tmall.com/item.htm?id=570096251281&amp;spm=a220o.1000855.1998099587.3.4919570cZ0XYLb</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>3*16 欧式直脚孔座</t>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="24">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1453,6 +1531,7 @@
       <sz val="11"/>
       <color rgb="FF800080"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -1461,6 +1540,7 @@
       <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -1468,157 +1548,46 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1627,192 +1596,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -1835,255 +1624,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2126,71 +1676,34 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="10" applyNumberFormat="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="10" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -2477,35 +1990,34 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:L180"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:L181"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A116" activePane="bottomLeft" state="frozen"/>
-      <selection/>
-      <selection pane="bottomLeft" activeCell="L133" sqref="L133"/>
+      <pane ySplit="3" topLeftCell="A109" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L123" sqref="L123"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="18" style="2" customWidth="1"/>
-    <col min="2" max="2" width="18.2166666666667" style="2" customWidth="1"/>
+    <col min="2" max="2" width="18.25" style="2" customWidth="1"/>
     <col min="3" max="3" width="27" style="3" customWidth="1"/>
     <col min="4" max="4" width="9" style="2"/>
-    <col min="5" max="5" width="10.8833333333333" style="2" customWidth="1"/>
+    <col min="5" max="5" width="10.875" style="2" customWidth="1"/>
     <col min="6" max="9" width="9" style="2"/>
-    <col min="10" max="10" width="11.8833333333333" style="2" customWidth="1"/>
-    <col min="11" max="11" width="13.8833333333333" style="2" customWidth="1"/>
+    <col min="10" max="10" width="11.875" style="2" customWidth="1"/>
+    <col min="11" max="11" width="13.875" style="2" customWidth="1"/>
     <col min="12" max="12" width="9" style="2"/>
     <col min="13" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="18" customHeight="1" spans="1:12">
+    <row r="1" spans="1:12" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -2543,7 +2055,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" ht="18" customHeight="1" spans="1:12">
+    <row r="2" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="7" t="s">
         <v>12</v>
       </c>
@@ -2577,7 +2089,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" ht="18" customHeight="1" spans="1:12">
+    <row r="3" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="7" t="s">
         <v>21</v>
       </c>
@@ -2611,7 +2123,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="4" customFormat="1" ht="18" customHeight="1" spans="1:12">
+    <row r="4" spans="1:12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="7"/>
       <c r="B4" s="7"/>
       <c r="C4" s="8"/>
@@ -2625,7 +2137,7 @@
       <c r="K4" s="7"/>
       <c r="L4" s="7"/>
     </row>
-    <row r="5" customFormat="1" ht="18" customHeight="1" spans="1:12">
+    <row r="5" spans="1:12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="7"/>
       <c r="B5" s="7"/>
       <c r="C5" s="8"/>
@@ -2639,7 +2151,7 @@
       <c r="K5" s="7"/>
       <c r="L5" s="7"/>
     </row>
-    <row r="6" ht="18" customHeight="1" spans="1:12">
+    <row r="6" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="7" t="s">
         <v>30</v>
       </c>
@@ -2673,7 +2185,7 @@
       <c r="K6" s="7"/>
       <c r="L6" s="7"/>
     </row>
-    <row r="7" ht="18" customHeight="1" spans="1:12">
+    <row r="7" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="7" t="s">
         <v>38</v>
       </c>
@@ -2707,7 +2219,7 @@
       <c r="K7" s="7"/>
       <c r="L7" s="7"/>
     </row>
-    <row r="8" ht="18" customHeight="1" spans="1:12">
+    <row r="8" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="7" t="s">
         <v>42</v>
       </c>
@@ -2741,7 +2253,7 @@
       <c r="K8" s="7"/>
       <c r="L8" s="7"/>
     </row>
-    <row r="9" ht="18" customHeight="1" spans="1:12">
+    <row r="9" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="7" t="s">
         <v>45</v>
       </c>
@@ -2775,7 +2287,7 @@
       <c r="K9" s="7"/>
       <c r="L9" s="7"/>
     </row>
-    <row r="10" ht="18" customHeight="1" spans="1:12">
+    <row r="10" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="7" t="s">
         <v>50</v>
       </c>
@@ -2809,7 +2321,7 @@
       <c r="K10" s="7"/>
       <c r="L10" s="7"/>
     </row>
-    <row r="11" ht="18" customHeight="1" spans="1:12">
+    <row r="11" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="7" t="s">
         <v>53</v>
       </c>
@@ -2843,7 +2355,7 @@
       <c r="K11" s="7"/>
       <c r="L11" s="7"/>
     </row>
-    <row r="12" ht="18" customHeight="1" spans="1:12">
+    <row r="12" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="7" t="s">
         <v>57</v>
       </c>
@@ -2877,7 +2389,7 @@
       <c r="K12" s="7"/>
       <c r="L12" s="7"/>
     </row>
-    <row r="13" ht="18" customHeight="1" spans="1:12">
+    <row r="13" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="7" t="s">
         <v>62</v>
       </c>
@@ -2911,7 +2423,7 @@
       <c r="K13" s="7"/>
       <c r="L13" s="7"/>
     </row>
-    <row r="14" ht="18" customHeight="1" spans="1:12">
+    <row r="14" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="7" t="s">
         <v>66</v>
       </c>
@@ -2945,7 +2457,7 @@
       <c r="K14" s="7"/>
       <c r="L14" s="7"/>
     </row>
-    <row r="15" ht="18" customHeight="1" spans="1:12">
+    <row r="15" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="7" t="s">
         <v>69</v>
       </c>
@@ -2979,7 +2491,7 @@
       <c r="K15" s="7"/>
       <c r="L15" s="7"/>
     </row>
-    <row r="16" ht="18" customHeight="1" spans="1:12">
+    <row r="16" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="7" t="s">
         <v>72</v>
       </c>
@@ -3013,7 +2525,7 @@
       <c r="K16" s="7"/>
       <c r="L16" s="7"/>
     </row>
-    <row r="17" ht="18" customHeight="1" spans="1:12">
+    <row r="17" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="7" t="s">
         <v>76</v>
       </c>
@@ -3047,7 +2559,7 @@
       <c r="K17" s="7"/>
       <c r="L17" s="7"/>
     </row>
-    <row r="18" ht="18" customHeight="1" spans="1:12">
+    <row r="18" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="7" t="s">
         <v>79</v>
       </c>
@@ -3083,7 +2595,7 @@
       </c>
       <c r="L18" s="7"/>
     </row>
-    <row r="19" ht="18" customHeight="1" spans="1:12">
+    <row r="19" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="7" t="s">
         <v>83</v>
       </c>
@@ -3117,7 +2629,7 @@
       <c r="K19" s="9"/>
       <c r="L19" s="7"/>
     </row>
-    <row r="20" ht="18" customHeight="1" spans="1:12">
+    <row r="20" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="7" t="s">
         <v>87</v>
       </c>
@@ -3151,7 +2663,7 @@
       <c r="K20" s="9"/>
       <c r="L20" s="7"/>
     </row>
-    <row r="21" ht="18" customHeight="1" spans="1:12">
+    <row r="21" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="7"/>
       <c r="B21" s="7" t="s">
         <v>93</v>
@@ -3183,7 +2695,7 @@
       </c>
       <c r="L21" s="7"/>
     </row>
-    <row r="22" ht="18" customHeight="1" spans="1:12">
+    <row r="22" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="7"/>
       <c r="B22" s="7" t="s">
         <v>99</v>
@@ -3217,7 +2729,7 @@
       </c>
       <c r="L22" s="7"/>
     </row>
-    <row r="23" ht="18" customHeight="1" spans="1:12">
+    <row r="23" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="7"/>
       <c r="B23" s="7" t="s">
         <v>101</v>
@@ -3251,7 +2763,7 @@
       </c>
       <c r="L23" s="7"/>
     </row>
-    <row r="24" ht="18" customHeight="1" spans="1:12">
+    <row r="24" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="7"/>
       <c r="B24" s="7"/>
       <c r="C24" s="8"/>
@@ -3265,7 +2777,7 @@
       <c r="K24" s="9"/>
       <c r="L24" s="7"/>
     </row>
-    <row r="25" ht="18" customHeight="1" spans="1:12">
+    <row r="25" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="7"/>
       <c r="B25" s="7" t="s">
         <v>105</v>
@@ -3299,7 +2811,7 @@
       </c>
       <c r="L25" s="7"/>
     </row>
-    <row r="26" ht="18" customHeight="1" spans="1:12">
+    <row r="26" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="7"/>
       <c r="B26" s="7" t="s">
         <v>112</v>
@@ -3333,7 +2845,7 @@
       </c>
       <c r="L26" s="7"/>
     </row>
-    <row r="27" ht="18" customHeight="1" spans="1:12">
+    <row r="27" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="7"/>
       <c r="B27" s="7"/>
       <c r="C27" s="8"/>
@@ -3347,7 +2859,7 @@
       <c r="K27" s="7"/>
       <c r="L27" s="7"/>
     </row>
-    <row r="28" ht="18" customHeight="1" spans="1:12">
+    <row r="28" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="7"/>
       <c r="B28" s="7" t="s">
         <v>118</v>
@@ -3375,7 +2887,7 @@
       </c>
       <c r="L28" s="7"/>
     </row>
-    <row r="29" ht="18" customHeight="1" spans="1:12">
+    <row r="29" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="7"/>
       <c r="B29" s="7"/>
       <c r="C29" s="8"/>
@@ -3389,7 +2901,7 @@
       <c r="K29" s="7"/>
       <c r="L29" s="7"/>
     </row>
-    <row r="30" ht="18" customHeight="1" spans="1:12">
+    <row r="30" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="7"/>
       <c r="B30" s="7" t="s">
         <v>125</v>
@@ -3421,7 +2933,7 @@
       </c>
       <c r="L30" s="7"/>
     </row>
-    <row r="31" ht="18" customHeight="1" spans="1:12">
+    <row r="31" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="7"/>
       <c r="B31" s="7"/>
       <c r="C31" s="8"/>
@@ -3435,7 +2947,7 @@
       <c r="K31" s="7"/>
       <c r="L31" s="7"/>
     </row>
-    <row r="32" ht="18" customHeight="1" spans="1:12">
+    <row r="32" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="7"/>
       <c r="B32" s="7" t="s">
         <v>133</v>
@@ -3461,7 +2973,7 @@
       </c>
       <c r="L32" s="7"/>
     </row>
-    <row r="33" ht="18" customHeight="1" spans="1:12">
+    <row r="33" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="7"/>
       <c r="B33" s="7" t="s">
         <v>137</v>
@@ -3491,355 +3003,313 @@
       </c>
       <c r="L33" s="7"/>
     </row>
-    <row r="34" ht="18" customHeight="1" spans="1:12">
+    <row r="34" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="7"/>
-      <c r="B34" s="11" t="s">
-        <v>142</v>
-      </c>
-      <c r="C34" s="8" t="s">
-        <v>143</v>
-      </c>
-      <c r="D34" s="7" t="s">
-        <v>24</v>
-      </c>
+      <c r="B34" s="17" t="s">
+        <v>356</v>
+      </c>
+      <c r="C34" s="18" t="s">
+        <v>357</v>
+      </c>
+      <c r="D34" s="7"/>
       <c r="E34" s="7" t="s">
         <v>135</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="G34" s="7" t="s">
-        <v>145</v>
+        <v>139</v>
+      </c>
+      <c r="G34" s="17" t="s">
+        <v>358</v>
       </c>
       <c r="H34" s="7"/>
-      <c r="I34" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="J34" s="8" t="s">
-        <v>123</v>
-      </c>
+      <c r="I34" s="17" t="s">
+        <v>359</v>
+      </c>
+      <c r="J34" s="8"/>
       <c r="K34" s="8" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="L34" s="7"/>
     </row>
-    <row r="35" ht="18" customHeight="1" spans="1:12">
+    <row r="35" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="7"/>
-      <c r="B35" t="s">
-        <v>148</v>
-      </c>
-      <c r="C35" s="8" t="s">
-        <v>149</v>
+      <c r="B35" s="17" t="s">
+        <v>360</v>
+      </c>
+      <c r="C35" s="18" t="s">
+        <v>357</v>
       </c>
       <c r="D35" s="7"/>
       <c r="E35" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="F35" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="G35" s="7" t="s">
-        <v>151</v>
+      <c r="F35" s="17" t="s">
+        <v>361</v>
+      </c>
+      <c r="G35" s="17" t="s">
+        <v>362</v>
       </c>
       <c r="H35" s="7"/>
-      <c r="I35" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="J35" s="8" t="s">
-        <v>123</v>
-      </c>
+      <c r="I35" s="17" t="s">
+        <v>359</v>
+      </c>
+      <c r="J35" s="8"/>
       <c r="K35" s="8" t="s">
-        <v>153</v>
+        <v>142</v>
       </c>
       <c r="L35" s="7"/>
     </row>
-    <row r="36" ht="18" customHeight="1" spans="1:12">
+    <row r="36" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="7"/>
       <c r="B36" s="7" t="s">
-        <v>154</v>
+        <v>143</v>
       </c>
       <c r="C36" s="8" t="s">
-        <v>155</v>
+        <v>144</v>
       </c>
       <c r="D36" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="E36" s="7" t="s">
-        <v>135</v>
+      <c r="E36" s="8" t="s">
+        <v>145</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="G36" s="7" t="s">
-        <v>157</v>
-      </c>
+        <v>146</v>
+      </c>
+      <c r="G36" s="7"/>
       <c r="H36" s="7"/>
       <c r="I36" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="J36" s="8" t="s">
-        <v>158</v>
-      </c>
-      <c r="K36" s="8" t="s">
         <v>147</v>
       </c>
+      <c r="J36" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="K36" s="9" t="s">
+        <v>148</v>
+      </c>
       <c r="L36" s="7"/>
     </row>
-    <row r="37" ht="18" customHeight="1" spans="1:12">
+    <row r="37" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="7"/>
-      <c r="B37" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="C37" s="8" t="s">
-        <v>160</v>
-      </c>
-      <c r="D37" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="E37" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="F37" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="G37" s="7" t="s">
-        <v>161</v>
-      </c>
+      <c r="B37" s="7"/>
+      <c r="C37" s="8"/>
+      <c r="D37" s="7"/>
+      <c r="E37" s="7"/>
+      <c r="F37" s="7"/>
+      <c r="G37" s="7"/>
       <c r="H37" s="7"/>
-      <c r="I37" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="J37" s="8" t="s">
-        <v>158</v>
-      </c>
-      <c r="K37" s="8" t="s">
-        <v>147</v>
-      </c>
+      <c r="I37" s="7"/>
+      <c r="J37" s="7"/>
+      <c r="K37" s="7"/>
       <c r="L37" s="7"/>
     </row>
-    <row r="38" ht="18" customHeight="1" spans="1:12">
+    <row r="38" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="7"/>
       <c r="B38" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="C38" s="8" t="s">
-        <v>163</v>
-      </c>
-      <c r="D38" s="7" t="s">
-        <v>24</v>
-      </c>
+        <v>149</v>
+      </c>
+      <c r="C38" s="12" t="s">
+        <v>150</v>
+      </c>
+      <c r="D38" s="7"/>
       <c r="E38" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="F38" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="G38" s="7" t="s">
-        <v>164</v>
-      </c>
+        <v>151</v>
+      </c>
+      <c r="F38" s="7"/>
+      <c r="G38" s="7"/>
       <c r="H38" s="7"/>
-      <c r="I38" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="J38" s="8" t="s">
-        <v>123</v>
-      </c>
-      <c r="K38" s="8" t="s">
-        <v>166</v>
+      <c r="I38" s="7"/>
+      <c r="J38" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="K38" s="7" t="s">
+        <v>153</v>
       </c>
       <c r="L38" s="7"/>
     </row>
-    <row r="39" ht="18" customHeight="1" spans="1:12">
+    <row r="39" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="7"/>
       <c r="B39" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="C39" s="8" t="s">
-        <v>168</v>
+        <v>154</v>
+      </c>
+      <c r="C39" s="12" t="s">
+        <v>155</v>
       </c>
       <c r="D39" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="E39" s="8" t="s">
-        <v>169</v>
-      </c>
-      <c r="F39" s="7" t="s">
-        <v>170</v>
-      </c>
+      <c r="E39" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="F39" s="7"/>
       <c r="G39" s="7"/>
       <c r="H39" s="7"/>
-      <c r="I39" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="J39" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="K39" s="9" t="s">
-        <v>172</v>
+      <c r="I39" s="7"/>
+      <c r="J39" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="K39" s="7" t="s">
+        <v>156</v>
       </c>
       <c r="L39" s="7"/>
     </row>
-    <row r="40" ht="18" customHeight="1" spans="1:12">
+    <row r="40" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="7"/>
-      <c r="B40" s="7"/>
-      <c r="C40" s="8"/>
+      <c r="B40" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="C40" s="8" t="s">
+        <v>158</v>
+      </c>
       <c r="D40" s="7"/>
-      <c r="E40" s="7"/>
+      <c r="E40" s="7" t="s">
+        <v>151</v>
+      </c>
       <c r="F40" s="7"/>
       <c r="G40" s="7"/>
       <c r="H40" s="7"/>
-      <c r="I40" s="7"/>
-      <c r="J40" s="7"/>
-      <c r="K40" s="7"/>
+      <c r="I40" s="7" t="s">
+        <v>374</v>
+      </c>
+      <c r="J40" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="K40" s="7" t="s">
+        <v>375</v>
+      </c>
       <c r="L40" s="7"/>
     </row>
-    <row r="41" ht="18" customHeight="1" spans="1:12">
+    <row r="41" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="7"/>
       <c r="B41" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="C41" s="12" t="s">
-        <v>174</v>
+        <v>396</v>
+      </c>
+      <c r="C41" s="8" t="s">
+        <v>160</v>
       </c>
       <c r="D41" s="7"/>
       <c r="E41" s="7" t="s">
-        <v>175</v>
+        <v>151</v>
       </c>
       <c r="F41" s="7"/>
       <c r="G41" s="7"/>
       <c r="H41" s="7"/>
       <c r="I41" s="7"/>
-      <c r="J41" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="K41" s="7" t="s">
-        <v>177</v>
+      <c r="J41" s="7"/>
+      <c r="K41" s="11" t="s">
+        <v>161</v>
       </c>
       <c r="L41" s="7"/>
     </row>
-    <row r="42" ht="18" customHeight="1" spans="1:12">
+    <row r="42" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="7"/>
       <c r="B42" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="C42" s="12" t="s">
-        <v>179</v>
-      </c>
-      <c r="D42" s="7" t="s">
-        <v>24</v>
-      </c>
+        <v>395</v>
+      </c>
+      <c r="C42" s="8" t="s">
+        <v>394</v>
+      </c>
+      <c r="D42" s="7"/>
       <c r="E42" s="7" t="s">
-        <v>175</v>
+        <v>151</v>
       </c>
       <c r="F42" s="7"/>
       <c r="G42" s="7"/>
       <c r="H42" s="7"/>
       <c r="I42" s="7"/>
-      <c r="J42" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="K42" s="7" t="s">
-        <v>180</v>
+      <c r="J42" s="7"/>
+      <c r="K42" s="11" t="s">
+        <v>162</v>
       </c>
       <c r="L42" s="7"/>
     </row>
-    <row r="43" ht="18" customHeight="1" spans="1:12">
+    <row r="43" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="7"/>
       <c r="B43" s="7" t="s">
-        <v>181</v>
+        <v>163</v>
       </c>
       <c r="C43" s="8" t="s">
-        <v>182</v>
+        <v>164</v>
       </c>
       <c r="D43" s="7"/>
       <c r="E43" s="7" t="s">
-        <v>175</v>
+        <v>151</v>
       </c>
       <c r="F43" s="7"/>
       <c r="G43" s="7"/>
       <c r="H43" s="7"/>
-      <c r="I43" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="J43" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="K43" s="7"/>
+      <c r="I43" s="7"/>
+      <c r="J43" s="7"/>
+      <c r="K43" s="11" t="s">
+        <v>165</v>
+      </c>
       <c r="L43" s="7"/>
     </row>
-    <row r="44" ht="18" customHeight="1" spans="1:12">
+    <row r="44" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="7"/>
       <c r="B44" s="7" t="s">
-        <v>185</v>
+        <v>166</v>
       </c>
       <c r="C44" s="8" t="s">
-        <v>186</v>
+        <v>167</v>
       </c>
       <c r="D44" s="7"/>
-      <c r="E44" s="7" t="s">
-        <v>175</v>
-      </c>
+      <c r="E44" s="7"/>
       <c r="F44" s="7"/>
       <c r="G44" s="7"/>
       <c r="H44" s="7"/>
       <c r="I44" s="7"/>
-      <c r="J44" s="7"/>
+      <c r="J44" s="11" t="s">
+        <v>168</v>
+      </c>
       <c r="K44" s="11" t="s">
-        <v>187</v>
+        <v>169</v>
       </c>
       <c r="L44" s="7"/>
     </row>
-    <row r="45" ht="18" customHeight="1" spans="1:12">
+    <row r="45" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="7"/>
-      <c r="B45" s="7" t="s">
-        <v>188</v>
+      <c r="B45" s="11" t="s">
+        <v>170</v>
       </c>
       <c r="C45" s="8" t="s">
-        <v>189</v>
+        <v>171</v>
       </c>
       <c r="D45" s="7"/>
-      <c r="E45" s="7" t="s">
-        <v>175</v>
-      </c>
+      <c r="E45" s="7"/>
       <c r="F45" s="7"/>
       <c r="G45" s="7"/>
       <c r="H45" s="7"/>
       <c r="I45" s="7"/>
-      <c r="J45" s="7"/>
-      <c r="K45" s="11" t="s">
-        <v>190</v>
+      <c r="J45" s="11" t="s">
+        <v>168</v>
+      </c>
+      <c r="K45" s="7" t="s">
+        <v>172</v>
       </c>
       <c r="L45" s="7"/>
     </row>
-    <row r="46" ht="18" customHeight="1" spans="1:12">
+    <row r="46" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="7"/>
-      <c r="B46" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="C46" s="8" t="s">
-        <v>192</v>
-      </c>
+      <c r="B46" s="7"/>
+      <c r="C46" s="8"/>
       <c r="D46" s="7"/>
-      <c r="E46" s="7" t="s">
-        <v>175</v>
-      </c>
+      <c r="E46" s="7"/>
       <c r="F46" s="7"/>
       <c r="G46" s="7"/>
       <c r="H46" s="7"/>
       <c r="I46" s="7"/>
       <c r="J46" s="7"/>
-      <c r="K46" s="11" t="s">
-        <v>193</v>
-      </c>
+      <c r="K46" s="7"/>
       <c r="L46" s="7"/>
     </row>
-    <row r="47" ht="18" customHeight="1" spans="1:12">
+    <row r="47" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="7"/>
       <c r="B47" s="7" t="s">
-        <v>194</v>
+        <v>173</v>
       </c>
       <c r="C47" s="8" t="s">
-        <v>195</v>
+        <v>174</v>
       </c>
       <c r="D47" s="7"/>
       <c r="E47" s="7"/>
@@ -3847,145 +3317,141 @@
       <c r="G47" s="7"/>
       <c r="H47" s="7"/>
       <c r="I47" s="7"/>
-      <c r="J47" s="11" t="s">
-        <v>196</v>
-      </c>
+      <c r="J47" s="7"/>
       <c r="K47" s="11" t="s">
-        <v>197</v>
+        <v>161</v>
       </c>
       <c r="L47" s="7"/>
     </row>
-    <row r="48" ht="18" customHeight="1" spans="1:12">
+    <row r="48" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="7"/>
-      <c r="B48" s="11" t="s">
-        <v>198</v>
+      <c r="B48" s="7" t="s">
+        <v>175</v>
       </c>
       <c r="C48" s="8" t="s">
-        <v>199</v>
+        <v>176</v>
       </c>
       <c r="D48" s="7"/>
       <c r="E48" s="7"/>
       <c r="F48" s="7"/>
       <c r="G48" s="7"/>
       <c r="H48" s="7"/>
-      <c r="I48" s="7"/>
+      <c r="I48" s="11" t="s">
+        <v>177</v>
+      </c>
       <c r="J48" s="11" t="s">
-        <v>196</v>
-      </c>
-      <c r="K48" s="7" t="s">
-        <v>200</v>
+        <v>178</v>
+      </c>
+      <c r="K48" s="11" t="s">
+        <v>177</v>
       </c>
       <c r="L48" s="7"/>
     </row>
-    <row r="49" ht="18" customHeight="1" spans="1:12">
+    <row r="49" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="7"/>
-      <c r="B49" s="7"/>
-      <c r="C49" s="8"/>
+      <c r="B49" s="11" t="s">
+        <v>179</v>
+      </c>
+      <c r="C49" s="8" t="s">
+        <v>180</v>
+      </c>
       <c r="D49" s="7"/>
-      <c r="E49" s="7"/>
+      <c r="E49" s="11" t="s">
+        <v>181</v>
+      </c>
       <c r="F49" s="7"/>
       <c r="G49" s="7"/>
       <c r="H49" s="7"/>
-      <c r="I49" s="7"/>
-      <c r="J49" s="7"/>
-      <c r="K49" s="7"/>
+      <c r="I49" s="11" t="s">
+        <v>182</v>
+      </c>
+      <c r="J49" s="11" t="s">
+        <v>152</v>
+      </c>
+      <c r="K49" s="11" t="s">
+        <v>161</v>
+      </c>
       <c r="L49" s="7"/>
     </row>
-    <row r="50" ht="18" customHeight="1" spans="1:12">
+    <row r="50" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="7"/>
       <c r="B50" s="7" t="s">
-        <v>201</v>
+        <v>183</v>
       </c>
       <c r="C50" s="8" t="s">
-        <v>202</v>
+        <v>184</v>
       </c>
       <c r="D50" s="7"/>
       <c r="E50" s="7"/>
       <c r="F50" s="7"/>
       <c r="G50" s="7"/>
       <c r="H50" s="7"/>
-      <c r="I50" s="7"/>
-      <c r="J50" s="7"/>
-      <c r="K50" s="11" t="s">
-        <v>187</v>
+      <c r="I50" s="11" t="s">
+        <v>185</v>
+      </c>
+      <c r="J50" s="11" t="s">
+        <v>186</v>
+      </c>
+      <c r="K50" s="7" t="s">
+        <v>169</v>
       </c>
       <c r="L50" s="7"/>
     </row>
-    <row r="51" ht="18" customHeight="1" spans="1:12">
+    <row r="51" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="7"/>
-      <c r="B51" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="C51" s="8" t="s">
-        <v>204</v>
-      </c>
+      <c r="B51" s="7"/>
+      <c r="C51" s="8"/>
       <c r="D51" s="7"/>
       <c r="E51" s="7"/>
       <c r="F51" s="7"/>
       <c r="G51" s="7"/>
       <c r="H51" s="7"/>
-      <c r="I51" s="11" t="s">
-        <v>205</v>
-      </c>
-      <c r="J51" s="11" t="s">
-        <v>206</v>
-      </c>
-      <c r="K51" s="11" t="s">
-        <v>205</v>
-      </c>
+      <c r="I51" s="11"/>
+      <c r="J51" s="11"/>
+      <c r="K51" s="7"/>
       <c r="L51" s="7"/>
     </row>
-    <row r="52" ht="18" customHeight="1" spans="1:12">
+    <row r="52" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A52" s="7"/>
-      <c r="B52" s="11" t="s">
-        <v>207</v>
-      </c>
-      <c r="C52" s="8" t="s">
-        <v>208</v>
+      <c r="B52" s="17" t="s">
+        <v>363</v>
+      </c>
+      <c r="C52" s="18" t="s">
+        <v>370</v>
       </c>
       <c r="D52" s="7"/>
-      <c r="E52" s="11" t="s">
-        <v>209</v>
-      </c>
+      <c r="E52" s="7"/>
       <c r="F52" s="7"/>
       <c r="G52" s="7"/>
       <c r="H52" s="7"/>
-      <c r="I52" s="11" t="s">
-        <v>210</v>
-      </c>
-      <c r="J52" s="11" t="s">
-        <v>176</v>
-      </c>
-      <c r="K52" s="11" t="s">
+      <c r="I52" s="11"/>
+      <c r="J52" s="11"/>
+      <c r="K52" s="7" t="s">
         <v>187</v>
       </c>
       <c r="L52" s="7"/>
     </row>
-    <row r="53" ht="18" customHeight="1" spans="1:12">
+    <row r="53" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A53" s="7"/>
-      <c r="B53" s="7" t="s">
-        <v>211</v>
+      <c r="B53" s="17" t="s">
+        <v>365</v>
       </c>
       <c r="C53" s="8" t="s">
-        <v>212</v>
+        <v>366</v>
       </c>
       <c r="D53" s="7"/>
       <c r="E53" s="7"/>
       <c r="F53" s="7"/>
       <c r="G53" s="7"/>
       <c r="H53" s="7"/>
-      <c r="I53" s="11" t="s">
-        <v>213</v>
-      </c>
-      <c r="J53" s="11" t="s">
-        <v>214</v>
-      </c>
+      <c r="I53" s="11"/>
+      <c r="J53" s="11"/>
       <c r="K53" s="7" t="s">
-        <v>197</v>
+        <v>188</v>
       </c>
       <c r="L53" s="7"/>
     </row>
-    <row r="54" ht="18" customHeight="1" spans="1:12">
+    <row r="54" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A54" s="7"/>
       <c r="B54" s="7"/>
       <c r="C54" s="8"/>
@@ -3999,163 +3465,183 @@
       <c r="K54" s="7"/>
       <c r="L54" s="7"/>
     </row>
-    <row r="55" ht="18" customHeight="1" spans="1:12">
+    <row r="55" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A55" s="7"/>
       <c r="B55" s="7" t="s">
-        <v>215</v>
+        <v>189</v>
       </c>
       <c r="C55" s="8" t="s">
-        <v>216</v>
+        <v>190</v>
       </c>
       <c r="D55" s="7"/>
       <c r="E55" s="7"/>
       <c r="F55" s="7"/>
       <c r="G55" s="7"/>
       <c r="H55" s="7"/>
-      <c r="I55" s="11"/>
-      <c r="J55" s="11"/>
+      <c r="I55" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="J55" s="7"/>
       <c r="K55" s="7" t="s">
-        <v>217</v>
+        <v>191</v>
       </c>
       <c r="L55" s="7"/>
     </row>
-    <row r="56" ht="18" customHeight="1" spans="1:12">
+    <row r="56" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A56" s="7"/>
-      <c r="B56" s="7" t="s">
-        <v>218</v>
+      <c r="B56" s="10" t="s">
+        <v>192</v>
       </c>
       <c r="C56" s="8" t="s">
-        <v>219</v>
+        <v>193</v>
       </c>
       <c r="D56" s="7"/>
-      <c r="E56" s="7"/>
+      <c r="E56" s="7" t="s">
+        <v>193</v>
+      </c>
       <c r="F56" s="7"/>
       <c r="G56" s="7"/>
       <c r="H56" s="7"/>
       <c r="I56" s="11"/>
-      <c r="J56" s="11"/>
-      <c r="K56" s="7" t="s">
-        <v>220</v>
+      <c r="J56" s="11" t="s">
+        <v>194</v>
+      </c>
+      <c r="K56" s="13" t="s">
+        <v>195</v>
       </c>
       <c r="L56" s="7"/>
     </row>
-    <row r="57" ht="18" customHeight="1" spans="1:12">
+    <row r="57" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A57" s="7"/>
-      <c r="B57" s="7"/>
-      <c r="C57" s="8"/>
+      <c r="B57" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="C57" s="8" t="s">
+        <v>197</v>
+      </c>
       <c r="D57" s="7"/>
-      <c r="E57" s="7"/>
+      <c r="E57" s="7" t="s">
+        <v>193</v>
+      </c>
       <c r="F57" s="7"/>
       <c r="G57" s="7"/>
       <c r="H57" s="7"/>
-      <c r="I57" s="11"/>
-      <c r="J57" s="11"/>
-      <c r="K57" s="7"/>
+      <c r="I57" s="7"/>
+      <c r="J57" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="K57" s="13" t="s">
+        <v>195</v>
+      </c>
       <c r="L57" s="7"/>
     </row>
-    <row r="58" ht="18" customHeight="1" spans="1:12">
+    <row r="58" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A58" s="7"/>
       <c r="B58" s="7" t="s">
-        <v>221</v>
+        <v>198</v>
       </c>
       <c r="C58" s="8" t="s">
-        <v>222</v>
+        <v>197</v>
       </c>
       <c r="D58" s="7"/>
       <c r="E58" s="7"/>
       <c r="F58" s="7"/>
       <c r="G58" s="7"/>
       <c r="H58" s="7"/>
-      <c r="I58" s="7" t="s">
-        <v>223</v>
-      </c>
+      <c r="I58" s="7"/>
       <c r="J58" s="7"/>
-      <c r="K58" s="7" t="s">
-        <v>223</v>
-      </c>
+      <c r="K58" s="13"/>
       <c r="L58" s="7"/>
     </row>
-    <row r="59" ht="18" customHeight="1" spans="1:12">
+    <row r="59" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A59" s="7"/>
-      <c r="B59" s="10" t="s">
-        <v>224</v>
-      </c>
-      <c r="C59" s="8" t="s">
-        <v>225</v>
-      </c>
+      <c r="B59" s="7"/>
+      <c r="C59" s="8"/>
       <c r="D59" s="7"/>
-      <c r="E59" s="7" t="s">
-        <v>225</v>
-      </c>
+      <c r="E59" s="7"/>
       <c r="F59" s="7"/>
       <c r="G59" s="7"/>
       <c r="H59" s="7"/>
-      <c r="I59" s="11"/>
-      <c r="J59" s="11" t="s">
-        <v>226</v>
-      </c>
-      <c r="K59" s="13" t="s">
-        <v>227</v>
-      </c>
+      <c r="I59" s="7"/>
+      <c r="J59" s="7"/>
+      <c r="K59" s="7"/>
       <c r="L59" s="7"/>
     </row>
-    <row r="60" ht="18" customHeight="1" spans="1:12">
+    <row r="60" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A60" s="7"/>
-      <c r="B60" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="C60" s="8" t="s">
-        <v>229</v>
-      </c>
+      <c r="B60" s="7"/>
+      <c r="C60" s="8"/>
       <c r="D60" s="7"/>
-      <c r="E60" s="7" t="s">
-        <v>225</v>
-      </c>
+      <c r="E60" s="7"/>
       <c r="F60" s="7"/>
       <c r="G60" s="7"/>
       <c r="H60" s="7"/>
       <c r="I60" s="7"/>
-      <c r="J60" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="K60" s="13" t="s">
-        <v>227</v>
-      </c>
+      <c r="J60" s="7"/>
+      <c r="K60" s="7"/>
       <c r="L60" s="7"/>
     </row>
-    <row r="61" ht="18" customHeight="1" spans="1:12">
+    <row r="61" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A61" s="7"/>
       <c r="B61" s="7" t="s">
-        <v>230</v>
+        <v>199</v>
       </c>
       <c r="C61" s="8" t="s">
-        <v>229</v>
-      </c>
-      <c r="D61" s="7"/>
-      <c r="E61" s="7"/>
-      <c r="F61" s="7"/>
-      <c r="G61" s="7"/>
+        <v>200</v>
+      </c>
+      <c r="D61" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E61" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="F61" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="G61" s="7" t="s">
+        <v>203</v>
+      </c>
       <c r="H61" s="7"/>
-      <c r="I61" s="7"/>
-      <c r="J61" s="7"/>
-      <c r="K61" s="13"/>
+      <c r="I61" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="J61" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="K61" s="9" t="s">
+        <v>204</v>
+      </c>
       <c r="L61" s="7"/>
     </row>
-    <row r="62" ht="18" customHeight="1" spans="1:12">
+    <row r="62" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A62" s="7"/>
-      <c r="B62" s="7"/>
-      <c r="C62" s="8"/>
-      <c r="D62" s="7"/>
-      <c r="E62" s="7"/>
+      <c r="B62" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="C62" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="D62" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E62" s="8" t="s">
+        <v>206</v>
+      </c>
       <c r="F62" s="7"/>
       <c r="G62" s="7"/>
       <c r="H62" s="7"/>
-      <c r="I62" s="7"/>
-      <c r="J62" s="7"/>
-      <c r="K62" s="7"/>
+      <c r="I62" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="J62" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="K62" s="9" t="s">
+        <v>204</v>
+      </c>
       <c r="L62" s="7"/>
     </row>
-    <row r="63" ht="18" customHeight="1" spans="1:12">
+    <row r="63" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A63" s="7"/>
       <c r="B63" s="7"/>
       <c r="C63" s="8"/>
@@ -4169,101 +3655,91 @@
       <c r="K63" s="7"/>
       <c r="L63" s="7"/>
     </row>
-    <row r="64" ht="18" customHeight="1" spans="1:12">
+    <row r="64" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A64" s="7"/>
       <c r="B64" s="7" t="s">
-        <v>231</v>
+        <v>207</v>
       </c>
       <c r="C64" s="8" t="s">
-        <v>232</v>
-      </c>
-      <c r="D64" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="E64" s="7" t="s">
-        <v>233</v>
-      </c>
-      <c r="F64" s="7" t="s">
-        <v>234</v>
-      </c>
-      <c r="G64" s="7" t="s">
-        <v>235</v>
-      </c>
+        <v>208</v>
+      </c>
+      <c r="D64" s="7"/>
+      <c r="E64" s="7"/>
+      <c r="F64" s="7"/>
+      <c r="G64" s="7"/>
       <c r="H64" s="7"/>
-      <c r="I64" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="J64" s="9" t="s">
-        <v>131</v>
-      </c>
-      <c r="K64" s="9" t="s">
-        <v>236</v>
+      <c r="I64" s="7"/>
+      <c r="J64" s="7"/>
+      <c r="K64" s="7" t="s">
+        <v>207</v>
       </c>
       <c r="L64" s="7"/>
     </row>
-    <row r="65" ht="18" customHeight="1" spans="1:12">
+    <row r="65" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A65" s="7"/>
-      <c r="B65" s="7" t="s">
-        <v>237</v>
-      </c>
-      <c r="C65" s="8" t="s">
-        <v>238</v>
-      </c>
-      <c r="D65" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="E65" s="8" t="s">
-        <v>238</v>
-      </c>
+      <c r="B65" s="7"/>
+      <c r="C65" s="8"/>
+      <c r="D65" s="7"/>
+      <c r="E65" s="7"/>
       <c r="F65" s="7"/>
       <c r="G65" s="7"/>
       <c r="H65" s="7"/>
-      <c r="I65" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="J65" s="9" t="s">
-        <v>131</v>
-      </c>
-      <c r="K65" s="9" t="s">
-        <v>236</v>
-      </c>
+      <c r="I65" s="7"/>
+      <c r="J65" s="7"/>
+      <c r="K65" s="7"/>
       <c r="L65" s="7"/>
     </row>
-    <row r="66" ht="18" customHeight="1" spans="1:12">
+    <row r="66" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A66" s="7"/>
-      <c r="B66" s="7"/>
-      <c r="C66" s="8"/>
+      <c r="B66" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="C66" s="8" t="s">
+        <v>210</v>
+      </c>
       <c r="D66" s="7"/>
-      <c r="E66" s="7"/>
+      <c r="E66" s="7" t="s">
+        <v>211</v>
+      </c>
       <c r="F66" s="7"/>
       <c r="G66" s="7"/>
       <c r="H66" s="7"/>
-      <c r="I66" s="7"/>
-      <c r="J66" s="7"/>
-      <c r="K66" s="7"/>
+      <c r="I66" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="J66" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="K66" s="7" t="s">
+        <v>214</v>
+      </c>
       <c r="L66" s="7"/>
     </row>
-    <row r="67" ht="18" customHeight="1" spans="1:12">
+    <row r="67" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A67" s="7"/>
       <c r="B67" s="7" t="s">
-        <v>239</v>
+        <v>215</v>
       </c>
       <c r="C67" s="8" t="s">
-        <v>240</v>
+        <v>216</v>
       </c>
       <c r="D67" s="7"/>
-      <c r="E67" s="7"/>
+      <c r="E67" s="7" t="s">
+        <v>217</v>
+      </c>
       <c r="F67" s="7"/>
       <c r="G67" s="7"/>
       <c r="H67" s="7"/>
-      <c r="I67" s="7"/>
+      <c r="I67" s="7" t="s">
+        <v>218</v>
+      </c>
       <c r="J67" s="7"/>
       <c r="K67" s="7" t="s">
-        <v>239</v>
+        <v>219</v>
       </c>
       <c r="L67" s="7"/>
     </row>
-    <row r="68" ht="18" customHeight="1" spans="1:12">
+    <row r="68" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A68" s="7"/>
       <c r="B68" s="7"/>
       <c r="C68" s="8"/>
@@ -4277,78 +3753,74 @@
       <c r="K68" s="7"/>
       <c r="L68" s="7"/>
     </row>
-    <row r="69" ht="18" customHeight="1" spans="1:12">
+    <row r="69" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A69" s="7"/>
-      <c r="B69" s="7" t="s">
-        <v>241</v>
+      <c r="B69" s="10" t="s">
+        <v>220</v>
       </c>
       <c r="C69" s="8" t="s">
-        <v>242</v>
+        <v>221</v>
       </c>
       <c r="D69" s="7"/>
-      <c r="E69" s="7" t="s">
-        <v>243</v>
-      </c>
+      <c r="E69" s="7"/>
       <c r="F69" s="7"/>
       <c r="G69" s="7"/>
       <c r="H69" s="7"/>
-      <c r="I69" s="7" t="s">
-        <v>244</v>
-      </c>
-      <c r="J69" s="7" t="s">
-        <v>245</v>
-      </c>
+      <c r="I69" s="7"/>
+      <c r="J69" s="7"/>
       <c r="K69" s="7" t="s">
-        <v>246</v>
+        <v>222</v>
       </c>
       <c r="L69" s="7"/>
     </row>
-    <row r="70" ht="18" customHeight="1" spans="1:12">
+    <row r="70" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A70" s="7"/>
       <c r="B70" s="7" t="s">
-        <v>247</v>
+        <v>223</v>
       </c>
       <c r="C70" s="8" t="s">
-        <v>248</v>
+        <v>224</v>
       </c>
       <c r="D70" s="7"/>
-      <c r="E70" s="7" t="s">
-        <v>249</v>
-      </c>
+      <c r="E70" s="7"/>
       <c r="F70" s="7"/>
       <c r="G70" s="7"/>
       <c r="H70" s="7"/>
       <c r="I70" s="7" t="s">
-        <v>250</v>
+        <v>225</v>
       </c>
       <c r="J70" s="7"/>
       <c r="K70" s="7" t="s">
-        <v>251</v>
+        <v>226</v>
       </c>
       <c r="L70" s="7"/>
     </row>
-    <row r="71" ht="18" customHeight="1" spans="1:12">
+    <row r="71" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A71" s="7"/>
-      <c r="B71" s="7"/>
-      <c r="C71" s="8"/>
+      <c r="B71" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="C71" s="8" t="s">
+        <v>228</v>
+      </c>
       <c r="D71" s="7"/>
       <c r="E71" s="7"/>
       <c r="F71" s="7"/>
       <c r="G71" s="7"/>
       <c r="H71" s="7"/>
-      <c r="I71" s="7"/>
+      <c r="I71" s="7" t="s">
+        <v>229</v>
+      </c>
       <c r="J71" s="7"/>
-      <c r="K71" s="7"/>
+      <c r="K71" s="11" t="s">
+        <v>161</v>
+      </c>
       <c r="L71" s="7"/>
     </row>
-    <row r="72" ht="18" customHeight="1" spans="1:12">
+    <row r="72" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A72" s="7"/>
-      <c r="B72" s="10" t="s">
-        <v>252</v>
-      </c>
-      <c r="C72" s="8" t="s">
-        <v>253</v>
-      </c>
+      <c r="B72" s="7"/>
+      <c r="C72" s="8"/>
       <c r="D72" s="7"/>
       <c r="E72" s="7"/>
       <c r="F72" s="7"/>
@@ -4356,184 +3828,178 @@
       <c r="H72" s="7"/>
       <c r="I72" s="7"/>
       <c r="J72" s="7"/>
-      <c r="K72" s="7" t="s">
-        <v>254</v>
-      </c>
+      <c r="K72" s="11"/>
       <c r="L72" s="7"/>
     </row>
-    <row r="73" ht="18" customHeight="1" spans="1:12">
+    <row r="73" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A73" s="7"/>
       <c r="B73" s="7" t="s">
-        <v>255</v>
+        <v>230</v>
       </c>
       <c r="C73" s="8" t="s">
-        <v>256</v>
+        <v>231</v>
       </c>
       <c r="D73" s="7"/>
-      <c r="E73" s="7"/>
+      <c r="E73" s="7" t="s">
+        <v>232</v>
+      </c>
       <c r="F73" s="7"/>
       <c r="G73" s="7"/>
       <c r="H73" s="7"/>
       <c r="I73" s="7" t="s">
-        <v>257</v>
-      </c>
-      <c r="J73" s="7"/>
+        <v>233</v>
+      </c>
+      <c r="J73" s="7" t="s">
+        <v>194</v>
+      </c>
       <c r="K73" s="7" t="s">
-        <v>258</v>
+        <v>233</v>
       </c>
       <c r="L73" s="7"/>
     </row>
-    <row r="74" ht="18" customHeight="1" spans="1:12">
+    <row r="74" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A74" s="7"/>
       <c r="B74" s="7" t="s">
-        <v>259</v>
+        <v>234</v>
       </c>
       <c r="C74" s="8" t="s">
-        <v>260</v>
-      </c>
-      <c r="D74" s="7"/>
-      <c r="E74" s="7"/>
+        <v>232</v>
+      </c>
+      <c r="D74" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E74" s="7" t="s">
+        <v>232</v>
+      </c>
       <c r="F74" s="7"/>
       <c r="G74" s="7"/>
       <c r="H74" s="7"/>
       <c r="I74" s="7" t="s">
-        <v>261</v>
-      </c>
-      <c r="J74" s="7"/>
-      <c r="K74" s="11" t="s">
-        <v>187</v>
+        <v>235</v>
+      </c>
+      <c r="J74" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="K74" s="7" t="s">
+        <v>237</v>
       </c>
       <c r="L74" s="7"/>
     </row>
-    <row r="75" ht="18" customHeight="1" spans="1:12">
+    <row r="75" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A75" s="7"/>
-      <c r="B75" s="7"/>
-      <c r="C75" s="8"/>
+      <c r="B75" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="C75" s="8" t="s">
+        <v>232</v>
+      </c>
       <c r="D75" s="7"/>
-      <c r="E75" s="7"/>
+      <c r="E75" s="7" t="s">
+        <v>232</v>
+      </c>
       <c r="F75" s="7"/>
       <c r="G75" s="7"/>
       <c r="H75" s="7"/>
       <c r="I75" s="7"/>
       <c r="J75" s="7"/>
-      <c r="K75" s="11"/>
+      <c r="K75" s="7" t="s">
+        <v>239</v>
+      </c>
       <c r="L75" s="7"/>
     </row>
-    <row r="76" ht="18" customHeight="1" spans="1:12">
+    <row r="76" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A76" s="7"/>
       <c r="B76" s="7" t="s">
-        <v>262</v>
-      </c>
-      <c r="C76" s="8" t="s">
-        <v>263</v>
+        <v>368</v>
+      </c>
+      <c r="C76" s="18" t="s">
+        <v>369</v>
       </c>
       <c r="D76" s="7"/>
-      <c r="E76" s="7" t="s">
-        <v>264</v>
-      </c>
+      <c r="E76" s="7"/>
       <c r="F76" s="7"/>
       <c r="G76" s="7"/>
       <c r="H76" s="7"/>
-      <c r="I76" s="7" t="s">
-        <v>265</v>
-      </c>
-      <c r="J76" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="K76" s="7" t="s">
-        <v>265</v>
-      </c>
+      <c r="I76" s="7"/>
+      <c r="J76" s="7"/>
+      <c r="K76" s="7"/>
       <c r="L76" s="7"/>
     </row>
-    <row r="77" ht="18" customHeight="1" spans="1:12">
+    <row r="77" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A77" s="7"/>
-      <c r="B77" s="7" t="s">
-        <v>266</v>
-      </c>
-      <c r="C77" s="8" t="s">
-        <v>264</v>
-      </c>
-      <c r="D77" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="E77" s="7" t="s">
-        <v>264</v>
-      </c>
+      <c r="B77" s="7"/>
+      <c r="C77" s="18"/>
+      <c r="D77" s="7"/>
+      <c r="E77" s="7"/>
       <c r="F77" s="7"/>
       <c r="G77" s="7"/>
       <c r="H77" s="7"/>
-      <c r="I77" s="7" t="s">
-        <v>267</v>
-      </c>
-      <c r="J77" s="7" t="s">
-        <v>268</v>
-      </c>
-      <c r="K77" s="7" t="s">
-        <v>269</v>
-      </c>
+      <c r="I77" s="7"/>
+      <c r="J77" s="7"/>
+      <c r="K77" s="7"/>
       <c r="L77" s="7"/>
     </row>
-    <row r="78" ht="18" customHeight="1" spans="1:12">
+    <row r="78" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A78" s="7"/>
       <c r="B78" s="7" t="s">
-        <v>270</v>
+        <v>240</v>
       </c>
       <c r="C78" s="8" t="s">
-        <v>264</v>
-      </c>
-      <c r="D78" s="7"/>
+        <v>241</v>
+      </c>
+      <c r="D78" s="7" t="s">
+        <v>24</v>
+      </c>
       <c r="E78" s="7" t="s">
-        <v>264</v>
+        <v>241</v>
       </c>
       <c r="F78" s="7"/>
       <c r="G78" s="7"/>
       <c r="H78" s="7"/>
-      <c r="I78" s="7"/>
-      <c r="J78" s="7"/>
+      <c r="I78" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="J78" s="7" t="s">
+        <v>236</v>
+      </c>
       <c r="K78" s="7" t="s">
-        <v>271</v>
+        <v>243</v>
       </c>
       <c r="L78" s="7"/>
     </row>
-    <row r="79" ht="18" customHeight="1" spans="1:12">
+    <row r="79" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A79" s="7"/>
       <c r="B79" s="7" t="s">
-        <v>272</v>
+        <v>244</v>
       </c>
       <c r="C79" s="8" t="s">
-        <v>273</v>
-      </c>
-      <c r="D79" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="E79" s="7" t="s">
-        <v>273</v>
+        <v>241</v>
+      </c>
+      <c r="D79" s="7"/>
+      <c r="E79" s="8" t="s">
+        <v>241</v>
       </c>
       <c r="F79" s="7"/>
       <c r="G79" s="7"/>
       <c r="H79" s="7"/>
-      <c r="I79" s="7" t="s">
-        <v>274</v>
-      </c>
-      <c r="J79" s="7" t="s">
-        <v>268</v>
-      </c>
+      <c r="I79" s="7"/>
+      <c r="J79" s="7"/>
       <c r="K79" s="7" t="s">
-        <v>275</v>
+        <v>195</v>
       </c>
       <c r="L79" s="7"/>
     </row>
-    <row r="80" ht="18" customHeight="1" spans="1:12">
+    <row r="80" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A80" s="7"/>
       <c r="B80" s="7" t="s">
-        <v>276</v>
+        <v>245</v>
       </c>
       <c r="C80" s="8" t="s">
-        <v>273</v>
+        <v>241</v>
       </c>
       <c r="D80" s="7"/>
       <c r="E80" s="8" t="s">
-        <v>273</v>
+        <v>241</v>
       </c>
       <c r="F80" s="7"/>
       <c r="G80" s="7"/>
@@ -4541,21 +4007,21 @@
       <c r="I80" s="7"/>
       <c r="J80" s="7"/>
       <c r="K80" s="7" t="s">
-        <v>227</v>
+        <v>188</v>
       </c>
       <c r="L80" s="7"/>
     </row>
-    <row r="81" ht="18" customHeight="1" spans="1:12">
+    <row r="81" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A81" s="7"/>
       <c r="B81" s="7" t="s">
-        <v>277</v>
+        <v>246</v>
       </c>
       <c r="C81" s="8" t="s">
-        <v>273</v>
+        <v>241</v>
       </c>
       <c r="D81" s="7"/>
       <c r="E81" s="8" t="s">
-        <v>273</v>
+        <v>241</v>
       </c>
       <c r="F81" s="7"/>
       <c r="G81" s="7"/>
@@ -4563,43 +4029,41 @@
       <c r="I81" s="7"/>
       <c r="J81" s="7"/>
       <c r="K81" s="7" t="s">
-        <v>220</v>
+        <v>247</v>
       </c>
       <c r="L81" s="7"/>
     </row>
-    <row r="82" ht="18" customHeight="1" spans="1:12">
+    <row r="82" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A82" s="7"/>
-      <c r="B82" s="7" t="s">
-        <v>278</v>
-      </c>
-      <c r="C82" s="8" t="s">
-        <v>273</v>
+      <c r="B82" s="17" t="s">
+        <v>371</v>
+      </c>
+      <c r="C82" s="18" t="s">
+        <v>372</v>
       </c>
       <c r="D82" s="7"/>
-      <c r="E82" s="8" t="s">
-        <v>273</v>
-      </c>
+      <c r="E82" s="8"/>
       <c r="F82" s="7"/>
       <c r="G82" s="7"/>
       <c r="H82" s="7"/>
       <c r="I82" s="7"/>
       <c r="J82" s="7"/>
       <c r="K82" s="7" t="s">
-        <v>279</v>
+        <v>249</v>
       </c>
       <c r="L82" s="7"/>
     </row>
-    <row r="83" ht="18" customHeight="1" spans="1:12">
+    <row r="83" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A83" s="7"/>
-      <c r="B83" s="7" t="s">
-        <v>280</v>
+      <c r="B83" s="17" t="s">
+        <v>367</v>
       </c>
       <c r="C83" s="8" t="s">
-        <v>281</v>
+        <v>248</v>
       </c>
       <c r="D83" s="7"/>
       <c r="E83" s="8" t="s">
-        <v>273</v>
+        <v>241</v>
       </c>
       <c r="F83" s="7"/>
       <c r="G83" s="7"/>
@@ -4607,17 +4071,17 @@
       <c r="I83" s="7"/>
       <c r="J83" s="7"/>
       <c r="K83" s="7" t="s">
-        <v>282</v>
+        <v>249</v>
       </c>
       <c r="L83" s="7"/>
     </row>
-    <row r="84" ht="18" customHeight="1" spans="1:12">
+    <row r="84" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A84" s="7"/>
       <c r="B84" s="7" t="s">
-        <v>283</v>
+        <v>250</v>
       </c>
       <c r="C84" s="12" t="s">
-        <v>284</v>
+        <v>251</v>
       </c>
       <c r="D84" s="7"/>
       <c r="E84" s="7"/>
@@ -4627,21 +4091,21 @@
       <c r="I84" s="7"/>
       <c r="J84" s="7"/>
       <c r="K84" s="7" t="s">
-        <v>285</v>
+        <v>252</v>
       </c>
       <c r="L84" s="7"/>
     </row>
-    <row r="85" ht="18" customHeight="1" spans="1:12">
+    <row r="85" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A85" s="7"/>
       <c r="B85" s="10" t="s">
-        <v>286</v>
+        <v>253</v>
       </c>
       <c r="C85" s="12" t="s">
-        <v>287</v>
+        <v>254</v>
       </c>
       <c r="D85" s="7"/>
       <c r="E85" s="7" t="s">
-        <v>264</v>
+        <v>232</v>
       </c>
       <c r="F85" s="7"/>
       <c r="G85" s="7"/>
@@ -4649,17 +4113,17 @@
       <c r="I85" s="7"/>
       <c r="J85" s="7"/>
       <c r="K85" s="13" t="s">
-        <v>288</v>
+        <v>255</v>
       </c>
       <c r="L85" s="7"/>
     </row>
-    <row r="86" ht="18" customHeight="1" spans="1:12">
+    <row r="86" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A86" s="7"/>
       <c r="B86" s="10" t="s">
-        <v>289</v>
+        <v>256</v>
       </c>
       <c r="C86" s="12" t="s">
-        <v>290</v>
+        <v>257</v>
       </c>
       <c r="D86" s="7"/>
       <c r="E86" s="7"/>
@@ -4669,61 +4133,48 @@
       <c r="I86" s="7"/>
       <c r="J86" s="7"/>
       <c r="K86" s="13" t="s">
-        <v>291</v>
+        <v>258</v>
       </c>
       <c r="L86" s="7"/>
     </row>
-    <row r="87" ht="18" customHeight="1" spans="1:12">
+    <row r="87" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A87" s="7"/>
-      <c r="B87" s="7" t="s">
-        <v>292</v>
-      </c>
-      <c r="C87" s="8" t="s">
-        <v>293</v>
-      </c>
-      <c r="D87" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="E87" s="7" t="s">
-        <v>294</v>
-      </c>
-      <c r="F87" s="7" t="s">
-        <v>295</v>
-      </c>
+      <c r="B87" s="7"/>
+      <c r="C87" s="8"/>
+      <c r="D87" s="7"/>
+      <c r="E87" s="7"/>
+      <c r="F87" s="7"/>
       <c r="G87" s="7"/>
       <c r="H87" s="7"/>
-      <c r="I87" s="7" t="s">
-        <v>296</v>
-      </c>
-      <c r="J87" s="7" t="s">
-        <v>297</v>
-      </c>
-      <c r="K87" s="7" t="s">
-        <v>298</v>
-      </c>
+      <c r="I87" s="7"/>
+      <c r="J87" s="7"/>
+      <c r="K87" s="7"/>
       <c r="L87" s="7"/>
     </row>
-    <row r="88" ht="18" customHeight="1" spans="1:12">
+    <row r="88" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A88" s="7"/>
-      <c r="B88" s="7"/>
-      <c r="C88" s="8"/>
+      <c r="B88" s="17" t="s">
+        <v>364</v>
+      </c>
+      <c r="C88" s="18" t="s">
+        <v>373</v>
+      </c>
       <c r="D88" s="7"/>
       <c r="E88" s="7"/>
       <c r="F88" s="7"/>
       <c r="G88" s="7"/>
       <c r="H88" s="7"/>
       <c r="I88" s="7"/>
-      <c r="J88" s="7"/>
       <c r="K88" s="7"/>
       <c r="L88" s="7"/>
     </row>
-    <row r="89" ht="18" customHeight="1" spans="1:12">
+    <row r="89" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A89" s="7"/>
       <c r="B89" s="7" t="s">
-        <v>299</v>
+        <v>259</v>
       </c>
       <c r="C89" s="8" t="s">
-        <v>300</v>
+        <v>260</v>
       </c>
       <c r="D89" s="7"/>
       <c r="E89" s="7"/>
@@ -4731,23 +4182,23 @@
       <c r="G89" s="7"/>
       <c r="H89" s="7"/>
       <c r="I89" s="7" t="s">
-        <v>301</v>
+        <v>261</v>
       </c>
       <c r="J89" s="2" t="s">
-        <v>302</v>
+        <v>262</v>
       </c>
       <c r="K89" s="7" t="s">
-        <v>303</v>
+        <v>263</v>
       </c>
       <c r="L89" s="7"/>
     </row>
-    <row r="90" ht="18" customHeight="1" spans="1:12">
+    <row r="90" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A90" s="7"/>
       <c r="B90" s="7" t="s">
-        <v>304</v>
+        <v>264</v>
       </c>
       <c r="C90" s="8" t="s">
-        <v>305</v>
+        <v>265</v>
       </c>
       <c r="D90" s="7"/>
       <c r="E90" s="7"/>
@@ -4757,17 +4208,17 @@
       <c r="I90" s="7"/>
       <c r="J90" s="7"/>
       <c r="K90" s="7" t="s">
-        <v>306</v>
+        <v>266</v>
       </c>
       <c r="L90" s="7"/>
     </row>
-    <row r="91" ht="18" customHeight="1" spans="1:12">
+    <row r="91" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A91" s="7"/>
       <c r="B91" s="7" t="s">
-        <v>307</v>
+        <v>267</v>
       </c>
       <c r="C91" s="8" t="s">
-        <v>308</v>
+        <v>268</v>
       </c>
       <c r="D91" s="7"/>
       <c r="E91" s="7"/>
@@ -4777,17 +4228,17 @@
       <c r="I91" s="7"/>
       <c r="J91" s="7"/>
       <c r="K91" s="11" t="s">
-        <v>187</v>
+        <v>161</v>
       </c>
       <c r="L91" s="7"/>
     </row>
-    <row r="92" ht="18" customHeight="1" spans="1:12">
+    <row r="92" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A92" s="7"/>
       <c r="B92" s="7" t="s">
-        <v>309</v>
+        <v>269</v>
       </c>
       <c r="C92" s="8" t="s">
-        <v>310</v>
+        <v>270</v>
       </c>
       <c r="D92" s="7"/>
       <c r="E92" s="7"/>
@@ -4796,17 +4247,17 @@
       <c r="H92" s="7"/>
       <c r="I92" s="7"/>
       <c r="K92" s="11" t="s">
-        <v>306</v>
+        <v>266</v>
       </c>
       <c r="L92" s="7"/>
     </row>
-    <row r="93" ht="18" customHeight="1" spans="1:12">
+    <row r="93" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A93" s="7"/>
       <c r="B93" s="8" t="s">
-        <v>311</v>
+        <v>271</v>
       </c>
       <c r="C93" s="8" t="s">
-        <v>312</v>
+        <v>272</v>
       </c>
       <c r="D93" s="7"/>
       <c r="E93" s="7"/>
@@ -4814,23 +4265,23 @@
       <c r="G93" s="7"/>
       <c r="H93" s="7"/>
       <c r="I93" s="7" t="s">
-        <v>313</v>
+        <v>273</v>
       </c>
       <c r="J93" s="2" t="s">
-        <v>302</v>
+        <v>262</v>
       </c>
       <c r="K93" s="11" t="s">
-        <v>311</v>
+        <v>271</v>
       </c>
       <c r="L93" s="7"/>
     </row>
-    <row r="94" ht="18" customHeight="1" spans="1:12">
+    <row r="94" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A94" s="7"/>
       <c r="B94" s="7" t="s">
-        <v>314</v>
+        <v>274</v>
       </c>
       <c r="C94" s="12" t="s">
-        <v>315</v>
+        <v>275</v>
       </c>
       <c r="D94" s="7"/>
       <c r="E94" s="7"/>
@@ -4840,17 +4291,17 @@
       <c r="I94" s="7"/>
       <c r="J94" s="7"/>
       <c r="K94" s="11" t="s">
-        <v>316</v>
+        <v>276</v>
       </c>
       <c r="L94" s="7"/>
     </row>
-    <row r="95" ht="18" customHeight="1" spans="1:12">
+    <row r="95" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A95" s="7"/>
       <c r="B95" s="7" t="s">
-        <v>317</v>
+        <v>277</v>
       </c>
       <c r="C95" s="8" t="s">
-        <v>318</v>
+        <v>278</v>
       </c>
       <c r="D95" s="7"/>
       <c r="E95" s="7"/>
@@ -4858,21 +4309,21 @@
       <c r="G95" s="7"/>
       <c r="H95" s="7"/>
       <c r="I95" s="7" t="s">
-        <v>319</v>
+        <v>279</v>
       </c>
       <c r="J95" s="7"/>
       <c r="K95" s="11" t="s">
-        <v>320</v>
+        <v>376</v>
       </c>
       <c r="L95" s="7"/>
     </row>
-    <row r="96" ht="18" customHeight="1" spans="1:12">
+    <row r="96" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A96" s="7"/>
       <c r="B96" s="7" t="s">
-        <v>321</v>
+        <v>280</v>
       </c>
       <c r="C96" s="8" t="s">
-        <v>322</v>
+        <v>281</v>
       </c>
       <c r="D96" s="7"/>
       <c r="E96" s="7"/>
@@ -4882,17 +4333,17 @@
       <c r="I96" s="7"/>
       <c r="J96" s="7"/>
       <c r="K96" s="11" t="s">
-        <v>323</v>
+        <v>282</v>
       </c>
       <c r="L96" s="7"/>
     </row>
-    <row r="97" ht="18" customHeight="1" spans="1:12">
+    <row r="97" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A97" s="7"/>
       <c r="B97" s="11" t="s">
-        <v>324</v>
+        <v>283</v>
       </c>
       <c r="C97" s="8" t="s">
-        <v>325</v>
+        <v>284</v>
       </c>
       <c r="D97" s="7"/>
       <c r="E97" s="7"/>
@@ -4902,41 +4353,41 @@
       <c r="I97" s="7"/>
       <c r="J97" s="7"/>
       <c r="K97" s="11" t="s">
-        <v>326</v>
+        <v>285</v>
       </c>
       <c r="L97" s="7"/>
     </row>
-    <row r="98" ht="18" customHeight="1" spans="1:12">
+    <row r="98" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A98" s="7"/>
       <c r="B98" s="7" t="s">
-        <v>327</v>
+        <v>286</v>
       </c>
       <c r="C98" s="8" t="s">
-        <v>328</v>
+        <v>287</v>
       </c>
       <c r="D98" s="7"/>
       <c r="E98" s="7" t="s">
-        <v>329</v>
+        <v>288</v>
       </c>
       <c r="F98" s="7"/>
       <c r="G98" s="7"/>
       <c r="H98" s="7"/>
       <c r="I98" s="7"/>
       <c r="J98" s="7" t="s">
-        <v>330</v>
+        <v>289</v>
       </c>
       <c r="K98" s="7" t="s">
-        <v>323</v>
+        <v>282</v>
       </c>
       <c r="L98" s="7"/>
     </row>
-    <row r="99" ht="18" customHeight="1" spans="1:12">
+    <row r="99" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A99" s="7"/>
       <c r="B99" s="7" t="s">
-        <v>331</v>
+        <v>290</v>
       </c>
       <c r="C99" s="8" t="s">
-        <v>332</v>
+        <v>381</v>
       </c>
       <c r="D99" s="7"/>
       <c r="E99" s="7"/>
@@ -4946,16 +4397,18 @@
       <c r="I99" s="7"/>
       <c r="J99" s="7"/>
       <c r="K99" s="7" t="s">
-        <v>333</v>
+        <v>291</v>
       </c>
       <c r="L99" s="7"/>
     </row>
-    <row r="100" ht="18" customHeight="1" spans="1:12">
+    <row r="100" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A100" s="7"/>
       <c r="B100" s="7" t="s">
-        <v>334</v>
-      </c>
-      <c r="C100" s="8"/>
+        <v>380</v>
+      </c>
+      <c r="C100" s="8" t="s">
+        <v>382</v>
+      </c>
       <c r="D100" s="7"/>
       <c r="E100" s="7"/>
       <c r="F100" s="7"/>
@@ -4964,14 +4417,14 @@
       <c r="I100" s="7"/>
       <c r="J100" s="7"/>
       <c r="K100" s="7" t="s">
-        <v>335</v>
+        <v>380</v>
       </c>
       <c r="L100" s="7"/>
     </row>
-    <row r="101" ht="18" customHeight="1" spans="1:12">
+    <row r="101" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A101" s="7"/>
       <c r="B101" s="7" t="s">
-        <v>336</v>
+        <v>292</v>
       </c>
       <c r="C101" s="8"/>
       <c r="D101" s="7"/>
@@ -4982,13 +4435,15 @@
       <c r="I101" s="7"/>
       <c r="J101" s="7"/>
       <c r="K101" s="7" t="s">
-        <v>337</v>
+        <v>293</v>
       </c>
       <c r="L101" s="7"/>
     </row>
-    <row r="102" ht="18" customHeight="1" spans="1:12">
+    <row r="102" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A102" s="7"/>
-      <c r="B102" s="7"/>
+      <c r="B102" s="7" t="s">
+        <v>294</v>
+      </c>
       <c r="C102" s="8"/>
       <c r="D102" s="7"/>
       <c r="E102" s="7"/>
@@ -4997,17 +4452,15 @@
       <c r="H102" s="7"/>
       <c r="I102" s="7"/>
       <c r="J102" s="7"/>
-      <c r="K102" s="7"/>
+      <c r="K102" s="7" t="s">
+        <v>295</v>
+      </c>
       <c r="L102" s="7"/>
     </row>
-    <row r="103" ht="18" customHeight="1" spans="1:12">
+    <row r="103" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A103" s="7"/>
-      <c r="B103" s="7" t="s">
-        <v>338</v>
-      </c>
-      <c r="C103" s="8" t="s">
-        <v>339</v>
-      </c>
+      <c r="B103" s="7"/>
+      <c r="C103" s="8"/>
       <c r="D103" s="7"/>
       <c r="E103" s="7"/>
       <c r="F103" s="7"/>
@@ -5015,18 +4468,16 @@
       <c r="H103" s="7"/>
       <c r="I103" s="7"/>
       <c r="J103" s="7"/>
-      <c r="K103" s="7" t="s">
-        <v>340</v>
-      </c>
+      <c r="K103" s="7"/>
       <c r="L103" s="7"/>
     </row>
-    <row r="104" ht="18" customHeight="1" spans="1:12">
+    <row r="104" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A104" s="7"/>
       <c r="B104" s="7" t="s">
-        <v>341</v>
+        <v>296</v>
       </c>
       <c r="C104" s="8" t="s">
-        <v>339</v>
+        <v>297</v>
       </c>
       <c r="D104" s="7"/>
       <c r="E104" s="7"/>
@@ -5036,14 +4487,18 @@
       <c r="I104" s="7"/>
       <c r="J104" s="7"/>
       <c r="K104" s="7" t="s">
-        <v>342</v>
+        <v>298</v>
       </c>
       <c r="L104" s="7"/>
     </row>
-    <row r="105" ht="18" customHeight="1" spans="1:12">
+    <row r="105" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A105" s="7"/>
-      <c r="B105" s="7"/>
-      <c r="C105" s="8"/>
+      <c r="B105" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="C105" s="8" t="s">
+        <v>297</v>
+      </c>
       <c r="D105" s="7"/>
       <c r="E105" s="7"/>
       <c r="F105" s="7"/>
@@ -5051,17 +4506,15 @@
       <c r="H105" s="7"/>
       <c r="I105" s="7"/>
       <c r="J105" s="7"/>
-      <c r="K105" s="7"/>
+      <c r="K105" s="7" t="s">
+        <v>300</v>
+      </c>
       <c r="L105" s="7"/>
     </row>
-    <row r="106" ht="18" customHeight="1" spans="1:12">
+    <row r="106" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A106" s="7"/>
-      <c r="B106" s="7" t="s">
-        <v>343</v>
-      </c>
-      <c r="C106" s="8" t="s">
-        <v>344</v>
-      </c>
+      <c r="B106" s="7"/>
+      <c r="C106" s="8"/>
       <c r="D106" s="7"/>
       <c r="E106" s="7"/>
       <c r="F106" s="7"/>
@@ -5069,15 +4522,17 @@
       <c r="H106" s="7"/>
       <c r="I106" s="7"/>
       <c r="J106" s="7"/>
-      <c r="K106" s="7" t="s">
-        <v>345</v>
-      </c>
+      <c r="K106" s="7"/>
       <c r="L106" s="7"/>
     </row>
-    <row r="107" ht="18" customHeight="1" spans="1:12">
+    <row r="107" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A107" s="7"/>
-      <c r="B107" s="7"/>
-      <c r="C107" s="8"/>
+      <c r="B107" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="C107" s="8" t="s">
+        <v>302</v>
+      </c>
       <c r="D107" s="7"/>
       <c r="E107" s="7"/>
       <c r="F107" s="7"/>
@@ -5085,17 +4540,15 @@
       <c r="H107" s="7"/>
       <c r="I107" s="7"/>
       <c r="J107" s="7"/>
-      <c r="K107" s="7"/>
+      <c r="K107" s="7" t="s">
+        <v>303</v>
+      </c>
       <c r="L107" s="7"/>
     </row>
-    <row r="108" ht="18" customHeight="1" spans="1:12">
+    <row r="108" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A108" s="7"/>
-      <c r="B108" s="7" t="s">
-        <v>346</v>
-      </c>
-      <c r="C108" s="8" t="s">
-        <v>347</v>
-      </c>
+      <c r="B108" s="7"/>
+      <c r="C108" s="8"/>
       <c r="D108" s="7"/>
       <c r="E108" s="7"/>
       <c r="F108" s="7"/>
@@ -5106,179 +4559,175 @@
       <c r="K108" s="7"/>
       <c r="L108" s="7"/>
     </row>
-    <row r="109" ht="18" customHeight="1" spans="1:12">
+    <row r="109" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A109" s="7"/>
       <c r="B109" s="7" t="s">
-        <v>348</v>
+        <v>304</v>
       </c>
       <c r="C109" s="8" t="s">
-        <v>349</v>
+        <v>305</v>
       </c>
       <c r="D109" s="7"/>
-      <c r="E109" s="7" t="s">
-        <v>350</v>
-      </c>
+      <c r="E109" s="7"/>
       <c r="F109" s="7"/>
       <c r="G109" s="7"/>
       <c r="H109" s="7"/>
-      <c r="I109" s="7" t="s">
-        <v>350</v>
-      </c>
-      <c r="J109" s="7" t="s">
-        <v>351</v>
-      </c>
-      <c r="K109" s="7" t="s">
-        <v>352</v>
-      </c>
-      <c r="L109" s="14" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="110" ht="18" customHeight="1" spans="1:12">
+      <c r="I109" s="7"/>
+      <c r="J109" s="7"/>
+      <c r="K109" s="7"/>
+      <c r="L109" s="7"/>
+    </row>
+    <row r="110" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A110" s="7"/>
       <c r="B110" s="7" t="s">
-        <v>348</v>
+        <v>306</v>
       </c>
       <c r="C110" s="8" t="s">
-        <v>354</v>
+        <v>377</v>
       </c>
       <c r="D110" s="7"/>
       <c r="E110" s="7" t="s">
-        <v>350</v>
+        <v>307</v>
       </c>
       <c r="F110" s="7"/>
       <c r="G110" s="7"/>
       <c r="H110" s="7"/>
       <c r="I110" s="7" t="s">
-        <v>350</v>
+        <v>307</v>
       </c>
       <c r="J110" s="7" t="s">
-        <v>355</v>
+        <v>308</v>
       </c>
       <c r="K110" s="7" t="s">
-        <v>352</v>
-      </c>
-      <c r="L110" s="15" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="111" ht="18" customHeight="1" spans="1:12">
+        <v>309</v>
+      </c>
+      <c r="L110" s="14" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="111" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A111" s="7"/>
       <c r="B111" s="7" t="s">
-        <v>348</v>
+        <v>306</v>
       </c>
       <c r="C111" s="8" t="s">
-        <v>357</v>
+        <v>378</v>
       </c>
       <c r="D111" s="7"/>
-      <c r="E111" s="7"/>
+      <c r="E111" s="7" t="s">
+        <v>307</v>
+      </c>
       <c r="F111" s="7"/>
       <c r="G111" s="7"/>
       <c r="H111" s="7"/>
       <c r="I111" s="7" t="s">
-        <v>350</v>
+        <v>307</v>
       </c>
       <c r="J111" s="7" t="s">
-        <v>351</v>
+        <v>311</v>
       </c>
       <c r="K111" s="7" t="s">
-        <v>358</v>
+        <v>379</v>
       </c>
       <c r="L111" s="15" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="112" ht="18" customHeight="1" spans="1:12">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="112" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A112" s="7"/>
       <c r="B112" s="7" t="s">
-        <v>360</v>
+        <v>306</v>
       </c>
       <c r="C112" s="8" t="s">
-        <v>361</v>
+        <v>313</v>
       </c>
       <c r="D112" s="7"/>
-      <c r="E112" s="7" t="s">
-        <v>350</v>
-      </c>
+      <c r="E112" s="7"/>
       <c r="F112" s="7"/>
       <c r="G112" s="7"/>
       <c r="H112" s="7"/>
       <c r="I112" s="7" t="s">
-        <v>350</v>
-      </c>
-      <c r="J112" s="7"/>
+        <v>307</v>
+      </c>
+      <c r="J112" s="7" t="s">
+        <v>308</v>
+      </c>
       <c r="K112" s="7" t="s">
-        <v>362</v>
-      </c>
-      <c r="L112" s="7"/>
-    </row>
-    <row r="113" ht="18" customHeight="1" spans="1:12">
+        <v>314</v>
+      </c>
+      <c r="L112" s="15" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="113" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A113" s="7"/>
       <c r="B113" s="7" t="s">
-        <v>363</v>
+        <v>316</v>
       </c>
       <c r="C113" s="8" t="s">
-        <v>364</v>
+        <v>317</v>
       </c>
       <c r="D113" s="7"/>
       <c r="E113" s="7" t="s">
-        <v>350</v>
+        <v>307</v>
       </c>
       <c r="F113" s="7"/>
       <c r="G113" s="7"/>
       <c r="H113" s="7"/>
       <c r="I113" s="7" t="s">
-        <v>350</v>
+        <v>307</v>
       </c>
       <c r="J113" s="7"/>
       <c r="K113" s="7" t="s">
-        <v>365</v>
+        <v>318</v>
       </c>
       <c r="L113" s="7"/>
     </row>
-    <row r="114" ht="18" customHeight="1" spans="1:12">
+    <row r="114" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A114" s="7"/>
-      <c r="B114" s="7"/>
-      <c r="C114" s="8"/>
+      <c r="B114" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="C114" s="8" t="s">
+        <v>320</v>
+      </c>
       <c r="D114" s="7"/>
-      <c r="E114" s="7"/>
+      <c r="E114" s="7" t="s">
+        <v>307</v>
+      </c>
       <c r="F114" s="7"/>
       <c r="G114" s="7"/>
       <c r="H114" s="7"/>
-      <c r="I114" s="7"/>
+      <c r="I114" s="7" t="s">
+        <v>307</v>
+      </c>
       <c r="J114" s="7"/>
-      <c r="K114" s="7"/>
+      <c r="K114" s="7" t="s">
+        <v>321</v>
+      </c>
       <c r="L114" s="7"/>
     </row>
-    <row r="115" ht="18" customHeight="1" spans="1:12">
+    <row r="115" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A115" s="7"/>
-      <c r="B115" s="7" t="s">
-        <v>366</v>
-      </c>
-      <c r="C115" s="8" t="s">
-        <v>367</v>
-      </c>
+      <c r="B115" s="7"/>
+      <c r="C115" s="8"/>
       <c r="D115" s="7"/>
       <c r="E115" s="7"/>
       <c r="F115" s="7"/>
       <c r="G115" s="7"/>
       <c r="H115" s="7"/>
-      <c r="I115" s="7" t="s">
-        <v>368</v>
-      </c>
+      <c r="I115" s="7"/>
       <c r="J115" s="7"/>
-      <c r="K115" s="7" t="s">
-        <v>369</v>
-      </c>
+      <c r="K115" s="7"/>
       <c r="L115" s="7"/>
     </row>
-    <row r="116" ht="18" customHeight="1" spans="1:12">
+    <row r="116" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A116" s="7"/>
       <c r="B116" s="7" t="s">
-        <v>370</v>
+        <v>322</v>
       </c>
       <c r="C116" s="8" t="s">
-        <v>371</v>
+        <v>323</v>
       </c>
       <c r="D116" s="7"/>
       <c r="E116" s="7"/>
@@ -5286,36 +4735,40 @@
       <c r="G116" s="7"/>
       <c r="H116" s="7"/>
       <c r="I116" s="7" t="s">
-        <v>372</v>
+        <v>324</v>
       </c>
       <c r="J116" s="7"/>
       <c r="K116" s="7" t="s">
-        <v>373</v>
+        <v>325</v>
       </c>
       <c r="L116" s="7"/>
     </row>
-    <row r="117" ht="18" customHeight="1" spans="1:12">
+    <row r="117" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A117" s="7"/>
-      <c r="B117" s="7"/>
-      <c r="C117" s="8"/>
+      <c r="B117" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="C117" s="8" t="s">
+        <v>327</v>
+      </c>
       <c r="D117" s="7"/>
       <c r="E117" s="7"/>
       <c r="F117" s="7"/>
       <c r="G117" s="7"/>
       <c r="H117" s="7"/>
-      <c r="I117" s="7"/>
+      <c r="I117" s="7" t="s">
+        <v>328</v>
+      </c>
       <c r="J117" s="7"/>
-      <c r="K117" s="7"/>
+      <c r="K117" s="7" t="s">
+        <v>329</v>
+      </c>
       <c r="L117" s="7"/>
     </row>
-    <row r="118" ht="18" customHeight="1" spans="1:12">
+    <row r="118" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A118" s="7"/>
-      <c r="B118" s="7" t="s">
-        <v>374</v>
-      </c>
-      <c r="C118" s="8" t="s">
-        <v>375</v>
-      </c>
+      <c r="B118" s="7"/>
+      <c r="C118" s="8"/>
       <c r="D118" s="7"/>
       <c r="E118" s="7"/>
       <c r="F118" s="7"/>
@@ -5323,17 +4776,17 @@
       <c r="H118" s="7"/>
       <c r="I118" s="7"/>
       <c r="J118" s="7"/>
-      <c r="K118" s="7" t="s">
-        <v>376</v>
-      </c>
-      <c r="L118" s="15" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="119" ht="18" customHeight="1" spans="1:12">
+      <c r="K118" s="7"/>
+      <c r="L118" s="7"/>
+    </row>
+    <row r="119" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A119" s="7"/>
-      <c r="B119" s="7"/>
-      <c r="C119" s="8"/>
+      <c r="B119" s="7" t="s">
+        <v>330</v>
+      </c>
+      <c r="C119" s="8" t="s">
+        <v>331</v>
+      </c>
       <c r="D119" s="7"/>
       <c r="E119" s="7"/>
       <c r="F119" s="7"/>
@@ -5341,17 +4794,17 @@
       <c r="H119" s="7"/>
       <c r="I119" s="7"/>
       <c r="J119" s="7"/>
-      <c r="K119" s="7"/>
-      <c r="L119" s="7"/>
-    </row>
-    <row r="120" ht="18" customHeight="1" spans="1:12">
+      <c r="K119" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="L119" s="15" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="120" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A120" s="7"/>
-      <c r="B120" s="7" t="s">
-        <v>378</v>
-      </c>
-      <c r="C120" s="8" t="s">
-        <v>379</v>
-      </c>
+      <c r="B120" s="7"/>
+      <c r="C120" s="8"/>
       <c r="D120" s="7"/>
       <c r="E120" s="7"/>
       <c r="F120" s="7"/>
@@ -5359,20 +4812,16 @@
       <c r="H120" s="7"/>
       <c r="I120" s="7"/>
       <c r="J120" s="7"/>
-      <c r="K120" s="7" t="s">
-        <v>380</v>
-      </c>
-      <c r="L120" s="15" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="121" ht="18" customHeight="1" spans="1:12">
+      <c r="K120" s="7"/>
+      <c r="L120" s="7"/>
+    </row>
+    <row r="121" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A121" s="7"/>
-      <c r="B121" s="7" t="s">
-        <v>382</v>
+      <c r="B121" s="17" t="s">
+        <v>400</v>
       </c>
       <c r="C121" s="8" t="s">
-        <v>379</v>
+        <v>383</v>
       </c>
       <c r="D121" s="7"/>
       <c r="E121" s="7"/>
@@ -5382,19 +4831,19 @@
       <c r="I121" s="7"/>
       <c r="J121" s="7"/>
       <c r="K121" s="7" t="s">
+        <v>334</v>
+      </c>
+      <c r="L121" s="15" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="122" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A122" s="7"/>
+      <c r="B122" s="17" t="s">
+        <v>401</v>
+      </c>
+      <c r="C122" s="8" t="s">
         <v>383</v>
-      </c>
-      <c r="L121" s="15" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="122" ht="18" customHeight="1" spans="1:12">
-      <c r="A122" s="7"/>
-      <c r="B122" s="7" t="s">
-        <v>384</v>
-      </c>
-      <c r="C122" s="8" t="s">
-        <v>385</v>
       </c>
       <c r="D122" s="7"/>
       <c r="E122" s="7"/>
@@ -5404,16 +4853,20 @@
       <c r="I122" s="7"/>
       <c r="J122" s="7"/>
       <c r="K122" s="7" t="s">
-        <v>384</v>
-      </c>
-      <c r="L122" s="7" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="123" ht="18" customHeight="1" spans="1:12">
+        <v>336</v>
+      </c>
+      <c r="L122" s="15" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="123" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A123" s="7"/>
-      <c r="B123" s="7"/>
-      <c r="C123" s="8"/>
+      <c r="B123" s="17" t="s">
+        <v>403</v>
+      </c>
+      <c r="C123" s="18" t="s">
+        <v>405</v>
+      </c>
       <c r="D123" s="7"/>
       <c r="E123" s="7"/>
       <c r="F123" s="7"/>
@@ -5421,60 +4874,58 @@
       <c r="H123" s="7"/>
       <c r="I123" s="7"/>
       <c r="J123" s="7"/>
-      <c r="K123" s="7"/>
-      <c r="L123" s="7"/>
-    </row>
-    <row r="124" ht="18" customHeight="1" spans="1:12">
+      <c r="K123" s="17" t="s">
+        <v>403</v>
+      </c>
+      <c r="L123" s="15" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="124" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A124" s="7"/>
-      <c r="B124" s="11" t="s">
-        <v>387</v>
-      </c>
-      <c r="C124" s="12" t="s">
-        <v>388</v>
-      </c>
+      <c r="B124" s="7"/>
+      <c r="C124" s="8"/>
       <c r="D124" s="7"/>
       <c r="E124" s="7"/>
       <c r="F124" s="7"/>
       <c r="G124" s="7"/>
       <c r="H124" s="7"/>
-      <c r="I124" s="11" t="s">
-        <v>389</v>
-      </c>
+      <c r="I124" s="7"/>
       <c r="J124" s="7"/>
-      <c r="K124" s="11" t="s">
-        <v>389</v>
-      </c>
-      <c r="L124" s="15" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="125" ht="18" customHeight="1" spans="1:12">
+      <c r="K124" s="7"/>
+      <c r="L124" s="7"/>
+    </row>
+    <row r="125" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A125" s="7"/>
-      <c r="B125" s="7" t="s">
-        <v>391</v>
-      </c>
-      <c r="C125" s="8" t="s">
-        <v>392</v>
+      <c r="B125" s="11" t="s">
+        <v>337</v>
+      </c>
+      <c r="C125" s="12" t="s">
+        <v>338</v>
       </c>
       <c r="D125" s="7"/>
       <c r="E125" s="7"/>
       <c r="F125" s="7"/>
       <c r="G125" s="7"/>
       <c r="H125" s="7"/>
-      <c r="I125" s="7"/>
+      <c r="I125" s="11" t="s">
+        <v>339</v>
+      </c>
       <c r="J125" s="7"/>
       <c r="K125" s="11" t="s">
-        <v>393</v>
-      </c>
-      <c r="L125" s="7"/>
-    </row>
-    <row r="126" ht="18" customHeight="1" spans="1:12">
+        <v>339</v>
+      </c>
+      <c r="L125" s="15" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="126" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A126" s="7"/>
       <c r="B126" s="7" t="s">
-        <v>394</v>
+        <v>341</v>
       </c>
       <c r="C126" s="8" t="s">
-        <v>395</v>
+        <v>342</v>
       </c>
       <c r="D126" s="7"/>
       <c r="E126" s="7"/>
@@ -5483,16 +4934,18 @@
       <c r="H126" s="7"/>
       <c r="I126" s="7"/>
       <c r="J126" s="7"/>
-      <c r="K126" s="7"/>
+      <c r="K126" s="11" t="s">
+        <v>343</v>
+      </c>
       <c r="L126" s="7"/>
     </row>
-    <row r="127" ht="18" customHeight="1" spans="1:12">
+    <row r="127" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A127" s="7"/>
       <c r="B127" s="7" t="s">
-        <v>396</v>
-      </c>
-      <c r="C127" s="12" t="s">
-        <v>397</v>
+        <v>344</v>
+      </c>
+      <c r="C127" s="8" t="s">
+        <v>345</v>
       </c>
       <c r="D127" s="7"/>
       <c r="E127" s="7"/>
@@ -5501,18 +4954,16 @@
       <c r="H127" s="7"/>
       <c r="I127" s="7"/>
       <c r="J127" s="7"/>
-      <c r="K127" s="7" t="s">
-        <v>396</v>
-      </c>
+      <c r="K127" s="7"/>
       <c r="L127" s="7"/>
     </row>
-    <row r="128" ht="18" customHeight="1" spans="1:12">
+    <row r="128" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A128" s="7"/>
       <c r="B128" s="7" t="s">
-        <v>398</v>
-      </c>
-      <c r="C128" s="8" t="s">
-        <v>399</v>
+        <v>346</v>
+      </c>
+      <c r="C128" s="12" t="s">
+        <v>347</v>
       </c>
       <c r="D128" s="7"/>
       <c r="E128" s="7"/>
@@ -5521,57 +4972,61 @@
       <c r="H128" s="7"/>
       <c r="I128" s="7"/>
       <c r="J128" s="7"/>
-      <c r="K128" s="11" t="s">
-        <v>400</v>
+      <c r="K128" s="7" t="s">
+        <v>346</v>
       </c>
       <c r="L128" s="7"/>
     </row>
-    <row r="129" ht="18" customHeight="1" spans="1:12">
+    <row r="129" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A129" s="7"/>
-      <c r="B129" s="11" t="s">
-        <v>401</v>
-      </c>
-      <c r="C129" s="16" t="s">
-        <v>402</v>
+      <c r="B129" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="C129" s="8" t="s">
+        <v>349</v>
       </c>
       <c r="D129" s="7"/>
       <c r="E129" s="7"/>
       <c r="F129" s="7"/>
       <c r="G129" s="7"/>
       <c r="H129" s="7"/>
-      <c r="I129" s="7" t="s">
-        <v>403</v>
-      </c>
+      <c r="I129" s="7"/>
       <c r="J129" s="7"/>
-      <c r="K129" s="7" t="s">
-        <v>403</v>
+      <c r="K129" s="11" t="s">
+        <v>350</v>
       </c>
       <c r="L129" s="7"/>
     </row>
-    <row r="130" ht="18" customHeight="1" spans="1:12">
+    <row r="130" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A130" s="7"/>
-      <c r="B130" s="7" t="s">
-        <v>404</v>
-      </c>
-      <c r="C130" s="8" t="s">
-        <v>405</v>
+      <c r="B130" s="11" t="s">
+        <v>351</v>
+      </c>
+      <c r="C130" s="16" t="s">
+        <v>352</v>
       </c>
       <c r="D130" s="7"/>
       <c r="E130" s="7"/>
       <c r="F130" s="7"/>
       <c r="G130" s="7"/>
       <c r="H130" s="7"/>
-      <c r="I130" s="7"/>
+      <c r="I130" s="7" t="s">
+        <v>353</v>
+      </c>
       <c r="J130" s="7"/>
       <c r="K130" s="7" t="s">
-        <v>406</v>
+        <v>353</v>
       </c>
       <c r="L130" s="7"/>
     </row>
-    <row r="131" ht="18" customHeight="1" spans="1:12">
+    <row r="131" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A131" s="7"/>
-      <c r="B131" s="7"/>
-      <c r="C131" s="8"/>
+      <c r="B131" s="7" t="s">
+        <v>354</v>
+      </c>
+      <c r="C131" s="8" t="s">
+        <v>388</v>
+      </c>
       <c r="D131" s="7"/>
       <c r="E131" s="7"/>
       <c r="F131" s="7"/>
@@ -5579,10 +5034,12 @@
       <c r="H131" s="7"/>
       <c r="I131" s="7"/>
       <c r="J131" s="7"/>
-      <c r="K131" s="7"/>
+      <c r="K131" s="7" t="s">
+        <v>355</v>
+      </c>
       <c r="L131" s="7"/>
     </row>
-    <row r="132" ht="18" customHeight="1" spans="1:12">
+    <row r="132" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A132" s="7"/>
       <c r="B132" s="7"/>
       <c r="C132" s="8"/>
@@ -5596,23 +5053,32 @@
       <c r="K132" s="7"/>
       <c r="L132" s="7"/>
     </row>
-    <row r="133" ht="18" customHeight="1" spans="1:12">
+    <row r="133" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A133" s="7"/>
-      <c r="B133" s="7"/>
-      <c r="C133" s="8"/>
-      <c r="D133" s="7"/>
+      <c r="B133" s="8" t="s">
+        <v>387</v>
+      </c>
+      <c r="C133" s="7" t="s">
+        <v>384</v>
+      </c>
       <c r="E133" s="7"/>
       <c r="F133" s="7"/>
       <c r="G133" s="7"/>
       <c r="H133" s="7"/>
       <c r="I133" s="7"/>
       <c r="J133" s="7"/>
-      <c r="K133" s="7"/>
-      <c r="L133" s="7"/>
-    </row>
-    <row r="134" ht="18" customHeight="1" spans="1:12">
+      <c r="K133" s="8" t="s">
+        <v>386</v>
+      </c>
+      <c r="L133" s="15" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="134" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A134" s="7"/>
-      <c r="B134" s="7"/>
+      <c r="B134" s="7" t="s">
+        <v>389</v>
+      </c>
       <c r="C134" s="8"/>
       <c r="D134" s="7"/>
       <c r="E134" s="7"/>
@@ -5621,13 +5087,19 @@
       <c r="H134" s="7"/>
       <c r="I134" s="7"/>
       <c r="J134" s="7"/>
-      <c r="K134" s="7"/>
+      <c r="K134" s="7" t="s">
+        <v>389</v>
+      </c>
       <c r="L134" s="7"/>
     </row>
-    <row r="135" ht="18" customHeight="1" spans="1:12">
+    <row r="135" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A135" s="7"/>
-      <c r="B135" s="7"/>
-      <c r="C135" s="8"/>
+      <c r="B135" s="7" t="s">
+        <v>390</v>
+      </c>
+      <c r="C135" s="8" t="s">
+        <v>391</v>
+      </c>
       <c r="D135" s="7"/>
       <c r="E135" s="7"/>
       <c r="F135" s="7"/>
@@ -5635,13 +5107,19 @@
       <c r="H135" s="7"/>
       <c r="I135" s="7"/>
       <c r="J135" s="7"/>
-      <c r="K135" s="7"/>
+      <c r="K135" s="7" t="s">
+        <v>390</v>
+      </c>
       <c r="L135" s="7"/>
     </row>
-    <row r="136" ht="18" customHeight="1" spans="1:12">
+    <row r="136" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A136" s="7"/>
-      <c r="B136" s="7"/>
-      <c r="C136" s="8"/>
+      <c r="B136" s="7" t="s">
+        <v>392</v>
+      </c>
+      <c r="C136" s="8" t="s">
+        <v>393</v>
+      </c>
       <c r="D136" s="7"/>
       <c r="E136" s="7"/>
       <c r="F136" s="7"/>
@@ -5649,13 +5127,19 @@
       <c r="H136" s="7"/>
       <c r="I136" s="7"/>
       <c r="J136" s="7"/>
-      <c r="K136" s="7"/>
+      <c r="K136" s="7" t="s">
+        <v>392</v>
+      </c>
       <c r="L136" s="7"/>
     </row>
-    <row r="137" ht="18" customHeight="1" spans="1:12">
+    <row r="137" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A137" s="7"/>
-      <c r="B137" s="7"/>
-      <c r="C137" s="8"/>
+      <c r="B137" s="7" t="s">
+        <v>397</v>
+      </c>
+      <c r="C137" s="8" t="s">
+        <v>398</v>
+      </c>
       <c r="D137" s="7"/>
       <c r="E137" s="7"/>
       <c r="F137" s="7"/>
@@ -5663,10 +5147,12 @@
       <c r="H137" s="7"/>
       <c r="I137" s="7"/>
       <c r="J137" s="7"/>
-      <c r="K137" s="7"/>
+      <c r="K137" s="7" t="s">
+        <v>399</v>
+      </c>
       <c r="L137" s="7"/>
     </row>
-    <row r="138" ht="18" customHeight="1" spans="1:12">
+    <row r="138" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A138" s="7"/>
       <c r="B138" s="7"/>
       <c r="C138" s="8"/>
@@ -5680,7 +5166,7 @@
       <c r="K138" s="7"/>
       <c r="L138" s="7"/>
     </row>
-    <row r="139" ht="18" customHeight="1" spans="1:12">
+    <row r="139" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A139" s="7"/>
       <c r="B139" s="7"/>
       <c r="C139" s="8"/>
@@ -5694,7 +5180,7 @@
       <c r="K139" s="7"/>
       <c r="L139" s="7"/>
     </row>
-    <row r="140" ht="18" customHeight="1" spans="1:12">
+    <row r="140" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A140" s="7"/>
       <c r="B140" s="7"/>
       <c r="C140" s="8"/>
@@ -5708,7 +5194,7 @@
       <c r="K140" s="7"/>
       <c r="L140" s="7"/>
     </row>
-    <row r="141" ht="18" customHeight="1" spans="1:12">
+    <row r="141" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A141" s="7"/>
       <c r="B141" s="7"/>
       <c r="C141" s="8"/>
@@ -5722,7 +5208,7 @@
       <c r="K141" s="7"/>
       <c r="L141" s="7"/>
     </row>
-    <row r="142" ht="18" customHeight="1" spans="1:12">
+    <row r="142" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A142" s="7"/>
       <c r="B142" s="7"/>
       <c r="C142" s="8"/>
@@ -5736,7 +5222,7 @@
       <c r="K142" s="7"/>
       <c r="L142" s="7"/>
     </row>
-    <row r="143" ht="18" customHeight="1" spans="1:12">
+    <row r="143" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A143" s="7"/>
       <c r="B143" s="7"/>
       <c r="C143" s="8"/>
@@ -5750,7 +5236,7 @@
       <c r="K143" s="7"/>
       <c r="L143" s="7"/>
     </row>
-    <row r="144" ht="18" customHeight="1" spans="1:12">
+    <row r="144" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A144" s="7"/>
       <c r="B144" s="7"/>
       <c r="C144" s="8"/>
@@ -5764,7 +5250,7 @@
       <c r="K144" s="7"/>
       <c r="L144" s="7"/>
     </row>
-    <row r="145" ht="18" customHeight="1" spans="1:12">
+    <row r="145" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A145" s="7"/>
       <c r="B145" s="7"/>
       <c r="C145" s="8"/>
@@ -5778,7 +5264,7 @@
       <c r="K145" s="7"/>
       <c r="L145" s="7"/>
     </row>
-    <row r="146" ht="18" customHeight="1" spans="1:12">
+    <row r="146" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A146" s="7"/>
       <c r="B146" s="7"/>
       <c r="C146" s="8"/>
@@ -5792,7 +5278,7 @@
       <c r="K146" s="7"/>
       <c r="L146" s="7"/>
     </row>
-    <row r="147" ht="18" customHeight="1" spans="1:12">
+    <row r="147" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A147" s="7"/>
       <c r="B147" s="7"/>
       <c r="C147" s="8"/>
@@ -5806,7 +5292,7 @@
       <c r="K147" s="7"/>
       <c r="L147" s="7"/>
     </row>
-    <row r="148" ht="18" customHeight="1" spans="1:12">
+    <row r="148" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A148" s="7"/>
       <c r="B148" s="7"/>
       <c r="C148" s="8"/>
@@ -5820,7 +5306,7 @@
       <c r="K148" s="7"/>
       <c r="L148" s="7"/>
     </row>
-    <row r="149" ht="18" customHeight="1" spans="1:12">
+    <row r="149" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A149" s="7"/>
       <c r="B149" s="7"/>
       <c r="C149" s="8"/>
@@ -5834,7 +5320,7 @@
       <c r="K149" s="7"/>
       <c r="L149" s="7"/>
     </row>
-    <row r="150" ht="18" customHeight="1" spans="1:12">
+    <row r="150" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A150" s="7"/>
       <c r="B150" s="7"/>
       <c r="C150" s="8"/>
@@ -5848,7 +5334,7 @@
       <c r="K150" s="7"/>
       <c r="L150" s="7"/>
     </row>
-    <row r="151" ht="18" customHeight="1" spans="1:12">
+    <row r="151" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A151" s="7"/>
       <c r="B151" s="7"/>
       <c r="C151" s="8"/>
@@ -5862,7 +5348,7 @@
       <c r="K151" s="7"/>
       <c r="L151" s="7"/>
     </row>
-    <row r="152" ht="18" customHeight="1" spans="1:12">
+    <row r="152" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A152" s="7"/>
       <c r="B152" s="7"/>
       <c r="C152" s="8"/>
@@ -5876,7 +5362,7 @@
       <c r="K152" s="7"/>
       <c r="L152" s="7"/>
     </row>
-    <row r="153" ht="18" customHeight="1" spans="1:12">
+    <row r="153" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A153" s="7"/>
       <c r="B153" s="7"/>
       <c r="C153" s="8"/>
@@ -5890,7 +5376,7 @@
       <c r="K153" s="7"/>
       <c r="L153" s="7"/>
     </row>
-    <row r="154" ht="18" customHeight="1" spans="1:12">
+    <row r="154" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A154" s="7"/>
       <c r="B154" s="7"/>
       <c r="C154" s="8"/>
@@ -5904,7 +5390,7 @@
       <c r="K154" s="7"/>
       <c r="L154" s="7"/>
     </row>
-    <row r="155" ht="18" customHeight="1" spans="1:12">
+    <row r="155" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A155" s="7"/>
       <c r="B155" s="7"/>
       <c r="C155" s="8"/>
@@ -5918,7 +5404,7 @@
       <c r="K155" s="7"/>
       <c r="L155" s="7"/>
     </row>
-    <row r="156" ht="18" customHeight="1" spans="1:12">
+    <row r="156" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A156" s="7"/>
       <c r="B156" s="7"/>
       <c r="C156" s="8"/>
@@ -5932,7 +5418,7 @@
       <c r="K156" s="7"/>
       <c r="L156" s="7"/>
     </row>
-    <row r="157" ht="18" customHeight="1" spans="1:12">
+    <row r="157" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A157" s="7"/>
       <c r="B157" s="7"/>
       <c r="C157" s="8"/>
@@ -5946,7 +5432,7 @@
       <c r="K157" s="7"/>
       <c r="L157" s="7"/>
     </row>
-    <row r="158" ht="18" customHeight="1" spans="1:12">
+    <row r="158" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A158" s="7"/>
       <c r="B158" s="7"/>
       <c r="C158" s="8"/>
@@ -5960,7 +5446,7 @@
       <c r="K158" s="7"/>
       <c r="L158" s="7"/>
     </row>
-    <row r="159" ht="18" customHeight="1" spans="1:12">
+    <row r="159" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A159" s="7"/>
       <c r="B159" s="7"/>
       <c r="C159" s="8"/>
@@ -5974,7 +5460,7 @@
       <c r="K159" s="7"/>
       <c r="L159" s="7"/>
     </row>
-    <row r="160" ht="18" customHeight="1" spans="1:12">
+    <row r="160" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A160" s="7"/>
       <c r="B160" s="7"/>
       <c r="C160" s="8"/>
@@ -5988,7 +5474,7 @@
       <c r="K160" s="7"/>
       <c r="L160" s="7"/>
     </row>
-    <row r="161" ht="18" customHeight="1" spans="1:12">
+    <row r="161" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A161" s="7"/>
       <c r="B161" s="7"/>
       <c r="C161" s="8"/>
@@ -6002,7 +5488,7 @@
       <c r="K161" s="7"/>
       <c r="L161" s="7"/>
     </row>
-    <row r="162" ht="18" customHeight="1" spans="1:12">
+    <row r="162" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A162" s="7"/>
       <c r="B162" s="7"/>
       <c r="C162" s="8"/>
@@ -6016,7 +5502,7 @@
       <c r="K162" s="7"/>
       <c r="L162" s="7"/>
     </row>
-    <row r="163" ht="18" customHeight="1" spans="1:12">
+    <row r="163" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A163" s="7"/>
       <c r="B163" s="7"/>
       <c r="C163" s="8"/>
@@ -6030,7 +5516,7 @@
       <c r="K163" s="7"/>
       <c r="L163" s="7"/>
     </row>
-    <row r="164" ht="18" customHeight="1" spans="1:12">
+    <row r="164" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A164" s="7"/>
       <c r="B164" s="7"/>
       <c r="C164" s="8"/>
@@ -6044,7 +5530,7 @@
       <c r="K164" s="7"/>
       <c r="L164" s="7"/>
     </row>
-    <row r="165" ht="18" customHeight="1" spans="1:12">
+    <row r="165" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A165" s="7"/>
       <c r="B165" s="7"/>
       <c r="C165" s="8"/>
@@ -6058,7 +5544,7 @@
       <c r="K165" s="7"/>
       <c r="L165" s="7"/>
     </row>
-    <row r="166" ht="18" customHeight="1" spans="1:12">
+    <row r="166" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A166" s="7"/>
       <c r="B166" s="7"/>
       <c r="C166" s="8"/>
@@ -6072,7 +5558,7 @@
       <c r="K166" s="7"/>
       <c r="L166" s="7"/>
     </row>
-    <row r="167" ht="18" customHeight="1" spans="1:12">
+    <row r="167" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A167" s="7"/>
       <c r="B167" s="7"/>
       <c r="C167" s="8"/>
@@ -6086,7 +5572,7 @@
       <c r="K167" s="7"/>
       <c r="L167" s="7"/>
     </row>
-    <row r="168" ht="18" customHeight="1" spans="1:12">
+    <row r="168" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A168" s="7"/>
       <c r="B168" s="7"/>
       <c r="C168" s="8"/>
@@ -6100,7 +5586,7 @@
       <c r="K168" s="7"/>
       <c r="L168" s="7"/>
     </row>
-    <row r="169" ht="18" customHeight="1" spans="1:12">
+    <row r="169" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A169" s="7"/>
       <c r="B169" s="7"/>
       <c r="C169" s="8"/>
@@ -6114,7 +5600,7 @@
       <c r="K169" s="7"/>
       <c r="L169" s="7"/>
     </row>
-    <row r="170" ht="18" customHeight="1" spans="1:12">
+    <row r="170" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A170" s="7"/>
       <c r="B170" s="7"/>
       <c r="C170" s="8"/>
@@ -6128,7 +5614,7 @@
       <c r="K170" s="7"/>
       <c r="L170" s="7"/>
     </row>
-    <row r="171" ht="18" customHeight="1" spans="1:12">
+    <row r="171" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A171" s="7"/>
       <c r="B171" s="7"/>
       <c r="C171" s="8"/>
@@ -6142,7 +5628,7 @@
       <c r="K171" s="7"/>
       <c r="L171" s="7"/>
     </row>
-    <row r="172" ht="18" customHeight="1" spans="1:12">
+    <row r="172" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A172" s="7"/>
       <c r="B172" s="7"/>
       <c r="C172" s="8"/>
@@ -6156,7 +5642,7 @@
       <c r="K172" s="7"/>
       <c r="L172" s="7"/>
     </row>
-    <row r="173" ht="18" customHeight="1" spans="1:12">
+    <row r="173" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A173" s="7"/>
       <c r="B173" s="7"/>
       <c r="C173" s="8"/>
@@ -6170,7 +5656,7 @@
       <c r="K173" s="7"/>
       <c r="L173" s="7"/>
     </row>
-    <row r="174" ht="18" customHeight="1" spans="1:12">
+    <row r="174" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A174" s="7"/>
       <c r="B174" s="7"/>
       <c r="C174" s="8"/>
@@ -6184,7 +5670,7 @@
       <c r="K174" s="7"/>
       <c r="L174" s="7"/>
     </row>
-    <row r="175" ht="18" customHeight="1" spans="1:12">
+    <row r="175" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A175" s="7"/>
       <c r="B175" s="7"/>
       <c r="C175" s="8"/>
@@ -6198,7 +5684,7 @@
       <c r="K175" s="7"/>
       <c r="L175" s="7"/>
     </row>
-    <row r="176" ht="18" customHeight="1" spans="1:12">
+    <row r="176" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A176" s="7"/>
       <c r="B176" s="7"/>
       <c r="C176" s="8"/>
@@ -6212,7 +5698,7 @@
       <c r="K176" s="7"/>
       <c r="L176" s="7"/>
     </row>
-    <row r="177" ht="18" customHeight="1" spans="1:12">
+    <row r="177" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A177" s="7"/>
       <c r="B177" s="7"/>
       <c r="C177" s="8"/>
@@ -6226,7 +5712,7 @@
       <c r="K177" s="7"/>
       <c r="L177" s="7"/>
     </row>
-    <row r="178" ht="18" customHeight="1" spans="1:12">
+    <row r="178" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A178" s="7"/>
       <c r="B178" s="7"/>
       <c r="C178" s="8"/>
@@ -6240,7 +5726,7 @@
       <c r="K178" s="7"/>
       <c r="L178" s="7"/>
     </row>
-    <row r="179" ht="18" customHeight="1" spans="1:12">
+    <row r="179" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A179" s="7"/>
       <c r="B179" s="7"/>
       <c r="C179" s="8"/>
@@ -6254,7 +5740,7 @@
       <c r="K179" s="7"/>
       <c r="L179" s="7"/>
     </row>
-    <row r="180" ht="18" customHeight="1" spans="1:12">
+    <row r="180" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A180" s="7"/>
       <c r="B180" s="7"/>
       <c r="C180" s="8"/>
@@ -6268,52 +5754,62 @@
       <c r="K180" s="7"/>
       <c r="L180" s="7"/>
     </row>
+    <row r="181" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A181" s="7"/>
+      <c r="B181" s="7"/>
+      <c r="C181" s="8"/>
+      <c r="D181" s="7"/>
+      <c r="E181" s="7"/>
+      <c r="F181" s="7"/>
+      <c r="G181" s="7"/>
+      <c r="H181" s="7"/>
+      <c r="I181" s="7"/>
+      <c r="J181" s="7"/>
+      <c r="K181" s="7"/>
+      <c r="L181" s="7"/>
+    </row>
   </sheetData>
+  <phoneticPr fontId="6" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="L109" r:id="rId3" display="https://item.szlcsc.com/87756.html" tooltip="https://item.szlcsc.com/87756.html"/>
-    <hyperlink ref="L110" r:id="rId4" display="https://item.szlcsc.com/136348.html"/>
-    <hyperlink ref="L118" r:id="rId5" display="https://item.szlcsc.com/72964.html"/>
-    <hyperlink ref="L124" r:id="rId6" display="http://item.szlcsc.com/26978.html"/>
-    <hyperlink ref="L120" r:id="rId7" display="https://item.taobao.com/item.htm?spm=a230r.1.14.11.4e3e3b039DZu79&amp;id=530564269635&amp;ns=1&amp;abbucket=5"/>
-    <hyperlink ref="L121" r:id="rId7" display="https://item.taobao.com/item.htm?spm=a230r.1.14.11.4e3e3b039DZu79&amp;id=530564269635&amp;ns=1&amp;abbucket=5"/>
+    <hyperlink ref="L110" r:id="rId1" tooltip="https://item.szlcsc.com/87756.html" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="L111" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="L119" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="L125" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="L121" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="L122" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="L133" r:id="rId7" xr:uid="{2F71F53A-7368-40B2-B848-1257161C0461}"/>
+    <hyperlink ref="L123" r:id="rId8" xr:uid="{FB8DF777-CA81-497F-835B-9BBA0A171FEA}"/>
   </hyperlinks>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
-  <legacyDrawing r:id="rId2"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId9"/>
+  <legacyDrawing r:id="rId10"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="8" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="8" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>